--- a/TS Jatai Working/TTD Krama PaaraayaNam-Kramam.xlsx
+++ b/TS Jatai Working/TTD Krama PaaraayaNam-Kramam.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="30">
   <si>
     <t>Date</t>
   </si>
@@ -77,6 +77,33 @@
   </si>
   <si>
     <t xml:space="preserve">1.2.13.1 </t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=n3EuxpH0ynA&amp;list=PLjhrDIztP9pcSE8dR7xYZb7zwX5SXxNKy&amp;index=2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2.14.7 </t>
+  </si>
+  <si>
+    <t>17 min 31sec</t>
+  </si>
+  <si>
+    <t>1.3.1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3.8.2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3.9.1 </t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Okri3zL90_s&amp;list=PLjhrDIztP9pcSE8dR7xYZb7zwX5SXxNKy&amp;index=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3.14.8 </t>
+  </si>
+  <si>
+    <t>1.4.1.1</t>
   </si>
 </sst>
 </file>
@@ -269,7 +296,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -431,6 +458,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -736,11 +766,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L175"/>
+  <dimension ref="A1:L174"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -918,7 +948,7 @@
       <c r="E8" s="7"/>
       <c r="F8" s="8"/>
       <c r="G8" s="64"/>
-      <c r="H8" s="13"/>
+      <c r="H8" s="14"/>
       <c r="I8" s="17"/>
       <c r="J8" s="17"/>
       <c r="K8" s="17"/>
@@ -940,9 +970,15 @@
       <c r="E9" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="48"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="12"/>
+      <c r="F9" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="60" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="65" t="s">
+        <v>21</v>
+      </c>
       <c r="I9" s="17"/>
       <c r="J9" s="17"/>
       <c r="K9" s="17"/>
@@ -950,13 +986,27 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="39"/>
-      <c r="B10" s="42"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="46"/>
-      <c r="G10" s="46"/>
-      <c r="H10" s="14"/>
+      <c r="B10" s="42">
+        <v>44448</v>
+      </c>
+      <c r="C10" s="44">
+        <v>1</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="61" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="66" t="s">
+        <v>21</v>
+      </c>
       <c r="I10" s="17"/>
       <c r="J10" s="17"/>
       <c r="K10" s="17"/>
@@ -968,819 +1018,841 @@
       <c r="C11" s="43"/>
       <c r="D11" s="8"/>
       <c r="E11" s="7"/>
-      <c r="F11" s="47"/>
-      <c r="G11" s="47"/>
-      <c r="H11" s="13"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="62"/>
+      <c r="H11" s="67"/>
       <c r="I11" s="17"/>
       <c r="J11" s="17"/>
       <c r="K11" s="17"/>
       <c r="L11" s="17"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="37"/>
-      <c r="B12" s="40"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="12"/>
+      <c r="A12" s="37">
+        <v>4</v>
+      </c>
+      <c r="B12" s="40">
+        <v>44449</v>
+      </c>
+      <c r="C12" s="45">
+        <v>2</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="63" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>27</v>
+      </c>
       <c r="I12" s="17"/>
       <c r="J12" s="17"/>
       <c r="K12" s="17"/>
       <c r="L12" s="17"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="39"/>
-      <c r="B13" s="42"/>
-      <c r="C13" s="44"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="14"/>
+      <c r="A13" s="38"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="13"/>
       <c r="I13" s="17"/>
       <c r="J13" s="17"/>
       <c r="K13" s="17"/>
       <c r="L13" s="17"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="38"/>
-      <c r="B14" s="41"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="13"/>
+      <c r="A14" s="37">
+        <v>5</v>
+      </c>
+      <c r="B14" s="40">
+        <v>44450</v>
+      </c>
+      <c r="C14" s="45">
+        <v>1</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="48"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="12"/>
       <c r="I14" s="17"/>
       <c r="J14" s="17"/>
       <c r="K14" s="17"/>
       <c r="L14" s="17"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="37"/>
-      <c r="B15" s="40"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="54"/>
-      <c r="H15" s="12"/>
+      <c r="A15" s="39"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="14"/>
       <c r="I15" s="17"/>
       <c r="J15" s="17"/>
       <c r="K15" s="17"/>
       <c r="L15" s="17"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="39"/>
-      <c r="B16" s="42"/>
-      <c r="C16" s="44"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="14"/>
+      <c r="A16" s="38"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="55"/>
+      <c r="H16" s="13"/>
       <c r="I16" s="17"/>
       <c r="J16" s="17"/>
       <c r="K16" s="17"/>
       <c r="L16" s="17"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="38"/>
-      <c r="B17" s="41"/>
-      <c r="C17" s="43"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="55"/>
-      <c r="H17" s="13"/>
+      <c r="A17" s="37"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="48"/>
+      <c r="H17" s="12"/>
       <c r="I17" s="17"/>
       <c r="J17" s="17"/>
       <c r="K17" s="17"/>
       <c r="L17" s="17"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="37"/>
-      <c r="B18" s="40"/>
-      <c r="C18" s="45"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="48"/>
-      <c r="G18" s="48"/>
-      <c r="H18" s="12"/>
+      <c r="A18" s="39"/>
+      <c r="B18" s="42"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="14"/>
       <c r="I18" s="17"/>
       <c r="J18" s="17"/>
       <c r="K18" s="17"/>
       <c r="L18" s="17"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="39"/>
-      <c r="B19" s="42"/>
-      <c r="C19" s="44"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="46"/>
-      <c r="G19" s="46"/>
-      <c r="H19" s="14"/>
+      <c r="A19" s="38"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="13"/>
       <c r="I19" s="17"/>
       <c r="J19" s="17"/>
       <c r="K19" s="17"/>
       <c r="L19" s="17"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="38"/>
-      <c r="B20" s="41"/>
-      <c r="C20" s="43"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="43"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="17"/>
+      <c r="A20" s="37"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="48"/>
+      <c r="H20" s="12"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="37"/>
-      <c r="B21" s="40"/>
-      <c r="C21" s="45"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="48"/>
-      <c r="G21" s="48"/>
-      <c r="H21" s="12"/>
+      <c r="A21" s="39"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="14"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="39"/>
-      <c r="B22" s="42"/>
-      <c r="C22" s="44"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="46"/>
-      <c r="G22" s="46"/>
-      <c r="H22" s="14"/>
+      <c r="A22" s="38"/>
+      <c r="B22" s="43"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="49"/>
+      <c r="G22" s="43"/>
+      <c r="H22" s="13"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="38"/>
-      <c r="B23" s="43"/>
-      <c r="C23" s="43"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="49"/>
-      <c r="G23" s="43"/>
-      <c r="H23" s="13"/>
+      <c r="A23" s="37"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="48"/>
+      <c r="G23" s="48"/>
+      <c r="H23" s="12"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="37"/>
-      <c r="B24" s="40"/>
-      <c r="C24" s="45"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="48"/>
-      <c r="G24" s="48"/>
-      <c r="H24" s="12"/>
+      <c r="A24" s="39"/>
+      <c r="B24" s="42"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="14"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="39"/>
-      <c r="B25" s="42"/>
-      <c r="C25" s="44"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="46"/>
-      <c r="G25" s="46"/>
-      <c r="H25" s="14"/>
+      <c r="A25" s="38"/>
+      <c r="B25" s="43"/>
+      <c r="C25" s="43"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="49"/>
+      <c r="G25" s="43"/>
+      <c r="H25" s="13"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="38"/>
-      <c r="B26" s="43"/>
-      <c r="C26" s="43"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="49"/>
-      <c r="G26" s="43"/>
-      <c r="H26" s="13"/>
+      <c r="A26" s="37"/>
+      <c r="B26" s="40"/>
+      <c r="C26" s="45"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="48"/>
+      <c r="G26" s="48"/>
+      <c r="H26" s="12"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="37"/>
-      <c r="B27" s="40"/>
-      <c r="C27" s="45"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="48"/>
-      <c r="G27" s="48"/>
-      <c r="H27" s="12"/>
+      <c r="A27" s="38"/>
+      <c r="B27" s="43"/>
+      <c r="C27" s="43"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="49"/>
+      <c r="G27" s="43"/>
+      <c r="H27" s="13"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="38"/>
-      <c r="B28" s="43"/>
-      <c r="C28" s="43"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="49"/>
-      <c r="G28" s="43"/>
-      <c r="H28" s="13"/>
+      <c r="A28" s="37"/>
+      <c r="B28" s="40"/>
+      <c r="C28" s="45"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="48"/>
+      <c r="G28" s="48"/>
+      <c r="H28" s="12"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="37"/>
-      <c r="B29" s="40"/>
-      <c r="C29" s="45"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="48"/>
-      <c r="G29" s="48"/>
-      <c r="H29" s="12"/>
+      <c r="A29" s="39"/>
+      <c r="B29" s="42"/>
+      <c r="C29" s="44"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="46"/>
+      <c r="G29" s="46"/>
+      <c r="H29" s="14"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="39"/>
-      <c r="B30" s="42"/>
-      <c r="C30" s="44"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="46"/>
-      <c r="G30" s="46"/>
-      <c r="H30" s="14"/>
+      <c r="A30" s="38"/>
+      <c r="B30" s="43"/>
+      <c r="C30" s="43"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="49"/>
+      <c r="G30" s="43"/>
+      <c r="H30" s="13"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="38"/>
-      <c r="B31" s="43"/>
-      <c r="C31" s="43"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="49"/>
-      <c r="G31" s="43"/>
-      <c r="H31" s="13"/>
+      <c r="A31" s="37"/>
+      <c r="B31" s="40"/>
+      <c r="C31" s="45"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="48"/>
+      <c r="G31" s="48"/>
+      <c r="H31" s="28"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="37"/>
-      <c r="B32" s="40"/>
-      <c r="C32" s="45"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="48"/>
-      <c r="G32" s="48"/>
-      <c r="H32" s="28"/>
+      <c r="A32" s="39"/>
+      <c r="B32" s="42"/>
+      <c r="C32" s="44"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="46"/>
+      <c r="G32" s="46"/>
+      <c r="H32" s="29"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="39"/>
-      <c r="B33" s="42"/>
-      <c r="C33" s="44"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="46"/>
-      <c r="G33" s="46"/>
-      <c r="H33" s="29"/>
+      <c r="A33" s="38"/>
+      <c r="B33" s="43"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="49"/>
+      <c r="G33" s="43"/>
+      <c r="H33" s="13"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="38"/>
-      <c r="B34" s="43"/>
-      <c r="C34" s="43"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="27"/>
-      <c r="F34" s="49"/>
-      <c r="G34" s="43"/>
-      <c r="H34" s="13"/>
+      <c r="A34" s="37"/>
+      <c r="B34" s="40"/>
+      <c r="C34" s="45"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="48"/>
+      <c r="G34" s="48"/>
+      <c r="H34" s="12"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="37"/>
-      <c r="B35" s="40"/>
-      <c r="C35" s="45"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="48"/>
-      <c r="G35" s="48"/>
-      <c r="H35" s="12"/>
+      <c r="A35" s="38"/>
+      <c r="B35" s="41"/>
+      <c r="C35" s="43"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="47"/>
+      <c r="G35" s="43"/>
+      <c r="H35" s="13"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="38"/>
-      <c r="B36" s="41"/>
-      <c r="C36" s="43"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="47"/>
-      <c r="G36" s="43"/>
-      <c r="H36" s="13"/>
+      <c r="A36" s="37"/>
+      <c r="B36" s="40"/>
+      <c r="C36" s="45"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="48"/>
+      <c r="G36" s="48"/>
+      <c r="H36" s="12"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="37"/>
-      <c r="B37" s="40"/>
-      <c r="C37" s="45"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="48"/>
-      <c r="G37" s="48"/>
-      <c r="H37" s="12"/>
+      <c r="A37" s="39"/>
+      <c r="B37" s="42"/>
+      <c r="C37" s="44"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="46"/>
+      <c r="G37" s="46"/>
+      <c r="H37" s="14"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="39"/>
-      <c r="B38" s="42"/>
-      <c r="C38" s="44"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="46"/>
-      <c r="G38" s="46"/>
-      <c r="H38" s="14"/>
+      <c r="A38" s="38"/>
+      <c r="B38" s="43"/>
+      <c r="C38" s="43"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="27"/>
+      <c r="F38" s="49"/>
+      <c r="G38" s="43"/>
+      <c r="H38" s="13"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="38"/>
-      <c r="B39" s="43"/>
-      <c r="C39" s="43"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="27"/>
-      <c r="F39" s="49"/>
-      <c r="G39" s="43"/>
-      <c r="H39" s="13"/>
+      <c r="A39" s="37"/>
+      <c r="B39" s="40"/>
+      <c r="C39" s="45"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="48"/>
+      <c r="G39" s="48"/>
+      <c r="H39" s="12"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="37"/>
-      <c r="B40" s="40"/>
-      <c r="C40" s="45"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="48"/>
-      <c r="G40" s="48"/>
-      <c r="H40" s="12"/>
+      <c r="A40" s="38"/>
+      <c r="B40" s="43"/>
+      <c r="C40" s="43"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="27"/>
+      <c r="F40" s="49"/>
+      <c r="G40" s="43"/>
+      <c r="H40" s="13"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="38"/>
-      <c r="B41" s="43"/>
-      <c r="C41" s="43"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="27"/>
-      <c r="F41" s="49"/>
-      <c r="G41" s="43"/>
-      <c r="H41" s="13"/>
+      <c r="A41" s="37"/>
+      <c r="B41" s="40"/>
+      <c r="C41" s="45"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="48"/>
+      <c r="G41" s="48"/>
+      <c r="H41" s="12"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="37"/>
-      <c r="B42" s="40"/>
-      <c r="C42" s="45"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="48"/>
-      <c r="G42" s="48"/>
-      <c r="H42" s="12"/>
+      <c r="A42" s="39"/>
+      <c r="B42" s="42"/>
+      <c r="C42" s="44"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="46"/>
+      <c r="G42" s="46"/>
+      <c r="H42" s="14"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="39"/>
-      <c r="B43" s="42"/>
-      <c r="C43" s="44"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="46"/>
-      <c r="G43" s="46"/>
-      <c r="H43" s="14"/>
+      <c r="A43" s="38"/>
+      <c r="B43" s="43"/>
+      <c r="C43" s="43"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="27"/>
+      <c r="F43" s="49"/>
+      <c r="G43" s="43"/>
+      <c r="H43" s="13"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="38"/>
-      <c r="B44" s="43"/>
-      <c r="C44" s="43"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="27"/>
-      <c r="F44" s="49"/>
-      <c r="G44" s="43"/>
-      <c r="H44" s="13"/>
+      <c r="A44" s="37"/>
+      <c r="B44" s="40"/>
+      <c r="C44" s="45"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="48"/>
+      <c r="G44" s="48"/>
+      <c r="H44" s="12"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="37"/>
-      <c r="B45" s="40"/>
-      <c r="C45" s="45"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="48"/>
-      <c r="G45" s="48"/>
-      <c r="H45" s="12"/>
+      <c r="A45" s="39"/>
+      <c r="B45" s="42"/>
+      <c r="C45" s="44"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="46"/>
+      <c r="G45" s="46"/>
+      <c r="H45" s="14"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="39"/>
-      <c r="B46" s="42"/>
-      <c r="C46" s="44"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="46"/>
-      <c r="G46" s="46"/>
-      <c r="H46" s="14"/>
+      <c r="A46" s="38"/>
+      <c r="B46" s="43"/>
+      <c r="C46" s="43"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="27"/>
+      <c r="F46" s="49"/>
+      <c r="G46" s="43"/>
+      <c r="H46" s="13"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="38"/>
-      <c r="B47" s="43"/>
-      <c r="C47" s="43"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="27"/>
-      <c r="F47" s="49"/>
-      <c r="G47" s="43"/>
-      <c r="H47" s="13"/>
+      <c r="A47" s="37"/>
+      <c r="B47" s="40"/>
+      <c r="C47" s="45"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="48"/>
+      <c r="G47" s="48"/>
+      <c r="H47" s="23"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="37"/>
-      <c r="B48" s="40"/>
-      <c r="C48" s="45"/>
-      <c r="D48" s="10"/>
-      <c r="E48" s="11"/>
-      <c r="F48" s="48"/>
-      <c r="G48" s="48"/>
-      <c r="H48" s="23"/>
+      <c r="A48" s="38"/>
+      <c r="B48" s="43"/>
+      <c r="C48" s="43"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="27"/>
+      <c r="F48" s="49"/>
+      <c r="G48" s="43"/>
+      <c r="H48" s="13"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="38"/>
-      <c r="B49" s="43"/>
-      <c r="C49" s="43"/>
-      <c r="D49" s="6"/>
-      <c r="E49" s="27"/>
-      <c r="F49" s="49"/>
-      <c r="G49" s="43"/>
-      <c r="H49" s="13"/>
+      <c r="A49" s="37"/>
+      <c r="B49" s="40"/>
+      <c r="C49" s="45"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="48"/>
+      <c r="G49" s="48"/>
+      <c r="H49" s="23"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="37"/>
-      <c r="B50" s="40"/>
-      <c r="C50" s="45"/>
-      <c r="D50" s="10"/>
-      <c r="E50" s="11"/>
-      <c r="F50" s="48"/>
-      <c r="G50" s="48"/>
-      <c r="H50" s="23"/>
+      <c r="A50" s="39"/>
+      <c r="B50" s="42"/>
+      <c r="C50" s="44"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="46"/>
+      <c r="G50" s="46"/>
+      <c r="H50" s="5"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="39"/>
-      <c r="B51" s="42"/>
-      <c r="C51" s="44"/>
-      <c r="D51" s="4"/>
-      <c r="E51" s="3"/>
-      <c r="F51" s="46"/>
-      <c r="G51" s="46"/>
-      <c r="H51" s="5"/>
+      <c r="A51" s="38"/>
+      <c r="B51" s="43"/>
+      <c r="C51" s="43"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="27"/>
+      <c r="F51" s="49"/>
+      <c r="G51" s="43"/>
+      <c r="H51" s="13"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="38"/>
-      <c r="B52" s="43"/>
-      <c r="C52" s="43"/>
-      <c r="D52" s="6"/>
-      <c r="E52" s="27"/>
-      <c r="F52" s="49"/>
-      <c r="G52" s="43"/>
-      <c r="H52" s="13"/>
+      <c r="A52" s="37"/>
+      <c r="B52" s="40"/>
+      <c r="C52" s="45"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="48"/>
+      <c r="G52" s="48"/>
+      <c r="H52" s="12"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="37"/>
-      <c r="B53" s="40"/>
-      <c r="C53" s="45"/>
-      <c r="D53" s="10"/>
-      <c r="E53" s="11"/>
-      <c r="F53" s="48"/>
-      <c r="G53" s="48"/>
-      <c r="H53" s="12"/>
+      <c r="A53" s="38"/>
+      <c r="B53" s="43"/>
+      <c r="C53" s="43"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="27"/>
+      <c r="F53" s="49"/>
+      <c r="G53" s="43"/>
+      <c r="H53" s="13"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="38"/>
-      <c r="B54" s="43"/>
-      <c r="C54" s="43"/>
-      <c r="D54" s="6"/>
-      <c r="E54" s="27"/>
-      <c r="F54" s="49"/>
-      <c r="G54" s="43"/>
-      <c r="H54" s="13"/>
+      <c r="A54" s="37"/>
+      <c r="B54" s="40"/>
+      <c r="C54" s="45"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="48"/>
+      <c r="G54" s="48"/>
+      <c r="H54" s="12"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="37"/>
-      <c r="B55" s="40"/>
-      <c r="C55" s="45"/>
-      <c r="D55" s="10"/>
-      <c r="E55" s="11"/>
-      <c r="F55" s="48"/>
-      <c r="G55" s="48"/>
-      <c r="H55" s="12"/>
+      <c r="A55" s="39"/>
+      <c r="B55" s="42"/>
+      <c r="C55" s="44"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="46"/>
+      <c r="G55" s="46"/>
+      <c r="H55" s="14"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="39"/>
-      <c r="B56" s="42"/>
-      <c r="C56" s="44"/>
-      <c r="D56" s="4"/>
-      <c r="E56" s="3"/>
-      <c r="F56" s="46"/>
-      <c r="G56" s="46"/>
-      <c r="H56" s="14"/>
+      <c r="A56" s="38"/>
+      <c r="B56" s="43"/>
+      <c r="C56" s="43"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="27"/>
+      <c r="F56" s="49"/>
+      <c r="G56" s="43"/>
+      <c r="H56" s="13"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="38"/>
-      <c r="B57" s="43"/>
-      <c r="C57" s="43"/>
-      <c r="D57" s="6"/>
-      <c r="E57" s="27"/>
-      <c r="F57" s="49"/>
-      <c r="G57" s="43"/>
-      <c r="H57" s="13"/>
+      <c r="A57" s="37"/>
+      <c r="B57" s="40"/>
+      <c r="C57" s="45"/>
+      <c r="D57" s="10"/>
+      <c r="E57" s="11"/>
+      <c r="F57" s="48"/>
+      <c r="G57" s="48"/>
+      <c r="H57" s="12"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="37"/>
-      <c r="B58" s="40"/>
-      <c r="C58" s="45"/>
-      <c r="D58" s="10"/>
-      <c r="E58" s="11"/>
-      <c r="F58" s="48"/>
-      <c r="G58" s="48"/>
-      <c r="H58" s="12"/>
+      <c r="A58" s="39"/>
+      <c r="B58" s="42"/>
+      <c r="C58" s="44"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="46"/>
+      <c r="G58" s="46"/>
+      <c r="H58" s="14"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="39"/>
-      <c r="B59" s="42"/>
-      <c r="C59" s="44"/>
-      <c r="D59" s="4"/>
-      <c r="E59" s="3"/>
-      <c r="F59" s="46"/>
-      <c r="G59" s="46"/>
-      <c r="H59" s="14"/>
+      <c r="A59" s="38"/>
+      <c r="B59" s="43"/>
+      <c r="C59" s="43"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="27"/>
+      <c r="F59" s="49"/>
+      <c r="G59" s="43"/>
+      <c r="H59" s="13"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="38"/>
-      <c r="B60" s="43"/>
-      <c r="C60" s="43"/>
-      <c r="D60" s="6"/>
-      <c r="E60" s="27"/>
-      <c r="F60" s="49"/>
-      <c r="G60" s="43"/>
-      <c r="H60" s="13"/>
+      <c r="A60" s="37"/>
+      <c r="B60" s="40"/>
+      <c r="C60" s="45"/>
+      <c r="D60" s="10"/>
+      <c r="E60" s="11"/>
+      <c r="F60" s="48"/>
+      <c r="G60" s="48"/>
+      <c r="H60" s="12"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="37"/>
-      <c r="B61" s="40"/>
-      <c r="C61" s="45"/>
-      <c r="D61" s="10"/>
-      <c r="E61" s="11"/>
-      <c r="F61" s="48"/>
-      <c r="G61" s="48"/>
-      <c r="H61" s="12"/>
+      <c r="A61" s="39"/>
+      <c r="B61" s="42"/>
+      <c r="C61" s="44"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="46"/>
+      <c r="G61" s="46"/>
+      <c r="H61" s="14"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="39"/>
-      <c r="B62" s="42"/>
-      <c r="C62" s="44"/>
-      <c r="D62" s="4"/>
-      <c r="E62" s="3"/>
-      <c r="F62" s="46"/>
-      <c r="G62" s="46"/>
-      <c r="H62" s="14"/>
+      <c r="A62" s="38"/>
+      <c r="B62" s="43"/>
+      <c r="C62" s="43"/>
+      <c r="D62" s="6"/>
+      <c r="E62" s="27"/>
+      <c r="F62" s="49"/>
+      <c r="G62" s="43"/>
+      <c r="H62" s="13"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="38"/>
-      <c r="B63" s="43"/>
-      <c r="C63" s="43"/>
-      <c r="D63" s="6"/>
-      <c r="E63" s="27"/>
-      <c r="F63" s="49"/>
-      <c r="G63" s="43"/>
-      <c r="H63" s="13"/>
+      <c r="A63" s="37"/>
+      <c r="B63" s="40"/>
+      <c r="C63" s="45"/>
+      <c r="D63" s="10"/>
+      <c r="E63" s="11"/>
+      <c r="F63" s="48"/>
+      <c r="G63" s="48"/>
+      <c r="H63" s="12"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="37"/>
-      <c r="B64" s="40"/>
-      <c r="C64" s="45"/>
-      <c r="D64" s="10"/>
-      <c r="E64" s="11"/>
-      <c r="F64" s="48"/>
-      <c r="G64" s="48"/>
-      <c r="H64" s="12"/>
+      <c r="A64" s="38"/>
+      <c r="B64" s="43"/>
+      <c r="C64" s="43"/>
+      <c r="D64" s="6"/>
+      <c r="E64" s="27"/>
+      <c r="F64" s="49"/>
+      <c r="G64" s="43"/>
+      <c r="H64" s="13"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="38"/>
-      <c r="B65" s="43"/>
-      <c r="C65" s="43"/>
-      <c r="D65" s="6"/>
-      <c r="E65" s="27"/>
-      <c r="F65" s="49"/>
-      <c r="G65" s="43"/>
-      <c r="H65" s="13"/>
+      <c r="A65" s="37"/>
+      <c r="B65" s="40"/>
+      <c r="C65" s="45"/>
+      <c r="D65" s="10"/>
+      <c r="E65" s="11"/>
+      <c r="F65" s="48"/>
+      <c r="G65" s="48"/>
+      <c r="H65" s="12"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="37"/>
-      <c r="B66" s="40"/>
-      <c r="C66" s="45"/>
-      <c r="D66" s="10"/>
-      <c r="E66" s="11"/>
-      <c r="F66" s="48"/>
-      <c r="G66" s="48"/>
-      <c r="H66" s="12"/>
+      <c r="A66" s="39"/>
+      <c r="B66" s="42"/>
+      <c r="C66" s="44"/>
+      <c r="D66" s="4"/>
+      <c r="E66" s="3"/>
+      <c r="F66" s="46"/>
+      <c r="G66" s="46"/>
+      <c r="H66" s="14"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="39"/>
-      <c r="B67" s="42"/>
-      <c r="C67" s="44"/>
-      <c r="D67" s="4"/>
-      <c r="E67" s="3"/>
-      <c r="F67" s="46"/>
-      <c r="G67" s="46"/>
-      <c r="H67" s="14"/>
+      <c r="A67" s="38"/>
+      <c r="B67" s="43"/>
+      <c r="C67" s="43"/>
+      <c r="D67" s="6"/>
+      <c r="E67" s="27"/>
+      <c r="F67" s="49"/>
+      <c r="G67" s="43"/>
+      <c r="H67" s="13"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="38"/>
-      <c r="B68" s="43"/>
-      <c r="C68" s="43"/>
-      <c r="D68" s="6"/>
-      <c r="E68" s="27"/>
-      <c r="F68" s="49"/>
-      <c r="G68" s="43"/>
-      <c r="H68" s="13"/>
+      <c r="A68" s="37"/>
+      <c r="B68" s="40"/>
+      <c r="C68" s="45"/>
+      <c r="D68" s="10"/>
+      <c r="E68" s="11"/>
+      <c r="F68" s="48"/>
+      <c r="G68" s="48"/>
+      <c r="H68" s="12"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="37"/>
-      <c r="B69" s="40"/>
-      <c r="C69" s="45"/>
-      <c r="D69" s="10"/>
-      <c r="E69" s="11"/>
-      <c r="F69" s="48"/>
-      <c r="G69" s="48"/>
-      <c r="H69" s="12"/>
+      <c r="A69" s="39"/>
+      <c r="B69" s="42"/>
+      <c r="C69" s="44"/>
+      <c r="D69" s="4"/>
+      <c r="E69" s="3"/>
+      <c r="F69" s="46"/>
+      <c r="G69" s="46"/>
+      <c r="H69" s="14"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="39"/>
-      <c r="B70" s="42"/>
-      <c r="C70" s="44"/>
-      <c r="D70" s="4"/>
-      <c r="E70" s="3"/>
-      <c r="F70" s="46"/>
-      <c r="G70" s="46"/>
-      <c r="H70" s="14"/>
+      <c r="A70" s="38"/>
+      <c r="B70" s="43"/>
+      <c r="C70" s="43"/>
+      <c r="D70" s="6"/>
+      <c r="E70" s="27"/>
+      <c r="F70" s="49"/>
+      <c r="G70" s="43"/>
+      <c r="H70" s="13"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="38"/>
-      <c r="B71" s="43"/>
-      <c r="C71" s="43"/>
-      <c r="D71" s="6"/>
-      <c r="E71" s="27"/>
-      <c r="F71" s="49"/>
-      <c r="G71" s="43"/>
-      <c r="H71" s="13"/>
+      <c r="A71" s="37"/>
+      <c r="B71" s="40"/>
+      <c r="C71" s="45"/>
+      <c r="D71" s="10"/>
+      <c r="E71" s="11"/>
+      <c r="F71" s="48"/>
+      <c r="G71" s="48"/>
+      <c r="H71" s="12"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="37"/>
-      <c r="B72" s="40"/>
-      <c r="C72" s="45"/>
-      <c r="D72" s="10"/>
-      <c r="E72" s="11"/>
-      <c r="F72" s="48"/>
-      <c r="G72" s="48"/>
-      <c r="H72" s="12"/>
+      <c r="A72" s="39"/>
+      <c r="B72" s="42"/>
+      <c r="C72" s="44"/>
+      <c r="D72" s="4"/>
+      <c r="E72" s="3"/>
+      <c r="F72" s="46"/>
+      <c r="G72" s="46"/>
+      <c r="H72" s="14"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="39"/>
-      <c r="B73" s="42"/>
-      <c r="C73" s="44"/>
-      <c r="D73" s="4"/>
-      <c r="E73" s="3"/>
-      <c r="F73" s="46"/>
-      <c r="G73" s="46"/>
-      <c r="H73" s="14"/>
+      <c r="A73" s="38"/>
+      <c r="B73" s="43"/>
+      <c r="C73" s="43"/>
+      <c r="D73" s="6"/>
+      <c r="E73" s="27"/>
+      <c r="F73" s="49"/>
+      <c r="G73" s="43"/>
+      <c r="H73" s="13"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="38"/>
-      <c r="B74" s="43"/>
-      <c r="C74" s="43"/>
-      <c r="D74" s="6"/>
-      <c r="E74" s="27"/>
-      <c r="F74" s="49"/>
-      <c r="G74" s="43"/>
-      <c r="H74" s="13"/>
+      <c r="A74" s="37"/>
+      <c r="B74" s="40"/>
+      <c r="C74" s="45"/>
+      <c r="D74" s="10"/>
+      <c r="E74" s="11"/>
+      <c r="F74" s="48"/>
+      <c r="G74" s="48"/>
+      <c r="H74" s="12"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="37"/>
-      <c r="B75" s="40"/>
-      <c r="C75" s="45"/>
-      <c r="D75" s="10"/>
-      <c r="E75" s="11"/>
-      <c r="F75" s="48"/>
-      <c r="G75" s="48"/>
-      <c r="H75" s="12"/>
+      <c r="A75" s="38"/>
+      <c r="B75" s="43"/>
+      <c r="C75" s="43"/>
+      <c r="D75" s="6"/>
+      <c r="E75" s="27"/>
+      <c r="F75" s="49"/>
+      <c r="G75" s="43"/>
+      <c r="H75" s="13"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" s="38"/>
-      <c r="B76" s="43"/>
-      <c r="C76" s="43"/>
-      <c r="D76" s="6"/>
-      <c r="E76" s="27"/>
-      <c r="F76" s="49"/>
-      <c r="G76" s="43"/>
-      <c r="H76" s="13"/>
+      <c r="A76" s="37"/>
+      <c r="B76" s="40"/>
+      <c r="C76" s="45"/>
+      <c r="D76" s="10"/>
+      <c r="E76" s="11"/>
+      <c r="F76" s="48"/>
+      <c r="G76" s="48"/>
+      <c r="H76" s="12"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77" s="37"/>
-      <c r="B77" s="40"/>
-      <c r="C77" s="45"/>
-      <c r="D77" s="10"/>
-      <c r="E77" s="11"/>
-      <c r="F77" s="48"/>
-      <c r="G77" s="48"/>
-      <c r="H77" s="12"/>
+      <c r="A77" s="39"/>
+      <c r="B77" s="42"/>
+      <c r="C77" s="44"/>
+      <c r="D77" s="4"/>
+      <c r="E77" s="3"/>
+      <c r="F77" s="46"/>
+      <c r="G77" s="46"/>
+      <c r="H77" s="14"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" s="39"/>
-      <c r="B78" s="42"/>
-      <c r="C78" s="44"/>
-      <c r="D78" s="4"/>
-      <c r="E78" s="3"/>
-      <c r="F78" s="46"/>
-      <c r="G78" s="46"/>
-      <c r="H78" s="14"/>
+      <c r="A78" s="38"/>
+      <c r="B78" s="43"/>
+      <c r="C78" s="43"/>
+      <c r="D78" s="6"/>
+      <c r="E78" s="27"/>
+      <c r="F78" s="49"/>
+      <c r="G78" s="43"/>
+      <c r="H78" s="13"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" s="38"/>
-      <c r="B79" s="43"/>
-      <c r="C79" s="43"/>
-      <c r="D79" s="6"/>
-      <c r="E79" s="27"/>
-      <c r="F79" s="49"/>
-      <c r="G79" s="43"/>
-      <c r="H79" s="13"/>
+      <c r="A79" s="37"/>
+      <c r="B79" s="40"/>
+      <c r="C79" s="45"/>
+      <c r="D79" s="10"/>
+      <c r="E79" s="11"/>
+      <c r="F79" s="48"/>
+      <c r="G79" s="48"/>
+      <c r="H79" s="12"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80" s="37"/>
-      <c r="B80" s="40"/>
-      <c r="C80" s="45"/>
-      <c r="D80" s="10"/>
-      <c r="E80" s="11"/>
-      <c r="F80" s="48"/>
-      <c r="G80" s="48"/>
-      <c r="H80" s="12"/>
+      <c r="A80" s="39"/>
+      <c r="B80" s="42"/>
+      <c r="C80" s="44"/>
+      <c r="D80" s="4"/>
+      <c r="E80" s="3"/>
+      <c r="F80" s="46"/>
+      <c r="G80" s="46"/>
+      <c r="H80" s="14"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81" s="39"/>
-      <c r="B81" s="42"/>
-      <c r="C81" s="44"/>
-      <c r="D81" s="4"/>
-      <c r="E81" s="3"/>
-      <c r="F81" s="46"/>
-      <c r="G81" s="46"/>
-      <c r="H81" s="14"/>
+      <c r="A81" s="38"/>
+      <c r="B81" s="43"/>
+      <c r="C81" s="43"/>
+      <c r="D81" s="6"/>
+      <c r="E81" s="27"/>
+      <c r="F81" s="49"/>
+      <c r="G81" s="43"/>
+      <c r="H81" s="13"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" s="38"/>
-      <c r="B82" s="43"/>
-      <c r="C82" s="43"/>
-      <c r="D82" s="6"/>
-      <c r="E82" s="27"/>
-      <c r="F82" s="49"/>
-      <c r="G82" s="43"/>
-      <c r="H82" s="13"/>
+      <c r="A82" s="37"/>
+      <c r="B82" s="40"/>
+      <c r="C82" s="45"/>
+      <c r="D82" s="10"/>
+      <c r="E82" s="11"/>
+      <c r="F82" s="48"/>
+      <c r="G82" s="48"/>
+      <c r="H82" s="12"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A83" s="37"/>
-      <c r="B83" s="40"/>
-      <c r="C83" s="45"/>
-      <c r="D83" s="10"/>
-      <c r="E83" s="11"/>
-      <c r="F83" s="48"/>
-      <c r="G83" s="48"/>
-      <c r="H83" s="12"/>
+      <c r="A83" s="39"/>
+      <c r="B83" s="42"/>
+      <c r="C83" s="44"/>
+      <c r="D83" s="4"/>
+      <c r="E83" s="3"/>
+      <c r="F83" s="46"/>
+      <c r="G83" s="46"/>
+      <c r="H83" s="14"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84" s="39"/>
-      <c r="B84" s="42"/>
-      <c r="C84" s="44"/>
-      <c r="D84" s="4"/>
-      <c r="E84" s="3"/>
-      <c r="F84" s="46"/>
-      <c r="G84" s="46"/>
-      <c r="H84" s="14"/>
+      <c r="A84" s="38"/>
+      <c r="B84" s="43"/>
+      <c r="C84" s="43"/>
+      <c r="D84" s="6"/>
+      <c r="E84" s="27"/>
+      <c r="F84" s="49"/>
+      <c r="G84" s="43"/>
+      <c r="H84" s="13"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85" s="38"/>
-      <c r="B85" s="43"/>
-      <c r="C85" s="43"/>
-      <c r="D85" s="6"/>
-      <c r="E85" s="27"/>
-      <c r="F85" s="49"/>
-      <c r="G85" s="43"/>
-      <c r="H85" s="13"/>
+      <c r="A85" s="37"/>
+      <c r="B85" s="40"/>
+      <c r="C85" s="45"/>
+      <c r="D85" s="10"/>
+      <c r="E85" s="11"/>
+      <c r="F85" s="48"/>
+      <c r="G85" s="48"/>
+      <c r="H85" s="12"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86" s="37"/>
-      <c r="B86" s="40"/>
-      <c r="C86" s="45"/>
-      <c r="D86" s="10"/>
-      <c r="E86" s="11"/>
-      <c r="F86" s="48"/>
-      <c r="G86" s="48"/>
-      <c r="H86" s="12"/>
+      <c r="A86" s="38"/>
+      <c r="B86" s="43"/>
+      <c r="C86" s="43"/>
+      <c r="D86" s="6"/>
+      <c r="E86" s="27"/>
+      <c r="F86" s="49"/>
+      <c r="G86" s="43"/>
+      <c r="H86" s="13"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A87" s="38"/>
-      <c r="B87" s="43"/>
-      <c r="C87" s="43"/>
-      <c r="D87" s="6"/>
-      <c r="E87" s="27"/>
-      <c r="F87" s="49"/>
-      <c r="G87" s="43"/>
-      <c r="H87" s="13"/>
+      <c r="A87" s="37"/>
+      <c r="B87" s="40"/>
+      <c r="C87" s="45"/>
+      <c r="D87" s="10"/>
+      <c r="E87" s="11"/>
+      <c r="F87" s="48"/>
+      <c r="G87" s="48"/>
+      <c r="H87" s="12"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88" s="37"/>
-      <c r="B88" s="40"/>
-      <c r="C88" s="45"/>
-      <c r="D88" s="10"/>
-      <c r="E88" s="11"/>
-      <c r="F88" s="48"/>
-      <c r="G88" s="48"/>
-      <c r="H88" s="12"/>
+      <c r="A88" s="39"/>
+      <c r="B88" s="42"/>
+      <c r="C88" s="44"/>
+      <c r="D88" s="4"/>
+      <c r="E88" s="3"/>
+      <c r="F88" s="46"/>
+      <c r="G88" s="46"/>
+      <c r="H88" s="14"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="39"/>
@@ -1793,144 +1865,144 @@
       <c r="H89" s="14"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90" s="39"/>
-      <c r="B90" s="42"/>
-      <c r="C90" s="44"/>
-      <c r="D90" s="4"/>
-      <c r="E90" s="3"/>
-      <c r="F90" s="46"/>
-      <c r="G90" s="46"/>
-      <c r="H90" s="14"/>
+      <c r="A90" s="38"/>
+      <c r="B90" s="43"/>
+      <c r="C90" s="43"/>
+      <c r="D90" s="6"/>
+      <c r="E90" s="27"/>
+      <c r="F90" s="49"/>
+      <c r="G90" s="43"/>
+      <c r="H90" s="13"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91" s="38"/>
-      <c r="B91" s="43"/>
-      <c r="C91" s="43"/>
-      <c r="D91" s="6"/>
-      <c r="E91" s="27"/>
-      <c r="F91" s="49"/>
-      <c r="G91" s="43"/>
-      <c r="H91" s="13"/>
+      <c r="A91" s="37"/>
+      <c r="B91" s="40"/>
+      <c r="C91" s="45"/>
+      <c r="D91" s="10"/>
+      <c r="E91" s="11"/>
+      <c r="F91" s="48"/>
+      <c r="G91" s="48"/>
+      <c r="H91" s="12"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A92" s="37"/>
-      <c r="B92" s="40"/>
-      <c r="C92" s="45"/>
-      <c r="D92" s="10"/>
-      <c r="E92" s="11"/>
-      <c r="F92" s="48"/>
-      <c r="G92" s="48"/>
-      <c r="H92" s="12"/>
+      <c r="A92" s="38"/>
+      <c r="B92" s="43"/>
+      <c r="C92" s="43"/>
+      <c r="D92" s="6"/>
+      <c r="E92" s="27"/>
+      <c r="F92" s="49"/>
+      <c r="G92" s="43"/>
+      <c r="H92" s="13"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93" s="38"/>
-      <c r="B93" s="43"/>
-      <c r="C93" s="43"/>
-      <c r="D93" s="6"/>
-      <c r="E93" s="27"/>
-      <c r="F93" s="49"/>
-      <c r="G93" s="43"/>
-      <c r="H93" s="13"/>
+      <c r="A93" s="37"/>
+      <c r="B93" s="40"/>
+      <c r="C93" s="45"/>
+      <c r="D93" s="10"/>
+      <c r="E93" s="11"/>
+      <c r="F93" s="48"/>
+      <c r="G93" s="48"/>
+      <c r="H93" s="12"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A94" s="37"/>
-      <c r="B94" s="40"/>
-      <c r="C94" s="45"/>
-      <c r="D94" s="10"/>
-      <c r="E94" s="11"/>
-      <c r="F94" s="48"/>
-      <c r="G94" s="48"/>
-      <c r="H94" s="12"/>
+      <c r="A94" s="39"/>
+      <c r="B94" s="42"/>
+      <c r="C94" s="44"/>
+      <c r="D94" s="4"/>
+      <c r="E94" s="3"/>
+      <c r="F94" s="46"/>
+      <c r="G94" s="46"/>
+      <c r="H94" s="14"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A95" s="39"/>
-      <c r="B95" s="42"/>
-      <c r="C95" s="44"/>
-      <c r="D95" s="4"/>
-      <c r="E95" s="3"/>
-      <c r="F95" s="46"/>
-      <c r="G95" s="46"/>
-      <c r="H95" s="14"/>
+      <c r="A95" s="38"/>
+      <c r="B95" s="43"/>
+      <c r="C95" s="43"/>
+      <c r="D95" s="6"/>
+      <c r="E95" s="27"/>
+      <c r="F95" s="49"/>
+      <c r="G95" s="43"/>
+      <c r="H95" s="13"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A96" s="38"/>
-      <c r="B96" s="43"/>
-      <c r="C96" s="43"/>
-      <c r="D96" s="6"/>
-      <c r="E96" s="27"/>
-      <c r="F96" s="49"/>
-      <c r="G96" s="43"/>
-      <c r="H96" s="13"/>
+      <c r="A96" s="37"/>
+      <c r="B96" s="40"/>
+      <c r="C96" s="45"/>
+      <c r="D96" s="10"/>
+      <c r="E96" s="11"/>
+      <c r="F96" s="48"/>
+      <c r="G96" s="48"/>
+      <c r="H96" s="12"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A97" s="37"/>
-      <c r="B97" s="40"/>
-      <c r="C97" s="45"/>
-      <c r="D97" s="10"/>
-      <c r="E97" s="11"/>
-      <c r="F97" s="48"/>
-      <c r="G97" s="48"/>
-      <c r="H97" s="12"/>
+      <c r="A97" s="38"/>
+      <c r="B97" s="43"/>
+      <c r="C97" s="43"/>
+      <c r="D97" s="6"/>
+      <c r="E97" s="27"/>
+      <c r="F97" s="49"/>
+      <c r="G97" s="43"/>
+      <c r="H97" s="13"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A98" s="38"/>
-      <c r="B98" s="43"/>
-      <c r="C98" s="43"/>
-      <c r="D98" s="6"/>
-      <c r="E98" s="27"/>
-      <c r="F98" s="49"/>
-      <c r="G98" s="43"/>
-      <c r="H98" s="13"/>
+      <c r="A98" s="37"/>
+      <c r="B98" s="40"/>
+      <c r="C98" s="45"/>
+      <c r="D98" s="10"/>
+      <c r="E98" s="11"/>
+      <c r="F98" s="48"/>
+      <c r="G98" s="48"/>
+      <c r="H98" s="12"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A99" s="37"/>
-      <c r="B99" s="40"/>
-      <c r="C99" s="45"/>
-      <c r="D99" s="10"/>
-      <c r="E99" s="11"/>
-      <c r="F99" s="48"/>
-      <c r="G99" s="48"/>
-      <c r="H99" s="12"/>
+      <c r="A99" s="39"/>
+      <c r="B99" s="42"/>
+      <c r="C99" s="44"/>
+      <c r="D99" s="4"/>
+      <c r="E99" s="3"/>
+      <c r="F99" s="46"/>
+      <c r="G99" s="46"/>
+      <c r="H99" s="14"/>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A100" s="39"/>
-      <c r="B100" s="42"/>
-      <c r="C100" s="44"/>
-      <c r="D100" s="4"/>
-      <c r="E100" s="3"/>
-      <c r="F100" s="46"/>
-      <c r="G100" s="46"/>
-      <c r="H100" s="14"/>
+      <c r="A100" s="38"/>
+      <c r="B100" s="43"/>
+      <c r="C100" s="43"/>
+      <c r="D100" s="6"/>
+      <c r="E100" s="27"/>
+      <c r="F100" s="49"/>
+      <c r="G100" s="43"/>
+      <c r="H100" s="13"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A101" s="38"/>
-      <c r="B101" s="43"/>
-      <c r="C101" s="43"/>
-      <c r="D101" s="6"/>
-      <c r="E101" s="27"/>
-      <c r="F101" s="49"/>
-      <c r="G101" s="43"/>
-      <c r="H101" s="13"/>
+      <c r="A101" s="37"/>
+      <c r="B101" s="40"/>
+      <c r="C101" s="45"/>
+      <c r="D101" s="10"/>
+      <c r="E101" s="11"/>
+      <c r="F101" s="48"/>
+      <c r="G101" s="48"/>
+      <c r="H101" s="12"/>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A102" s="37"/>
-      <c r="B102" s="40"/>
-      <c r="C102" s="45"/>
-      <c r="D102" s="10"/>
-      <c r="E102" s="11"/>
-      <c r="F102" s="48"/>
-      <c r="G102" s="48"/>
-      <c r="H102" s="12"/>
+      <c r="A102" s="38"/>
+      <c r="B102" s="43"/>
+      <c r="C102" s="43"/>
+      <c r="D102" s="6"/>
+      <c r="E102" s="27"/>
+      <c r="F102" s="49"/>
+      <c r="G102" s="43"/>
+      <c r="H102" s="13"/>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A103" s="38"/>
-      <c r="B103" s="43"/>
-      <c r="C103" s="43"/>
-      <c r="D103" s="6"/>
-      <c r="E103" s="27"/>
-      <c r="F103" s="49"/>
-      <c r="G103" s="43"/>
-      <c r="H103" s="13"/>
+      <c r="A103" s="39"/>
+      <c r="B103" s="42"/>
+      <c r="C103" s="44"/>
+      <c r="D103" s="4"/>
+      <c r="E103" s="3"/>
+      <c r="F103" s="46"/>
+      <c r="G103" s="46"/>
+      <c r="H103" s="17"/>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="39"/>
@@ -1944,343 +2016,343 @@
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="39"/>
-      <c r="B105" s="42"/>
+      <c r="B105" s="44"/>
       <c r="C105" s="44"/>
-      <c r="D105" s="4"/>
-      <c r="E105" s="3"/>
-      <c r="F105" s="46"/>
-      <c r="G105" s="46"/>
+      <c r="D105" s="2"/>
+      <c r="E105" s="19"/>
+      <c r="F105" s="50"/>
+      <c r="G105" s="44"/>
       <c r="H105" s="17"/>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A106" s="39"/>
-      <c r="B106" s="44"/>
-      <c r="C106" s="44"/>
-      <c r="D106" s="2"/>
-      <c r="E106" s="19"/>
-      <c r="F106" s="50"/>
-      <c r="G106" s="44"/>
-      <c r="H106" s="17"/>
+      <c r="A106" s="37"/>
+      <c r="B106" s="40"/>
+      <c r="C106" s="45"/>
+      <c r="D106" s="10"/>
+      <c r="E106" s="11"/>
+      <c r="F106" s="48"/>
+      <c r="G106" s="48"/>
+      <c r="H106" s="12"/>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A107" s="37"/>
-      <c r="B107" s="40"/>
-      <c r="C107" s="45"/>
-      <c r="D107" s="10"/>
-      <c r="E107" s="11"/>
-      <c r="F107" s="48"/>
-      <c r="G107" s="48"/>
-      <c r="H107" s="12"/>
+      <c r="A107" s="39"/>
+      <c r="B107" s="42"/>
+      <c r="C107" s="44"/>
+      <c r="D107" s="4"/>
+      <c r="E107" s="3"/>
+      <c r="F107" s="46"/>
+      <c r="G107" s="46"/>
+      <c r="H107" s="14"/>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A108" s="39"/>
-      <c r="B108" s="42"/>
-      <c r="C108" s="44"/>
-      <c r="D108" s="4"/>
-      <c r="E108" s="3"/>
-      <c r="F108" s="46"/>
-      <c r="G108" s="46"/>
-      <c r="H108" s="14"/>
+      <c r="A108" s="38"/>
+      <c r="B108" s="41"/>
+      <c r="C108" s="43"/>
+      <c r="D108" s="8"/>
+      <c r="E108" s="7"/>
+      <c r="F108" s="47"/>
+      <c r="G108" s="47"/>
+      <c r="H108" s="13"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A109" s="38"/>
-      <c r="B109" s="41"/>
-      <c r="C109" s="43"/>
-      <c r="D109" s="8"/>
-      <c r="E109" s="7"/>
-      <c r="F109" s="47"/>
-      <c r="G109" s="47"/>
-      <c r="H109" s="13"/>
+      <c r="A109" s="37"/>
+      <c r="B109" s="40"/>
+      <c r="C109" s="45"/>
+      <c r="D109" s="10"/>
+      <c r="E109" s="11"/>
+      <c r="F109" s="48"/>
+      <c r="G109" s="48"/>
+      <c r="H109" s="12"/>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A110" s="37"/>
-      <c r="B110" s="40"/>
-      <c r="C110" s="45"/>
-      <c r="D110" s="10"/>
-      <c r="E110" s="11"/>
-      <c r="F110" s="48"/>
-      <c r="G110" s="48"/>
-      <c r="H110" s="12"/>
+      <c r="A110" s="38"/>
+      <c r="B110" s="41"/>
+      <c r="C110" s="43"/>
+      <c r="D110" s="8"/>
+      <c r="E110" s="7"/>
+      <c r="F110" s="47"/>
+      <c r="G110" s="47"/>
+      <c r="H110" s="13"/>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A111" s="38"/>
-      <c r="B111" s="41"/>
-      <c r="C111" s="43"/>
-      <c r="D111" s="8"/>
-      <c r="E111" s="7"/>
-      <c r="F111" s="47"/>
-      <c r="G111" s="47"/>
-      <c r="H111" s="13"/>
+      <c r="A111" s="37"/>
+      <c r="B111" s="40"/>
+      <c r="C111" s="45"/>
+      <c r="D111" s="10"/>
+      <c r="E111" s="11"/>
+      <c r="F111" s="48"/>
+      <c r="G111" s="48"/>
+      <c r="H111" s="12"/>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A112" s="37"/>
-      <c r="B112" s="40"/>
-      <c r="C112" s="45"/>
-      <c r="D112" s="10"/>
-      <c r="E112" s="11"/>
-      <c r="F112" s="48"/>
-      <c r="G112" s="48"/>
-      <c r="H112" s="12"/>
+      <c r="A112" s="39"/>
+      <c r="B112" s="42"/>
+      <c r="C112" s="44"/>
+      <c r="D112" s="4"/>
+      <c r="E112" s="3"/>
+      <c r="F112" s="46"/>
+      <c r="G112" s="46"/>
+      <c r="H112" s="14"/>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A113" s="39"/>
-      <c r="B113" s="42"/>
-      <c r="C113" s="44"/>
-      <c r="D113" s="4"/>
-      <c r="E113" s="3"/>
-      <c r="F113" s="46"/>
-      <c r="G113" s="46"/>
-      <c r="H113" s="14"/>
+      <c r="A113" s="38"/>
+      <c r="B113" s="41"/>
+      <c r="C113" s="43"/>
+      <c r="D113" s="8"/>
+      <c r="E113" s="7"/>
+      <c r="F113" s="47"/>
+      <c r="G113" s="47"/>
+      <c r="H113" s="13"/>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A114" s="38"/>
-      <c r="B114" s="41"/>
-      <c r="C114" s="43"/>
-      <c r="D114" s="8"/>
-      <c r="E114" s="7"/>
-      <c r="F114" s="47"/>
-      <c r="G114" s="47"/>
-      <c r="H114" s="13"/>
+      <c r="A114" s="37"/>
+      <c r="B114" s="40"/>
+      <c r="C114" s="45"/>
+      <c r="D114" s="10"/>
+      <c r="E114" s="11"/>
+      <c r="F114" s="48"/>
+      <c r="G114" s="48"/>
+      <c r="H114" s="12"/>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A115" s="37"/>
-      <c r="B115" s="40"/>
-      <c r="C115" s="45"/>
-      <c r="D115" s="10"/>
-      <c r="E115" s="11"/>
-      <c r="F115" s="48"/>
-      <c r="G115" s="48"/>
-      <c r="H115" s="12"/>
+      <c r="A115" s="39"/>
+      <c r="B115" s="42"/>
+      <c r="C115" s="44"/>
+      <c r="D115" s="4"/>
+      <c r="E115" s="3"/>
+      <c r="F115" s="46"/>
+      <c r="G115" s="46"/>
+      <c r="H115" s="14"/>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A116" s="39"/>
-      <c r="B116" s="42"/>
-      <c r="C116" s="44"/>
-      <c r="D116" s="4"/>
-      <c r="E116" s="3"/>
-      <c r="F116" s="46"/>
-      <c r="G116" s="46"/>
-      <c r="H116" s="14"/>
+      <c r="A116" s="38"/>
+      <c r="B116" s="41"/>
+      <c r="C116" s="43"/>
+      <c r="D116" s="8"/>
+      <c r="E116" s="7"/>
+      <c r="F116" s="47"/>
+      <c r="G116" s="47"/>
+      <c r="H116" s="13"/>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A117" s="38"/>
-      <c r="B117" s="41"/>
-      <c r="C117" s="43"/>
-      <c r="D117" s="8"/>
-      <c r="E117" s="7"/>
-      <c r="F117" s="47"/>
-      <c r="G117" s="47"/>
-      <c r="H117" s="13"/>
+      <c r="A117" s="37"/>
+      <c r="B117" s="40"/>
+      <c r="C117" s="45"/>
+      <c r="D117" s="10"/>
+      <c r="E117" s="11"/>
+      <c r="F117" s="48"/>
+      <c r="G117" s="48"/>
+      <c r="H117" s="12"/>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A118" s="37"/>
-      <c r="B118" s="40"/>
-      <c r="C118" s="45"/>
-      <c r="D118" s="10"/>
-      <c r="E118" s="11"/>
-      <c r="F118" s="48"/>
-      <c r="G118" s="48"/>
-      <c r="H118" s="12"/>
+      <c r="A118" s="39"/>
+      <c r="B118" s="42"/>
+      <c r="C118" s="44"/>
+      <c r="D118" s="4"/>
+      <c r="E118" s="3"/>
+      <c r="F118" s="46"/>
+      <c r="G118" s="46"/>
+      <c r="H118" s="14"/>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A119" s="39"/>
-      <c r="B119" s="42"/>
-      <c r="C119" s="44"/>
-      <c r="D119" s="4"/>
-      <c r="E119" s="3"/>
-      <c r="F119" s="46"/>
-      <c r="G119" s="46"/>
-      <c r="H119" s="14"/>
+      <c r="A119" s="38"/>
+      <c r="B119" s="41"/>
+      <c r="C119" s="43"/>
+      <c r="D119" s="8"/>
+      <c r="E119" s="7"/>
+      <c r="F119" s="47"/>
+      <c r="G119" s="47"/>
+      <c r="H119" s="13"/>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A120" s="38"/>
-      <c r="B120" s="41"/>
-      <c r="C120" s="43"/>
-      <c r="D120" s="8"/>
-      <c r="E120" s="7"/>
-      <c r="F120" s="47"/>
-      <c r="G120" s="47"/>
-      <c r="H120" s="13"/>
+      <c r="A120" s="37"/>
+      <c r="B120" s="40"/>
+      <c r="C120" s="45"/>
+      <c r="D120" s="10"/>
+      <c r="E120" s="11"/>
+      <c r="F120" s="48"/>
+      <c r="G120" s="48"/>
+      <c r="H120" s="12"/>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A121" s="37"/>
-      <c r="B121" s="40"/>
-      <c r="C121" s="45"/>
-      <c r="D121" s="10"/>
-      <c r="E121" s="11"/>
-      <c r="F121" s="48"/>
-      <c r="G121" s="48"/>
-      <c r="H121" s="12"/>
+      <c r="A121" s="38"/>
+      <c r="B121" s="41"/>
+      <c r="C121" s="43"/>
+      <c r="D121" s="8"/>
+      <c r="E121" s="7"/>
+      <c r="F121" s="47"/>
+      <c r="G121" s="47"/>
+      <c r="H121" s="13"/>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A122" s="38"/>
-      <c r="B122" s="41"/>
-      <c r="C122" s="43"/>
-      <c r="D122" s="8"/>
-      <c r="E122" s="7"/>
-      <c r="F122" s="47"/>
-      <c r="G122" s="47"/>
-      <c r="H122" s="13"/>
+      <c r="A122" s="37"/>
+      <c r="B122" s="40"/>
+      <c r="C122" s="45"/>
+      <c r="D122" s="10"/>
+      <c r="E122" s="11"/>
+      <c r="F122" s="48"/>
+      <c r="G122" s="48"/>
+      <c r="H122" s="12"/>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A123" s="37"/>
-      <c r="B123" s="40"/>
-      <c r="C123" s="45"/>
-      <c r="D123" s="10"/>
-      <c r="E123" s="11"/>
-      <c r="F123" s="48"/>
-      <c r="G123" s="48"/>
-      <c r="H123" s="12"/>
+      <c r="A123" s="39"/>
+      <c r="B123" s="42"/>
+      <c r="C123" s="44"/>
+      <c r="D123" s="4"/>
+      <c r="E123" s="3"/>
+      <c r="F123" s="46"/>
+      <c r="G123" s="46"/>
+      <c r="H123" s="14"/>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A124" s="39"/>
-      <c r="B124" s="42"/>
-      <c r="C124" s="44"/>
-      <c r="D124" s="4"/>
-      <c r="E124" s="3"/>
-      <c r="F124" s="46"/>
-      <c r="G124" s="46"/>
-      <c r="H124" s="14"/>
+      <c r="A124" s="38"/>
+      <c r="B124" s="41"/>
+      <c r="C124" s="43"/>
+      <c r="D124" s="8"/>
+      <c r="E124" s="7"/>
+      <c r="F124" s="47"/>
+      <c r="G124" s="47"/>
+      <c r="H124" s="13"/>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A125" s="38"/>
-      <c r="B125" s="41"/>
-      <c r="C125" s="43"/>
-      <c r="D125" s="8"/>
-      <c r="E125" s="7"/>
-      <c r="F125" s="47"/>
-      <c r="G125" s="47"/>
-      <c r="H125" s="13"/>
+      <c r="A125" s="37"/>
+      <c r="B125" s="40"/>
+      <c r="C125" s="45"/>
+      <c r="D125" s="10"/>
+      <c r="E125" s="11"/>
+      <c r="F125" s="48"/>
+      <c r="G125" s="48"/>
+      <c r="H125" s="12"/>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A126" s="37"/>
-      <c r="B126" s="40"/>
-      <c r="C126" s="45"/>
-      <c r="D126" s="10"/>
-      <c r="E126" s="11"/>
-      <c r="F126" s="48"/>
-      <c r="G126" s="48"/>
-      <c r="H126" s="12"/>
+      <c r="A126" s="39"/>
+      <c r="B126" s="42"/>
+      <c r="C126" s="44"/>
+      <c r="D126" s="4"/>
+      <c r="E126" s="3"/>
+      <c r="F126" s="46"/>
+      <c r="G126" s="46"/>
+      <c r="H126" s="14"/>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A127" s="39"/>
-      <c r="B127" s="42"/>
-      <c r="C127" s="44"/>
-      <c r="D127" s="4"/>
-      <c r="E127" s="3"/>
-      <c r="F127" s="46"/>
-      <c r="G127" s="46"/>
-      <c r="H127" s="14"/>
+      <c r="A127" s="38"/>
+      <c r="B127" s="41"/>
+      <c r="C127" s="43"/>
+      <c r="D127" s="8"/>
+      <c r="E127" s="7"/>
+      <c r="F127" s="47"/>
+      <c r="G127" s="47"/>
+      <c r="H127" s="13"/>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A128" s="38"/>
-      <c r="B128" s="41"/>
-      <c r="C128" s="43"/>
-      <c r="D128" s="8"/>
-      <c r="E128" s="7"/>
-      <c r="F128" s="47"/>
-      <c r="G128" s="47"/>
-      <c r="H128" s="13"/>
+      <c r="A128" s="37"/>
+      <c r="B128" s="40"/>
+      <c r="C128" s="45"/>
+      <c r="D128" s="10"/>
+      <c r="E128" s="11"/>
+      <c r="F128" s="48"/>
+      <c r="G128" s="48"/>
+      <c r="H128" s="12"/>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A129" s="37"/>
-      <c r="B129" s="40"/>
-      <c r="C129" s="45"/>
-      <c r="D129" s="10"/>
-      <c r="E129" s="11"/>
-      <c r="F129" s="48"/>
-      <c r="G129" s="48"/>
-      <c r="H129" s="12"/>
+      <c r="A129" s="39"/>
+      <c r="B129" s="42"/>
+      <c r="C129" s="44"/>
+      <c r="D129" s="4"/>
+      <c r="E129" s="3"/>
+      <c r="F129" s="46"/>
+      <c r="G129" s="46"/>
+      <c r="H129" s="14"/>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A130" s="39"/>
-      <c r="B130" s="42"/>
-      <c r="C130" s="44"/>
-      <c r="D130" s="4"/>
-      <c r="E130" s="3"/>
-      <c r="F130" s="46"/>
-      <c r="G130" s="46"/>
-      <c r="H130" s="14"/>
+      <c r="A130" s="38"/>
+      <c r="B130" s="41"/>
+      <c r="C130" s="43"/>
+      <c r="D130" s="8"/>
+      <c r="E130" s="7"/>
+      <c r="F130" s="47"/>
+      <c r="G130" s="47"/>
+      <c r="H130" s="13"/>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A131" s="38"/>
-      <c r="B131" s="41"/>
-      <c r="C131" s="43"/>
-      <c r="D131" s="8"/>
-      <c r="E131" s="7"/>
-      <c r="F131" s="47"/>
-      <c r="G131" s="47"/>
-      <c r="H131" s="13"/>
+      <c r="A131" s="37"/>
+      <c r="B131" s="40"/>
+      <c r="C131" s="45"/>
+      <c r="D131" s="10"/>
+      <c r="E131" s="11"/>
+      <c r="F131" s="48"/>
+      <c r="G131" s="48"/>
+      <c r="H131" s="12"/>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A132" s="37"/>
-      <c r="B132" s="40"/>
-      <c r="C132" s="45"/>
-      <c r="D132" s="10"/>
-      <c r="E132" s="11"/>
-      <c r="F132" s="48"/>
-      <c r="G132" s="48"/>
-      <c r="H132" s="12"/>
+      <c r="A132" s="39"/>
+      <c r="B132" s="42"/>
+      <c r="C132" s="44"/>
+      <c r="D132" s="4"/>
+      <c r="E132" s="3"/>
+      <c r="F132" s="46"/>
+      <c r="G132" s="46"/>
+      <c r="H132" s="14"/>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A133" s="39"/>
-      <c r="B133" s="42"/>
-      <c r="C133" s="44"/>
-      <c r="D133" s="4"/>
-      <c r="E133" s="3"/>
-      <c r="F133" s="46"/>
-      <c r="G133" s="46"/>
-      <c r="H133" s="14"/>
+      <c r="A133" s="38"/>
+      <c r="B133" s="41"/>
+      <c r="C133" s="43"/>
+      <c r="D133" s="8"/>
+      <c r="E133" s="7"/>
+      <c r="F133" s="47"/>
+      <c r="G133" s="47"/>
+      <c r="H133" s="13"/>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A134" s="38"/>
-      <c r="B134" s="41"/>
-      <c r="C134" s="43"/>
-      <c r="D134" s="8"/>
-      <c r="E134" s="7"/>
-      <c r="F134" s="47"/>
-      <c r="G134" s="47"/>
-      <c r="H134" s="13"/>
+      <c r="A134" s="37"/>
+      <c r="B134" s="40"/>
+      <c r="C134" s="45"/>
+      <c r="D134" s="10"/>
+      <c r="E134" s="11"/>
+      <c r="F134" s="48"/>
+      <c r="G134" s="48"/>
+      <c r="H134" s="12"/>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A135" s="37"/>
-      <c r="B135" s="40"/>
-      <c r="C135" s="45"/>
-      <c r="D135" s="10"/>
-      <c r="E135" s="11"/>
-      <c r="F135" s="48"/>
-      <c r="G135" s="48"/>
-      <c r="H135" s="12"/>
+      <c r="A135" s="39"/>
+      <c r="B135" s="42"/>
+      <c r="C135" s="44"/>
+      <c r="D135" s="4"/>
+      <c r="E135" s="3"/>
+      <c r="F135" s="46"/>
+      <c r="G135" s="46"/>
+      <c r="H135" s="14"/>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A136" s="39"/>
-      <c r="B136" s="42"/>
-      <c r="C136" s="44"/>
-      <c r="D136" s="4"/>
-      <c r="E136" s="3"/>
-      <c r="F136" s="46"/>
-      <c r="G136" s="46"/>
-      <c r="H136" s="14"/>
+      <c r="A136" s="38"/>
+      <c r="B136" s="41"/>
+      <c r="C136" s="43"/>
+      <c r="D136" s="8"/>
+      <c r="E136" s="7"/>
+      <c r="F136" s="47"/>
+      <c r="G136" s="47"/>
+      <c r="H136" s="13"/>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A137" s="38"/>
-      <c r="B137" s="41"/>
-      <c r="C137" s="43"/>
-      <c r="D137" s="8"/>
-      <c r="E137" s="7"/>
-      <c r="F137" s="47"/>
-      <c r="G137" s="47"/>
-      <c r="H137" s="13"/>
+      <c r="A137" s="37"/>
+      <c r="B137" s="40"/>
+      <c r="C137" s="45"/>
+      <c r="D137" s="10"/>
+      <c r="E137" s="11"/>
+      <c r="F137" s="48"/>
+      <c r="G137" s="48"/>
+      <c r="H137" s="12"/>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A138" s="37"/>
-      <c r="B138" s="40"/>
-      <c r="C138" s="45"/>
-      <c r="D138" s="10"/>
-      <c r="E138" s="11"/>
-      <c r="F138" s="48"/>
-      <c r="G138" s="48"/>
-      <c r="H138" s="12"/>
+      <c r="A138" s="39"/>
+      <c r="B138" s="42"/>
+      <c r="C138" s="44"/>
+      <c r="D138" s="4"/>
+      <c r="E138" s="3"/>
+      <c r="F138" s="46"/>
+      <c r="G138" s="46"/>
+      <c r="H138" s="14"/>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="39"/>
@@ -2293,24 +2365,24 @@
       <c r="H139" s="14"/>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A140" s="39"/>
-      <c r="B140" s="42"/>
-      <c r="C140" s="44"/>
-      <c r="D140" s="4"/>
-      <c r="E140" s="3"/>
-      <c r="F140" s="46"/>
-      <c r="G140" s="46"/>
-      <c r="H140" s="14"/>
+      <c r="A140" s="37"/>
+      <c r="B140" s="40"/>
+      <c r="C140" s="45"/>
+      <c r="D140" s="10"/>
+      <c r="E140" s="11"/>
+      <c r="F140" s="48"/>
+      <c r="G140" s="48"/>
+      <c r="H140" s="12"/>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A141" s="37"/>
-      <c r="B141" s="40"/>
-      <c r="C141" s="45"/>
-      <c r="D141" s="10"/>
-      <c r="E141" s="11"/>
-      <c r="F141" s="48"/>
-      <c r="G141" s="48"/>
-      <c r="H141" s="12"/>
+      <c r="A141" s="39"/>
+      <c r="B141" s="42"/>
+      <c r="C141" s="44"/>
+      <c r="D141" s="4"/>
+      <c r="E141" s="3"/>
+      <c r="F141" s="46"/>
+      <c r="G141" s="46"/>
+      <c r="H141" s="14"/>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="39"/>
@@ -2323,84 +2395,83 @@
       <c r="H142" s="14"/>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A143" s="39"/>
-      <c r="B143" s="42"/>
-      <c r="C143" s="44"/>
-      <c r="D143" s="4"/>
-      <c r="E143" s="3"/>
-      <c r="F143" s="46"/>
-      <c r="G143" s="46"/>
-      <c r="H143" s="14"/>
+      <c r="A143" s="37"/>
+      <c r="B143" s="57"/>
+      <c r="C143" s="45"/>
+      <c r="D143" s="60"/>
+      <c r="E143" s="11"/>
+      <c r="F143" s="56"/>
+      <c r="G143" s="48"/>
+      <c r="H143" s="12"/>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A144" s="37"/>
-      <c r="B144" s="57"/>
-      <c r="C144" s="45"/>
-      <c r="D144" s="60"/>
-      <c r="E144" s="11"/>
-      <c r="F144" s="56"/>
-      <c r="G144" s="48"/>
-      <c r="H144" s="12"/>
+      <c r="A144" s="39"/>
+      <c r="B144" s="58"/>
+      <c r="C144" s="44"/>
+      <c r="D144" s="61"/>
+      <c r="E144" s="3"/>
+      <c r="F144" s="46"/>
+      <c r="G144" s="46"/>
+      <c r="H144" s="14"/>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A145" s="39"/>
-      <c r="B145" s="58"/>
-      <c r="C145" s="44"/>
-      <c r="D145" s="61"/>
-      <c r="E145" s="3"/>
-      <c r="F145" s="46"/>
-      <c r="G145" s="46"/>
-      <c r="H145" s="14"/>
+      <c r="A145" s="38"/>
+      <c r="B145" s="59"/>
+      <c r="C145" s="43"/>
+      <c r="D145" s="62"/>
+      <c r="E145" s="7"/>
+      <c r="F145" s="47"/>
+      <c r="G145" s="47"/>
+      <c r="H145" s="13"/>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A146" s="38"/>
-      <c r="B146" s="59"/>
-      <c r="C146" s="43"/>
-      <c r="D146" s="62"/>
-      <c r="E146" s="7"/>
-      <c r="F146" s="47"/>
-      <c r="G146" s="47"/>
-      <c r="H146" s="13"/>
+      <c r="A146" s="37"/>
+      <c r="B146" s="57"/>
+      <c r="C146" s="45"/>
+      <c r="D146" s="60"/>
+      <c r="E146" s="11"/>
+      <c r="F146" s="56"/>
+      <c r="G146" s="46"/>
+      <c r="H146" s="12"/>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A147" s="37"/>
-      <c r="B147" s="57"/>
-      <c r="C147" s="45"/>
-      <c r="D147" s="60"/>
-      <c r="E147" s="11"/>
-      <c r="F147" s="56"/>
-      <c r="G147" s="46"/>
-      <c r="H147" s="12"/>
+      <c r="A147" s="38"/>
+      <c r="B147" s="59"/>
+      <c r="C147" s="43"/>
+      <c r="D147" s="62"/>
+      <c r="E147" s="7"/>
+      <c r="F147" s="47"/>
+      <c r="G147" s="47"/>
+      <c r="H147" s="13"/>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A148" s="38"/>
-      <c r="B148" s="59"/>
-      <c r="C148" s="43"/>
-      <c r="D148" s="62"/>
-      <c r="E148" s="7"/>
-      <c r="F148" s="47"/>
-      <c r="G148" s="47"/>
-      <c r="H148" s="13"/>
+      <c r="A148" s="37"/>
+      <c r="B148" s="57"/>
+      <c r="C148" s="45"/>
+      <c r="D148" s="60"/>
+      <c r="E148" s="11"/>
+      <c r="F148" s="56"/>
+      <c r="G148" s="46"/>
+      <c r="H148" s="12"/>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A149" s="37"/>
-      <c r="B149" s="57"/>
-      <c r="C149" s="45"/>
-      <c r="D149" s="60"/>
-      <c r="E149" s="11"/>
-      <c r="F149" s="56"/>
-      <c r="G149" s="46"/>
-      <c r="H149" s="12"/>
+      <c r="A149" s="38"/>
+      <c r="B149" s="59"/>
+      <c r="C149" s="43"/>
+      <c r="D149" s="62"/>
+      <c r="E149" s="7"/>
+      <c r="F149" s="47"/>
+      <c r="G149" s="47"/>
+      <c r="H149" s="13"/>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A150" s="38"/>
-      <c r="B150" s="59"/>
-      <c r="C150" s="43"/>
-      <c r="D150" s="62"/>
-      <c r="E150" s="7"/>
-      <c r="F150" s="47"/>
-      <c r="G150" s="47"/>
-      <c r="H150" s="13"/>
+      <c r="B150" s="1"/>
+      <c r="C150" s="2"/>
+      <c r="D150" s="4"/>
+      <c r="E150" s="3"/>
+      <c r="F150" s="4"/>
+      <c r="G150" s="4"/>
+      <c r="H150" s="17"/>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B151" s="1"/>
@@ -2618,15 +2689,6 @@
       <c r="G174" s="4"/>
       <c r="H174" s="17"/>
     </row>
-    <row r="175" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B175" s="1"/>
-      <c r="C175" s="2"/>
-      <c r="D175" s="4"/>
-      <c r="E175" s="3"/>
-      <c r="F175" s="4"/>
-      <c r="G175" s="4"/>
-      <c r="H175" s="17"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/TS Jatai Working/TTD Krama PaaraayaNam-Kramam.xlsx
+++ b/TS Jatai Working/TTD Krama PaaraayaNam-Kramam.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="33">
   <si>
     <t>Date</t>
   </si>
@@ -104,6 +104,15 @@
   </si>
   <si>
     <t>1.4.1.1</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=3LHHFZI9Fvw&amp;list=PLjhrDIztP9pcSE8dR7xYZb7zwX5SXxNKy&amp;index=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4.42.1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4.43.1 </t>
   </si>
 </sst>
 </file>
@@ -425,9 +434,6 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -461,6 +467,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -766,11 +775,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L174"/>
+  <dimension ref="A1:L173"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
+      <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -885,7 +894,7 @@
       <c r="F5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="63" t="s">
+      <c r="G5" s="62" t="s">
         <v>13</v>
       </c>
       <c r="H5" s="5" t="s">
@@ -903,7 +912,7 @@
       <c r="D6" s="6"/>
       <c r="E6" s="7"/>
       <c r="F6" s="8"/>
-      <c r="G6" s="64"/>
+      <c r="G6" s="63"/>
       <c r="H6" s="9"/>
       <c r="I6" s="17"/>
       <c r="J6" s="17"/>
@@ -929,7 +938,7 @@
       <c r="F7" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="63" t="s">
+      <c r="G7" s="62" t="s">
         <v>13</v>
       </c>
       <c r="H7" s="12" t="s">
@@ -947,7 +956,7 @@
       <c r="D8" s="8"/>
       <c r="E8" s="7"/>
       <c r="F8" s="8"/>
-      <c r="G8" s="64"/>
+      <c r="G8" s="63"/>
       <c r="H8" s="14"/>
       <c r="I8" s="17"/>
       <c r="J8" s="17"/>
@@ -973,10 +982,10 @@
       <c r="F9" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="G9" s="60" t="s">
+      <c r="G9" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="H9" s="65" t="s">
+      <c r="H9" s="64" t="s">
         <v>21</v>
       </c>
       <c r="I9" s="17"/>
@@ -1001,10 +1010,10 @@
       <c r="F10" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G10" s="61" t="s">
+      <c r="G10" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="H10" s="66" t="s">
+      <c r="H10" s="65" t="s">
         <v>21</v>
       </c>
       <c r="I10" s="17"/>
@@ -1019,8 +1028,8 @@
       <c r="D11" s="8"/>
       <c r="E11" s="7"/>
       <c r="F11" s="8"/>
-      <c r="G11" s="62"/>
-      <c r="H11" s="67"/>
+      <c r="G11" s="61"/>
+      <c r="H11" s="66"/>
       <c r="I11" s="17"/>
       <c r="J11" s="17"/>
       <c r="K11" s="17"/>
@@ -1045,7 +1054,7 @@
       <c r="F12" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="G12" s="63" t="s">
+      <c r="G12" s="67" t="s">
         <v>13</v>
       </c>
       <c r="H12" s="14" t="s">
@@ -1086,763 +1095,775 @@
       <c r="E14" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F14" s="48"/>
-      <c r="G14" s="54"/>
-      <c r="H14" s="12"/>
+      <c r="F14" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" s="67" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>30</v>
+      </c>
       <c r="I14" s="17"/>
       <c r="J14" s="17"/>
       <c r="K14" s="17"/>
       <c r="L14" s="17"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="39"/>
-      <c r="B15" s="42"/>
-      <c r="C15" s="44"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="14"/>
+      <c r="A15" s="38"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="54"/>
+      <c r="H15" s="13"/>
       <c r="I15" s="17"/>
       <c r="J15" s="17"/>
       <c r="K15" s="17"/>
       <c r="L15" s="17"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="38"/>
-      <c r="B16" s="41"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="55"/>
-      <c r="H16" s="13"/>
+      <c r="A16" s="37">
+        <v>6</v>
+      </c>
+      <c r="B16" s="40">
+        <v>44451</v>
+      </c>
+      <c r="C16" s="45">
+        <v>2</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="48"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="12"/>
       <c r="I16" s="17"/>
       <c r="J16" s="17"/>
       <c r="K16" s="17"/>
       <c r="L16" s="17"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="37"/>
-      <c r="B17" s="40"/>
-      <c r="C17" s="45"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="12"/>
+      <c r="A17" s="39"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="14"/>
       <c r="I17" s="17"/>
       <c r="J17" s="17"/>
       <c r="K17" s="17"/>
       <c r="L17" s="17"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="39"/>
-      <c r="B18" s="42"/>
-      <c r="C18" s="44"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="46"/>
-      <c r="G18" s="46"/>
-      <c r="H18" s="14"/>
+      <c r="A18" s="38"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="43"/>
+      <c r="H18" s="13"/>
       <c r="I18" s="17"/>
       <c r="J18" s="17"/>
       <c r="K18" s="17"/>
       <c r="L18" s="17"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="38"/>
-      <c r="B19" s="41"/>
-      <c r="C19" s="43"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="47"/>
-      <c r="G19" s="43"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="17"/>
+      <c r="A19" s="37"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="48"/>
+      <c r="G19" s="48"/>
+      <c r="H19" s="12"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="37"/>
-      <c r="B20" s="40"/>
-      <c r="C20" s="45"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="48"/>
-      <c r="G20" s="48"/>
-      <c r="H20" s="12"/>
+      <c r="A20" s="39"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="14"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="39"/>
-      <c r="B21" s="42"/>
-      <c r="C21" s="44"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="46"/>
-      <c r="G21" s="46"/>
-      <c r="H21" s="14"/>
+      <c r="A21" s="38"/>
+      <c r="B21" s="43"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="49"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="13"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="38"/>
-      <c r="B22" s="43"/>
-      <c r="C22" s="43"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="49"/>
-      <c r="G22" s="43"/>
-      <c r="H22" s="13"/>
+      <c r="A22" s="37"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="48"/>
+      <c r="G22" s="48"/>
+      <c r="H22" s="12"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="37"/>
-      <c r="B23" s="40"/>
-      <c r="C23" s="45"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="48"/>
-      <c r="G23" s="48"/>
-      <c r="H23" s="12"/>
+      <c r="A23" s="39"/>
+      <c r="B23" s="42"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="14"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="39"/>
-      <c r="B24" s="42"/>
-      <c r="C24" s="44"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="46"/>
-      <c r="G24" s="46"/>
-      <c r="H24" s="14"/>
+      <c r="A24" s="38"/>
+      <c r="B24" s="43"/>
+      <c r="C24" s="43"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="49"/>
+      <c r="G24" s="43"/>
+      <c r="H24" s="13"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="38"/>
-      <c r="B25" s="43"/>
-      <c r="C25" s="43"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="49"/>
-      <c r="G25" s="43"/>
-      <c r="H25" s="13"/>
+      <c r="A25" s="37"/>
+      <c r="B25" s="40"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="48"/>
+      <c r="G25" s="48"/>
+      <c r="H25" s="12"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="37"/>
-      <c r="B26" s="40"/>
-      <c r="C26" s="45"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="48"/>
-      <c r="G26" s="48"/>
-      <c r="H26" s="12"/>
+      <c r="A26" s="38"/>
+      <c r="B26" s="43"/>
+      <c r="C26" s="43"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="49"/>
+      <c r="G26" s="43"/>
+      <c r="H26" s="13"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="38"/>
-      <c r="B27" s="43"/>
-      <c r="C27" s="43"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="49"/>
-      <c r="G27" s="43"/>
-      <c r="H27" s="13"/>
+      <c r="A27" s="37"/>
+      <c r="B27" s="40"/>
+      <c r="C27" s="45"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="48"/>
+      <c r="G27" s="48"/>
+      <c r="H27" s="12"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="37"/>
-      <c r="B28" s="40"/>
-      <c r="C28" s="45"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="48"/>
-      <c r="G28" s="48"/>
-      <c r="H28" s="12"/>
+      <c r="A28" s="39"/>
+      <c r="B28" s="42"/>
+      <c r="C28" s="44"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="46"/>
+      <c r="G28" s="46"/>
+      <c r="H28" s="14"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="39"/>
-      <c r="B29" s="42"/>
-      <c r="C29" s="44"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="46"/>
-      <c r="G29" s="46"/>
-      <c r="H29" s="14"/>
+      <c r="A29" s="38"/>
+      <c r="B29" s="43"/>
+      <c r="C29" s="43"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="49"/>
+      <c r="G29" s="43"/>
+      <c r="H29" s="13"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="38"/>
-      <c r="B30" s="43"/>
-      <c r="C30" s="43"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="49"/>
-      <c r="G30" s="43"/>
-      <c r="H30" s="13"/>
+      <c r="A30" s="37"/>
+      <c r="B30" s="40"/>
+      <c r="C30" s="45"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="48"/>
+      <c r="G30" s="48"/>
+      <c r="H30" s="28"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="37"/>
-      <c r="B31" s="40"/>
-      <c r="C31" s="45"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="48"/>
-      <c r="G31" s="48"/>
-      <c r="H31" s="28"/>
+      <c r="A31" s="39"/>
+      <c r="B31" s="42"/>
+      <c r="C31" s="44"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="46"/>
+      <c r="G31" s="46"/>
+      <c r="H31" s="29"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="39"/>
-      <c r="B32" s="42"/>
-      <c r="C32" s="44"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="46"/>
-      <c r="G32" s="46"/>
-      <c r="H32" s="29"/>
+      <c r="A32" s="38"/>
+      <c r="B32" s="43"/>
+      <c r="C32" s="43"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="49"/>
+      <c r="G32" s="43"/>
+      <c r="H32" s="13"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="38"/>
-      <c r="B33" s="43"/>
-      <c r="C33" s="43"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="27"/>
-      <c r="F33" s="49"/>
-      <c r="G33" s="43"/>
-      <c r="H33" s="13"/>
+      <c r="A33" s="37"/>
+      <c r="B33" s="40"/>
+      <c r="C33" s="45"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="48"/>
+      <c r="G33" s="48"/>
+      <c r="H33" s="12"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="37"/>
-      <c r="B34" s="40"/>
-      <c r="C34" s="45"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="48"/>
-      <c r="G34" s="48"/>
-      <c r="H34" s="12"/>
+      <c r="A34" s="38"/>
+      <c r="B34" s="41"/>
+      <c r="C34" s="43"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="47"/>
+      <c r="G34" s="43"/>
+      <c r="H34" s="13"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="38"/>
-      <c r="B35" s="41"/>
-      <c r="C35" s="43"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="47"/>
-      <c r="G35" s="43"/>
-      <c r="H35" s="13"/>
+      <c r="A35" s="37"/>
+      <c r="B35" s="40"/>
+      <c r="C35" s="45"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="48"/>
+      <c r="G35" s="48"/>
+      <c r="H35" s="12"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="37"/>
-      <c r="B36" s="40"/>
-      <c r="C36" s="45"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="48"/>
-      <c r="G36" s="48"/>
-      <c r="H36" s="12"/>
+      <c r="A36" s="39"/>
+      <c r="B36" s="42"/>
+      <c r="C36" s="44"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="46"/>
+      <c r="G36" s="46"/>
+      <c r="H36" s="14"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="39"/>
-      <c r="B37" s="42"/>
-      <c r="C37" s="44"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="46"/>
-      <c r="G37" s="46"/>
-      <c r="H37" s="14"/>
+      <c r="A37" s="38"/>
+      <c r="B37" s="43"/>
+      <c r="C37" s="43"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="27"/>
+      <c r="F37" s="49"/>
+      <c r="G37" s="43"/>
+      <c r="H37" s="13"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="38"/>
-      <c r="B38" s="43"/>
-      <c r="C38" s="43"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="27"/>
-      <c r="F38" s="49"/>
-      <c r="G38" s="43"/>
-      <c r="H38" s="13"/>
+      <c r="A38" s="37"/>
+      <c r="B38" s="40"/>
+      <c r="C38" s="45"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="48"/>
+      <c r="G38" s="48"/>
+      <c r="H38" s="12"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="37"/>
-      <c r="B39" s="40"/>
-      <c r="C39" s="45"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="48"/>
-      <c r="G39" s="48"/>
-      <c r="H39" s="12"/>
+      <c r="A39" s="38"/>
+      <c r="B39" s="43"/>
+      <c r="C39" s="43"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="27"/>
+      <c r="F39" s="49"/>
+      <c r="G39" s="43"/>
+      <c r="H39" s="13"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="38"/>
-      <c r="B40" s="43"/>
-      <c r="C40" s="43"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="27"/>
-      <c r="F40" s="49"/>
-      <c r="G40" s="43"/>
-      <c r="H40" s="13"/>
+      <c r="A40" s="37"/>
+      <c r="B40" s="40"/>
+      <c r="C40" s="45"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="48"/>
+      <c r="G40" s="48"/>
+      <c r="H40" s="12"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="37"/>
-      <c r="B41" s="40"/>
-      <c r="C41" s="45"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="48"/>
-      <c r="G41" s="48"/>
-      <c r="H41" s="12"/>
+      <c r="A41" s="39"/>
+      <c r="B41" s="42"/>
+      <c r="C41" s="44"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="46"/>
+      <c r="G41" s="46"/>
+      <c r="H41" s="14"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="39"/>
-      <c r="B42" s="42"/>
-      <c r="C42" s="44"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="46"/>
-      <c r="G42" s="46"/>
-      <c r="H42" s="14"/>
+      <c r="A42" s="38"/>
+      <c r="B42" s="43"/>
+      <c r="C42" s="43"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="27"/>
+      <c r="F42" s="49"/>
+      <c r="G42" s="43"/>
+      <c r="H42" s="13"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="38"/>
-      <c r="B43" s="43"/>
-      <c r="C43" s="43"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="27"/>
-      <c r="F43" s="49"/>
-      <c r="G43" s="43"/>
-      <c r="H43" s="13"/>
+      <c r="A43" s="37"/>
+      <c r="B43" s="40"/>
+      <c r="C43" s="45"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="48"/>
+      <c r="G43" s="48"/>
+      <c r="H43" s="12"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="37"/>
-      <c r="B44" s="40"/>
-      <c r="C44" s="45"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="11"/>
-      <c r="F44" s="48"/>
-      <c r="G44" s="48"/>
-      <c r="H44" s="12"/>
+      <c r="A44" s="39"/>
+      <c r="B44" s="42"/>
+      <c r="C44" s="44"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="46"/>
+      <c r="G44" s="46"/>
+      <c r="H44" s="14"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="39"/>
-      <c r="B45" s="42"/>
-      <c r="C45" s="44"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="46"/>
-      <c r="G45" s="46"/>
-      <c r="H45" s="14"/>
+      <c r="A45" s="38"/>
+      <c r="B45" s="43"/>
+      <c r="C45" s="43"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="27"/>
+      <c r="F45" s="49"/>
+      <c r="G45" s="43"/>
+      <c r="H45" s="13"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="38"/>
-      <c r="B46" s="43"/>
-      <c r="C46" s="43"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="27"/>
-      <c r="F46" s="49"/>
-      <c r="G46" s="43"/>
-      <c r="H46" s="13"/>
+      <c r="A46" s="37"/>
+      <c r="B46" s="40"/>
+      <c r="C46" s="45"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="48"/>
+      <c r="G46" s="48"/>
+      <c r="H46" s="23"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="37"/>
-      <c r="B47" s="40"/>
-      <c r="C47" s="45"/>
-      <c r="D47" s="10"/>
-      <c r="E47" s="11"/>
-      <c r="F47" s="48"/>
-      <c r="G47" s="48"/>
-      <c r="H47" s="23"/>
+      <c r="A47" s="38"/>
+      <c r="B47" s="43"/>
+      <c r="C47" s="43"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="27"/>
+      <c r="F47" s="49"/>
+      <c r="G47" s="43"/>
+      <c r="H47" s="13"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="38"/>
-      <c r="B48" s="43"/>
-      <c r="C48" s="43"/>
-      <c r="D48" s="6"/>
-      <c r="E48" s="27"/>
-      <c r="F48" s="49"/>
-      <c r="G48" s="43"/>
-      <c r="H48" s="13"/>
+      <c r="A48" s="37"/>
+      <c r="B48" s="40"/>
+      <c r="C48" s="45"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="48"/>
+      <c r="G48" s="48"/>
+      <c r="H48" s="23"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="37"/>
-      <c r="B49" s="40"/>
-      <c r="C49" s="45"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="11"/>
-      <c r="F49" s="48"/>
-      <c r="G49" s="48"/>
-      <c r="H49" s="23"/>
+      <c r="A49" s="39"/>
+      <c r="B49" s="42"/>
+      <c r="C49" s="44"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="46"/>
+      <c r="G49" s="46"/>
+      <c r="H49" s="5"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="39"/>
-      <c r="B50" s="42"/>
-      <c r="C50" s="44"/>
-      <c r="D50" s="4"/>
-      <c r="E50" s="3"/>
-      <c r="F50" s="46"/>
-      <c r="G50" s="46"/>
-      <c r="H50" s="5"/>
+      <c r="A50" s="38"/>
+      <c r="B50" s="43"/>
+      <c r="C50" s="43"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="27"/>
+      <c r="F50" s="49"/>
+      <c r="G50" s="43"/>
+      <c r="H50" s="13"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="38"/>
-      <c r="B51" s="43"/>
-      <c r="C51" s="43"/>
-      <c r="D51" s="6"/>
-      <c r="E51" s="27"/>
-      <c r="F51" s="49"/>
-      <c r="G51" s="43"/>
-      <c r="H51" s="13"/>
+      <c r="A51" s="37"/>
+      <c r="B51" s="40"/>
+      <c r="C51" s="45"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="48"/>
+      <c r="G51" s="48"/>
+      <c r="H51" s="12"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="37"/>
-      <c r="B52" s="40"/>
-      <c r="C52" s="45"/>
-      <c r="D52" s="10"/>
-      <c r="E52" s="11"/>
-      <c r="F52" s="48"/>
-      <c r="G52" s="48"/>
-      <c r="H52" s="12"/>
+      <c r="A52" s="38"/>
+      <c r="B52" s="43"/>
+      <c r="C52" s="43"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="27"/>
+      <c r="F52" s="49"/>
+      <c r="G52" s="43"/>
+      <c r="H52" s="13"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="38"/>
-      <c r="B53" s="43"/>
-      <c r="C53" s="43"/>
-      <c r="D53" s="6"/>
-      <c r="E53" s="27"/>
-      <c r="F53" s="49"/>
-      <c r="G53" s="43"/>
-      <c r="H53" s="13"/>
+      <c r="A53" s="37"/>
+      <c r="B53" s="40"/>
+      <c r="C53" s="45"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="48"/>
+      <c r="G53" s="48"/>
+      <c r="H53" s="12"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="37"/>
-      <c r="B54" s="40"/>
-      <c r="C54" s="45"/>
-      <c r="D54" s="10"/>
-      <c r="E54" s="11"/>
-      <c r="F54" s="48"/>
-      <c r="G54" s="48"/>
-      <c r="H54" s="12"/>
+      <c r="A54" s="39"/>
+      <c r="B54" s="42"/>
+      <c r="C54" s="44"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="46"/>
+      <c r="G54" s="46"/>
+      <c r="H54" s="14"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="39"/>
-      <c r="B55" s="42"/>
-      <c r="C55" s="44"/>
-      <c r="D55" s="4"/>
-      <c r="E55" s="3"/>
-      <c r="F55" s="46"/>
-      <c r="G55" s="46"/>
-      <c r="H55" s="14"/>
+      <c r="A55" s="38"/>
+      <c r="B55" s="43"/>
+      <c r="C55" s="43"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="27"/>
+      <c r="F55" s="49"/>
+      <c r="G55" s="43"/>
+      <c r="H55" s="13"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="38"/>
-      <c r="B56" s="43"/>
-      <c r="C56" s="43"/>
-      <c r="D56" s="6"/>
-      <c r="E56" s="27"/>
-      <c r="F56" s="49"/>
-      <c r="G56" s="43"/>
-      <c r="H56" s="13"/>
+      <c r="A56" s="37"/>
+      <c r="B56" s="40"/>
+      <c r="C56" s="45"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="11"/>
+      <c r="F56" s="48"/>
+      <c r="G56" s="48"/>
+      <c r="H56" s="12"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="37"/>
-      <c r="B57" s="40"/>
-      <c r="C57" s="45"/>
-      <c r="D57" s="10"/>
-      <c r="E57" s="11"/>
-      <c r="F57" s="48"/>
-      <c r="G57" s="48"/>
-      <c r="H57" s="12"/>
+      <c r="A57" s="39"/>
+      <c r="B57" s="42"/>
+      <c r="C57" s="44"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="46"/>
+      <c r="G57" s="46"/>
+      <c r="H57" s="14"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="39"/>
-      <c r="B58" s="42"/>
-      <c r="C58" s="44"/>
-      <c r="D58" s="4"/>
-      <c r="E58" s="3"/>
-      <c r="F58" s="46"/>
-      <c r="G58" s="46"/>
-      <c r="H58" s="14"/>
+      <c r="A58" s="38"/>
+      <c r="B58" s="43"/>
+      <c r="C58" s="43"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="27"/>
+      <c r="F58" s="49"/>
+      <c r="G58" s="43"/>
+      <c r="H58" s="13"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="38"/>
-      <c r="B59" s="43"/>
-      <c r="C59" s="43"/>
-      <c r="D59" s="6"/>
-      <c r="E59" s="27"/>
-      <c r="F59" s="49"/>
-      <c r="G59" s="43"/>
-      <c r="H59" s="13"/>
+      <c r="A59" s="37"/>
+      <c r="B59" s="40"/>
+      <c r="C59" s="45"/>
+      <c r="D59" s="10"/>
+      <c r="E59" s="11"/>
+      <c r="F59" s="48"/>
+      <c r="G59" s="48"/>
+      <c r="H59" s="12"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="37"/>
-      <c r="B60" s="40"/>
-      <c r="C60" s="45"/>
-      <c r="D60" s="10"/>
-      <c r="E60" s="11"/>
-      <c r="F60" s="48"/>
-      <c r="G60" s="48"/>
-      <c r="H60" s="12"/>
+      <c r="A60" s="39"/>
+      <c r="B60" s="42"/>
+      <c r="C60" s="44"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="46"/>
+      <c r="G60" s="46"/>
+      <c r="H60" s="14"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="39"/>
-      <c r="B61" s="42"/>
-      <c r="C61" s="44"/>
-      <c r="D61" s="4"/>
-      <c r="E61" s="3"/>
-      <c r="F61" s="46"/>
-      <c r="G61" s="46"/>
-      <c r="H61" s="14"/>
+      <c r="A61" s="38"/>
+      <c r="B61" s="43"/>
+      <c r="C61" s="43"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="27"/>
+      <c r="F61" s="49"/>
+      <c r="G61" s="43"/>
+      <c r="H61" s="13"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="38"/>
-      <c r="B62" s="43"/>
-      <c r="C62" s="43"/>
-      <c r="D62" s="6"/>
-      <c r="E62" s="27"/>
-      <c r="F62" s="49"/>
-      <c r="G62" s="43"/>
-      <c r="H62" s="13"/>
+      <c r="A62" s="37"/>
+      <c r="B62" s="40"/>
+      <c r="C62" s="45"/>
+      <c r="D62" s="10"/>
+      <c r="E62" s="11"/>
+      <c r="F62" s="48"/>
+      <c r="G62" s="48"/>
+      <c r="H62" s="12"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="37"/>
-      <c r="B63" s="40"/>
-      <c r="C63" s="45"/>
-      <c r="D63" s="10"/>
-      <c r="E63" s="11"/>
-      <c r="F63" s="48"/>
-      <c r="G63" s="48"/>
-      <c r="H63" s="12"/>
+      <c r="A63" s="38"/>
+      <c r="B63" s="43"/>
+      <c r="C63" s="43"/>
+      <c r="D63" s="6"/>
+      <c r="E63" s="27"/>
+      <c r="F63" s="49"/>
+      <c r="G63" s="43"/>
+      <c r="H63" s="13"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="38"/>
-      <c r="B64" s="43"/>
-      <c r="C64" s="43"/>
-      <c r="D64" s="6"/>
-      <c r="E64" s="27"/>
-      <c r="F64" s="49"/>
-      <c r="G64" s="43"/>
-      <c r="H64" s="13"/>
+      <c r="A64" s="37"/>
+      <c r="B64" s="40"/>
+      <c r="C64" s="45"/>
+      <c r="D64" s="10"/>
+      <c r="E64" s="11"/>
+      <c r="F64" s="48"/>
+      <c r="G64" s="48"/>
+      <c r="H64" s="12"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="37"/>
-      <c r="B65" s="40"/>
-      <c r="C65" s="45"/>
-      <c r="D65" s="10"/>
-      <c r="E65" s="11"/>
-      <c r="F65" s="48"/>
-      <c r="G65" s="48"/>
-      <c r="H65" s="12"/>
+      <c r="A65" s="39"/>
+      <c r="B65" s="42"/>
+      <c r="C65" s="44"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="3"/>
+      <c r="F65" s="46"/>
+      <c r="G65" s="46"/>
+      <c r="H65" s="14"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="39"/>
-      <c r="B66" s="42"/>
-      <c r="C66" s="44"/>
-      <c r="D66" s="4"/>
-      <c r="E66" s="3"/>
-      <c r="F66" s="46"/>
-      <c r="G66" s="46"/>
-      <c r="H66" s="14"/>
+      <c r="A66" s="38"/>
+      <c r="B66" s="43"/>
+      <c r="C66" s="43"/>
+      <c r="D66" s="6"/>
+      <c r="E66" s="27"/>
+      <c r="F66" s="49"/>
+      <c r="G66" s="43"/>
+      <c r="H66" s="13"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="38"/>
-      <c r="B67" s="43"/>
-      <c r="C67" s="43"/>
-      <c r="D67" s="6"/>
-      <c r="E67" s="27"/>
-      <c r="F67" s="49"/>
-      <c r="G67" s="43"/>
-      <c r="H67" s="13"/>
+      <c r="A67" s="37"/>
+      <c r="B67" s="40"/>
+      <c r="C67" s="45"/>
+      <c r="D67" s="10"/>
+      <c r="E67" s="11"/>
+      <c r="F67" s="48"/>
+      <c r="G67" s="48"/>
+      <c r="H67" s="12"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="37"/>
-      <c r="B68" s="40"/>
-      <c r="C68" s="45"/>
-      <c r="D68" s="10"/>
-      <c r="E68" s="11"/>
-      <c r="F68" s="48"/>
-      <c r="G68" s="48"/>
-      <c r="H68" s="12"/>
+      <c r="A68" s="39"/>
+      <c r="B68" s="42"/>
+      <c r="C68" s="44"/>
+      <c r="D68" s="4"/>
+      <c r="E68" s="3"/>
+      <c r="F68" s="46"/>
+      <c r="G68" s="46"/>
+      <c r="H68" s="14"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="39"/>
-      <c r="B69" s="42"/>
-      <c r="C69" s="44"/>
-      <c r="D69" s="4"/>
-      <c r="E69" s="3"/>
-      <c r="F69" s="46"/>
-      <c r="G69" s="46"/>
-      <c r="H69" s="14"/>
+      <c r="A69" s="38"/>
+      <c r="B69" s="43"/>
+      <c r="C69" s="43"/>
+      <c r="D69" s="6"/>
+      <c r="E69" s="27"/>
+      <c r="F69" s="49"/>
+      <c r="G69" s="43"/>
+      <c r="H69" s="13"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="38"/>
-      <c r="B70" s="43"/>
-      <c r="C70" s="43"/>
-      <c r="D70" s="6"/>
-      <c r="E70" s="27"/>
-      <c r="F70" s="49"/>
-      <c r="G70" s="43"/>
-      <c r="H70" s="13"/>
+      <c r="A70" s="37"/>
+      <c r="B70" s="40"/>
+      <c r="C70" s="45"/>
+      <c r="D70" s="10"/>
+      <c r="E70" s="11"/>
+      <c r="F70" s="48"/>
+      <c r="G70" s="48"/>
+      <c r="H70" s="12"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="37"/>
-      <c r="B71" s="40"/>
-      <c r="C71" s="45"/>
-      <c r="D71" s="10"/>
-      <c r="E71" s="11"/>
-      <c r="F71" s="48"/>
-      <c r="G71" s="48"/>
-      <c r="H71" s="12"/>
+      <c r="A71" s="39"/>
+      <c r="B71" s="42"/>
+      <c r="C71" s="44"/>
+      <c r="D71" s="4"/>
+      <c r="E71" s="3"/>
+      <c r="F71" s="46"/>
+      <c r="G71" s="46"/>
+      <c r="H71" s="14"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="39"/>
-      <c r="B72" s="42"/>
-      <c r="C72" s="44"/>
-      <c r="D72" s="4"/>
-      <c r="E72" s="3"/>
-      <c r="F72" s="46"/>
-      <c r="G72" s="46"/>
-      <c r="H72" s="14"/>
+      <c r="A72" s="38"/>
+      <c r="B72" s="43"/>
+      <c r="C72" s="43"/>
+      <c r="D72" s="6"/>
+      <c r="E72" s="27"/>
+      <c r="F72" s="49"/>
+      <c r="G72" s="43"/>
+      <c r="H72" s="13"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="38"/>
-      <c r="B73" s="43"/>
-      <c r="C73" s="43"/>
-      <c r="D73" s="6"/>
-      <c r="E73" s="27"/>
-      <c r="F73" s="49"/>
-      <c r="G73" s="43"/>
-      <c r="H73" s="13"/>
+      <c r="A73" s="37"/>
+      <c r="B73" s="40"/>
+      <c r="C73" s="45"/>
+      <c r="D73" s="10"/>
+      <c r="E73" s="11"/>
+      <c r="F73" s="48"/>
+      <c r="G73" s="48"/>
+      <c r="H73" s="12"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="37"/>
-      <c r="B74" s="40"/>
-      <c r="C74" s="45"/>
-      <c r="D74" s="10"/>
-      <c r="E74" s="11"/>
-      <c r="F74" s="48"/>
-      <c r="G74" s="48"/>
-      <c r="H74" s="12"/>
+      <c r="A74" s="38"/>
+      <c r="B74" s="43"/>
+      <c r="C74" s="43"/>
+      <c r="D74" s="6"/>
+      <c r="E74" s="27"/>
+      <c r="F74" s="49"/>
+      <c r="G74" s="43"/>
+      <c r="H74" s="13"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="38"/>
-      <c r="B75" s="43"/>
-      <c r="C75" s="43"/>
-      <c r="D75" s="6"/>
-      <c r="E75" s="27"/>
-      <c r="F75" s="49"/>
-      <c r="G75" s="43"/>
-      <c r="H75" s="13"/>
+      <c r="A75" s="37"/>
+      <c r="B75" s="40"/>
+      <c r="C75" s="45"/>
+      <c r="D75" s="10"/>
+      <c r="E75" s="11"/>
+      <c r="F75" s="48"/>
+      <c r="G75" s="48"/>
+      <c r="H75" s="12"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" s="37"/>
-      <c r="B76" s="40"/>
-      <c r="C76" s="45"/>
-      <c r="D76" s="10"/>
-      <c r="E76" s="11"/>
-      <c r="F76" s="48"/>
-      <c r="G76" s="48"/>
-      <c r="H76" s="12"/>
+      <c r="A76" s="39"/>
+      <c r="B76" s="42"/>
+      <c r="C76" s="44"/>
+      <c r="D76" s="4"/>
+      <c r="E76" s="3"/>
+      <c r="F76" s="46"/>
+      <c r="G76" s="46"/>
+      <c r="H76" s="14"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77" s="39"/>
-      <c r="B77" s="42"/>
-      <c r="C77" s="44"/>
-      <c r="D77" s="4"/>
-      <c r="E77" s="3"/>
-      <c r="F77" s="46"/>
-      <c r="G77" s="46"/>
-      <c r="H77" s="14"/>
+      <c r="A77" s="38"/>
+      <c r="B77" s="43"/>
+      <c r="C77" s="43"/>
+      <c r="D77" s="6"/>
+      <c r="E77" s="27"/>
+      <c r="F77" s="49"/>
+      <c r="G77" s="43"/>
+      <c r="H77" s="13"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" s="38"/>
-      <c r="B78" s="43"/>
-      <c r="C78" s="43"/>
-      <c r="D78" s="6"/>
-      <c r="E78" s="27"/>
-      <c r="F78" s="49"/>
-      <c r="G78" s="43"/>
-      <c r="H78" s="13"/>
+      <c r="A78" s="37"/>
+      <c r="B78" s="40"/>
+      <c r="C78" s="45"/>
+      <c r="D78" s="10"/>
+      <c r="E78" s="11"/>
+      <c r="F78" s="48"/>
+      <c r="G78" s="48"/>
+      <c r="H78" s="12"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" s="37"/>
-      <c r="B79" s="40"/>
-      <c r="C79" s="45"/>
-      <c r="D79" s="10"/>
-      <c r="E79" s="11"/>
-      <c r="F79" s="48"/>
-      <c r="G79" s="48"/>
-      <c r="H79" s="12"/>
+      <c r="A79" s="39"/>
+      <c r="B79" s="42"/>
+      <c r="C79" s="44"/>
+      <c r="D79" s="4"/>
+      <c r="E79" s="3"/>
+      <c r="F79" s="46"/>
+      <c r="G79" s="46"/>
+      <c r="H79" s="14"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80" s="39"/>
-      <c r="B80" s="42"/>
-      <c r="C80" s="44"/>
-      <c r="D80" s="4"/>
-      <c r="E80" s="3"/>
-      <c r="F80" s="46"/>
-      <c r="G80" s="46"/>
-      <c r="H80" s="14"/>
+      <c r="A80" s="38"/>
+      <c r="B80" s="43"/>
+      <c r="C80" s="43"/>
+      <c r="D80" s="6"/>
+      <c r="E80" s="27"/>
+      <c r="F80" s="49"/>
+      <c r="G80" s="43"/>
+      <c r="H80" s="13"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81" s="38"/>
-      <c r="B81" s="43"/>
-      <c r="C81" s="43"/>
-      <c r="D81" s="6"/>
-      <c r="E81" s="27"/>
-      <c r="F81" s="49"/>
-      <c r="G81" s="43"/>
-      <c r="H81" s="13"/>
+      <c r="A81" s="37"/>
+      <c r="B81" s="40"/>
+      <c r="C81" s="45"/>
+      <c r="D81" s="10"/>
+      <c r="E81" s="11"/>
+      <c r="F81" s="48"/>
+      <c r="G81" s="48"/>
+      <c r="H81" s="12"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" s="37"/>
-      <c r="B82" s="40"/>
-      <c r="C82" s="45"/>
-      <c r="D82" s="10"/>
-      <c r="E82" s="11"/>
-      <c r="F82" s="48"/>
-      <c r="G82" s="48"/>
-      <c r="H82" s="12"/>
+      <c r="A82" s="39"/>
+      <c r="B82" s="42"/>
+      <c r="C82" s="44"/>
+      <c r="D82" s="4"/>
+      <c r="E82" s="3"/>
+      <c r="F82" s="46"/>
+      <c r="G82" s="46"/>
+      <c r="H82" s="14"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A83" s="39"/>
-      <c r="B83" s="42"/>
-      <c r="C83" s="44"/>
-      <c r="D83" s="4"/>
-      <c r="E83" s="3"/>
-      <c r="F83" s="46"/>
-      <c r="G83" s="46"/>
-      <c r="H83" s="14"/>
+      <c r="A83" s="38"/>
+      <c r="B83" s="43"/>
+      <c r="C83" s="43"/>
+      <c r="D83" s="6"/>
+      <c r="E83" s="27"/>
+      <c r="F83" s="49"/>
+      <c r="G83" s="43"/>
+      <c r="H83" s="13"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84" s="38"/>
-      <c r="B84" s="43"/>
-      <c r="C84" s="43"/>
-      <c r="D84" s="6"/>
-      <c r="E84" s="27"/>
-      <c r="F84" s="49"/>
-      <c r="G84" s="43"/>
-      <c r="H84" s="13"/>
+      <c r="A84" s="37"/>
+      <c r="B84" s="40"/>
+      <c r="C84" s="45"/>
+      <c r="D84" s="10"/>
+      <c r="E84" s="11"/>
+      <c r="F84" s="48"/>
+      <c r="G84" s="48"/>
+      <c r="H84" s="12"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85" s="37"/>
-      <c r="B85" s="40"/>
-      <c r="C85" s="45"/>
-      <c r="D85" s="10"/>
-      <c r="E85" s="11"/>
-      <c r="F85" s="48"/>
-      <c r="G85" s="48"/>
-      <c r="H85" s="12"/>
+      <c r="A85" s="38"/>
+      <c r="B85" s="43"/>
+      <c r="C85" s="43"/>
+      <c r="D85" s="6"/>
+      <c r="E85" s="27"/>
+      <c r="F85" s="49"/>
+      <c r="G85" s="43"/>
+      <c r="H85" s="13"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86" s="38"/>
-      <c r="B86" s="43"/>
-      <c r="C86" s="43"/>
-      <c r="D86" s="6"/>
-      <c r="E86" s="27"/>
-      <c r="F86" s="49"/>
-      <c r="G86" s="43"/>
-      <c r="H86" s="13"/>
+      <c r="A86" s="37"/>
+      <c r="B86" s="40"/>
+      <c r="C86" s="45"/>
+      <c r="D86" s="10"/>
+      <c r="E86" s="11"/>
+      <c r="F86" s="48"/>
+      <c r="G86" s="48"/>
+      <c r="H86" s="12"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A87" s="37"/>
-      <c r="B87" s="40"/>
-      <c r="C87" s="45"/>
-      <c r="D87" s="10"/>
-      <c r="E87" s="11"/>
-      <c r="F87" s="48"/>
-      <c r="G87" s="48"/>
-      <c r="H87" s="12"/>
+      <c r="A87" s="39"/>
+      <c r="B87" s="42"/>
+      <c r="C87" s="44"/>
+      <c r="D87" s="4"/>
+      <c r="E87" s="3"/>
+      <c r="F87" s="46"/>
+      <c r="G87" s="46"/>
+      <c r="H87" s="14"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="39"/>
@@ -1855,144 +1876,144 @@
       <c r="H88" s="14"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A89" s="39"/>
-      <c r="B89" s="42"/>
-      <c r="C89" s="44"/>
-      <c r="D89" s="4"/>
-      <c r="E89" s="3"/>
-      <c r="F89" s="46"/>
-      <c r="G89" s="46"/>
-      <c r="H89" s="14"/>
+      <c r="A89" s="38"/>
+      <c r="B89" s="43"/>
+      <c r="C89" s="43"/>
+      <c r="D89" s="6"/>
+      <c r="E89" s="27"/>
+      <c r="F89" s="49"/>
+      <c r="G89" s="43"/>
+      <c r="H89" s="13"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90" s="38"/>
-      <c r="B90" s="43"/>
-      <c r="C90" s="43"/>
-      <c r="D90" s="6"/>
-      <c r="E90" s="27"/>
-      <c r="F90" s="49"/>
-      <c r="G90" s="43"/>
-      <c r="H90" s="13"/>
+      <c r="A90" s="37"/>
+      <c r="B90" s="40"/>
+      <c r="C90" s="45"/>
+      <c r="D90" s="10"/>
+      <c r="E90" s="11"/>
+      <c r="F90" s="48"/>
+      <c r="G90" s="48"/>
+      <c r="H90" s="12"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91" s="37"/>
-      <c r="B91" s="40"/>
-      <c r="C91" s="45"/>
-      <c r="D91" s="10"/>
-      <c r="E91" s="11"/>
-      <c r="F91" s="48"/>
-      <c r="G91" s="48"/>
-      <c r="H91" s="12"/>
+      <c r="A91" s="38"/>
+      <c r="B91" s="43"/>
+      <c r="C91" s="43"/>
+      <c r="D91" s="6"/>
+      <c r="E91" s="27"/>
+      <c r="F91" s="49"/>
+      <c r="G91" s="43"/>
+      <c r="H91" s="13"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A92" s="38"/>
-      <c r="B92" s="43"/>
-      <c r="C92" s="43"/>
-      <c r="D92" s="6"/>
-      <c r="E92" s="27"/>
-      <c r="F92" s="49"/>
-      <c r="G92" s="43"/>
-      <c r="H92" s="13"/>
+      <c r="A92" s="37"/>
+      <c r="B92" s="40"/>
+      <c r="C92" s="45"/>
+      <c r="D92" s="10"/>
+      <c r="E92" s="11"/>
+      <c r="F92" s="48"/>
+      <c r="G92" s="48"/>
+      <c r="H92" s="12"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93" s="37"/>
-      <c r="B93" s="40"/>
-      <c r="C93" s="45"/>
-      <c r="D93" s="10"/>
-      <c r="E93" s="11"/>
-      <c r="F93" s="48"/>
-      <c r="G93" s="48"/>
-      <c r="H93" s="12"/>
+      <c r="A93" s="39"/>
+      <c r="B93" s="42"/>
+      <c r="C93" s="44"/>
+      <c r="D93" s="4"/>
+      <c r="E93" s="3"/>
+      <c r="F93" s="46"/>
+      <c r="G93" s="46"/>
+      <c r="H93" s="14"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A94" s="39"/>
-      <c r="B94" s="42"/>
-      <c r="C94" s="44"/>
-      <c r="D94" s="4"/>
-      <c r="E94" s="3"/>
-      <c r="F94" s="46"/>
-      <c r="G94" s="46"/>
-      <c r="H94" s="14"/>
+      <c r="A94" s="38"/>
+      <c r="B94" s="43"/>
+      <c r="C94" s="43"/>
+      <c r="D94" s="6"/>
+      <c r="E94" s="27"/>
+      <c r="F94" s="49"/>
+      <c r="G94" s="43"/>
+      <c r="H94" s="13"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A95" s="38"/>
-      <c r="B95" s="43"/>
-      <c r="C95" s="43"/>
-      <c r="D95" s="6"/>
-      <c r="E95" s="27"/>
-      <c r="F95" s="49"/>
-      <c r="G95" s="43"/>
-      <c r="H95" s="13"/>
+      <c r="A95" s="37"/>
+      <c r="B95" s="40"/>
+      <c r="C95" s="45"/>
+      <c r="D95" s="10"/>
+      <c r="E95" s="11"/>
+      <c r="F95" s="48"/>
+      <c r="G95" s="48"/>
+      <c r="H95" s="12"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A96" s="37"/>
-      <c r="B96" s="40"/>
-      <c r="C96" s="45"/>
-      <c r="D96" s="10"/>
-      <c r="E96" s="11"/>
-      <c r="F96" s="48"/>
-      <c r="G96" s="48"/>
-      <c r="H96" s="12"/>
+      <c r="A96" s="38"/>
+      <c r="B96" s="43"/>
+      <c r="C96" s="43"/>
+      <c r="D96" s="6"/>
+      <c r="E96" s="27"/>
+      <c r="F96" s="49"/>
+      <c r="G96" s="43"/>
+      <c r="H96" s="13"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A97" s="38"/>
-      <c r="B97" s="43"/>
-      <c r="C97" s="43"/>
-      <c r="D97" s="6"/>
-      <c r="E97" s="27"/>
-      <c r="F97" s="49"/>
-      <c r="G97" s="43"/>
-      <c r="H97" s="13"/>
+      <c r="A97" s="37"/>
+      <c r="B97" s="40"/>
+      <c r="C97" s="45"/>
+      <c r="D97" s="10"/>
+      <c r="E97" s="11"/>
+      <c r="F97" s="48"/>
+      <c r="G97" s="48"/>
+      <c r="H97" s="12"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A98" s="37"/>
-      <c r="B98" s="40"/>
-      <c r="C98" s="45"/>
-      <c r="D98" s="10"/>
-      <c r="E98" s="11"/>
-      <c r="F98" s="48"/>
-      <c r="G98" s="48"/>
-      <c r="H98" s="12"/>
+      <c r="A98" s="39"/>
+      <c r="B98" s="42"/>
+      <c r="C98" s="44"/>
+      <c r="D98" s="4"/>
+      <c r="E98" s="3"/>
+      <c r="F98" s="46"/>
+      <c r="G98" s="46"/>
+      <c r="H98" s="14"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A99" s="39"/>
-      <c r="B99" s="42"/>
-      <c r="C99" s="44"/>
-      <c r="D99" s="4"/>
-      <c r="E99" s="3"/>
-      <c r="F99" s="46"/>
-      <c r="G99" s="46"/>
-      <c r="H99" s="14"/>
+      <c r="A99" s="38"/>
+      <c r="B99" s="43"/>
+      <c r="C99" s="43"/>
+      <c r="D99" s="6"/>
+      <c r="E99" s="27"/>
+      <c r="F99" s="49"/>
+      <c r="G99" s="43"/>
+      <c r="H99" s="13"/>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A100" s="38"/>
-      <c r="B100" s="43"/>
-      <c r="C100" s="43"/>
-      <c r="D100" s="6"/>
-      <c r="E100" s="27"/>
-      <c r="F100" s="49"/>
-      <c r="G100" s="43"/>
-      <c r="H100" s="13"/>
+      <c r="A100" s="37"/>
+      <c r="B100" s="40"/>
+      <c r="C100" s="45"/>
+      <c r="D100" s="10"/>
+      <c r="E100" s="11"/>
+      <c r="F100" s="48"/>
+      <c r="G100" s="48"/>
+      <c r="H100" s="12"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A101" s="37"/>
-      <c r="B101" s="40"/>
-      <c r="C101" s="45"/>
-      <c r="D101" s="10"/>
-      <c r="E101" s="11"/>
-      <c r="F101" s="48"/>
-      <c r="G101" s="48"/>
-      <c r="H101" s="12"/>
+      <c r="A101" s="38"/>
+      <c r="B101" s="43"/>
+      <c r="C101" s="43"/>
+      <c r="D101" s="6"/>
+      <c r="E101" s="27"/>
+      <c r="F101" s="49"/>
+      <c r="G101" s="43"/>
+      <c r="H101" s="13"/>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A102" s="38"/>
-      <c r="B102" s="43"/>
-      <c r="C102" s="43"/>
-      <c r="D102" s="6"/>
-      <c r="E102" s="27"/>
-      <c r="F102" s="49"/>
-      <c r="G102" s="43"/>
-      <c r="H102" s="13"/>
+      <c r="A102" s="39"/>
+      <c r="B102" s="42"/>
+      <c r="C102" s="44"/>
+      <c r="D102" s="4"/>
+      <c r="E102" s="3"/>
+      <c r="F102" s="46"/>
+      <c r="G102" s="46"/>
+      <c r="H102" s="17"/>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="39"/>
@@ -2006,343 +2027,343 @@
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="39"/>
-      <c r="B104" s="42"/>
+      <c r="B104" s="44"/>
       <c r="C104" s="44"/>
-      <c r="D104" s="4"/>
-      <c r="E104" s="3"/>
-      <c r="F104" s="46"/>
-      <c r="G104" s="46"/>
+      <c r="D104" s="2"/>
+      <c r="E104" s="19"/>
+      <c r="F104" s="50"/>
+      <c r="G104" s="44"/>
       <c r="H104" s="17"/>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A105" s="39"/>
-      <c r="B105" s="44"/>
-      <c r="C105" s="44"/>
-      <c r="D105" s="2"/>
-      <c r="E105" s="19"/>
-      <c r="F105" s="50"/>
-      <c r="G105" s="44"/>
-      <c r="H105" s="17"/>
+      <c r="A105" s="37"/>
+      <c r="B105" s="40"/>
+      <c r="C105" s="45"/>
+      <c r="D105" s="10"/>
+      <c r="E105" s="11"/>
+      <c r="F105" s="48"/>
+      <c r="G105" s="48"/>
+      <c r="H105" s="12"/>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A106" s="37"/>
-      <c r="B106" s="40"/>
-      <c r="C106" s="45"/>
-      <c r="D106" s="10"/>
-      <c r="E106" s="11"/>
-      <c r="F106" s="48"/>
-      <c r="G106" s="48"/>
-      <c r="H106" s="12"/>
+      <c r="A106" s="39"/>
+      <c r="B106" s="42"/>
+      <c r="C106" s="44"/>
+      <c r="D106" s="4"/>
+      <c r="E106" s="3"/>
+      <c r="F106" s="46"/>
+      <c r="G106" s="46"/>
+      <c r="H106" s="14"/>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A107" s="39"/>
-      <c r="B107" s="42"/>
-      <c r="C107" s="44"/>
-      <c r="D107" s="4"/>
-      <c r="E107" s="3"/>
-      <c r="F107" s="46"/>
-      <c r="G107" s="46"/>
-      <c r="H107" s="14"/>
+      <c r="A107" s="38"/>
+      <c r="B107" s="41"/>
+      <c r="C107" s="43"/>
+      <c r="D107" s="8"/>
+      <c r="E107" s="7"/>
+      <c r="F107" s="47"/>
+      <c r="G107" s="47"/>
+      <c r="H107" s="13"/>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A108" s="38"/>
-      <c r="B108" s="41"/>
-      <c r="C108" s="43"/>
-      <c r="D108" s="8"/>
-      <c r="E108" s="7"/>
-      <c r="F108" s="47"/>
-      <c r="G108" s="47"/>
-      <c r="H108" s="13"/>
+      <c r="A108" s="37"/>
+      <c r="B108" s="40"/>
+      <c r="C108" s="45"/>
+      <c r="D108" s="10"/>
+      <c r="E108" s="11"/>
+      <c r="F108" s="48"/>
+      <c r="G108" s="48"/>
+      <c r="H108" s="12"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A109" s="37"/>
-      <c r="B109" s="40"/>
-      <c r="C109" s="45"/>
-      <c r="D109" s="10"/>
-      <c r="E109" s="11"/>
-      <c r="F109" s="48"/>
-      <c r="G109" s="48"/>
-      <c r="H109" s="12"/>
+      <c r="A109" s="38"/>
+      <c r="B109" s="41"/>
+      <c r="C109" s="43"/>
+      <c r="D109" s="8"/>
+      <c r="E109" s="7"/>
+      <c r="F109" s="47"/>
+      <c r="G109" s="47"/>
+      <c r="H109" s="13"/>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A110" s="38"/>
-      <c r="B110" s="41"/>
-      <c r="C110" s="43"/>
-      <c r="D110" s="8"/>
-      <c r="E110" s="7"/>
-      <c r="F110" s="47"/>
-      <c r="G110" s="47"/>
-      <c r="H110" s="13"/>
+      <c r="A110" s="37"/>
+      <c r="B110" s="40"/>
+      <c r="C110" s="45"/>
+      <c r="D110" s="10"/>
+      <c r="E110" s="11"/>
+      <c r="F110" s="48"/>
+      <c r="G110" s="48"/>
+      <c r="H110" s="12"/>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A111" s="37"/>
-      <c r="B111" s="40"/>
-      <c r="C111" s="45"/>
-      <c r="D111" s="10"/>
-      <c r="E111" s="11"/>
-      <c r="F111" s="48"/>
-      <c r="G111" s="48"/>
-      <c r="H111" s="12"/>
+      <c r="A111" s="39"/>
+      <c r="B111" s="42"/>
+      <c r="C111" s="44"/>
+      <c r="D111" s="4"/>
+      <c r="E111" s="3"/>
+      <c r="F111" s="46"/>
+      <c r="G111" s="46"/>
+      <c r="H111" s="14"/>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A112" s="39"/>
-      <c r="B112" s="42"/>
-      <c r="C112" s="44"/>
-      <c r="D112" s="4"/>
-      <c r="E112" s="3"/>
-      <c r="F112" s="46"/>
-      <c r="G112" s="46"/>
-      <c r="H112" s="14"/>
+      <c r="A112" s="38"/>
+      <c r="B112" s="41"/>
+      <c r="C112" s="43"/>
+      <c r="D112" s="8"/>
+      <c r="E112" s="7"/>
+      <c r="F112" s="47"/>
+      <c r="G112" s="47"/>
+      <c r="H112" s="13"/>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A113" s="38"/>
-      <c r="B113" s="41"/>
-      <c r="C113" s="43"/>
-      <c r="D113" s="8"/>
-      <c r="E113" s="7"/>
-      <c r="F113" s="47"/>
-      <c r="G113" s="47"/>
-      <c r="H113" s="13"/>
+      <c r="A113" s="37"/>
+      <c r="B113" s="40"/>
+      <c r="C113" s="45"/>
+      <c r="D113" s="10"/>
+      <c r="E113" s="11"/>
+      <c r="F113" s="48"/>
+      <c r="G113" s="48"/>
+      <c r="H113" s="12"/>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A114" s="37"/>
-      <c r="B114" s="40"/>
-      <c r="C114" s="45"/>
-      <c r="D114" s="10"/>
-      <c r="E114" s="11"/>
-      <c r="F114" s="48"/>
-      <c r="G114" s="48"/>
-      <c r="H114" s="12"/>
+      <c r="A114" s="39"/>
+      <c r="B114" s="42"/>
+      <c r="C114" s="44"/>
+      <c r="D114" s="4"/>
+      <c r="E114" s="3"/>
+      <c r="F114" s="46"/>
+      <c r="G114" s="46"/>
+      <c r="H114" s="14"/>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A115" s="39"/>
-      <c r="B115" s="42"/>
-      <c r="C115" s="44"/>
-      <c r="D115" s="4"/>
-      <c r="E115" s="3"/>
-      <c r="F115" s="46"/>
-      <c r="G115" s="46"/>
-      <c r="H115" s="14"/>
+      <c r="A115" s="38"/>
+      <c r="B115" s="41"/>
+      <c r="C115" s="43"/>
+      <c r="D115" s="8"/>
+      <c r="E115" s="7"/>
+      <c r="F115" s="47"/>
+      <c r="G115" s="47"/>
+      <c r="H115" s="13"/>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A116" s="38"/>
-      <c r="B116" s="41"/>
-      <c r="C116" s="43"/>
-      <c r="D116" s="8"/>
-      <c r="E116" s="7"/>
-      <c r="F116" s="47"/>
-      <c r="G116" s="47"/>
-      <c r="H116" s="13"/>
+      <c r="A116" s="37"/>
+      <c r="B116" s="40"/>
+      <c r="C116" s="45"/>
+      <c r="D116" s="10"/>
+      <c r="E116" s="11"/>
+      <c r="F116" s="48"/>
+      <c r="G116" s="48"/>
+      <c r="H116" s="12"/>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A117" s="37"/>
-      <c r="B117" s="40"/>
-      <c r="C117" s="45"/>
-      <c r="D117" s="10"/>
-      <c r="E117" s="11"/>
-      <c r="F117" s="48"/>
-      <c r="G117" s="48"/>
-      <c r="H117" s="12"/>
+      <c r="A117" s="39"/>
+      <c r="B117" s="42"/>
+      <c r="C117" s="44"/>
+      <c r="D117" s="4"/>
+      <c r="E117" s="3"/>
+      <c r="F117" s="46"/>
+      <c r="G117" s="46"/>
+      <c r="H117" s="14"/>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A118" s="39"/>
-      <c r="B118" s="42"/>
-      <c r="C118" s="44"/>
-      <c r="D118" s="4"/>
-      <c r="E118" s="3"/>
-      <c r="F118" s="46"/>
-      <c r="G118" s="46"/>
-      <c r="H118" s="14"/>
+      <c r="A118" s="38"/>
+      <c r="B118" s="41"/>
+      <c r="C118" s="43"/>
+      <c r="D118" s="8"/>
+      <c r="E118" s="7"/>
+      <c r="F118" s="47"/>
+      <c r="G118" s="47"/>
+      <c r="H118" s="13"/>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A119" s="38"/>
-      <c r="B119" s="41"/>
-      <c r="C119" s="43"/>
-      <c r="D119" s="8"/>
-      <c r="E119" s="7"/>
-      <c r="F119" s="47"/>
-      <c r="G119" s="47"/>
-      <c r="H119" s="13"/>
+      <c r="A119" s="37"/>
+      <c r="B119" s="40"/>
+      <c r="C119" s="45"/>
+      <c r="D119" s="10"/>
+      <c r="E119" s="11"/>
+      <c r="F119" s="48"/>
+      <c r="G119" s="48"/>
+      <c r="H119" s="12"/>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A120" s="37"/>
-      <c r="B120" s="40"/>
-      <c r="C120" s="45"/>
-      <c r="D120" s="10"/>
-      <c r="E120" s="11"/>
-      <c r="F120" s="48"/>
-      <c r="G120" s="48"/>
-      <c r="H120" s="12"/>
+      <c r="A120" s="38"/>
+      <c r="B120" s="41"/>
+      <c r="C120" s="43"/>
+      <c r="D120" s="8"/>
+      <c r="E120" s="7"/>
+      <c r="F120" s="47"/>
+      <c r="G120" s="47"/>
+      <c r="H120" s="13"/>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A121" s="38"/>
-      <c r="B121" s="41"/>
-      <c r="C121" s="43"/>
-      <c r="D121" s="8"/>
-      <c r="E121" s="7"/>
-      <c r="F121" s="47"/>
-      <c r="G121" s="47"/>
-      <c r="H121" s="13"/>
+      <c r="A121" s="37"/>
+      <c r="B121" s="40"/>
+      <c r="C121" s="45"/>
+      <c r="D121" s="10"/>
+      <c r="E121" s="11"/>
+      <c r="F121" s="48"/>
+      <c r="G121" s="48"/>
+      <c r="H121" s="12"/>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A122" s="37"/>
-      <c r="B122" s="40"/>
-      <c r="C122" s="45"/>
-      <c r="D122" s="10"/>
-      <c r="E122" s="11"/>
-      <c r="F122" s="48"/>
-      <c r="G122" s="48"/>
-      <c r="H122" s="12"/>
+      <c r="A122" s="39"/>
+      <c r="B122" s="42"/>
+      <c r="C122" s="44"/>
+      <c r="D122" s="4"/>
+      <c r="E122" s="3"/>
+      <c r="F122" s="46"/>
+      <c r="G122" s="46"/>
+      <c r="H122" s="14"/>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A123" s="39"/>
-      <c r="B123" s="42"/>
-      <c r="C123" s="44"/>
-      <c r="D123" s="4"/>
-      <c r="E123" s="3"/>
-      <c r="F123" s="46"/>
-      <c r="G123" s="46"/>
-      <c r="H123" s="14"/>
+      <c r="A123" s="38"/>
+      <c r="B123" s="41"/>
+      <c r="C123" s="43"/>
+      <c r="D123" s="8"/>
+      <c r="E123" s="7"/>
+      <c r="F123" s="47"/>
+      <c r="G123" s="47"/>
+      <c r="H123" s="13"/>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A124" s="38"/>
-      <c r="B124" s="41"/>
-      <c r="C124" s="43"/>
-      <c r="D124" s="8"/>
-      <c r="E124" s="7"/>
-      <c r="F124" s="47"/>
-      <c r="G124" s="47"/>
-      <c r="H124" s="13"/>
+      <c r="A124" s="37"/>
+      <c r="B124" s="40"/>
+      <c r="C124" s="45"/>
+      <c r="D124" s="10"/>
+      <c r="E124" s="11"/>
+      <c r="F124" s="48"/>
+      <c r="G124" s="48"/>
+      <c r="H124" s="12"/>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A125" s="37"/>
-      <c r="B125" s="40"/>
-      <c r="C125" s="45"/>
-      <c r="D125" s="10"/>
-      <c r="E125" s="11"/>
-      <c r="F125" s="48"/>
-      <c r="G125" s="48"/>
-      <c r="H125" s="12"/>
+      <c r="A125" s="39"/>
+      <c r="B125" s="42"/>
+      <c r="C125" s="44"/>
+      <c r="D125" s="4"/>
+      <c r="E125" s="3"/>
+      <c r="F125" s="46"/>
+      <c r="G125" s="46"/>
+      <c r="H125" s="14"/>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A126" s="39"/>
-      <c r="B126" s="42"/>
-      <c r="C126" s="44"/>
-      <c r="D126" s="4"/>
-      <c r="E126" s="3"/>
-      <c r="F126" s="46"/>
-      <c r="G126" s="46"/>
-      <c r="H126" s="14"/>
+      <c r="A126" s="38"/>
+      <c r="B126" s="41"/>
+      <c r="C126" s="43"/>
+      <c r="D126" s="8"/>
+      <c r="E126" s="7"/>
+      <c r="F126" s="47"/>
+      <c r="G126" s="47"/>
+      <c r="H126" s="13"/>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A127" s="38"/>
-      <c r="B127" s="41"/>
-      <c r="C127" s="43"/>
-      <c r="D127" s="8"/>
-      <c r="E127" s="7"/>
-      <c r="F127" s="47"/>
-      <c r="G127" s="47"/>
-      <c r="H127" s="13"/>
+      <c r="A127" s="37"/>
+      <c r="B127" s="40"/>
+      <c r="C127" s="45"/>
+      <c r="D127" s="10"/>
+      <c r="E127" s="11"/>
+      <c r="F127" s="48"/>
+      <c r="G127" s="48"/>
+      <c r="H127" s="12"/>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A128" s="37"/>
-      <c r="B128" s="40"/>
-      <c r="C128" s="45"/>
-      <c r="D128" s="10"/>
-      <c r="E128" s="11"/>
-      <c r="F128" s="48"/>
-      <c r="G128" s="48"/>
-      <c r="H128" s="12"/>
+      <c r="A128" s="39"/>
+      <c r="B128" s="42"/>
+      <c r="C128" s="44"/>
+      <c r="D128" s="4"/>
+      <c r="E128" s="3"/>
+      <c r="F128" s="46"/>
+      <c r="G128" s="46"/>
+      <c r="H128" s="14"/>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A129" s="39"/>
-      <c r="B129" s="42"/>
-      <c r="C129" s="44"/>
-      <c r="D129" s="4"/>
-      <c r="E129" s="3"/>
-      <c r="F129" s="46"/>
-      <c r="G129" s="46"/>
-      <c r="H129" s="14"/>
+      <c r="A129" s="38"/>
+      <c r="B129" s="41"/>
+      <c r="C129" s="43"/>
+      <c r="D129" s="8"/>
+      <c r="E129" s="7"/>
+      <c r="F129" s="47"/>
+      <c r="G129" s="47"/>
+      <c r="H129" s="13"/>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A130" s="38"/>
-      <c r="B130" s="41"/>
-      <c r="C130" s="43"/>
-      <c r="D130" s="8"/>
-      <c r="E130" s="7"/>
-      <c r="F130" s="47"/>
-      <c r="G130" s="47"/>
-      <c r="H130" s="13"/>
+      <c r="A130" s="37"/>
+      <c r="B130" s="40"/>
+      <c r="C130" s="45"/>
+      <c r="D130" s="10"/>
+      <c r="E130" s="11"/>
+      <c r="F130" s="48"/>
+      <c r="G130" s="48"/>
+      <c r="H130" s="12"/>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A131" s="37"/>
-      <c r="B131" s="40"/>
-      <c r="C131" s="45"/>
-      <c r="D131" s="10"/>
-      <c r="E131" s="11"/>
-      <c r="F131" s="48"/>
-      <c r="G131" s="48"/>
-      <c r="H131" s="12"/>
+      <c r="A131" s="39"/>
+      <c r="B131" s="42"/>
+      <c r="C131" s="44"/>
+      <c r="D131" s="4"/>
+      <c r="E131" s="3"/>
+      <c r="F131" s="46"/>
+      <c r="G131" s="46"/>
+      <c r="H131" s="14"/>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A132" s="39"/>
-      <c r="B132" s="42"/>
-      <c r="C132" s="44"/>
-      <c r="D132" s="4"/>
-      <c r="E132" s="3"/>
-      <c r="F132" s="46"/>
-      <c r="G132" s="46"/>
-      <c r="H132" s="14"/>
+      <c r="A132" s="38"/>
+      <c r="B132" s="41"/>
+      <c r="C132" s="43"/>
+      <c r="D132" s="8"/>
+      <c r="E132" s="7"/>
+      <c r="F132" s="47"/>
+      <c r="G132" s="47"/>
+      <c r="H132" s="13"/>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A133" s="38"/>
-      <c r="B133" s="41"/>
-      <c r="C133" s="43"/>
-      <c r="D133" s="8"/>
-      <c r="E133" s="7"/>
-      <c r="F133" s="47"/>
-      <c r="G133" s="47"/>
-      <c r="H133" s="13"/>
+      <c r="A133" s="37"/>
+      <c r="B133" s="40"/>
+      <c r="C133" s="45"/>
+      <c r="D133" s="10"/>
+      <c r="E133" s="11"/>
+      <c r="F133" s="48"/>
+      <c r="G133" s="48"/>
+      <c r="H133" s="12"/>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A134" s="37"/>
-      <c r="B134" s="40"/>
-      <c r="C134" s="45"/>
-      <c r="D134" s="10"/>
-      <c r="E134" s="11"/>
-      <c r="F134" s="48"/>
-      <c r="G134" s="48"/>
-      <c r="H134" s="12"/>
+      <c r="A134" s="39"/>
+      <c r="B134" s="42"/>
+      <c r="C134" s="44"/>
+      <c r="D134" s="4"/>
+      <c r="E134" s="3"/>
+      <c r="F134" s="46"/>
+      <c r="G134" s="46"/>
+      <c r="H134" s="14"/>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A135" s="39"/>
-      <c r="B135" s="42"/>
-      <c r="C135" s="44"/>
-      <c r="D135" s="4"/>
-      <c r="E135" s="3"/>
-      <c r="F135" s="46"/>
-      <c r="G135" s="46"/>
-      <c r="H135" s="14"/>
+      <c r="A135" s="38"/>
+      <c r="B135" s="41"/>
+      <c r="C135" s="43"/>
+      <c r="D135" s="8"/>
+      <c r="E135" s="7"/>
+      <c r="F135" s="47"/>
+      <c r="G135" s="47"/>
+      <c r="H135" s="13"/>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A136" s="38"/>
-      <c r="B136" s="41"/>
-      <c r="C136" s="43"/>
-      <c r="D136" s="8"/>
-      <c r="E136" s="7"/>
-      <c r="F136" s="47"/>
-      <c r="G136" s="47"/>
-      <c r="H136" s="13"/>
+      <c r="A136" s="37"/>
+      <c r="B136" s="40"/>
+      <c r="C136" s="45"/>
+      <c r="D136" s="10"/>
+      <c r="E136" s="11"/>
+      <c r="F136" s="48"/>
+      <c r="G136" s="48"/>
+      <c r="H136" s="12"/>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A137" s="37"/>
-      <c r="B137" s="40"/>
-      <c r="C137" s="45"/>
-      <c r="D137" s="10"/>
-      <c r="E137" s="11"/>
-      <c r="F137" s="48"/>
-      <c r="G137" s="48"/>
-      <c r="H137" s="12"/>
+      <c r="A137" s="39"/>
+      <c r="B137" s="42"/>
+      <c r="C137" s="44"/>
+      <c r="D137" s="4"/>
+      <c r="E137" s="3"/>
+      <c r="F137" s="46"/>
+      <c r="G137" s="46"/>
+      <c r="H137" s="14"/>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="39"/>
@@ -2355,24 +2376,24 @@
       <c r="H138" s="14"/>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A139" s="39"/>
-      <c r="B139" s="42"/>
-      <c r="C139" s="44"/>
-      <c r="D139" s="4"/>
-      <c r="E139" s="3"/>
-      <c r="F139" s="46"/>
-      <c r="G139" s="46"/>
-      <c r="H139" s="14"/>
+      <c r="A139" s="37"/>
+      <c r="B139" s="40"/>
+      <c r="C139" s="45"/>
+      <c r="D139" s="10"/>
+      <c r="E139" s="11"/>
+      <c r="F139" s="48"/>
+      <c r="G139" s="48"/>
+      <c r="H139" s="12"/>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A140" s="37"/>
-      <c r="B140" s="40"/>
-      <c r="C140" s="45"/>
-      <c r="D140" s="10"/>
-      <c r="E140" s="11"/>
-      <c r="F140" s="48"/>
-      <c r="G140" s="48"/>
-      <c r="H140" s="12"/>
+      <c r="A140" s="39"/>
+      <c r="B140" s="42"/>
+      <c r="C140" s="44"/>
+      <c r="D140" s="4"/>
+      <c r="E140" s="3"/>
+      <c r="F140" s="46"/>
+      <c r="G140" s="46"/>
+      <c r="H140" s="14"/>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" s="39"/>
@@ -2385,84 +2406,83 @@
       <c r="H141" s="14"/>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A142" s="39"/>
-      <c r="B142" s="42"/>
-      <c r="C142" s="44"/>
-      <c r="D142" s="4"/>
-      <c r="E142" s="3"/>
-      <c r="F142" s="46"/>
-      <c r="G142" s="46"/>
-      <c r="H142" s="14"/>
+      <c r="A142" s="37"/>
+      <c r="B142" s="56"/>
+      <c r="C142" s="45"/>
+      <c r="D142" s="59"/>
+      <c r="E142" s="11"/>
+      <c r="F142" s="55"/>
+      <c r="G142" s="48"/>
+      <c r="H142" s="12"/>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A143" s="37"/>
+      <c r="A143" s="39"/>
       <c r="B143" s="57"/>
-      <c r="C143" s="45"/>
+      <c r="C143" s="44"/>
       <c r="D143" s="60"/>
-      <c r="E143" s="11"/>
-      <c r="F143" s="56"/>
-      <c r="G143" s="48"/>
-      <c r="H143" s="12"/>
+      <c r="E143" s="3"/>
+      <c r="F143" s="46"/>
+      <c r="G143" s="46"/>
+      <c r="H143" s="14"/>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A144" s="39"/>
+      <c r="A144" s="38"/>
       <c r="B144" s="58"/>
-      <c r="C144" s="44"/>
+      <c r="C144" s="43"/>
       <c r="D144" s="61"/>
-      <c r="E144" s="3"/>
-      <c r="F144" s="46"/>
-      <c r="G144" s="46"/>
-      <c r="H144" s="14"/>
+      <c r="E144" s="7"/>
+      <c r="F144" s="47"/>
+      <c r="G144" s="47"/>
+      <c r="H144" s="13"/>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A145" s="38"/>
-      <c r="B145" s="59"/>
-      <c r="C145" s="43"/>
-      <c r="D145" s="62"/>
-      <c r="E145" s="7"/>
-      <c r="F145" s="47"/>
-      <c r="G145" s="47"/>
-      <c r="H145" s="13"/>
+      <c r="A145" s="37"/>
+      <c r="B145" s="56"/>
+      <c r="C145" s="45"/>
+      <c r="D145" s="59"/>
+      <c r="E145" s="11"/>
+      <c r="F145" s="55"/>
+      <c r="G145" s="46"/>
+      <c r="H145" s="12"/>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A146" s="37"/>
-      <c r="B146" s="57"/>
-      <c r="C146" s="45"/>
-      <c r="D146" s="60"/>
-      <c r="E146" s="11"/>
-      <c r="F146" s="56"/>
-      <c r="G146" s="46"/>
-      <c r="H146" s="12"/>
+      <c r="A146" s="38"/>
+      <c r="B146" s="58"/>
+      <c r="C146" s="43"/>
+      <c r="D146" s="61"/>
+      <c r="E146" s="7"/>
+      <c r="F146" s="47"/>
+      <c r="G146" s="47"/>
+      <c r="H146" s="13"/>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A147" s="38"/>
-      <c r="B147" s="59"/>
-      <c r="C147" s="43"/>
-      <c r="D147" s="62"/>
-      <c r="E147" s="7"/>
-      <c r="F147" s="47"/>
-      <c r="G147" s="47"/>
-      <c r="H147" s="13"/>
+      <c r="A147" s="37"/>
+      <c r="B147" s="56"/>
+      <c r="C147" s="45"/>
+      <c r="D147" s="59"/>
+      <c r="E147" s="11"/>
+      <c r="F147" s="55"/>
+      <c r="G147" s="46"/>
+      <c r="H147" s="12"/>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A148" s="37"/>
-      <c r="B148" s="57"/>
-      <c r="C148" s="45"/>
-      <c r="D148" s="60"/>
-      <c r="E148" s="11"/>
-      <c r="F148" s="56"/>
-      <c r="G148" s="46"/>
-      <c r="H148" s="12"/>
+      <c r="A148" s="38"/>
+      <c r="B148" s="58"/>
+      <c r="C148" s="43"/>
+      <c r="D148" s="61"/>
+      <c r="E148" s="7"/>
+      <c r="F148" s="47"/>
+      <c r="G148" s="47"/>
+      <c r="H148" s="13"/>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A149" s="38"/>
-      <c r="B149" s="59"/>
-      <c r="C149" s="43"/>
-      <c r="D149" s="62"/>
-      <c r="E149" s="7"/>
-      <c r="F149" s="47"/>
-      <c r="G149" s="47"/>
-      <c r="H149" s="13"/>
+      <c r="B149" s="1"/>
+      <c r="C149" s="2"/>
+      <c r="D149" s="4"/>
+      <c r="E149" s="3"/>
+      <c r="F149" s="4"/>
+      <c r="G149" s="4"/>
+      <c r="H149" s="17"/>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B150" s="1"/>
@@ -2680,15 +2700,6 @@
       <c r="G173" s="4"/>
       <c r="H173" s="17"/>
     </row>
-    <row r="174" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B174" s="1"/>
-      <c r="C174" s="2"/>
-      <c r="D174" s="4"/>
-      <c r="E174" s="3"/>
-      <c r="F174" s="4"/>
-      <c r="G174" s="4"/>
-      <c r="H174" s="17"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/TS Jatai Working/TTD Krama PaaraayaNam-Kramam.xlsx
+++ b/TS Jatai Working/TTD Krama PaaraayaNam-Kramam.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="39">
   <si>
     <t>Date</t>
   </si>
@@ -113,6 +113,24 @@
   </si>
   <si>
     <t xml:space="preserve">1.4.43.1 </t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=dRpqmo9Eg0Q</t>
+  </si>
+  <si>
+    <t>22 min 10 sec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4.46.3 </t>
+  </si>
+  <si>
+    <t>1.5.1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5.2.5 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5.3.1 </t>
   </si>
 </sst>
 </file>
@@ -305,7 +323,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -468,6 +486,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -778,8 +805,8 @@
   <dimension ref="A1:L173"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
+      <pane ySplit="4" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -1117,7 +1144,7 @@
       <c r="E15" s="7"/>
       <c r="F15" s="47"/>
       <c r="G15" s="54"/>
-      <c r="H15" s="13"/>
+      <c r="H15" s="14"/>
       <c r="I15" s="17"/>
       <c r="J15" s="17"/>
       <c r="K15" s="17"/>
@@ -1139,9 +1166,15 @@
       <c r="E16" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F16" s="48"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="12"/>
+      <c r="F16" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="G16" s="59" t="s">
+        <v>34</v>
+      </c>
+      <c r="H16" s="64" t="s">
+        <v>33</v>
+      </c>
       <c r="I16" s="17"/>
       <c r="J16" s="17"/>
       <c r="K16" s="17"/>
@@ -1149,13 +1182,27 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="39"/>
-      <c r="B17" s="42"/>
-      <c r="C17" s="44"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="46"/>
-      <c r="H17" s="14"/>
+      <c r="B17" s="42">
+        <v>44451</v>
+      </c>
+      <c r="C17" s="44">
+        <v>1</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G17" s="60" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" s="65" t="s">
+        <v>33</v>
+      </c>
       <c r="I17" s="17"/>
       <c r="J17" s="17"/>
       <c r="K17" s="17"/>
@@ -1165,31 +1212,41 @@
       <c r="A18" s="38"/>
       <c r="B18" s="41"/>
       <c r="C18" s="43"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="43"/>
-      <c r="H18" s="13"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="68"/>
+      <c r="H18" s="66"/>
       <c r="I18" s="17"/>
       <c r="J18" s="17"/>
       <c r="K18" s="17"/>
       <c r="L18" s="17"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="37"/>
-      <c r="B19" s="40"/>
-      <c r="C19" s="45"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="11"/>
+      <c r="A19" s="37">
+        <v>7</v>
+      </c>
+      <c r="B19" s="40">
+        <v>44452</v>
+      </c>
+      <c r="C19" s="69">
+        <v>2</v>
+      </c>
+      <c r="D19" s="70" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>9</v>
+      </c>
       <c r="F19" s="48"/>
       <c r="G19" s="48"/>
-      <c r="H19" s="12"/>
+      <c r="H19" s="14"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="39"/>
       <c r="B20" s="42"/>
-      <c r="C20" s="44"/>
-      <c r="D20" s="4"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="60"/>
       <c r="E20" s="3"/>
       <c r="F20" s="46"/>
       <c r="G20" s="46"/>
@@ -1198,8 +1255,8 @@
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="38"/>
       <c r="B21" s="43"/>
-      <c r="C21" s="43"/>
-      <c r="D21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="68"/>
       <c r="E21" s="27"/>
       <c r="F21" s="49"/>
       <c r="G21" s="43"/>

--- a/TS Jatai Working/TTD Krama PaaraayaNam-Kramam.xlsx
+++ b/TS Jatai Working/TTD Krama PaaraayaNam-Kramam.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="42">
   <si>
     <t>Date</t>
   </si>
@@ -131,6 +131,15 @@
   </si>
   <si>
     <t xml:space="preserve">1.5.3.1 </t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=o1yU4Pugv5w&amp;list=PLjhrDIztP9pcSE8dR7xYZb7zwX5SXxNKy&amp;index=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5.8.5 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5.9.1 </t>
   </si>
 </sst>
 </file>
@@ -494,7 +503,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -802,11 +811,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L173"/>
+  <dimension ref="A1:L172"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
+      <pane ySplit="4" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -1238,679 +1247,695 @@
       <c r="E19" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="48"/>
-      <c r="G19" s="48"/>
-      <c r="H19" s="14"/>
+      <c r="F19" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G19" s="62" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" s="14" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="39"/>
-      <c r="B20" s="42"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="60"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="46"/>
-      <c r="G20" s="46"/>
-      <c r="H20" s="14"/>
+      <c r="A20" s="38"/>
+      <c r="B20" s="43"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="68"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="49"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="13"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="38"/>
-      <c r="B21" s="43"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="68"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="49"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="13"/>
+      <c r="A21" s="37">
+        <v>8</v>
+      </c>
+      <c r="B21" s="40">
+        <v>44453</v>
+      </c>
+      <c r="C21" s="45">
+        <v>2</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" s="48"/>
+      <c r="G21" s="48"/>
+      <c r="H21" s="12"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="37"/>
-      <c r="B22" s="40"/>
-      <c r="C22" s="45"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="48"/>
-      <c r="G22" s="48"/>
-      <c r="H22" s="12"/>
+      <c r="A22" s="39"/>
+      <c r="B22" s="42"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="46"/>
+      <c r="H22" s="14"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="39"/>
-      <c r="B23" s="42"/>
-      <c r="C23" s="44"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="46"/>
-      <c r="G23" s="46"/>
-      <c r="H23" s="14"/>
+      <c r="A23" s="38"/>
+      <c r="B23" s="43"/>
+      <c r="C23" s="43"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="49"/>
+      <c r="G23" s="43"/>
+      <c r="H23" s="13"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="38"/>
-      <c r="B24" s="43"/>
-      <c r="C24" s="43"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="49"/>
-      <c r="G24" s="43"/>
-      <c r="H24" s="13"/>
+      <c r="A24" s="37"/>
+      <c r="B24" s="40"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="48"/>
+      <c r="G24" s="48"/>
+      <c r="H24" s="12"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="37"/>
-      <c r="B25" s="40"/>
-      <c r="C25" s="45"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="48"/>
-      <c r="G25" s="48"/>
-      <c r="H25" s="12"/>
+      <c r="A25" s="38"/>
+      <c r="B25" s="43"/>
+      <c r="C25" s="43"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="49"/>
+      <c r="G25" s="43"/>
+      <c r="H25" s="13"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="38"/>
-      <c r="B26" s="43"/>
-      <c r="C26" s="43"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="49"/>
-      <c r="G26" s="43"/>
-      <c r="H26" s="13"/>
+      <c r="A26" s="37"/>
+      <c r="B26" s="40"/>
+      <c r="C26" s="45"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="48"/>
+      <c r="G26" s="48"/>
+      <c r="H26" s="12"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="37"/>
-      <c r="B27" s="40"/>
-      <c r="C27" s="45"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="48"/>
-      <c r="G27" s="48"/>
-      <c r="H27" s="12"/>
+      <c r="A27" s="39"/>
+      <c r="B27" s="42"/>
+      <c r="C27" s="44"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="46"/>
+      <c r="G27" s="46"/>
+      <c r="H27" s="14"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="39"/>
-      <c r="B28" s="42"/>
-      <c r="C28" s="44"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="46"/>
-      <c r="G28" s="46"/>
-      <c r="H28" s="14"/>
+      <c r="A28" s="38"/>
+      <c r="B28" s="43"/>
+      <c r="C28" s="43"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="49"/>
+      <c r="G28" s="43"/>
+      <c r="H28" s="13"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="38"/>
-      <c r="B29" s="43"/>
-      <c r="C29" s="43"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="49"/>
-      <c r="G29" s="43"/>
-      <c r="H29" s="13"/>
+      <c r="A29" s="37"/>
+      <c r="B29" s="40"/>
+      <c r="C29" s="45"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="48"/>
+      <c r="G29" s="48"/>
+      <c r="H29" s="28"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="37"/>
-      <c r="B30" s="40"/>
-      <c r="C30" s="45"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="48"/>
-      <c r="G30" s="48"/>
-      <c r="H30" s="28"/>
+      <c r="A30" s="39"/>
+      <c r="B30" s="42"/>
+      <c r="C30" s="44"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="46"/>
+      <c r="G30" s="46"/>
+      <c r="H30" s="29"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="39"/>
-      <c r="B31" s="42"/>
-      <c r="C31" s="44"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="46"/>
-      <c r="G31" s="46"/>
-      <c r="H31" s="29"/>
+      <c r="A31" s="38"/>
+      <c r="B31" s="43"/>
+      <c r="C31" s="43"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="49"/>
+      <c r="G31" s="43"/>
+      <c r="H31" s="13"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="38"/>
-      <c r="B32" s="43"/>
-      <c r="C32" s="43"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="49"/>
-      <c r="G32" s="43"/>
-      <c r="H32" s="13"/>
+      <c r="A32" s="37"/>
+      <c r="B32" s="40"/>
+      <c r="C32" s="45"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="48"/>
+      <c r="G32" s="48"/>
+      <c r="H32" s="12"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="37"/>
-      <c r="B33" s="40"/>
-      <c r="C33" s="45"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="48"/>
-      <c r="G33" s="48"/>
-      <c r="H33" s="12"/>
+      <c r="A33" s="38"/>
+      <c r="B33" s="41"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="47"/>
+      <c r="G33" s="43"/>
+      <c r="H33" s="13"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="38"/>
-      <c r="B34" s="41"/>
-      <c r="C34" s="43"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="47"/>
-      <c r="G34" s="43"/>
-      <c r="H34" s="13"/>
+      <c r="A34" s="37"/>
+      <c r="B34" s="40"/>
+      <c r="C34" s="45"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="48"/>
+      <c r="G34" s="48"/>
+      <c r="H34" s="12"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="37"/>
-      <c r="B35" s="40"/>
-      <c r="C35" s="45"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="48"/>
-      <c r="G35" s="48"/>
-      <c r="H35" s="12"/>
+      <c r="A35" s="39"/>
+      <c r="B35" s="42"/>
+      <c r="C35" s="44"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="46"/>
+      <c r="G35" s="46"/>
+      <c r="H35" s="14"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="39"/>
-      <c r="B36" s="42"/>
-      <c r="C36" s="44"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="46"/>
-      <c r="G36" s="46"/>
-      <c r="H36" s="14"/>
+      <c r="A36" s="38"/>
+      <c r="B36" s="43"/>
+      <c r="C36" s="43"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="49"/>
+      <c r="G36" s="43"/>
+      <c r="H36" s="13"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="38"/>
-      <c r="B37" s="43"/>
-      <c r="C37" s="43"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="27"/>
-      <c r="F37" s="49"/>
-      <c r="G37" s="43"/>
-      <c r="H37" s="13"/>
+      <c r="A37" s="37"/>
+      <c r="B37" s="40"/>
+      <c r="C37" s="45"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="48"/>
+      <c r="G37" s="48"/>
+      <c r="H37" s="12"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="37"/>
-      <c r="B38" s="40"/>
-      <c r="C38" s="45"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="48"/>
-      <c r="G38" s="48"/>
-      <c r="H38" s="12"/>
+      <c r="A38" s="38"/>
+      <c r="B38" s="43"/>
+      <c r="C38" s="43"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="27"/>
+      <c r="F38" s="49"/>
+      <c r="G38" s="43"/>
+      <c r="H38" s="13"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="38"/>
-      <c r="B39" s="43"/>
-      <c r="C39" s="43"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="27"/>
-      <c r="F39" s="49"/>
-      <c r="G39" s="43"/>
-      <c r="H39" s="13"/>
+      <c r="A39" s="37"/>
+      <c r="B39" s="40"/>
+      <c r="C39" s="45"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="48"/>
+      <c r="G39" s="48"/>
+      <c r="H39" s="12"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="37"/>
-      <c r="B40" s="40"/>
-      <c r="C40" s="45"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="48"/>
-      <c r="G40" s="48"/>
-      <c r="H40" s="12"/>
+      <c r="A40" s="39"/>
+      <c r="B40" s="42"/>
+      <c r="C40" s="44"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="46"/>
+      <c r="G40" s="46"/>
+      <c r="H40" s="14"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="39"/>
-      <c r="B41" s="42"/>
-      <c r="C41" s="44"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="46"/>
-      <c r="G41" s="46"/>
-      <c r="H41" s="14"/>
+      <c r="A41" s="38"/>
+      <c r="B41" s="43"/>
+      <c r="C41" s="43"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="27"/>
+      <c r="F41" s="49"/>
+      <c r="G41" s="43"/>
+      <c r="H41" s="13"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="38"/>
-      <c r="B42" s="43"/>
-      <c r="C42" s="43"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="27"/>
-      <c r="F42" s="49"/>
-      <c r="G42" s="43"/>
-      <c r="H42" s="13"/>
+      <c r="A42" s="37"/>
+      <c r="B42" s="40"/>
+      <c r="C42" s="45"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="48"/>
+      <c r="G42" s="48"/>
+      <c r="H42" s="12"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="37"/>
-      <c r="B43" s="40"/>
-      <c r="C43" s="45"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="48"/>
-      <c r="G43" s="48"/>
-      <c r="H43" s="12"/>
+      <c r="A43" s="39"/>
+      <c r="B43" s="42"/>
+      <c r="C43" s="44"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="46"/>
+      <c r="G43" s="46"/>
+      <c r="H43" s="14"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="39"/>
-      <c r="B44" s="42"/>
-      <c r="C44" s="44"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="46"/>
-      <c r="G44" s="46"/>
-      <c r="H44" s="14"/>
+      <c r="A44" s="38"/>
+      <c r="B44" s="43"/>
+      <c r="C44" s="43"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="27"/>
+      <c r="F44" s="49"/>
+      <c r="G44" s="43"/>
+      <c r="H44" s="13"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="38"/>
-      <c r="B45" s="43"/>
-      <c r="C45" s="43"/>
-      <c r="D45" s="6"/>
-      <c r="E45" s="27"/>
-      <c r="F45" s="49"/>
-      <c r="G45" s="43"/>
-      <c r="H45" s="13"/>
+      <c r="A45" s="37"/>
+      <c r="B45" s="40"/>
+      <c r="C45" s="45"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="48"/>
+      <c r="G45" s="48"/>
+      <c r="H45" s="23"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="37"/>
-      <c r="B46" s="40"/>
-      <c r="C46" s="45"/>
-      <c r="D46" s="10"/>
-      <c r="E46" s="11"/>
-      <c r="F46" s="48"/>
-      <c r="G46" s="48"/>
-      <c r="H46" s="23"/>
+      <c r="A46" s="38"/>
+      <c r="B46" s="43"/>
+      <c r="C46" s="43"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="27"/>
+      <c r="F46" s="49"/>
+      <c r="G46" s="43"/>
+      <c r="H46" s="13"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="38"/>
-      <c r="B47" s="43"/>
-      <c r="C47" s="43"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="27"/>
-      <c r="F47" s="49"/>
-      <c r="G47" s="43"/>
-      <c r="H47" s="13"/>
+      <c r="A47" s="37"/>
+      <c r="B47" s="40"/>
+      <c r="C47" s="45"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="48"/>
+      <c r="G47" s="48"/>
+      <c r="H47" s="23"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="37"/>
-      <c r="B48" s="40"/>
-      <c r="C48" s="45"/>
-      <c r="D48" s="10"/>
-      <c r="E48" s="11"/>
-      <c r="F48" s="48"/>
-      <c r="G48" s="48"/>
-      <c r="H48" s="23"/>
+      <c r="A48" s="39"/>
+      <c r="B48" s="42"/>
+      <c r="C48" s="44"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="46"/>
+      <c r="G48" s="46"/>
+      <c r="H48" s="5"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="39"/>
-      <c r="B49" s="42"/>
-      <c r="C49" s="44"/>
-      <c r="D49" s="4"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="46"/>
-      <c r="G49" s="46"/>
-      <c r="H49" s="5"/>
+      <c r="A49" s="38"/>
+      <c r="B49" s="43"/>
+      <c r="C49" s="43"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="27"/>
+      <c r="F49" s="49"/>
+      <c r="G49" s="43"/>
+      <c r="H49" s="13"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="38"/>
-      <c r="B50" s="43"/>
-      <c r="C50" s="43"/>
-      <c r="D50" s="6"/>
-      <c r="E50" s="27"/>
-      <c r="F50" s="49"/>
-      <c r="G50" s="43"/>
-      <c r="H50" s="13"/>
+      <c r="A50" s="37"/>
+      <c r="B50" s="40"/>
+      <c r="C50" s="45"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="48"/>
+      <c r="G50" s="48"/>
+      <c r="H50" s="12"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="37"/>
-      <c r="B51" s="40"/>
-      <c r="C51" s="45"/>
-      <c r="D51" s="10"/>
-      <c r="E51" s="11"/>
-      <c r="F51" s="48"/>
-      <c r="G51" s="48"/>
-      <c r="H51" s="12"/>
+      <c r="A51" s="38"/>
+      <c r="B51" s="43"/>
+      <c r="C51" s="43"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="27"/>
+      <c r="F51" s="49"/>
+      <c r="G51" s="43"/>
+      <c r="H51" s="13"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="38"/>
-      <c r="B52" s="43"/>
-      <c r="C52" s="43"/>
-      <c r="D52" s="6"/>
-      <c r="E52" s="27"/>
-      <c r="F52" s="49"/>
-      <c r="G52" s="43"/>
-      <c r="H52" s="13"/>
+      <c r="A52" s="37"/>
+      <c r="B52" s="40"/>
+      <c r="C52" s="45"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="48"/>
+      <c r="G52" s="48"/>
+      <c r="H52" s="12"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="37"/>
-      <c r="B53" s="40"/>
-      <c r="C53" s="45"/>
-      <c r="D53" s="10"/>
-      <c r="E53" s="11"/>
-      <c r="F53" s="48"/>
-      <c r="G53" s="48"/>
-      <c r="H53" s="12"/>
+      <c r="A53" s="39"/>
+      <c r="B53" s="42"/>
+      <c r="C53" s="44"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="46"/>
+      <c r="G53" s="46"/>
+      <c r="H53" s="14"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="39"/>
-      <c r="B54" s="42"/>
-      <c r="C54" s="44"/>
-      <c r="D54" s="4"/>
-      <c r="E54" s="3"/>
-      <c r="F54" s="46"/>
-      <c r="G54" s="46"/>
-      <c r="H54" s="14"/>
+      <c r="A54" s="38"/>
+      <c r="B54" s="43"/>
+      <c r="C54" s="43"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="27"/>
+      <c r="F54" s="49"/>
+      <c r="G54" s="43"/>
+      <c r="H54" s="13"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="38"/>
-      <c r="B55" s="43"/>
-      <c r="C55" s="43"/>
-      <c r="D55" s="6"/>
-      <c r="E55" s="27"/>
-      <c r="F55" s="49"/>
-      <c r="G55" s="43"/>
-      <c r="H55" s="13"/>
+      <c r="A55" s="37"/>
+      <c r="B55" s="40"/>
+      <c r="C55" s="45"/>
+      <c r="D55" s="10"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="48"/>
+      <c r="G55" s="48"/>
+      <c r="H55" s="12"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="37"/>
-      <c r="B56" s="40"/>
-      <c r="C56" s="45"/>
-      <c r="D56" s="10"/>
-      <c r="E56" s="11"/>
-      <c r="F56" s="48"/>
-      <c r="G56" s="48"/>
-      <c r="H56" s="12"/>
+      <c r="A56" s="39"/>
+      <c r="B56" s="42"/>
+      <c r="C56" s="44"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="46"/>
+      <c r="G56" s="46"/>
+      <c r="H56" s="14"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="39"/>
-      <c r="B57" s="42"/>
-      <c r="C57" s="44"/>
-      <c r="D57" s="4"/>
-      <c r="E57" s="3"/>
-      <c r="F57" s="46"/>
-      <c r="G57" s="46"/>
-      <c r="H57" s="14"/>
+      <c r="A57" s="38"/>
+      <c r="B57" s="43"/>
+      <c r="C57" s="43"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="27"/>
+      <c r="F57" s="49"/>
+      <c r="G57" s="43"/>
+      <c r="H57" s="13"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="38"/>
-      <c r="B58" s="43"/>
-      <c r="C58" s="43"/>
-      <c r="D58" s="6"/>
-      <c r="E58" s="27"/>
-      <c r="F58" s="49"/>
-      <c r="G58" s="43"/>
-      <c r="H58" s="13"/>
+      <c r="A58" s="37"/>
+      <c r="B58" s="40"/>
+      <c r="C58" s="45"/>
+      <c r="D58" s="10"/>
+      <c r="E58" s="11"/>
+      <c r="F58" s="48"/>
+      <c r="G58" s="48"/>
+      <c r="H58" s="12"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="37"/>
-      <c r="B59" s="40"/>
-      <c r="C59" s="45"/>
-      <c r="D59" s="10"/>
-      <c r="E59" s="11"/>
-      <c r="F59" s="48"/>
-      <c r="G59" s="48"/>
-      <c r="H59" s="12"/>
+      <c r="A59" s="39"/>
+      <c r="B59" s="42"/>
+      <c r="C59" s="44"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="46"/>
+      <c r="G59" s="46"/>
+      <c r="H59" s="14"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="39"/>
-      <c r="B60" s="42"/>
-      <c r="C60" s="44"/>
-      <c r="D60" s="4"/>
-      <c r="E60" s="3"/>
-      <c r="F60" s="46"/>
-      <c r="G60" s="46"/>
-      <c r="H60" s="14"/>
+      <c r="A60" s="38"/>
+      <c r="B60" s="43"/>
+      <c r="C60" s="43"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="27"/>
+      <c r="F60" s="49"/>
+      <c r="G60" s="43"/>
+      <c r="H60" s="13"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="38"/>
-      <c r="B61" s="43"/>
-      <c r="C61" s="43"/>
-      <c r="D61" s="6"/>
-      <c r="E61" s="27"/>
-      <c r="F61" s="49"/>
-      <c r="G61" s="43"/>
-      <c r="H61" s="13"/>
+      <c r="A61" s="37"/>
+      <c r="B61" s="40"/>
+      <c r="C61" s="45"/>
+      <c r="D61" s="10"/>
+      <c r="E61" s="11"/>
+      <c r="F61" s="48"/>
+      <c r="G61" s="48"/>
+      <c r="H61" s="12"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="37"/>
-      <c r="B62" s="40"/>
-      <c r="C62" s="45"/>
-      <c r="D62" s="10"/>
-      <c r="E62" s="11"/>
-      <c r="F62" s="48"/>
-      <c r="G62" s="48"/>
-      <c r="H62" s="12"/>
+      <c r="A62" s="38"/>
+      <c r="B62" s="43"/>
+      <c r="C62" s="43"/>
+      <c r="D62" s="6"/>
+      <c r="E62" s="27"/>
+      <c r="F62" s="49"/>
+      <c r="G62" s="43"/>
+      <c r="H62" s="13"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="38"/>
-      <c r="B63" s="43"/>
-      <c r="C63" s="43"/>
-      <c r="D63" s="6"/>
-      <c r="E63" s="27"/>
-      <c r="F63" s="49"/>
-      <c r="G63" s="43"/>
-      <c r="H63" s="13"/>
+      <c r="A63" s="37"/>
+      <c r="B63" s="40"/>
+      <c r="C63" s="45"/>
+      <c r="D63" s="10"/>
+      <c r="E63" s="11"/>
+      <c r="F63" s="48"/>
+      <c r="G63" s="48"/>
+      <c r="H63" s="12"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="37"/>
-      <c r="B64" s="40"/>
-      <c r="C64" s="45"/>
-      <c r="D64" s="10"/>
-      <c r="E64" s="11"/>
-      <c r="F64" s="48"/>
-      <c r="G64" s="48"/>
-      <c r="H64" s="12"/>
+      <c r="A64" s="39"/>
+      <c r="B64" s="42"/>
+      <c r="C64" s="44"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="3"/>
+      <c r="F64" s="46"/>
+      <c r="G64" s="46"/>
+      <c r="H64" s="14"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="39"/>
-      <c r="B65" s="42"/>
-      <c r="C65" s="44"/>
-      <c r="D65" s="4"/>
-      <c r="E65" s="3"/>
-      <c r="F65" s="46"/>
-      <c r="G65" s="46"/>
-      <c r="H65" s="14"/>
+      <c r="A65" s="38"/>
+      <c r="B65" s="43"/>
+      <c r="C65" s="43"/>
+      <c r="D65" s="6"/>
+      <c r="E65" s="27"/>
+      <c r="F65" s="49"/>
+      <c r="G65" s="43"/>
+      <c r="H65" s="13"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="38"/>
-      <c r="B66" s="43"/>
-      <c r="C66" s="43"/>
-      <c r="D66" s="6"/>
-      <c r="E66" s="27"/>
-      <c r="F66" s="49"/>
-      <c r="G66" s="43"/>
-      <c r="H66" s="13"/>
+      <c r="A66" s="37"/>
+      <c r="B66" s="40"/>
+      <c r="C66" s="45"/>
+      <c r="D66" s="10"/>
+      <c r="E66" s="11"/>
+      <c r="F66" s="48"/>
+      <c r="G66" s="48"/>
+      <c r="H66" s="12"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="37"/>
-      <c r="B67" s="40"/>
-      <c r="C67" s="45"/>
-      <c r="D67" s="10"/>
-      <c r="E67" s="11"/>
-      <c r="F67" s="48"/>
-      <c r="G67" s="48"/>
-      <c r="H67" s="12"/>
+      <c r="A67" s="39"/>
+      <c r="B67" s="42"/>
+      <c r="C67" s="44"/>
+      <c r="D67" s="4"/>
+      <c r="E67" s="3"/>
+      <c r="F67" s="46"/>
+      <c r="G67" s="46"/>
+      <c r="H67" s="14"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="39"/>
-      <c r="B68" s="42"/>
-      <c r="C68" s="44"/>
-      <c r="D68" s="4"/>
-      <c r="E68" s="3"/>
-      <c r="F68" s="46"/>
-      <c r="G68" s="46"/>
-      <c r="H68" s="14"/>
+      <c r="A68" s="38"/>
+      <c r="B68" s="43"/>
+      <c r="C68" s="43"/>
+      <c r="D68" s="6"/>
+      <c r="E68" s="27"/>
+      <c r="F68" s="49"/>
+      <c r="G68" s="43"/>
+      <c r="H68" s="13"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="38"/>
-      <c r="B69" s="43"/>
-      <c r="C69" s="43"/>
-      <c r="D69" s="6"/>
-      <c r="E69" s="27"/>
-      <c r="F69" s="49"/>
-      <c r="G69" s="43"/>
-      <c r="H69" s="13"/>
+      <c r="A69" s="37"/>
+      <c r="B69" s="40"/>
+      <c r="C69" s="45"/>
+      <c r="D69" s="10"/>
+      <c r="E69" s="11"/>
+      <c r="F69" s="48"/>
+      <c r="G69" s="48"/>
+      <c r="H69" s="12"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="37"/>
-      <c r="B70" s="40"/>
-      <c r="C70" s="45"/>
-      <c r="D70" s="10"/>
-      <c r="E70" s="11"/>
-      <c r="F70" s="48"/>
-      <c r="G70" s="48"/>
-      <c r="H70" s="12"/>
+      <c r="A70" s="39"/>
+      <c r="B70" s="42"/>
+      <c r="C70" s="44"/>
+      <c r="D70" s="4"/>
+      <c r="E70" s="3"/>
+      <c r="F70" s="46"/>
+      <c r="G70" s="46"/>
+      <c r="H70" s="14"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="39"/>
-      <c r="B71" s="42"/>
-      <c r="C71" s="44"/>
-      <c r="D71" s="4"/>
-      <c r="E71" s="3"/>
-      <c r="F71" s="46"/>
-      <c r="G71" s="46"/>
-      <c r="H71" s="14"/>
+      <c r="A71" s="38"/>
+      <c r="B71" s="43"/>
+      <c r="C71" s="43"/>
+      <c r="D71" s="6"/>
+      <c r="E71" s="27"/>
+      <c r="F71" s="49"/>
+      <c r="G71" s="43"/>
+      <c r="H71" s="13"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="38"/>
-      <c r="B72" s="43"/>
-      <c r="C72" s="43"/>
-      <c r="D72" s="6"/>
-      <c r="E72" s="27"/>
-      <c r="F72" s="49"/>
-      <c r="G72" s="43"/>
-      <c r="H72" s="13"/>
+      <c r="A72" s="37"/>
+      <c r="B72" s="40"/>
+      <c r="C72" s="45"/>
+      <c r="D72" s="10"/>
+      <c r="E72" s="11"/>
+      <c r="F72" s="48"/>
+      <c r="G72" s="48"/>
+      <c r="H72" s="12"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="37"/>
-      <c r="B73" s="40"/>
-      <c r="C73" s="45"/>
-      <c r="D73" s="10"/>
-      <c r="E73" s="11"/>
-      <c r="F73" s="48"/>
-      <c r="G73" s="48"/>
-      <c r="H73" s="12"/>
+      <c r="A73" s="38"/>
+      <c r="B73" s="43"/>
+      <c r="C73" s="43"/>
+      <c r="D73" s="6"/>
+      <c r="E73" s="27"/>
+      <c r="F73" s="49"/>
+      <c r="G73" s="43"/>
+      <c r="H73" s="13"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="38"/>
-      <c r="B74" s="43"/>
-      <c r="C74" s="43"/>
-      <c r="D74" s="6"/>
-      <c r="E74" s="27"/>
-      <c r="F74" s="49"/>
-      <c r="G74" s="43"/>
-      <c r="H74" s="13"/>
+      <c r="A74" s="37"/>
+      <c r="B74" s="40"/>
+      <c r="C74" s="45"/>
+      <c r="D74" s="10"/>
+      <c r="E74" s="11"/>
+      <c r="F74" s="48"/>
+      <c r="G74" s="48"/>
+      <c r="H74" s="12"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="37"/>
-      <c r="B75" s="40"/>
-      <c r="C75" s="45"/>
-      <c r="D75" s="10"/>
-      <c r="E75" s="11"/>
-      <c r="F75" s="48"/>
-      <c r="G75" s="48"/>
-      <c r="H75" s="12"/>
+      <c r="A75" s="39"/>
+      <c r="B75" s="42"/>
+      <c r="C75" s="44"/>
+      <c r="D75" s="4"/>
+      <c r="E75" s="3"/>
+      <c r="F75" s="46"/>
+      <c r="G75" s="46"/>
+      <c r="H75" s="14"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" s="39"/>
-      <c r="B76" s="42"/>
-      <c r="C76" s="44"/>
-      <c r="D76" s="4"/>
-      <c r="E76" s="3"/>
-      <c r="F76" s="46"/>
-      <c r="G76" s="46"/>
-      <c r="H76" s="14"/>
+      <c r="A76" s="38"/>
+      <c r="B76" s="43"/>
+      <c r="C76" s="43"/>
+      <c r="D76" s="6"/>
+      <c r="E76" s="27"/>
+      <c r="F76" s="49"/>
+      <c r="G76" s="43"/>
+      <c r="H76" s="13"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77" s="38"/>
-      <c r="B77" s="43"/>
-      <c r="C77" s="43"/>
-      <c r="D77" s="6"/>
-      <c r="E77" s="27"/>
-      <c r="F77" s="49"/>
-      <c r="G77" s="43"/>
-      <c r="H77" s="13"/>
+      <c r="A77" s="37"/>
+      <c r="B77" s="40"/>
+      <c r="C77" s="45"/>
+      <c r="D77" s="10"/>
+      <c r="E77" s="11"/>
+      <c r="F77" s="48"/>
+      <c r="G77" s="48"/>
+      <c r="H77" s="12"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" s="37"/>
-      <c r="B78" s="40"/>
-      <c r="C78" s="45"/>
-      <c r="D78" s="10"/>
-      <c r="E78" s="11"/>
-      <c r="F78" s="48"/>
-      <c r="G78" s="48"/>
-      <c r="H78" s="12"/>
+      <c r="A78" s="39"/>
+      <c r="B78" s="42"/>
+      <c r="C78" s="44"/>
+      <c r="D78" s="4"/>
+      <c r="E78" s="3"/>
+      <c r="F78" s="46"/>
+      <c r="G78" s="46"/>
+      <c r="H78" s="14"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" s="39"/>
-      <c r="B79" s="42"/>
-      <c r="C79" s="44"/>
-      <c r="D79" s="4"/>
-      <c r="E79" s="3"/>
-      <c r="F79" s="46"/>
-      <c r="G79" s="46"/>
-      <c r="H79" s="14"/>
+      <c r="A79" s="38"/>
+      <c r="B79" s="43"/>
+      <c r="C79" s="43"/>
+      <c r="D79" s="6"/>
+      <c r="E79" s="27"/>
+      <c r="F79" s="49"/>
+      <c r="G79" s="43"/>
+      <c r="H79" s="13"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80" s="38"/>
-      <c r="B80" s="43"/>
-      <c r="C80" s="43"/>
-      <c r="D80" s="6"/>
-      <c r="E80" s="27"/>
-      <c r="F80" s="49"/>
-      <c r="G80" s="43"/>
-      <c r="H80" s="13"/>
+      <c r="A80" s="37"/>
+      <c r="B80" s="40"/>
+      <c r="C80" s="45"/>
+      <c r="D80" s="10"/>
+      <c r="E80" s="11"/>
+      <c r="F80" s="48"/>
+      <c r="G80" s="48"/>
+      <c r="H80" s="12"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81" s="37"/>
-      <c r="B81" s="40"/>
-      <c r="C81" s="45"/>
-      <c r="D81" s="10"/>
-      <c r="E81" s="11"/>
-      <c r="F81" s="48"/>
-      <c r="G81" s="48"/>
-      <c r="H81" s="12"/>
+      <c r="A81" s="39"/>
+      <c r="B81" s="42"/>
+      <c r="C81" s="44"/>
+      <c r="D81" s="4"/>
+      <c r="E81" s="3"/>
+      <c r="F81" s="46"/>
+      <c r="G81" s="46"/>
+      <c r="H81" s="14"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" s="39"/>
-      <c r="B82" s="42"/>
-      <c r="C82" s="44"/>
-      <c r="D82" s="4"/>
-      <c r="E82" s="3"/>
-      <c r="F82" s="46"/>
-      <c r="G82" s="46"/>
-      <c r="H82" s="14"/>
+      <c r="A82" s="38"/>
+      <c r="B82" s="43"/>
+      <c r="C82" s="43"/>
+      <c r="D82" s="6"/>
+      <c r="E82" s="27"/>
+      <c r="F82" s="49"/>
+      <c r="G82" s="43"/>
+      <c r="H82" s="13"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A83" s="38"/>
-      <c r="B83" s="43"/>
-      <c r="C83" s="43"/>
-      <c r="D83" s="6"/>
-      <c r="E83" s="27"/>
-      <c r="F83" s="49"/>
-      <c r="G83" s="43"/>
-      <c r="H83" s="13"/>
+      <c r="A83" s="37"/>
+      <c r="B83" s="40"/>
+      <c r="C83" s="45"/>
+      <c r="D83" s="10"/>
+      <c r="E83" s="11"/>
+      <c r="F83" s="48"/>
+      <c r="G83" s="48"/>
+      <c r="H83" s="12"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84" s="37"/>
-      <c r="B84" s="40"/>
-      <c r="C84" s="45"/>
-      <c r="D84" s="10"/>
-      <c r="E84" s="11"/>
-      <c r="F84" s="48"/>
-      <c r="G84" s="48"/>
-      <c r="H84" s="12"/>
+      <c r="A84" s="38"/>
+      <c r="B84" s="43"/>
+      <c r="C84" s="43"/>
+      <c r="D84" s="6"/>
+      <c r="E84" s="27"/>
+      <c r="F84" s="49"/>
+      <c r="G84" s="43"/>
+      <c r="H84" s="13"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85" s="38"/>
-      <c r="B85" s="43"/>
-      <c r="C85" s="43"/>
-      <c r="D85" s="6"/>
-      <c r="E85" s="27"/>
-      <c r="F85" s="49"/>
-      <c r="G85" s="43"/>
-      <c r="H85" s="13"/>
+      <c r="A85" s="37"/>
+      <c r="B85" s="40"/>
+      <c r="C85" s="45"/>
+      <c r="D85" s="10"/>
+      <c r="E85" s="11"/>
+      <c r="F85" s="48"/>
+      <c r="G85" s="48"/>
+      <c r="H85" s="12"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86" s="37"/>
-      <c r="B86" s="40"/>
-      <c r="C86" s="45"/>
-      <c r="D86" s="10"/>
-      <c r="E86" s="11"/>
-      <c r="F86" s="48"/>
-      <c r="G86" s="48"/>
-      <c r="H86" s="12"/>
+      <c r="A86" s="39"/>
+      <c r="B86" s="42"/>
+      <c r="C86" s="44"/>
+      <c r="D86" s="4"/>
+      <c r="E86" s="3"/>
+      <c r="F86" s="46"/>
+      <c r="G86" s="46"/>
+      <c r="H86" s="14"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="39"/>
@@ -1923,144 +1948,144 @@
       <c r="H87" s="14"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88" s="39"/>
-      <c r="B88" s="42"/>
-      <c r="C88" s="44"/>
-      <c r="D88" s="4"/>
-      <c r="E88" s="3"/>
-      <c r="F88" s="46"/>
-      <c r="G88" s="46"/>
-      <c r="H88" s="14"/>
+      <c r="A88" s="38"/>
+      <c r="B88" s="43"/>
+      <c r="C88" s="43"/>
+      <c r="D88" s="6"/>
+      <c r="E88" s="27"/>
+      <c r="F88" s="49"/>
+      <c r="G88" s="43"/>
+      <c r="H88" s="13"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A89" s="38"/>
-      <c r="B89" s="43"/>
-      <c r="C89" s="43"/>
-      <c r="D89" s="6"/>
-      <c r="E89" s="27"/>
-      <c r="F89" s="49"/>
-      <c r="G89" s="43"/>
-      <c r="H89" s="13"/>
+      <c r="A89" s="37"/>
+      <c r="B89" s="40"/>
+      <c r="C89" s="45"/>
+      <c r="D89" s="10"/>
+      <c r="E89" s="11"/>
+      <c r="F89" s="48"/>
+      <c r="G89" s="48"/>
+      <c r="H89" s="12"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90" s="37"/>
-      <c r="B90" s="40"/>
-      <c r="C90" s="45"/>
-      <c r="D90" s="10"/>
-      <c r="E90" s="11"/>
-      <c r="F90" s="48"/>
-      <c r="G90" s="48"/>
-      <c r="H90" s="12"/>
+      <c r="A90" s="38"/>
+      <c r="B90" s="43"/>
+      <c r="C90" s="43"/>
+      <c r="D90" s="6"/>
+      <c r="E90" s="27"/>
+      <c r="F90" s="49"/>
+      <c r="G90" s="43"/>
+      <c r="H90" s="13"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91" s="38"/>
-      <c r="B91" s="43"/>
-      <c r="C91" s="43"/>
-      <c r="D91" s="6"/>
-      <c r="E91" s="27"/>
-      <c r="F91" s="49"/>
-      <c r="G91" s="43"/>
-      <c r="H91" s="13"/>
+      <c r="A91" s="37"/>
+      <c r="B91" s="40"/>
+      <c r="C91" s="45"/>
+      <c r="D91" s="10"/>
+      <c r="E91" s="11"/>
+      <c r="F91" s="48"/>
+      <c r="G91" s="48"/>
+      <c r="H91" s="12"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A92" s="37"/>
-      <c r="B92" s="40"/>
-      <c r="C92" s="45"/>
-      <c r="D92" s="10"/>
-      <c r="E92" s="11"/>
-      <c r="F92" s="48"/>
-      <c r="G92" s="48"/>
-      <c r="H92" s="12"/>
+      <c r="A92" s="39"/>
+      <c r="B92" s="42"/>
+      <c r="C92" s="44"/>
+      <c r="D92" s="4"/>
+      <c r="E92" s="3"/>
+      <c r="F92" s="46"/>
+      <c r="G92" s="46"/>
+      <c r="H92" s="14"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93" s="39"/>
-      <c r="B93" s="42"/>
-      <c r="C93" s="44"/>
-      <c r="D93" s="4"/>
-      <c r="E93" s="3"/>
-      <c r="F93" s="46"/>
-      <c r="G93" s="46"/>
-      <c r="H93" s="14"/>
+      <c r="A93" s="38"/>
+      <c r="B93" s="43"/>
+      <c r="C93" s="43"/>
+      <c r="D93" s="6"/>
+      <c r="E93" s="27"/>
+      <c r="F93" s="49"/>
+      <c r="G93" s="43"/>
+      <c r="H93" s="13"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A94" s="38"/>
-      <c r="B94" s="43"/>
-      <c r="C94" s="43"/>
-      <c r="D94" s="6"/>
-      <c r="E94" s="27"/>
-      <c r="F94" s="49"/>
-      <c r="G94" s="43"/>
-      <c r="H94" s="13"/>
+      <c r="A94" s="37"/>
+      <c r="B94" s="40"/>
+      <c r="C94" s="45"/>
+      <c r="D94" s="10"/>
+      <c r="E94" s="11"/>
+      <c r="F94" s="48"/>
+      <c r="G94" s="48"/>
+      <c r="H94" s="12"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A95" s="37"/>
-      <c r="B95" s="40"/>
-      <c r="C95" s="45"/>
-      <c r="D95" s="10"/>
-      <c r="E95" s="11"/>
-      <c r="F95" s="48"/>
-      <c r="G95" s="48"/>
-      <c r="H95" s="12"/>
+      <c r="A95" s="38"/>
+      <c r="B95" s="43"/>
+      <c r="C95" s="43"/>
+      <c r="D95" s="6"/>
+      <c r="E95" s="27"/>
+      <c r="F95" s="49"/>
+      <c r="G95" s="43"/>
+      <c r="H95" s="13"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A96" s="38"/>
-      <c r="B96" s="43"/>
-      <c r="C96" s="43"/>
-      <c r="D96" s="6"/>
-      <c r="E96" s="27"/>
-      <c r="F96" s="49"/>
-      <c r="G96" s="43"/>
-      <c r="H96" s="13"/>
+      <c r="A96" s="37"/>
+      <c r="B96" s="40"/>
+      <c r="C96" s="45"/>
+      <c r="D96" s="10"/>
+      <c r="E96" s="11"/>
+      <c r="F96" s="48"/>
+      <c r="G96" s="48"/>
+      <c r="H96" s="12"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A97" s="37"/>
-      <c r="B97" s="40"/>
-      <c r="C97" s="45"/>
-      <c r="D97" s="10"/>
-      <c r="E97" s="11"/>
-      <c r="F97" s="48"/>
-      <c r="G97" s="48"/>
-      <c r="H97" s="12"/>
+      <c r="A97" s="39"/>
+      <c r="B97" s="42"/>
+      <c r="C97" s="44"/>
+      <c r="D97" s="4"/>
+      <c r="E97" s="3"/>
+      <c r="F97" s="46"/>
+      <c r="G97" s="46"/>
+      <c r="H97" s="14"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A98" s="39"/>
-      <c r="B98" s="42"/>
-      <c r="C98" s="44"/>
-      <c r="D98" s="4"/>
-      <c r="E98" s="3"/>
-      <c r="F98" s="46"/>
-      <c r="G98" s="46"/>
-      <c r="H98" s="14"/>
+      <c r="A98" s="38"/>
+      <c r="B98" s="43"/>
+      <c r="C98" s="43"/>
+      <c r="D98" s="6"/>
+      <c r="E98" s="27"/>
+      <c r="F98" s="49"/>
+      <c r="G98" s="43"/>
+      <c r="H98" s="13"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A99" s="38"/>
-      <c r="B99" s="43"/>
-      <c r="C99" s="43"/>
-      <c r="D99" s="6"/>
-      <c r="E99" s="27"/>
-      <c r="F99" s="49"/>
-      <c r="G99" s="43"/>
-      <c r="H99" s="13"/>
+      <c r="A99" s="37"/>
+      <c r="B99" s="40"/>
+      <c r="C99" s="45"/>
+      <c r="D99" s="10"/>
+      <c r="E99" s="11"/>
+      <c r="F99" s="48"/>
+      <c r="G99" s="48"/>
+      <c r="H99" s="12"/>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A100" s="37"/>
-      <c r="B100" s="40"/>
-      <c r="C100" s="45"/>
-      <c r="D100" s="10"/>
-      <c r="E100" s="11"/>
-      <c r="F100" s="48"/>
-      <c r="G100" s="48"/>
-      <c r="H100" s="12"/>
+      <c r="A100" s="38"/>
+      <c r="B100" s="43"/>
+      <c r="C100" s="43"/>
+      <c r="D100" s="6"/>
+      <c r="E100" s="27"/>
+      <c r="F100" s="49"/>
+      <c r="G100" s="43"/>
+      <c r="H100" s="13"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A101" s="38"/>
-      <c r="B101" s="43"/>
-      <c r="C101" s="43"/>
-      <c r="D101" s="6"/>
-      <c r="E101" s="27"/>
-      <c r="F101" s="49"/>
-      <c r="G101" s="43"/>
-      <c r="H101" s="13"/>
+      <c r="A101" s="39"/>
+      <c r="B101" s="42"/>
+      <c r="C101" s="44"/>
+      <c r="D101" s="4"/>
+      <c r="E101" s="3"/>
+      <c r="F101" s="46"/>
+      <c r="G101" s="46"/>
+      <c r="H101" s="17"/>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="39"/>
@@ -2074,343 +2099,343 @@
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="39"/>
-      <c r="B103" s="42"/>
+      <c r="B103" s="44"/>
       <c r="C103" s="44"/>
-      <c r="D103" s="4"/>
-      <c r="E103" s="3"/>
-      <c r="F103" s="46"/>
-      <c r="G103" s="46"/>
+      <c r="D103" s="2"/>
+      <c r="E103" s="19"/>
+      <c r="F103" s="50"/>
+      <c r="G103" s="44"/>
       <c r="H103" s="17"/>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A104" s="39"/>
-      <c r="B104" s="44"/>
-      <c r="C104" s="44"/>
-      <c r="D104" s="2"/>
-      <c r="E104" s="19"/>
-      <c r="F104" s="50"/>
-      <c r="G104" s="44"/>
-      <c r="H104" s="17"/>
+      <c r="A104" s="37"/>
+      <c r="B104" s="40"/>
+      <c r="C104" s="45"/>
+      <c r="D104" s="10"/>
+      <c r="E104" s="11"/>
+      <c r="F104" s="48"/>
+      <c r="G104" s="48"/>
+      <c r="H104" s="12"/>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A105" s="37"/>
-      <c r="B105" s="40"/>
-      <c r="C105" s="45"/>
-      <c r="D105" s="10"/>
-      <c r="E105" s="11"/>
-      <c r="F105" s="48"/>
-      <c r="G105" s="48"/>
-      <c r="H105" s="12"/>
+      <c r="A105" s="39"/>
+      <c r="B105" s="42"/>
+      <c r="C105" s="44"/>
+      <c r="D105" s="4"/>
+      <c r="E105" s="3"/>
+      <c r="F105" s="46"/>
+      <c r="G105" s="46"/>
+      <c r="H105" s="14"/>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A106" s="39"/>
-      <c r="B106" s="42"/>
-      <c r="C106" s="44"/>
-      <c r="D106" s="4"/>
-      <c r="E106" s="3"/>
-      <c r="F106" s="46"/>
-      <c r="G106" s="46"/>
-      <c r="H106" s="14"/>
+      <c r="A106" s="38"/>
+      <c r="B106" s="41"/>
+      <c r="C106" s="43"/>
+      <c r="D106" s="8"/>
+      <c r="E106" s="7"/>
+      <c r="F106" s="47"/>
+      <c r="G106" s="47"/>
+      <c r="H106" s="13"/>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A107" s="38"/>
-      <c r="B107" s="41"/>
-      <c r="C107" s="43"/>
-      <c r="D107" s="8"/>
-      <c r="E107" s="7"/>
-      <c r="F107" s="47"/>
-      <c r="G107" s="47"/>
-      <c r="H107" s="13"/>
+      <c r="A107" s="37"/>
+      <c r="B107" s="40"/>
+      <c r="C107" s="45"/>
+      <c r="D107" s="10"/>
+      <c r="E107" s="11"/>
+      <c r="F107" s="48"/>
+      <c r="G107" s="48"/>
+      <c r="H107" s="12"/>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A108" s="37"/>
-      <c r="B108" s="40"/>
-      <c r="C108" s="45"/>
-      <c r="D108" s="10"/>
-      <c r="E108" s="11"/>
-      <c r="F108" s="48"/>
-      <c r="G108" s="48"/>
-      <c r="H108" s="12"/>
+      <c r="A108" s="38"/>
+      <c r="B108" s="41"/>
+      <c r="C108" s="43"/>
+      <c r="D108" s="8"/>
+      <c r="E108" s="7"/>
+      <c r="F108" s="47"/>
+      <c r="G108" s="47"/>
+      <c r="H108" s="13"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A109" s="38"/>
-      <c r="B109" s="41"/>
-      <c r="C109" s="43"/>
-      <c r="D109" s="8"/>
-      <c r="E109" s="7"/>
-      <c r="F109" s="47"/>
-      <c r="G109" s="47"/>
-      <c r="H109" s="13"/>
+      <c r="A109" s="37"/>
+      <c r="B109" s="40"/>
+      <c r="C109" s="45"/>
+      <c r="D109" s="10"/>
+      <c r="E109" s="11"/>
+      <c r="F109" s="48"/>
+      <c r="G109" s="48"/>
+      <c r="H109" s="12"/>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A110" s="37"/>
-      <c r="B110" s="40"/>
-      <c r="C110" s="45"/>
-      <c r="D110" s="10"/>
-      <c r="E110" s="11"/>
-      <c r="F110" s="48"/>
-      <c r="G110" s="48"/>
-      <c r="H110" s="12"/>
+      <c r="A110" s="39"/>
+      <c r="B110" s="42"/>
+      <c r="C110" s="44"/>
+      <c r="D110" s="4"/>
+      <c r="E110" s="3"/>
+      <c r="F110" s="46"/>
+      <c r="G110" s="46"/>
+      <c r="H110" s="14"/>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A111" s="39"/>
-      <c r="B111" s="42"/>
-      <c r="C111" s="44"/>
-      <c r="D111" s="4"/>
-      <c r="E111" s="3"/>
-      <c r="F111" s="46"/>
-      <c r="G111" s="46"/>
-      <c r="H111" s="14"/>
+      <c r="A111" s="38"/>
+      <c r="B111" s="41"/>
+      <c r="C111" s="43"/>
+      <c r="D111" s="8"/>
+      <c r="E111" s="7"/>
+      <c r="F111" s="47"/>
+      <c r="G111" s="47"/>
+      <c r="H111" s="13"/>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A112" s="38"/>
-      <c r="B112" s="41"/>
-      <c r="C112" s="43"/>
-      <c r="D112" s="8"/>
-      <c r="E112" s="7"/>
-      <c r="F112" s="47"/>
-      <c r="G112" s="47"/>
-      <c r="H112" s="13"/>
+      <c r="A112" s="37"/>
+      <c r="B112" s="40"/>
+      <c r="C112" s="45"/>
+      <c r="D112" s="10"/>
+      <c r="E112" s="11"/>
+      <c r="F112" s="48"/>
+      <c r="G112" s="48"/>
+      <c r="H112" s="12"/>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A113" s="37"/>
-      <c r="B113" s="40"/>
-      <c r="C113" s="45"/>
-      <c r="D113" s="10"/>
-      <c r="E113" s="11"/>
-      <c r="F113" s="48"/>
-      <c r="G113" s="48"/>
-      <c r="H113" s="12"/>
+      <c r="A113" s="39"/>
+      <c r="B113" s="42"/>
+      <c r="C113" s="44"/>
+      <c r="D113" s="4"/>
+      <c r="E113" s="3"/>
+      <c r="F113" s="46"/>
+      <c r="G113" s="46"/>
+      <c r="H113" s="14"/>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A114" s="39"/>
-      <c r="B114" s="42"/>
-      <c r="C114" s="44"/>
-      <c r="D114" s="4"/>
-      <c r="E114" s="3"/>
-      <c r="F114" s="46"/>
-      <c r="G114" s="46"/>
-      <c r="H114" s="14"/>
+      <c r="A114" s="38"/>
+      <c r="B114" s="41"/>
+      <c r="C114" s="43"/>
+      <c r="D114" s="8"/>
+      <c r="E114" s="7"/>
+      <c r="F114" s="47"/>
+      <c r="G114" s="47"/>
+      <c r="H114" s="13"/>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A115" s="38"/>
-      <c r="B115" s="41"/>
-      <c r="C115" s="43"/>
-      <c r="D115" s="8"/>
-      <c r="E115" s="7"/>
-      <c r="F115" s="47"/>
-      <c r="G115" s="47"/>
-      <c r="H115" s="13"/>
+      <c r="A115" s="37"/>
+      <c r="B115" s="40"/>
+      <c r="C115" s="45"/>
+      <c r="D115" s="10"/>
+      <c r="E115" s="11"/>
+      <c r="F115" s="48"/>
+      <c r="G115" s="48"/>
+      <c r="H115" s="12"/>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A116" s="37"/>
-      <c r="B116" s="40"/>
-      <c r="C116" s="45"/>
-      <c r="D116" s="10"/>
-      <c r="E116" s="11"/>
-      <c r="F116" s="48"/>
-      <c r="G116" s="48"/>
-      <c r="H116" s="12"/>
+      <c r="A116" s="39"/>
+      <c r="B116" s="42"/>
+      <c r="C116" s="44"/>
+      <c r="D116" s="4"/>
+      <c r="E116" s="3"/>
+      <c r="F116" s="46"/>
+      <c r="G116" s="46"/>
+      <c r="H116" s="14"/>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A117" s="39"/>
-      <c r="B117" s="42"/>
-      <c r="C117" s="44"/>
-      <c r="D117" s="4"/>
-      <c r="E117" s="3"/>
-      <c r="F117" s="46"/>
-      <c r="G117" s="46"/>
-      <c r="H117" s="14"/>
+      <c r="A117" s="38"/>
+      <c r="B117" s="41"/>
+      <c r="C117" s="43"/>
+      <c r="D117" s="8"/>
+      <c r="E117" s="7"/>
+      <c r="F117" s="47"/>
+      <c r="G117" s="47"/>
+      <c r="H117" s="13"/>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A118" s="38"/>
-      <c r="B118" s="41"/>
-      <c r="C118" s="43"/>
-      <c r="D118" s="8"/>
-      <c r="E118" s="7"/>
-      <c r="F118" s="47"/>
-      <c r="G118" s="47"/>
-      <c r="H118" s="13"/>
+      <c r="A118" s="37"/>
+      <c r="B118" s="40"/>
+      <c r="C118" s="45"/>
+      <c r="D118" s="10"/>
+      <c r="E118" s="11"/>
+      <c r="F118" s="48"/>
+      <c r="G118" s="48"/>
+      <c r="H118" s="12"/>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A119" s="37"/>
-      <c r="B119" s="40"/>
-      <c r="C119" s="45"/>
-      <c r="D119" s="10"/>
-      <c r="E119" s="11"/>
-      <c r="F119" s="48"/>
-      <c r="G119" s="48"/>
-      <c r="H119" s="12"/>
+      <c r="A119" s="38"/>
+      <c r="B119" s="41"/>
+      <c r="C119" s="43"/>
+      <c r="D119" s="8"/>
+      <c r="E119" s="7"/>
+      <c r="F119" s="47"/>
+      <c r="G119" s="47"/>
+      <c r="H119" s="13"/>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A120" s="38"/>
-      <c r="B120" s="41"/>
-      <c r="C120" s="43"/>
-      <c r="D120" s="8"/>
-      <c r="E120" s="7"/>
-      <c r="F120" s="47"/>
-      <c r="G120" s="47"/>
-      <c r="H120" s="13"/>
+      <c r="A120" s="37"/>
+      <c r="B120" s="40"/>
+      <c r="C120" s="45"/>
+      <c r="D120" s="10"/>
+      <c r="E120" s="11"/>
+      <c r="F120" s="48"/>
+      <c r="G120" s="48"/>
+      <c r="H120" s="12"/>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A121" s="37"/>
-      <c r="B121" s="40"/>
-      <c r="C121" s="45"/>
-      <c r="D121" s="10"/>
-      <c r="E121" s="11"/>
-      <c r="F121" s="48"/>
-      <c r="G121" s="48"/>
-      <c r="H121" s="12"/>
+      <c r="A121" s="39"/>
+      <c r="B121" s="42"/>
+      <c r="C121" s="44"/>
+      <c r="D121" s="4"/>
+      <c r="E121" s="3"/>
+      <c r="F121" s="46"/>
+      <c r="G121" s="46"/>
+      <c r="H121" s="14"/>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A122" s="39"/>
-      <c r="B122" s="42"/>
-      <c r="C122" s="44"/>
-      <c r="D122" s="4"/>
-      <c r="E122" s="3"/>
-      <c r="F122" s="46"/>
-      <c r="G122" s="46"/>
-      <c r="H122" s="14"/>
+      <c r="A122" s="38"/>
+      <c r="B122" s="41"/>
+      <c r="C122" s="43"/>
+      <c r="D122" s="8"/>
+      <c r="E122" s="7"/>
+      <c r="F122" s="47"/>
+      <c r="G122" s="47"/>
+      <c r="H122" s="13"/>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A123" s="38"/>
-      <c r="B123" s="41"/>
-      <c r="C123" s="43"/>
-      <c r="D123" s="8"/>
-      <c r="E123" s="7"/>
-      <c r="F123" s="47"/>
-      <c r="G123" s="47"/>
-      <c r="H123" s="13"/>
+      <c r="A123" s="37"/>
+      <c r="B123" s="40"/>
+      <c r="C123" s="45"/>
+      <c r="D123" s="10"/>
+      <c r="E123" s="11"/>
+      <c r="F123" s="48"/>
+      <c r="G123" s="48"/>
+      <c r="H123" s="12"/>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A124" s="37"/>
-      <c r="B124" s="40"/>
-      <c r="C124" s="45"/>
-      <c r="D124" s="10"/>
-      <c r="E124" s="11"/>
-      <c r="F124" s="48"/>
-      <c r="G124" s="48"/>
-      <c r="H124" s="12"/>
+      <c r="A124" s="39"/>
+      <c r="B124" s="42"/>
+      <c r="C124" s="44"/>
+      <c r="D124" s="4"/>
+      <c r="E124" s="3"/>
+      <c r="F124" s="46"/>
+      <c r="G124" s="46"/>
+      <c r="H124" s="14"/>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A125" s="39"/>
-      <c r="B125" s="42"/>
-      <c r="C125" s="44"/>
-      <c r="D125" s="4"/>
-      <c r="E125" s="3"/>
-      <c r="F125" s="46"/>
-      <c r="G125" s="46"/>
-      <c r="H125" s="14"/>
+      <c r="A125" s="38"/>
+      <c r="B125" s="41"/>
+      <c r="C125" s="43"/>
+      <c r="D125" s="8"/>
+      <c r="E125" s="7"/>
+      <c r="F125" s="47"/>
+      <c r="G125" s="47"/>
+      <c r="H125" s="13"/>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A126" s="38"/>
-      <c r="B126" s="41"/>
-      <c r="C126" s="43"/>
-      <c r="D126" s="8"/>
-      <c r="E126" s="7"/>
-      <c r="F126" s="47"/>
-      <c r="G126" s="47"/>
-      <c r="H126" s="13"/>
+      <c r="A126" s="37"/>
+      <c r="B126" s="40"/>
+      <c r="C126" s="45"/>
+      <c r="D126" s="10"/>
+      <c r="E126" s="11"/>
+      <c r="F126" s="48"/>
+      <c r="G126" s="48"/>
+      <c r="H126" s="12"/>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A127" s="37"/>
-      <c r="B127" s="40"/>
-      <c r="C127" s="45"/>
-      <c r="D127" s="10"/>
-      <c r="E127" s="11"/>
-      <c r="F127" s="48"/>
-      <c r="G127" s="48"/>
-      <c r="H127" s="12"/>
+      <c r="A127" s="39"/>
+      <c r="B127" s="42"/>
+      <c r="C127" s="44"/>
+      <c r="D127" s="4"/>
+      <c r="E127" s="3"/>
+      <c r="F127" s="46"/>
+      <c r="G127" s="46"/>
+      <c r="H127" s="14"/>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A128" s="39"/>
-      <c r="B128" s="42"/>
-      <c r="C128" s="44"/>
-      <c r="D128" s="4"/>
-      <c r="E128" s="3"/>
-      <c r="F128" s="46"/>
-      <c r="G128" s="46"/>
-      <c r="H128" s="14"/>
+      <c r="A128" s="38"/>
+      <c r="B128" s="41"/>
+      <c r="C128" s="43"/>
+      <c r="D128" s="8"/>
+      <c r="E128" s="7"/>
+      <c r="F128" s="47"/>
+      <c r="G128" s="47"/>
+      <c r="H128" s="13"/>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A129" s="38"/>
-      <c r="B129" s="41"/>
-      <c r="C129" s="43"/>
-      <c r="D129" s="8"/>
-      <c r="E129" s="7"/>
-      <c r="F129" s="47"/>
-      <c r="G129" s="47"/>
-      <c r="H129" s="13"/>
+      <c r="A129" s="37"/>
+      <c r="B129" s="40"/>
+      <c r="C129" s="45"/>
+      <c r="D129" s="10"/>
+      <c r="E129" s="11"/>
+      <c r="F129" s="48"/>
+      <c r="G129" s="48"/>
+      <c r="H129" s="12"/>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A130" s="37"/>
-      <c r="B130" s="40"/>
-      <c r="C130" s="45"/>
-      <c r="D130" s="10"/>
-      <c r="E130" s="11"/>
-      <c r="F130" s="48"/>
-      <c r="G130" s="48"/>
-      <c r="H130" s="12"/>
+      <c r="A130" s="39"/>
+      <c r="B130" s="42"/>
+      <c r="C130" s="44"/>
+      <c r="D130" s="4"/>
+      <c r="E130" s="3"/>
+      <c r="F130" s="46"/>
+      <c r="G130" s="46"/>
+      <c r="H130" s="14"/>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A131" s="39"/>
-      <c r="B131" s="42"/>
-      <c r="C131" s="44"/>
-      <c r="D131" s="4"/>
-      <c r="E131" s="3"/>
-      <c r="F131" s="46"/>
-      <c r="G131" s="46"/>
-      <c r="H131" s="14"/>
+      <c r="A131" s="38"/>
+      <c r="B131" s="41"/>
+      <c r="C131" s="43"/>
+      <c r="D131" s="8"/>
+      <c r="E131" s="7"/>
+      <c r="F131" s="47"/>
+      <c r="G131" s="47"/>
+      <c r="H131" s="13"/>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A132" s="38"/>
-      <c r="B132" s="41"/>
-      <c r="C132" s="43"/>
-      <c r="D132" s="8"/>
-      <c r="E132" s="7"/>
-      <c r="F132" s="47"/>
-      <c r="G132" s="47"/>
-      <c r="H132" s="13"/>
+      <c r="A132" s="37"/>
+      <c r="B132" s="40"/>
+      <c r="C132" s="45"/>
+      <c r="D132" s="10"/>
+      <c r="E132" s="11"/>
+      <c r="F132" s="48"/>
+      <c r="G132" s="48"/>
+      <c r="H132" s="12"/>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A133" s="37"/>
-      <c r="B133" s="40"/>
-      <c r="C133" s="45"/>
-      <c r="D133" s="10"/>
-      <c r="E133" s="11"/>
-      <c r="F133" s="48"/>
-      <c r="G133" s="48"/>
-      <c r="H133" s="12"/>
+      <c r="A133" s="39"/>
+      <c r="B133" s="42"/>
+      <c r="C133" s="44"/>
+      <c r="D133" s="4"/>
+      <c r="E133" s="3"/>
+      <c r="F133" s="46"/>
+      <c r="G133" s="46"/>
+      <c r="H133" s="14"/>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A134" s="39"/>
-      <c r="B134" s="42"/>
-      <c r="C134" s="44"/>
-      <c r="D134" s="4"/>
-      <c r="E134" s="3"/>
-      <c r="F134" s="46"/>
-      <c r="G134" s="46"/>
-      <c r="H134" s="14"/>
+      <c r="A134" s="38"/>
+      <c r="B134" s="41"/>
+      <c r="C134" s="43"/>
+      <c r="D134" s="8"/>
+      <c r="E134" s="7"/>
+      <c r="F134" s="47"/>
+      <c r="G134" s="47"/>
+      <c r="H134" s="13"/>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A135" s="38"/>
-      <c r="B135" s="41"/>
-      <c r="C135" s="43"/>
-      <c r="D135" s="8"/>
-      <c r="E135" s="7"/>
-      <c r="F135" s="47"/>
-      <c r="G135" s="47"/>
-      <c r="H135" s="13"/>
+      <c r="A135" s="37"/>
+      <c r="B135" s="40"/>
+      <c r="C135" s="45"/>
+      <c r="D135" s="10"/>
+      <c r="E135" s="11"/>
+      <c r="F135" s="48"/>
+      <c r="G135" s="48"/>
+      <c r="H135" s="12"/>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A136" s="37"/>
-      <c r="B136" s="40"/>
-      <c r="C136" s="45"/>
-      <c r="D136" s="10"/>
-      <c r="E136" s="11"/>
-      <c r="F136" s="48"/>
-      <c r="G136" s="48"/>
-      <c r="H136" s="12"/>
+      <c r="A136" s="39"/>
+      <c r="B136" s="42"/>
+      <c r="C136" s="44"/>
+      <c r="D136" s="4"/>
+      <c r="E136" s="3"/>
+      <c r="F136" s="46"/>
+      <c r="G136" s="46"/>
+      <c r="H136" s="14"/>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="39"/>
@@ -2423,24 +2448,24 @@
       <c r="H137" s="14"/>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A138" s="39"/>
-      <c r="B138" s="42"/>
-      <c r="C138" s="44"/>
-      <c r="D138" s="4"/>
-      <c r="E138" s="3"/>
-      <c r="F138" s="46"/>
-      <c r="G138" s="46"/>
-      <c r="H138" s="14"/>
+      <c r="A138" s="37"/>
+      <c r="B138" s="40"/>
+      <c r="C138" s="45"/>
+      <c r="D138" s="10"/>
+      <c r="E138" s="11"/>
+      <c r="F138" s="48"/>
+      <c r="G138" s="48"/>
+      <c r="H138" s="12"/>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A139" s="37"/>
-      <c r="B139" s="40"/>
-      <c r="C139" s="45"/>
-      <c r="D139" s="10"/>
-      <c r="E139" s="11"/>
-      <c r="F139" s="48"/>
-      <c r="G139" s="48"/>
-      <c r="H139" s="12"/>
+      <c r="A139" s="39"/>
+      <c r="B139" s="42"/>
+      <c r="C139" s="44"/>
+      <c r="D139" s="4"/>
+      <c r="E139" s="3"/>
+      <c r="F139" s="46"/>
+      <c r="G139" s="46"/>
+      <c r="H139" s="14"/>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="39"/>
@@ -2453,84 +2478,83 @@
       <c r="H140" s="14"/>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A141" s="39"/>
-      <c r="B141" s="42"/>
-      <c r="C141" s="44"/>
-      <c r="D141" s="4"/>
-      <c r="E141" s="3"/>
-      <c r="F141" s="46"/>
-      <c r="G141" s="46"/>
-      <c r="H141" s="14"/>
+      <c r="A141" s="37"/>
+      <c r="B141" s="56"/>
+      <c r="C141" s="45"/>
+      <c r="D141" s="59"/>
+      <c r="E141" s="11"/>
+      <c r="F141" s="55"/>
+      <c r="G141" s="48"/>
+      <c r="H141" s="12"/>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A142" s="37"/>
-      <c r="B142" s="56"/>
-      <c r="C142" s="45"/>
-      <c r="D142" s="59"/>
-      <c r="E142" s="11"/>
-      <c r="F142" s="55"/>
-      <c r="G142" s="48"/>
-      <c r="H142" s="12"/>
+      <c r="A142" s="39"/>
+      <c r="B142" s="57"/>
+      <c r="C142" s="44"/>
+      <c r="D142" s="60"/>
+      <c r="E142" s="3"/>
+      <c r="F142" s="46"/>
+      <c r="G142" s="46"/>
+      <c r="H142" s="14"/>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A143" s="39"/>
-      <c r="B143" s="57"/>
-      <c r="C143" s="44"/>
-      <c r="D143" s="60"/>
-      <c r="E143" s="3"/>
-      <c r="F143" s="46"/>
-      <c r="G143" s="46"/>
-      <c r="H143" s="14"/>
+      <c r="A143" s="38"/>
+      <c r="B143" s="58"/>
+      <c r="C143" s="43"/>
+      <c r="D143" s="61"/>
+      <c r="E143" s="7"/>
+      <c r="F143" s="47"/>
+      <c r="G143" s="47"/>
+      <c r="H143" s="13"/>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A144" s="38"/>
-      <c r="B144" s="58"/>
-      <c r="C144" s="43"/>
-      <c r="D144" s="61"/>
-      <c r="E144" s="7"/>
-      <c r="F144" s="47"/>
-      <c r="G144" s="47"/>
-      <c r="H144" s="13"/>
+      <c r="A144" s="37"/>
+      <c r="B144" s="56"/>
+      <c r="C144" s="45"/>
+      <c r="D144" s="59"/>
+      <c r="E144" s="11"/>
+      <c r="F144" s="55"/>
+      <c r="G144" s="46"/>
+      <c r="H144" s="12"/>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A145" s="37"/>
-      <c r="B145" s="56"/>
-      <c r="C145" s="45"/>
-      <c r="D145" s="59"/>
-      <c r="E145" s="11"/>
-      <c r="F145" s="55"/>
-      <c r="G145" s="46"/>
-      <c r="H145" s="12"/>
+      <c r="A145" s="38"/>
+      <c r="B145" s="58"/>
+      <c r="C145" s="43"/>
+      <c r="D145" s="61"/>
+      <c r="E145" s="7"/>
+      <c r="F145" s="47"/>
+      <c r="G145" s="47"/>
+      <c r="H145" s="13"/>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A146" s="38"/>
-      <c r="B146" s="58"/>
-      <c r="C146" s="43"/>
-      <c r="D146" s="61"/>
-      <c r="E146" s="7"/>
-      <c r="F146" s="47"/>
-      <c r="G146" s="47"/>
-      <c r="H146" s="13"/>
+      <c r="A146" s="37"/>
+      <c r="B146" s="56"/>
+      <c r="C146" s="45"/>
+      <c r="D146" s="59"/>
+      <c r="E146" s="11"/>
+      <c r="F146" s="55"/>
+      <c r="G146" s="46"/>
+      <c r="H146" s="12"/>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A147" s="37"/>
-      <c r="B147" s="56"/>
-      <c r="C147" s="45"/>
-      <c r="D147" s="59"/>
-      <c r="E147" s="11"/>
-      <c r="F147" s="55"/>
-      <c r="G147" s="46"/>
-      <c r="H147" s="12"/>
+      <c r="A147" s="38"/>
+      <c r="B147" s="58"/>
+      <c r="C147" s="43"/>
+      <c r="D147" s="61"/>
+      <c r="E147" s="7"/>
+      <c r="F147" s="47"/>
+      <c r="G147" s="47"/>
+      <c r="H147" s="13"/>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A148" s="38"/>
-      <c r="B148" s="58"/>
-      <c r="C148" s="43"/>
-      <c r="D148" s="61"/>
-      <c r="E148" s="7"/>
-      <c r="F148" s="47"/>
-      <c r="G148" s="47"/>
-      <c r="H148" s="13"/>
+      <c r="B148" s="1"/>
+      <c r="C148" s="2"/>
+      <c r="D148" s="4"/>
+      <c r="E148" s="3"/>
+      <c r="F148" s="4"/>
+      <c r="G148" s="4"/>
+      <c r="H148" s="17"/>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B149" s="1"/>
@@ -2748,15 +2772,6 @@
       <c r="G172" s="4"/>
       <c r="H172" s="17"/>
     </row>
-    <row r="173" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B173" s="1"/>
-      <c r="C173" s="2"/>
-      <c r="D173" s="4"/>
-      <c r="E173" s="3"/>
-      <c r="F173" s="4"/>
-      <c r="G173" s="4"/>
-      <c r="H173" s="17"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/TS Jatai Working/TTD Krama PaaraayaNam-Kramam.xlsx
+++ b/TS Jatai Working/TTD Krama PaaraayaNam-Kramam.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="48">
   <si>
     <t>Date</t>
   </si>
@@ -140,6 +140,24 @@
   </si>
   <si>
     <t xml:space="preserve">1.5.9.1 </t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=awCIDUCQVLE</t>
+  </si>
+  <si>
+    <t>29 min 50 sec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5.11.5 </t>
+  </si>
+  <si>
+    <t>1.6.1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6.2.4 </t>
+  </si>
+  <si>
+    <t>1.6.3.1</t>
   </si>
 </sst>
 </file>
@@ -332,7 +350,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -504,6 +522,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -814,8 +838,8 @@
   <dimension ref="A1:L172"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H17" sqref="H17"/>
+      <pane ySplit="4" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -1264,8 +1288,8 @@
       <c r="D20" s="68"/>
       <c r="E20" s="27"/>
       <c r="F20" s="49"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="13"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="14"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="37">
@@ -1283,19 +1307,39 @@
       <c r="E21" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F21" s="48"/>
-      <c r="G21" s="48"/>
-      <c r="H21" s="12"/>
+      <c r="F21" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="G21" s="62" t="s">
+        <v>43</v>
+      </c>
+      <c r="H21" s="12" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="39"/>
-      <c r="B22" s="42"/>
-      <c r="C22" s="44"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="46"/>
-      <c r="G22" s="46"/>
-      <c r="H22" s="14"/>
+      <c r="B22" s="42">
+        <v>44453</v>
+      </c>
+      <c r="C22" s="44">
+        <v>1</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G22" s="72" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" s="14" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="38"/>
@@ -1303,19 +1347,29 @@
       <c r="C23" s="43"/>
       <c r="D23" s="6"/>
       <c r="E23" s="27"/>
-      <c r="F23" s="49"/>
-      <c r="G23" s="43"/>
+      <c r="F23" s="71"/>
+      <c r="G23" s="38"/>
       <c r="H23" s="13"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="37"/>
-      <c r="B24" s="40"/>
-      <c r="C24" s="45"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="11"/>
+      <c r="A24" s="37">
+        <v>9</v>
+      </c>
+      <c r="B24" s="40">
+        <v>44454</v>
+      </c>
+      <c r="C24" s="45">
+        <v>2</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>9</v>
+      </c>
       <c r="F24" s="48"/>
-      <c r="G24" s="48"/>
-      <c r="H24" s="12"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="14"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="38"/>

--- a/TS Jatai Working/TTD Krama PaaraayaNam-Kramam.xlsx
+++ b/TS Jatai Working/TTD Krama PaaraayaNam-Kramam.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="55">
   <si>
     <t>Date</t>
   </si>
@@ -158,6 +158,27 @@
   </si>
   <si>
     <t>1.6.3.1</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=-wP901ne6zo&amp;list=PLjhrDIztP9pcSE8dR7xYZb7zwX5SXxNKy&amp;index=2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6.9.4 </t>
+  </si>
+  <si>
+    <t>1.6.10.1</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=IiIXKcATgXA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6.12.6 </t>
+  </si>
+  <si>
+    <t>33 min 57 sec</t>
+  </si>
+  <si>
+    <t>1.7.1.1</t>
   </si>
 </sst>
 </file>
@@ -350,7 +371,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -409,7 +430,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -528,6 +548,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -838,8 +870,8 @@
   <dimension ref="A1:L172"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E25" sqref="E25"/>
+      <pane ySplit="4" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -859,19 +891,19 @@
       <c r="A1" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33" t="s">
+      <c r="B1" s="32"/>
+      <c r="C1" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="32"/>
-      <c r="F1" s="33" t="s">
+      <c r="E1" s="31"/>
+      <c r="F1" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="33"/>
-      <c r="H1" s="51" t="s">
+      <c r="G1" s="32"/>
+      <c r="H1" s="50" t="s">
         <v>5</v>
       </c>
       <c r="I1" s="17"/>
@@ -879,8 +911,8 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="25"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
       <c r="D2" s="15" t="s">
         <v>16</v>
       </c>
@@ -888,24 +920,24 @@
       <c r="F2" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="34"/>
-      <c r="H2" s="52"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="51"/>
       <c r="I2" s="17"/>
       <c r="J2" s="17"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="25"/>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
       <c r="D3" s="15" t="s">
         <v>14</v>
       </c>
       <c r="E3" s="16"/>
-      <c r="F3" s="34" t="s">
+      <c r="F3" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
       <c r="I3" s="17"/>
       <c r="J3" s="17"/>
     </row>
@@ -913,36 +945,36 @@
       <c r="A4" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="D4" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="35" t="s">
+      <c r="E4" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="36" t="s">
+      <c r="F4" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="36" t="s">
+      <c r="G4" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="53"/>
+      <c r="H4" s="52"/>
       <c r="I4" s="17"/>
       <c r="J4" s="17"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="37">
+      <c r="A5" s="36">
         <v>1</v>
       </c>
-      <c r="B5" s="40">
+      <c r="B5" s="39">
         <v>44446</v>
       </c>
-      <c r="C5" s="45">
+      <c r="C5" s="44">
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -954,7 +986,7 @@
       <c r="F5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="62" t="s">
+      <c r="G5" s="61" t="s">
         <v>13</v>
       </c>
       <c r="H5" s="5" t="s">
@@ -966,13 +998,13 @@
       <c r="L5" s="17"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="38"/>
-      <c r="B6" s="41"/>
-      <c r="C6" s="43"/>
+      <c r="A6" s="37"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="42"/>
       <c r="D6" s="6"/>
       <c r="E6" s="7"/>
       <c r="F6" s="8"/>
-      <c r="G6" s="63"/>
+      <c r="G6" s="62"/>
       <c r="H6" s="9"/>
       <c r="I6" s="17"/>
       <c r="J6" s="17"/>
@@ -980,13 +1012,13 @@
       <c r="L6" s="17"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="37">
+      <c r="A7" s="36">
         <v>2</v>
       </c>
-      <c r="B7" s="40">
+      <c r="B7" s="39">
         <v>44447</v>
       </c>
-      <c r="C7" s="45">
+      <c r="C7" s="44">
         <v>1</v>
       </c>
       <c r="D7" s="10" t="s">
@@ -998,7 +1030,7 @@
       <c r="F7" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="62" t="s">
+      <c r="G7" s="61" t="s">
         <v>13</v>
       </c>
       <c r="H7" s="12" t="s">
@@ -1010,13 +1042,13 @@
       <c r="L7" s="17"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="38"/>
-      <c r="B8" s="41"/>
-      <c r="C8" s="43"/>
+      <c r="A8" s="37"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="42"/>
       <c r="D8" s="8"/>
       <c r="E8" s="7"/>
       <c r="F8" s="8"/>
-      <c r="G8" s="63"/>
+      <c r="G8" s="62"/>
       <c r="H8" s="14"/>
       <c r="I8" s="17"/>
       <c r="J8" s="17"/>
@@ -1024,13 +1056,13 @@
       <c r="L8" s="17"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="37">
+      <c r="A9" s="36">
         <v>3</v>
       </c>
-      <c r="B9" s="40">
+      <c r="B9" s="39">
         <v>44448</v>
       </c>
-      <c r="C9" s="45">
+      <c r="C9" s="44">
         <v>2</v>
       </c>
       <c r="D9" s="10" t="s">
@@ -1042,10 +1074,10 @@
       <c r="F9" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="G9" s="59" t="s">
+      <c r="G9" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="H9" s="64" t="s">
+      <c r="H9" s="63" t="s">
         <v>21</v>
       </c>
       <c r="I9" s="17"/>
@@ -1054,11 +1086,11 @@
       <c r="L9" s="17"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="39"/>
-      <c r="B10" s="42">
+      <c r="A10" s="38"/>
+      <c r="B10" s="41">
         <v>44448</v>
       </c>
-      <c r="C10" s="44">
+      <c r="C10" s="43">
         <v>1</v>
       </c>
       <c r="D10" s="4" t="s">
@@ -1070,10 +1102,10 @@
       <c r="F10" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G10" s="60" t="s">
+      <c r="G10" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="H10" s="65" t="s">
+      <c r="H10" s="64" t="s">
         <v>21</v>
       </c>
       <c r="I10" s="17"/>
@@ -1082,27 +1114,27 @@
       <c r="L10" s="17"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="38"/>
-      <c r="B11" s="41"/>
-      <c r="C11" s="43"/>
+      <c r="A11" s="37"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="42"/>
       <c r="D11" s="8"/>
       <c r="E11" s="7"/>
       <c r="F11" s="8"/>
-      <c r="G11" s="61"/>
-      <c r="H11" s="66"/>
+      <c r="G11" s="60"/>
+      <c r="H11" s="65"/>
       <c r="I11" s="17"/>
       <c r="J11" s="17"/>
       <c r="K11" s="17"/>
       <c r="L11" s="17"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="37">
+      <c r="A12" s="36">
         <v>4</v>
       </c>
-      <c r="B12" s="40">
+      <c r="B12" s="39">
         <v>44449</v>
       </c>
-      <c r="C12" s="45">
+      <c r="C12" s="44">
         <v>2</v>
       </c>
       <c r="D12" s="10" t="s">
@@ -1114,7 +1146,7 @@
       <c r="F12" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="G12" s="67" t="s">
+      <c r="G12" s="66" t="s">
         <v>13</v>
       </c>
       <c r="H12" s="14" t="s">
@@ -1126,13 +1158,13 @@
       <c r="L12" s="17"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="38"/>
-      <c r="B13" s="41"/>
-      <c r="C13" s="43"/>
+      <c r="A13" s="37"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="42"/>
       <c r="D13" s="8"/>
       <c r="E13" s="7"/>
       <c r="F13" s="8"/>
-      <c r="G13" s="38"/>
+      <c r="G13" s="37"/>
       <c r="H13" s="13"/>
       <c r="I13" s="17"/>
       <c r="J13" s="17"/>
@@ -1140,13 +1172,13 @@
       <c r="L13" s="17"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="37">
+      <c r="A14" s="36">
         <v>5</v>
       </c>
-      <c r="B14" s="40">
+      <c r="B14" s="39">
         <v>44450</v>
       </c>
-      <c r="C14" s="45">
+      <c r="C14" s="44">
         <v>1</v>
       </c>
       <c r="D14" s="10" t="s">
@@ -1158,7 +1190,7 @@
       <c r="F14" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="G14" s="67" t="s">
+      <c r="G14" s="66" t="s">
         <v>13</v>
       </c>
       <c r="H14" s="12" t="s">
@@ -1170,13 +1202,13 @@
       <c r="L14" s="17"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="38"/>
-      <c r="B15" s="41"/>
-      <c r="C15" s="43"/>
+      <c r="A15" s="37"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="42"/>
       <c r="D15" s="8"/>
       <c r="E15" s="7"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="54"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="53"/>
       <c r="H15" s="14"/>
       <c r="I15" s="17"/>
       <c r="J15" s="17"/>
@@ -1184,13 +1216,13 @@
       <c r="L15" s="17"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="37">
+      <c r="A16" s="36">
         <v>6</v>
       </c>
-      <c r="B16" s="40">
+      <c r="B16" s="39">
         <v>44451</v>
       </c>
-      <c r="C16" s="45">
+      <c r="C16" s="44">
         <v>2</v>
       </c>
       <c r="D16" s="10" t="s">
@@ -1202,10 +1234,10 @@
       <c r="F16" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="G16" s="59" t="s">
+      <c r="G16" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="H16" s="64" t="s">
+      <c r="H16" s="63" t="s">
         <v>33</v>
       </c>
       <c r="I16" s="17"/>
@@ -1214,11 +1246,11 @@
       <c r="L16" s="17"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="39"/>
-      <c r="B17" s="42">
+      <c r="A17" s="38"/>
+      <c r="B17" s="41">
         <v>44451</v>
       </c>
-      <c r="C17" s="44">
+      <c r="C17" s="43">
         <v>1</v>
       </c>
       <c r="D17" s="4" t="s">
@@ -1230,10 +1262,10 @@
       <c r="F17" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G17" s="60" t="s">
+      <c r="G17" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="H17" s="65" t="s">
+      <c r="H17" s="64" t="s">
         <v>33</v>
       </c>
       <c r="I17" s="17"/>
@@ -1242,30 +1274,30 @@
       <c r="L17" s="17"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="38"/>
-      <c r="B18" s="41"/>
-      <c r="C18" s="43"/>
+      <c r="A18" s="37"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="42"/>
       <c r="D18" s="4"/>
       <c r="E18" s="3"/>
       <c r="F18" s="4"/>
-      <c r="G18" s="68"/>
-      <c r="H18" s="66"/>
+      <c r="G18" s="67"/>
+      <c r="H18" s="65"/>
       <c r="I18" s="17"/>
       <c r="J18" s="17"/>
       <c r="K18" s="17"/>
       <c r="L18" s="17"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="37">
+      <c r="A19" s="36">
         <v>7</v>
       </c>
-      <c r="B19" s="40">
+      <c r="B19" s="39">
         <v>44452</v>
       </c>
-      <c r="C19" s="69">
+      <c r="C19" s="68">
         <v>2</v>
       </c>
-      <c r="D19" s="70" t="s">
+      <c r="D19" s="69" t="s">
         <v>38</v>
       </c>
       <c r="E19" s="11" t="s">
@@ -1274,7 +1306,7 @@
       <c r="F19" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="G19" s="62" t="s">
+      <c r="G19" s="61" t="s">
         <v>13</v>
       </c>
       <c r="H19" s="14" t="s">
@@ -1282,23 +1314,23 @@
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="38"/>
-      <c r="B20" s="43"/>
+      <c r="A20" s="37"/>
+      <c r="B20" s="42"/>
       <c r="C20" s="6"/>
-      <c r="D20" s="68"/>
+      <c r="D20" s="67"/>
       <c r="E20" s="27"/>
-      <c r="F20" s="49"/>
-      <c r="G20" s="39"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="38"/>
       <c r="H20" s="14"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="37">
+      <c r="A21" s="36">
         <v>8</v>
       </c>
-      <c r="B21" s="40">
+      <c r="B21" s="39">
         <v>44453</v>
       </c>
-      <c r="C21" s="45">
+      <c r="C21" s="44">
         <v>2</v>
       </c>
       <c r="D21" s="10" t="s">
@@ -1310,7 +1342,7 @@
       <c r="F21" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="G21" s="62" t="s">
+      <c r="G21" s="61" t="s">
         <v>43</v>
       </c>
       <c r="H21" s="12" t="s">
@@ -1318,11 +1350,11 @@
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="39"/>
-      <c r="B22" s="42">
+      <c r="A22" s="38"/>
+      <c r="B22" s="41">
         <v>44453</v>
       </c>
-      <c r="C22" s="44">
+      <c r="C22" s="43">
         <v>1</v>
       </c>
       <c r="D22" s="4" t="s">
@@ -1334,7 +1366,7 @@
       <c r="F22" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="G22" s="72" t="s">
+      <c r="G22" s="71" t="s">
         <v>13</v>
       </c>
       <c r="H22" s="14" t="s">
@@ -1342,23 +1374,23 @@
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="38"/>
-      <c r="B23" s="43"/>
-      <c r="C23" s="43"/>
+      <c r="A23" s="37"/>
+      <c r="B23" s="42"/>
+      <c r="C23" s="42"/>
       <c r="D23" s="6"/>
       <c r="E23" s="27"/>
-      <c r="F23" s="71"/>
-      <c r="G23" s="38"/>
+      <c r="F23" s="70"/>
+      <c r="G23" s="37"/>
       <c r="H23" s="13"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="37">
+      <c r="A24" s="36">
         <v>9</v>
       </c>
-      <c r="B24" s="40">
+      <c r="B24" s="39">
         <v>44454</v>
       </c>
-      <c r="C24" s="45">
+      <c r="C24" s="44">
         <v>2</v>
       </c>
       <c r="D24" s="10" t="s">
@@ -1367,1238 +1399,1272 @@
       <c r="E24" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F24" s="48"/>
-      <c r="G24" s="46"/>
-      <c r="H24" s="14"/>
+      <c r="F24" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G24" s="71" t="s">
+        <v>13</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="38"/>
+      <c r="A25" s="37"/>
       <c r="B25" s="43"/>
       <c r="C25" s="43"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="27"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="19"/>
       <c r="F25" s="49"/>
       <c r="G25" s="43"/>
-      <c r="H25" s="13"/>
+      <c r="H25" s="14"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="37"/>
-      <c r="B26" s="40"/>
-      <c r="C26" s="45"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="48"/>
-      <c r="G26" s="48"/>
-      <c r="H26" s="12"/>
+      <c r="A26" s="72">
+        <v>10</v>
+      </c>
+      <c r="B26" s="74">
+        <v>44455</v>
+      </c>
+      <c r="C26" s="44">
+        <v>3</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" s="47" t="s">
+        <v>52</v>
+      </c>
+      <c r="G26" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="H26" s="12" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="39"/>
-      <c r="B27" s="42"/>
-      <c r="C27" s="44"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="46"/>
-      <c r="G27" s="46"/>
-      <c r="H27" s="14"/>
+      <c r="A27" s="73"/>
+      <c r="B27" s="75">
+        <v>44455</v>
+      </c>
+      <c r="C27" s="43">
+        <v>1</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" s="45"/>
+      <c r="G27" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="H27" s="14" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="38"/>
-      <c r="B28" s="43"/>
-      <c r="C28" s="43"/>
+      <c r="A28" s="67"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="42"/>
       <c r="D28" s="6"/>
       <c r="E28" s="27"/>
-      <c r="F28" s="49"/>
-      <c r="G28" s="43"/>
+      <c r="F28" s="48"/>
+      <c r="G28" s="42"/>
       <c r="H28" s="13"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="37"/>
-      <c r="B29" s="40"/>
-      <c r="C29" s="45"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="48"/>
-      <c r="G29" s="48"/>
+      <c r="A29" s="36"/>
+      <c r="B29" s="41"/>
+      <c r="C29" s="43"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="45"/>
+      <c r="G29" s="45"/>
       <c r="H29" s="28"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="39"/>
-      <c r="B30" s="42"/>
-      <c r="C30" s="44"/>
+      <c r="A30" s="38"/>
+      <c r="B30" s="41"/>
+      <c r="C30" s="43"/>
       <c r="D30" s="4"/>
       <c r="E30" s="3"/>
-      <c r="F30" s="46"/>
-      <c r="G30" s="46"/>
-      <c r="H30" s="29"/>
+      <c r="F30" s="45"/>
+      <c r="G30" s="45"/>
+      <c r="H30" s="28"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="38"/>
-      <c r="B31" s="43"/>
-      <c r="C31" s="43"/>
+      <c r="A31" s="37"/>
+      <c r="B31" s="42"/>
+      <c r="C31" s="42"/>
       <c r="D31" s="6"/>
       <c r="E31" s="27"/>
-      <c r="F31" s="49"/>
-      <c r="G31" s="43"/>
+      <c r="F31" s="48"/>
+      <c r="G31" s="42"/>
       <c r="H31" s="13"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="37"/>
-      <c r="B32" s="40"/>
-      <c r="C32" s="45"/>
+      <c r="A32" s="36"/>
+      <c r="B32" s="39"/>
+      <c r="C32" s="44"/>
       <c r="D32" s="10"/>
       <c r="E32" s="11"/>
-      <c r="F32" s="48"/>
-      <c r="G32" s="48"/>
+      <c r="F32" s="47"/>
+      <c r="G32" s="47"/>
       <c r="H32" s="12"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="38"/>
-      <c r="B33" s="41"/>
-      <c r="C33" s="43"/>
+      <c r="A33" s="37"/>
+      <c r="B33" s="40"/>
+      <c r="C33" s="42"/>
       <c r="D33" s="8"/>
       <c r="E33" s="7"/>
-      <c r="F33" s="47"/>
-      <c r="G33" s="43"/>
+      <c r="F33" s="46"/>
+      <c r="G33" s="42"/>
       <c r="H33" s="13"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="37"/>
-      <c r="B34" s="40"/>
-      <c r="C34" s="45"/>
+      <c r="A34" s="36"/>
+      <c r="B34" s="39"/>
+      <c r="C34" s="44"/>
       <c r="D34" s="10"/>
       <c r="E34" s="11"/>
-      <c r="F34" s="48"/>
-      <c r="G34" s="48"/>
+      <c r="F34" s="47"/>
+      <c r="G34" s="47"/>
       <c r="H34" s="12"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="39"/>
-      <c r="B35" s="42"/>
-      <c r="C35" s="44"/>
+      <c r="A35" s="38"/>
+      <c r="B35" s="41"/>
+      <c r="C35" s="43"/>
       <c r="D35" s="4"/>
       <c r="E35" s="3"/>
-      <c r="F35" s="46"/>
-      <c r="G35" s="46"/>
+      <c r="F35" s="45"/>
+      <c r="G35" s="45"/>
       <c r="H35" s="14"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="38"/>
-      <c r="B36" s="43"/>
-      <c r="C36" s="43"/>
+      <c r="A36" s="37"/>
+      <c r="B36" s="42"/>
+      <c r="C36" s="42"/>
       <c r="D36" s="6"/>
       <c r="E36" s="27"/>
-      <c r="F36" s="49"/>
-      <c r="G36" s="43"/>
+      <c r="F36" s="48"/>
+      <c r="G36" s="42"/>
       <c r="H36" s="13"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="37"/>
-      <c r="B37" s="40"/>
-      <c r="C37" s="45"/>
+      <c r="A37" s="36"/>
+      <c r="B37" s="39"/>
+      <c r="C37" s="44"/>
       <c r="D37" s="10"/>
       <c r="E37" s="11"/>
-      <c r="F37" s="48"/>
-      <c r="G37" s="48"/>
+      <c r="F37" s="47"/>
+      <c r="G37" s="47"/>
       <c r="H37" s="12"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="38"/>
-      <c r="B38" s="43"/>
-      <c r="C38" s="43"/>
+      <c r="A38" s="37"/>
+      <c r="B38" s="42"/>
+      <c r="C38" s="42"/>
       <c r="D38" s="6"/>
       <c r="E38" s="27"/>
-      <c r="F38" s="49"/>
-      <c r="G38" s="43"/>
+      <c r="F38" s="48"/>
+      <c r="G38" s="42"/>
       <c r="H38" s="13"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="37"/>
-      <c r="B39" s="40"/>
-      <c r="C39" s="45"/>
+      <c r="A39" s="36"/>
+      <c r="B39" s="39"/>
+      <c r="C39" s="44"/>
       <c r="D39" s="10"/>
       <c r="E39" s="11"/>
-      <c r="F39" s="48"/>
-      <c r="G39" s="48"/>
+      <c r="F39" s="47"/>
+      <c r="G39" s="47"/>
       <c r="H39" s="12"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="39"/>
-      <c r="B40" s="42"/>
-      <c r="C40" s="44"/>
+      <c r="A40" s="38"/>
+      <c r="B40" s="41"/>
+      <c r="C40" s="43"/>
       <c r="D40" s="4"/>
       <c r="E40" s="3"/>
-      <c r="F40" s="46"/>
-      <c r="G40" s="46"/>
+      <c r="F40" s="45"/>
+      <c r="G40" s="45"/>
       <c r="H40" s="14"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="38"/>
-      <c r="B41" s="43"/>
-      <c r="C41" s="43"/>
+      <c r="A41" s="37"/>
+      <c r="B41" s="42"/>
+      <c r="C41" s="42"/>
       <c r="D41" s="6"/>
       <c r="E41" s="27"/>
-      <c r="F41" s="49"/>
-      <c r="G41" s="43"/>
+      <c r="F41" s="48"/>
+      <c r="G41" s="42"/>
       <c r="H41" s="13"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="37"/>
-      <c r="B42" s="40"/>
-      <c r="C42" s="45"/>
+      <c r="A42" s="36"/>
+      <c r="B42" s="39"/>
+      <c r="C42" s="44"/>
       <c r="D42" s="10"/>
       <c r="E42" s="11"/>
-      <c r="F42" s="48"/>
-      <c r="G42" s="48"/>
+      <c r="F42" s="47"/>
+      <c r="G42" s="47"/>
       <c r="H42" s="12"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="39"/>
-      <c r="B43" s="42"/>
-      <c r="C43" s="44"/>
+      <c r="A43" s="38"/>
+      <c r="B43" s="41"/>
+      <c r="C43" s="43"/>
       <c r="D43" s="4"/>
       <c r="E43" s="3"/>
-      <c r="F43" s="46"/>
-      <c r="G43" s="46"/>
+      <c r="F43" s="45"/>
+      <c r="G43" s="45"/>
       <c r="H43" s="14"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="38"/>
-      <c r="B44" s="43"/>
-      <c r="C44" s="43"/>
+      <c r="A44" s="37"/>
+      <c r="B44" s="42"/>
+      <c r="C44" s="42"/>
       <c r="D44" s="6"/>
       <c r="E44" s="27"/>
-      <c r="F44" s="49"/>
-      <c r="G44" s="43"/>
+      <c r="F44" s="48"/>
+      <c r="G44" s="42"/>
       <c r="H44" s="13"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="37"/>
-      <c r="B45" s="40"/>
-      <c r="C45" s="45"/>
+      <c r="A45" s="36"/>
+      <c r="B45" s="39"/>
+      <c r="C45" s="44"/>
       <c r="D45" s="10"/>
       <c r="E45" s="11"/>
-      <c r="F45" s="48"/>
-      <c r="G45" s="48"/>
+      <c r="F45" s="47"/>
+      <c r="G45" s="47"/>
       <c r="H45" s="23"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="38"/>
-      <c r="B46" s="43"/>
-      <c r="C46" s="43"/>
+      <c r="A46" s="37"/>
+      <c r="B46" s="42"/>
+      <c r="C46" s="42"/>
       <c r="D46" s="6"/>
       <c r="E46" s="27"/>
-      <c r="F46" s="49"/>
-      <c r="G46" s="43"/>
+      <c r="F46" s="48"/>
+      <c r="G46" s="42"/>
       <c r="H46" s="13"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="37"/>
-      <c r="B47" s="40"/>
-      <c r="C47" s="45"/>
+      <c r="A47" s="36"/>
+      <c r="B47" s="39"/>
+      <c r="C47" s="44"/>
       <c r="D47" s="10"/>
       <c r="E47" s="11"/>
-      <c r="F47" s="48"/>
-      <c r="G47" s="48"/>
+      <c r="F47" s="47"/>
+      <c r="G47" s="47"/>
       <c r="H47" s="23"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="39"/>
-      <c r="B48" s="42"/>
-      <c r="C48" s="44"/>
+      <c r="A48" s="38"/>
+      <c r="B48" s="41"/>
+      <c r="C48" s="43"/>
       <c r="D48" s="4"/>
       <c r="E48" s="3"/>
-      <c r="F48" s="46"/>
-      <c r="G48" s="46"/>
+      <c r="F48" s="45"/>
+      <c r="G48" s="45"/>
       <c r="H48" s="5"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="38"/>
-      <c r="B49" s="43"/>
-      <c r="C49" s="43"/>
+      <c r="A49" s="37"/>
+      <c r="B49" s="42"/>
+      <c r="C49" s="42"/>
       <c r="D49" s="6"/>
       <c r="E49" s="27"/>
-      <c r="F49" s="49"/>
-      <c r="G49" s="43"/>
+      <c r="F49" s="48"/>
+      <c r="G49" s="42"/>
       <c r="H49" s="13"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="37"/>
-      <c r="B50" s="40"/>
-      <c r="C50" s="45"/>
+      <c r="A50" s="36"/>
+      <c r="B50" s="39"/>
+      <c r="C50" s="44"/>
       <c r="D50" s="10"/>
       <c r="E50" s="11"/>
-      <c r="F50" s="48"/>
-      <c r="G50" s="48"/>
+      <c r="F50" s="47"/>
+      <c r="G50" s="47"/>
       <c r="H50" s="12"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="38"/>
-      <c r="B51" s="43"/>
-      <c r="C51" s="43"/>
+      <c r="A51" s="37"/>
+      <c r="B51" s="42"/>
+      <c r="C51" s="42"/>
       <c r="D51" s="6"/>
       <c r="E51" s="27"/>
-      <c r="F51" s="49"/>
-      <c r="G51" s="43"/>
+      <c r="F51" s="48"/>
+      <c r="G51" s="42"/>
       <c r="H51" s="13"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="37"/>
-      <c r="B52" s="40"/>
-      <c r="C52" s="45"/>
+      <c r="A52" s="36"/>
+      <c r="B52" s="39"/>
+      <c r="C52" s="44"/>
       <c r="D52" s="10"/>
       <c r="E52" s="11"/>
-      <c r="F52" s="48"/>
-      <c r="G52" s="48"/>
+      <c r="F52" s="47"/>
+      <c r="G52" s="47"/>
       <c r="H52" s="12"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="39"/>
-      <c r="B53" s="42"/>
-      <c r="C53" s="44"/>
+      <c r="A53" s="38"/>
+      <c r="B53" s="41"/>
+      <c r="C53" s="43"/>
       <c r="D53" s="4"/>
       <c r="E53" s="3"/>
-      <c r="F53" s="46"/>
-      <c r="G53" s="46"/>
+      <c r="F53" s="45"/>
+      <c r="G53" s="45"/>
       <c r="H53" s="14"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="38"/>
-      <c r="B54" s="43"/>
-      <c r="C54" s="43"/>
+      <c r="A54" s="37"/>
+      <c r="B54" s="42"/>
+      <c r="C54" s="42"/>
       <c r="D54" s="6"/>
       <c r="E54" s="27"/>
-      <c r="F54" s="49"/>
-      <c r="G54" s="43"/>
+      <c r="F54" s="48"/>
+      <c r="G54" s="42"/>
       <c r="H54" s="13"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="37"/>
-      <c r="B55" s="40"/>
-      <c r="C55" s="45"/>
+      <c r="A55" s="36"/>
+      <c r="B55" s="39"/>
+      <c r="C55" s="44"/>
       <c r="D55" s="10"/>
       <c r="E55" s="11"/>
-      <c r="F55" s="48"/>
-      <c r="G55" s="48"/>
+      <c r="F55" s="47"/>
+      <c r="G55" s="47"/>
       <c r="H55" s="12"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="39"/>
-      <c r="B56" s="42"/>
-      <c r="C56" s="44"/>
+      <c r="A56" s="38"/>
+      <c r="B56" s="41"/>
+      <c r="C56" s="43"/>
       <c r="D56" s="4"/>
       <c r="E56" s="3"/>
-      <c r="F56" s="46"/>
-      <c r="G56" s="46"/>
+      <c r="F56" s="45"/>
+      <c r="G56" s="45"/>
       <c r="H56" s="14"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="38"/>
-      <c r="B57" s="43"/>
-      <c r="C57" s="43"/>
+      <c r="A57" s="37"/>
+      <c r="B57" s="42"/>
+      <c r="C57" s="42"/>
       <c r="D57" s="6"/>
       <c r="E57" s="27"/>
-      <c r="F57" s="49"/>
-      <c r="G57" s="43"/>
+      <c r="F57" s="48"/>
+      <c r="G57" s="42"/>
       <c r="H57" s="13"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="37"/>
-      <c r="B58" s="40"/>
-      <c r="C58" s="45"/>
+      <c r="A58" s="36"/>
+      <c r="B58" s="39"/>
+      <c r="C58" s="44"/>
       <c r="D58" s="10"/>
       <c r="E58" s="11"/>
-      <c r="F58" s="48"/>
-      <c r="G58" s="48"/>
+      <c r="F58" s="47"/>
+      <c r="G58" s="47"/>
       <c r="H58" s="12"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="39"/>
-      <c r="B59" s="42"/>
-      <c r="C59" s="44"/>
+      <c r="A59" s="38"/>
+      <c r="B59" s="41"/>
+      <c r="C59" s="43"/>
       <c r="D59" s="4"/>
       <c r="E59" s="3"/>
-      <c r="F59" s="46"/>
-      <c r="G59" s="46"/>
+      <c r="F59" s="45"/>
+      <c r="G59" s="45"/>
       <c r="H59" s="14"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="38"/>
-      <c r="B60" s="43"/>
-      <c r="C60" s="43"/>
+      <c r="A60" s="37"/>
+      <c r="B60" s="42"/>
+      <c r="C60" s="42"/>
       <c r="D60" s="6"/>
       <c r="E60" s="27"/>
-      <c r="F60" s="49"/>
-      <c r="G60" s="43"/>
+      <c r="F60" s="48"/>
+      <c r="G60" s="42"/>
       <c r="H60" s="13"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="37"/>
-      <c r="B61" s="40"/>
-      <c r="C61" s="45"/>
+      <c r="A61" s="36"/>
+      <c r="B61" s="39"/>
+      <c r="C61" s="44"/>
       <c r="D61" s="10"/>
       <c r="E61" s="11"/>
-      <c r="F61" s="48"/>
-      <c r="G61" s="48"/>
+      <c r="F61" s="47"/>
+      <c r="G61" s="47"/>
       <c r="H61" s="12"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="38"/>
-      <c r="B62" s="43"/>
-      <c r="C62" s="43"/>
+      <c r="A62" s="37"/>
+      <c r="B62" s="42"/>
+      <c r="C62" s="42"/>
       <c r="D62" s="6"/>
       <c r="E62" s="27"/>
-      <c r="F62" s="49"/>
-      <c r="G62" s="43"/>
+      <c r="F62" s="48"/>
+      <c r="G62" s="42"/>
       <c r="H62" s="13"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="37"/>
-      <c r="B63" s="40"/>
-      <c r="C63" s="45"/>
+      <c r="A63" s="36"/>
+      <c r="B63" s="39"/>
+      <c r="C63" s="44"/>
       <c r="D63" s="10"/>
       <c r="E63" s="11"/>
-      <c r="F63" s="48"/>
-      <c r="G63" s="48"/>
+      <c r="F63" s="47"/>
+      <c r="G63" s="47"/>
       <c r="H63" s="12"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="39"/>
-      <c r="B64" s="42"/>
-      <c r="C64" s="44"/>
+      <c r="A64" s="38"/>
+      <c r="B64" s="41"/>
+      <c r="C64" s="43"/>
       <c r="D64" s="4"/>
       <c r="E64" s="3"/>
-      <c r="F64" s="46"/>
-      <c r="G64" s="46"/>
+      <c r="F64" s="45"/>
+      <c r="G64" s="45"/>
       <c r="H64" s="14"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="38"/>
-      <c r="B65" s="43"/>
-      <c r="C65" s="43"/>
+      <c r="A65" s="37"/>
+      <c r="B65" s="42"/>
+      <c r="C65" s="42"/>
       <c r="D65" s="6"/>
       <c r="E65" s="27"/>
-      <c r="F65" s="49"/>
-      <c r="G65" s="43"/>
+      <c r="F65" s="48"/>
+      <c r="G65" s="42"/>
       <c r="H65" s="13"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="37"/>
-      <c r="B66" s="40"/>
-      <c r="C66" s="45"/>
+      <c r="A66" s="36"/>
+      <c r="B66" s="39"/>
+      <c r="C66" s="44"/>
       <c r="D66" s="10"/>
       <c r="E66" s="11"/>
-      <c r="F66" s="48"/>
-      <c r="G66" s="48"/>
+      <c r="F66" s="47"/>
+      <c r="G66" s="47"/>
       <c r="H66" s="12"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="39"/>
-      <c r="B67" s="42"/>
-      <c r="C67" s="44"/>
+      <c r="A67" s="38"/>
+      <c r="B67" s="41"/>
+      <c r="C67" s="43"/>
       <c r="D67" s="4"/>
       <c r="E67" s="3"/>
-      <c r="F67" s="46"/>
-      <c r="G67" s="46"/>
+      <c r="F67" s="45"/>
+      <c r="G67" s="45"/>
       <c r="H67" s="14"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="38"/>
-      <c r="B68" s="43"/>
-      <c r="C68" s="43"/>
+      <c r="A68" s="37"/>
+      <c r="B68" s="42"/>
+      <c r="C68" s="42"/>
       <c r="D68" s="6"/>
       <c r="E68" s="27"/>
-      <c r="F68" s="49"/>
-      <c r="G68" s="43"/>
+      <c r="F68" s="48"/>
+      <c r="G68" s="42"/>
       <c r="H68" s="13"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="37"/>
-      <c r="B69" s="40"/>
-      <c r="C69" s="45"/>
+      <c r="A69" s="36"/>
+      <c r="B69" s="39"/>
+      <c r="C69" s="44"/>
       <c r="D69" s="10"/>
       <c r="E69" s="11"/>
-      <c r="F69" s="48"/>
-      <c r="G69" s="48"/>
+      <c r="F69" s="47"/>
+      <c r="G69" s="47"/>
       <c r="H69" s="12"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="39"/>
-      <c r="B70" s="42"/>
-      <c r="C70" s="44"/>
+      <c r="A70" s="38"/>
+      <c r="B70" s="41"/>
+      <c r="C70" s="43"/>
       <c r="D70" s="4"/>
       <c r="E70" s="3"/>
-      <c r="F70" s="46"/>
-      <c r="G70" s="46"/>
+      <c r="F70" s="45"/>
+      <c r="G70" s="45"/>
       <c r="H70" s="14"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="38"/>
-      <c r="B71" s="43"/>
-      <c r="C71" s="43"/>
+      <c r="A71" s="37"/>
+      <c r="B71" s="42"/>
+      <c r="C71" s="42"/>
       <c r="D71" s="6"/>
       <c r="E71" s="27"/>
-      <c r="F71" s="49"/>
-      <c r="G71" s="43"/>
+      <c r="F71" s="48"/>
+      <c r="G71" s="42"/>
       <c r="H71" s="13"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="37"/>
-      <c r="B72" s="40"/>
-      <c r="C72" s="45"/>
+      <c r="A72" s="36"/>
+      <c r="B72" s="39"/>
+      <c r="C72" s="44"/>
       <c r="D72" s="10"/>
       <c r="E72" s="11"/>
-      <c r="F72" s="48"/>
-      <c r="G72" s="48"/>
+      <c r="F72" s="47"/>
+      <c r="G72" s="47"/>
       <c r="H72" s="12"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="38"/>
-      <c r="B73" s="43"/>
-      <c r="C73" s="43"/>
+      <c r="A73" s="37"/>
+      <c r="B73" s="42"/>
+      <c r="C73" s="42"/>
       <c r="D73" s="6"/>
       <c r="E73" s="27"/>
-      <c r="F73" s="49"/>
-      <c r="G73" s="43"/>
+      <c r="F73" s="48"/>
+      <c r="G73" s="42"/>
       <c r="H73" s="13"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="37"/>
-      <c r="B74" s="40"/>
-      <c r="C74" s="45"/>
+      <c r="A74" s="36"/>
+      <c r="B74" s="39"/>
+      <c r="C74" s="44"/>
       <c r="D74" s="10"/>
       <c r="E74" s="11"/>
-      <c r="F74" s="48"/>
-      <c r="G74" s="48"/>
+      <c r="F74" s="47"/>
+      <c r="G74" s="47"/>
       <c r="H74" s="12"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="39"/>
-      <c r="B75" s="42"/>
-      <c r="C75" s="44"/>
+      <c r="A75" s="38"/>
+      <c r="B75" s="41"/>
+      <c r="C75" s="43"/>
       <c r="D75" s="4"/>
       <c r="E75" s="3"/>
-      <c r="F75" s="46"/>
-      <c r="G75" s="46"/>
+      <c r="F75" s="45"/>
+      <c r="G75" s="45"/>
       <c r="H75" s="14"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" s="38"/>
-      <c r="B76" s="43"/>
-      <c r="C76" s="43"/>
+      <c r="A76" s="37"/>
+      <c r="B76" s="42"/>
+      <c r="C76" s="42"/>
       <c r="D76" s="6"/>
       <c r="E76" s="27"/>
-      <c r="F76" s="49"/>
-      <c r="G76" s="43"/>
+      <c r="F76" s="48"/>
+      <c r="G76" s="42"/>
       <c r="H76" s="13"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77" s="37"/>
-      <c r="B77" s="40"/>
-      <c r="C77" s="45"/>
+      <c r="A77" s="36"/>
+      <c r="B77" s="39"/>
+      <c r="C77" s="44"/>
       <c r="D77" s="10"/>
       <c r="E77" s="11"/>
-      <c r="F77" s="48"/>
-      <c r="G77" s="48"/>
+      <c r="F77" s="47"/>
+      <c r="G77" s="47"/>
       <c r="H77" s="12"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" s="39"/>
-      <c r="B78" s="42"/>
-      <c r="C78" s="44"/>
+      <c r="A78" s="38"/>
+      <c r="B78" s="41"/>
+      <c r="C78" s="43"/>
       <c r="D78" s="4"/>
       <c r="E78" s="3"/>
-      <c r="F78" s="46"/>
-      <c r="G78" s="46"/>
+      <c r="F78" s="45"/>
+      <c r="G78" s="45"/>
       <c r="H78" s="14"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" s="38"/>
-      <c r="B79" s="43"/>
-      <c r="C79" s="43"/>
+      <c r="A79" s="37"/>
+      <c r="B79" s="42"/>
+      <c r="C79" s="42"/>
       <c r="D79" s="6"/>
       <c r="E79" s="27"/>
-      <c r="F79" s="49"/>
-      <c r="G79" s="43"/>
+      <c r="F79" s="48"/>
+      <c r="G79" s="42"/>
       <c r="H79" s="13"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80" s="37"/>
-      <c r="B80" s="40"/>
-      <c r="C80" s="45"/>
+      <c r="A80" s="36"/>
+      <c r="B80" s="39"/>
+      <c r="C80" s="44"/>
       <c r="D80" s="10"/>
       <c r="E80" s="11"/>
-      <c r="F80" s="48"/>
-      <c r="G80" s="48"/>
+      <c r="F80" s="47"/>
+      <c r="G80" s="47"/>
       <c r="H80" s="12"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81" s="39"/>
-      <c r="B81" s="42"/>
-      <c r="C81" s="44"/>
+      <c r="A81" s="38"/>
+      <c r="B81" s="41"/>
+      <c r="C81" s="43"/>
       <c r="D81" s="4"/>
       <c r="E81" s="3"/>
-      <c r="F81" s="46"/>
-      <c r="G81" s="46"/>
+      <c r="F81" s="45"/>
+      <c r="G81" s="45"/>
       <c r="H81" s="14"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" s="38"/>
-      <c r="B82" s="43"/>
-      <c r="C82" s="43"/>
+      <c r="A82" s="37"/>
+      <c r="B82" s="42"/>
+      <c r="C82" s="42"/>
       <c r="D82" s="6"/>
       <c r="E82" s="27"/>
-      <c r="F82" s="49"/>
-      <c r="G82" s="43"/>
+      <c r="F82" s="48"/>
+      <c r="G82" s="42"/>
       <c r="H82" s="13"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A83" s="37"/>
-      <c r="B83" s="40"/>
-      <c r="C83" s="45"/>
+      <c r="A83" s="36"/>
+      <c r="B83" s="39"/>
+      <c r="C83" s="44"/>
       <c r="D83" s="10"/>
       <c r="E83" s="11"/>
-      <c r="F83" s="48"/>
-      <c r="G83" s="48"/>
+      <c r="F83" s="47"/>
+      <c r="G83" s="47"/>
       <c r="H83" s="12"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84" s="38"/>
-      <c r="B84" s="43"/>
-      <c r="C84" s="43"/>
+      <c r="A84" s="37"/>
+      <c r="B84" s="42"/>
+      <c r="C84" s="42"/>
       <c r="D84" s="6"/>
       <c r="E84" s="27"/>
-      <c r="F84" s="49"/>
-      <c r="G84" s="43"/>
+      <c r="F84" s="48"/>
+      <c r="G84" s="42"/>
       <c r="H84" s="13"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85" s="37"/>
-      <c r="B85" s="40"/>
-      <c r="C85" s="45"/>
+      <c r="A85" s="36"/>
+      <c r="B85" s="39"/>
+      <c r="C85" s="44"/>
       <c r="D85" s="10"/>
       <c r="E85" s="11"/>
-      <c r="F85" s="48"/>
-      <c r="G85" s="48"/>
+      <c r="F85" s="47"/>
+      <c r="G85" s="47"/>
       <c r="H85" s="12"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86" s="39"/>
-      <c r="B86" s="42"/>
-      <c r="C86" s="44"/>
+      <c r="A86" s="38"/>
+      <c r="B86" s="41"/>
+      <c r="C86" s="43"/>
       <c r="D86" s="4"/>
       <c r="E86" s="3"/>
-      <c r="F86" s="46"/>
-      <c r="G86" s="46"/>
+      <c r="F86" s="45"/>
+      <c r="G86" s="45"/>
       <c r="H86" s="14"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A87" s="39"/>
-      <c r="B87" s="42"/>
-      <c r="C87" s="44"/>
+      <c r="A87" s="38"/>
+      <c r="B87" s="41"/>
+      <c r="C87" s="43"/>
       <c r="D87" s="4"/>
       <c r="E87" s="3"/>
-      <c r="F87" s="46"/>
-      <c r="G87" s="46"/>
+      <c r="F87" s="45"/>
+      <c r="G87" s="45"/>
       <c r="H87" s="14"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88" s="38"/>
-      <c r="B88" s="43"/>
-      <c r="C88" s="43"/>
+      <c r="A88" s="37"/>
+      <c r="B88" s="42"/>
+      <c r="C88" s="42"/>
       <c r="D88" s="6"/>
       <c r="E88" s="27"/>
-      <c r="F88" s="49"/>
-      <c r="G88" s="43"/>
+      <c r="F88" s="48"/>
+      <c r="G88" s="42"/>
       <c r="H88" s="13"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A89" s="37"/>
-      <c r="B89" s="40"/>
-      <c r="C89" s="45"/>
+      <c r="A89" s="36"/>
+      <c r="B89" s="39"/>
+      <c r="C89" s="44"/>
       <c r="D89" s="10"/>
       <c r="E89" s="11"/>
-      <c r="F89" s="48"/>
-      <c r="G89" s="48"/>
+      <c r="F89" s="47"/>
+      <c r="G89" s="47"/>
       <c r="H89" s="12"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90" s="38"/>
-      <c r="B90" s="43"/>
-      <c r="C90" s="43"/>
+      <c r="A90" s="37"/>
+      <c r="B90" s="42"/>
+      <c r="C90" s="42"/>
       <c r="D90" s="6"/>
       <c r="E90" s="27"/>
-      <c r="F90" s="49"/>
-      <c r="G90" s="43"/>
+      <c r="F90" s="48"/>
+      <c r="G90" s="42"/>
       <c r="H90" s="13"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91" s="37"/>
-      <c r="B91" s="40"/>
-      <c r="C91" s="45"/>
+      <c r="A91" s="36"/>
+      <c r="B91" s="39"/>
+      <c r="C91" s="44"/>
       <c r="D91" s="10"/>
       <c r="E91" s="11"/>
-      <c r="F91" s="48"/>
-      <c r="G91" s="48"/>
+      <c r="F91" s="47"/>
+      <c r="G91" s="47"/>
       <c r="H91" s="12"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A92" s="39"/>
-      <c r="B92" s="42"/>
-      <c r="C92" s="44"/>
+      <c r="A92" s="38"/>
+      <c r="B92" s="41"/>
+      <c r="C92" s="43"/>
       <c r="D92" s="4"/>
       <c r="E92" s="3"/>
-      <c r="F92" s="46"/>
-      <c r="G92" s="46"/>
+      <c r="F92" s="45"/>
+      <c r="G92" s="45"/>
       <c r="H92" s="14"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93" s="38"/>
-      <c r="B93" s="43"/>
-      <c r="C93" s="43"/>
+      <c r="A93" s="37"/>
+      <c r="B93" s="42"/>
+      <c r="C93" s="42"/>
       <c r="D93" s="6"/>
       <c r="E93" s="27"/>
-      <c r="F93" s="49"/>
-      <c r="G93" s="43"/>
+      <c r="F93" s="48"/>
+      <c r="G93" s="42"/>
       <c r="H93" s="13"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A94" s="37"/>
-      <c r="B94" s="40"/>
-      <c r="C94" s="45"/>
+      <c r="A94" s="36"/>
+      <c r="B94" s="39"/>
+      <c r="C94" s="44"/>
       <c r="D94" s="10"/>
       <c r="E94" s="11"/>
-      <c r="F94" s="48"/>
-      <c r="G94" s="48"/>
+      <c r="F94" s="47"/>
+      <c r="G94" s="47"/>
       <c r="H94" s="12"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A95" s="38"/>
-      <c r="B95" s="43"/>
-      <c r="C95" s="43"/>
+      <c r="A95" s="37"/>
+      <c r="B95" s="42"/>
+      <c r="C95" s="42"/>
       <c r="D95" s="6"/>
       <c r="E95" s="27"/>
-      <c r="F95" s="49"/>
-      <c r="G95" s="43"/>
+      <c r="F95" s="48"/>
+      <c r="G95" s="42"/>
       <c r="H95" s="13"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A96" s="37"/>
-      <c r="B96" s="40"/>
-      <c r="C96" s="45"/>
+      <c r="A96" s="36"/>
+      <c r="B96" s="39"/>
+      <c r="C96" s="44"/>
       <c r="D96" s="10"/>
       <c r="E96" s="11"/>
-      <c r="F96" s="48"/>
-      <c r="G96" s="48"/>
+      <c r="F96" s="47"/>
+      <c r="G96" s="47"/>
       <c r="H96" s="12"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A97" s="39"/>
-      <c r="B97" s="42"/>
-      <c r="C97" s="44"/>
+      <c r="A97" s="38"/>
+      <c r="B97" s="41"/>
+      <c r="C97" s="43"/>
       <c r="D97" s="4"/>
       <c r="E97" s="3"/>
-      <c r="F97" s="46"/>
-      <c r="G97" s="46"/>
+      <c r="F97" s="45"/>
+      <c r="G97" s="45"/>
       <c r="H97" s="14"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A98" s="38"/>
-      <c r="B98" s="43"/>
-      <c r="C98" s="43"/>
+      <c r="A98" s="37"/>
+      <c r="B98" s="42"/>
+      <c r="C98" s="42"/>
       <c r="D98" s="6"/>
       <c r="E98" s="27"/>
-      <c r="F98" s="49"/>
-      <c r="G98" s="43"/>
+      <c r="F98" s="48"/>
+      <c r="G98" s="42"/>
       <c r="H98" s="13"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A99" s="37"/>
-      <c r="B99" s="40"/>
-      <c r="C99" s="45"/>
+      <c r="A99" s="36"/>
+      <c r="B99" s="39"/>
+      <c r="C99" s="44"/>
       <c r="D99" s="10"/>
       <c r="E99" s="11"/>
-      <c r="F99" s="48"/>
-      <c r="G99" s="48"/>
+      <c r="F99" s="47"/>
+      <c r="G99" s="47"/>
       <c r="H99" s="12"/>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A100" s="38"/>
-      <c r="B100" s="43"/>
-      <c r="C100" s="43"/>
+      <c r="A100" s="37"/>
+      <c r="B100" s="42"/>
+      <c r="C100" s="42"/>
       <c r="D100" s="6"/>
       <c r="E100" s="27"/>
-      <c r="F100" s="49"/>
-      <c r="G100" s="43"/>
+      <c r="F100" s="48"/>
+      <c r="G100" s="42"/>
       <c r="H100" s="13"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A101" s="39"/>
-      <c r="B101" s="42"/>
-      <c r="C101" s="44"/>
+      <c r="A101" s="38"/>
+      <c r="B101" s="41"/>
+      <c r="C101" s="43"/>
       <c r="D101" s="4"/>
       <c r="E101" s="3"/>
-      <c r="F101" s="46"/>
-      <c r="G101" s="46"/>
+      <c r="F101" s="45"/>
+      <c r="G101" s="45"/>
       <c r="H101" s="17"/>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A102" s="39"/>
-      <c r="B102" s="42"/>
-      <c r="C102" s="44"/>
+      <c r="A102" s="38"/>
+      <c r="B102" s="41"/>
+      <c r="C102" s="43"/>
       <c r="D102" s="4"/>
       <c r="E102" s="3"/>
-      <c r="F102" s="46"/>
-      <c r="G102" s="46"/>
+      <c r="F102" s="45"/>
+      <c r="G102" s="45"/>
       <c r="H102" s="17"/>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A103" s="39"/>
-      <c r="B103" s="44"/>
-      <c r="C103" s="44"/>
+      <c r="A103" s="38"/>
+      <c r="B103" s="43"/>
+      <c r="C103" s="43"/>
       <c r="D103" s="2"/>
       <c r="E103" s="19"/>
-      <c r="F103" s="50"/>
-      <c r="G103" s="44"/>
+      <c r="F103" s="49"/>
+      <c r="G103" s="43"/>
       <c r="H103" s="17"/>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A104" s="37"/>
-      <c r="B104" s="40"/>
-      <c r="C104" s="45"/>
+      <c r="A104" s="36"/>
+      <c r="B104" s="39"/>
+      <c r="C104" s="44"/>
       <c r="D104" s="10"/>
       <c r="E104" s="11"/>
-      <c r="F104" s="48"/>
-      <c r="G104" s="48"/>
+      <c r="F104" s="47"/>
+      <c r="G104" s="47"/>
       <c r="H104" s="12"/>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A105" s="39"/>
-      <c r="B105" s="42"/>
-      <c r="C105" s="44"/>
+      <c r="A105" s="38"/>
+      <c r="B105" s="41"/>
+      <c r="C105" s="43"/>
       <c r="D105" s="4"/>
       <c r="E105" s="3"/>
-      <c r="F105" s="46"/>
-      <c r="G105" s="46"/>
+      <c r="F105" s="45"/>
+      <c r="G105" s="45"/>
       <c r="H105" s="14"/>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A106" s="38"/>
-      <c r="B106" s="41"/>
-      <c r="C106" s="43"/>
+      <c r="A106" s="37"/>
+      <c r="B106" s="40"/>
+      <c r="C106" s="42"/>
       <c r="D106" s="8"/>
       <c r="E106" s="7"/>
-      <c r="F106" s="47"/>
-      <c r="G106" s="47"/>
+      <c r="F106" s="46"/>
+      <c r="G106" s="46"/>
       <c r="H106" s="13"/>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A107" s="37"/>
-      <c r="B107" s="40"/>
-      <c r="C107" s="45"/>
+      <c r="A107" s="36"/>
+      <c r="B107" s="39"/>
+      <c r="C107" s="44"/>
       <c r="D107" s="10"/>
       <c r="E107" s="11"/>
-      <c r="F107" s="48"/>
-      <c r="G107" s="48"/>
+      <c r="F107" s="47"/>
+      <c r="G107" s="47"/>
       <c r="H107" s="12"/>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A108" s="38"/>
-      <c r="B108" s="41"/>
-      <c r="C108" s="43"/>
+      <c r="A108" s="37"/>
+      <c r="B108" s="40"/>
+      <c r="C108" s="42"/>
       <c r="D108" s="8"/>
       <c r="E108" s="7"/>
-      <c r="F108" s="47"/>
-      <c r="G108" s="47"/>
+      <c r="F108" s="46"/>
+      <c r="G108" s="46"/>
       <c r="H108" s="13"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A109" s="37"/>
-      <c r="B109" s="40"/>
-      <c r="C109" s="45"/>
+      <c r="A109" s="36"/>
+      <c r="B109" s="39"/>
+      <c r="C109" s="44"/>
       <c r="D109" s="10"/>
       <c r="E109" s="11"/>
-      <c r="F109" s="48"/>
-      <c r="G109" s="48"/>
+      <c r="F109" s="47"/>
+      <c r="G109" s="47"/>
       <c r="H109" s="12"/>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A110" s="39"/>
-      <c r="B110" s="42"/>
-      <c r="C110" s="44"/>
+      <c r="A110" s="38"/>
+      <c r="B110" s="41"/>
+      <c r="C110" s="43"/>
       <c r="D110" s="4"/>
       <c r="E110" s="3"/>
-      <c r="F110" s="46"/>
-      <c r="G110" s="46"/>
+      <c r="F110" s="45"/>
+      <c r="G110" s="45"/>
       <c r="H110" s="14"/>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A111" s="38"/>
-      <c r="B111" s="41"/>
-      <c r="C111" s="43"/>
+      <c r="A111" s="37"/>
+      <c r="B111" s="40"/>
+      <c r="C111" s="42"/>
       <c r="D111" s="8"/>
       <c r="E111" s="7"/>
-      <c r="F111" s="47"/>
-      <c r="G111" s="47"/>
+      <c r="F111" s="46"/>
+      <c r="G111" s="46"/>
       <c r="H111" s="13"/>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A112" s="37"/>
-      <c r="B112" s="40"/>
-      <c r="C112" s="45"/>
+      <c r="A112" s="36"/>
+      <c r="B112" s="39"/>
+      <c r="C112" s="44"/>
       <c r="D112" s="10"/>
       <c r="E112" s="11"/>
-      <c r="F112" s="48"/>
-      <c r="G112" s="48"/>
+      <c r="F112" s="47"/>
+      <c r="G112" s="47"/>
       <c r="H112" s="12"/>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A113" s="39"/>
-      <c r="B113" s="42"/>
-      <c r="C113" s="44"/>
+      <c r="A113" s="38"/>
+      <c r="B113" s="41"/>
+      <c r="C113" s="43"/>
       <c r="D113" s="4"/>
       <c r="E113" s="3"/>
-      <c r="F113" s="46"/>
-      <c r="G113" s="46"/>
+      <c r="F113" s="45"/>
+      <c r="G113" s="45"/>
       <c r="H113" s="14"/>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A114" s="38"/>
-      <c r="B114" s="41"/>
-      <c r="C114" s="43"/>
+      <c r="A114" s="37"/>
+      <c r="B114" s="40"/>
+      <c r="C114" s="42"/>
       <c r="D114" s="8"/>
       <c r="E114" s="7"/>
-      <c r="F114" s="47"/>
-      <c r="G114" s="47"/>
+      <c r="F114" s="46"/>
+      <c r="G114" s="46"/>
       <c r="H114" s="13"/>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A115" s="37"/>
-      <c r="B115" s="40"/>
-      <c r="C115" s="45"/>
+      <c r="A115" s="36"/>
+      <c r="B115" s="39"/>
+      <c r="C115" s="44"/>
       <c r="D115" s="10"/>
       <c r="E115" s="11"/>
-      <c r="F115" s="48"/>
-      <c r="G115" s="48"/>
+      <c r="F115" s="47"/>
+      <c r="G115" s="47"/>
       <c r="H115" s="12"/>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A116" s="39"/>
-      <c r="B116" s="42"/>
-      <c r="C116" s="44"/>
+      <c r="A116" s="38"/>
+      <c r="B116" s="41"/>
+      <c r="C116" s="43"/>
       <c r="D116" s="4"/>
       <c r="E116" s="3"/>
-      <c r="F116" s="46"/>
-      <c r="G116" s="46"/>
+      <c r="F116" s="45"/>
+      <c r="G116" s="45"/>
       <c r="H116" s="14"/>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A117" s="38"/>
-      <c r="B117" s="41"/>
-      <c r="C117" s="43"/>
+      <c r="A117" s="37"/>
+      <c r="B117" s="40"/>
+      <c r="C117" s="42"/>
       <c r="D117" s="8"/>
       <c r="E117" s="7"/>
-      <c r="F117" s="47"/>
-      <c r="G117" s="47"/>
+      <c r="F117" s="46"/>
+      <c r="G117" s="46"/>
       <c r="H117" s="13"/>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A118" s="37"/>
-      <c r="B118" s="40"/>
-      <c r="C118" s="45"/>
+      <c r="A118" s="36"/>
+      <c r="B118" s="39"/>
+      <c r="C118" s="44"/>
       <c r="D118" s="10"/>
       <c r="E118" s="11"/>
-      <c r="F118" s="48"/>
-      <c r="G118" s="48"/>
+      <c r="F118" s="47"/>
+      <c r="G118" s="47"/>
       <c r="H118" s="12"/>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A119" s="38"/>
-      <c r="B119" s="41"/>
-      <c r="C119" s="43"/>
+      <c r="A119" s="37"/>
+      <c r="B119" s="40"/>
+      <c r="C119" s="42"/>
       <c r="D119" s="8"/>
       <c r="E119" s="7"/>
-      <c r="F119" s="47"/>
-      <c r="G119" s="47"/>
+      <c r="F119" s="46"/>
+      <c r="G119" s="46"/>
       <c r="H119" s="13"/>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A120" s="37"/>
-      <c r="B120" s="40"/>
-      <c r="C120" s="45"/>
+      <c r="A120" s="36"/>
+      <c r="B120" s="39"/>
+      <c r="C120" s="44"/>
       <c r="D120" s="10"/>
       <c r="E120" s="11"/>
-      <c r="F120" s="48"/>
-      <c r="G120" s="48"/>
+      <c r="F120" s="47"/>
+      <c r="G120" s="47"/>
       <c r="H120" s="12"/>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A121" s="39"/>
-      <c r="B121" s="42"/>
-      <c r="C121" s="44"/>
+      <c r="A121" s="38"/>
+      <c r="B121" s="41"/>
+      <c r="C121" s="43"/>
       <c r="D121" s="4"/>
       <c r="E121" s="3"/>
-      <c r="F121" s="46"/>
-      <c r="G121" s="46"/>
+      <c r="F121" s="45"/>
+      <c r="G121" s="45"/>
       <c r="H121" s="14"/>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A122" s="38"/>
-      <c r="B122" s="41"/>
-      <c r="C122" s="43"/>
+      <c r="A122" s="37"/>
+      <c r="B122" s="40"/>
+      <c r="C122" s="42"/>
       <c r="D122" s="8"/>
       <c r="E122" s="7"/>
-      <c r="F122" s="47"/>
-      <c r="G122" s="47"/>
+      <c r="F122" s="46"/>
+      <c r="G122" s="46"/>
       <c r="H122" s="13"/>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A123" s="37"/>
-      <c r="B123" s="40"/>
-      <c r="C123" s="45"/>
+      <c r="A123" s="36"/>
+      <c r="B123" s="39"/>
+      <c r="C123" s="44"/>
       <c r="D123" s="10"/>
       <c r="E123" s="11"/>
-      <c r="F123" s="48"/>
-      <c r="G123" s="48"/>
+      <c r="F123" s="47"/>
+      <c r="G123" s="47"/>
       <c r="H123" s="12"/>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A124" s="39"/>
-      <c r="B124" s="42"/>
-      <c r="C124" s="44"/>
+      <c r="A124" s="38"/>
+      <c r="B124" s="41"/>
+      <c r="C124" s="43"/>
       <c r="D124" s="4"/>
       <c r="E124" s="3"/>
-      <c r="F124" s="46"/>
-      <c r="G124" s="46"/>
+      <c r="F124" s="45"/>
+      <c r="G124" s="45"/>
       <c r="H124" s="14"/>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A125" s="38"/>
-      <c r="B125" s="41"/>
-      <c r="C125" s="43"/>
+      <c r="A125" s="37"/>
+      <c r="B125" s="40"/>
+      <c r="C125" s="42"/>
       <c r="D125" s="8"/>
       <c r="E125" s="7"/>
-      <c r="F125" s="47"/>
-      <c r="G125" s="47"/>
+      <c r="F125" s="46"/>
+      <c r="G125" s="46"/>
       <c r="H125" s="13"/>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A126" s="37"/>
-      <c r="B126" s="40"/>
-      <c r="C126" s="45"/>
+      <c r="A126" s="36"/>
+      <c r="B126" s="39"/>
+      <c r="C126" s="44"/>
       <c r="D126" s="10"/>
       <c r="E126" s="11"/>
-      <c r="F126" s="48"/>
-      <c r="G126" s="48"/>
+      <c r="F126" s="47"/>
+      <c r="G126" s="47"/>
       <c r="H126" s="12"/>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A127" s="39"/>
-      <c r="B127" s="42"/>
-      <c r="C127" s="44"/>
+      <c r="A127" s="38"/>
+      <c r="B127" s="41"/>
+      <c r="C127" s="43"/>
       <c r="D127" s="4"/>
       <c r="E127" s="3"/>
-      <c r="F127" s="46"/>
-      <c r="G127" s="46"/>
+      <c r="F127" s="45"/>
+      <c r="G127" s="45"/>
       <c r="H127" s="14"/>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A128" s="38"/>
-      <c r="B128" s="41"/>
-      <c r="C128" s="43"/>
+      <c r="A128" s="37"/>
+      <c r="B128" s="40"/>
+      <c r="C128" s="42"/>
       <c r="D128" s="8"/>
       <c r="E128" s="7"/>
-      <c r="F128" s="47"/>
-      <c r="G128" s="47"/>
+      <c r="F128" s="46"/>
+      <c r="G128" s="46"/>
       <c r="H128" s="13"/>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A129" s="37"/>
-      <c r="B129" s="40"/>
-      <c r="C129" s="45"/>
+      <c r="A129" s="36"/>
+      <c r="B129" s="39"/>
+      <c r="C129" s="44"/>
       <c r="D129" s="10"/>
       <c r="E129" s="11"/>
-      <c r="F129" s="48"/>
-      <c r="G129" s="48"/>
+      <c r="F129" s="47"/>
+      <c r="G129" s="47"/>
       <c r="H129" s="12"/>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A130" s="39"/>
-      <c r="B130" s="42"/>
-      <c r="C130" s="44"/>
+      <c r="A130" s="38"/>
+      <c r="B130" s="41"/>
+      <c r="C130" s="43"/>
       <c r="D130" s="4"/>
       <c r="E130" s="3"/>
-      <c r="F130" s="46"/>
-      <c r="G130" s="46"/>
+      <c r="F130" s="45"/>
+      <c r="G130" s="45"/>
       <c r="H130" s="14"/>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A131" s="38"/>
-      <c r="B131" s="41"/>
-      <c r="C131" s="43"/>
+      <c r="A131" s="37"/>
+      <c r="B131" s="40"/>
+      <c r="C131" s="42"/>
       <c r="D131" s="8"/>
       <c r="E131" s="7"/>
-      <c r="F131" s="47"/>
-      <c r="G131" s="47"/>
+      <c r="F131" s="46"/>
+      <c r="G131" s="46"/>
       <c r="H131" s="13"/>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A132" s="37"/>
-      <c r="B132" s="40"/>
-      <c r="C132" s="45"/>
+      <c r="A132" s="36"/>
+      <c r="B132" s="39"/>
+      <c r="C132" s="44"/>
       <c r="D132" s="10"/>
       <c r="E132" s="11"/>
-      <c r="F132" s="48"/>
-      <c r="G132" s="48"/>
+      <c r="F132" s="47"/>
+      <c r="G132" s="47"/>
       <c r="H132" s="12"/>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A133" s="39"/>
-      <c r="B133" s="42"/>
-      <c r="C133" s="44"/>
+      <c r="A133" s="38"/>
+      <c r="B133" s="41"/>
+      <c r="C133" s="43"/>
       <c r="D133" s="4"/>
       <c r="E133" s="3"/>
-      <c r="F133" s="46"/>
-      <c r="G133" s="46"/>
+      <c r="F133" s="45"/>
+      <c r="G133" s="45"/>
       <c r="H133" s="14"/>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A134" s="38"/>
-      <c r="B134" s="41"/>
-      <c r="C134" s="43"/>
+      <c r="A134" s="37"/>
+      <c r="B134" s="40"/>
+      <c r="C134" s="42"/>
       <c r="D134" s="8"/>
       <c r="E134" s="7"/>
-      <c r="F134" s="47"/>
-      <c r="G134" s="47"/>
+      <c r="F134" s="46"/>
+      <c r="G134" s="46"/>
       <c r="H134" s="13"/>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A135" s="37"/>
-      <c r="B135" s="40"/>
-      <c r="C135" s="45"/>
+      <c r="A135" s="36"/>
+      <c r="B135" s="39"/>
+      <c r="C135" s="44"/>
       <c r="D135" s="10"/>
       <c r="E135" s="11"/>
-      <c r="F135" s="48"/>
-      <c r="G135" s="48"/>
+      <c r="F135" s="47"/>
+      <c r="G135" s="47"/>
       <c r="H135" s="12"/>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A136" s="39"/>
-      <c r="B136" s="42"/>
-      <c r="C136" s="44"/>
+      <c r="A136" s="38"/>
+      <c r="B136" s="41"/>
+      <c r="C136" s="43"/>
       <c r="D136" s="4"/>
       <c r="E136" s="3"/>
-      <c r="F136" s="46"/>
-      <c r="G136" s="46"/>
+      <c r="F136" s="45"/>
+      <c r="G136" s="45"/>
       <c r="H136" s="14"/>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A137" s="39"/>
-      <c r="B137" s="42"/>
-      <c r="C137" s="44"/>
+      <c r="A137" s="38"/>
+      <c r="B137" s="41"/>
+      <c r="C137" s="43"/>
       <c r="D137" s="4"/>
       <c r="E137" s="3"/>
-      <c r="F137" s="46"/>
-      <c r="G137" s="46"/>
+      <c r="F137" s="45"/>
+      <c r="G137" s="45"/>
       <c r="H137" s="14"/>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A138" s="37"/>
-      <c r="B138" s="40"/>
-      <c r="C138" s="45"/>
+      <c r="A138" s="36"/>
+      <c r="B138" s="39"/>
+      <c r="C138" s="44"/>
       <c r="D138" s="10"/>
       <c r="E138" s="11"/>
-      <c r="F138" s="48"/>
-      <c r="G138" s="48"/>
+      <c r="F138" s="47"/>
+      <c r="G138" s="47"/>
       <c r="H138" s="12"/>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A139" s="39"/>
-      <c r="B139" s="42"/>
-      <c r="C139" s="44"/>
+      <c r="A139" s="38"/>
+      <c r="B139" s="41"/>
+      <c r="C139" s="43"/>
       <c r="D139" s="4"/>
       <c r="E139" s="3"/>
-      <c r="F139" s="46"/>
-      <c r="G139" s="46"/>
+      <c r="F139" s="45"/>
+      <c r="G139" s="45"/>
       <c r="H139" s="14"/>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A140" s="39"/>
-      <c r="B140" s="42"/>
-      <c r="C140" s="44"/>
+      <c r="A140" s="38"/>
+      <c r="B140" s="41"/>
+      <c r="C140" s="43"/>
       <c r="D140" s="4"/>
       <c r="E140" s="3"/>
-      <c r="F140" s="46"/>
-      <c r="G140" s="46"/>
+      <c r="F140" s="45"/>
+      <c r="G140" s="45"/>
       <c r="H140" s="14"/>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A141" s="37"/>
-      <c r="B141" s="56"/>
-      <c r="C141" s="45"/>
-      <c r="D141" s="59"/>
+      <c r="A141" s="36"/>
+      <c r="B141" s="55"/>
+      <c r="C141" s="44"/>
+      <c r="D141" s="58"/>
       <c r="E141" s="11"/>
-      <c r="F141" s="55"/>
-      <c r="G141" s="48"/>
+      <c r="F141" s="54"/>
+      <c r="G141" s="47"/>
       <c r="H141" s="12"/>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A142" s="39"/>
-      <c r="B142" s="57"/>
-      <c r="C142" s="44"/>
-      <c r="D142" s="60"/>
+      <c r="A142" s="38"/>
+      <c r="B142" s="56"/>
+      <c r="C142" s="43"/>
+      <c r="D142" s="59"/>
       <c r="E142" s="3"/>
-      <c r="F142" s="46"/>
-      <c r="G142" s="46"/>
+      <c r="F142" s="45"/>
+      <c r="G142" s="45"/>
       <c r="H142" s="14"/>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A143" s="38"/>
-      <c r="B143" s="58"/>
-      <c r="C143" s="43"/>
-      <c r="D143" s="61"/>
+      <c r="A143" s="37"/>
+      <c r="B143" s="57"/>
+      <c r="C143" s="42"/>
+      <c r="D143" s="60"/>
       <c r="E143" s="7"/>
-      <c r="F143" s="47"/>
-      <c r="G143" s="47"/>
+      <c r="F143" s="46"/>
+      <c r="G143" s="46"/>
       <c r="H143" s="13"/>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A144" s="37"/>
-      <c r="B144" s="56"/>
-      <c r="C144" s="45"/>
-      <c r="D144" s="59"/>
+      <c r="A144" s="36"/>
+      <c r="B144" s="55"/>
+      <c r="C144" s="44"/>
+      <c r="D144" s="58"/>
       <c r="E144" s="11"/>
-      <c r="F144" s="55"/>
-      <c r="G144" s="46"/>
+      <c r="F144" s="54"/>
+      <c r="G144" s="45"/>
       <c r="H144" s="12"/>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A145" s="38"/>
-      <c r="B145" s="58"/>
-      <c r="C145" s="43"/>
-      <c r="D145" s="61"/>
+      <c r="A145" s="37"/>
+      <c r="B145" s="57"/>
+      <c r="C145" s="42"/>
+      <c r="D145" s="60"/>
       <c r="E145" s="7"/>
-      <c r="F145" s="47"/>
-      <c r="G145" s="47"/>
+      <c r="F145" s="46"/>
+      <c r="G145" s="46"/>
       <c r="H145" s="13"/>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A146" s="37"/>
-      <c r="B146" s="56"/>
-      <c r="C146" s="45"/>
-      <c r="D146" s="59"/>
+      <c r="A146" s="36"/>
+      <c r="B146" s="55"/>
+      <c r="C146" s="44"/>
+      <c r="D146" s="58"/>
       <c r="E146" s="11"/>
-      <c r="F146" s="55"/>
-      <c r="G146" s="46"/>
+      <c r="F146" s="54"/>
+      <c r="G146" s="45"/>
       <c r="H146" s="12"/>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A147" s="38"/>
-      <c r="B147" s="58"/>
-      <c r="C147" s="43"/>
-      <c r="D147" s="61"/>
+      <c r="A147" s="37"/>
+      <c r="B147" s="57"/>
+      <c r="C147" s="42"/>
+      <c r="D147" s="60"/>
       <c r="E147" s="7"/>
-      <c r="F147" s="47"/>
-      <c r="G147" s="47"/>
+      <c r="F147" s="46"/>
+      <c r="G147" s="46"/>
       <c r="H147" s="13"/>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
@@ -2827,7 +2893,10 @@
       <c r="H172" s="17"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H24" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>
--- a/TS Jatai Working/TTD Krama PaaraayaNam-Kramam.xlsx
+++ b/TS Jatai Working/TTD Krama PaaraayaNam-Kramam.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="57">
   <si>
     <t>Date</t>
   </si>
@@ -179,6 +179,12 @@
   </si>
   <si>
     <t>1.7.1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7.1.6 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7.2.1 </t>
   </si>
 </sst>
 </file>
@@ -371,7 +377,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -560,6 +566,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -870,8 +879,8 @@
   <dimension ref="A1:L172"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A26" sqref="A26"/>
+      <pane ySplit="4" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -1435,10 +1444,10 @@
       <c r="E26" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F26" s="47" t="s">
+      <c r="F26" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="G26" s="47" t="s">
+      <c r="G26" s="61" t="s">
         <v>53</v>
       </c>
       <c r="H26" s="12" t="s">
@@ -1459,8 +1468,10 @@
       <c r="E27" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F27" s="45"/>
-      <c r="G27" s="45" t="s">
+      <c r="F27" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G27" s="71" t="s">
         <v>13</v>
       </c>
       <c r="H27" s="14" t="s">
@@ -1473,19 +1484,29 @@
       <c r="C28" s="42"/>
       <c r="D28" s="6"/>
       <c r="E28" s="27"/>
-      <c r="F28" s="48"/>
-      <c r="G28" s="42"/>
+      <c r="F28" s="70"/>
+      <c r="G28" s="37"/>
       <c r="H28" s="13"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="36"/>
-      <c r="B29" s="41"/>
-      <c r="C29" s="43"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="3"/>
+      <c r="A29" s="36">
+        <v>11</v>
+      </c>
+      <c r="B29" s="41">
+        <v>44456</v>
+      </c>
+      <c r="C29" s="43">
+        <v>2</v>
+      </c>
+      <c r="D29" s="76" t="s">
+        <v>56</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="F29" s="45"/>
       <c r="G29" s="45"/>
-      <c r="H29" s="28"/>
+      <c r="H29" s="4"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="38"/>

--- a/TS Jatai Working/TTD Krama PaaraayaNam-Kramam.xlsx
+++ b/TS Jatai Working/TTD Krama PaaraayaNam-Kramam.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="63">
   <si>
     <t>Date</t>
   </si>
@@ -185,6 +185,24 @@
   </si>
   <si>
     <t xml:space="preserve">1.7.2.1 </t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=wsYaL9J2SzI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7.6.7 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7.7.1 </t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=iZ0PZJL5FYs&amp;list=PLjhrDIztP9pcSE8dR7xYZb7zwX5SXxNKy&amp;index=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7.13.5 </t>
+  </si>
+  <si>
+    <t>1.8.1.1</t>
   </si>
 </sst>
 </file>
@@ -436,7 +454,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -570,6 +587,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -876,11 +896,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L172"/>
+  <dimension ref="A1:L171"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E30" sqref="E30"/>
+      <selection pane="bottomLeft" activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -900,19 +920,19 @@
       <c r="A1" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32" t="s">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="31"/>
-      <c r="F1" s="32" t="s">
+      <c r="E1" s="30"/>
+      <c r="F1" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="32"/>
-      <c r="H1" s="50" t="s">
+      <c r="G1" s="31"/>
+      <c r="H1" s="49" t="s">
         <v>5</v>
       </c>
       <c r="I1" s="17"/>
@@ -920,8 +940,8 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="25"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
       <c r="D2" s="15" t="s">
         <v>16</v>
       </c>
@@ -929,24 +949,24 @@
       <c r="F2" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="33"/>
-      <c r="H2" s="51"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="50"/>
       <c r="I2" s="17"/>
       <c r="J2" s="17"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="25"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
       <c r="D3" s="15" t="s">
         <v>14</v>
       </c>
       <c r="E3" s="16"/>
-      <c r="F3" s="33" t="s">
+      <c r="F3" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
       <c r="I3" s="17"/>
       <c r="J3" s="17"/>
     </row>
@@ -954,36 +974,36 @@
       <c r="A4" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="30" t="s">
+      <c r="D4" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="34" t="s">
+      <c r="E4" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="35" t="s">
+      <c r="F4" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="35" t="s">
+      <c r="G4" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="52"/>
+      <c r="H4" s="51"/>
       <c r="I4" s="17"/>
       <c r="J4" s="17"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="36">
+      <c r="A5" s="35">
         <v>1</v>
       </c>
-      <c r="B5" s="39">
+      <c r="B5" s="38">
         <v>44446</v>
       </c>
-      <c r="C5" s="44">
+      <c r="C5" s="43">
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -995,7 +1015,7 @@
       <c r="F5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="61" t="s">
+      <c r="G5" s="60" t="s">
         <v>13</v>
       </c>
       <c r="H5" s="5" t="s">
@@ -1007,13 +1027,13 @@
       <c r="L5" s="17"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="37"/>
-      <c r="B6" s="40"/>
-      <c r="C6" s="42"/>
+      <c r="A6" s="36"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="41"/>
       <c r="D6" s="6"/>
       <c r="E6" s="7"/>
       <c r="F6" s="8"/>
-      <c r="G6" s="62"/>
+      <c r="G6" s="61"/>
       <c r="H6" s="9"/>
       <c r="I6" s="17"/>
       <c r="J6" s="17"/>
@@ -1021,13 +1041,13 @@
       <c r="L6" s="17"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="36">
+      <c r="A7" s="35">
         <v>2</v>
       </c>
-      <c r="B7" s="39">
+      <c r="B7" s="38">
         <v>44447</v>
       </c>
-      <c r="C7" s="44">
+      <c r="C7" s="43">
         <v>1</v>
       </c>
       <c r="D7" s="10" t="s">
@@ -1039,7 +1059,7 @@
       <c r="F7" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="61" t="s">
+      <c r="G7" s="60" t="s">
         <v>13</v>
       </c>
       <c r="H7" s="12" t="s">
@@ -1051,13 +1071,13 @@
       <c r="L7" s="17"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="37"/>
-      <c r="B8" s="40"/>
-      <c r="C8" s="42"/>
+      <c r="A8" s="36"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="41"/>
       <c r="D8" s="8"/>
       <c r="E8" s="7"/>
       <c r="F8" s="8"/>
-      <c r="G8" s="62"/>
+      <c r="G8" s="61"/>
       <c r="H8" s="14"/>
       <c r="I8" s="17"/>
       <c r="J8" s="17"/>
@@ -1065,13 +1085,13 @@
       <c r="L8" s="17"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="36">
+      <c r="A9" s="35">
         <v>3</v>
       </c>
-      <c r="B9" s="39">
+      <c r="B9" s="38">
         <v>44448</v>
       </c>
-      <c r="C9" s="44">
+      <c r="C9" s="43">
         <v>2</v>
       </c>
       <c r="D9" s="10" t="s">
@@ -1083,10 +1103,10 @@
       <c r="F9" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="G9" s="58" t="s">
+      <c r="G9" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="H9" s="63" t="s">
+      <c r="H9" s="62" t="s">
         <v>21</v>
       </c>
       <c r="I9" s="17"/>
@@ -1095,11 +1115,11 @@
       <c r="L9" s="17"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="38"/>
-      <c r="B10" s="41">
+      <c r="A10" s="37"/>
+      <c r="B10" s="40">
         <v>44448</v>
       </c>
-      <c r="C10" s="43">
+      <c r="C10" s="42">
         <v>1</v>
       </c>
       <c r="D10" s="4" t="s">
@@ -1111,10 +1131,10 @@
       <c r="F10" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G10" s="59" t="s">
+      <c r="G10" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="H10" s="64" t="s">
+      <c r="H10" s="63" t="s">
         <v>21</v>
       </c>
       <c r="I10" s="17"/>
@@ -1123,27 +1143,27 @@
       <c r="L10" s="17"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="37"/>
-      <c r="B11" s="40"/>
-      <c r="C11" s="42"/>
+      <c r="A11" s="36"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="41"/>
       <c r="D11" s="8"/>
       <c r="E11" s="7"/>
       <c r="F11" s="8"/>
-      <c r="G11" s="60"/>
-      <c r="H11" s="65"/>
+      <c r="G11" s="59"/>
+      <c r="H11" s="64"/>
       <c r="I11" s="17"/>
       <c r="J11" s="17"/>
       <c r="K11" s="17"/>
       <c r="L11" s="17"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="36">
+      <c r="A12" s="35">
         <v>4</v>
       </c>
-      <c r="B12" s="39">
+      <c r="B12" s="38">
         <v>44449</v>
       </c>
-      <c r="C12" s="44">
+      <c r="C12" s="43">
         <v>2</v>
       </c>
       <c r="D12" s="10" t="s">
@@ -1155,7 +1175,7 @@
       <c r="F12" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="G12" s="66" t="s">
+      <c r="G12" s="65" t="s">
         <v>13</v>
       </c>
       <c r="H12" s="14" t="s">
@@ -1167,13 +1187,13 @@
       <c r="L12" s="17"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="37"/>
-      <c r="B13" s="40"/>
-      <c r="C13" s="42"/>
+      <c r="A13" s="36"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="41"/>
       <c r="D13" s="8"/>
       <c r="E13" s="7"/>
       <c r="F13" s="8"/>
-      <c r="G13" s="37"/>
+      <c r="G13" s="36"/>
       <c r="H13" s="13"/>
       <c r="I13" s="17"/>
       <c r="J13" s="17"/>
@@ -1181,13 +1201,13 @@
       <c r="L13" s="17"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="36">
+      <c r="A14" s="35">
         <v>5</v>
       </c>
-      <c r="B14" s="39">
+      <c r="B14" s="38">
         <v>44450</v>
       </c>
-      <c r="C14" s="44">
+      <c r="C14" s="43">
         <v>1</v>
       </c>
       <c r="D14" s="10" t="s">
@@ -1199,7 +1219,7 @@
       <c r="F14" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="G14" s="66" t="s">
+      <c r="G14" s="65" t="s">
         <v>13</v>
       </c>
       <c r="H14" s="12" t="s">
@@ -1211,13 +1231,13 @@
       <c r="L14" s="17"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="37"/>
-      <c r="B15" s="40"/>
-      <c r="C15" s="42"/>
+      <c r="A15" s="36"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="41"/>
       <c r="D15" s="8"/>
       <c r="E15" s="7"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="53"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="52"/>
       <c r="H15" s="14"/>
       <c r="I15" s="17"/>
       <c r="J15" s="17"/>
@@ -1225,13 +1245,13 @@
       <c r="L15" s="17"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="36">
+      <c r="A16" s="35">
         <v>6</v>
       </c>
-      <c r="B16" s="39">
+      <c r="B16" s="38">
         <v>44451</v>
       </c>
-      <c r="C16" s="44">
+      <c r="C16" s="43">
         <v>2</v>
       </c>
       <c r="D16" s="10" t="s">
@@ -1243,10 +1263,10 @@
       <c r="F16" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="G16" s="58" t="s">
+      <c r="G16" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="H16" s="63" t="s">
+      <c r="H16" s="62" t="s">
         <v>33</v>
       </c>
       <c r="I16" s="17"/>
@@ -1255,11 +1275,11 @@
       <c r="L16" s="17"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="38"/>
-      <c r="B17" s="41">
+      <c r="A17" s="37"/>
+      <c r="B17" s="40">
         <v>44451</v>
       </c>
-      <c r="C17" s="43">
+      <c r="C17" s="42">
         <v>1</v>
       </c>
       <c r="D17" s="4" t="s">
@@ -1271,10 +1291,10 @@
       <c r="F17" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G17" s="59" t="s">
+      <c r="G17" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="H17" s="64" t="s">
+      <c r="H17" s="63" t="s">
         <v>33</v>
       </c>
       <c r="I17" s="17"/>
@@ -1283,30 +1303,30 @@
       <c r="L17" s="17"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="37"/>
-      <c r="B18" s="40"/>
-      <c r="C18" s="42"/>
+      <c r="A18" s="36"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="41"/>
       <c r="D18" s="4"/>
       <c r="E18" s="3"/>
       <c r="F18" s="4"/>
-      <c r="G18" s="67"/>
-      <c r="H18" s="65"/>
+      <c r="G18" s="66"/>
+      <c r="H18" s="64"/>
       <c r="I18" s="17"/>
       <c r="J18" s="17"/>
       <c r="K18" s="17"/>
       <c r="L18" s="17"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="36">
+      <c r="A19" s="35">
         <v>7</v>
       </c>
-      <c r="B19" s="39">
+      <c r="B19" s="38">
         <v>44452</v>
       </c>
-      <c r="C19" s="68">
+      <c r="C19" s="67">
         <v>2</v>
       </c>
-      <c r="D19" s="69" t="s">
+      <c r="D19" s="68" t="s">
         <v>38</v>
       </c>
       <c r="E19" s="11" t="s">
@@ -1315,7 +1335,7 @@
       <c r="F19" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="G19" s="61" t="s">
+      <c r="G19" s="60" t="s">
         <v>13</v>
       </c>
       <c r="H19" s="14" t="s">
@@ -1323,23 +1343,23 @@
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="37"/>
-      <c r="B20" s="42"/>
+      <c r="A20" s="36"/>
+      <c r="B20" s="41"/>
       <c r="C20" s="6"/>
-      <c r="D20" s="67"/>
+      <c r="D20" s="66"/>
       <c r="E20" s="27"/>
-      <c r="F20" s="48"/>
-      <c r="G20" s="38"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="37"/>
       <c r="H20" s="14"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="36">
+      <c r="A21" s="35">
         <v>8</v>
       </c>
-      <c r="B21" s="39">
+      <c r="B21" s="38">
         <v>44453</v>
       </c>
-      <c r="C21" s="44">
+      <c r="C21" s="43">
         <v>2</v>
       </c>
       <c r="D21" s="10" t="s">
@@ -1351,7 +1371,7 @@
       <c r="F21" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="G21" s="61" t="s">
+      <c r="G21" s="60" t="s">
         <v>43</v>
       </c>
       <c r="H21" s="12" t="s">
@@ -1359,11 +1379,11 @@
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="38"/>
-      <c r="B22" s="41">
+      <c r="A22" s="37"/>
+      <c r="B22" s="40">
         <v>44453</v>
       </c>
-      <c r="C22" s="43">
+      <c r="C22" s="42">
         <v>1</v>
       </c>
       <c r="D22" s="4" t="s">
@@ -1375,7 +1395,7 @@
       <c r="F22" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="G22" s="71" t="s">
+      <c r="G22" s="70" t="s">
         <v>13</v>
       </c>
       <c r="H22" s="14" t="s">
@@ -1383,23 +1403,23 @@
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="37"/>
-      <c r="B23" s="42"/>
-      <c r="C23" s="42"/>
+      <c r="A23" s="36"/>
+      <c r="B23" s="41"/>
+      <c r="C23" s="41"/>
       <c r="D23" s="6"/>
       <c r="E23" s="27"/>
-      <c r="F23" s="70"/>
-      <c r="G23" s="37"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="36"/>
       <c r="H23" s="13"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="36">
+      <c r="A24" s="35">
         <v>9</v>
       </c>
-      <c r="B24" s="39">
+      <c r="B24" s="38">
         <v>44454</v>
       </c>
-      <c r="C24" s="44">
+      <c r="C24" s="43">
         <v>2</v>
       </c>
       <c r="D24" s="10" t="s">
@@ -1411,7 +1431,7 @@
       <c r="F24" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="G24" s="71" t="s">
+      <c r="G24" s="70" t="s">
         <v>13</v>
       </c>
       <c r="H24" s="5" t="s">
@@ -1419,23 +1439,23 @@
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="37"/>
-      <c r="B25" s="43"/>
-      <c r="C25" s="43"/>
+      <c r="A25" s="36"/>
+      <c r="B25" s="42"/>
+      <c r="C25" s="42"/>
       <c r="D25" s="2"/>
       <c r="E25" s="19"/>
-      <c r="F25" s="49"/>
-      <c r="G25" s="43"/>
+      <c r="F25" s="48"/>
+      <c r="G25" s="42"/>
       <c r="H25" s="14"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="72">
+      <c r="A26" s="71">
         <v>10</v>
       </c>
-      <c r="B26" s="74">
+      <c r="B26" s="73">
         <v>44455</v>
       </c>
-      <c r="C26" s="44">
+      <c r="C26" s="43">
         <v>3</v>
       </c>
       <c r="D26" s="10" t="s">
@@ -1447,7 +1467,7 @@
       <c r="F26" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="G26" s="61" t="s">
+      <c r="G26" s="60" t="s">
         <v>53</v>
       </c>
       <c r="H26" s="12" t="s">
@@ -1455,11 +1475,11 @@
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="73"/>
-      <c r="B27" s="75">
+      <c r="A27" s="72"/>
+      <c r="B27" s="74">
         <v>44455</v>
       </c>
-      <c r="C27" s="43">
+      <c r="C27" s="42">
         <v>1</v>
       </c>
       <c r="D27" s="4" t="s">
@@ -1471,7 +1491,7 @@
       <c r="F27" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="G27" s="71" t="s">
+      <c r="G27" s="70" t="s">
         <v>13</v>
       </c>
       <c r="H27" s="14" t="s">
@@ -1479,1214 +1499,1245 @@
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="67"/>
-      <c r="B28" s="37"/>
-      <c r="C28" s="42"/>
+      <c r="A28" s="66"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="41"/>
       <c r="D28" s="6"/>
       <c r="E28" s="27"/>
-      <c r="F28" s="70"/>
-      <c r="G28" s="37"/>
+      <c r="F28" s="69"/>
+      <c r="G28" s="36"/>
       <c r="H28" s="13"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="36">
+      <c r="A29" s="35">
         <v>11</v>
       </c>
-      <c r="B29" s="41">
+      <c r="B29" s="40">
         <v>44456</v>
       </c>
-      <c r="C29" s="43">
+      <c r="C29" s="42">
         <v>2</v>
       </c>
-      <c r="D29" s="76" t="s">
+      <c r="D29" s="75" t="s">
         <v>56</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F29" s="45"/>
-      <c r="G29" s="45"/>
-      <c r="H29" s="4"/>
+      <c r="F29" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="G29" s="70" t="s">
+        <v>13</v>
+      </c>
+      <c r="H29" s="76" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="38"/>
+      <c r="A30" s="36"/>
       <c r="B30" s="41"/>
-      <c r="C30" s="43"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="45"/>
-      <c r="G30" s="45"/>
-      <c r="H30" s="28"/>
+      <c r="C30" s="41"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="47"/>
+      <c r="G30" s="41"/>
+      <c r="H30" s="13"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="37"/>
-      <c r="B31" s="42"/>
-      <c r="C31" s="42"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="48"/>
-      <c r="G31" s="42"/>
-      <c r="H31" s="13"/>
+      <c r="A31" s="35">
+        <v>12</v>
+      </c>
+      <c r="B31" s="38">
+        <v>44457</v>
+      </c>
+      <c r="C31" s="43">
+        <v>3</v>
+      </c>
+      <c r="D31" s="75" t="s">
+        <v>59</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="G31" s="70" t="s">
+        <v>13</v>
+      </c>
+      <c r="H31" s="23" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="36"/>
       <c r="B32" s="39"/>
-      <c r="C32" s="44"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="47"/>
-      <c r="G32" s="47"/>
-      <c r="H32" s="12"/>
+      <c r="C32" s="41"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="45"/>
+      <c r="G32" s="41"/>
+      <c r="H32" s="13"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="37"/>
-      <c r="B33" s="40"/>
-      <c r="C33" s="42"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="7"/>
+      <c r="A33" s="35">
+        <v>13</v>
+      </c>
+      <c r="B33" s="38">
+        <v>44458</v>
+      </c>
+      <c r="C33" s="43">
+        <v>1</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>9</v>
+      </c>
       <c r="F33" s="46"/>
-      <c r="G33" s="42"/>
-      <c r="H33" s="13"/>
+      <c r="G33" s="46"/>
+      <c r="H33" s="12"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="36"/>
-      <c r="B34" s="39"/>
-      <c r="C34" s="44"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="47"/>
-      <c r="G34" s="47"/>
-      <c r="H34" s="12"/>
+      <c r="A34" s="37"/>
+      <c r="B34" s="40"/>
+      <c r="C34" s="42"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="44"/>
+      <c r="G34" s="44"/>
+      <c r="H34" s="14"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="38"/>
+      <c r="A35" s="36"/>
       <c r="B35" s="41"/>
-      <c r="C35" s="43"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="45"/>
-      <c r="G35" s="45"/>
-      <c r="H35" s="14"/>
+      <c r="C35" s="41"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="47"/>
+      <c r="G35" s="41"/>
+      <c r="H35" s="13"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="37"/>
-      <c r="B36" s="42"/>
-      <c r="C36" s="42"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="27"/>
-      <c r="F36" s="48"/>
-      <c r="G36" s="42"/>
-      <c r="H36" s="13"/>
+      <c r="A36" s="35"/>
+      <c r="B36" s="38"/>
+      <c r="C36" s="43"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="46"/>
+      <c r="G36" s="46"/>
+      <c r="H36" s="12"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="36"/>
-      <c r="B37" s="39"/>
-      <c r="C37" s="44"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="11"/>
+      <c r="B37" s="41"/>
+      <c r="C37" s="41"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="27"/>
       <c r="F37" s="47"/>
-      <c r="G37" s="47"/>
-      <c r="H37" s="12"/>
+      <c r="G37" s="41"/>
+      <c r="H37" s="13"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="37"/>
-      <c r="B38" s="42"/>
-      <c r="C38" s="42"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="27"/>
-      <c r="F38" s="48"/>
-      <c r="G38" s="42"/>
-      <c r="H38" s="13"/>
+      <c r="A38" s="35"/>
+      <c r="B38" s="38"/>
+      <c r="C38" s="43"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="46"/>
+      <c r="G38" s="46"/>
+      <c r="H38" s="12"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="36"/>
-      <c r="B39" s="39"/>
-      <c r="C39" s="44"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="47"/>
-      <c r="G39" s="47"/>
-      <c r="H39" s="12"/>
+      <c r="A39" s="37"/>
+      <c r="B39" s="40"/>
+      <c r="C39" s="42"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="44"/>
+      <c r="G39" s="44"/>
+      <c r="H39" s="14"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="38"/>
+      <c r="A40" s="36"/>
       <c r="B40" s="41"/>
-      <c r="C40" s="43"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="45"/>
-      <c r="G40" s="45"/>
-      <c r="H40" s="14"/>
+      <c r="C40" s="41"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="27"/>
+      <c r="F40" s="47"/>
+      <c r="G40" s="41"/>
+      <c r="H40" s="13"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="37"/>
-      <c r="B41" s="42"/>
-      <c r="C41" s="42"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="27"/>
-      <c r="F41" s="48"/>
-      <c r="G41" s="42"/>
-      <c r="H41" s="13"/>
+      <c r="A41" s="35"/>
+      <c r="B41" s="38"/>
+      <c r="C41" s="43"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="46"/>
+      <c r="G41" s="46"/>
+      <c r="H41" s="12"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="36"/>
-      <c r="B42" s="39"/>
-      <c r="C42" s="44"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="47"/>
-      <c r="G42" s="47"/>
-      <c r="H42" s="12"/>
+      <c r="A42" s="37"/>
+      <c r="B42" s="40"/>
+      <c r="C42" s="42"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="44"/>
+      <c r="G42" s="44"/>
+      <c r="H42" s="14"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="38"/>
+      <c r="A43" s="36"/>
       <c r="B43" s="41"/>
-      <c r="C43" s="43"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="45"/>
-      <c r="G43" s="45"/>
-      <c r="H43" s="14"/>
+      <c r="C43" s="41"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="27"/>
+      <c r="F43" s="47"/>
+      <c r="G43" s="41"/>
+      <c r="H43" s="13"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="37"/>
-      <c r="B44" s="42"/>
-      <c r="C44" s="42"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="27"/>
-      <c r="F44" s="48"/>
-      <c r="G44" s="42"/>
-      <c r="H44" s="13"/>
+      <c r="A44" s="35"/>
+      <c r="B44" s="38"/>
+      <c r="C44" s="43"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="46"/>
+      <c r="G44" s="46"/>
+      <c r="H44" s="23"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="36"/>
-      <c r="B45" s="39"/>
-      <c r="C45" s="44"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="11"/>
+      <c r="B45" s="41"/>
+      <c r="C45" s="41"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="27"/>
       <c r="F45" s="47"/>
-      <c r="G45" s="47"/>
-      <c r="H45" s="23"/>
+      <c r="G45" s="41"/>
+      <c r="H45" s="13"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="37"/>
-      <c r="B46" s="42"/>
-      <c r="C46" s="42"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="27"/>
-      <c r="F46" s="48"/>
-      <c r="G46" s="42"/>
-      <c r="H46" s="13"/>
+      <c r="A46" s="35"/>
+      <c r="B46" s="38"/>
+      <c r="C46" s="43"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="46"/>
+      <c r="G46" s="46"/>
+      <c r="H46" s="23"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="36"/>
-      <c r="B47" s="39"/>
-      <c r="C47" s="44"/>
-      <c r="D47" s="10"/>
-      <c r="E47" s="11"/>
-      <c r="F47" s="47"/>
-      <c r="G47" s="47"/>
-      <c r="H47" s="23"/>
+      <c r="A47" s="37"/>
+      <c r="B47" s="40"/>
+      <c r="C47" s="42"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="44"/>
+      <c r="G47" s="44"/>
+      <c r="H47" s="5"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="38"/>
+      <c r="A48" s="36"/>
       <c r="B48" s="41"/>
-      <c r="C48" s="43"/>
-      <c r="D48" s="4"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="45"/>
-      <c r="G48" s="45"/>
-      <c r="H48" s="5"/>
+      <c r="C48" s="41"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="27"/>
+      <c r="F48" s="47"/>
+      <c r="G48" s="41"/>
+      <c r="H48" s="13"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="37"/>
-      <c r="B49" s="42"/>
-      <c r="C49" s="42"/>
-      <c r="D49" s="6"/>
-      <c r="E49" s="27"/>
-      <c r="F49" s="48"/>
-      <c r="G49" s="42"/>
-      <c r="H49" s="13"/>
+      <c r="A49" s="35"/>
+      <c r="B49" s="38"/>
+      <c r="C49" s="43"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="46"/>
+      <c r="G49" s="46"/>
+      <c r="H49" s="12"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="36"/>
-      <c r="B50" s="39"/>
-      <c r="C50" s="44"/>
-      <c r="D50" s="10"/>
-      <c r="E50" s="11"/>
+      <c r="B50" s="41"/>
+      <c r="C50" s="41"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="27"/>
       <c r="F50" s="47"/>
-      <c r="G50" s="47"/>
-      <c r="H50" s="12"/>
+      <c r="G50" s="41"/>
+      <c r="H50" s="13"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="37"/>
-      <c r="B51" s="42"/>
-      <c r="C51" s="42"/>
-      <c r="D51" s="6"/>
-      <c r="E51" s="27"/>
-      <c r="F51" s="48"/>
-      <c r="G51" s="42"/>
-      <c r="H51" s="13"/>
+      <c r="A51" s="35"/>
+      <c r="B51" s="38"/>
+      <c r="C51" s="43"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="46"/>
+      <c r="G51" s="46"/>
+      <c r="H51" s="12"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="36"/>
-      <c r="B52" s="39"/>
-      <c r="C52" s="44"/>
-      <c r="D52" s="10"/>
-      <c r="E52" s="11"/>
-      <c r="F52" s="47"/>
-      <c r="G52" s="47"/>
-      <c r="H52" s="12"/>
+      <c r="A52" s="37"/>
+      <c r="B52" s="40"/>
+      <c r="C52" s="42"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="44"/>
+      <c r="G52" s="44"/>
+      <c r="H52" s="14"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="38"/>
+      <c r="A53" s="36"/>
       <c r="B53" s="41"/>
-      <c r="C53" s="43"/>
-      <c r="D53" s="4"/>
-      <c r="E53" s="3"/>
-      <c r="F53" s="45"/>
-      <c r="G53" s="45"/>
-      <c r="H53" s="14"/>
+      <c r="C53" s="41"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="27"/>
+      <c r="F53" s="47"/>
+      <c r="G53" s="41"/>
+      <c r="H53" s="13"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="37"/>
-      <c r="B54" s="42"/>
-      <c r="C54" s="42"/>
-      <c r="D54" s="6"/>
-      <c r="E54" s="27"/>
-      <c r="F54" s="48"/>
-      <c r="G54" s="42"/>
-      <c r="H54" s="13"/>
+      <c r="A54" s="35"/>
+      <c r="B54" s="38"/>
+      <c r="C54" s="43"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="46"/>
+      <c r="G54" s="46"/>
+      <c r="H54" s="12"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="36"/>
-      <c r="B55" s="39"/>
-      <c r="C55" s="44"/>
-      <c r="D55" s="10"/>
-      <c r="E55" s="11"/>
-      <c r="F55" s="47"/>
-      <c r="G55" s="47"/>
-      <c r="H55" s="12"/>
+      <c r="A55" s="37"/>
+      <c r="B55" s="40"/>
+      <c r="C55" s="42"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="44"/>
+      <c r="G55" s="44"/>
+      <c r="H55" s="14"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="38"/>
+      <c r="A56" s="36"/>
       <c r="B56" s="41"/>
-      <c r="C56" s="43"/>
-      <c r="D56" s="4"/>
-      <c r="E56" s="3"/>
-      <c r="F56" s="45"/>
-      <c r="G56" s="45"/>
-      <c r="H56" s="14"/>
+      <c r="C56" s="41"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="27"/>
+      <c r="F56" s="47"/>
+      <c r="G56" s="41"/>
+      <c r="H56" s="13"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="37"/>
-      <c r="B57" s="42"/>
-      <c r="C57" s="42"/>
-      <c r="D57" s="6"/>
-      <c r="E57" s="27"/>
-      <c r="F57" s="48"/>
-      <c r="G57" s="42"/>
-      <c r="H57" s="13"/>
+      <c r="A57" s="35"/>
+      <c r="B57" s="38"/>
+      <c r="C57" s="43"/>
+      <c r="D57" s="10"/>
+      <c r="E57" s="11"/>
+      <c r="F57" s="46"/>
+      <c r="G57" s="46"/>
+      <c r="H57" s="12"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="36"/>
-      <c r="B58" s="39"/>
-      <c r="C58" s="44"/>
-      <c r="D58" s="10"/>
-      <c r="E58" s="11"/>
-      <c r="F58" s="47"/>
-      <c r="G58" s="47"/>
-      <c r="H58" s="12"/>
+      <c r="A58" s="37"/>
+      <c r="B58" s="40"/>
+      <c r="C58" s="42"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="44"/>
+      <c r="G58" s="44"/>
+      <c r="H58" s="14"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="38"/>
+      <c r="A59" s="36"/>
       <c r="B59" s="41"/>
-      <c r="C59" s="43"/>
-      <c r="D59" s="4"/>
-      <c r="E59" s="3"/>
-      <c r="F59" s="45"/>
-      <c r="G59" s="45"/>
-      <c r="H59" s="14"/>
+      <c r="C59" s="41"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="27"/>
+      <c r="F59" s="47"/>
+      <c r="G59" s="41"/>
+      <c r="H59" s="13"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="37"/>
-      <c r="B60" s="42"/>
-      <c r="C60" s="42"/>
-      <c r="D60" s="6"/>
-      <c r="E60" s="27"/>
-      <c r="F60" s="48"/>
-      <c r="G60" s="42"/>
-      <c r="H60" s="13"/>
+      <c r="A60" s="35"/>
+      <c r="B60" s="38"/>
+      <c r="C60" s="43"/>
+      <c r="D60" s="10"/>
+      <c r="E60" s="11"/>
+      <c r="F60" s="46"/>
+      <c r="G60" s="46"/>
+      <c r="H60" s="12"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="36"/>
-      <c r="B61" s="39"/>
-      <c r="C61" s="44"/>
-      <c r="D61" s="10"/>
-      <c r="E61" s="11"/>
+      <c r="B61" s="41"/>
+      <c r="C61" s="41"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="27"/>
       <c r="F61" s="47"/>
-      <c r="G61" s="47"/>
-      <c r="H61" s="12"/>
+      <c r="G61" s="41"/>
+      <c r="H61" s="13"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="37"/>
-      <c r="B62" s="42"/>
-      <c r="C62" s="42"/>
-      <c r="D62" s="6"/>
-      <c r="E62" s="27"/>
-      <c r="F62" s="48"/>
-      <c r="G62" s="42"/>
-      <c r="H62" s="13"/>
+      <c r="A62" s="35"/>
+      <c r="B62" s="38"/>
+      <c r="C62" s="43"/>
+      <c r="D62" s="10"/>
+      <c r="E62" s="11"/>
+      <c r="F62" s="46"/>
+      <c r="G62" s="46"/>
+      <c r="H62" s="12"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="36"/>
-      <c r="B63" s="39"/>
-      <c r="C63" s="44"/>
-      <c r="D63" s="10"/>
-      <c r="E63" s="11"/>
-      <c r="F63" s="47"/>
-      <c r="G63" s="47"/>
-      <c r="H63" s="12"/>
+      <c r="A63" s="37"/>
+      <c r="B63" s="40"/>
+      <c r="C63" s="42"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="44"/>
+      <c r="G63" s="44"/>
+      <c r="H63" s="14"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="38"/>
+      <c r="A64" s="36"/>
       <c r="B64" s="41"/>
-      <c r="C64" s="43"/>
-      <c r="D64" s="4"/>
-      <c r="E64" s="3"/>
-      <c r="F64" s="45"/>
-      <c r="G64" s="45"/>
-      <c r="H64" s="14"/>
+      <c r="C64" s="41"/>
+      <c r="D64" s="6"/>
+      <c r="E64" s="27"/>
+      <c r="F64" s="47"/>
+      <c r="G64" s="41"/>
+      <c r="H64" s="13"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="37"/>
-      <c r="B65" s="42"/>
-      <c r="C65" s="42"/>
-      <c r="D65" s="6"/>
-      <c r="E65" s="27"/>
-      <c r="F65" s="48"/>
-      <c r="G65" s="42"/>
-      <c r="H65" s="13"/>
+      <c r="A65" s="35"/>
+      <c r="B65" s="38"/>
+      <c r="C65" s="43"/>
+      <c r="D65" s="10"/>
+      <c r="E65" s="11"/>
+      <c r="F65" s="46"/>
+      <c r="G65" s="46"/>
+      <c r="H65" s="12"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="36"/>
-      <c r="B66" s="39"/>
-      <c r="C66" s="44"/>
-      <c r="D66" s="10"/>
-      <c r="E66" s="11"/>
-      <c r="F66" s="47"/>
-      <c r="G66" s="47"/>
-      <c r="H66" s="12"/>
+      <c r="A66" s="37"/>
+      <c r="B66" s="40"/>
+      <c r="C66" s="42"/>
+      <c r="D66" s="4"/>
+      <c r="E66" s="3"/>
+      <c r="F66" s="44"/>
+      <c r="G66" s="44"/>
+      <c r="H66" s="14"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="38"/>
+      <c r="A67" s="36"/>
       <c r="B67" s="41"/>
-      <c r="C67" s="43"/>
-      <c r="D67" s="4"/>
-      <c r="E67" s="3"/>
-      <c r="F67" s="45"/>
-      <c r="G67" s="45"/>
-      <c r="H67" s="14"/>
+      <c r="C67" s="41"/>
+      <c r="D67" s="6"/>
+      <c r="E67" s="27"/>
+      <c r="F67" s="47"/>
+      <c r="G67" s="41"/>
+      <c r="H67" s="13"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="37"/>
-      <c r="B68" s="42"/>
-      <c r="C68" s="42"/>
-      <c r="D68" s="6"/>
-      <c r="E68" s="27"/>
-      <c r="F68" s="48"/>
-      <c r="G68" s="42"/>
-      <c r="H68" s="13"/>
+      <c r="A68" s="35"/>
+      <c r="B68" s="38"/>
+      <c r="C68" s="43"/>
+      <c r="D68" s="10"/>
+      <c r="E68" s="11"/>
+      <c r="F68" s="46"/>
+      <c r="G68" s="46"/>
+      <c r="H68" s="12"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="36"/>
-      <c r="B69" s="39"/>
-      <c r="C69" s="44"/>
-      <c r="D69" s="10"/>
-      <c r="E69" s="11"/>
-      <c r="F69" s="47"/>
-      <c r="G69" s="47"/>
-      <c r="H69" s="12"/>
+      <c r="A69" s="37"/>
+      <c r="B69" s="40"/>
+      <c r="C69" s="42"/>
+      <c r="D69" s="4"/>
+      <c r="E69" s="3"/>
+      <c r="F69" s="44"/>
+      <c r="G69" s="44"/>
+      <c r="H69" s="14"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="38"/>
+      <c r="A70" s="36"/>
       <c r="B70" s="41"/>
-      <c r="C70" s="43"/>
-      <c r="D70" s="4"/>
-      <c r="E70" s="3"/>
-      <c r="F70" s="45"/>
-      <c r="G70" s="45"/>
-      <c r="H70" s="14"/>
+      <c r="C70" s="41"/>
+      <c r="D70" s="6"/>
+      <c r="E70" s="27"/>
+      <c r="F70" s="47"/>
+      <c r="G70" s="41"/>
+      <c r="H70" s="13"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="37"/>
-      <c r="B71" s="42"/>
-      <c r="C71" s="42"/>
-      <c r="D71" s="6"/>
-      <c r="E71" s="27"/>
-      <c r="F71" s="48"/>
-      <c r="G71" s="42"/>
-      <c r="H71" s="13"/>
+      <c r="A71" s="35"/>
+      <c r="B71" s="38"/>
+      <c r="C71" s="43"/>
+      <c r="D71" s="10"/>
+      <c r="E71" s="11"/>
+      <c r="F71" s="46"/>
+      <c r="G71" s="46"/>
+      <c r="H71" s="12"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="36"/>
-      <c r="B72" s="39"/>
-      <c r="C72" s="44"/>
-      <c r="D72" s="10"/>
-      <c r="E72" s="11"/>
+      <c r="B72" s="41"/>
+      <c r="C72" s="41"/>
+      <c r="D72" s="6"/>
+      <c r="E72" s="27"/>
       <c r="F72" s="47"/>
-      <c r="G72" s="47"/>
-      <c r="H72" s="12"/>
+      <c r="G72" s="41"/>
+      <c r="H72" s="13"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="37"/>
-      <c r="B73" s="42"/>
-      <c r="C73" s="42"/>
-      <c r="D73" s="6"/>
-      <c r="E73" s="27"/>
-      <c r="F73" s="48"/>
-      <c r="G73" s="42"/>
-      <c r="H73" s="13"/>
+      <c r="A73" s="35"/>
+      <c r="B73" s="38"/>
+      <c r="C73" s="43"/>
+      <c r="D73" s="10"/>
+      <c r="E73" s="11"/>
+      <c r="F73" s="46"/>
+      <c r="G73" s="46"/>
+      <c r="H73" s="12"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="36"/>
-      <c r="B74" s="39"/>
-      <c r="C74" s="44"/>
-      <c r="D74" s="10"/>
-      <c r="E74" s="11"/>
-      <c r="F74" s="47"/>
-      <c r="G74" s="47"/>
-      <c r="H74" s="12"/>
+      <c r="A74" s="37"/>
+      <c r="B74" s="40"/>
+      <c r="C74" s="42"/>
+      <c r="D74" s="4"/>
+      <c r="E74" s="3"/>
+      <c r="F74" s="44"/>
+      <c r="G74" s="44"/>
+      <c r="H74" s="14"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="38"/>
+      <c r="A75" s="36"/>
       <c r="B75" s="41"/>
-      <c r="C75" s="43"/>
-      <c r="D75" s="4"/>
-      <c r="E75" s="3"/>
-      <c r="F75" s="45"/>
-      <c r="G75" s="45"/>
-      <c r="H75" s="14"/>
+      <c r="C75" s="41"/>
+      <c r="D75" s="6"/>
+      <c r="E75" s="27"/>
+      <c r="F75" s="47"/>
+      <c r="G75" s="41"/>
+      <c r="H75" s="13"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" s="37"/>
-      <c r="B76" s="42"/>
-      <c r="C76" s="42"/>
-      <c r="D76" s="6"/>
-      <c r="E76" s="27"/>
-      <c r="F76" s="48"/>
-      <c r="G76" s="42"/>
-      <c r="H76" s="13"/>
+      <c r="A76" s="35"/>
+      <c r="B76" s="38"/>
+      <c r="C76" s="43"/>
+      <c r="D76" s="10"/>
+      <c r="E76" s="11"/>
+      <c r="F76" s="46"/>
+      <c r="G76" s="46"/>
+      <c r="H76" s="12"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77" s="36"/>
-      <c r="B77" s="39"/>
-      <c r="C77" s="44"/>
-      <c r="D77" s="10"/>
-      <c r="E77" s="11"/>
-      <c r="F77" s="47"/>
-      <c r="G77" s="47"/>
-      <c r="H77" s="12"/>
+      <c r="A77" s="37"/>
+      <c r="B77" s="40"/>
+      <c r="C77" s="42"/>
+      <c r="D77" s="4"/>
+      <c r="E77" s="3"/>
+      <c r="F77" s="44"/>
+      <c r="G77" s="44"/>
+      <c r="H77" s="14"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" s="38"/>
+      <c r="A78" s="36"/>
       <c r="B78" s="41"/>
-      <c r="C78" s="43"/>
-      <c r="D78" s="4"/>
-      <c r="E78" s="3"/>
-      <c r="F78" s="45"/>
-      <c r="G78" s="45"/>
-      <c r="H78" s="14"/>
+      <c r="C78" s="41"/>
+      <c r="D78" s="6"/>
+      <c r="E78" s="27"/>
+      <c r="F78" s="47"/>
+      <c r="G78" s="41"/>
+      <c r="H78" s="13"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" s="37"/>
-      <c r="B79" s="42"/>
-      <c r="C79" s="42"/>
-      <c r="D79" s="6"/>
-      <c r="E79" s="27"/>
-      <c r="F79" s="48"/>
-      <c r="G79" s="42"/>
-      <c r="H79" s="13"/>
+      <c r="A79" s="35"/>
+      <c r="B79" s="38"/>
+      <c r="C79" s="43"/>
+      <c r="D79" s="10"/>
+      <c r="E79" s="11"/>
+      <c r="F79" s="46"/>
+      <c r="G79" s="46"/>
+      <c r="H79" s="12"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80" s="36"/>
-      <c r="B80" s="39"/>
-      <c r="C80" s="44"/>
-      <c r="D80" s="10"/>
-      <c r="E80" s="11"/>
-      <c r="F80" s="47"/>
-      <c r="G80" s="47"/>
-      <c r="H80" s="12"/>
+      <c r="A80" s="37"/>
+      <c r="B80" s="40"/>
+      <c r="C80" s="42"/>
+      <c r="D80" s="4"/>
+      <c r="E80" s="3"/>
+      <c r="F80" s="44"/>
+      <c r="G80" s="44"/>
+      <c r="H80" s="14"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81" s="38"/>
+      <c r="A81" s="36"/>
       <c r="B81" s="41"/>
-      <c r="C81" s="43"/>
-      <c r="D81" s="4"/>
-      <c r="E81" s="3"/>
-      <c r="F81" s="45"/>
-      <c r="G81" s="45"/>
-      <c r="H81" s="14"/>
+      <c r="C81" s="41"/>
+      <c r="D81" s="6"/>
+      <c r="E81" s="27"/>
+      <c r="F81" s="47"/>
+      <c r="G81" s="41"/>
+      <c r="H81" s="13"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" s="37"/>
-      <c r="B82" s="42"/>
-      <c r="C82" s="42"/>
-      <c r="D82" s="6"/>
-      <c r="E82" s="27"/>
-      <c r="F82" s="48"/>
-      <c r="G82" s="42"/>
-      <c r="H82" s="13"/>
+      <c r="A82" s="35"/>
+      <c r="B82" s="38"/>
+      <c r="C82" s="43"/>
+      <c r="D82" s="10"/>
+      <c r="E82" s="11"/>
+      <c r="F82" s="46"/>
+      <c r="G82" s="46"/>
+      <c r="H82" s="12"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="36"/>
-      <c r="B83" s="39"/>
-      <c r="C83" s="44"/>
-      <c r="D83" s="10"/>
-      <c r="E83" s="11"/>
+      <c r="B83" s="41"/>
+      <c r="C83" s="41"/>
+      <c r="D83" s="6"/>
+      <c r="E83" s="27"/>
       <c r="F83" s="47"/>
-      <c r="G83" s="47"/>
-      <c r="H83" s="12"/>
+      <c r="G83" s="41"/>
+      <c r="H83" s="13"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84" s="37"/>
-      <c r="B84" s="42"/>
-      <c r="C84" s="42"/>
-      <c r="D84" s="6"/>
-      <c r="E84" s="27"/>
-      <c r="F84" s="48"/>
-      <c r="G84" s="42"/>
-      <c r="H84" s="13"/>
+      <c r="A84" s="35"/>
+      <c r="B84" s="38"/>
+      <c r="C84" s="43"/>
+      <c r="D84" s="10"/>
+      <c r="E84" s="11"/>
+      <c r="F84" s="46"/>
+      <c r="G84" s="46"/>
+      <c r="H84" s="12"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85" s="36"/>
-      <c r="B85" s="39"/>
-      <c r="C85" s="44"/>
-      <c r="D85" s="10"/>
-      <c r="E85" s="11"/>
-      <c r="F85" s="47"/>
-      <c r="G85" s="47"/>
-      <c r="H85" s="12"/>
+      <c r="A85" s="37"/>
+      <c r="B85" s="40"/>
+      <c r="C85" s="42"/>
+      <c r="D85" s="4"/>
+      <c r="E85" s="3"/>
+      <c r="F85" s="44"/>
+      <c r="G85" s="44"/>
+      <c r="H85" s="14"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86" s="38"/>
-      <c r="B86" s="41"/>
-      <c r="C86" s="43"/>
+      <c r="A86" s="37"/>
+      <c r="B86" s="40"/>
+      <c r="C86" s="42"/>
       <c r="D86" s="4"/>
       <c r="E86" s="3"/>
-      <c r="F86" s="45"/>
-      <c r="G86" s="45"/>
+      <c r="F86" s="44"/>
+      <c r="G86" s="44"/>
       <c r="H86" s="14"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A87" s="38"/>
+      <c r="A87" s="36"/>
       <c r="B87" s="41"/>
-      <c r="C87" s="43"/>
-      <c r="D87" s="4"/>
-      <c r="E87" s="3"/>
-      <c r="F87" s="45"/>
-      <c r="G87" s="45"/>
-      <c r="H87" s="14"/>
+      <c r="C87" s="41"/>
+      <c r="D87" s="6"/>
+      <c r="E87" s="27"/>
+      <c r="F87" s="47"/>
+      <c r="G87" s="41"/>
+      <c r="H87" s="13"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88" s="37"/>
-      <c r="B88" s="42"/>
-      <c r="C88" s="42"/>
-      <c r="D88" s="6"/>
-      <c r="E88" s="27"/>
-      <c r="F88" s="48"/>
-      <c r="G88" s="42"/>
-      <c r="H88" s="13"/>
+      <c r="A88" s="35"/>
+      <c r="B88" s="38"/>
+      <c r="C88" s="43"/>
+      <c r="D88" s="10"/>
+      <c r="E88" s="11"/>
+      <c r="F88" s="46"/>
+      <c r="G88" s="46"/>
+      <c r="H88" s="12"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="36"/>
-      <c r="B89" s="39"/>
-      <c r="C89" s="44"/>
-      <c r="D89" s="10"/>
-      <c r="E89" s="11"/>
+      <c r="B89" s="41"/>
+      <c r="C89" s="41"/>
+      <c r="D89" s="6"/>
+      <c r="E89" s="27"/>
       <c r="F89" s="47"/>
-      <c r="G89" s="47"/>
-      <c r="H89" s="12"/>
+      <c r="G89" s="41"/>
+      <c r="H89" s="13"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90" s="37"/>
-      <c r="B90" s="42"/>
-      <c r="C90" s="42"/>
-      <c r="D90" s="6"/>
-      <c r="E90" s="27"/>
-      <c r="F90" s="48"/>
-      <c r="G90" s="42"/>
-      <c r="H90" s="13"/>
+      <c r="A90" s="35"/>
+      <c r="B90" s="38"/>
+      <c r="C90" s="43"/>
+      <c r="D90" s="10"/>
+      <c r="E90" s="11"/>
+      <c r="F90" s="46"/>
+      <c r="G90" s="46"/>
+      <c r="H90" s="12"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91" s="36"/>
-      <c r="B91" s="39"/>
-      <c r="C91" s="44"/>
-      <c r="D91" s="10"/>
-      <c r="E91" s="11"/>
-      <c r="F91" s="47"/>
-      <c r="G91" s="47"/>
-      <c r="H91" s="12"/>
+      <c r="A91" s="37"/>
+      <c r="B91" s="40"/>
+      <c r="C91" s="42"/>
+      <c r="D91" s="4"/>
+      <c r="E91" s="3"/>
+      <c r="F91" s="44"/>
+      <c r="G91" s="44"/>
+      <c r="H91" s="14"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A92" s="38"/>
+      <c r="A92" s="36"/>
       <c r="B92" s="41"/>
-      <c r="C92" s="43"/>
-      <c r="D92" s="4"/>
-      <c r="E92" s="3"/>
-      <c r="F92" s="45"/>
-      <c r="G92" s="45"/>
-      <c r="H92" s="14"/>
+      <c r="C92" s="41"/>
+      <c r="D92" s="6"/>
+      <c r="E92" s="27"/>
+      <c r="F92" s="47"/>
+      <c r="G92" s="41"/>
+      <c r="H92" s="13"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93" s="37"/>
-      <c r="B93" s="42"/>
-      <c r="C93" s="42"/>
-      <c r="D93" s="6"/>
-      <c r="E93" s="27"/>
-      <c r="F93" s="48"/>
-      <c r="G93" s="42"/>
-      <c r="H93" s="13"/>
+      <c r="A93" s="35"/>
+      <c r="B93" s="38"/>
+      <c r="C93" s="43"/>
+      <c r="D93" s="10"/>
+      <c r="E93" s="11"/>
+      <c r="F93" s="46"/>
+      <c r="G93" s="46"/>
+      <c r="H93" s="12"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="36"/>
-      <c r="B94" s="39"/>
-      <c r="C94" s="44"/>
-      <c r="D94" s="10"/>
-      <c r="E94" s="11"/>
+      <c r="B94" s="41"/>
+      <c r="C94" s="41"/>
+      <c r="D94" s="6"/>
+      <c r="E94" s="27"/>
       <c r="F94" s="47"/>
-      <c r="G94" s="47"/>
-      <c r="H94" s="12"/>
+      <c r="G94" s="41"/>
+      <c r="H94" s="13"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A95" s="37"/>
-      <c r="B95" s="42"/>
-      <c r="C95" s="42"/>
-      <c r="D95" s="6"/>
-      <c r="E95" s="27"/>
-      <c r="F95" s="48"/>
-      <c r="G95" s="42"/>
-      <c r="H95" s="13"/>
+      <c r="A95" s="35"/>
+      <c r="B95" s="38"/>
+      <c r="C95" s="43"/>
+      <c r="D95" s="10"/>
+      <c r="E95" s="11"/>
+      <c r="F95" s="46"/>
+      <c r="G95" s="46"/>
+      <c r="H95" s="12"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A96" s="36"/>
-      <c r="B96" s="39"/>
-      <c r="C96" s="44"/>
-      <c r="D96" s="10"/>
-      <c r="E96" s="11"/>
-      <c r="F96" s="47"/>
-      <c r="G96" s="47"/>
-      <c r="H96" s="12"/>
+      <c r="A96" s="37"/>
+      <c r="B96" s="40"/>
+      <c r="C96" s="42"/>
+      <c r="D96" s="4"/>
+      <c r="E96" s="3"/>
+      <c r="F96" s="44"/>
+      <c r="G96" s="44"/>
+      <c r="H96" s="14"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A97" s="38"/>
+      <c r="A97" s="36"/>
       <c r="B97" s="41"/>
-      <c r="C97" s="43"/>
-      <c r="D97" s="4"/>
-      <c r="E97" s="3"/>
-      <c r="F97" s="45"/>
-      <c r="G97" s="45"/>
-      <c r="H97" s="14"/>
+      <c r="C97" s="41"/>
+      <c r="D97" s="6"/>
+      <c r="E97" s="27"/>
+      <c r="F97" s="47"/>
+      <c r="G97" s="41"/>
+      <c r="H97" s="13"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A98" s="37"/>
-      <c r="B98" s="42"/>
-      <c r="C98" s="42"/>
-      <c r="D98" s="6"/>
-      <c r="E98" s="27"/>
-      <c r="F98" s="48"/>
-      <c r="G98" s="42"/>
-      <c r="H98" s="13"/>
+      <c r="A98" s="35"/>
+      <c r="B98" s="38"/>
+      <c r="C98" s="43"/>
+      <c r="D98" s="10"/>
+      <c r="E98" s="11"/>
+      <c r="F98" s="46"/>
+      <c r="G98" s="46"/>
+      <c r="H98" s="12"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="36"/>
-      <c r="B99" s="39"/>
-      <c r="C99" s="44"/>
-      <c r="D99" s="10"/>
-      <c r="E99" s="11"/>
+      <c r="B99" s="41"/>
+      <c r="C99" s="41"/>
+      <c r="D99" s="6"/>
+      <c r="E99" s="27"/>
       <c r="F99" s="47"/>
-      <c r="G99" s="47"/>
-      <c r="H99" s="12"/>
+      <c r="G99" s="41"/>
+      <c r="H99" s="13"/>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="37"/>
-      <c r="B100" s="42"/>
+      <c r="B100" s="40"/>
       <c r="C100" s="42"/>
-      <c r="D100" s="6"/>
-      <c r="E100" s="27"/>
-      <c r="F100" s="48"/>
-      <c r="G100" s="42"/>
-      <c r="H100" s="13"/>
+      <c r="D100" s="4"/>
+      <c r="E100" s="3"/>
+      <c r="F100" s="44"/>
+      <c r="G100" s="44"/>
+      <c r="H100" s="17"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A101" s="38"/>
-      <c r="B101" s="41"/>
-      <c r="C101" s="43"/>
+      <c r="A101" s="37"/>
+      <c r="B101" s="40"/>
+      <c r="C101" s="42"/>
       <c r="D101" s="4"/>
       <c r="E101" s="3"/>
-      <c r="F101" s="45"/>
-      <c r="G101" s="45"/>
+      <c r="F101" s="44"/>
+      <c r="G101" s="44"/>
       <c r="H101" s="17"/>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A102" s="38"/>
-      <c r="B102" s="41"/>
-      <c r="C102" s="43"/>
-      <c r="D102" s="4"/>
-      <c r="E102" s="3"/>
-      <c r="F102" s="45"/>
-      <c r="G102" s="45"/>
+      <c r="A102" s="37"/>
+      <c r="B102" s="42"/>
+      <c r="C102" s="42"/>
+      <c r="D102" s="2"/>
+      <c r="E102" s="19"/>
+      <c r="F102" s="48"/>
+      <c r="G102" s="42"/>
       <c r="H102" s="17"/>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A103" s="38"/>
-      <c r="B103" s="43"/>
+      <c r="A103" s="35"/>
+      <c r="B103" s="38"/>
       <c r="C103" s="43"/>
-      <c r="D103" s="2"/>
-      <c r="E103" s="19"/>
-      <c r="F103" s="49"/>
-      <c r="G103" s="43"/>
-      <c r="H103" s="17"/>
+      <c r="D103" s="10"/>
+      <c r="E103" s="11"/>
+      <c r="F103" s="46"/>
+      <c r="G103" s="46"/>
+      <c r="H103" s="12"/>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A104" s="36"/>
-      <c r="B104" s="39"/>
-      <c r="C104" s="44"/>
-      <c r="D104" s="10"/>
-      <c r="E104" s="11"/>
-      <c r="F104" s="47"/>
-      <c r="G104" s="47"/>
-      <c r="H104" s="12"/>
+      <c r="A104" s="37"/>
+      <c r="B104" s="40"/>
+      <c r="C104" s="42"/>
+      <c r="D104" s="4"/>
+      <c r="E104" s="3"/>
+      <c r="F104" s="44"/>
+      <c r="G104" s="44"/>
+      <c r="H104" s="14"/>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A105" s="38"/>
-      <c r="B105" s="41"/>
-      <c r="C105" s="43"/>
-      <c r="D105" s="4"/>
-      <c r="E105" s="3"/>
+      <c r="A105" s="36"/>
+      <c r="B105" s="39"/>
+      <c r="C105" s="41"/>
+      <c r="D105" s="8"/>
+      <c r="E105" s="7"/>
       <c r="F105" s="45"/>
       <c r="G105" s="45"/>
-      <c r="H105" s="14"/>
+      <c r="H105" s="13"/>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A106" s="37"/>
-      <c r="B106" s="40"/>
-      <c r="C106" s="42"/>
-      <c r="D106" s="8"/>
-      <c r="E106" s="7"/>
+      <c r="A106" s="35"/>
+      <c r="B106" s="38"/>
+      <c r="C106" s="43"/>
+      <c r="D106" s="10"/>
+      <c r="E106" s="11"/>
       <c r="F106" s="46"/>
       <c r="G106" s="46"/>
-      <c r="H106" s="13"/>
+      <c r="H106" s="12"/>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="36"/>
       <c r="B107" s="39"/>
-      <c r="C107" s="44"/>
-      <c r="D107" s="10"/>
-      <c r="E107" s="11"/>
-      <c r="F107" s="47"/>
-      <c r="G107" s="47"/>
-      <c r="H107" s="12"/>
+      <c r="C107" s="41"/>
+      <c r="D107" s="8"/>
+      <c r="E107" s="7"/>
+      <c r="F107" s="45"/>
+      <c r="G107" s="45"/>
+      <c r="H107" s="13"/>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A108" s="37"/>
-      <c r="B108" s="40"/>
-      <c r="C108" s="42"/>
-      <c r="D108" s="8"/>
-      <c r="E108" s="7"/>
+      <c r="A108" s="35"/>
+      <c r="B108" s="38"/>
+      <c r="C108" s="43"/>
+      <c r="D108" s="10"/>
+      <c r="E108" s="11"/>
       <c r="F108" s="46"/>
       <c r="G108" s="46"/>
-      <c r="H108" s="13"/>
+      <c r="H108" s="12"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A109" s="36"/>
-      <c r="B109" s="39"/>
-      <c r="C109" s="44"/>
-      <c r="D109" s="10"/>
-      <c r="E109" s="11"/>
-      <c r="F109" s="47"/>
-      <c r="G109" s="47"/>
-      <c r="H109" s="12"/>
+      <c r="A109" s="37"/>
+      <c r="B109" s="40"/>
+      <c r="C109" s="42"/>
+      <c r="D109" s="4"/>
+      <c r="E109" s="3"/>
+      <c r="F109" s="44"/>
+      <c r="G109" s="44"/>
+      <c r="H109" s="14"/>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A110" s="38"/>
-      <c r="B110" s="41"/>
-      <c r="C110" s="43"/>
-      <c r="D110" s="4"/>
-      <c r="E110" s="3"/>
+      <c r="A110" s="36"/>
+      <c r="B110" s="39"/>
+      <c r="C110" s="41"/>
+      <c r="D110" s="8"/>
+      <c r="E110" s="7"/>
       <c r="F110" s="45"/>
       <c r="G110" s="45"/>
-      <c r="H110" s="14"/>
+      <c r="H110" s="13"/>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A111" s="37"/>
-      <c r="B111" s="40"/>
-      <c r="C111" s="42"/>
-      <c r="D111" s="8"/>
-      <c r="E111" s="7"/>
+      <c r="A111" s="35"/>
+      <c r="B111" s="38"/>
+      <c r="C111" s="43"/>
+      <c r="D111" s="10"/>
+      <c r="E111" s="11"/>
       <c r="F111" s="46"/>
       <c r="G111" s="46"/>
-      <c r="H111" s="13"/>
+      <c r="H111" s="12"/>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A112" s="36"/>
-      <c r="B112" s="39"/>
-      <c r="C112" s="44"/>
-      <c r="D112" s="10"/>
-      <c r="E112" s="11"/>
-      <c r="F112" s="47"/>
-      <c r="G112" s="47"/>
-      <c r="H112" s="12"/>
+      <c r="A112" s="37"/>
+      <c r="B112" s="40"/>
+      <c r="C112" s="42"/>
+      <c r="D112" s="4"/>
+      <c r="E112" s="3"/>
+      <c r="F112" s="44"/>
+      <c r="G112" s="44"/>
+      <c r="H112" s="14"/>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A113" s="38"/>
-      <c r="B113" s="41"/>
-      <c r="C113" s="43"/>
-      <c r="D113" s="4"/>
-      <c r="E113" s="3"/>
+      <c r="A113" s="36"/>
+      <c r="B113" s="39"/>
+      <c r="C113" s="41"/>
+      <c r="D113" s="8"/>
+      <c r="E113" s="7"/>
       <c r="F113" s="45"/>
       <c r="G113" s="45"/>
-      <c r="H113" s="14"/>
+      <c r="H113" s="13"/>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A114" s="37"/>
-      <c r="B114" s="40"/>
-      <c r="C114" s="42"/>
-      <c r="D114" s="8"/>
-      <c r="E114" s="7"/>
+      <c r="A114" s="35"/>
+      <c r="B114" s="38"/>
+      <c r="C114" s="43"/>
+      <c r="D114" s="10"/>
+      <c r="E114" s="11"/>
       <c r="F114" s="46"/>
       <c r="G114" s="46"/>
-      <c r="H114" s="13"/>
+      <c r="H114" s="12"/>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A115" s="36"/>
-      <c r="B115" s="39"/>
-      <c r="C115" s="44"/>
-      <c r="D115" s="10"/>
-      <c r="E115" s="11"/>
-      <c r="F115" s="47"/>
-      <c r="G115" s="47"/>
-      <c r="H115" s="12"/>
+      <c r="A115" s="37"/>
+      <c r="B115" s="40"/>
+      <c r="C115" s="42"/>
+      <c r="D115" s="4"/>
+      <c r="E115" s="3"/>
+      <c r="F115" s="44"/>
+      <c r="G115" s="44"/>
+      <c r="H115" s="14"/>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A116" s="38"/>
-      <c r="B116" s="41"/>
-      <c r="C116" s="43"/>
-      <c r="D116" s="4"/>
-      <c r="E116" s="3"/>
+      <c r="A116" s="36"/>
+      <c r="B116" s="39"/>
+      <c r="C116" s="41"/>
+      <c r="D116" s="8"/>
+      <c r="E116" s="7"/>
       <c r="F116" s="45"/>
       <c r="G116" s="45"/>
-      <c r="H116" s="14"/>
+      <c r="H116" s="13"/>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A117" s="37"/>
-      <c r="B117" s="40"/>
-      <c r="C117" s="42"/>
-      <c r="D117" s="8"/>
-      <c r="E117" s="7"/>
+      <c r="A117" s="35"/>
+      <c r="B117" s="38"/>
+      <c r="C117" s="43"/>
+      <c r="D117" s="10"/>
+      <c r="E117" s="11"/>
       <c r="F117" s="46"/>
       <c r="G117" s="46"/>
-      <c r="H117" s="13"/>
+      <c r="H117" s="12"/>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="36"/>
       <c r="B118" s="39"/>
-      <c r="C118" s="44"/>
-      <c r="D118" s="10"/>
-      <c r="E118" s="11"/>
-      <c r="F118" s="47"/>
-      <c r="G118" s="47"/>
-      <c r="H118" s="12"/>
+      <c r="C118" s="41"/>
+      <c r="D118" s="8"/>
+      <c r="E118" s="7"/>
+      <c r="F118" s="45"/>
+      <c r="G118" s="45"/>
+      <c r="H118" s="13"/>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A119" s="37"/>
-      <c r="B119" s="40"/>
-      <c r="C119" s="42"/>
-      <c r="D119" s="8"/>
-      <c r="E119" s="7"/>
+      <c r="A119" s="35"/>
+      <c r="B119" s="38"/>
+      <c r="C119" s="43"/>
+      <c r="D119" s="10"/>
+      <c r="E119" s="11"/>
       <c r="F119" s="46"/>
       <c r="G119" s="46"/>
-      <c r="H119" s="13"/>
+      <c r="H119" s="12"/>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A120" s="36"/>
-      <c r="B120" s="39"/>
-      <c r="C120" s="44"/>
-      <c r="D120" s="10"/>
-      <c r="E120" s="11"/>
-      <c r="F120" s="47"/>
-      <c r="G120" s="47"/>
-      <c r="H120" s="12"/>
+      <c r="A120" s="37"/>
+      <c r="B120" s="40"/>
+      <c r="C120" s="42"/>
+      <c r="D120" s="4"/>
+      <c r="E120" s="3"/>
+      <c r="F120" s="44"/>
+      <c r="G120" s="44"/>
+      <c r="H120" s="14"/>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A121" s="38"/>
-      <c r="B121" s="41"/>
-      <c r="C121" s="43"/>
-      <c r="D121" s="4"/>
-      <c r="E121" s="3"/>
+      <c r="A121" s="36"/>
+      <c r="B121" s="39"/>
+      <c r="C121" s="41"/>
+      <c r="D121" s="8"/>
+      <c r="E121" s="7"/>
       <c r="F121" s="45"/>
       <c r="G121" s="45"/>
-      <c r="H121" s="14"/>
+      <c r="H121" s="13"/>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A122" s="37"/>
-      <c r="B122" s="40"/>
-      <c r="C122" s="42"/>
-      <c r="D122" s="8"/>
-      <c r="E122" s="7"/>
+      <c r="A122" s="35"/>
+      <c r="B122" s="38"/>
+      <c r="C122" s="43"/>
+      <c r="D122" s="10"/>
+      <c r="E122" s="11"/>
       <c r="F122" s="46"/>
       <c r="G122" s="46"/>
-      <c r="H122" s="13"/>
+      <c r="H122" s="12"/>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A123" s="36"/>
-      <c r="B123" s="39"/>
-      <c r="C123" s="44"/>
-      <c r="D123" s="10"/>
-      <c r="E123" s="11"/>
-      <c r="F123" s="47"/>
-      <c r="G123" s="47"/>
-      <c r="H123" s="12"/>
+      <c r="A123" s="37"/>
+      <c r="B123" s="40"/>
+      <c r="C123" s="42"/>
+      <c r="D123" s="4"/>
+      <c r="E123" s="3"/>
+      <c r="F123" s="44"/>
+      <c r="G123" s="44"/>
+      <c r="H123" s="14"/>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A124" s="38"/>
-      <c r="B124" s="41"/>
-      <c r="C124" s="43"/>
-      <c r="D124" s="4"/>
-      <c r="E124" s="3"/>
+      <c r="A124" s="36"/>
+      <c r="B124" s="39"/>
+      <c r="C124" s="41"/>
+      <c r="D124" s="8"/>
+      <c r="E124" s="7"/>
       <c r="F124" s="45"/>
       <c r="G124" s="45"/>
-      <c r="H124" s="14"/>
+      <c r="H124" s="13"/>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A125" s="37"/>
-      <c r="B125" s="40"/>
-      <c r="C125" s="42"/>
-      <c r="D125" s="8"/>
-      <c r="E125" s="7"/>
+      <c r="A125" s="35"/>
+      <c r="B125" s="38"/>
+      <c r="C125" s="43"/>
+      <c r="D125" s="10"/>
+      <c r="E125" s="11"/>
       <c r="F125" s="46"/>
       <c r="G125" s="46"/>
-      <c r="H125" s="13"/>
+      <c r="H125" s="12"/>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A126" s="36"/>
-      <c r="B126" s="39"/>
-      <c r="C126" s="44"/>
-      <c r="D126" s="10"/>
-      <c r="E126" s="11"/>
-      <c r="F126" s="47"/>
-      <c r="G126" s="47"/>
-      <c r="H126" s="12"/>
+      <c r="A126" s="37"/>
+      <c r="B126" s="40"/>
+      <c r="C126" s="42"/>
+      <c r="D126" s="4"/>
+      <c r="E126" s="3"/>
+      <c r="F126" s="44"/>
+      <c r="G126" s="44"/>
+      <c r="H126" s="14"/>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A127" s="38"/>
-      <c r="B127" s="41"/>
-      <c r="C127" s="43"/>
-      <c r="D127" s="4"/>
-      <c r="E127" s="3"/>
+      <c r="A127" s="36"/>
+      <c r="B127" s="39"/>
+      <c r="C127" s="41"/>
+      <c r="D127" s="8"/>
+      <c r="E127" s="7"/>
       <c r="F127" s="45"/>
       <c r="G127" s="45"/>
-      <c r="H127" s="14"/>
+      <c r="H127" s="13"/>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A128" s="37"/>
-      <c r="B128" s="40"/>
-      <c r="C128" s="42"/>
-      <c r="D128" s="8"/>
-      <c r="E128" s="7"/>
+      <c r="A128" s="35"/>
+      <c r="B128" s="38"/>
+      <c r="C128" s="43"/>
+      <c r="D128" s="10"/>
+      <c r="E128" s="11"/>
       <c r="F128" s="46"/>
       <c r="G128" s="46"/>
-      <c r="H128" s="13"/>
+      <c r="H128" s="12"/>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A129" s="36"/>
-      <c r="B129" s="39"/>
-      <c r="C129" s="44"/>
-      <c r="D129" s="10"/>
-      <c r="E129" s="11"/>
-      <c r="F129" s="47"/>
-      <c r="G129" s="47"/>
-      <c r="H129" s="12"/>
+      <c r="A129" s="37"/>
+      <c r="B129" s="40"/>
+      <c r="C129" s="42"/>
+      <c r="D129" s="4"/>
+      <c r="E129" s="3"/>
+      <c r="F129" s="44"/>
+      <c r="G129" s="44"/>
+      <c r="H129" s="14"/>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A130" s="38"/>
-      <c r="B130" s="41"/>
-      <c r="C130" s="43"/>
-      <c r="D130" s="4"/>
-      <c r="E130" s="3"/>
+      <c r="A130" s="36"/>
+      <c r="B130" s="39"/>
+      <c r="C130" s="41"/>
+      <c r="D130" s="8"/>
+      <c r="E130" s="7"/>
       <c r="F130" s="45"/>
       <c r="G130" s="45"/>
-      <c r="H130" s="14"/>
+      <c r="H130" s="13"/>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A131" s="37"/>
-      <c r="B131" s="40"/>
-      <c r="C131" s="42"/>
-      <c r="D131" s="8"/>
-      <c r="E131" s="7"/>
+      <c r="A131" s="35"/>
+      <c r="B131" s="38"/>
+      <c r="C131" s="43"/>
+      <c r="D131" s="10"/>
+      <c r="E131" s="11"/>
       <c r="F131" s="46"/>
       <c r="G131" s="46"/>
-      <c r="H131" s="13"/>
+      <c r="H131" s="12"/>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A132" s="36"/>
-      <c r="B132" s="39"/>
-      <c r="C132" s="44"/>
-      <c r="D132" s="10"/>
-      <c r="E132" s="11"/>
-      <c r="F132" s="47"/>
-      <c r="G132" s="47"/>
-      <c r="H132" s="12"/>
+      <c r="A132" s="37"/>
+      <c r="B132" s="40"/>
+      <c r="C132" s="42"/>
+      <c r="D132" s="4"/>
+      <c r="E132" s="3"/>
+      <c r="F132" s="44"/>
+      <c r="G132" s="44"/>
+      <c r="H132" s="14"/>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A133" s="38"/>
-      <c r="B133" s="41"/>
-      <c r="C133" s="43"/>
-      <c r="D133" s="4"/>
-      <c r="E133" s="3"/>
+      <c r="A133" s="36"/>
+      <c r="B133" s="39"/>
+      <c r="C133" s="41"/>
+      <c r="D133" s="8"/>
+      <c r="E133" s="7"/>
       <c r="F133" s="45"/>
       <c r="G133" s="45"/>
-      <c r="H133" s="14"/>
+      <c r="H133" s="13"/>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A134" s="37"/>
-      <c r="B134" s="40"/>
-      <c r="C134" s="42"/>
-      <c r="D134" s="8"/>
-      <c r="E134" s="7"/>
+      <c r="A134" s="35"/>
+      <c r="B134" s="38"/>
+      <c r="C134" s="43"/>
+      <c r="D134" s="10"/>
+      <c r="E134" s="11"/>
       <c r="F134" s="46"/>
       <c r="G134" s="46"/>
-      <c r="H134" s="13"/>
+      <c r="H134" s="12"/>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A135" s="36"/>
-      <c r="B135" s="39"/>
-      <c r="C135" s="44"/>
-      <c r="D135" s="10"/>
-      <c r="E135" s="11"/>
-      <c r="F135" s="47"/>
-      <c r="G135" s="47"/>
-      <c r="H135" s="12"/>
+      <c r="A135" s="37"/>
+      <c r="B135" s="40"/>
+      <c r="C135" s="42"/>
+      <c r="D135" s="4"/>
+      <c r="E135" s="3"/>
+      <c r="F135" s="44"/>
+      <c r="G135" s="44"/>
+      <c r="H135" s="14"/>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A136" s="38"/>
-      <c r="B136" s="41"/>
-      <c r="C136" s="43"/>
+      <c r="A136" s="37"/>
+      <c r="B136" s="40"/>
+      <c r="C136" s="42"/>
       <c r="D136" s="4"/>
       <c r="E136" s="3"/>
-      <c r="F136" s="45"/>
-      <c r="G136" s="45"/>
+      <c r="F136" s="44"/>
+      <c r="G136" s="44"/>
       <c r="H136" s="14"/>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A137" s="38"/>
-      <c r="B137" s="41"/>
+      <c r="A137" s="35"/>
+      <c r="B137" s="38"/>
       <c r="C137" s="43"/>
-      <c r="D137" s="4"/>
-      <c r="E137" s="3"/>
-      <c r="F137" s="45"/>
-      <c r="G137" s="45"/>
-      <c r="H137" s="14"/>
+      <c r="D137" s="10"/>
+      <c r="E137" s="11"/>
+      <c r="F137" s="46"/>
+      <c r="G137" s="46"/>
+      <c r="H137" s="12"/>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A138" s="36"/>
-      <c r="B138" s="39"/>
-      <c r="C138" s="44"/>
-      <c r="D138" s="10"/>
-      <c r="E138" s="11"/>
-      <c r="F138" s="47"/>
-      <c r="G138" s="47"/>
-      <c r="H138" s="12"/>
+      <c r="A138" s="37"/>
+      <c r="B138" s="40"/>
+      <c r="C138" s="42"/>
+      <c r="D138" s="4"/>
+      <c r="E138" s="3"/>
+      <c r="F138" s="44"/>
+      <c r="G138" s="44"/>
+      <c r="H138" s="14"/>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A139" s="38"/>
-      <c r="B139" s="41"/>
-      <c r="C139" s="43"/>
+      <c r="A139" s="37"/>
+      <c r="B139" s="40"/>
+      <c r="C139" s="42"/>
       <c r="D139" s="4"/>
       <c r="E139" s="3"/>
-      <c r="F139" s="45"/>
-      <c r="G139" s="45"/>
+      <c r="F139" s="44"/>
+      <c r="G139" s="44"/>
       <c r="H139" s="14"/>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A140" s="38"/>
-      <c r="B140" s="41"/>
+      <c r="A140" s="35"/>
+      <c r="B140" s="54"/>
       <c r="C140" s="43"/>
-      <c r="D140" s="4"/>
-      <c r="E140" s="3"/>
-      <c r="F140" s="45"/>
-      <c r="G140" s="45"/>
-      <c r="H140" s="14"/>
+      <c r="D140" s="57"/>
+      <c r="E140" s="11"/>
+      <c r="F140" s="53"/>
+      <c r="G140" s="46"/>
+      <c r="H140" s="12"/>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A141" s="36"/>
+      <c r="A141" s="37"/>
       <c r="B141" s="55"/>
-      <c r="C141" s="44"/>
+      <c r="C141" s="42"/>
       <c r="D141" s="58"/>
-      <c r="E141" s="11"/>
-      <c r="F141" s="54"/>
-      <c r="G141" s="47"/>
-      <c r="H141" s="12"/>
+      <c r="E141" s="3"/>
+      <c r="F141" s="44"/>
+      <c r="G141" s="44"/>
+      <c r="H141" s="14"/>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A142" s="38"/>
+      <c r="A142" s="36"/>
       <c r="B142" s="56"/>
-      <c r="C142" s="43"/>
+      <c r="C142" s="41"/>
       <c r="D142" s="59"/>
-      <c r="E142" s="3"/>
+      <c r="E142" s="7"/>
       <c r="F142" s="45"/>
       <c r="G142" s="45"/>
-      <c r="H142" s="14"/>
+      <c r="H142" s="13"/>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A143" s="37"/>
-      <c r="B143" s="57"/>
-      <c r="C143" s="42"/>
-      <c r="D143" s="60"/>
-      <c r="E143" s="7"/>
-      <c r="F143" s="46"/>
-      <c r="G143" s="46"/>
-      <c r="H143" s="13"/>
+      <c r="A143" s="35"/>
+      <c r="B143" s="54"/>
+      <c r="C143" s="43"/>
+      <c r="D143" s="57"/>
+      <c r="E143" s="11"/>
+      <c r="F143" s="53"/>
+      <c r="G143" s="44"/>
+      <c r="H143" s="12"/>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" s="36"/>
-      <c r="B144" s="55"/>
-      <c r="C144" s="44"/>
-      <c r="D144" s="58"/>
-      <c r="E144" s="11"/>
-      <c r="F144" s="54"/>
+      <c r="B144" s="56"/>
+      <c r="C144" s="41"/>
+      <c r="D144" s="59"/>
+      <c r="E144" s="7"/>
+      <c r="F144" s="45"/>
       <c r="G144" s="45"/>
-      <c r="H144" s="12"/>
+      <c r="H144" s="13"/>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A145" s="37"/>
-      <c r="B145" s="57"/>
-      <c r="C145" s="42"/>
-      <c r="D145" s="60"/>
-      <c r="E145" s="7"/>
-      <c r="F145" s="46"/>
-      <c r="G145" s="46"/>
-      <c r="H145" s="13"/>
+      <c r="A145" s="35"/>
+      <c r="B145" s="54"/>
+      <c r="C145" s="43"/>
+      <c r="D145" s="57"/>
+      <c r="E145" s="11"/>
+      <c r="F145" s="53"/>
+      <c r="G145" s="44"/>
+      <c r="H145" s="12"/>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" s="36"/>
-      <c r="B146" s="55"/>
-      <c r="C146" s="44"/>
-      <c r="D146" s="58"/>
-      <c r="E146" s="11"/>
-      <c r="F146" s="54"/>
+      <c r="B146" s="56"/>
+      <c r="C146" s="41"/>
+      <c r="D146" s="59"/>
+      <c r="E146" s="7"/>
+      <c r="F146" s="45"/>
       <c r="G146" s="45"/>
-      <c r="H146" s="12"/>
+      <c r="H146" s="13"/>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A147" s="37"/>
-      <c r="B147" s="57"/>
-      <c r="C147" s="42"/>
-      <c r="D147" s="60"/>
-      <c r="E147" s="7"/>
-      <c r="F147" s="46"/>
-      <c r="G147" s="46"/>
-      <c r="H147" s="13"/>
+      <c r="B147" s="1"/>
+      <c r="C147" s="2"/>
+      <c r="D147" s="4"/>
+      <c r="E147" s="3"/>
+      <c r="F147" s="4"/>
+      <c r="G147" s="4"/>
+      <c r="H147" s="17"/>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B148" s="1"/>
@@ -2904,20 +2955,12 @@
       <c r="G171" s="4"/>
       <c r="H171" s="17"/>
     </row>
-    <row r="172" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B172" s="1"/>
-      <c r="C172" s="2"/>
-      <c r="D172" s="4"/>
-      <c r="E172" s="3"/>
-      <c r="F172" s="4"/>
-      <c r="G172" s="4"/>
-      <c r="H172" s="17"/>
-    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="H24" r:id="rId1"/>
+    <hyperlink ref="H31" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId2"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId3"/>
 </worksheet>
 </file>
--- a/TS Jatai Working/TTD Krama PaaraayaNam-Kramam.xlsx
+++ b/TS Jatai Working/TTD Krama PaaraayaNam-Kramam.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="72">
   <si>
     <t>Date</t>
   </si>
@@ -203,6 +203,33 @@
   </si>
   <si>
     <t>1.8.1.1</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=df5jX9jp2bI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8.12.3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8.13.1 </t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=mRbPIGyIcM8</t>
+  </si>
+  <si>
+    <t>31 min 37 sec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8.22.5 </t>
+  </si>
+  <si>
+    <t>2.1.1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1.3.2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1.3.3 </t>
   </si>
 </sst>
 </file>
@@ -899,8 +926,8 @@
   <dimension ref="A1:L171"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E34" sqref="E34"/>
+      <pane ySplit="4" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -1596,9 +1623,15 @@
       <c r="E33" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F33" s="46"/>
-      <c r="G33" s="46"/>
-      <c r="H33" s="12"/>
+      <c r="F33" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="G33" s="70" t="s">
+        <v>13</v>
+      </c>
+      <c r="H33" s="12" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="37"/>
@@ -1611,44 +1644,84 @@
       <c r="H34" s="14"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="36"/>
-      <c r="B35" s="41"/>
-      <c r="C35" s="41"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="27"/>
-      <c r="F35" s="47"/>
-      <c r="G35" s="41"/>
-      <c r="H35" s="13"/>
+      <c r="A35" s="35">
+        <v>14</v>
+      </c>
+      <c r="B35" s="54">
+        <v>44459</v>
+      </c>
+      <c r="C35" s="35">
+        <v>2</v>
+      </c>
+      <c r="D35" s="57" t="s">
+        <v>65</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F35" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="G35" s="60" t="s">
+        <v>67</v>
+      </c>
+      <c r="H35" s="12" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="35"/>
-      <c r="B36" s="38"/>
-      <c r="C36" s="43"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="46"/>
-      <c r="G36" s="46"/>
-      <c r="H36" s="12"/>
+      <c r="A36" s="37"/>
+      <c r="B36" s="55">
+        <v>44459</v>
+      </c>
+      <c r="C36" s="37">
+        <v>1</v>
+      </c>
+      <c r="D36" s="58" t="s">
+        <v>69</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G36" s="70" t="s">
+        <v>13</v>
+      </c>
+      <c r="H36" s="14" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="36"/>
-      <c r="B37" s="41"/>
-      <c r="C37" s="41"/>
-      <c r="D37" s="6"/>
+      <c r="B37" s="36"/>
+      <c r="C37" s="36"/>
+      <c r="D37" s="66"/>
       <c r="E37" s="27"/>
       <c r="F37" s="47"/>
-      <c r="G37" s="41"/>
+      <c r="G37" s="36"/>
       <c r="H37" s="13"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="35"/>
-      <c r="B38" s="38"/>
-      <c r="C38" s="43"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="46"/>
-      <c r="G38" s="46"/>
-      <c r="H38" s="12"/>
+      <c r="A38" s="37">
+        <v>15</v>
+      </c>
+      <c r="B38" s="40">
+        <v>44460</v>
+      </c>
+      <c r="C38" s="42">
+        <v>2</v>
+      </c>
+      <c r="D38" s="57" t="s">
+        <v>71</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F38" s="44"/>
+      <c r="G38" s="44"/>
+      <c r="H38" s="14"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="37"/>

--- a/TS Jatai Working/TTD Krama PaaraayaNam-Kramam.xlsx
+++ b/TS Jatai Working/TTD Krama PaaraayaNam-Kramam.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="75">
   <si>
     <t>Date</t>
   </si>
@@ -230,6 +230,15 @@
   </si>
   <si>
     <t xml:space="preserve">2.1.3.3 </t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=yqCpYMeka90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1.7.7 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1.8.1 </t>
   </si>
 </sst>
 </file>
@@ -923,11 +932,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L171"/>
+  <dimension ref="A1:L170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E39" sqref="E39"/>
+      <pane ySplit="4" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -1719,469 +1728,485 @@
       <c r="E38" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F38" s="44"/>
-      <c r="G38" s="44"/>
-      <c r="H38" s="14"/>
+      <c r="F38" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="G38" s="70" t="s">
+        <v>13</v>
+      </c>
+      <c r="H38" s="14" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="37"/>
-      <c r="B39" s="40"/>
-      <c r="C39" s="42"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="44"/>
-      <c r="G39" s="44"/>
-      <c r="H39" s="14"/>
+      <c r="A39" s="36"/>
+      <c r="B39" s="41"/>
+      <c r="C39" s="41"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="27"/>
+      <c r="F39" s="47"/>
+      <c r="G39" s="41"/>
+      <c r="H39" s="13"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="36"/>
-      <c r="B40" s="41"/>
-      <c r="C40" s="41"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="27"/>
-      <c r="F40" s="47"/>
-      <c r="G40" s="41"/>
-      <c r="H40" s="13"/>
+      <c r="A40" s="35">
+        <v>16</v>
+      </c>
+      <c r="B40" s="38">
+        <v>44461</v>
+      </c>
+      <c r="C40" s="43">
+        <v>3</v>
+      </c>
+      <c r="D40" s="57" t="s">
+        <v>74</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F40" s="46"/>
+      <c r="G40" s="46"/>
+      <c r="H40" s="12"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="35"/>
-      <c r="B41" s="38"/>
-      <c r="C41" s="43"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="46"/>
-      <c r="G41" s="46"/>
-      <c r="H41" s="12"/>
+      <c r="A41" s="37"/>
+      <c r="B41" s="40"/>
+      <c r="C41" s="42"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="44"/>
+      <c r="G41" s="44"/>
+      <c r="H41" s="14"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="37"/>
-      <c r="B42" s="40"/>
-      <c r="C42" s="42"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="44"/>
-      <c r="G42" s="44"/>
-      <c r="H42" s="14"/>
+      <c r="A42" s="36"/>
+      <c r="B42" s="41"/>
+      <c r="C42" s="41"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="27"/>
+      <c r="F42" s="47"/>
+      <c r="G42" s="41"/>
+      <c r="H42" s="13"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="36"/>
-      <c r="B43" s="41"/>
-      <c r="C43" s="41"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="27"/>
-      <c r="F43" s="47"/>
-      <c r="G43" s="41"/>
-      <c r="H43" s="13"/>
+      <c r="A43" s="35"/>
+      <c r="B43" s="38"/>
+      <c r="C43" s="43"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="46"/>
+      <c r="G43" s="46"/>
+      <c r="H43" s="23"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="35"/>
-      <c r="B44" s="38"/>
-      <c r="C44" s="43"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="11"/>
-      <c r="F44" s="46"/>
-      <c r="G44" s="46"/>
-      <c r="H44" s="23"/>
+      <c r="A44" s="36"/>
+      <c r="B44" s="41"/>
+      <c r="C44" s="41"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="27"/>
+      <c r="F44" s="47"/>
+      <c r="G44" s="41"/>
+      <c r="H44" s="13"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="36"/>
-      <c r="B45" s="41"/>
-      <c r="C45" s="41"/>
-      <c r="D45" s="6"/>
-      <c r="E45" s="27"/>
-      <c r="F45" s="47"/>
-      <c r="G45" s="41"/>
-      <c r="H45" s="13"/>
+      <c r="A45" s="35"/>
+      <c r="B45" s="38"/>
+      <c r="C45" s="43"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="46"/>
+      <c r="G45" s="46"/>
+      <c r="H45" s="23"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="35"/>
-      <c r="B46" s="38"/>
-      <c r="C46" s="43"/>
-      <c r="D46" s="10"/>
-      <c r="E46" s="11"/>
-      <c r="F46" s="46"/>
-      <c r="G46" s="46"/>
-      <c r="H46" s="23"/>
+      <c r="A46" s="37"/>
+      <c r="B46" s="40"/>
+      <c r="C46" s="42"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="44"/>
+      <c r="G46" s="44"/>
+      <c r="H46" s="5"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="37"/>
-      <c r="B47" s="40"/>
-      <c r="C47" s="42"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="44"/>
-      <c r="G47" s="44"/>
-      <c r="H47" s="5"/>
+      <c r="A47" s="36"/>
+      <c r="B47" s="41"/>
+      <c r="C47" s="41"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="27"/>
+      <c r="F47" s="47"/>
+      <c r="G47" s="41"/>
+      <c r="H47" s="13"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="36"/>
-      <c r="B48" s="41"/>
-      <c r="C48" s="41"/>
-      <c r="D48" s="6"/>
-      <c r="E48" s="27"/>
-      <c r="F48" s="47"/>
-      <c r="G48" s="41"/>
-      <c r="H48" s="13"/>
+      <c r="A48" s="35"/>
+      <c r="B48" s="38"/>
+      <c r="C48" s="43"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="46"/>
+      <c r="G48" s="46"/>
+      <c r="H48" s="12"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="35"/>
-      <c r="B49" s="38"/>
-      <c r="C49" s="43"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="11"/>
-      <c r="F49" s="46"/>
-      <c r="G49" s="46"/>
-      <c r="H49" s="12"/>
+      <c r="A49" s="36"/>
+      <c r="B49" s="41"/>
+      <c r="C49" s="41"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="27"/>
+      <c r="F49" s="47"/>
+      <c r="G49" s="41"/>
+      <c r="H49" s="13"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="36"/>
-      <c r="B50" s="41"/>
-      <c r="C50" s="41"/>
-      <c r="D50" s="6"/>
-      <c r="E50" s="27"/>
-      <c r="F50" s="47"/>
-      <c r="G50" s="41"/>
-      <c r="H50" s="13"/>
+      <c r="A50" s="35"/>
+      <c r="B50" s="38"/>
+      <c r="C50" s="43"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="46"/>
+      <c r="G50" s="46"/>
+      <c r="H50" s="12"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="35"/>
-      <c r="B51" s="38"/>
-      <c r="C51" s="43"/>
-      <c r="D51" s="10"/>
-      <c r="E51" s="11"/>
-      <c r="F51" s="46"/>
-      <c r="G51" s="46"/>
-      <c r="H51" s="12"/>
+      <c r="A51" s="37"/>
+      <c r="B51" s="40"/>
+      <c r="C51" s="42"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="44"/>
+      <c r="G51" s="44"/>
+      <c r="H51" s="14"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="37"/>
-      <c r="B52" s="40"/>
-      <c r="C52" s="42"/>
-      <c r="D52" s="4"/>
-      <c r="E52" s="3"/>
-      <c r="F52" s="44"/>
-      <c r="G52" s="44"/>
-      <c r="H52" s="14"/>
+      <c r="A52" s="36"/>
+      <c r="B52" s="41"/>
+      <c r="C52" s="41"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="27"/>
+      <c r="F52" s="47"/>
+      <c r="G52" s="41"/>
+      <c r="H52" s="13"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="36"/>
-      <c r="B53" s="41"/>
-      <c r="C53" s="41"/>
-      <c r="D53" s="6"/>
-      <c r="E53" s="27"/>
-      <c r="F53" s="47"/>
-      <c r="G53" s="41"/>
-      <c r="H53" s="13"/>
+      <c r="A53" s="35"/>
+      <c r="B53" s="38"/>
+      <c r="C53" s="43"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="46"/>
+      <c r="G53" s="46"/>
+      <c r="H53" s="12"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="35"/>
-      <c r="B54" s="38"/>
-      <c r="C54" s="43"/>
-      <c r="D54" s="10"/>
-      <c r="E54" s="11"/>
-      <c r="F54" s="46"/>
-      <c r="G54" s="46"/>
-      <c r="H54" s="12"/>
+      <c r="A54" s="37"/>
+      <c r="B54" s="40"/>
+      <c r="C54" s="42"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="44"/>
+      <c r="G54" s="44"/>
+      <c r="H54" s="14"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="37"/>
-      <c r="B55" s="40"/>
-      <c r="C55" s="42"/>
-      <c r="D55" s="4"/>
-      <c r="E55" s="3"/>
-      <c r="F55" s="44"/>
-      <c r="G55" s="44"/>
-      <c r="H55" s="14"/>
+      <c r="A55" s="36"/>
+      <c r="B55" s="41"/>
+      <c r="C55" s="41"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="27"/>
+      <c r="F55" s="47"/>
+      <c r="G55" s="41"/>
+      <c r="H55" s="13"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="36"/>
-      <c r="B56" s="41"/>
-      <c r="C56" s="41"/>
-      <c r="D56" s="6"/>
-      <c r="E56" s="27"/>
-      <c r="F56" s="47"/>
-      <c r="G56" s="41"/>
-      <c r="H56" s="13"/>
+      <c r="A56" s="35"/>
+      <c r="B56" s="38"/>
+      <c r="C56" s="43"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="11"/>
+      <c r="F56" s="46"/>
+      <c r="G56" s="46"/>
+      <c r="H56" s="12"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="35"/>
-      <c r="B57" s="38"/>
-      <c r="C57" s="43"/>
-      <c r="D57" s="10"/>
-      <c r="E57" s="11"/>
-      <c r="F57" s="46"/>
-      <c r="G57" s="46"/>
-      <c r="H57" s="12"/>
+      <c r="A57" s="37"/>
+      <c r="B57" s="40"/>
+      <c r="C57" s="42"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="44"/>
+      <c r="G57" s="44"/>
+      <c r="H57" s="14"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="37"/>
-      <c r="B58" s="40"/>
-      <c r="C58" s="42"/>
-      <c r="D58" s="4"/>
-      <c r="E58" s="3"/>
-      <c r="F58" s="44"/>
-      <c r="G58" s="44"/>
-      <c r="H58" s="14"/>
+      <c r="A58" s="36"/>
+      <c r="B58" s="41"/>
+      <c r="C58" s="41"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="27"/>
+      <c r="F58" s="47"/>
+      <c r="G58" s="41"/>
+      <c r="H58" s="13"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="36"/>
-      <c r="B59" s="41"/>
-      <c r="C59" s="41"/>
-      <c r="D59" s="6"/>
-      <c r="E59" s="27"/>
-      <c r="F59" s="47"/>
-      <c r="G59" s="41"/>
-      <c r="H59" s="13"/>
+      <c r="A59" s="35"/>
+      <c r="B59" s="38"/>
+      <c r="C59" s="43"/>
+      <c r="D59" s="10"/>
+      <c r="E59" s="11"/>
+      <c r="F59" s="46"/>
+      <c r="G59" s="46"/>
+      <c r="H59" s="12"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="35"/>
-      <c r="B60" s="38"/>
-      <c r="C60" s="43"/>
-      <c r="D60" s="10"/>
-      <c r="E60" s="11"/>
-      <c r="F60" s="46"/>
-      <c r="G60" s="46"/>
-      <c r="H60" s="12"/>
+      <c r="A60" s="36"/>
+      <c r="B60" s="41"/>
+      <c r="C60" s="41"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="27"/>
+      <c r="F60" s="47"/>
+      <c r="G60" s="41"/>
+      <c r="H60" s="13"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="36"/>
-      <c r="B61" s="41"/>
-      <c r="C61" s="41"/>
-      <c r="D61" s="6"/>
-      <c r="E61" s="27"/>
-      <c r="F61" s="47"/>
-      <c r="G61" s="41"/>
-      <c r="H61" s="13"/>
+      <c r="A61" s="35"/>
+      <c r="B61" s="38"/>
+      <c r="C61" s="43"/>
+      <c r="D61" s="10"/>
+      <c r="E61" s="11"/>
+      <c r="F61" s="46"/>
+      <c r="G61" s="46"/>
+      <c r="H61" s="12"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="35"/>
-      <c r="B62" s="38"/>
-      <c r="C62" s="43"/>
-      <c r="D62" s="10"/>
-      <c r="E62" s="11"/>
-      <c r="F62" s="46"/>
-      <c r="G62" s="46"/>
-      <c r="H62" s="12"/>
+      <c r="A62" s="37"/>
+      <c r="B62" s="40"/>
+      <c r="C62" s="42"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="44"/>
+      <c r="G62" s="44"/>
+      <c r="H62" s="14"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="37"/>
-      <c r="B63" s="40"/>
-      <c r="C63" s="42"/>
-      <c r="D63" s="4"/>
-      <c r="E63" s="3"/>
-      <c r="F63" s="44"/>
-      <c r="G63" s="44"/>
-      <c r="H63" s="14"/>
+      <c r="A63" s="36"/>
+      <c r="B63" s="41"/>
+      <c r="C63" s="41"/>
+      <c r="D63" s="6"/>
+      <c r="E63" s="27"/>
+      <c r="F63" s="47"/>
+      <c r="G63" s="41"/>
+      <c r="H63" s="13"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="36"/>
-      <c r="B64" s="41"/>
-      <c r="C64" s="41"/>
-      <c r="D64" s="6"/>
-      <c r="E64" s="27"/>
-      <c r="F64" s="47"/>
-      <c r="G64" s="41"/>
-      <c r="H64" s="13"/>
+      <c r="A64" s="35"/>
+      <c r="B64" s="38"/>
+      <c r="C64" s="43"/>
+      <c r="D64" s="10"/>
+      <c r="E64" s="11"/>
+      <c r="F64" s="46"/>
+      <c r="G64" s="46"/>
+      <c r="H64" s="12"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="35"/>
-      <c r="B65" s="38"/>
-      <c r="C65" s="43"/>
-      <c r="D65" s="10"/>
-      <c r="E65" s="11"/>
-      <c r="F65" s="46"/>
-      <c r="G65" s="46"/>
-      <c r="H65" s="12"/>
+      <c r="A65" s="37"/>
+      <c r="B65" s="40"/>
+      <c r="C65" s="42"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="3"/>
+      <c r="F65" s="44"/>
+      <c r="G65" s="44"/>
+      <c r="H65" s="14"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="37"/>
-      <c r="B66" s="40"/>
-      <c r="C66" s="42"/>
-      <c r="D66" s="4"/>
-      <c r="E66" s="3"/>
-      <c r="F66" s="44"/>
-      <c r="G66" s="44"/>
-      <c r="H66" s="14"/>
+      <c r="A66" s="36"/>
+      <c r="B66" s="41"/>
+      <c r="C66" s="41"/>
+      <c r="D66" s="6"/>
+      <c r="E66" s="27"/>
+      <c r="F66" s="47"/>
+      <c r="G66" s="41"/>
+      <c r="H66" s="13"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="36"/>
-      <c r="B67" s="41"/>
-      <c r="C67" s="41"/>
-      <c r="D67" s="6"/>
-      <c r="E67" s="27"/>
-      <c r="F67" s="47"/>
-      <c r="G67" s="41"/>
-      <c r="H67" s="13"/>
+      <c r="A67" s="35"/>
+      <c r="B67" s="38"/>
+      <c r="C67" s="43"/>
+      <c r="D67" s="10"/>
+      <c r="E67" s="11"/>
+      <c r="F67" s="46"/>
+      <c r="G67" s="46"/>
+      <c r="H67" s="12"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="35"/>
-      <c r="B68" s="38"/>
-      <c r="C68" s="43"/>
-      <c r="D68" s="10"/>
-      <c r="E68" s="11"/>
-      <c r="F68" s="46"/>
-      <c r="G68" s="46"/>
-      <c r="H68" s="12"/>
+      <c r="A68" s="37"/>
+      <c r="B68" s="40"/>
+      <c r="C68" s="42"/>
+      <c r="D68" s="4"/>
+      <c r="E68" s="3"/>
+      <c r="F68" s="44"/>
+      <c r="G68" s="44"/>
+      <c r="H68" s="14"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="37"/>
-      <c r="B69" s="40"/>
-      <c r="C69" s="42"/>
-      <c r="D69" s="4"/>
-      <c r="E69" s="3"/>
-      <c r="F69" s="44"/>
-      <c r="G69" s="44"/>
-      <c r="H69" s="14"/>
+      <c r="A69" s="36"/>
+      <c r="B69" s="41"/>
+      <c r="C69" s="41"/>
+      <c r="D69" s="6"/>
+      <c r="E69" s="27"/>
+      <c r="F69" s="47"/>
+      <c r="G69" s="41"/>
+      <c r="H69" s="13"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="36"/>
-      <c r="B70" s="41"/>
-      <c r="C70" s="41"/>
-      <c r="D70" s="6"/>
-      <c r="E70" s="27"/>
-      <c r="F70" s="47"/>
-      <c r="G70" s="41"/>
-      <c r="H70" s="13"/>
+      <c r="A70" s="35"/>
+      <c r="B70" s="38"/>
+      <c r="C70" s="43"/>
+      <c r="D70" s="10"/>
+      <c r="E70" s="11"/>
+      <c r="F70" s="46"/>
+      <c r="G70" s="46"/>
+      <c r="H70" s="12"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="35"/>
-      <c r="B71" s="38"/>
-      <c r="C71" s="43"/>
-      <c r="D71" s="10"/>
-      <c r="E71" s="11"/>
-      <c r="F71" s="46"/>
-      <c r="G71" s="46"/>
-      <c r="H71" s="12"/>
+      <c r="A71" s="36"/>
+      <c r="B71" s="41"/>
+      <c r="C71" s="41"/>
+      <c r="D71" s="6"/>
+      <c r="E71" s="27"/>
+      <c r="F71" s="47"/>
+      <c r="G71" s="41"/>
+      <c r="H71" s="13"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="36"/>
-      <c r="B72" s="41"/>
-      <c r="C72" s="41"/>
-      <c r="D72" s="6"/>
-      <c r="E72" s="27"/>
-      <c r="F72" s="47"/>
-      <c r="G72" s="41"/>
-      <c r="H72" s="13"/>
+      <c r="A72" s="35"/>
+      <c r="B72" s="38"/>
+      <c r="C72" s="43"/>
+      <c r="D72" s="10"/>
+      <c r="E72" s="11"/>
+      <c r="F72" s="46"/>
+      <c r="G72" s="46"/>
+      <c r="H72" s="12"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="35"/>
-      <c r="B73" s="38"/>
-      <c r="C73" s="43"/>
-      <c r="D73" s="10"/>
-      <c r="E73" s="11"/>
-      <c r="F73" s="46"/>
-      <c r="G73" s="46"/>
-      <c r="H73" s="12"/>
+      <c r="A73" s="37"/>
+      <c r="B73" s="40"/>
+      <c r="C73" s="42"/>
+      <c r="D73" s="4"/>
+      <c r="E73" s="3"/>
+      <c r="F73" s="44"/>
+      <c r="G73" s="44"/>
+      <c r="H73" s="14"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="37"/>
-      <c r="B74" s="40"/>
-      <c r="C74" s="42"/>
-      <c r="D74" s="4"/>
-      <c r="E74" s="3"/>
-      <c r="F74" s="44"/>
-      <c r="G74" s="44"/>
-      <c r="H74" s="14"/>
+      <c r="A74" s="36"/>
+      <c r="B74" s="41"/>
+      <c r="C74" s="41"/>
+      <c r="D74" s="6"/>
+      <c r="E74" s="27"/>
+      <c r="F74" s="47"/>
+      <c r="G74" s="41"/>
+      <c r="H74" s="13"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="36"/>
-      <c r="B75" s="41"/>
-      <c r="C75" s="41"/>
-      <c r="D75" s="6"/>
-      <c r="E75" s="27"/>
-      <c r="F75" s="47"/>
-      <c r="G75" s="41"/>
-      <c r="H75" s="13"/>
+      <c r="A75" s="35"/>
+      <c r="B75" s="38"/>
+      <c r="C75" s="43"/>
+      <c r="D75" s="10"/>
+      <c r="E75" s="11"/>
+      <c r="F75" s="46"/>
+      <c r="G75" s="46"/>
+      <c r="H75" s="12"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" s="35"/>
-      <c r="B76" s="38"/>
-      <c r="C76" s="43"/>
-      <c r="D76" s="10"/>
-      <c r="E76" s="11"/>
-      <c r="F76" s="46"/>
-      <c r="G76" s="46"/>
-      <c r="H76" s="12"/>
+      <c r="A76" s="37"/>
+      <c r="B76" s="40"/>
+      <c r="C76" s="42"/>
+      <c r="D76" s="4"/>
+      <c r="E76" s="3"/>
+      <c r="F76" s="44"/>
+      <c r="G76" s="44"/>
+      <c r="H76" s="14"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77" s="37"/>
-      <c r="B77" s="40"/>
-      <c r="C77" s="42"/>
-      <c r="D77" s="4"/>
-      <c r="E77" s="3"/>
-      <c r="F77" s="44"/>
-      <c r="G77" s="44"/>
-      <c r="H77" s="14"/>
+      <c r="A77" s="36"/>
+      <c r="B77" s="41"/>
+      <c r="C77" s="41"/>
+      <c r="D77" s="6"/>
+      <c r="E77" s="27"/>
+      <c r="F77" s="47"/>
+      <c r="G77" s="41"/>
+      <c r="H77" s="13"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" s="36"/>
-      <c r="B78" s="41"/>
-      <c r="C78" s="41"/>
-      <c r="D78" s="6"/>
-      <c r="E78" s="27"/>
-      <c r="F78" s="47"/>
-      <c r="G78" s="41"/>
-      <c r="H78" s="13"/>
+      <c r="A78" s="35"/>
+      <c r="B78" s="38"/>
+      <c r="C78" s="43"/>
+      <c r="D78" s="10"/>
+      <c r="E78" s="11"/>
+      <c r="F78" s="46"/>
+      <c r="G78" s="46"/>
+      <c r="H78" s="12"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" s="35"/>
-      <c r="B79" s="38"/>
-      <c r="C79" s="43"/>
-      <c r="D79" s="10"/>
-      <c r="E79" s="11"/>
-      <c r="F79" s="46"/>
-      <c r="G79" s="46"/>
-      <c r="H79" s="12"/>
+      <c r="A79" s="37"/>
+      <c r="B79" s="40"/>
+      <c r="C79" s="42"/>
+      <c r="D79" s="4"/>
+      <c r="E79" s="3"/>
+      <c r="F79" s="44"/>
+      <c r="G79" s="44"/>
+      <c r="H79" s="14"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80" s="37"/>
-      <c r="B80" s="40"/>
-      <c r="C80" s="42"/>
-      <c r="D80" s="4"/>
-      <c r="E80" s="3"/>
-      <c r="F80" s="44"/>
-      <c r="G80" s="44"/>
-      <c r="H80" s="14"/>
+      <c r="A80" s="36"/>
+      <c r="B80" s="41"/>
+      <c r="C80" s="41"/>
+      <c r="D80" s="6"/>
+      <c r="E80" s="27"/>
+      <c r="F80" s="47"/>
+      <c r="G80" s="41"/>
+      <c r="H80" s="13"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81" s="36"/>
-      <c r="B81" s="41"/>
-      <c r="C81" s="41"/>
-      <c r="D81" s="6"/>
-      <c r="E81" s="27"/>
-      <c r="F81" s="47"/>
-      <c r="G81" s="41"/>
-      <c r="H81" s="13"/>
+      <c r="A81" s="35"/>
+      <c r="B81" s="38"/>
+      <c r="C81" s="43"/>
+      <c r="D81" s="10"/>
+      <c r="E81" s="11"/>
+      <c r="F81" s="46"/>
+      <c r="G81" s="46"/>
+      <c r="H81" s="12"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" s="35"/>
-      <c r="B82" s="38"/>
-      <c r="C82" s="43"/>
-      <c r="D82" s="10"/>
-      <c r="E82" s="11"/>
-      <c r="F82" s="46"/>
-      <c r="G82" s="46"/>
-      <c r="H82" s="12"/>
+      <c r="A82" s="36"/>
+      <c r="B82" s="41"/>
+      <c r="C82" s="41"/>
+      <c r="D82" s="6"/>
+      <c r="E82" s="27"/>
+      <c r="F82" s="47"/>
+      <c r="G82" s="41"/>
+      <c r="H82" s="13"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A83" s="36"/>
-      <c r="B83" s="41"/>
-      <c r="C83" s="41"/>
-      <c r="D83" s="6"/>
-      <c r="E83" s="27"/>
-      <c r="F83" s="47"/>
-      <c r="G83" s="41"/>
-      <c r="H83" s="13"/>
+      <c r="A83" s="35"/>
+      <c r="B83" s="38"/>
+      <c r="C83" s="43"/>
+      <c r="D83" s="10"/>
+      <c r="E83" s="11"/>
+      <c r="F83" s="46"/>
+      <c r="G83" s="46"/>
+      <c r="H83" s="12"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84" s="35"/>
-      <c r="B84" s="38"/>
-      <c r="C84" s="43"/>
-      <c r="D84" s="10"/>
-      <c r="E84" s="11"/>
-      <c r="F84" s="46"/>
-      <c r="G84" s="46"/>
-      <c r="H84" s="12"/>
+      <c r="A84" s="37"/>
+      <c r="B84" s="40"/>
+      <c r="C84" s="42"/>
+      <c r="D84" s="4"/>
+      <c r="E84" s="3"/>
+      <c r="F84" s="44"/>
+      <c r="G84" s="44"/>
+      <c r="H84" s="14"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="37"/>
@@ -2194,144 +2219,144 @@
       <c r="H85" s="14"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86" s="37"/>
-      <c r="B86" s="40"/>
-      <c r="C86" s="42"/>
-      <c r="D86" s="4"/>
-      <c r="E86" s="3"/>
-      <c r="F86" s="44"/>
-      <c r="G86" s="44"/>
-      <c r="H86" s="14"/>
+      <c r="A86" s="36"/>
+      <c r="B86" s="41"/>
+      <c r="C86" s="41"/>
+      <c r="D86" s="6"/>
+      <c r="E86" s="27"/>
+      <c r="F86" s="47"/>
+      <c r="G86" s="41"/>
+      <c r="H86" s="13"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A87" s="36"/>
-      <c r="B87" s="41"/>
-      <c r="C87" s="41"/>
-      <c r="D87" s="6"/>
-      <c r="E87" s="27"/>
-      <c r="F87" s="47"/>
-      <c r="G87" s="41"/>
-      <c r="H87" s="13"/>
+      <c r="A87" s="35"/>
+      <c r="B87" s="38"/>
+      <c r="C87" s="43"/>
+      <c r="D87" s="10"/>
+      <c r="E87" s="11"/>
+      <c r="F87" s="46"/>
+      <c r="G87" s="46"/>
+      <c r="H87" s="12"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88" s="35"/>
-      <c r="B88" s="38"/>
-      <c r="C88" s="43"/>
-      <c r="D88" s="10"/>
-      <c r="E88" s="11"/>
-      <c r="F88" s="46"/>
-      <c r="G88" s="46"/>
-      <c r="H88" s="12"/>
+      <c r="A88" s="36"/>
+      <c r="B88" s="41"/>
+      <c r="C88" s="41"/>
+      <c r="D88" s="6"/>
+      <c r="E88" s="27"/>
+      <c r="F88" s="47"/>
+      <c r="G88" s="41"/>
+      <c r="H88" s="13"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A89" s="36"/>
-      <c r="B89" s="41"/>
-      <c r="C89" s="41"/>
-      <c r="D89" s="6"/>
-      <c r="E89" s="27"/>
-      <c r="F89" s="47"/>
-      <c r="G89" s="41"/>
-      <c r="H89" s="13"/>
+      <c r="A89" s="35"/>
+      <c r="B89" s="38"/>
+      <c r="C89" s="43"/>
+      <c r="D89" s="10"/>
+      <c r="E89" s="11"/>
+      <c r="F89" s="46"/>
+      <c r="G89" s="46"/>
+      <c r="H89" s="12"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90" s="35"/>
-      <c r="B90" s="38"/>
-      <c r="C90" s="43"/>
-      <c r="D90" s="10"/>
-      <c r="E90" s="11"/>
-      <c r="F90" s="46"/>
-      <c r="G90" s="46"/>
-      <c r="H90" s="12"/>
+      <c r="A90" s="37"/>
+      <c r="B90" s="40"/>
+      <c r="C90" s="42"/>
+      <c r="D90" s="4"/>
+      <c r="E90" s="3"/>
+      <c r="F90" s="44"/>
+      <c r="G90" s="44"/>
+      <c r="H90" s="14"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91" s="37"/>
-      <c r="B91" s="40"/>
-      <c r="C91" s="42"/>
-      <c r="D91" s="4"/>
-      <c r="E91" s="3"/>
-      <c r="F91" s="44"/>
-      <c r="G91" s="44"/>
-      <c r="H91" s="14"/>
+      <c r="A91" s="36"/>
+      <c r="B91" s="41"/>
+      <c r="C91" s="41"/>
+      <c r="D91" s="6"/>
+      <c r="E91" s="27"/>
+      <c r="F91" s="47"/>
+      <c r="G91" s="41"/>
+      <c r="H91" s="13"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A92" s="36"/>
-      <c r="B92" s="41"/>
-      <c r="C92" s="41"/>
-      <c r="D92" s="6"/>
-      <c r="E92" s="27"/>
-      <c r="F92" s="47"/>
-      <c r="G92" s="41"/>
-      <c r="H92" s="13"/>
+      <c r="A92" s="35"/>
+      <c r="B92" s="38"/>
+      <c r="C92" s="43"/>
+      <c r="D92" s="10"/>
+      <c r="E92" s="11"/>
+      <c r="F92" s="46"/>
+      <c r="G92" s="46"/>
+      <c r="H92" s="12"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93" s="35"/>
-      <c r="B93" s="38"/>
-      <c r="C93" s="43"/>
-      <c r="D93" s="10"/>
-      <c r="E93" s="11"/>
-      <c r="F93" s="46"/>
-      <c r="G93" s="46"/>
-      <c r="H93" s="12"/>
+      <c r="A93" s="36"/>
+      <c r="B93" s="41"/>
+      <c r="C93" s="41"/>
+      <c r="D93" s="6"/>
+      <c r="E93" s="27"/>
+      <c r="F93" s="47"/>
+      <c r="G93" s="41"/>
+      <c r="H93" s="13"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A94" s="36"/>
-      <c r="B94" s="41"/>
-      <c r="C94" s="41"/>
-      <c r="D94" s="6"/>
-      <c r="E94" s="27"/>
-      <c r="F94" s="47"/>
-      <c r="G94" s="41"/>
-      <c r="H94" s="13"/>
+      <c r="A94" s="35"/>
+      <c r="B94" s="38"/>
+      <c r="C94" s="43"/>
+      <c r="D94" s="10"/>
+      <c r="E94" s="11"/>
+      <c r="F94" s="46"/>
+      <c r="G94" s="46"/>
+      <c r="H94" s="12"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A95" s="35"/>
-      <c r="B95" s="38"/>
-      <c r="C95" s="43"/>
-      <c r="D95" s="10"/>
-      <c r="E95" s="11"/>
-      <c r="F95" s="46"/>
-      <c r="G95" s="46"/>
-      <c r="H95" s="12"/>
+      <c r="A95" s="37"/>
+      <c r="B95" s="40"/>
+      <c r="C95" s="42"/>
+      <c r="D95" s="4"/>
+      <c r="E95" s="3"/>
+      <c r="F95" s="44"/>
+      <c r="G95" s="44"/>
+      <c r="H95" s="14"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A96" s="37"/>
-      <c r="B96" s="40"/>
-      <c r="C96" s="42"/>
-      <c r="D96" s="4"/>
-      <c r="E96" s="3"/>
-      <c r="F96" s="44"/>
-      <c r="G96" s="44"/>
-      <c r="H96" s="14"/>
+      <c r="A96" s="36"/>
+      <c r="B96" s="41"/>
+      <c r="C96" s="41"/>
+      <c r="D96" s="6"/>
+      <c r="E96" s="27"/>
+      <c r="F96" s="47"/>
+      <c r="G96" s="41"/>
+      <c r="H96" s="13"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A97" s="36"/>
-      <c r="B97" s="41"/>
-      <c r="C97" s="41"/>
-      <c r="D97" s="6"/>
-      <c r="E97" s="27"/>
-      <c r="F97" s="47"/>
-      <c r="G97" s="41"/>
-      <c r="H97" s="13"/>
+      <c r="A97" s="35"/>
+      <c r="B97" s="38"/>
+      <c r="C97" s="43"/>
+      <c r="D97" s="10"/>
+      <c r="E97" s="11"/>
+      <c r="F97" s="46"/>
+      <c r="G97" s="46"/>
+      <c r="H97" s="12"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A98" s="35"/>
-      <c r="B98" s="38"/>
-      <c r="C98" s="43"/>
-      <c r="D98" s="10"/>
-      <c r="E98" s="11"/>
-      <c r="F98" s="46"/>
-      <c r="G98" s="46"/>
-      <c r="H98" s="12"/>
+      <c r="A98" s="36"/>
+      <c r="B98" s="41"/>
+      <c r="C98" s="41"/>
+      <c r="D98" s="6"/>
+      <c r="E98" s="27"/>
+      <c r="F98" s="47"/>
+      <c r="G98" s="41"/>
+      <c r="H98" s="13"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A99" s="36"/>
-      <c r="B99" s="41"/>
-      <c r="C99" s="41"/>
-      <c r="D99" s="6"/>
-      <c r="E99" s="27"/>
-      <c r="F99" s="47"/>
-      <c r="G99" s="41"/>
-      <c r="H99" s="13"/>
+      <c r="A99" s="37"/>
+      <c r="B99" s="40"/>
+      <c r="C99" s="42"/>
+      <c r="D99" s="4"/>
+      <c r="E99" s="3"/>
+      <c r="F99" s="44"/>
+      <c r="G99" s="44"/>
+      <c r="H99" s="17"/>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="37"/>
@@ -2345,343 +2370,343 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="37"/>
-      <c r="B101" s="40"/>
+      <c r="B101" s="42"/>
       <c r="C101" s="42"/>
-      <c r="D101" s="4"/>
-      <c r="E101" s="3"/>
-      <c r="F101" s="44"/>
-      <c r="G101" s="44"/>
+      <c r="D101" s="2"/>
+      <c r="E101" s="19"/>
+      <c r="F101" s="48"/>
+      <c r="G101" s="42"/>
       <c r="H101" s="17"/>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A102" s="37"/>
-      <c r="B102" s="42"/>
-      <c r="C102" s="42"/>
-      <c r="D102" s="2"/>
-      <c r="E102" s="19"/>
-      <c r="F102" s="48"/>
-      <c r="G102" s="42"/>
-      <c r="H102" s="17"/>
+      <c r="A102" s="35"/>
+      <c r="B102" s="38"/>
+      <c r="C102" s="43"/>
+      <c r="D102" s="10"/>
+      <c r="E102" s="11"/>
+      <c r="F102" s="46"/>
+      <c r="G102" s="46"/>
+      <c r="H102" s="12"/>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A103" s="35"/>
-      <c r="B103" s="38"/>
-      <c r="C103" s="43"/>
-      <c r="D103" s="10"/>
-      <c r="E103" s="11"/>
-      <c r="F103" s="46"/>
-      <c r="G103" s="46"/>
-      <c r="H103" s="12"/>
+      <c r="A103" s="37"/>
+      <c r="B103" s="40"/>
+      <c r="C103" s="42"/>
+      <c r="D103" s="4"/>
+      <c r="E103" s="3"/>
+      <c r="F103" s="44"/>
+      <c r="G103" s="44"/>
+      <c r="H103" s="14"/>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A104" s="37"/>
-      <c r="B104" s="40"/>
-      <c r="C104" s="42"/>
-      <c r="D104" s="4"/>
-      <c r="E104" s="3"/>
-      <c r="F104" s="44"/>
-      <c r="G104" s="44"/>
-      <c r="H104" s="14"/>
+      <c r="A104" s="36"/>
+      <c r="B104" s="39"/>
+      <c r="C104" s="41"/>
+      <c r="D104" s="8"/>
+      <c r="E104" s="7"/>
+      <c r="F104" s="45"/>
+      <c r="G104" s="45"/>
+      <c r="H104" s="13"/>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A105" s="36"/>
-      <c r="B105" s="39"/>
-      <c r="C105" s="41"/>
-      <c r="D105" s="8"/>
-      <c r="E105" s="7"/>
-      <c r="F105" s="45"/>
-      <c r="G105" s="45"/>
-      <c r="H105" s="13"/>
+      <c r="A105" s="35"/>
+      <c r="B105" s="38"/>
+      <c r="C105" s="43"/>
+      <c r="D105" s="10"/>
+      <c r="E105" s="11"/>
+      <c r="F105" s="46"/>
+      <c r="G105" s="46"/>
+      <c r="H105" s="12"/>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A106" s="35"/>
-      <c r="B106" s="38"/>
-      <c r="C106" s="43"/>
-      <c r="D106" s="10"/>
-      <c r="E106" s="11"/>
-      <c r="F106" s="46"/>
-      <c r="G106" s="46"/>
-      <c r="H106" s="12"/>
+      <c r="A106" s="36"/>
+      <c r="B106" s="39"/>
+      <c r="C106" s="41"/>
+      <c r="D106" s="8"/>
+      <c r="E106" s="7"/>
+      <c r="F106" s="45"/>
+      <c r="G106" s="45"/>
+      <c r="H106" s="13"/>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A107" s="36"/>
-      <c r="B107" s="39"/>
-      <c r="C107" s="41"/>
-      <c r="D107" s="8"/>
-      <c r="E107" s="7"/>
-      <c r="F107" s="45"/>
-      <c r="G107" s="45"/>
-      <c r="H107" s="13"/>
+      <c r="A107" s="35"/>
+      <c r="B107" s="38"/>
+      <c r="C107" s="43"/>
+      <c r="D107" s="10"/>
+      <c r="E107" s="11"/>
+      <c r="F107" s="46"/>
+      <c r="G107" s="46"/>
+      <c r="H107" s="12"/>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A108" s="35"/>
-      <c r="B108" s="38"/>
-      <c r="C108" s="43"/>
-      <c r="D108" s="10"/>
-      <c r="E108" s="11"/>
-      <c r="F108" s="46"/>
-      <c r="G108" s="46"/>
-      <c r="H108" s="12"/>
+      <c r="A108" s="37"/>
+      <c r="B108" s="40"/>
+      <c r="C108" s="42"/>
+      <c r="D108" s="4"/>
+      <c r="E108" s="3"/>
+      <c r="F108" s="44"/>
+      <c r="G108" s="44"/>
+      <c r="H108" s="14"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A109" s="37"/>
-      <c r="B109" s="40"/>
-      <c r="C109" s="42"/>
-      <c r="D109" s="4"/>
-      <c r="E109" s="3"/>
-      <c r="F109" s="44"/>
-      <c r="G109" s="44"/>
-      <c r="H109" s="14"/>
+      <c r="A109" s="36"/>
+      <c r="B109" s="39"/>
+      <c r="C109" s="41"/>
+      <c r="D109" s="8"/>
+      <c r="E109" s="7"/>
+      <c r="F109" s="45"/>
+      <c r="G109" s="45"/>
+      <c r="H109" s="13"/>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A110" s="36"/>
-      <c r="B110" s="39"/>
-      <c r="C110" s="41"/>
-      <c r="D110" s="8"/>
-      <c r="E110" s="7"/>
-      <c r="F110" s="45"/>
-      <c r="G110" s="45"/>
-      <c r="H110" s="13"/>
+      <c r="A110" s="35"/>
+      <c r="B110" s="38"/>
+      <c r="C110" s="43"/>
+      <c r="D110" s="10"/>
+      <c r="E110" s="11"/>
+      <c r="F110" s="46"/>
+      <c r="G110" s="46"/>
+      <c r="H110" s="12"/>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A111" s="35"/>
-      <c r="B111" s="38"/>
-      <c r="C111" s="43"/>
-      <c r="D111" s="10"/>
-      <c r="E111" s="11"/>
-      <c r="F111" s="46"/>
-      <c r="G111" s="46"/>
-      <c r="H111" s="12"/>
+      <c r="A111" s="37"/>
+      <c r="B111" s="40"/>
+      <c r="C111" s="42"/>
+      <c r="D111" s="4"/>
+      <c r="E111" s="3"/>
+      <c r="F111" s="44"/>
+      <c r="G111" s="44"/>
+      <c r="H111" s="14"/>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A112" s="37"/>
-      <c r="B112" s="40"/>
-      <c r="C112" s="42"/>
-      <c r="D112" s="4"/>
-      <c r="E112" s="3"/>
-      <c r="F112" s="44"/>
-      <c r="G112" s="44"/>
-      <c r="H112" s="14"/>
+      <c r="A112" s="36"/>
+      <c r="B112" s="39"/>
+      <c r="C112" s="41"/>
+      <c r="D112" s="8"/>
+      <c r="E112" s="7"/>
+      <c r="F112" s="45"/>
+      <c r="G112" s="45"/>
+      <c r="H112" s="13"/>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A113" s="36"/>
-      <c r="B113" s="39"/>
-      <c r="C113" s="41"/>
-      <c r="D113" s="8"/>
-      <c r="E113" s="7"/>
-      <c r="F113" s="45"/>
-      <c r="G113" s="45"/>
-      <c r="H113" s="13"/>
+      <c r="A113" s="35"/>
+      <c r="B113" s="38"/>
+      <c r="C113" s="43"/>
+      <c r="D113" s="10"/>
+      <c r="E113" s="11"/>
+      <c r="F113" s="46"/>
+      <c r="G113" s="46"/>
+      <c r="H113" s="12"/>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A114" s="35"/>
-      <c r="B114" s="38"/>
-      <c r="C114" s="43"/>
-      <c r="D114" s="10"/>
-      <c r="E114" s="11"/>
-      <c r="F114" s="46"/>
-      <c r="G114" s="46"/>
-      <c r="H114" s="12"/>
+      <c r="A114" s="37"/>
+      <c r="B114" s="40"/>
+      <c r="C114" s="42"/>
+      <c r="D114" s="4"/>
+      <c r="E114" s="3"/>
+      <c r="F114" s="44"/>
+      <c r="G114" s="44"/>
+      <c r="H114" s="14"/>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A115" s="37"/>
-      <c r="B115" s="40"/>
-      <c r="C115" s="42"/>
-      <c r="D115" s="4"/>
-      <c r="E115" s="3"/>
-      <c r="F115" s="44"/>
-      <c r="G115" s="44"/>
-      <c r="H115" s="14"/>
+      <c r="A115" s="36"/>
+      <c r="B115" s="39"/>
+      <c r="C115" s="41"/>
+      <c r="D115" s="8"/>
+      <c r="E115" s="7"/>
+      <c r="F115" s="45"/>
+      <c r="G115" s="45"/>
+      <c r="H115" s="13"/>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A116" s="36"/>
-      <c r="B116" s="39"/>
-      <c r="C116" s="41"/>
-      <c r="D116" s="8"/>
-      <c r="E116" s="7"/>
-      <c r="F116" s="45"/>
-      <c r="G116" s="45"/>
-      <c r="H116" s="13"/>
+      <c r="A116" s="35"/>
+      <c r="B116" s="38"/>
+      <c r="C116" s="43"/>
+      <c r="D116" s="10"/>
+      <c r="E116" s="11"/>
+      <c r="F116" s="46"/>
+      <c r="G116" s="46"/>
+      <c r="H116" s="12"/>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A117" s="35"/>
-      <c r="B117" s="38"/>
-      <c r="C117" s="43"/>
-      <c r="D117" s="10"/>
-      <c r="E117" s="11"/>
-      <c r="F117" s="46"/>
-      <c r="G117" s="46"/>
-      <c r="H117" s="12"/>
+      <c r="A117" s="36"/>
+      <c r="B117" s="39"/>
+      <c r="C117" s="41"/>
+      <c r="D117" s="8"/>
+      <c r="E117" s="7"/>
+      <c r="F117" s="45"/>
+      <c r="G117" s="45"/>
+      <c r="H117" s="13"/>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A118" s="36"/>
-      <c r="B118" s="39"/>
-      <c r="C118" s="41"/>
-      <c r="D118" s="8"/>
-      <c r="E118" s="7"/>
-      <c r="F118" s="45"/>
-      <c r="G118" s="45"/>
-      <c r="H118" s="13"/>
+      <c r="A118" s="35"/>
+      <c r="B118" s="38"/>
+      <c r="C118" s="43"/>
+      <c r="D118" s="10"/>
+      <c r="E118" s="11"/>
+      <c r="F118" s="46"/>
+      <c r="G118" s="46"/>
+      <c r="H118" s="12"/>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A119" s="35"/>
-      <c r="B119" s="38"/>
-      <c r="C119" s="43"/>
-      <c r="D119" s="10"/>
-      <c r="E119" s="11"/>
-      <c r="F119" s="46"/>
-      <c r="G119" s="46"/>
-      <c r="H119" s="12"/>
+      <c r="A119" s="37"/>
+      <c r="B119" s="40"/>
+      <c r="C119" s="42"/>
+      <c r="D119" s="4"/>
+      <c r="E119" s="3"/>
+      <c r="F119" s="44"/>
+      <c r="G119" s="44"/>
+      <c r="H119" s="14"/>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A120" s="37"/>
-      <c r="B120" s="40"/>
-      <c r="C120" s="42"/>
-      <c r="D120" s="4"/>
-      <c r="E120" s="3"/>
-      <c r="F120" s="44"/>
-      <c r="G120" s="44"/>
-      <c r="H120" s="14"/>
+      <c r="A120" s="36"/>
+      <c r="B120" s="39"/>
+      <c r="C120" s="41"/>
+      <c r="D120" s="8"/>
+      <c r="E120" s="7"/>
+      <c r="F120" s="45"/>
+      <c r="G120" s="45"/>
+      <c r="H120" s="13"/>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A121" s="36"/>
-      <c r="B121" s="39"/>
-      <c r="C121" s="41"/>
-      <c r="D121" s="8"/>
-      <c r="E121" s="7"/>
-      <c r="F121" s="45"/>
-      <c r="G121" s="45"/>
-      <c r="H121" s="13"/>
+      <c r="A121" s="35"/>
+      <c r="B121" s="38"/>
+      <c r="C121" s="43"/>
+      <c r="D121" s="10"/>
+      <c r="E121" s="11"/>
+      <c r="F121" s="46"/>
+      <c r="G121" s="46"/>
+      <c r="H121" s="12"/>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A122" s="35"/>
-      <c r="B122" s="38"/>
-      <c r="C122" s="43"/>
-      <c r="D122" s="10"/>
-      <c r="E122" s="11"/>
-      <c r="F122" s="46"/>
-      <c r="G122" s="46"/>
-      <c r="H122" s="12"/>
+      <c r="A122" s="37"/>
+      <c r="B122" s="40"/>
+      <c r="C122" s="42"/>
+      <c r="D122" s="4"/>
+      <c r="E122" s="3"/>
+      <c r="F122" s="44"/>
+      <c r="G122" s="44"/>
+      <c r="H122" s="14"/>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A123" s="37"/>
-      <c r="B123" s="40"/>
-      <c r="C123" s="42"/>
-      <c r="D123" s="4"/>
-      <c r="E123" s="3"/>
-      <c r="F123" s="44"/>
-      <c r="G123" s="44"/>
-      <c r="H123" s="14"/>
+      <c r="A123" s="36"/>
+      <c r="B123" s="39"/>
+      <c r="C123" s="41"/>
+      <c r="D123" s="8"/>
+      <c r="E123" s="7"/>
+      <c r="F123" s="45"/>
+      <c r="G123" s="45"/>
+      <c r="H123" s="13"/>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A124" s="36"/>
-      <c r="B124" s="39"/>
-      <c r="C124" s="41"/>
-      <c r="D124" s="8"/>
-      <c r="E124" s="7"/>
-      <c r="F124" s="45"/>
-      <c r="G124" s="45"/>
-      <c r="H124" s="13"/>
+      <c r="A124" s="35"/>
+      <c r="B124" s="38"/>
+      <c r="C124" s="43"/>
+      <c r="D124" s="10"/>
+      <c r="E124" s="11"/>
+      <c r="F124" s="46"/>
+      <c r="G124" s="46"/>
+      <c r="H124" s="12"/>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A125" s="35"/>
-      <c r="B125" s="38"/>
-      <c r="C125" s="43"/>
-      <c r="D125" s="10"/>
-      <c r="E125" s="11"/>
-      <c r="F125" s="46"/>
-      <c r="G125" s="46"/>
-      <c r="H125" s="12"/>
+      <c r="A125" s="37"/>
+      <c r="B125" s="40"/>
+      <c r="C125" s="42"/>
+      <c r="D125" s="4"/>
+      <c r="E125" s="3"/>
+      <c r="F125" s="44"/>
+      <c r="G125" s="44"/>
+      <c r="H125" s="14"/>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A126" s="37"/>
-      <c r="B126" s="40"/>
-      <c r="C126" s="42"/>
-      <c r="D126" s="4"/>
-      <c r="E126" s="3"/>
-      <c r="F126" s="44"/>
-      <c r="G126" s="44"/>
-      <c r="H126" s="14"/>
+      <c r="A126" s="36"/>
+      <c r="B126" s="39"/>
+      <c r="C126" s="41"/>
+      <c r="D126" s="8"/>
+      <c r="E126" s="7"/>
+      <c r="F126" s="45"/>
+      <c r="G126" s="45"/>
+      <c r="H126" s="13"/>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A127" s="36"/>
-      <c r="B127" s="39"/>
-      <c r="C127" s="41"/>
-      <c r="D127" s="8"/>
-      <c r="E127" s="7"/>
-      <c r="F127" s="45"/>
-      <c r="G127" s="45"/>
-      <c r="H127" s="13"/>
+      <c r="A127" s="35"/>
+      <c r="B127" s="38"/>
+      <c r="C127" s="43"/>
+      <c r="D127" s="10"/>
+      <c r="E127" s="11"/>
+      <c r="F127" s="46"/>
+      <c r="G127" s="46"/>
+      <c r="H127" s="12"/>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A128" s="35"/>
-      <c r="B128" s="38"/>
-      <c r="C128" s="43"/>
-      <c r="D128" s="10"/>
-      <c r="E128" s="11"/>
-      <c r="F128" s="46"/>
-      <c r="G128" s="46"/>
-      <c r="H128" s="12"/>
+      <c r="A128" s="37"/>
+      <c r="B128" s="40"/>
+      <c r="C128" s="42"/>
+      <c r="D128" s="4"/>
+      <c r="E128" s="3"/>
+      <c r="F128" s="44"/>
+      <c r="G128" s="44"/>
+      <c r="H128" s="14"/>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A129" s="37"/>
-      <c r="B129" s="40"/>
-      <c r="C129" s="42"/>
-      <c r="D129" s="4"/>
-      <c r="E129" s="3"/>
-      <c r="F129" s="44"/>
-      <c r="G129" s="44"/>
-      <c r="H129" s="14"/>
+      <c r="A129" s="36"/>
+      <c r="B129" s="39"/>
+      <c r="C129" s="41"/>
+      <c r="D129" s="8"/>
+      <c r="E129" s="7"/>
+      <c r="F129" s="45"/>
+      <c r="G129" s="45"/>
+      <c r="H129" s="13"/>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A130" s="36"/>
-      <c r="B130" s="39"/>
-      <c r="C130" s="41"/>
-      <c r="D130" s="8"/>
-      <c r="E130" s="7"/>
-      <c r="F130" s="45"/>
-      <c r="G130" s="45"/>
-      <c r="H130" s="13"/>
+      <c r="A130" s="35"/>
+      <c r="B130" s="38"/>
+      <c r="C130" s="43"/>
+      <c r="D130" s="10"/>
+      <c r="E130" s="11"/>
+      <c r="F130" s="46"/>
+      <c r="G130" s="46"/>
+      <c r="H130" s="12"/>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A131" s="35"/>
-      <c r="B131" s="38"/>
-      <c r="C131" s="43"/>
-      <c r="D131" s="10"/>
-      <c r="E131" s="11"/>
-      <c r="F131" s="46"/>
-      <c r="G131" s="46"/>
-      <c r="H131" s="12"/>
+      <c r="A131" s="37"/>
+      <c r="B131" s="40"/>
+      <c r="C131" s="42"/>
+      <c r="D131" s="4"/>
+      <c r="E131" s="3"/>
+      <c r="F131" s="44"/>
+      <c r="G131" s="44"/>
+      <c r="H131" s="14"/>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A132" s="37"/>
-      <c r="B132" s="40"/>
-      <c r="C132" s="42"/>
-      <c r="D132" s="4"/>
-      <c r="E132" s="3"/>
-      <c r="F132" s="44"/>
-      <c r="G132" s="44"/>
-      <c r="H132" s="14"/>
+      <c r="A132" s="36"/>
+      <c r="B132" s="39"/>
+      <c r="C132" s="41"/>
+      <c r="D132" s="8"/>
+      <c r="E132" s="7"/>
+      <c r="F132" s="45"/>
+      <c r="G132" s="45"/>
+      <c r="H132" s="13"/>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A133" s="36"/>
-      <c r="B133" s="39"/>
-      <c r="C133" s="41"/>
-      <c r="D133" s="8"/>
-      <c r="E133" s="7"/>
-      <c r="F133" s="45"/>
-      <c r="G133" s="45"/>
-      <c r="H133" s="13"/>
+      <c r="A133" s="35"/>
+      <c r="B133" s="38"/>
+      <c r="C133" s="43"/>
+      <c r="D133" s="10"/>
+      <c r="E133" s="11"/>
+      <c r="F133" s="46"/>
+      <c r="G133" s="46"/>
+      <c r="H133" s="12"/>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A134" s="35"/>
-      <c r="B134" s="38"/>
-      <c r="C134" s="43"/>
-      <c r="D134" s="10"/>
-      <c r="E134" s="11"/>
-      <c r="F134" s="46"/>
-      <c r="G134" s="46"/>
-      <c r="H134" s="12"/>
+      <c r="A134" s="37"/>
+      <c r="B134" s="40"/>
+      <c r="C134" s="42"/>
+      <c r="D134" s="4"/>
+      <c r="E134" s="3"/>
+      <c r="F134" s="44"/>
+      <c r="G134" s="44"/>
+      <c r="H134" s="14"/>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="37"/>
@@ -2694,24 +2719,24 @@
       <c r="H135" s="14"/>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A136" s="37"/>
-      <c r="B136" s="40"/>
-      <c r="C136" s="42"/>
-      <c r="D136" s="4"/>
-      <c r="E136" s="3"/>
-      <c r="F136" s="44"/>
-      <c r="G136" s="44"/>
-      <c r="H136" s="14"/>
+      <c r="A136" s="35"/>
+      <c r="B136" s="38"/>
+      <c r="C136" s="43"/>
+      <c r="D136" s="10"/>
+      <c r="E136" s="11"/>
+      <c r="F136" s="46"/>
+      <c r="G136" s="46"/>
+      <c r="H136" s="12"/>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A137" s="35"/>
-      <c r="B137" s="38"/>
-      <c r="C137" s="43"/>
-      <c r="D137" s="10"/>
-      <c r="E137" s="11"/>
-      <c r="F137" s="46"/>
-      <c r="G137" s="46"/>
-      <c r="H137" s="12"/>
+      <c r="A137" s="37"/>
+      <c r="B137" s="40"/>
+      <c r="C137" s="42"/>
+      <c r="D137" s="4"/>
+      <c r="E137" s="3"/>
+      <c r="F137" s="44"/>
+      <c r="G137" s="44"/>
+      <c r="H137" s="14"/>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="37"/>
@@ -2724,84 +2749,83 @@
       <c r="H138" s="14"/>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A139" s="37"/>
-      <c r="B139" s="40"/>
-      <c r="C139" s="42"/>
-      <c r="D139" s="4"/>
-      <c r="E139" s="3"/>
-      <c r="F139" s="44"/>
-      <c r="G139" s="44"/>
-      <c r="H139" s="14"/>
+      <c r="A139" s="35"/>
+      <c r="B139" s="54"/>
+      <c r="C139" s="43"/>
+      <c r="D139" s="57"/>
+      <c r="E139" s="11"/>
+      <c r="F139" s="53"/>
+      <c r="G139" s="46"/>
+      <c r="H139" s="12"/>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A140" s="35"/>
-      <c r="B140" s="54"/>
-      <c r="C140" s="43"/>
-      <c r="D140" s="57"/>
-      <c r="E140" s="11"/>
-      <c r="F140" s="53"/>
-      <c r="G140" s="46"/>
-      <c r="H140" s="12"/>
+      <c r="A140" s="37"/>
+      <c r="B140" s="55"/>
+      <c r="C140" s="42"/>
+      <c r="D140" s="58"/>
+      <c r="E140" s="3"/>
+      <c r="F140" s="44"/>
+      <c r="G140" s="44"/>
+      <c r="H140" s="14"/>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A141" s="37"/>
-      <c r="B141" s="55"/>
-      <c r="C141" s="42"/>
-      <c r="D141" s="58"/>
-      <c r="E141" s="3"/>
-      <c r="F141" s="44"/>
-      <c r="G141" s="44"/>
-      <c r="H141" s="14"/>
+      <c r="A141" s="36"/>
+      <c r="B141" s="56"/>
+      <c r="C141" s="41"/>
+      <c r="D141" s="59"/>
+      <c r="E141" s="7"/>
+      <c r="F141" s="45"/>
+      <c r="G141" s="45"/>
+      <c r="H141" s="13"/>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A142" s="36"/>
-      <c r="B142" s="56"/>
-      <c r="C142" s="41"/>
-      <c r="D142" s="59"/>
-      <c r="E142" s="7"/>
-      <c r="F142" s="45"/>
-      <c r="G142" s="45"/>
-      <c r="H142" s="13"/>
+      <c r="A142" s="35"/>
+      <c r="B142" s="54"/>
+      <c r="C142" s="43"/>
+      <c r="D142" s="57"/>
+      <c r="E142" s="11"/>
+      <c r="F142" s="53"/>
+      <c r="G142" s="44"/>
+      <c r="H142" s="12"/>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A143" s="35"/>
-      <c r="B143" s="54"/>
-      <c r="C143" s="43"/>
-      <c r="D143" s="57"/>
-      <c r="E143" s="11"/>
-      <c r="F143" s="53"/>
-      <c r="G143" s="44"/>
-      <c r="H143" s="12"/>
+      <c r="A143" s="36"/>
+      <c r="B143" s="56"/>
+      <c r="C143" s="41"/>
+      <c r="D143" s="59"/>
+      <c r="E143" s="7"/>
+      <c r="F143" s="45"/>
+      <c r="G143" s="45"/>
+      <c r="H143" s="13"/>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A144" s="36"/>
-      <c r="B144" s="56"/>
-      <c r="C144" s="41"/>
-      <c r="D144" s="59"/>
-      <c r="E144" s="7"/>
-      <c r="F144" s="45"/>
-      <c r="G144" s="45"/>
-      <c r="H144" s="13"/>
+      <c r="A144" s="35"/>
+      <c r="B144" s="54"/>
+      <c r="C144" s="43"/>
+      <c r="D144" s="57"/>
+      <c r="E144" s="11"/>
+      <c r="F144" s="53"/>
+      <c r="G144" s="44"/>
+      <c r="H144" s="12"/>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A145" s="35"/>
-      <c r="B145" s="54"/>
-      <c r="C145" s="43"/>
-      <c r="D145" s="57"/>
-      <c r="E145" s="11"/>
-      <c r="F145" s="53"/>
-      <c r="G145" s="44"/>
-      <c r="H145" s="12"/>
+      <c r="A145" s="36"/>
+      <c r="B145" s="56"/>
+      <c r="C145" s="41"/>
+      <c r="D145" s="59"/>
+      <c r="E145" s="7"/>
+      <c r="F145" s="45"/>
+      <c r="G145" s="45"/>
+      <c r="H145" s="13"/>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A146" s="36"/>
-      <c r="B146" s="56"/>
-      <c r="C146" s="41"/>
-      <c r="D146" s="59"/>
-      <c r="E146" s="7"/>
-      <c r="F146" s="45"/>
-      <c r="G146" s="45"/>
-      <c r="H146" s="13"/>
+      <c r="B146" s="1"/>
+      <c r="C146" s="2"/>
+      <c r="D146" s="4"/>
+      <c r="E146" s="3"/>
+      <c r="F146" s="4"/>
+      <c r="G146" s="4"/>
+      <c r="H146" s="17"/>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B147" s="1"/>
@@ -3018,15 +3042,6 @@
       <c r="F170" s="4"/>
       <c r="G170" s="4"/>
       <c r="H170" s="17"/>
-    </row>
-    <row r="171" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B171" s="1"/>
-      <c r="C171" s="2"/>
-      <c r="D171" s="4"/>
-      <c r="E171" s="3"/>
-      <c r="F171" s="4"/>
-      <c r="G171" s="4"/>
-      <c r="H171" s="17"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/TS Jatai Working/TTD Krama PaaraayaNam-Kramam.xlsx
+++ b/TS Jatai Working/TTD Krama PaaraayaNam-Kramam.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="81">
   <si>
     <t>Date</t>
   </si>
@@ -239,6 +239,24 @@
   </si>
   <si>
     <t xml:space="preserve">2.1.8.1 </t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=sUVDOGLfKAU&amp;list=PLjhrDIztP9pcSE8dR7xYZb7zwX5SXxNKy&amp;index=3</t>
+  </si>
+  <si>
+    <t>31 min 06 sec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1.11.6 </t>
+  </si>
+  <si>
+    <t>2.2.1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2.4.5 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2.4.6 </t>
   </si>
 </sst>
 </file>
@@ -932,11 +950,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L170"/>
+  <dimension ref="A1:L171"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E40" sqref="E40"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -1746,7 +1764,7 @@
       <c r="E39" s="27"/>
       <c r="F39" s="47"/>
       <c r="G39" s="41"/>
-      <c r="H39" s="13"/>
+      <c r="H39" s="14"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="35">
@@ -1764,19 +1782,39 @@
       <c r="E40" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F40" s="46"/>
-      <c r="G40" s="46"/>
-      <c r="H40" s="12"/>
+      <c r="F40" s="46" t="s">
+        <v>77</v>
+      </c>
+      <c r="G40" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="H40" s="62" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="37"/>
-      <c r="B41" s="40"/>
-      <c r="C41" s="42"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="44"/>
-      <c r="G41" s="44"/>
-      <c r="H41" s="14"/>
+      <c r="B41" s="40">
+        <v>44461</v>
+      </c>
+      <c r="C41" s="42">
+        <v>1</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G41" s="58" t="s">
+        <v>13</v>
+      </c>
+      <c r="H41" s="63" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="36"/>
@@ -1785,428 +1823,438 @@
       <c r="D42" s="6"/>
       <c r="E42" s="27"/>
       <c r="F42" s="47"/>
-      <c r="G42" s="41"/>
-      <c r="H42" s="13"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="64"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="35"/>
-      <c r="B43" s="38"/>
-      <c r="C43" s="43"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="11"/>
+      <c r="A43" s="35">
+        <v>17</v>
+      </c>
+      <c r="B43" s="38">
+        <v>44462</v>
+      </c>
+      <c r="C43" s="43">
+        <v>2</v>
+      </c>
+      <c r="D43" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="E43" s="11" t="s">
+        <v>9</v>
+      </c>
       <c r="F43" s="46"/>
       <c r="G43" s="46"/>
-      <c r="H43" s="23"/>
+      <c r="H43" s="5"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="36"/>
-      <c r="B44" s="41"/>
-      <c r="C44" s="41"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="27"/>
-      <c r="F44" s="47"/>
-      <c r="G44" s="41"/>
-      <c r="H44" s="13"/>
+      <c r="A44" s="37"/>
+      <c r="B44" s="40"/>
+      <c r="C44" s="42"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="44"/>
+      <c r="G44" s="44"/>
+      <c r="H44" s="5"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="35"/>
-      <c r="B45" s="38"/>
-      <c r="C45" s="43"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="46"/>
-      <c r="G45" s="46"/>
-      <c r="H45" s="23"/>
+      <c r="A45" s="36"/>
+      <c r="B45" s="41"/>
+      <c r="C45" s="41"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="27"/>
+      <c r="F45" s="47"/>
+      <c r="G45" s="41"/>
+      <c r="H45" s="13"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="37"/>
-      <c r="B46" s="40"/>
-      <c r="C46" s="42"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="44"/>
-      <c r="G46" s="44"/>
-      <c r="H46" s="5"/>
+      <c r="A46" s="35"/>
+      <c r="B46" s="38"/>
+      <c r="C46" s="43"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="46"/>
+      <c r="G46" s="46"/>
+      <c r="H46" s="23"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="36"/>
-      <c r="B47" s="41"/>
-      <c r="C47" s="41"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="27"/>
-      <c r="F47" s="47"/>
-      <c r="G47" s="41"/>
-      <c r="H47" s="13"/>
+      <c r="A47" s="37"/>
+      <c r="B47" s="40"/>
+      <c r="C47" s="42"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="44"/>
+      <c r="G47" s="44"/>
+      <c r="H47" s="5"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="35"/>
-      <c r="B48" s="38"/>
-      <c r="C48" s="43"/>
-      <c r="D48" s="10"/>
-      <c r="E48" s="11"/>
-      <c r="F48" s="46"/>
-      <c r="G48" s="46"/>
-      <c r="H48" s="12"/>
+      <c r="A48" s="36"/>
+      <c r="B48" s="41"/>
+      <c r="C48" s="41"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="27"/>
+      <c r="F48" s="47"/>
+      <c r="G48" s="41"/>
+      <c r="H48" s="13"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="36"/>
-      <c r="B49" s="41"/>
-      <c r="C49" s="41"/>
-      <c r="D49" s="6"/>
-      <c r="E49" s="27"/>
-      <c r="F49" s="47"/>
-      <c r="G49" s="41"/>
-      <c r="H49" s="13"/>
+      <c r="A49" s="35"/>
+      <c r="B49" s="38"/>
+      <c r="C49" s="43"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="46"/>
+      <c r="G49" s="46"/>
+      <c r="H49" s="12"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="35"/>
-      <c r="B50" s="38"/>
-      <c r="C50" s="43"/>
-      <c r="D50" s="10"/>
-      <c r="E50" s="11"/>
-      <c r="F50" s="46"/>
-      <c r="G50" s="46"/>
-      <c r="H50" s="12"/>
+      <c r="A50" s="36"/>
+      <c r="B50" s="41"/>
+      <c r="C50" s="41"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="27"/>
+      <c r="F50" s="47"/>
+      <c r="G50" s="41"/>
+      <c r="H50" s="13"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="37"/>
-      <c r="B51" s="40"/>
-      <c r="C51" s="42"/>
-      <c r="D51" s="4"/>
-      <c r="E51" s="3"/>
-      <c r="F51" s="44"/>
-      <c r="G51" s="44"/>
-      <c r="H51" s="14"/>
+      <c r="A51" s="35"/>
+      <c r="B51" s="38"/>
+      <c r="C51" s="43"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="46"/>
+      <c r="G51" s="46"/>
+      <c r="H51" s="12"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="36"/>
-      <c r="B52" s="41"/>
-      <c r="C52" s="41"/>
-      <c r="D52" s="6"/>
-      <c r="E52" s="27"/>
-      <c r="F52" s="47"/>
-      <c r="G52" s="41"/>
-      <c r="H52" s="13"/>
+      <c r="A52" s="37"/>
+      <c r="B52" s="40"/>
+      <c r="C52" s="42"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="44"/>
+      <c r="G52" s="44"/>
+      <c r="H52" s="14"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="35"/>
-      <c r="B53" s="38"/>
-      <c r="C53" s="43"/>
-      <c r="D53" s="10"/>
-      <c r="E53" s="11"/>
-      <c r="F53" s="46"/>
-      <c r="G53" s="46"/>
-      <c r="H53" s="12"/>
+      <c r="A53" s="36"/>
+      <c r="B53" s="41"/>
+      <c r="C53" s="41"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="27"/>
+      <c r="F53" s="47"/>
+      <c r="G53" s="41"/>
+      <c r="H53" s="13"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="37"/>
-      <c r="B54" s="40"/>
-      <c r="C54" s="42"/>
-      <c r="D54" s="4"/>
-      <c r="E54" s="3"/>
-      <c r="F54" s="44"/>
-      <c r="G54" s="44"/>
-      <c r="H54" s="14"/>
+      <c r="A54" s="35"/>
+      <c r="B54" s="38"/>
+      <c r="C54" s="43"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="46"/>
+      <c r="G54" s="46"/>
+      <c r="H54" s="12"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="36"/>
-      <c r="B55" s="41"/>
-      <c r="C55" s="41"/>
-      <c r="D55" s="6"/>
-      <c r="E55" s="27"/>
-      <c r="F55" s="47"/>
-      <c r="G55" s="41"/>
-      <c r="H55" s="13"/>
+      <c r="A55" s="37"/>
+      <c r="B55" s="40"/>
+      <c r="C55" s="42"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="44"/>
+      <c r="G55" s="44"/>
+      <c r="H55" s="14"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="35"/>
-      <c r="B56" s="38"/>
-      <c r="C56" s="43"/>
-      <c r="D56" s="10"/>
-      <c r="E56" s="11"/>
-      <c r="F56" s="46"/>
-      <c r="G56" s="46"/>
-      <c r="H56" s="12"/>
+      <c r="A56" s="36"/>
+      <c r="B56" s="41"/>
+      <c r="C56" s="41"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="27"/>
+      <c r="F56" s="47"/>
+      <c r="G56" s="41"/>
+      <c r="H56" s="13"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="37"/>
-      <c r="B57" s="40"/>
-      <c r="C57" s="42"/>
-      <c r="D57" s="4"/>
-      <c r="E57" s="3"/>
-      <c r="F57" s="44"/>
-      <c r="G57" s="44"/>
-      <c r="H57" s="14"/>
+      <c r="A57" s="35"/>
+      <c r="B57" s="38"/>
+      <c r="C57" s="43"/>
+      <c r="D57" s="10"/>
+      <c r="E57" s="11"/>
+      <c r="F57" s="46"/>
+      <c r="G57" s="46"/>
+      <c r="H57" s="12"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="36"/>
-      <c r="B58" s="41"/>
-      <c r="C58" s="41"/>
-      <c r="D58" s="6"/>
-      <c r="E58" s="27"/>
-      <c r="F58" s="47"/>
-      <c r="G58" s="41"/>
-      <c r="H58" s="13"/>
+      <c r="A58" s="37"/>
+      <c r="B58" s="40"/>
+      <c r="C58" s="42"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="44"/>
+      <c r="G58" s="44"/>
+      <c r="H58" s="14"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="35"/>
-      <c r="B59" s="38"/>
-      <c r="C59" s="43"/>
-      <c r="D59" s="10"/>
-      <c r="E59" s="11"/>
-      <c r="F59" s="46"/>
-      <c r="G59" s="46"/>
-      <c r="H59" s="12"/>
+      <c r="A59" s="36"/>
+      <c r="B59" s="41"/>
+      <c r="C59" s="41"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="27"/>
+      <c r="F59" s="47"/>
+      <c r="G59" s="41"/>
+      <c r="H59" s="13"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="36"/>
-      <c r="B60" s="41"/>
-      <c r="C60" s="41"/>
-      <c r="D60" s="6"/>
-      <c r="E60" s="27"/>
-      <c r="F60" s="47"/>
-      <c r="G60" s="41"/>
-      <c r="H60" s="13"/>
+      <c r="A60" s="35"/>
+      <c r="B60" s="38"/>
+      <c r="C60" s="43"/>
+      <c r="D60" s="10"/>
+      <c r="E60" s="11"/>
+      <c r="F60" s="46"/>
+      <c r="G60" s="46"/>
+      <c r="H60" s="12"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="35"/>
-      <c r="B61" s="38"/>
-      <c r="C61" s="43"/>
-      <c r="D61" s="10"/>
-      <c r="E61" s="11"/>
-      <c r="F61" s="46"/>
-      <c r="G61" s="46"/>
-      <c r="H61" s="12"/>
+      <c r="A61" s="36"/>
+      <c r="B61" s="41"/>
+      <c r="C61" s="41"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="27"/>
+      <c r="F61" s="47"/>
+      <c r="G61" s="41"/>
+      <c r="H61" s="13"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="37"/>
-      <c r="B62" s="40"/>
-      <c r="C62" s="42"/>
-      <c r="D62" s="4"/>
-      <c r="E62" s="3"/>
-      <c r="F62" s="44"/>
-      <c r="G62" s="44"/>
-      <c r="H62" s="14"/>
+      <c r="A62" s="35"/>
+      <c r="B62" s="38"/>
+      <c r="C62" s="43"/>
+      <c r="D62" s="10"/>
+      <c r="E62" s="11"/>
+      <c r="F62" s="46"/>
+      <c r="G62" s="46"/>
+      <c r="H62" s="12"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="36"/>
-      <c r="B63" s="41"/>
-      <c r="C63" s="41"/>
-      <c r="D63" s="6"/>
-      <c r="E63" s="27"/>
-      <c r="F63" s="47"/>
-      <c r="G63" s="41"/>
-      <c r="H63" s="13"/>
+      <c r="A63" s="37"/>
+      <c r="B63" s="40"/>
+      <c r="C63" s="42"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="44"/>
+      <c r="G63" s="44"/>
+      <c r="H63" s="14"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="35"/>
-      <c r="B64" s="38"/>
-      <c r="C64" s="43"/>
-      <c r="D64" s="10"/>
-      <c r="E64" s="11"/>
-      <c r="F64" s="46"/>
-      <c r="G64" s="46"/>
-      <c r="H64" s="12"/>
+      <c r="A64" s="36"/>
+      <c r="B64" s="41"/>
+      <c r="C64" s="41"/>
+      <c r="D64" s="6"/>
+      <c r="E64" s="27"/>
+      <c r="F64" s="47"/>
+      <c r="G64" s="41"/>
+      <c r="H64" s="13"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="37"/>
-      <c r="B65" s="40"/>
-      <c r="C65" s="42"/>
-      <c r="D65" s="4"/>
-      <c r="E65" s="3"/>
-      <c r="F65" s="44"/>
-      <c r="G65" s="44"/>
-      <c r="H65" s="14"/>
+      <c r="A65" s="35"/>
+      <c r="B65" s="38"/>
+      <c r="C65" s="43"/>
+      <c r="D65" s="10"/>
+      <c r="E65" s="11"/>
+      <c r="F65" s="46"/>
+      <c r="G65" s="46"/>
+      <c r="H65" s="12"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="36"/>
-      <c r="B66" s="41"/>
-      <c r="C66" s="41"/>
-      <c r="D66" s="6"/>
-      <c r="E66" s="27"/>
-      <c r="F66" s="47"/>
-      <c r="G66" s="41"/>
-      <c r="H66" s="13"/>
+      <c r="A66" s="37"/>
+      <c r="B66" s="40"/>
+      <c r="C66" s="42"/>
+      <c r="D66" s="4"/>
+      <c r="E66" s="3"/>
+      <c r="F66" s="44"/>
+      <c r="G66" s="44"/>
+      <c r="H66" s="14"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="35"/>
-      <c r="B67" s="38"/>
-      <c r="C67" s="43"/>
-      <c r="D67" s="10"/>
-      <c r="E67" s="11"/>
-      <c r="F67" s="46"/>
-      <c r="G67" s="46"/>
-      <c r="H67" s="12"/>
+      <c r="A67" s="36"/>
+      <c r="B67" s="41"/>
+      <c r="C67" s="41"/>
+      <c r="D67" s="6"/>
+      <c r="E67" s="27"/>
+      <c r="F67" s="47"/>
+      <c r="G67" s="41"/>
+      <c r="H67" s="13"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="37"/>
-      <c r="B68" s="40"/>
-      <c r="C68" s="42"/>
-      <c r="D68" s="4"/>
-      <c r="E68" s="3"/>
-      <c r="F68" s="44"/>
-      <c r="G68" s="44"/>
-      <c r="H68" s="14"/>
+      <c r="A68" s="35"/>
+      <c r="B68" s="38"/>
+      <c r="C68" s="43"/>
+      <c r="D68" s="10"/>
+      <c r="E68" s="11"/>
+      <c r="F68" s="46"/>
+      <c r="G68" s="46"/>
+      <c r="H68" s="12"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="36"/>
-      <c r="B69" s="41"/>
-      <c r="C69" s="41"/>
-      <c r="D69" s="6"/>
-      <c r="E69" s="27"/>
-      <c r="F69" s="47"/>
-      <c r="G69" s="41"/>
-      <c r="H69" s="13"/>
+      <c r="A69" s="37"/>
+      <c r="B69" s="40"/>
+      <c r="C69" s="42"/>
+      <c r="D69" s="4"/>
+      <c r="E69" s="3"/>
+      <c r="F69" s="44"/>
+      <c r="G69" s="44"/>
+      <c r="H69" s="14"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="35"/>
-      <c r="B70" s="38"/>
-      <c r="C70" s="43"/>
-      <c r="D70" s="10"/>
-      <c r="E70" s="11"/>
-      <c r="F70" s="46"/>
-      <c r="G70" s="46"/>
-      <c r="H70" s="12"/>
+      <c r="A70" s="36"/>
+      <c r="B70" s="41"/>
+      <c r="C70" s="41"/>
+      <c r="D70" s="6"/>
+      <c r="E70" s="27"/>
+      <c r="F70" s="47"/>
+      <c r="G70" s="41"/>
+      <c r="H70" s="13"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="36"/>
-      <c r="B71" s="41"/>
-      <c r="C71" s="41"/>
-      <c r="D71" s="6"/>
-      <c r="E71" s="27"/>
-      <c r="F71" s="47"/>
-      <c r="G71" s="41"/>
-      <c r="H71" s="13"/>
+      <c r="A71" s="35"/>
+      <c r="B71" s="38"/>
+      <c r="C71" s="43"/>
+      <c r="D71" s="10"/>
+      <c r="E71" s="11"/>
+      <c r="F71" s="46"/>
+      <c r="G71" s="46"/>
+      <c r="H71" s="12"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="35"/>
-      <c r="B72" s="38"/>
-      <c r="C72" s="43"/>
-      <c r="D72" s="10"/>
-      <c r="E72" s="11"/>
-      <c r="F72" s="46"/>
-      <c r="G72" s="46"/>
-      <c r="H72" s="12"/>
+      <c r="A72" s="36"/>
+      <c r="B72" s="41"/>
+      <c r="C72" s="41"/>
+      <c r="D72" s="6"/>
+      <c r="E72" s="27"/>
+      <c r="F72" s="47"/>
+      <c r="G72" s="41"/>
+      <c r="H72" s="13"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="37"/>
-      <c r="B73" s="40"/>
-      <c r="C73" s="42"/>
-      <c r="D73" s="4"/>
-      <c r="E73" s="3"/>
-      <c r="F73" s="44"/>
-      <c r="G73" s="44"/>
-      <c r="H73" s="14"/>
+      <c r="A73" s="35"/>
+      <c r="B73" s="38"/>
+      <c r="C73" s="43"/>
+      <c r="D73" s="10"/>
+      <c r="E73" s="11"/>
+      <c r="F73" s="46"/>
+      <c r="G73" s="46"/>
+      <c r="H73" s="12"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="36"/>
-      <c r="B74" s="41"/>
-      <c r="C74" s="41"/>
-      <c r="D74" s="6"/>
-      <c r="E74" s="27"/>
-      <c r="F74" s="47"/>
-      <c r="G74" s="41"/>
-      <c r="H74" s="13"/>
+      <c r="A74" s="37"/>
+      <c r="B74" s="40"/>
+      <c r="C74" s="42"/>
+      <c r="D74" s="4"/>
+      <c r="E74" s="3"/>
+      <c r="F74" s="44"/>
+      <c r="G74" s="44"/>
+      <c r="H74" s="14"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="35"/>
-      <c r="B75" s="38"/>
-      <c r="C75" s="43"/>
-      <c r="D75" s="10"/>
-      <c r="E75" s="11"/>
-      <c r="F75" s="46"/>
-      <c r="G75" s="46"/>
-      <c r="H75" s="12"/>
+      <c r="A75" s="36"/>
+      <c r="B75" s="41"/>
+      <c r="C75" s="41"/>
+      <c r="D75" s="6"/>
+      <c r="E75" s="27"/>
+      <c r="F75" s="47"/>
+      <c r="G75" s="41"/>
+      <c r="H75" s="13"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" s="37"/>
-      <c r="B76" s="40"/>
-      <c r="C76" s="42"/>
-      <c r="D76" s="4"/>
-      <c r="E76" s="3"/>
-      <c r="F76" s="44"/>
-      <c r="G76" s="44"/>
-      <c r="H76" s="14"/>
+      <c r="A76" s="35"/>
+      <c r="B76" s="38"/>
+      <c r="C76" s="43"/>
+      <c r="D76" s="10"/>
+      <c r="E76" s="11"/>
+      <c r="F76" s="46"/>
+      <c r="G76" s="46"/>
+      <c r="H76" s="12"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77" s="36"/>
-      <c r="B77" s="41"/>
-      <c r="C77" s="41"/>
-      <c r="D77" s="6"/>
-      <c r="E77" s="27"/>
-      <c r="F77" s="47"/>
-      <c r="G77" s="41"/>
-      <c r="H77" s="13"/>
+      <c r="A77" s="37"/>
+      <c r="B77" s="40"/>
+      <c r="C77" s="42"/>
+      <c r="D77" s="4"/>
+      <c r="E77" s="3"/>
+      <c r="F77" s="44"/>
+      <c r="G77" s="44"/>
+      <c r="H77" s="14"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" s="35"/>
-      <c r="B78" s="38"/>
-      <c r="C78" s="43"/>
-      <c r="D78" s="10"/>
-      <c r="E78" s="11"/>
-      <c r="F78" s="46"/>
-      <c r="G78" s="46"/>
-      <c r="H78" s="12"/>
+      <c r="A78" s="36"/>
+      <c r="B78" s="41"/>
+      <c r="C78" s="41"/>
+      <c r="D78" s="6"/>
+      <c r="E78" s="27"/>
+      <c r="F78" s="47"/>
+      <c r="G78" s="41"/>
+      <c r="H78" s="13"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" s="37"/>
-      <c r="B79" s="40"/>
-      <c r="C79" s="42"/>
-      <c r="D79" s="4"/>
-      <c r="E79" s="3"/>
-      <c r="F79" s="44"/>
-      <c r="G79" s="44"/>
-      <c r="H79" s="14"/>
+      <c r="A79" s="35"/>
+      <c r="B79" s="38"/>
+      <c r="C79" s="43"/>
+      <c r="D79" s="10"/>
+      <c r="E79" s="11"/>
+      <c r="F79" s="46"/>
+      <c r="G79" s="46"/>
+      <c r="H79" s="12"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80" s="36"/>
-      <c r="B80" s="41"/>
-      <c r="C80" s="41"/>
-      <c r="D80" s="6"/>
-      <c r="E80" s="27"/>
-      <c r="F80" s="47"/>
-      <c r="G80" s="41"/>
-      <c r="H80" s="13"/>
+      <c r="A80" s="37"/>
+      <c r="B80" s="40"/>
+      <c r="C80" s="42"/>
+      <c r="D80" s="4"/>
+      <c r="E80" s="3"/>
+      <c r="F80" s="44"/>
+      <c r="G80" s="44"/>
+      <c r="H80" s="14"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81" s="35"/>
-      <c r="B81" s="38"/>
-      <c r="C81" s="43"/>
-      <c r="D81" s="10"/>
-      <c r="E81" s="11"/>
-      <c r="F81" s="46"/>
-      <c r="G81" s="46"/>
-      <c r="H81" s="12"/>
+      <c r="A81" s="36"/>
+      <c r="B81" s="41"/>
+      <c r="C81" s="41"/>
+      <c r="D81" s="6"/>
+      <c r="E81" s="27"/>
+      <c r="F81" s="47"/>
+      <c r="G81" s="41"/>
+      <c r="H81" s="13"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" s="36"/>
-      <c r="B82" s="41"/>
-      <c r="C82" s="41"/>
-      <c r="D82" s="6"/>
-      <c r="E82" s="27"/>
-      <c r="F82" s="47"/>
-      <c r="G82" s="41"/>
-      <c r="H82" s="13"/>
+      <c r="A82" s="35"/>
+      <c r="B82" s="38"/>
+      <c r="C82" s="43"/>
+      <c r="D82" s="10"/>
+      <c r="E82" s="11"/>
+      <c r="F82" s="46"/>
+      <c r="G82" s="46"/>
+      <c r="H82" s="12"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A83" s="35"/>
-      <c r="B83" s="38"/>
-      <c r="C83" s="43"/>
-      <c r="D83" s="10"/>
-      <c r="E83" s="11"/>
-      <c r="F83" s="46"/>
-      <c r="G83" s="46"/>
-      <c r="H83" s="12"/>
+      <c r="A83" s="36"/>
+      <c r="B83" s="41"/>
+      <c r="C83" s="41"/>
+      <c r="D83" s="6"/>
+      <c r="E83" s="27"/>
+      <c r="F83" s="47"/>
+      <c r="G83" s="41"/>
+      <c r="H83" s="13"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84" s="37"/>
-      <c r="B84" s="40"/>
-      <c r="C84" s="42"/>
-      <c r="D84" s="4"/>
-      <c r="E84" s="3"/>
-      <c r="F84" s="44"/>
-      <c r="G84" s="44"/>
-      <c r="H84" s="14"/>
+      <c r="A84" s="35"/>
+      <c r="B84" s="38"/>
+      <c r="C84" s="43"/>
+      <c r="D84" s="10"/>
+      <c r="E84" s="11"/>
+      <c r="F84" s="46"/>
+      <c r="G84" s="46"/>
+      <c r="H84" s="12"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="37"/>
@@ -2219,144 +2267,144 @@
       <c r="H85" s="14"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86" s="36"/>
-      <c r="B86" s="41"/>
-      <c r="C86" s="41"/>
-      <c r="D86" s="6"/>
-      <c r="E86" s="27"/>
-      <c r="F86" s="47"/>
-      <c r="G86" s="41"/>
-      <c r="H86" s="13"/>
+      <c r="A86" s="37"/>
+      <c r="B86" s="40"/>
+      <c r="C86" s="42"/>
+      <c r="D86" s="4"/>
+      <c r="E86" s="3"/>
+      <c r="F86" s="44"/>
+      <c r="G86" s="44"/>
+      <c r="H86" s="14"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A87" s="35"/>
-      <c r="B87" s="38"/>
-      <c r="C87" s="43"/>
-      <c r="D87" s="10"/>
-      <c r="E87" s="11"/>
-      <c r="F87" s="46"/>
-      <c r="G87" s="46"/>
-      <c r="H87" s="12"/>
+      <c r="A87" s="36"/>
+      <c r="B87" s="41"/>
+      <c r="C87" s="41"/>
+      <c r="D87" s="6"/>
+      <c r="E87" s="27"/>
+      <c r="F87" s="47"/>
+      <c r="G87" s="41"/>
+      <c r="H87" s="13"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88" s="36"/>
-      <c r="B88" s="41"/>
-      <c r="C88" s="41"/>
-      <c r="D88" s="6"/>
-      <c r="E88" s="27"/>
-      <c r="F88" s="47"/>
-      <c r="G88" s="41"/>
-      <c r="H88" s="13"/>
+      <c r="A88" s="35"/>
+      <c r="B88" s="38"/>
+      <c r="C88" s="43"/>
+      <c r="D88" s="10"/>
+      <c r="E88" s="11"/>
+      <c r="F88" s="46"/>
+      <c r="G88" s="46"/>
+      <c r="H88" s="12"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A89" s="35"/>
-      <c r="B89" s="38"/>
-      <c r="C89" s="43"/>
-      <c r="D89" s="10"/>
-      <c r="E89" s="11"/>
-      <c r="F89" s="46"/>
-      <c r="G89" s="46"/>
-      <c r="H89" s="12"/>
+      <c r="A89" s="36"/>
+      <c r="B89" s="41"/>
+      <c r="C89" s="41"/>
+      <c r="D89" s="6"/>
+      <c r="E89" s="27"/>
+      <c r="F89" s="47"/>
+      <c r="G89" s="41"/>
+      <c r="H89" s="13"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90" s="37"/>
-      <c r="B90" s="40"/>
-      <c r="C90" s="42"/>
-      <c r="D90" s="4"/>
-      <c r="E90" s="3"/>
-      <c r="F90" s="44"/>
-      <c r="G90" s="44"/>
-      <c r="H90" s="14"/>
+      <c r="A90" s="35"/>
+      <c r="B90" s="38"/>
+      <c r="C90" s="43"/>
+      <c r="D90" s="10"/>
+      <c r="E90" s="11"/>
+      <c r="F90" s="46"/>
+      <c r="G90" s="46"/>
+      <c r="H90" s="12"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91" s="36"/>
-      <c r="B91" s="41"/>
-      <c r="C91" s="41"/>
-      <c r="D91" s="6"/>
-      <c r="E91" s="27"/>
-      <c r="F91" s="47"/>
-      <c r="G91" s="41"/>
-      <c r="H91" s="13"/>
+      <c r="A91" s="37"/>
+      <c r="B91" s="40"/>
+      <c r="C91" s="42"/>
+      <c r="D91" s="4"/>
+      <c r="E91" s="3"/>
+      <c r="F91" s="44"/>
+      <c r="G91" s="44"/>
+      <c r="H91" s="14"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A92" s="35"/>
-      <c r="B92" s="38"/>
-      <c r="C92" s="43"/>
-      <c r="D92" s="10"/>
-      <c r="E92" s="11"/>
-      <c r="F92" s="46"/>
-      <c r="G92" s="46"/>
-      <c r="H92" s="12"/>
+      <c r="A92" s="36"/>
+      <c r="B92" s="41"/>
+      <c r="C92" s="41"/>
+      <c r="D92" s="6"/>
+      <c r="E92" s="27"/>
+      <c r="F92" s="47"/>
+      <c r="G92" s="41"/>
+      <c r="H92" s="13"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93" s="36"/>
-      <c r="B93" s="41"/>
-      <c r="C93" s="41"/>
-      <c r="D93" s="6"/>
-      <c r="E93" s="27"/>
-      <c r="F93" s="47"/>
-      <c r="G93" s="41"/>
-      <c r="H93" s="13"/>
+      <c r="A93" s="35"/>
+      <c r="B93" s="38"/>
+      <c r="C93" s="43"/>
+      <c r="D93" s="10"/>
+      <c r="E93" s="11"/>
+      <c r="F93" s="46"/>
+      <c r="G93" s="46"/>
+      <c r="H93" s="12"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A94" s="35"/>
-      <c r="B94" s="38"/>
-      <c r="C94" s="43"/>
-      <c r="D94" s="10"/>
-      <c r="E94" s="11"/>
-      <c r="F94" s="46"/>
-      <c r="G94" s="46"/>
-      <c r="H94" s="12"/>
+      <c r="A94" s="36"/>
+      <c r="B94" s="41"/>
+      <c r="C94" s="41"/>
+      <c r="D94" s="6"/>
+      <c r="E94" s="27"/>
+      <c r="F94" s="47"/>
+      <c r="G94" s="41"/>
+      <c r="H94" s="13"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A95" s="37"/>
-      <c r="B95" s="40"/>
-      <c r="C95" s="42"/>
-      <c r="D95" s="4"/>
-      <c r="E95" s="3"/>
-      <c r="F95" s="44"/>
-      <c r="G95" s="44"/>
-      <c r="H95" s="14"/>
+      <c r="A95" s="35"/>
+      <c r="B95" s="38"/>
+      <c r="C95" s="43"/>
+      <c r="D95" s="10"/>
+      <c r="E95" s="11"/>
+      <c r="F95" s="46"/>
+      <c r="G95" s="46"/>
+      <c r="H95" s="12"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A96" s="36"/>
-      <c r="B96" s="41"/>
-      <c r="C96" s="41"/>
-      <c r="D96" s="6"/>
-      <c r="E96" s="27"/>
-      <c r="F96" s="47"/>
-      <c r="G96" s="41"/>
-      <c r="H96" s="13"/>
+      <c r="A96" s="37"/>
+      <c r="B96" s="40"/>
+      <c r="C96" s="42"/>
+      <c r="D96" s="4"/>
+      <c r="E96" s="3"/>
+      <c r="F96" s="44"/>
+      <c r="G96" s="44"/>
+      <c r="H96" s="14"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A97" s="35"/>
-      <c r="B97" s="38"/>
-      <c r="C97" s="43"/>
-      <c r="D97" s="10"/>
-      <c r="E97" s="11"/>
-      <c r="F97" s="46"/>
-      <c r="G97" s="46"/>
-      <c r="H97" s="12"/>
+      <c r="A97" s="36"/>
+      <c r="B97" s="41"/>
+      <c r="C97" s="41"/>
+      <c r="D97" s="6"/>
+      <c r="E97" s="27"/>
+      <c r="F97" s="47"/>
+      <c r="G97" s="41"/>
+      <c r="H97" s="13"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A98" s="36"/>
-      <c r="B98" s="41"/>
-      <c r="C98" s="41"/>
-      <c r="D98" s="6"/>
-      <c r="E98" s="27"/>
-      <c r="F98" s="47"/>
-      <c r="G98" s="41"/>
-      <c r="H98" s="13"/>
+      <c r="A98" s="35"/>
+      <c r="B98" s="38"/>
+      <c r="C98" s="43"/>
+      <c r="D98" s="10"/>
+      <c r="E98" s="11"/>
+      <c r="F98" s="46"/>
+      <c r="G98" s="46"/>
+      <c r="H98" s="12"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A99" s="37"/>
-      <c r="B99" s="40"/>
-      <c r="C99" s="42"/>
-      <c r="D99" s="4"/>
-      <c r="E99" s="3"/>
-      <c r="F99" s="44"/>
-      <c r="G99" s="44"/>
-      <c r="H99" s="17"/>
+      <c r="A99" s="36"/>
+      <c r="B99" s="41"/>
+      <c r="C99" s="41"/>
+      <c r="D99" s="6"/>
+      <c r="E99" s="27"/>
+      <c r="F99" s="47"/>
+      <c r="G99" s="41"/>
+      <c r="H99" s="13"/>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="37"/>
@@ -2370,343 +2418,343 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="37"/>
-      <c r="B101" s="42"/>
+      <c r="B101" s="40"/>
       <c r="C101" s="42"/>
-      <c r="D101" s="2"/>
-      <c r="E101" s="19"/>
-      <c r="F101" s="48"/>
-      <c r="G101" s="42"/>
+      <c r="D101" s="4"/>
+      <c r="E101" s="3"/>
+      <c r="F101" s="44"/>
+      <c r="G101" s="44"/>
       <c r="H101" s="17"/>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A102" s="35"/>
-      <c r="B102" s="38"/>
-      <c r="C102" s="43"/>
-      <c r="D102" s="10"/>
-      <c r="E102" s="11"/>
-      <c r="F102" s="46"/>
-      <c r="G102" s="46"/>
-      <c r="H102" s="12"/>
+      <c r="A102" s="37"/>
+      <c r="B102" s="42"/>
+      <c r="C102" s="42"/>
+      <c r="D102" s="2"/>
+      <c r="E102" s="19"/>
+      <c r="F102" s="48"/>
+      <c r="G102" s="42"/>
+      <c r="H102" s="17"/>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A103" s="37"/>
-      <c r="B103" s="40"/>
-      <c r="C103" s="42"/>
-      <c r="D103" s="4"/>
-      <c r="E103" s="3"/>
-      <c r="F103" s="44"/>
-      <c r="G103" s="44"/>
-      <c r="H103" s="14"/>
+      <c r="A103" s="35"/>
+      <c r="B103" s="38"/>
+      <c r="C103" s="43"/>
+      <c r="D103" s="10"/>
+      <c r="E103" s="11"/>
+      <c r="F103" s="46"/>
+      <c r="G103" s="46"/>
+      <c r="H103" s="12"/>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A104" s="36"/>
-      <c r="B104" s="39"/>
-      <c r="C104" s="41"/>
-      <c r="D104" s="8"/>
-      <c r="E104" s="7"/>
-      <c r="F104" s="45"/>
-      <c r="G104" s="45"/>
-      <c r="H104" s="13"/>
+      <c r="A104" s="37"/>
+      <c r="B104" s="40"/>
+      <c r="C104" s="42"/>
+      <c r="D104" s="4"/>
+      <c r="E104" s="3"/>
+      <c r="F104" s="44"/>
+      <c r="G104" s="44"/>
+      <c r="H104" s="14"/>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A105" s="35"/>
-      <c r="B105" s="38"/>
-      <c r="C105" s="43"/>
-      <c r="D105" s="10"/>
-      <c r="E105" s="11"/>
-      <c r="F105" s="46"/>
-      <c r="G105" s="46"/>
-      <c r="H105" s="12"/>
+      <c r="A105" s="36"/>
+      <c r="B105" s="39"/>
+      <c r="C105" s="41"/>
+      <c r="D105" s="8"/>
+      <c r="E105" s="7"/>
+      <c r="F105" s="45"/>
+      <c r="G105" s="45"/>
+      <c r="H105" s="13"/>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A106" s="36"/>
-      <c r="B106" s="39"/>
-      <c r="C106" s="41"/>
-      <c r="D106" s="8"/>
-      <c r="E106" s="7"/>
-      <c r="F106" s="45"/>
-      <c r="G106" s="45"/>
-      <c r="H106" s="13"/>
+      <c r="A106" s="35"/>
+      <c r="B106" s="38"/>
+      <c r="C106" s="43"/>
+      <c r="D106" s="10"/>
+      <c r="E106" s="11"/>
+      <c r="F106" s="46"/>
+      <c r="G106" s="46"/>
+      <c r="H106" s="12"/>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A107" s="35"/>
-      <c r="B107" s="38"/>
-      <c r="C107" s="43"/>
-      <c r="D107" s="10"/>
-      <c r="E107" s="11"/>
-      <c r="F107" s="46"/>
-      <c r="G107" s="46"/>
-      <c r="H107" s="12"/>
+      <c r="A107" s="36"/>
+      <c r="B107" s="39"/>
+      <c r="C107" s="41"/>
+      <c r="D107" s="8"/>
+      <c r="E107" s="7"/>
+      <c r="F107" s="45"/>
+      <c r="G107" s="45"/>
+      <c r="H107" s="13"/>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A108" s="37"/>
-      <c r="B108" s="40"/>
-      <c r="C108" s="42"/>
-      <c r="D108" s="4"/>
-      <c r="E108" s="3"/>
-      <c r="F108" s="44"/>
-      <c r="G108" s="44"/>
-      <c r="H108" s="14"/>
+      <c r="A108" s="35"/>
+      <c r="B108" s="38"/>
+      <c r="C108" s="43"/>
+      <c r="D108" s="10"/>
+      <c r="E108" s="11"/>
+      <c r="F108" s="46"/>
+      <c r="G108" s="46"/>
+      <c r="H108" s="12"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A109" s="36"/>
-      <c r="B109" s="39"/>
-      <c r="C109" s="41"/>
-      <c r="D109" s="8"/>
-      <c r="E109" s="7"/>
-      <c r="F109" s="45"/>
-      <c r="G109" s="45"/>
-      <c r="H109" s="13"/>
+      <c r="A109" s="37"/>
+      <c r="B109" s="40"/>
+      <c r="C109" s="42"/>
+      <c r="D109" s="4"/>
+      <c r="E109" s="3"/>
+      <c r="F109" s="44"/>
+      <c r="G109" s="44"/>
+      <c r="H109" s="14"/>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A110" s="35"/>
-      <c r="B110" s="38"/>
-      <c r="C110" s="43"/>
-      <c r="D110" s="10"/>
-      <c r="E110" s="11"/>
-      <c r="F110" s="46"/>
-      <c r="G110" s="46"/>
-      <c r="H110" s="12"/>
+      <c r="A110" s="36"/>
+      <c r="B110" s="39"/>
+      <c r="C110" s="41"/>
+      <c r="D110" s="8"/>
+      <c r="E110" s="7"/>
+      <c r="F110" s="45"/>
+      <c r="G110" s="45"/>
+      <c r="H110" s="13"/>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A111" s="37"/>
-      <c r="B111" s="40"/>
-      <c r="C111" s="42"/>
-      <c r="D111" s="4"/>
-      <c r="E111" s="3"/>
-      <c r="F111" s="44"/>
-      <c r="G111" s="44"/>
-      <c r="H111" s="14"/>
+      <c r="A111" s="35"/>
+      <c r="B111" s="38"/>
+      <c r="C111" s="43"/>
+      <c r="D111" s="10"/>
+      <c r="E111" s="11"/>
+      <c r="F111" s="46"/>
+      <c r="G111" s="46"/>
+      <c r="H111" s="12"/>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A112" s="36"/>
-      <c r="B112" s="39"/>
-      <c r="C112" s="41"/>
-      <c r="D112" s="8"/>
-      <c r="E112" s="7"/>
-      <c r="F112" s="45"/>
-      <c r="G112" s="45"/>
-      <c r="H112" s="13"/>
+      <c r="A112" s="37"/>
+      <c r="B112" s="40"/>
+      <c r="C112" s="42"/>
+      <c r="D112" s="4"/>
+      <c r="E112" s="3"/>
+      <c r="F112" s="44"/>
+      <c r="G112" s="44"/>
+      <c r="H112" s="14"/>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A113" s="35"/>
-      <c r="B113" s="38"/>
-      <c r="C113" s="43"/>
-      <c r="D113" s="10"/>
-      <c r="E113" s="11"/>
-      <c r="F113" s="46"/>
-      <c r="G113" s="46"/>
-      <c r="H113" s="12"/>
+      <c r="A113" s="36"/>
+      <c r="B113" s="39"/>
+      <c r="C113" s="41"/>
+      <c r="D113" s="8"/>
+      <c r="E113" s="7"/>
+      <c r="F113" s="45"/>
+      <c r="G113" s="45"/>
+      <c r="H113" s="13"/>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A114" s="37"/>
-      <c r="B114" s="40"/>
-      <c r="C114" s="42"/>
-      <c r="D114" s="4"/>
-      <c r="E114" s="3"/>
-      <c r="F114" s="44"/>
-      <c r="G114" s="44"/>
-      <c r="H114" s="14"/>
+      <c r="A114" s="35"/>
+      <c r="B114" s="38"/>
+      <c r="C114" s="43"/>
+      <c r="D114" s="10"/>
+      <c r="E114" s="11"/>
+      <c r="F114" s="46"/>
+      <c r="G114" s="46"/>
+      <c r="H114" s="12"/>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A115" s="36"/>
-      <c r="B115" s="39"/>
-      <c r="C115" s="41"/>
-      <c r="D115" s="8"/>
-      <c r="E115" s="7"/>
-      <c r="F115" s="45"/>
-      <c r="G115" s="45"/>
-      <c r="H115" s="13"/>
+      <c r="A115" s="37"/>
+      <c r="B115" s="40"/>
+      <c r="C115" s="42"/>
+      <c r="D115" s="4"/>
+      <c r="E115" s="3"/>
+      <c r="F115" s="44"/>
+      <c r="G115" s="44"/>
+      <c r="H115" s="14"/>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A116" s="35"/>
-      <c r="B116" s="38"/>
-      <c r="C116" s="43"/>
-      <c r="D116" s="10"/>
-      <c r="E116" s="11"/>
-      <c r="F116" s="46"/>
-      <c r="G116" s="46"/>
-      <c r="H116" s="12"/>
+      <c r="A116" s="36"/>
+      <c r="B116" s="39"/>
+      <c r="C116" s="41"/>
+      <c r="D116" s="8"/>
+      <c r="E116" s="7"/>
+      <c r="F116" s="45"/>
+      <c r="G116" s="45"/>
+      <c r="H116" s="13"/>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A117" s="36"/>
-      <c r="B117" s="39"/>
-      <c r="C117" s="41"/>
-      <c r="D117" s="8"/>
-      <c r="E117" s="7"/>
-      <c r="F117" s="45"/>
-      <c r="G117" s="45"/>
-      <c r="H117" s="13"/>
+      <c r="A117" s="35"/>
+      <c r="B117" s="38"/>
+      <c r="C117" s="43"/>
+      <c r="D117" s="10"/>
+      <c r="E117" s="11"/>
+      <c r="F117" s="46"/>
+      <c r="G117" s="46"/>
+      <c r="H117" s="12"/>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A118" s="35"/>
-      <c r="B118" s="38"/>
-      <c r="C118" s="43"/>
-      <c r="D118" s="10"/>
-      <c r="E118" s="11"/>
-      <c r="F118" s="46"/>
-      <c r="G118" s="46"/>
-      <c r="H118" s="12"/>
+      <c r="A118" s="36"/>
+      <c r="B118" s="39"/>
+      <c r="C118" s="41"/>
+      <c r="D118" s="8"/>
+      <c r="E118" s="7"/>
+      <c r="F118" s="45"/>
+      <c r="G118" s="45"/>
+      <c r="H118" s="13"/>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A119" s="37"/>
-      <c r="B119" s="40"/>
-      <c r="C119" s="42"/>
-      <c r="D119" s="4"/>
-      <c r="E119" s="3"/>
-      <c r="F119" s="44"/>
-      <c r="G119" s="44"/>
-      <c r="H119" s="14"/>
+      <c r="A119" s="35"/>
+      <c r="B119" s="38"/>
+      <c r="C119" s="43"/>
+      <c r="D119" s="10"/>
+      <c r="E119" s="11"/>
+      <c r="F119" s="46"/>
+      <c r="G119" s="46"/>
+      <c r="H119" s="12"/>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A120" s="36"/>
-      <c r="B120" s="39"/>
-      <c r="C120" s="41"/>
-      <c r="D120" s="8"/>
-      <c r="E120" s="7"/>
-      <c r="F120" s="45"/>
-      <c r="G120" s="45"/>
-      <c r="H120" s="13"/>
+      <c r="A120" s="37"/>
+      <c r="B120" s="40"/>
+      <c r="C120" s="42"/>
+      <c r="D120" s="4"/>
+      <c r="E120" s="3"/>
+      <c r="F120" s="44"/>
+      <c r="G120" s="44"/>
+      <c r="H120" s="14"/>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A121" s="35"/>
-      <c r="B121" s="38"/>
-      <c r="C121" s="43"/>
-      <c r="D121" s="10"/>
-      <c r="E121" s="11"/>
-      <c r="F121" s="46"/>
-      <c r="G121" s="46"/>
-      <c r="H121" s="12"/>
+      <c r="A121" s="36"/>
+      <c r="B121" s="39"/>
+      <c r="C121" s="41"/>
+      <c r="D121" s="8"/>
+      <c r="E121" s="7"/>
+      <c r="F121" s="45"/>
+      <c r="G121" s="45"/>
+      <c r="H121" s="13"/>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A122" s="37"/>
-      <c r="B122" s="40"/>
-      <c r="C122" s="42"/>
-      <c r="D122" s="4"/>
-      <c r="E122" s="3"/>
-      <c r="F122" s="44"/>
-      <c r="G122" s="44"/>
-      <c r="H122" s="14"/>
+      <c r="A122" s="35"/>
+      <c r="B122" s="38"/>
+      <c r="C122" s="43"/>
+      <c r="D122" s="10"/>
+      <c r="E122" s="11"/>
+      <c r="F122" s="46"/>
+      <c r="G122" s="46"/>
+      <c r="H122" s="12"/>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A123" s="36"/>
-      <c r="B123" s="39"/>
-      <c r="C123" s="41"/>
-      <c r="D123" s="8"/>
-      <c r="E123" s="7"/>
-      <c r="F123" s="45"/>
-      <c r="G123" s="45"/>
-      <c r="H123" s="13"/>
+      <c r="A123" s="37"/>
+      <c r="B123" s="40"/>
+      <c r="C123" s="42"/>
+      <c r="D123" s="4"/>
+      <c r="E123" s="3"/>
+      <c r="F123" s="44"/>
+      <c r="G123" s="44"/>
+      <c r="H123" s="14"/>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A124" s="35"/>
-      <c r="B124" s="38"/>
-      <c r="C124" s="43"/>
-      <c r="D124" s="10"/>
-      <c r="E124" s="11"/>
-      <c r="F124" s="46"/>
-      <c r="G124" s="46"/>
-      <c r="H124" s="12"/>
+      <c r="A124" s="36"/>
+      <c r="B124" s="39"/>
+      <c r="C124" s="41"/>
+      <c r="D124" s="8"/>
+      <c r="E124" s="7"/>
+      <c r="F124" s="45"/>
+      <c r="G124" s="45"/>
+      <c r="H124" s="13"/>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A125" s="37"/>
-      <c r="B125" s="40"/>
-      <c r="C125" s="42"/>
-      <c r="D125" s="4"/>
-      <c r="E125" s="3"/>
-      <c r="F125" s="44"/>
-      <c r="G125" s="44"/>
-      <c r="H125" s="14"/>
+      <c r="A125" s="35"/>
+      <c r="B125" s="38"/>
+      <c r="C125" s="43"/>
+      <c r="D125" s="10"/>
+      <c r="E125" s="11"/>
+      <c r="F125" s="46"/>
+      <c r="G125" s="46"/>
+      <c r="H125" s="12"/>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A126" s="36"/>
-      <c r="B126" s="39"/>
-      <c r="C126" s="41"/>
-      <c r="D126" s="8"/>
-      <c r="E126" s="7"/>
-      <c r="F126" s="45"/>
-      <c r="G126" s="45"/>
-      <c r="H126" s="13"/>
+      <c r="A126" s="37"/>
+      <c r="B126" s="40"/>
+      <c r="C126" s="42"/>
+      <c r="D126" s="4"/>
+      <c r="E126" s="3"/>
+      <c r="F126" s="44"/>
+      <c r="G126" s="44"/>
+      <c r="H126" s="14"/>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A127" s="35"/>
-      <c r="B127" s="38"/>
-      <c r="C127" s="43"/>
-      <c r="D127" s="10"/>
-      <c r="E127" s="11"/>
-      <c r="F127" s="46"/>
-      <c r="G127" s="46"/>
-      <c r="H127" s="12"/>
+      <c r="A127" s="36"/>
+      <c r="B127" s="39"/>
+      <c r="C127" s="41"/>
+      <c r="D127" s="8"/>
+      <c r="E127" s="7"/>
+      <c r="F127" s="45"/>
+      <c r="G127" s="45"/>
+      <c r="H127" s="13"/>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A128" s="37"/>
-      <c r="B128" s="40"/>
-      <c r="C128" s="42"/>
-      <c r="D128" s="4"/>
-      <c r="E128" s="3"/>
-      <c r="F128" s="44"/>
-      <c r="G128" s="44"/>
-      <c r="H128" s="14"/>
+      <c r="A128" s="35"/>
+      <c r="B128" s="38"/>
+      <c r="C128" s="43"/>
+      <c r="D128" s="10"/>
+      <c r="E128" s="11"/>
+      <c r="F128" s="46"/>
+      <c r="G128" s="46"/>
+      <c r="H128" s="12"/>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A129" s="36"/>
-      <c r="B129" s="39"/>
-      <c r="C129" s="41"/>
-      <c r="D129" s="8"/>
-      <c r="E129" s="7"/>
-      <c r="F129" s="45"/>
-      <c r="G129" s="45"/>
-      <c r="H129" s="13"/>
+      <c r="A129" s="37"/>
+      <c r="B129" s="40"/>
+      <c r="C129" s="42"/>
+      <c r="D129" s="4"/>
+      <c r="E129" s="3"/>
+      <c r="F129" s="44"/>
+      <c r="G129" s="44"/>
+      <c r="H129" s="14"/>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A130" s="35"/>
-      <c r="B130" s="38"/>
-      <c r="C130" s="43"/>
-      <c r="D130" s="10"/>
-      <c r="E130" s="11"/>
-      <c r="F130" s="46"/>
-      <c r="G130" s="46"/>
-      <c r="H130" s="12"/>
+      <c r="A130" s="36"/>
+      <c r="B130" s="39"/>
+      <c r="C130" s="41"/>
+      <c r="D130" s="8"/>
+      <c r="E130" s="7"/>
+      <c r="F130" s="45"/>
+      <c r="G130" s="45"/>
+      <c r="H130" s="13"/>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A131" s="37"/>
-      <c r="B131" s="40"/>
-      <c r="C131" s="42"/>
-      <c r="D131" s="4"/>
-      <c r="E131" s="3"/>
-      <c r="F131" s="44"/>
-      <c r="G131" s="44"/>
-      <c r="H131" s="14"/>
+      <c r="A131" s="35"/>
+      <c r="B131" s="38"/>
+      <c r="C131" s="43"/>
+      <c r="D131" s="10"/>
+      <c r="E131" s="11"/>
+      <c r="F131" s="46"/>
+      <c r="G131" s="46"/>
+      <c r="H131" s="12"/>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A132" s="36"/>
-      <c r="B132" s="39"/>
-      <c r="C132" s="41"/>
-      <c r="D132" s="8"/>
-      <c r="E132" s="7"/>
-      <c r="F132" s="45"/>
-      <c r="G132" s="45"/>
-      <c r="H132" s="13"/>
+      <c r="A132" s="37"/>
+      <c r="B132" s="40"/>
+      <c r="C132" s="42"/>
+      <c r="D132" s="4"/>
+      <c r="E132" s="3"/>
+      <c r="F132" s="44"/>
+      <c r="G132" s="44"/>
+      <c r="H132" s="14"/>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A133" s="35"/>
-      <c r="B133" s="38"/>
-      <c r="C133" s="43"/>
-      <c r="D133" s="10"/>
-      <c r="E133" s="11"/>
-      <c r="F133" s="46"/>
-      <c r="G133" s="46"/>
-      <c r="H133" s="12"/>
+      <c r="A133" s="36"/>
+      <c r="B133" s="39"/>
+      <c r="C133" s="41"/>
+      <c r="D133" s="8"/>
+      <c r="E133" s="7"/>
+      <c r="F133" s="45"/>
+      <c r="G133" s="45"/>
+      <c r="H133" s="13"/>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A134" s="37"/>
-      <c r="B134" s="40"/>
-      <c r="C134" s="42"/>
-      <c r="D134" s="4"/>
-      <c r="E134" s="3"/>
-      <c r="F134" s="44"/>
-      <c r="G134" s="44"/>
-      <c r="H134" s="14"/>
+      <c r="A134" s="35"/>
+      <c r="B134" s="38"/>
+      <c r="C134" s="43"/>
+      <c r="D134" s="10"/>
+      <c r="E134" s="11"/>
+      <c r="F134" s="46"/>
+      <c r="G134" s="46"/>
+      <c r="H134" s="12"/>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="37"/>
@@ -2719,24 +2767,24 @@
       <c r="H135" s="14"/>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A136" s="35"/>
-      <c r="B136" s="38"/>
-      <c r="C136" s="43"/>
-      <c r="D136" s="10"/>
-      <c r="E136" s="11"/>
-      <c r="F136" s="46"/>
-      <c r="G136" s="46"/>
-      <c r="H136" s="12"/>
+      <c r="A136" s="37"/>
+      <c r="B136" s="40"/>
+      <c r="C136" s="42"/>
+      <c r="D136" s="4"/>
+      <c r="E136" s="3"/>
+      <c r="F136" s="44"/>
+      <c r="G136" s="44"/>
+      <c r="H136" s="14"/>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A137" s="37"/>
-      <c r="B137" s="40"/>
-      <c r="C137" s="42"/>
-      <c r="D137" s="4"/>
-      <c r="E137" s="3"/>
-      <c r="F137" s="44"/>
-      <c r="G137" s="44"/>
-      <c r="H137" s="14"/>
+      <c r="A137" s="35"/>
+      <c r="B137" s="38"/>
+      <c r="C137" s="43"/>
+      <c r="D137" s="10"/>
+      <c r="E137" s="11"/>
+      <c r="F137" s="46"/>
+      <c r="G137" s="46"/>
+      <c r="H137" s="12"/>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="37"/>
@@ -2749,83 +2797,84 @@
       <c r="H138" s="14"/>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A139" s="35"/>
-      <c r="B139" s="54"/>
-      <c r="C139" s="43"/>
-      <c r="D139" s="57"/>
-      <c r="E139" s="11"/>
-      <c r="F139" s="53"/>
-      <c r="G139" s="46"/>
-      <c r="H139" s="12"/>
+      <c r="A139" s="37"/>
+      <c r="B139" s="40"/>
+      <c r="C139" s="42"/>
+      <c r="D139" s="4"/>
+      <c r="E139" s="3"/>
+      <c r="F139" s="44"/>
+      <c r="G139" s="44"/>
+      <c r="H139" s="14"/>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A140" s="37"/>
-      <c r="B140" s="55"/>
-      <c r="C140" s="42"/>
-      <c r="D140" s="58"/>
-      <c r="E140" s="3"/>
-      <c r="F140" s="44"/>
-      <c r="G140" s="44"/>
-      <c r="H140" s="14"/>
+      <c r="A140" s="35"/>
+      <c r="B140" s="54"/>
+      <c r="C140" s="43"/>
+      <c r="D140" s="57"/>
+      <c r="E140" s="11"/>
+      <c r="F140" s="53"/>
+      <c r="G140" s="46"/>
+      <c r="H140" s="12"/>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A141" s="36"/>
-      <c r="B141" s="56"/>
-      <c r="C141" s="41"/>
-      <c r="D141" s="59"/>
-      <c r="E141" s="7"/>
-      <c r="F141" s="45"/>
-      <c r="G141" s="45"/>
-      <c r="H141" s="13"/>
+      <c r="A141" s="37"/>
+      <c r="B141" s="55"/>
+      <c r="C141" s="42"/>
+      <c r="D141" s="58"/>
+      <c r="E141" s="3"/>
+      <c r="F141" s="44"/>
+      <c r="G141" s="44"/>
+      <c r="H141" s="14"/>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A142" s="35"/>
-      <c r="B142" s="54"/>
-      <c r="C142" s="43"/>
-      <c r="D142" s="57"/>
-      <c r="E142" s="11"/>
-      <c r="F142" s="53"/>
-      <c r="G142" s="44"/>
-      <c r="H142" s="12"/>
+      <c r="A142" s="36"/>
+      <c r="B142" s="56"/>
+      <c r="C142" s="41"/>
+      <c r="D142" s="59"/>
+      <c r="E142" s="7"/>
+      <c r="F142" s="45"/>
+      <c r="G142" s="45"/>
+      <c r="H142" s="13"/>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A143" s="36"/>
-      <c r="B143" s="56"/>
-      <c r="C143" s="41"/>
-      <c r="D143" s="59"/>
-      <c r="E143" s="7"/>
-      <c r="F143" s="45"/>
-      <c r="G143" s="45"/>
-      <c r="H143" s="13"/>
+      <c r="A143" s="35"/>
+      <c r="B143" s="54"/>
+      <c r="C143" s="43"/>
+      <c r="D143" s="57"/>
+      <c r="E143" s="11"/>
+      <c r="F143" s="53"/>
+      <c r="G143" s="44"/>
+      <c r="H143" s="12"/>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A144" s="35"/>
-      <c r="B144" s="54"/>
-      <c r="C144" s="43"/>
-      <c r="D144" s="57"/>
-      <c r="E144" s="11"/>
-      <c r="F144" s="53"/>
-      <c r="G144" s="44"/>
-      <c r="H144" s="12"/>
+      <c r="A144" s="36"/>
+      <c r="B144" s="56"/>
+      <c r="C144" s="41"/>
+      <c r="D144" s="59"/>
+      <c r="E144" s="7"/>
+      <c r="F144" s="45"/>
+      <c r="G144" s="45"/>
+      <c r="H144" s="13"/>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A145" s="36"/>
-      <c r="B145" s="56"/>
-      <c r="C145" s="41"/>
-      <c r="D145" s="59"/>
-      <c r="E145" s="7"/>
-      <c r="F145" s="45"/>
-      <c r="G145" s="45"/>
-      <c r="H145" s="13"/>
+      <c r="A145" s="35"/>
+      <c r="B145" s="54"/>
+      <c r="C145" s="43"/>
+      <c r="D145" s="57"/>
+      <c r="E145" s="11"/>
+      <c r="F145" s="53"/>
+      <c r="G145" s="44"/>
+      <c r="H145" s="12"/>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B146" s="1"/>
-      <c r="C146" s="2"/>
-      <c r="D146" s="4"/>
-      <c r="E146" s="3"/>
-      <c r="F146" s="4"/>
-      <c r="G146" s="4"/>
-      <c r="H146" s="17"/>
+      <c r="A146" s="36"/>
+      <c r="B146" s="56"/>
+      <c r="C146" s="41"/>
+      <c r="D146" s="59"/>
+      <c r="E146" s="7"/>
+      <c r="F146" s="45"/>
+      <c r="G146" s="45"/>
+      <c r="H146" s="13"/>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B147" s="1"/>
@@ -3042,6 +3091,15 @@
       <c r="F170" s="4"/>
       <c r="G170" s="4"/>
       <c r="H170" s="17"/>
+    </row>
+    <row r="171" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B171" s="1"/>
+      <c r="C171" s="2"/>
+      <c r="D171" s="4"/>
+      <c r="E171" s="3"/>
+      <c r="F171" s="4"/>
+      <c r="G171" s="4"/>
+      <c r="H171" s="17"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/TS Jatai Working/TTD Krama PaaraayaNam-Kramam.xlsx
+++ b/TS Jatai Working/TTD Krama PaaraayaNam-Kramam.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="82">
   <si>
     <t>Date</t>
   </si>
@@ -257,6 +257,9 @@
   </si>
   <si>
     <t xml:space="preserve">2.2.4.6 </t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=FgHW_nqBJEs&amp;list=PLjhrDIztP9pcSE8dR7xYZb7zwX5SXxNKy</t>
   </si>
 </sst>
 </file>
@@ -954,7 +957,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G45" sqref="G45"/>
+      <selection pane="bottomLeft" activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -1844,7 +1847,9 @@
       </c>
       <c r="F43" s="46"/>
       <c r="G43" s="46"/>
-      <c r="H43" s="5"/>
+      <c r="H43" s="5" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="37"/>

--- a/TS Jatai Working/TTD Krama PaaraayaNam-Kramam.xlsx
+++ b/TS Jatai Working/TTD Krama PaaraayaNam-Kramam.xlsx
@@ -956,7 +956,7 @@
   <dimension ref="A1:L171"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>

--- a/TS Jatai Working/TTD Krama PaaraayaNam-Kramam.xlsx
+++ b/TS Jatai Working/TTD Krama PaaraayaNam-Kramam.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="97">
   <si>
     <t>Date</t>
   </si>
@@ -260,6 +260,51 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=FgHW_nqBJEs&amp;list=PLjhrDIztP9pcSE8dR7xYZb7zwX5SXxNKy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2.9.7 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2.10.1 </t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=j96gbNmBX7Y&amp;list=PLjhrDIztP9pcSE8dR7xYZb7zwX5SXxNKy&amp;index=5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2.12.8 </t>
+  </si>
+  <si>
+    <t>26 min 58 sec</t>
+  </si>
+  <si>
+    <t>2.3.1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3.2.9 </t>
+  </si>
+  <si>
+    <t>2.3.3.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3.10.3 </t>
+  </si>
+  <si>
+    <t>viedo not found</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3.11.1 </t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Vf75e6KVv8Y&amp;list=PLjhrDIztP9pcSE8dR7xYZb7zwX5SXxNKy</t>
+  </si>
+  <si>
+    <t>2.3.14.6</t>
+  </si>
+  <si>
+    <t>31 min 31 sec</t>
+  </si>
+  <si>
+    <t>2.4.1.1</t>
   </si>
 </sst>
 </file>
@@ -452,7 +497,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -648,6 +693,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -953,11 +999,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L171"/>
+  <dimension ref="A1:L170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H43" sqref="H43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -1845,421 +1891,499 @@
       <c r="E43" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F43" s="46"/>
-      <c r="G43" s="46"/>
+      <c r="F43" s="46" t="s">
+        <v>82</v>
+      </c>
+      <c r="G43" s="70" t="s">
+        <v>13</v>
+      </c>
       <c r="H43" s="5" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="37"/>
-      <c r="B44" s="40"/>
+      <c r="A44" s="36"/>
+      <c r="B44" s="42"/>
       <c r="C44" s="42"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="44"/>
-      <c r="G44" s="44"/>
-      <c r="H44" s="5"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="19"/>
+      <c r="F44" s="48"/>
+      <c r="G44" s="42"/>
+      <c r="H44" s="14"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="36"/>
-      <c r="B45" s="41"/>
-      <c r="C45" s="41"/>
-      <c r="D45" s="6"/>
-      <c r="E45" s="27"/>
-      <c r="F45" s="47"/>
-      <c r="G45" s="41"/>
-      <c r="H45" s="13"/>
+      <c r="A45" s="71">
+        <v>18</v>
+      </c>
+      <c r="B45" s="54">
+        <v>44463</v>
+      </c>
+      <c r="C45" s="35">
+        <v>3</v>
+      </c>
+      <c r="D45" s="57" t="s">
+        <v>83</v>
+      </c>
+      <c r="E45" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F45" s="46" t="s">
+        <v>85</v>
+      </c>
+      <c r="G45" s="60" t="s">
+        <v>86</v>
+      </c>
+      <c r="H45" s="23" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="35"/>
-      <c r="B46" s="38"/>
-      <c r="C46" s="43"/>
-      <c r="D46" s="10"/>
-      <c r="E46" s="11"/>
-      <c r="F46" s="46"/>
-      <c r="G46" s="46"/>
-      <c r="H46" s="23"/>
+      <c r="A46" s="72"/>
+      <c r="B46" s="55">
+        <v>44463</v>
+      </c>
+      <c r="C46" s="37">
+        <v>1</v>
+      </c>
+      <c r="D46" s="58" t="s">
+        <v>87</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="G46" s="70" t="s">
+        <v>13</v>
+      </c>
+      <c r="H46" s="5" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="37"/>
-      <c r="B47" s="40"/>
-      <c r="C47" s="42"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="44"/>
-      <c r="G47" s="44"/>
-      <c r="H47" s="5"/>
+      <c r="A47" s="66"/>
+      <c r="B47" s="36"/>
+      <c r="C47" s="36"/>
+      <c r="D47" s="66"/>
+      <c r="E47" s="27"/>
+      <c r="F47" s="47"/>
+      <c r="G47" s="36"/>
+      <c r="H47" s="13"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="36"/>
-      <c r="B48" s="41"/>
-      <c r="C48" s="41"/>
-      <c r="D48" s="6"/>
-      <c r="E48" s="27"/>
-      <c r="F48" s="47"/>
-      <c r="G48" s="41"/>
-      <c r="H48" s="13"/>
+      <c r="A48" s="35">
+        <v>19</v>
+      </c>
+      <c r="B48" s="40">
+        <v>44464</v>
+      </c>
+      <c r="C48" s="42">
+        <v>2</v>
+      </c>
+      <c r="D48" s="57" t="s">
+        <v>89</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F48" s="46" t="s">
+        <v>90</v>
+      </c>
+      <c r="G48" s="77" t="s">
+        <v>91</v>
+      </c>
+      <c r="H48" s="77" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="35"/>
-      <c r="B49" s="38"/>
-      <c r="C49" s="43"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="11"/>
-      <c r="F49" s="46"/>
-      <c r="G49" s="46"/>
-      <c r="H49" s="12"/>
+      <c r="A49" s="37"/>
+      <c r="B49" s="42"/>
+      <c r="C49" s="42"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="19"/>
+      <c r="F49" s="48"/>
+      <c r="G49" s="42"/>
+      <c r="H49" s="14"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="36"/>
-      <c r="B50" s="41"/>
-      <c r="C50" s="41"/>
-      <c r="D50" s="6"/>
-      <c r="E50" s="27"/>
-      <c r="F50" s="47"/>
-      <c r="G50" s="41"/>
-      <c r="H50" s="13"/>
+      <c r="A50" s="35">
+        <v>20</v>
+      </c>
+      <c r="B50" s="38">
+        <v>44465</v>
+      </c>
+      <c r="C50" s="43">
+        <v>3</v>
+      </c>
+      <c r="D50" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="E50" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F50" s="46" t="s">
+        <v>94</v>
+      </c>
+      <c r="G50" s="46" t="s">
+        <v>95</v>
+      </c>
+      <c r="H50" s="12" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="35"/>
-      <c r="B51" s="38"/>
-      <c r="C51" s="43"/>
-      <c r="D51" s="10"/>
-      <c r="E51" s="11"/>
-      <c r="F51" s="46"/>
-      <c r="G51" s="46"/>
-      <c r="H51" s="12"/>
+      <c r="A51" s="37"/>
+      <c r="B51" s="40">
+        <v>44465</v>
+      </c>
+      <c r="C51" s="42">
+        <v>2</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F51" s="44"/>
+      <c r="G51" s="70" t="s">
+        <v>13</v>
+      </c>
+      <c r="H51" s="14" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="37"/>
-      <c r="B52" s="40"/>
-      <c r="C52" s="42"/>
-      <c r="D52" s="4"/>
-      <c r="E52" s="3"/>
-      <c r="F52" s="44"/>
-      <c r="G52" s="44"/>
-      <c r="H52" s="14"/>
+      <c r="A52" s="36"/>
+      <c r="B52" s="41"/>
+      <c r="C52" s="41"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="27"/>
+      <c r="F52" s="47"/>
+      <c r="G52" s="41"/>
+      <c r="H52" s="13"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="36"/>
-      <c r="B53" s="41"/>
-      <c r="C53" s="41"/>
-      <c r="D53" s="6"/>
-      <c r="E53" s="27"/>
-      <c r="F53" s="47"/>
-      <c r="G53" s="41"/>
-      <c r="H53" s="13"/>
+      <c r="A53" s="37"/>
+      <c r="B53" s="40"/>
+      <c r="C53" s="42"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="44"/>
+      <c r="G53" s="44"/>
+      <c r="H53" s="14"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="35"/>
-      <c r="B54" s="38"/>
-      <c r="C54" s="43"/>
-      <c r="D54" s="10"/>
-      <c r="E54" s="11"/>
-      <c r="F54" s="46"/>
-      <c r="G54" s="46"/>
-      <c r="H54" s="12"/>
+      <c r="A54" s="37"/>
+      <c r="B54" s="40"/>
+      <c r="C54" s="42"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="44"/>
+      <c r="G54" s="44"/>
+      <c r="H54" s="14"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="37"/>
-      <c r="B55" s="40"/>
-      <c r="C55" s="42"/>
-      <c r="D55" s="4"/>
-      <c r="E55" s="3"/>
-      <c r="F55" s="44"/>
-      <c r="G55" s="44"/>
-      <c r="H55" s="14"/>
+      <c r="A55" s="36"/>
+      <c r="B55" s="41"/>
+      <c r="C55" s="41"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="27"/>
+      <c r="F55" s="47"/>
+      <c r="G55" s="41"/>
+      <c r="H55" s="13"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="36"/>
-      <c r="B56" s="41"/>
-      <c r="C56" s="41"/>
-      <c r="D56" s="6"/>
-      <c r="E56" s="27"/>
-      <c r="F56" s="47"/>
-      <c r="G56" s="41"/>
-      <c r="H56" s="13"/>
+      <c r="A56" s="35"/>
+      <c r="B56" s="38"/>
+      <c r="C56" s="43"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="11"/>
+      <c r="F56" s="46"/>
+      <c r="G56" s="46"/>
+      <c r="H56" s="12"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="35"/>
-      <c r="B57" s="38"/>
-      <c r="C57" s="43"/>
-      <c r="D57" s="10"/>
-      <c r="E57" s="11"/>
-      <c r="F57" s="46"/>
-      <c r="G57" s="46"/>
-      <c r="H57" s="12"/>
+      <c r="A57" s="37"/>
+      <c r="B57" s="40"/>
+      <c r="C57" s="42"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="44"/>
+      <c r="G57" s="44"/>
+      <c r="H57" s="14"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="37"/>
-      <c r="B58" s="40"/>
-      <c r="C58" s="42"/>
-      <c r="D58" s="4"/>
-      <c r="E58" s="3"/>
-      <c r="F58" s="44"/>
-      <c r="G58" s="44"/>
-      <c r="H58" s="14"/>
+      <c r="A58" s="36"/>
+      <c r="B58" s="41"/>
+      <c r="C58" s="41"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="27"/>
+      <c r="F58" s="47"/>
+      <c r="G58" s="41"/>
+      <c r="H58" s="13"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="36"/>
-      <c r="B59" s="41"/>
-      <c r="C59" s="41"/>
-      <c r="D59" s="6"/>
-      <c r="E59" s="27"/>
-      <c r="F59" s="47"/>
-      <c r="G59" s="41"/>
-      <c r="H59" s="13"/>
+      <c r="A59" s="35"/>
+      <c r="B59" s="38"/>
+      <c r="C59" s="43"/>
+      <c r="D59" s="10"/>
+      <c r="E59" s="11"/>
+      <c r="F59" s="46"/>
+      <c r="G59" s="46"/>
+      <c r="H59" s="12"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="35"/>
-      <c r="B60" s="38"/>
-      <c r="C60" s="43"/>
-      <c r="D60" s="10"/>
-      <c r="E60" s="11"/>
-      <c r="F60" s="46"/>
-      <c r="G60" s="46"/>
-      <c r="H60" s="12"/>
+      <c r="A60" s="36"/>
+      <c r="B60" s="41"/>
+      <c r="C60" s="41"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="27"/>
+      <c r="F60" s="47"/>
+      <c r="G60" s="41"/>
+      <c r="H60" s="13"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="36"/>
-      <c r="B61" s="41"/>
-      <c r="C61" s="41"/>
-      <c r="D61" s="6"/>
-      <c r="E61" s="27"/>
-      <c r="F61" s="47"/>
-      <c r="G61" s="41"/>
-      <c r="H61" s="13"/>
+      <c r="A61" s="35"/>
+      <c r="B61" s="38"/>
+      <c r="C61" s="43"/>
+      <c r="D61" s="10"/>
+      <c r="E61" s="11"/>
+      <c r="F61" s="46"/>
+      <c r="G61" s="46"/>
+      <c r="H61" s="12"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="35"/>
-      <c r="B62" s="38"/>
-      <c r="C62" s="43"/>
-      <c r="D62" s="10"/>
-      <c r="E62" s="11"/>
-      <c r="F62" s="46"/>
-      <c r="G62" s="46"/>
-      <c r="H62" s="12"/>
+      <c r="A62" s="37"/>
+      <c r="B62" s="40"/>
+      <c r="C62" s="42"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="44"/>
+      <c r="G62" s="44"/>
+      <c r="H62" s="14"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="37"/>
-      <c r="B63" s="40"/>
-      <c r="C63" s="42"/>
-      <c r="D63" s="4"/>
-      <c r="E63" s="3"/>
-      <c r="F63" s="44"/>
-      <c r="G63" s="44"/>
-      <c r="H63" s="14"/>
+      <c r="A63" s="36"/>
+      <c r="B63" s="41"/>
+      <c r="C63" s="41"/>
+      <c r="D63" s="6"/>
+      <c r="E63" s="27"/>
+      <c r="F63" s="47"/>
+      <c r="G63" s="41"/>
+      <c r="H63" s="13"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="36"/>
-      <c r="B64" s="41"/>
-      <c r="C64" s="41"/>
-      <c r="D64" s="6"/>
-      <c r="E64" s="27"/>
-      <c r="F64" s="47"/>
-      <c r="G64" s="41"/>
-      <c r="H64" s="13"/>
+      <c r="A64" s="35"/>
+      <c r="B64" s="38"/>
+      <c r="C64" s="43"/>
+      <c r="D64" s="10"/>
+      <c r="E64" s="11"/>
+      <c r="F64" s="46"/>
+      <c r="G64" s="46"/>
+      <c r="H64" s="12"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="35"/>
-      <c r="B65" s="38"/>
-      <c r="C65" s="43"/>
-      <c r="D65" s="10"/>
-      <c r="E65" s="11"/>
-      <c r="F65" s="46"/>
-      <c r="G65" s="46"/>
-      <c r="H65" s="12"/>
+      <c r="A65" s="37"/>
+      <c r="B65" s="40"/>
+      <c r="C65" s="42"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="3"/>
+      <c r="F65" s="44"/>
+      <c r="G65" s="44"/>
+      <c r="H65" s="14"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="37"/>
-      <c r="B66" s="40"/>
-      <c r="C66" s="42"/>
-      <c r="D66" s="4"/>
-      <c r="E66" s="3"/>
-      <c r="F66" s="44"/>
-      <c r="G66" s="44"/>
-      <c r="H66" s="14"/>
+      <c r="A66" s="36"/>
+      <c r="B66" s="41"/>
+      <c r="C66" s="41"/>
+      <c r="D66" s="6"/>
+      <c r="E66" s="27"/>
+      <c r="F66" s="47"/>
+      <c r="G66" s="41"/>
+      <c r="H66" s="13"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="36"/>
-      <c r="B67" s="41"/>
-      <c r="C67" s="41"/>
-      <c r="D67" s="6"/>
-      <c r="E67" s="27"/>
-      <c r="F67" s="47"/>
-      <c r="G67" s="41"/>
-      <c r="H67" s="13"/>
+      <c r="A67" s="35"/>
+      <c r="B67" s="38"/>
+      <c r="C67" s="43"/>
+      <c r="D67" s="10"/>
+      <c r="E67" s="11"/>
+      <c r="F67" s="46"/>
+      <c r="G67" s="46"/>
+      <c r="H67" s="12"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="35"/>
-      <c r="B68" s="38"/>
-      <c r="C68" s="43"/>
-      <c r="D68" s="10"/>
-      <c r="E68" s="11"/>
-      <c r="F68" s="46"/>
-      <c r="G68" s="46"/>
-      <c r="H68" s="12"/>
+      <c r="A68" s="37"/>
+      <c r="B68" s="40"/>
+      <c r="C68" s="42"/>
+      <c r="D68" s="4"/>
+      <c r="E68" s="3"/>
+      <c r="F68" s="44"/>
+      <c r="G68" s="44"/>
+      <c r="H68" s="14"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="37"/>
-      <c r="B69" s="40"/>
-      <c r="C69" s="42"/>
-      <c r="D69" s="4"/>
-      <c r="E69" s="3"/>
-      <c r="F69" s="44"/>
-      <c r="G69" s="44"/>
-      <c r="H69" s="14"/>
+      <c r="A69" s="36"/>
+      <c r="B69" s="41"/>
+      <c r="C69" s="41"/>
+      <c r="D69" s="6"/>
+      <c r="E69" s="27"/>
+      <c r="F69" s="47"/>
+      <c r="G69" s="41"/>
+      <c r="H69" s="13"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="36"/>
-      <c r="B70" s="41"/>
-      <c r="C70" s="41"/>
-      <c r="D70" s="6"/>
-      <c r="E70" s="27"/>
-      <c r="F70" s="47"/>
-      <c r="G70" s="41"/>
-      <c r="H70" s="13"/>
+      <c r="A70" s="35"/>
+      <c r="B70" s="38"/>
+      <c r="C70" s="43"/>
+      <c r="D70" s="10"/>
+      <c r="E70" s="11"/>
+      <c r="F70" s="46"/>
+      <c r="G70" s="46"/>
+      <c r="H70" s="12"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="35"/>
-      <c r="B71" s="38"/>
-      <c r="C71" s="43"/>
-      <c r="D71" s="10"/>
-      <c r="E71" s="11"/>
-      <c r="F71" s="46"/>
-      <c r="G71" s="46"/>
-      <c r="H71" s="12"/>
+      <c r="A71" s="36"/>
+      <c r="B71" s="41"/>
+      <c r="C71" s="41"/>
+      <c r="D71" s="6"/>
+      <c r="E71" s="27"/>
+      <c r="F71" s="47"/>
+      <c r="G71" s="41"/>
+      <c r="H71" s="13"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="36"/>
-      <c r="B72" s="41"/>
-      <c r="C72" s="41"/>
-      <c r="D72" s="6"/>
-      <c r="E72" s="27"/>
-      <c r="F72" s="47"/>
-      <c r="G72" s="41"/>
-      <c r="H72" s="13"/>
+      <c r="A72" s="35"/>
+      <c r="B72" s="38"/>
+      <c r="C72" s="43"/>
+      <c r="D72" s="10"/>
+      <c r="E72" s="11"/>
+      <c r="F72" s="46"/>
+      <c r="G72" s="46"/>
+      <c r="H72" s="12"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="35"/>
-      <c r="B73" s="38"/>
-      <c r="C73" s="43"/>
-      <c r="D73" s="10"/>
-      <c r="E73" s="11"/>
-      <c r="F73" s="46"/>
-      <c r="G73" s="46"/>
-      <c r="H73" s="12"/>
+      <c r="A73" s="37"/>
+      <c r="B73" s="40"/>
+      <c r="C73" s="42"/>
+      <c r="D73" s="4"/>
+      <c r="E73" s="3"/>
+      <c r="F73" s="44"/>
+      <c r="G73" s="44"/>
+      <c r="H73" s="14"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="37"/>
-      <c r="B74" s="40"/>
-      <c r="C74" s="42"/>
-      <c r="D74" s="4"/>
-      <c r="E74" s="3"/>
-      <c r="F74" s="44"/>
-      <c r="G74" s="44"/>
-      <c r="H74" s="14"/>
+      <c r="A74" s="36"/>
+      <c r="B74" s="41"/>
+      <c r="C74" s="41"/>
+      <c r="D74" s="6"/>
+      <c r="E74" s="27"/>
+      <c r="F74" s="47"/>
+      <c r="G74" s="41"/>
+      <c r="H74" s="13"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="36"/>
-      <c r="B75" s="41"/>
-      <c r="C75" s="41"/>
-      <c r="D75" s="6"/>
-      <c r="E75" s="27"/>
-      <c r="F75" s="47"/>
-      <c r="G75" s="41"/>
-      <c r="H75" s="13"/>
+      <c r="A75" s="35"/>
+      <c r="B75" s="38"/>
+      <c r="C75" s="43"/>
+      <c r="D75" s="10"/>
+      <c r="E75" s="11"/>
+      <c r="F75" s="46"/>
+      <c r="G75" s="46"/>
+      <c r="H75" s="12"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" s="35"/>
-      <c r="B76" s="38"/>
-      <c r="C76" s="43"/>
-      <c r="D76" s="10"/>
-      <c r="E76" s="11"/>
-      <c r="F76" s="46"/>
-      <c r="G76" s="46"/>
-      <c r="H76" s="12"/>
+      <c r="A76" s="37"/>
+      <c r="B76" s="40"/>
+      <c r="C76" s="42"/>
+      <c r="D76" s="4"/>
+      <c r="E76" s="3"/>
+      <c r="F76" s="44"/>
+      <c r="G76" s="44"/>
+      <c r="H76" s="14"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77" s="37"/>
-      <c r="B77" s="40"/>
-      <c r="C77" s="42"/>
-      <c r="D77" s="4"/>
-      <c r="E77" s="3"/>
-      <c r="F77" s="44"/>
-      <c r="G77" s="44"/>
-      <c r="H77" s="14"/>
+      <c r="A77" s="36"/>
+      <c r="B77" s="41"/>
+      <c r="C77" s="41"/>
+      <c r="D77" s="6"/>
+      <c r="E77" s="27"/>
+      <c r="F77" s="47"/>
+      <c r="G77" s="41"/>
+      <c r="H77" s="13"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" s="36"/>
-      <c r="B78" s="41"/>
-      <c r="C78" s="41"/>
-      <c r="D78" s="6"/>
-      <c r="E78" s="27"/>
-      <c r="F78" s="47"/>
-      <c r="G78" s="41"/>
-      <c r="H78" s="13"/>
+      <c r="A78" s="35"/>
+      <c r="B78" s="38"/>
+      <c r="C78" s="43"/>
+      <c r="D78" s="10"/>
+      <c r="E78" s="11"/>
+      <c r="F78" s="46"/>
+      <c r="G78" s="46"/>
+      <c r="H78" s="12"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" s="35"/>
-      <c r="B79" s="38"/>
-      <c r="C79" s="43"/>
-      <c r="D79" s="10"/>
-      <c r="E79" s="11"/>
-      <c r="F79" s="46"/>
-      <c r="G79" s="46"/>
-      <c r="H79" s="12"/>
+      <c r="A79" s="37"/>
+      <c r="B79" s="40"/>
+      <c r="C79" s="42"/>
+      <c r="D79" s="4"/>
+      <c r="E79" s="3"/>
+      <c r="F79" s="44"/>
+      <c r="G79" s="44"/>
+      <c r="H79" s="14"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80" s="37"/>
-      <c r="B80" s="40"/>
-      <c r="C80" s="42"/>
-      <c r="D80" s="4"/>
-      <c r="E80" s="3"/>
-      <c r="F80" s="44"/>
-      <c r="G80" s="44"/>
-      <c r="H80" s="14"/>
+      <c r="A80" s="36"/>
+      <c r="B80" s="41"/>
+      <c r="C80" s="41"/>
+      <c r="D80" s="6"/>
+      <c r="E80" s="27"/>
+      <c r="F80" s="47"/>
+      <c r="G80" s="41"/>
+      <c r="H80" s="13"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81" s="36"/>
-      <c r="B81" s="41"/>
-      <c r="C81" s="41"/>
-      <c r="D81" s="6"/>
-      <c r="E81" s="27"/>
-      <c r="F81" s="47"/>
-      <c r="G81" s="41"/>
-      <c r="H81" s="13"/>
+      <c r="A81" s="35"/>
+      <c r="B81" s="38"/>
+      <c r="C81" s="43"/>
+      <c r="D81" s="10"/>
+      <c r="E81" s="11"/>
+      <c r="F81" s="46"/>
+      <c r="G81" s="46"/>
+      <c r="H81" s="12"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" s="35"/>
-      <c r="B82" s="38"/>
-      <c r="C82" s="43"/>
-      <c r="D82" s="10"/>
-      <c r="E82" s="11"/>
-      <c r="F82" s="46"/>
-      <c r="G82" s="46"/>
-      <c r="H82" s="12"/>
+      <c r="A82" s="36"/>
+      <c r="B82" s="41"/>
+      <c r="C82" s="41"/>
+      <c r="D82" s="6"/>
+      <c r="E82" s="27"/>
+      <c r="F82" s="47"/>
+      <c r="G82" s="41"/>
+      <c r="H82" s="13"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A83" s="36"/>
-      <c r="B83" s="41"/>
-      <c r="C83" s="41"/>
-      <c r="D83" s="6"/>
-      <c r="E83" s="27"/>
-      <c r="F83" s="47"/>
-      <c r="G83" s="41"/>
-      <c r="H83" s="13"/>
+      <c r="A83" s="35"/>
+      <c r="B83" s="38"/>
+      <c r="C83" s="43"/>
+      <c r="D83" s="10"/>
+      <c r="E83" s="11"/>
+      <c r="F83" s="46"/>
+      <c r="G83" s="46"/>
+      <c r="H83" s="12"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84" s="35"/>
-      <c r="B84" s="38"/>
-      <c r="C84" s="43"/>
-      <c r="D84" s="10"/>
-      <c r="E84" s="11"/>
-      <c r="F84" s="46"/>
-      <c r="G84" s="46"/>
-      <c r="H84" s="12"/>
+      <c r="A84" s="37"/>
+      <c r="B84" s="40"/>
+      <c r="C84" s="42"/>
+      <c r="D84" s="4"/>
+      <c r="E84" s="3"/>
+      <c r="F84" s="44"/>
+      <c r="G84" s="44"/>
+      <c r="H84" s="14"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="37"/>
@@ -2272,144 +2396,144 @@
       <c r="H85" s="14"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86" s="37"/>
-      <c r="B86" s="40"/>
-      <c r="C86" s="42"/>
-      <c r="D86" s="4"/>
-      <c r="E86" s="3"/>
-      <c r="F86" s="44"/>
-      <c r="G86" s="44"/>
-      <c r="H86" s="14"/>
+      <c r="A86" s="36"/>
+      <c r="B86" s="41"/>
+      <c r="C86" s="41"/>
+      <c r="D86" s="6"/>
+      <c r="E86" s="27"/>
+      <c r="F86" s="47"/>
+      <c r="G86" s="41"/>
+      <c r="H86" s="13"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A87" s="36"/>
-      <c r="B87" s="41"/>
-      <c r="C87" s="41"/>
-      <c r="D87" s="6"/>
-      <c r="E87" s="27"/>
-      <c r="F87" s="47"/>
-      <c r="G87" s="41"/>
-      <c r="H87" s="13"/>
+      <c r="A87" s="35"/>
+      <c r="B87" s="38"/>
+      <c r="C87" s="43"/>
+      <c r="D87" s="10"/>
+      <c r="E87" s="11"/>
+      <c r="F87" s="46"/>
+      <c r="G87" s="46"/>
+      <c r="H87" s="12"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88" s="35"/>
-      <c r="B88" s="38"/>
-      <c r="C88" s="43"/>
-      <c r="D88" s="10"/>
-      <c r="E88" s="11"/>
-      <c r="F88" s="46"/>
-      <c r="G88" s="46"/>
-      <c r="H88" s="12"/>
+      <c r="A88" s="36"/>
+      <c r="B88" s="41"/>
+      <c r="C88" s="41"/>
+      <c r="D88" s="6"/>
+      <c r="E88" s="27"/>
+      <c r="F88" s="47"/>
+      <c r="G88" s="41"/>
+      <c r="H88" s="13"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A89" s="36"/>
-      <c r="B89" s="41"/>
-      <c r="C89" s="41"/>
-      <c r="D89" s="6"/>
-      <c r="E89" s="27"/>
-      <c r="F89" s="47"/>
-      <c r="G89" s="41"/>
-      <c r="H89" s="13"/>
+      <c r="A89" s="35"/>
+      <c r="B89" s="38"/>
+      <c r="C89" s="43"/>
+      <c r="D89" s="10"/>
+      <c r="E89" s="11"/>
+      <c r="F89" s="46"/>
+      <c r="G89" s="46"/>
+      <c r="H89" s="12"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90" s="35"/>
-      <c r="B90" s="38"/>
-      <c r="C90" s="43"/>
-      <c r="D90" s="10"/>
-      <c r="E90" s="11"/>
-      <c r="F90" s="46"/>
-      <c r="G90" s="46"/>
-      <c r="H90" s="12"/>
+      <c r="A90" s="37"/>
+      <c r="B90" s="40"/>
+      <c r="C90" s="42"/>
+      <c r="D90" s="4"/>
+      <c r="E90" s="3"/>
+      <c r="F90" s="44"/>
+      <c r="G90" s="44"/>
+      <c r="H90" s="14"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91" s="37"/>
-      <c r="B91" s="40"/>
-      <c r="C91" s="42"/>
-      <c r="D91" s="4"/>
-      <c r="E91" s="3"/>
-      <c r="F91" s="44"/>
-      <c r="G91" s="44"/>
-      <c r="H91" s="14"/>
+      <c r="A91" s="36"/>
+      <c r="B91" s="41"/>
+      <c r="C91" s="41"/>
+      <c r="D91" s="6"/>
+      <c r="E91" s="27"/>
+      <c r="F91" s="47"/>
+      <c r="G91" s="41"/>
+      <c r="H91" s="13"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A92" s="36"/>
-      <c r="B92" s="41"/>
-      <c r="C92" s="41"/>
-      <c r="D92" s="6"/>
-      <c r="E92" s="27"/>
-      <c r="F92" s="47"/>
-      <c r="G92" s="41"/>
-      <c r="H92" s="13"/>
+      <c r="A92" s="35"/>
+      <c r="B92" s="38"/>
+      <c r="C92" s="43"/>
+      <c r="D92" s="10"/>
+      <c r="E92" s="11"/>
+      <c r="F92" s="46"/>
+      <c r="G92" s="46"/>
+      <c r="H92" s="12"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93" s="35"/>
-      <c r="B93" s="38"/>
-      <c r="C93" s="43"/>
-      <c r="D93" s="10"/>
-      <c r="E93" s="11"/>
-      <c r="F93" s="46"/>
-      <c r="G93" s="46"/>
-      <c r="H93" s="12"/>
+      <c r="A93" s="36"/>
+      <c r="B93" s="41"/>
+      <c r="C93" s="41"/>
+      <c r="D93" s="6"/>
+      <c r="E93" s="27"/>
+      <c r="F93" s="47"/>
+      <c r="G93" s="41"/>
+      <c r="H93" s="13"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A94" s="36"/>
-      <c r="B94" s="41"/>
-      <c r="C94" s="41"/>
-      <c r="D94" s="6"/>
-      <c r="E94" s="27"/>
-      <c r="F94" s="47"/>
-      <c r="G94" s="41"/>
-      <c r="H94" s="13"/>
+      <c r="A94" s="35"/>
+      <c r="B94" s="38"/>
+      <c r="C94" s="43"/>
+      <c r="D94" s="10"/>
+      <c r="E94" s="11"/>
+      <c r="F94" s="46"/>
+      <c r="G94" s="46"/>
+      <c r="H94" s="12"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A95" s="35"/>
-      <c r="B95" s="38"/>
-      <c r="C95" s="43"/>
-      <c r="D95" s="10"/>
-      <c r="E95" s="11"/>
-      <c r="F95" s="46"/>
-      <c r="G95" s="46"/>
-      <c r="H95" s="12"/>
+      <c r="A95" s="37"/>
+      <c r="B95" s="40"/>
+      <c r="C95" s="42"/>
+      <c r="D95" s="4"/>
+      <c r="E95" s="3"/>
+      <c r="F95" s="44"/>
+      <c r="G95" s="44"/>
+      <c r="H95" s="14"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A96" s="37"/>
-      <c r="B96" s="40"/>
-      <c r="C96" s="42"/>
-      <c r="D96" s="4"/>
-      <c r="E96" s="3"/>
-      <c r="F96" s="44"/>
-      <c r="G96" s="44"/>
-      <c r="H96" s="14"/>
+      <c r="A96" s="36"/>
+      <c r="B96" s="41"/>
+      <c r="C96" s="41"/>
+      <c r="D96" s="6"/>
+      <c r="E96" s="27"/>
+      <c r="F96" s="47"/>
+      <c r="G96" s="41"/>
+      <c r="H96" s="13"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A97" s="36"/>
-      <c r="B97" s="41"/>
-      <c r="C97" s="41"/>
-      <c r="D97" s="6"/>
-      <c r="E97" s="27"/>
-      <c r="F97" s="47"/>
-      <c r="G97" s="41"/>
-      <c r="H97" s="13"/>
+      <c r="A97" s="35"/>
+      <c r="B97" s="38"/>
+      <c r="C97" s="43"/>
+      <c r="D97" s="10"/>
+      <c r="E97" s="11"/>
+      <c r="F97" s="46"/>
+      <c r="G97" s="46"/>
+      <c r="H97" s="12"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A98" s="35"/>
-      <c r="B98" s="38"/>
-      <c r="C98" s="43"/>
-      <c r="D98" s="10"/>
-      <c r="E98" s="11"/>
-      <c r="F98" s="46"/>
-      <c r="G98" s="46"/>
-      <c r="H98" s="12"/>
+      <c r="A98" s="36"/>
+      <c r="B98" s="41"/>
+      <c r="C98" s="41"/>
+      <c r="D98" s="6"/>
+      <c r="E98" s="27"/>
+      <c r="F98" s="47"/>
+      <c r="G98" s="41"/>
+      <c r="H98" s="13"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A99" s="36"/>
-      <c r="B99" s="41"/>
-      <c r="C99" s="41"/>
-      <c r="D99" s="6"/>
-      <c r="E99" s="27"/>
-      <c r="F99" s="47"/>
-      <c r="G99" s="41"/>
-      <c r="H99" s="13"/>
+      <c r="A99" s="37"/>
+      <c r="B99" s="40"/>
+      <c r="C99" s="42"/>
+      <c r="D99" s="4"/>
+      <c r="E99" s="3"/>
+      <c r="F99" s="44"/>
+      <c r="G99" s="44"/>
+      <c r="H99" s="17"/>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="37"/>
@@ -2423,343 +2547,343 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="37"/>
-      <c r="B101" s="40"/>
+      <c r="B101" s="42"/>
       <c r="C101" s="42"/>
-      <c r="D101" s="4"/>
-      <c r="E101" s="3"/>
-      <c r="F101" s="44"/>
-      <c r="G101" s="44"/>
+      <c r="D101" s="2"/>
+      <c r="E101" s="19"/>
+      <c r="F101" s="48"/>
+      <c r="G101" s="42"/>
       <c r="H101" s="17"/>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A102" s="37"/>
-      <c r="B102" s="42"/>
-      <c r="C102" s="42"/>
-      <c r="D102" s="2"/>
-      <c r="E102" s="19"/>
-      <c r="F102" s="48"/>
-      <c r="G102" s="42"/>
-      <c r="H102" s="17"/>
+      <c r="A102" s="35"/>
+      <c r="B102" s="38"/>
+      <c r="C102" s="43"/>
+      <c r="D102" s="10"/>
+      <c r="E102" s="11"/>
+      <c r="F102" s="46"/>
+      <c r="G102" s="46"/>
+      <c r="H102" s="12"/>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A103" s="35"/>
-      <c r="B103" s="38"/>
-      <c r="C103" s="43"/>
-      <c r="D103" s="10"/>
-      <c r="E103" s="11"/>
-      <c r="F103" s="46"/>
-      <c r="G103" s="46"/>
-      <c r="H103" s="12"/>
+      <c r="A103" s="37"/>
+      <c r="B103" s="40"/>
+      <c r="C103" s="42"/>
+      <c r="D103" s="4"/>
+      <c r="E103" s="3"/>
+      <c r="F103" s="44"/>
+      <c r="G103" s="44"/>
+      <c r="H103" s="14"/>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A104" s="37"/>
-      <c r="B104" s="40"/>
-      <c r="C104" s="42"/>
-      <c r="D104" s="4"/>
-      <c r="E104" s="3"/>
-      <c r="F104" s="44"/>
-      <c r="G104" s="44"/>
-      <c r="H104" s="14"/>
+      <c r="A104" s="36"/>
+      <c r="B104" s="39"/>
+      <c r="C104" s="41"/>
+      <c r="D104" s="8"/>
+      <c r="E104" s="7"/>
+      <c r="F104" s="45"/>
+      <c r="G104" s="45"/>
+      <c r="H104" s="13"/>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A105" s="36"/>
-      <c r="B105" s="39"/>
-      <c r="C105" s="41"/>
-      <c r="D105" s="8"/>
-      <c r="E105" s="7"/>
-      <c r="F105" s="45"/>
-      <c r="G105" s="45"/>
-      <c r="H105" s="13"/>
+      <c r="A105" s="35"/>
+      <c r="B105" s="38"/>
+      <c r="C105" s="43"/>
+      <c r="D105" s="10"/>
+      <c r="E105" s="11"/>
+      <c r="F105" s="46"/>
+      <c r="G105" s="46"/>
+      <c r="H105" s="12"/>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A106" s="35"/>
-      <c r="B106" s="38"/>
-      <c r="C106" s="43"/>
-      <c r="D106" s="10"/>
-      <c r="E106" s="11"/>
-      <c r="F106" s="46"/>
-      <c r="G106" s="46"/>
-      <c r="H106" s="12"/>
+      <c r="A106" s="36"/>
+      <c r="B106" s="39"/>
+      <c r="C106" s="41"/>
+      <c r="D106" s="8"/>
+      <c r="E106" s="7"/>
+      <c r="F106" s="45"/>
+      <c r="G106" s="45"/>
+      <c r="H106" s="13"/>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A107" s="36"/>
-      <c r="B107" s="39"/>
-      <c r="C107" s="41"/>
-      <c r="D107" s="8"/>
-      <c r="E107" s="7"/>
-      <c r="F107" s="45"/>
-      <c r="G107" s="45"/>
-      <c r="H107" s="13"/>
+      <c r="A107" s="35"/>
+      <c r="B107" s="38"/>
+      <c r="C107" s="43"/>
+      <c r="D107" s="10"/>
+      <c r="E107" s="11"/>
+      <c r="F107" s="46"/>
+      <c r="G107" s="46"/>
+      <c r="H107" s="12"/>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A108" s="35"/>
-      <c r="B108" s="38"/>
-      <c r="C108" s="43"/>
-      <c r="D108" s="10"/>
-      <c r="E108" s="11"/>
-      <c r="F108" s="46"/>
-      <c r="G108" s="46"/>
-      <c r="H108" s="12"/>
+      <c r="A108" s="37"/>
+      <c r="B108" s="40"/>
+      <c r="C108" s="42"/>
+      <c r="D108" s="4"/>
+      <c r="E108" s="3"/>
+      <c r="F108" s="44"/>
+      <c r="G108" s="44"/>
+      <c r="H108" s="14"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A109" s="37"/>
-      <c r="B109" s="40"/>
-      <c r="C109" s="42"/>
-      <c r="D109" s="4"/>
-      <c r="E109" s="3"/>
-      <c r="F109" s="44"/>
-      <c r="G109" s="44"/>
-      <c r="H109" s="14"/>
+      <c r="A109" s="36"/>
+      <c r="B109" s="39"/>
+      <c r="C109" s="41"/>
+      <c r="D109" s="8"/>
+      <c r="E109" s="7"/>
+      <c r="F109" s="45"/>
+      <c r="G109" s="45"/>
+      <c r="H109" s="13"/>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A110" s="36"/>
-      <c r="B110" s="39"/>
-      <c r="C110" s="41"/>
-      <c r="D110" s="8"/>
-      <c r="E110" s="7"/>
-      <c r="F110" s="45"/>
-      <c r="G110" s="45"/>
-      <c r="H110" s="13"/>
+      <c r="A110" s="35"/>
+      <c r="B110" s="38"/>
+      <c r="C110" s="43"/>
+      <c r="D110" s="10"/>
+      <c r="E110" s="11"/>
+      <c r="F110" s="46"/>
+      <c r="G110" s="46"/>
+      <c r="H110" s="12"/>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A111" s="35"/>
-      <c r="B111" s="38"/>
-      <c r="C111" s="43"/>
-      <c r="D111" s="10"/>
-      <c r="E111" s="11"/>
-      <c r="F111" s="46"/>
-      <c r="G111" s="46"/>
-      <c r="H111" s="12"/>
+      <c r="A111" s="37"/>
+      <c r="B111" s="40"/>
+      <c r="C111" s="42"/>
+      <c r="D111" s="4"/>
+      <c r="E111" s="3"/>
+      <c r="F111" s="44"/>
+      <c r="G111" s="44"/>
+      <c r="H111" s="14"/>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A112" s="37"/>
-      <c r="B112" s="40"/>
-      <c r="C112" s="42"/>
-      <c r="D112" s="4"/>
-      <c r="E112" s="3"/>
-      <c r="F112" s="44"/>
-      <c r="G112" s="44"/>
-      <c r="H112" s="14"/>
+      <c r="A112" s="36"/>
+      <c r="B112" s="39"/>
+      <c r="C112" s="41"/>
+      <c r="D112" s="8"/>
+      <c r="E112" s="7"/>
+      <c r="F112" s="45"/>
+      <c r="G112" s="45"/>
+      <c r="H112" s="13"/>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A113" s="36"/>
-      <c r="B113" s="39"/>
-      <c r="C113" s="41"/>
-      <c r="D113" s="8"/>
-      <c r="E113" s="7"/>
-      <c r="F113" s="45"/>
-      <c r="G113" s="45"/>
-      <c r="H113" s="13"/>
+      <c r="A113" s="35"/>
+      <c r="B113" s="38"/>
+      <c r="C113" s="43"/>
+      <c r="D113" s="10"/>
+      <c r="E113" s="11"/>
+      <c r="F113" s="46"/>
+      <c r="G113" s="46"/>
+      <c r="H113" s="12"/>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A114" s="35"/>
-      <c r="B114" s="38"/>
-      <c r="C114" s="43"/>
-      <c r="D114" s="10"/>
-      <c r="E114" s="11"/>
-      <c r="F114" s="46"/>
-      <c r="G114" s="46"/>
-      <c r="H114" s="12"/>
+      <c r="A114" s="37"/>
+      <c r="B114" s="40"/>
+      <c r="C114" s="42"/>
+      <c r="D114" s="4"/>
+      <c r="E114" s="3"/>
+      <c r="F114" s="44"/>
+      <c r="G114" s="44"/>
+      <c r="H114" s="14"/>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A115" s="37"/>
-      <c r="B115" s="40"/>
-      <c r="C115" s="42"/>
-      <c r="D115" s="4"/>
-      <c r="E115" s="3"/>
-      <c r="F115" s="44"/>
-      <c r="G115" s="44"/>
-      <c r="H115" s="14"/>
+      <c r="A115" s="36"/>
+      <c r="B115" s="39"/>
+      <c r="C115" s="41"/>
+      <c r="D115" s="8"/>
+      <c r="E115" s="7"/>
+      <c r="F115" s="45"/>
+      <c r="G115" s="45"/>
+      <c r="H115" s="13"/>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A116" s="36"/>
-      <c r="B116" s="39"/>
-      <c r="C116" s="41"/>
-      <c r="D116" s="8"/>
-      <c r="E116" s="7"/>
-      <c r="F116" s="45"/>
-      <c r="G116" s="45"/>
-      <c r="H116" s="13"/>
+      <c r="A116" s="35"/>
+      <c r="B116" s="38"/>
+      <c r="C116" s="43"/>
+      <c r="D116" s="10"/>
+      <c r="E116" s="11"/>
+      <c r="F116" s="46"/>
+      <c r="G116" s="46"/>
+      <c r="H116" s="12"/>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A117" s="35"/>
-      <c r="B117" s="38"/>
-      <c r="C117" s="43"/>
-      <c r="D117" s="10"/>
-      <c r="E117" s="11"/>
-      <c r="F117" s="46"/>
-      <c r="G117" s="46"/>
-      <c r="H117" s="12"/>
+      <c r="A117" s="36"/>
+      <c r="B117" s="39"/>
+      <c r="C117" s="41"/>
+      <c r="D117" s="8"/>
+      <c r="E117" s="7"/>
+      <c r="F117" s="45"/>
+      <c r="G117" s="45"/>
+      <c r="H117" s="13"/>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A118" s="36"/>
-      <c r="B118" s="39"/>
-      <c r="C118" s="41"/>
-      <c r="D118" s="8"/>
-      <c r="E118" s="7"/>
-      <c r="F118" s="45"/>
-      <c r="G118" s="45"/>
-      <c r="H118" s="13"/>
+      <c r="A118" s="35"/>
+      <c r="B118" s="38"/>
+      <c r="C118" s="43"/>
+      <c r="D118" s="10"/>
+      <c r="E118" s="11"/>
+      <c r="F118" s="46"/>
+      <c r="G118" s="46"/>
+      <c r="H118" s="12"/>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A119" s="35"/>
-      <c r="B119" s="38"/>
-      <c r="C119" s="43"/>
-      <c r="D119" s="10"/>
-      <c r="E119" s="11"/>
-      <c r="F119" s="46"/>
-      <c r="G119" s="46"/>
-      <c r="H119" s="12"/>
+      <c r="A119" s="37"/>
+      <c r="B119" s="40"/>
+      <c r="C119" s="42"/>
+      <c r="D119" s="4"/>
+      <c r="E119" s="3"/>
+      <c r="F119" s="44"/>
+      <c r="G119" s="44"/>
+      <c r="H119" s="14"/>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A120" s="37"/>
-      <c r="B120" s="40"/>
-      <c r="C120" s="42"/>
-      <c r="D120" s="4"/>
-      <c r="E120" s="3"/>
-      <c r="F120" s="44"/>
-      <c r="G120" s="44"/>
-      <c r="H120" s="14"/>
+      <c r="A120" s="36"/>
+      <c r="B120" s="39"/>
+      <c r="C120" s="41"/>
+      <c r="D120" s="8"/>
+      <c r="E120" s="7"/>
+      <c r="F120" s="45"/>
+      <c r="G120" s="45"/>
+      <c r="H120" s="13"/>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A121" s="36"/>
-      <c r="B121" s="39"/>
-      <c r="C121" s="41"/>
-      <c r="D121" s="8"/>
-      <c r="E121" s="7"/>
-      <c r="F121" s="45"/>
-      <c r="G121" s="45"/>
-      <c r="H121" s="13"/>
+      <c r="A121" s="35"/>
+      <c r="B121" s="38"/>
+      <c r="C121" s="43"/>
+      <c r="D121" s="10"/>
+      <c r="E121" s="11"/>
+      <c r="F121" s="46"/>
+      <c r="G121" s="46"/>
+      <c r="H121" s="12"/>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A122" s="35"/>
-      <c r="B122" s="38"/>
-      <c r="C122" s="43"/>
-      <c r="D122" s="10"/>
-      <c r="E122" s="11"/>
-      <c r="F122" s="46"/>
-      <c r="G122" s="46"/>
-      <c r="H122" s="12"/>
+      <c r="A122" s="37"/>
+      <c r="B122" s="40"/>
+      <c r="C122" s="42"/>
+      <c r="D122" s="4"/>
+      <c r="E122" s="3"/>
+      <c r="F122" s="44"/>
+      <c r="G122" s="44"/>
+      <c r="H122" s="14"/>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A123" s="37"/>
-      <c r="B123" s="40"/>
-      <c r="C123" s="42"/>
-      <c r="D123" s="4"/>
-      <c r="E123" s="3"/>
-      <c r="F123" s="44"/>
-      <c r="G123" s="44"/>
-      <c r="H123" s="14"/>
+      <c r="A123" s="36"/>
+      <c r="B123" s="39"/>
+      <c r="C123" s="41"/>
+      <c r="D123" s="8"/>
+      <c r="E123" s="7"/>
+      <c r="F123" s="45"/>
+      <c r="G123" s="45"/>
+      <c r="H123" s="13"/>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A124" s="36"/>
-      <c r="B124" s="39"/>
-      <c r="C124" s="41"/>
-      <c r="D124" s="8"/>
-      <c r="E124" s="7"/>
-      <c r="F124" s="45"/>
-      <c r="G124" s="45"/>
-      <c r="H124" s="13"/>
+      <c r="A124" s="35"/>
+      <c r="B124" s="38"/>
+      <c r="C124" s="43"/>
+      <c r="D124" s="10"/>
+      <c r="E124" s="11"/>
+      <c r="F124" s="46"/>
+      <c r="G124" s="46"/>
+      <c r="H124" s="12"/>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A125" s="35"/>
-      <c r="B125" s="38"/>
-      <c r="C125" s="43"/>
-      <c r="D125" s="10"/>
-      <c r="E125" s="11"/>
-      <c r="F125" s="46"/>
-      <c r="G125" s="46"/>
-      <c r="H125" s="12"/>
+      <c r="A125" s="37"/>
+      <c r="B125" s="40"/>
+      <c r="C125" s="42"/>
+      <c r="D125" s="4"/>
+      <c r="E125" s="3"/>
+      <c r="F125" s="44"/>
+      <c r="G125" s="44"/>
+      <c r="H125" s="14"/>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A126" s="37"/>
-      <c r="B126" s="40"/>
-      <c r="C126" s="42"/>
-      <c r="D126" s="4"/>
-      <c r="E126" s="3"/>
-      <c r="F126" s="44"/>
-      <c r="G126" s="44"/>
-      <c r="H126" s="14"/>
+      <c r="A126" s="36"/>
+      <c r="B126" s="39"/>
+      <c r="C126" s="41"/>
+      <c r="D126" s="8"/>
+      <c r="E126" s="7"/>
+      <c r="F126" s="45"/>
+      <c r="G126" s="45"/>
+      <c r="H126" s="13"/>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A127" s="36"/>
-      <c r="B127" s="39"/>
-      <c r="C127" s="41"/>
-      <c r="D127" s="8"/>
-      <c r="E127" s="7"/>
-      <c r="F127" s="45"/>
-      <c r="G127" s="45"/>
-      <c r="H127" s="13"/>
+      <c r="A127" s="35"/>
+      <c r="B127" s="38"/>
+      <c r="C127" s="43"/>
+      <c r="D127" s="10"/>
+      <c r="E127" s="11"/>
+      <c r="F127" s="46"/>
+      <c r="G127" s="46"/>
+      <c r="H127" s="12"/>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A128" s="35"/>
-      <c r="B128" s="38"/>
-      <c r="C128" s="43"/>
-      <c r="D128" s="10"/>
-      <c r="E128" s="11"/>
-      <c r="F128" s="46"/>
-      <c r="G128" s="46"/>
-      <c r="H128" s="12"/>
+      <c r="A128" s="37"/>
+      <c r="B128" s="40"/>
+      <c r="C128" s="42"/>
+      <c r="D128" s="4"/>
+      <c r="E128" s="3"/>
+      <c r="F128" s="44"/>
+      <c r="G128" s="44"/>
+      <c r="H128" s="14"/>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A129" s="37"/>
-      <c r="B129" s="40"/>
-      <c r="C129" s="42"/>
-      <c r="D129" s="4"/>
-      <c r="E129" s="3"/>
-      <c r="F129" s="44"/>
-      <c r="G129" s="44"/>
-      <c r="H129" s="14"/>
+      <c r="A129" s="36"/>
+      <c r="B129" s="39"/>
+      <c r="C129" s="41"/>
+      <c r="D129" s="8"/>
+      <c r="E129" s="7"/>
+      <c r="F129" s="45"/>
+      <c r="G129" s="45"/>
+      <c r="H129" s="13"/>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A130" s="36"/>
-      <c r="B130" s="39"/>
-      <c r="C130" s="41"/>
-      <c r="D130" s="8"/>
-      <c r="E130" s="7"/>
-      <c r="F130" s="45"/>
-      <c r="G130" s="45"/>
-      <c r="H130" s="13"/>
+      <c r="A130" s="35"/>
+      <c r="B130" s="38"/>
+      <c r="C130" s="43"/>
+      <c r="D130" s="10"/>
+      <c r="E130" s="11"/>
+      <c r="F130" s="46"/>
+      <c r="G130" s="46"/>
+      <c r="H130" s="12"/>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A131" s="35"/>
-      <c r="B131" s="38"/>
-      <c r="C131" s="43"/>
-      <c r="D131" s="10"/>
-      <c r="E131" s="11"/>
-      <c r="F131" s="46"/>
-      <c r="G131" s="46"/>
-      <c r="H131" s="12"/>
+      <c r="A131" s="37"/>
+      <c r="B131" s="40"/>
+      <c r="C131" s="42"/>
+      <c r="D131" s="4"/>
+      <c r="E131" s="3"/>
+      <c r="F131" s="44"/>
+      <c r="G131" s="44"/>
+      <c r="H131" s="14"/>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A132" s="37"/>
-      <c r="B132" s="40"/>
-      <c r="C132" s="42"/>
-      <c r="D132" s="4"/>
-      <c r="E132" s="3"/>
-      <c r="F132" s="44"/>
-      <c r="G132" s="44"/>
-      <c r="H132" s="14"/>
+      <c r="A132" s="36"/>
+      <c r="B132" s="39"/>
+      <c r="C132" s="41"/>
+      <c r="D132" s="8"/>
+      <c r="E132" s="7"/>
+      <c r="F132" s="45"/>
+      <c r="G132" s="45"/>
+      <c r="H132" s="13"/>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A133" s="36"/>
-      <c r="B133" s="39"/>
-      <c r="C133" s="41"/>
-      <c r="D133" s="8"/>
-      <c r="E133" s="7"/>
-      <c r="F133" s="45"/>
-      <c r="G133" s="45"/>
-      <c r="H133" s="13"/>
+      <c r="A133" s="35"/>
+      <c r="B133" s="38"/>
+      <c r="C133" s="43"/>
+      <c r="D133" s="10"/>
+      <c r="E133" s="11"/>
+      <c r="F133" s="46"/>
+      <c r="G133" s="46"/>
+      <c r="H133" s="12"/>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A134" s="35"/>
-      <c r="B134" s="38"/>
-      <c r="C134" s="43"/>
-      <c r="D134" s="10"/>
-      <c r="E134" s="11"/>
-      <c r="F134" s="46"/>
-      <c r="G134" s="46"/>
-      <c r="H134" s="12"/>
+      <c r="A134" s="37"/>
+      <c r="B134" s="40"/>
+      <c r="C134" s="42"/>
+      <c r="D134" s="4"/>
+      <c r="E134" s="3"/>
+      <c r="F134" s="44"/>
+      <c r="G134" s="44"/>
+      <c r="H134" s="14"/>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="37"/>
@@ -2772,24 +2896,24 @@
       <c r="H135" s="14"/>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A136" s="37"/>
-      <c r="B136" s="40"/>
-      <c r="C136" s="42"/>
-      <c r="D136" s="4"/>
-      <c r="E136" s="3"/>
-      <c r="F136" s="44"/>
-      <c r="G136" s="44"/>
-      <c r="H136" s="14"/>
+      <c r="A136" s="35"/>
+      <c r="B136" s="38"/>
+      <c r="C136" s="43"/>
+      <c r="D136" s="10"/>
+      <c r="E136" s="11"/>
+      <c r="F136" s="46"/>
+      <c r="G136" s="46"/>
+      <c r="H136" s="12"/>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A137" s="35"/>
-      <c r="B137" s="38"/>
-      <c r="C137" s="43"/>
-      <c r="D137" s="10"/>
-      <c r="E137" s="11"/>
-      <c r="F137" s="46"/>
-      <c r="G137" s="46"/>
-      <c r="H137" s="12"/>
+      <c r="A137" s="37"/>
+      <c r="B137" s="40"/>
+      <c r="C137" s="42"/>
+      <c r="D137" s="4"/>
+      <c r="E137" s="3"/>
+      <c r="F137" s="44"/>
+      <c r="G137" s="44"/>
+      <c r="H137" s="14"/>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="37"/>
@@ -2802,84 +2926,83 @@
       <c r="H138" s="14"/>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A139" s="37"/>
-      <c r="B139" s="40"/>
-      <c r="C139" s="42"/>
-      <c r="D139" s="4"/>
-      <c r="E139" s="3"/>
-      <c r="F139" s="44"/>
-      <c r="G139" s="44"/>
-      <c r="H139" s="14"/>
+      <c r="A139" s="35"/>
+      <c r="B139" s="54"/>
+      <c r="C139" s="43"/>
+      <c r="D139" s="57"/>
+      <c r="E139" s="11"/>
+      <c r="F139" s="53"/>
+      <c r="G139" s="46"/>
+      <c r="H139" s="12"/>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A140" s="35"/>
-      <c r="B140" s="54"/>
-      <c r="C140" s="43"/>
-      <c r="D140" s="57"/>
-      <c r="E140" s="11"/>
-      <c r="F140" s="53"/>
-      <c r="G140" s="46"/>
-      <c r="H140" s="12"/>
+      <c r="A140" s="37"/>
+      <c r="B140" s="55"/>
+      <c r="C140" s="42"/>
+      <c r="D140" s="58"/>
+      <c r="E140" s="3"/>
+      <c r="F140" s="44"/>
+      <c r="G140" s="44"/>
+      <c r="H140" s="14"/>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A141" s="37"/>
-      <c r="B141" s="55"/>
-      <c r="C141" s="42"/>
-      <c r="D141" s="58"/>
-      <c r="E141" s="3"/>
-      <c r="F141" s="44"/>
-      <c r="G141" s="44"/>
-      <c r="H141" s="14"/>
+      <c r="A141" s="36"/>
+      <c r="B141" s="56"/>
+      <c r="C141" s="41"/>
+      <c r="D141" s="59"/>
+      <c r="E141" s="7"/>
+      <c r="F141" s="45"/>
+      <c r="G141" s="45"/>
+      <c r="H141" s="13"/>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A142" s="36"/>
-      <c r="B142" s="56"/>
-      <c r="C142" s="41"/>
-      <c r="D142" s="59"/>
-      <c r="E142" s="7"/>
-      <c r="F142" s="45"/>
-      <c r="G142" s="45"/>
-      <c r="H142" s="13"/>
+      <c r="A142" s="35"/>
+      <c r="B142" s="54"/>
+      <c r="C142" s="43"/>
+      <c r="D142" s="57"/>
+      <c r="E142" s="11"/>
+      <c r="F142" s="53"/>
+      <c r="G142" s="44"/>
+      <c r="H142" s="12"/>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A143" s="35"/>
-      <c r="B143" s="54"/>
-      <c r="C143" s="43"/>
-      <c r="D143" s="57"/>
-      <c r="E143" s="11"/>
-      <c r="F143" s="53"/>
-      <c r="G143" s="44"/>
-      <c r="H143" s="12"/>
+      <c r="A143" s="36"/>
+      <c r="B143" s="56"/>
+      <c r="C143" s="41"/>
+      <c r="D143" s="59"/>
+      <c r="E143" s="7"/>
+      <c r="F143" s="45"/>
+      <c r="G143" s="45"/>
+      <c r="H143" s="13"/>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A144" s="36"/>
-      <c r="B144" s="56"/>
-      <c r="C144" s="41"/>
-      <c r="D144" s="59"/>
-      <c r="E144" s="7"/>
-      <c r="F144" s="45"/>
-      <c r="G144" s="45"/>
-      <c r="H144" s="13"/>
+      <c r="A144" s="35"/>
+      <c r="B144" s="54"/>
+      <c r="C144" s="43"/>
+      <c r="D144" s="57"/>
+      <c r="E144" s="11"/>
+      <c r="F144" s="53"/>
+      <c r="G144" s="44"/>
+      <c r="H144" s="12"/>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A145" s="35"/>
-      <c r="B145" s="54"/>
-      <c r="C145" s="43"/>
-      <c r="D145" s="57"/>
-      <c r="E145" s="11"/>
-      <c r="F145" s="53"/>
-      <c r="G145" s="44"/>
-      <c r="H145" s="12"/>
+      <c r="A145" s="36"/>
+      <c r="B145" s="56"/>
+      <c r="C145" s="41"/>
+      <c r="D145" s="59"/>
+      <c r="E145" s="7"/>
+      <c r="F145" s="45"/>
+      <c r="G145" s="45"/>
+      <c r="H145" s="13"/>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A146" s="36"/>
-      <c r="B146" s="56"/>
-      <c r="C146" s="41"/>
-      <c r="D146" s="59"/>
-      <c r="E146" s="7"/>
-      <c r="F146" s="45"/>
-      <c r="G146" s="45"/>
-      <c r="H146" s="13"/>
+      <c r="B146" s="1"/>
+      <c r="C146" s="2"/>
+      <c r="D146" s="4"/>
+      <c r="E146" s="3"/>
+      <c r="F146" s="4"/>
+      <c r="G146" s="4"/>
+      <c r="H146" s="17"/>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B147" s="1"/>
@@ -3096,15 +3219,6 @@
       <c r="F170" s="4"/>
       <c r="G170" s="4"/>
       <c r="H170" s="17"/>
-    </row>
-    <row r="171" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B171" s="1"/>
-      <c r="C171" s="2"/>
-      <c r="D171" s="4"/>
-      <c r="E171" s="3"/>
-      <c r="F171" s="4"/>
-      <c r="G171" s="4"/>
-      <c r="H171" s="17"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/TS Jatai Working/TTD Krama PaaraayaNam-Kramam.xlsx
+++ b/TS Jatai Working/TTD Krama PaaraayaNam-Kramam.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="99">
   <si>
     <t>Date</t>
   </si>
@@ -289,9 +289,6 @@
     <t xml:space="preserve">2.3.10.3 </t>
   </si>
   <si>
-    <t>viedo not found</t>
-  </si>
-  <si>
     <t xml:space="preserve">2.3.11.1 </t>
   </si>
   <si>
@@ -305,6 +302,15 @@
   </si>
   <si>
     <t>2.4.1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4.6.2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4.7.1 </t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ng7bLepZ_JU</t>
   </si>
 </sst>
 </file>
@@ -1003,7 +1009,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F51" sqref="F51"/>
+      <selection pane="bottomLeft" activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -1990,11 +1996,11 @@
       <c r="F48" s="46" t="s">
         <v>90</v>
       </c>
-      <c r="G48" s="77" t="s">
-        <v>91</v>
+      <c r="G48" s="70" t="s">
+        <v>13</v>
       </c>
       <c r="H48" s="77" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
@@ -2018,19 +2024,19 @@
         <v>3</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E50" s="11" t="s">
         <v>9</v>
       </c>
       <c r="F50" s="46" t="s">
+        <v>93</v>
+      </c>
+      <c r="G50" s="46" t="s">
         <v>94</v>
       </c>
-      <c r="G50" s="46" t="s">
-        <v>95</v>
-      </c>
       <c r="H50" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
@@ -2039,20 +2045,22 @@
         <v>44465</v>
       </c>
       <c r="C51" s="42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F51" s="44"/>
+      <c r="F51" s="4" t="s">
+        <v>96</v>
+      </c>
       <c r="G51" s="70" t="s">
         <v>13</v>
       </c>
       <c r="H51" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
@@ -2066,11 +2074,21 @@
       <c r="H52" s="13"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="37"/>
-      <c r="B53" s="40"/>
-      <c r="C53" s="42"/>
-      <c r="D53" s="4"/>
-      <c r="E53" s="3"/>
+      <c r="A53" s="37">
+        <v>21</v>
+      </c>
+      <c r="B53" s="40">
+        <v>44466</v>
+      </c>
+      <c r="C53" s="42">
+        <v>2</v>
+      </c>
+      <c r="D53" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="F53" s="44"/>
       <c r="G53" s="44"/>
       <c r="H53" s="14"/>

--- a/TS Jatai Working/TTD Krama PaaraayaNam-Kramam.xlsx
+++ b/TS Jatai Working/TTD Krama PaaraayaNam-Kramam.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="102">
   <si>
     <t>Date</t>
   </si>
@@ -311,6 +311,15 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=ng7bLepZ_JU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4.14.5 </t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=xHNW2rhw-ME&amp;t=1047s</t>
+  </si>
+  <si>
+    <t>2.5.1.1</t>
   </si>
 </sst>
 </file>
@@ -1005,11 +1014,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L170"/>
+  <dimension ref="A1:L169"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G48" sqref="G48"/>
+      <pane ySplit="4" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H56" sqref="H56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -2089,309 +2098,325 @@
       <c r="E53" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F53" s="44"/>
-      <c r="G53" s="44"/>
-      <c r="H53" s="14"/>
+      <c r="F53" s="46" t="s">
+        <v>99</v>
+      </c>
+      <c r="G53" s="70" t="s">
+        <v>13</v>
+      </c>
+      <c r="H53" s="14" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="37"/>
-      <c r="B54" s="40"/>
-      <c r="C54" s="42"/>
-      <c r="D54" s="4"/>
-      <c r="E54" s="3"/>
-      <c r="F54" s="44"/>
-      <c r="G54" s="44"/>
-      <c r="H54" s="14"/>
+      <c r="A54" s="36"/>
+      <c r="B54" s="41"/>
+      <c r="C54" s="41"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="27"/>
+      <c r="F54" s="47"/>
+      <c r="G54" s="41"/>
+      <c r="H54" s="13"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="36"/>
-      <c r="B55" s="41"/>
-      <c r="C55" s="41"/>
-      <c r="D55" s="6"/>
-      <c r="E55" s="27"/>
-      <c r="F55" s="47"/>
-      <c r="G55" s="41"/>
-      <c r="H55" s="13"/>
+      <c r="A55" s="35">
+        <v>22</v>
+      </c>
+      <c r="B55" s="38">
+        <v>44467</v>
+      </c>
+      <c r="C55" s="43">
+        <v>1</v>
+      </c>
+      <c r="D55" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="E55" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F55" s="46"/>
+      <c r="G55" s="46"/>
+      <c r="H55" s="12"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="35"/>
-      <c r="B56" s="38"/>
-      <c r="C56" s="43"/>
-      <c r="D56" s="10"/>
-      <c r="E56" s="11"/>
-      <c r="F56" s="46"/>
-      <c r="G56" s="46"/>
-      <c r="H56" s="12"/>
+      <c r="A56" s="37"/>
+      <c r="B56" s="40"/>
+      <c r="C56" s="42"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="44"/>
+      <c r="G56" s="44"/>
+      <c r="H56" s="14"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="37"/>
-      <c r="B57" s="40"/>
-      <c r="C57" s="42"/>
-      <c r="D57" s="4"/>
-      <c r="E57" s="3"/>
-      <c r="F57" s="44"/>
-      <c r="G57" s="44"/>
-      <c r="H57" s="14"/>
+      <c r="A57" s="36"/>
+      <c r="B57" s="41"/>
+      <c r="C57" s="41"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="27"/>
+      <c r="F57" s="47"/>
+      <c r="G57" s="41"/>
+      <c r="H57" s="13"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="36"/>
-      <c r="B58" s="41"/>
-      <c r="C58" s="41"/>
-      <c r="D58" s="6"/>
-      <c r="E58" s="27"/>
-      <c r="F58" s="47"/>
-      <c r="G58" s="41"/>
-      <c r="H58" s="13"/>
+      <c r="A58" s="35"/>
+      <c r="B58" s="38"/>
+      <c r="C58" s="43"/>
+      <c r="D58" s="10"/>
+      <c r="E58" s="11"/>
+      <c r="F58" s="46"/>
+      <c r="G58" s="46"/>
+      <c r="H58" s="12"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="35"/>
-      <c r="B59" s="38"/>
-      <c r="C59" s="43"/>
-      <c r="D59" s="10"/>
-      <c r="E59" s="11"/>
-      <c r="F59" s="46"/>
-      <c r="G59" s="46"/>
-      <c r="H59" s="12"/>
+      <c r="A59" s="36"/>
+      <c r="B59" s="41"/>
+      <c r="C59" s="41"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="27"/>
+      <c r="F59" s="47"/>
+      <c r="G59" s="41"/>
+      <c r="H59" s="13"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="36"/>
-      <c r="B60" s="41"/>
-      <c r="C60" s="41"/>
-      <c r="D60" s="6"/>
-      <c r="E60" s="27"/>
-      <c r="F60" s="47"/>
-      <c r="G60" s="41"/>
-      <c r="H60" s="13"/>
+      <c r="A60" s="35"/>
+      <c r="B60" s="38"/>
+      <c r="C60" s="43"/>
+      <c r="D60" s="10"/>
+      <c r="E60" s="11"/>
+      <c r="F60" s="46"/>
+      <c r="G60" s="46"/>
+      <c r="H60" s="12"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="35"/>
-      <c r="B61" s="38"/>
-      <c r="C61" s="43"/>
-      <c r="D61" s="10"/>
-      <c r="E61" s="11"/>
-      <c r="F61" s="46"/>
-      <c r="G61" s="46"/>
-      <c r="H61" s="12"/>
+      <c r="A61" s="37"/>
+      <c r="B61" s="40"/>
+      <c r="C61" s="42"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="44"/>
+      <c r="G61" s="44"/>
+      <c r="H61" s="14"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="37"/>
-      <c r="B62" s="40"/>
-      <c r="C62" s="42"/>
-      <c r="D62" s="4"/>
-      <c r="E62" s="3"/>
-      <c r="F62" s="44"/>
-      <c r="G62" s="44"/>
-      <c r="H62" s="14"/>
+      <c r="A62" s="36"/>
+      <c r="B62" s="41"/>
+      <c r="C62" s="41"/>
+      <c r="D62" s="6"/>
+      <c r="E62" s="27"/>
+      <c r="F62" s="47"/>
+      <c r="G62" s="41"/>
+      <c r="H62" s="13"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="36"/>
-      <c r="B63" s="41"/>
-      <c r="C63" s="41"/>
-      <c r="D63" s="6"/>
-      <c r="E63" s="27"/>
-      <c r="F63" s="47"/>
-      <c r="G63" s="41"/>
-      <c r="H63" s="13"/>
+      <c r="A63" s="35"/>
+      <c r="B63" s="38"/>
+      <c r="C63" s="43"/>
+      <c r="D63" s="10"/>
+      <c r="E63" s="11"/>
+      <c r="F63" s="46"/>
+      <c r="G63" s="46"/>
+      <c r="H63" s="12"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="35"/>
-      <c r="B64" s="38"/>
-      <c r="C64" s="43"/>
-      <c r="D64" s="10"/>
-      <c r="E64" s="11"/>
-      <c r="F64" s="46"/>
-      <c r="G64" s="46"/>
-      <c r="H64" s="12"/>
+      <c r="A64" s="37"/>
+      <c r="B64" s="40"/>
+      <c r="C64" s="42"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="3"/>
+      <c r="F64" s="44"/>
+      <c r="G64" s="44"/>
+      <c r="H64" s="14"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="37"/>
-      <c r="B65" s="40"/>
-      <c r="C65" s="42"/>
-      <c r="D65" s="4"/>
-      <c r="E65" s="3"/>
-      <c r="F65" s="44"/>
-      <c r="G65" s="44"/>
-      <c r="H65" s="14"/>
+      <c r="A65" s="36"/>
+      <c r="B65" s="41"/>
+      <c r="C65" s="41"/>
+      <c r="D65" s="6"/>
+      <c r="E65" s="27"/>
+      <c r="F65" s="47"/>
+      <c r="G65" s="41"/>
+      <c r="H65" s="13"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="36"/>
-      <c r="B66" s="41"/>
-      <c r="C66" s="41"/>
-      <c r="D66" s="6"/>
-      <c r="E66" s="27"/>
-      <c r="F66" s="47"/>
-      <c r="G66" s="41"/>
-      <c r="H66" s="13"/>
+      <c r="A66" s="35"/>
+      <c r="B66" s="38"/>
+      <c r="C66" s="43"/>
+      <c r="D66" s="10"/>
+      <c r="E66" s="11"/>
+      <c r="F66" s="46"/>
+      <c r="G66" s="46"/>
+      <c r="H66" s="12"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="35"/>
-      <c r="B67" s="38"/>
-      <c r="C67" s="43"/>
-      <c r="D67" s="10"/>
-      <c r="E67" s="11"/>
-      <c r="F67" s="46"/>
-      <c r="G67" s="46"/>
-      <c r="H67" s="12"/>
+      <c r="A67" s="37"/>
+      <c r="B67" s="40"/>
+      <c r="C67" s="42"/>
+      <c r="D67" s="4"/>
+      <c r="E67" s="3"/>
+      <c r="F67" s="44"/>
+      <c r="G67" s="44"/>
+      <c r="H67" s="14"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="37"/>
-      <c r="B68" s="40"/>
-      <c r="C68" s="42"/>
-      <c r="D68" s="4"/>
-      <c r="E68" s="3"/>
-      <c r="F68" s="44"/>
-      <c r="G68" s="44"/>
-      <c r="H68" s="14"/>
+      <c r="A68" s="36"/>
+      <c r="B68" s="41"/>
+      <c r="C68" s="41"/>
+      <c r="D68" s="6"/>
+      <c r="E68" s="27"/>
+      <c r="F68" s="47"/>
+      <c r="G68" s="41"/>
+      <c r="H68" s="13"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="36"/>
-      <c r="B69" s="41"/>
-      <c r="C69" s="41"/>
-      <c r="D69" s="6"/>
-      <c r="E69" s="27"/>
-      <c r="F69" s="47"/>
-      <c r="G69" s="41"/>
-      <c r="H69" s="13"/>
+      <c r="A69" s="35"/>
+      <c r="B69" s="38"/>
+      <c r="C69" s="43"/>
+      <c r="D69" s="10"/>
+      <c r="E69" s="11"/>
+      <c r="F69" s="46"/>
+      <c r="G69" s="46"/>
+      <c r="H69" s="12"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="35"/>
-      <c r="B70" s="38"/>
-      <c r="C70" s="43"/>
-      <c r="D70" s="10"/>
-      <c r="E70" s="11"/>
-      <c r="F70" s="46"/>
-      <c r="G70" s="46"/>
-      <c r="H70" s="12"/>
+      <c r="A70" s="36"/>
+      <c r="B70" s="41"/>
+      <c r="C70" s="41"/>
+      <c r="D70" s="6"/>
+      <c r="E70" s="27"/>
+      <c r="F70" s="47"/>
+      <c r="G70" s="41"/>
+      <c r="H70" s="13"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="36"/>
-      <c r="B71" s="41"/>
-      <c r="C71" s="41"/>
-      <c r="D71" s="6"/>
-      <c r="E71" s="27"/>
-      <c r="F71" s="47"/>
-      <c r="G71" s="41"/>
-      <c r="H71" s="13"/>
+      <c r="A71" s="35"/>
+      <c r="B71" s="38"/>
+      <c r="C71" s="43"/>
+      <c r="D71" s="10"/>
+      <c r="E71" s="11"/>
+      <c r="F71" s="46"/>
+      <c r="G71" s="46"/>
+      <c r="H71" s="12"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="35"/>
-      <c r="B72" s="38"/>
-      <c r="C72" s="43"/>
-      <c r="D72" s="10"/>
-      <c r="E72" s="11"/>
-      <c r="F72" s="46"/>
-      <c r="G72" s="46"/>
-      <c r="H72" s="12"/>
+      <c r="A72" s="37"/>
+      <c r="B72" s="40"/>
+      <c r="C72" s="42"/>
+      <c r="D72" s="4"/>
+      <c r="E72" s="3"/>
+      <c r="F72" s="44"/>
+      <c r="G72" s="44"/>
+      <c r="H72" s="14"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="37"/>
-      <c r="B73" s="40"/>
-      <c r="C73" s="42"/>
-      <c r="D73" s="4"/>
-      <c r="E73" s="3"/>
-      <c r="F73" s="44"/>
-      <c r="G73" s="44"/>
-      <c r="H73" s="14"/>
+      <c r="A73" s="36"/>
+      <c r="B73" s="41"/>
+      <c r="C73" s="41"/>
+      <c r="D73" s="6"/>
+      <c r="E73" s="27"/>
+      <c r="F73" s="47"/>
+      <c r="G73" s="41"/>
+      <c r="H73" s="13"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="36"/>
-      <c r="B74" s="41"/>
-      <c r="C74" s="41"/>
-      <c r="D74" s="6"/>
-      <c r="E74" s="27"/>
-      <c r="F74" s="47"/>
-      <c r="G74" s="41"/>
-      <c r="H74" s="13"/>
+      <c r="A74" s="35"/>
+      <c r="B74" s="38"/>
+      <c r="C74" s="43"/>
+      <c r="D74" s="10"/>
+      <c r="E74" s="11"/>
+      <c r="F74" s="46"/>
+      <c r="G74" s="46"/>
+      <c r="H74" s="12"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="35"/>
-      <c r="B75" s="38"/>
-      <c r="C75" s="43"/>
-      <c r="D75" s="10"/>
-      <c r="E75" s="11"/>
-      <c r="F75" s="46"/>
-      <c r="G75" s="46"/>
-      <c r="H75" s="12"/>
+      <c r="A75" s="37"/>
+      <c r="B75" s="40"/>
+      <c r="C75" s="42"/>
+      <c r="D75" s="4"/>
+      <c r="E75" s="3"/>
+      <c r="F75" s="44"/>
+      <c r="G75" s="44"/>
+      <c r="H75" s="14"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" s="37"/>
-      <c r="B76" s="40"/>
-      <c r="C76" s="42"/>
-      <c r="D76" s="4"/>
-      <c r="E76" s="3"/>
-      <c r="F76" s="44"/>
-      <c r="G76" s="44"/>
-      <c r="H76" s="14"/>
+      <c r="A76" s="36"/>
+      <c r="B76" s="41"/>
+      <c r="C76" s="41"/>
+      <c r="D76" s="6"/>
+      <c r="E76" s="27"/>
+      <c r="F76" s="47"/>
+      <c r="G76" s="41"/>
+      <c r="H76" s="13"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77" s="36"/>
-      <c r="B77" s="41"/>
-      <c r="C77" s="41"/>
-      <c r="D77" s="6"/>
-      <c r="E77" s="27"/>
-      <c r="F77" s="47"/>
-      <c r="G77" s="41"/>
-      <c r="H77" s="13"/>
+      <c r="A77" s="35"/>
+      <c r="B77" s="38"/>
+      <c r="C77" s="43"/>
+      <c r="D77" s="10"/>
+      <c r="E77" s="11"/>
+      <c r="F77" s="46"/>
+      <c r="G77" s="46"/>
+      <c r="H77" s="12"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" s="35"/>
-      <c r="B78" s="38"/>
-      <c r="C78" s="43"/>
-      <c r="D78" s="10"/>
-      <c r="E78" s="11"/>
-      <c r="F78" s="46"/>
-      <c r="G78" s="46"/>
-      <c r="H78" s="12"/>
+      <c r="A78" s="37"/>
+      <c r="B78" s="40"/>
+      <c r="C78" s="42"/>
+      <c r="D78" s="4"/>
+      <c r="E78" s="3"/>
+      <c r="F78" s="44"/>
+      <c r="G78" s="44"/>
+      <c r="H78" s="14"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" s="37"/>
-      <c r="B79" s="40"/>
-      <c r="C79" s="42"/>
-      <c r="D79" s="4"/>
-      <c r="E79" s="3"/>
-      <c r="F79" s="44"/>
-      <c r="G79" s="44"/>
-      <c r="H79" s="14"/>
+      <c r="A79" s="36"/>
+      <c r="B79" s="41"/>
+      <c r="C79" s="41"/>
+      <c r="D79" s="6"/>
+      <c r="E79" s="27"/>
+      <c r="F79" s="47"/>
+      <c r="G79" s="41"/>
+      <c r="H79" s="13"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80" s="36"/>
-      <c r="B80" s="41"/>
-      <c r="C80" s="41"/>
-      <c r="D80" s="6"/>
-      <c r="E80" s="27"/>
-      <c r="F80" s="47"/>
-      <c r="G80" s="41"/>
-      <c r="H80" s="13"/>
+      <c r="A80" s="35"/>
+      <c r="B80" s="38"/>
+      <c r="C80" s="43"/>
+      <c r="D80" s="10"/>
+      <c r="E80" s="11"/>
+      <c r="F80" s="46"/>
+      <c r="G80" s="46"/>
+      <c r="H80" s="12"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81" s="35"/>
-      <c r="B81" s="38"/>
-      <c r="C81" s="43"/>
-      <c r="D81" s="10"/>
-      <c r="E81" s="11"/>
-      <c r="F81" s="46"/>
-      <c r="G81" s="46"/>
-      <c r="H81" s="12"/>
+      <c r="A81" s="36"/>
+      <c r="B81" s="41"/>
+      <c r="C81" s="41"/>
+      <c r="D81" s="6"/>
+      <c r="E81" s="27"/>
+      <c r="F81" s="47"/>
+      <c r="G81" s="41"/>
+      <c r="H81" s="13"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" s="36"/>
-      <c r="B82" s="41"/>
-      <c r="C82" s="41"/>
-      <c r="D82" s="6"/>
-      <c r="E82" s="27"/>
-      <c r="F82" s="47"/>
-      <c r="G82" s="41"/>
-      <c r="H82" s="13"/>
+      <c r="A82" s="35"/>
+      <c r="B82" s="38"/>
+      <c r="C82" s="43"/>
+      <c r="D82" s="10"/>
+      <c r="E82" s="11"/>
+      <c r="F82" s="46"/>
+      <c r="G82" s="46"/>
+      <c r="H82" s="12"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A83" s="35"/>
-      <c r="B83" s="38"/>
-      <c r="C83" s="43"/>
-      <c r="D83" s="10"/>
-      <c r="E83" s="11"/>
-      <c r="F83" s="46"/>
-      <c r="G83" s="46"/>
-      <c r="H83" s="12"/>
+      <c r="A83" s="37"/>
+      <c r="B83" s="40"/>
+      <c r="C83" s="42"/>
+      <c r="D83" s="4"/>
+      <c r="E83" s="3"/>
+      <c r="F83" s="44"/>
+      <c r="G83" s="44"/>
+      <c r="H83" s="14"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="37"/>
@@ -2404,144 +2429,144 @@
       <c r="H84" s="14"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85" s="37"/>
-      <c r="B85" s="40"/>
-      <c r="C85" s="42"/>
-      <c r="D85" s="4"/>
-      <c r="E85" s="3"/>
-      <c r="F85" s="44"/>
-      <c r="G85" s="44"/>
-      <c r="H85" s="14"/>
+      <c r="A85" s="36"/>
+      <c r="B85" s="41"/>
+      <c r="C85" s="41"/>
+      <c r="D85" s="6"/>
+      <c r="E85" s="27"/>
+      <c r="F85" s="47"/>
+      <c r="G85" s="41"/>
+      <c r="H85" s="13"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86" s="36"/>
-      <c r="B86" s="41"/>
-      <c r="C86" s="41"/>
-      <c r="D86" s="6"/>
-      <c r="E86" s="27"/>
-      <c r="F86" s="47"/>
-      <c r="G86" s="41"/>
-      <c r="H86" s="13"/>
+      <c r="A86" s="35"/>
+      <c r="B86" s="38"/>
+      <c r="C86" s="43"/>
+      <c r="D86" s="10"/>
+      <c r="E86" s="11"/>
+      <c r="F86" s="46"/>
+      <c r="G86" s="46"/>
+      <c r="H86" s="12"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A87" s="35"/>
-      <c r="B87" s="38"/>
-      <c r="C87" s="43"/>
-      <c r="D87" s="10"/>
-      <c r="E87" s="11"/>
-      <c r="F87" s="46"/>
-      <c r="G87" s="46"/>
-      <c r="H87" s="12"/>
+      <c r="A87" s="36"/>
+      <c r="B87" s="41"/>
+      <c r="C87" s="41"/>
+      <c r="D87" s="6"/>
+      <c r="E87" s="27"/>
+      <c r="F87" s="47"/>
+      <c r="G87" s="41"/>
+      <c r="H87" s="13"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88" s="36"/>
-      <c r="B88" s="41"/>
-      <c r="C88" s="41"/>
-      <c r="D88" s="6"/>
-      <c r="E88" s="27"/>
-      <c r="F88" s="47"/>
-      <c r="G88" s="41"/>
-      <c r="H88" s="13"/>
+      <c r="A88" s="35"/>
+      <c r="B88" s="38"/>
+      <c r="C88" s="43"/>
+      <c r="D88" s="10"/>
+      <c r="E88" s="11"/>
+      <c r="F88" s="46"/>
+      <c r="G88" s="46"/>
+      <c r="H88" s="12"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A89" s="35"/>
-      <c r="B89" s="38"/>
-      <c r="C89" s="43"/>
-      <c r="D89" s="10"/>
-      <c r="E89" s="11"/>
-      <c r="F89" s="46"/>
-      <c r="G89" s="46"/>
-      <c r="H89" s="12"/>
+      <c r="A89" s="37"/>
+      <c r="B89" s="40"/>
+      <c r="C89" s="42"/>
+      <c r="D89" s="4"/>
+      <c r="E89" s="3"/>
+      <c r="F89" s="44"/>
+      <c r="G89" s="44"/>
+      <c r="H89" s="14"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90" s="37"/>
-      <c r="B90" s="40"/>
-      <c r="C90" s="42"/>
-      <c r="D90" s="4"/>
-      <c r="E90" s="3"/>
-      <c r="F90" s="44"/>
-      <c r="G90" s="44"/>
-      <c r="H90" s="14"/>
+      <c r="A90" s="36"/>
+      <c r="B90" s="41"/>
+      <c r="C90" s="41"/>
+      <c r="D90" s="6"/>
+      <c r="E90" s="27"/>
+      <c r="F90" s="47"/>
+      <c r="G90" s="41"/>
+      <c r="H90" s="13"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91" s="36"/>
-      <c r="B91" s="41"/>
-      <c r="C91" s="41"/>
-      <c r="D91" s="6"/>
-      <c r="E91" s="27"/>
-      <c r="F91" s="47"/>
-      <c r="G91" s="41"/>
-      <c r="H91" s="13"/>
+      <c r="A91" s="35"/>
+      <c r="B91" s="38"/>
+      <c r="C91" s="43"/>
+      <c r="D91" s="10"/>
+      <c r="E91" s="11"/>
+      <c r="F91" s="46"/>
+      <c r="G91" s="46"/>
+      <c r="H91" s="12"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A92" s="35"/>
-      <c r="B92" s="38"/>
-      <c r="C92" s="43"/>
-      <c r="D92" s="10"/>
-      <c r="E92" s="11"/>
-      <c r="F92" s="46"/>
-      <c r="G92" s="46"/>
-      <c r="H92" s="12"/>
+      <c r="A92" s="36"/>
+      <c r="B92" s="41"/>
+      <c r="C92" s="41"/>
+      <c r="D92" s="6"/>
+      <c r="E92" s="27"/>
+      <c r="F92" s="47"/>
+      <c r="G92" s="41"/>
+      <c r="H92" s="13"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93" s="36"/>
-      <c r="B93" s="41"/>
-      <c r="C93" s="41"/>
-      <c r="D93" s="6"/>
-      <c r="E93" s="27"/>
-      <c r="F93" s="47"/>
-      <c r="G93" s="41"/>
-      <c r="H93" s="13"/>
+      <c r="A93" s="35"/>
+      <c r="B93" s="38"/>
+      <c r="C93" s="43"/>
+      <c r="D93" s="10"/>
+      <c r="E93" s="11"/>
+      <c r="F93" s="46"/>
+      <c r="G93" s="46"/>
+      <c r="H93" s="12"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A94" s="35"/>
-      <c r="B94" s="38"/>
-      <c r="C94" s="43"/>
-      <c r="D94" s="10"/>
-      <c r="E94" s="11"/>
-      <c r="F94" s="46"/>
-      <c r="G94" s="46"/>
-      <c r="H94" s="12"/>
+      <c r="A94" s="37"/>
+      <c r="B94" s="40"/>
+      <c r="C94" s="42"/>
+      <c r="D94" s="4"/>
+      <c r="E94" s="3"/>
+      <c r="F94" s="44"/>
+      <c r="G94" s="44"/>
+      <c r="H94" s="14"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A95" s="37"/>
-      <c r="B95" s="40"/>
-      <c r="C95" s="42"/>
-      <c r="D95" s="4"/>
-      <c r="E95" s="3"/>
-      <c r="F95" s="44"/>
-      <c r="G95" s="44"/>
-      <c r="H95" s="14"/>
+      <c r="A95" s="36"/>
+      <c r="B95" s="41"/>
+      <c r="C95" s="41"/>
+      <c r="D95" s="6"/>
+      <c r="E95" s="27"/>
+      <c r="F95" s="47"/>
+      <c r="G95" s="41"/>
+      <c r="H95" s="13"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A96" s="36"/>
-      <c r="B96" s="41"/>
-      <c r="C96" s="41"/>
-      <c r="D96" s="6"/>
-      <c r="E96" s="27"/>
-      <c r="F96" s="47"/>
-      <c r="G96" s="41"/>
-      <c r="H96" s="13"/>
+      <c r="A96" s="35"/>
+      <c r="B96" s="38"/>
+      <c r="C96" s="43"/>
+      <c r="D96" s="10"/>
+      <c r="E96" s="11"/>
+      <c r="F96" s="46"/>
+      <c r="G96" s="46"/>
+      <c r="H96" s="12"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A97" s="35"/>
-      <c r="B97" s="38"/>
-      <c r="C97" s="43"/>
-      <c r="D97" s="10"/>
-      <c r="E97" s="11"/>
-      <c r="F97" s="46"/>
-      <c r="G97" s="46"/>
-      <c r="H97" s="12"/>
+      <c r="A97" s="36"/>
+      <c r="B97" s="41"/>
+      <c r="C97" s="41"/>
+      <c r="D97" s="6"/>
+      <c r="E97" s="27"/>
+      <c r="F97" s="47"/>
+      <c r="G97" s="41"/>
+      <c r="H97" s="13"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A98" s="36"/>
-      <c r="B98" s="41"/>
-      <c r="C98" s="41"/>
-      <c r="D98" s="6"/>
-      <c r="E98" s="27"/>
-      <c r="F98" s="47"/>
-      <c r="G98" s="41"/>
-      <c r="H98" s="13"/>
+      <c r="A98" s="37"/>
+      <c r="B98" s="40"/>
+      <c r="C98" s="42"/>
+      <c r="D98" s="4"/>
+      <c r="E98" s="3"/>
+      <c r="F98" s="44"/>
+      <c r="G98" s="44"/>
+      <c r="H98" s="17"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="37"/>
@@ -2555,343 +2580,343 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="37"/>
-      <c r="B100" s="40"/>
+      <c r="B100" s="42"/>
       <c r="C100" s="42"/>
-      <c r="D100" s="4"/>
-      <c r="E100" s="3"/>
-      <c r="F100" s="44"/>
-      <c r="G100" s="44"/>
+      <c r="D100" s="2"/>
+      <c r="E100" s="19"/>
+      <c r="F100" s="48"/>
+      <c r="G100" s="42"/>
       <c r="H100" s="17"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A101" s="37"/>
-      <c r="B101" s="42"/>
-      <c r="C101" s="42"/>
-      <c r="D101" s="2"/>
-      <c r="E101" s="19"/>
-      <c r="F101" s="48"/>
-      <c r="G101" s="42"/>
-      <c r="H101" s="17"/>
+      <c r="A101" s="35"/>
+      <c r="B101" s="38"/>
+      <c r="C101" s="43"/>
+      <c r="D101" s="10"/>
+      <c r="E101" s="11"/>
+      <c r="F101" s="46"/>
+      <c r="G101" s="46"/>
+      <c r="H101" s="12"/>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A102" s="35"/>
-      <c r="B102" s="38"/>
-      <c r="C102" s="43"/>
-      <c r="D102" s="10"/>
-      <c r="E102" s="11"/>
-      <c r="F102" s="46"/>
-      <c r="G102" s="46"/>
-      <c r="H102" s="12"/>
+      <c r="A102" s="37"/>
+      <c r="B102" s="40"/>
+      <c r="C102" s="42"/>
+      <c r="D102" s="4"/>
+      <c r="E102" s="3"/>
+      <c r="F102" s="44"/>
+      <c r="G102" s="44"/>
+      <c r="H102" s="14"/>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A103" s="37"/>
-      <c r="B103" s="40"/>
-      <c r="C103" s="42"/>
-      <c r="D103" s="4"/>
-      <c r="E103" s="3"/>
-      <c r="F103" s="44"/>
-      <c r="G103" s="44"/>
-      <c r="H103" s="14"/>
+      <c r="A103" s="36"/>
+      <c r="B103" s="39"/>
+      <c r="C103" s="41"/>
+      <c r="D103" s="8"/>
+      <c r="E103" s="7"/>
+      <c r="F103" s="45"/>
+      <c r="G103" s="45"/>
+      <c r="H103" s="13"/>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A104" s="36"/>
-      <c r="B104" s="39"/>
-      <c r="C104" s="41"/>
-      <c r="D104" s="8"/>
-      <c r="E104" s="7"/>
-      <c r="F104" s="45"/>
-      <c r="G104" s="45"/>
-      <c r="H104" s="13"/>
+      <c r="A104" s="35"/>
+      <c r="B104" s="38"/>
+      <c r="C104" s="43"/>
+      <c r="D104" s="10"/>
+      <c r="E104" s="11"/>
+      <c r="F104" s="46"/>
+      <c r="G104" s="46"/>
+      <c r="H104" s="12"/>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A105" s="35"/>
-      <c r="B105" s="38"/>
-      <c r="C105" s="43"/>
-      <c r="D105" s="10"/>
-      <c r="E105" s="11"/>
-      <c r="F105" s="46"/>
-      <c r="G105" s="46"/>
-      <c r="H105" s="12"/>
+      <c r="A105" s="36"/>
+      <c r="B105" s="39"/>
+      <c r="C105" s="41"/>
+      <c r="D105" s="8"/>
+      <c r="E105" s="7"/>
+      <c r="F105" s="45"/>
+      <c r="G105" s="45"/>
+      <c r="H105" s="13"/>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A106" s="36"/>
-      <c r="B106" s="39"/>
-      <c r="C106" s="41"/>
-      <c r="D106" s="8"/>
-      <c r="E106" s="7"/>
-      <c r="F106" s="45"/>
-      <c r="G106" s="45"/>
-      <c r="H106" s="13"/>
+      <c r="A106" s="35"/>
+      <c r="B106" s="38"/>
+      <c r="C106" s="43"/>
+      <c r="D106" s="10"/>
+      <c r="E106" s="11"/>
+      <c r="F106" s="46"/>
+      <c r="G106" s="46"/>
+      <c r="H106" s="12"/>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A107" s="35"/>
-      <c r="B107" s="38"/>
-      <c r="C107" s="43"/>
-      <c r="D107" s="10"/>
-      <c r="E107" s="11"/>
-      <c r="F107" s="46"/>
-      <c r="G107" s="46"/>
-      <c r="H107" s="12"/>
+      <c r="A107" s="37"/>
+      <c r="B107" s="40"/>
+      <c r="C107" s="42"/>
+      <c r="D107" s="4"/>
+      <c r="E107" s="3"/>
+      <c r="F107" s="44"/>
+      <c r="G107" s="44"/>
+      <c r="H107" s="14"/>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A108" s="37"/>
-      <c r="B108" s="40"/>
-      <c r="C108" s="42"/>
-      <c r="D108" s="4"/>
-      <c r="E108" s="3"/>
-      <c r="F108" s="44"/>
-      <c r="G108" s="44"/>
-      <c r="H108" s="14"/>
+      <c r="A108" s="36"/>
+      <c r="B108" s="39"/>
+      <c r="C108" s="41"/>
+      <c r="D108" s="8"/>
+      <c r="E108" s="7"/>
+      <c r="F108" s="45"/>
+      <c r="G108" s="45"/>
+      <c r="H108" s="13"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A109" s="36"/>
-      <c r="B109" s="39"/>
-      <c r="C109" s="41"/>
-      <c r="D109" s="8"/>
-      <c r="E109" s="7"/>
-      <c r="F109" s="45"/>
-      <c r="G109" s="45"/>
-      <c r="H109" s="13"/>
+      <c r="A109" s="35"/>
+      <c r="B109" s="38"/>
+      <c r="C109" s="43"/>
+      <c r="D109" s="10"/>
+      <c r="E109" s="11"/>
+      <c r="F109" s="46"/>
+      <c r="G109" s="46"/>
+      <c r="H109" s="12"/>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A110" s="35"/>
-      <c r="B110" s="38"/>
-      <c r="C110" s="43"/>
-      <c r="D110" s="10"/>
-      <c r="E110" s="11"/>
-      <c r="F110" s="46"/>
-      <c r="G110" s="46"/>
-      <c r="H110" s="12"/>
+      <c r="A110" s="37"/>
+      <c r="B110" s="40"/>
+      <c r="C110" s="42"/>
+      <c r="D110" s="4"/>
+      <c r="E110" s="3"/>
+      <c r="F110" s="44"/>
+      <c r="G110" s="44"/>
+      <c r="H110" s="14"/>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A111" s="37"/>
-      <c r="B111" s="40"/>
-      <c r="C111" s="42"/>
-      <c r="D111" s="4"/>
-      <c r="E111" s="3"/>
-      <c r="F111" s="44"/>
-      <c r="G111" s="44"/>
-      <c r="H111" s="14"/>
+      <c r="A111" s="36"/>
+      <c r="B111" s="39"/>
+      <c r="C111" s="41"/>
+      <c r="D111" s="8"/>
+      <c r="E111" s="7"/>
+      <c r="F111" s="45"/>
+      <c r="G111" s="45"/>
+      <c r="H111" s="13"/>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A112" s="36"/>
-      <c r="B112" s="39"/>
-      <c r="C112" s="41"/>
-      <c r="D112" s="8"/>
-      <c r="E112" s="7"/>
-      <c r="F112" s="45"/>
-      <c r="G112" s="45"/>
-      <c r="H112" s="13"/>
+      <c r="A112" s="35"/>
+      <c r="B112" s="38"/>
+      <c r="C112" s="43"/>
+      <c r="D112" s="10"/>
+      <c r="E112" s="11"/>
+      <c r="F112" s="46"/>
+      <c r="G112" s="46"/>
+      <c r="H112" s="12"/>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A113" s="35"/>
-      <c r="B113" s="38"/>
-      <c r="C113" s="43"/>
-      <c r="D113" s="10"/>
-      <c r="E113" s="11"/>
-      <c r="F113" s="46"/>
-      <c r="G113" s="46"/>
-      <c r="H113" s="12"/>
+      <c r="A113" s="37"/>
+      <c r="B113" s="40"/>
+      <c r="C113" s="42"/>
+      <c r="D113" s="4"/>
+      <c r="E113" s="3"/>
+      <c r="F113" s="44"/>
+      <c r="G113" s="44"/>
+      <c r="H113" s="14"/>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A114" s="37"/>
-      <c r="B114" s="40"/>
-      <c r="C114" s="42"/>
-      <c r="D114" s="4"/>
-      <c r="E114" s="3"/>
-      <c r="F114" s="44"/>
-      <c r="G114" s="44"/>
-      <c r="H114" s="14"/>
+      <c r="A114" s="36"/>
+      <c r="B114" s="39"/>
+      <c r="C114" s="41"/>
+      <c r="D114" s="8"/>
+      <c r="E114" s="7"/>
+      <c r="F114" s="45"/>
+      <c r="G114" s="45"/>
+      <c r="H114" s="13"/>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A115" s="36"/>
-      <c r="B115" s="39"/>
-      <c r="C115" s="41"/>
-      <c r="D115" s="8"/>
-      <c r="E115" s="7"/>
-      <c r="F115" s="45"/>
-      <c r="G115" s="45"/>
-      <c r="H115" s="13"/>
+      <c r="A115" s="35"/>
+      <c r="B115" s="38"/>
+      <c r="C115" s="43"/>
+      <c r="D115" s="10"/>
+      <c r="E115" s="11"/>
+      <c r="F115" s="46"/>
+      <c r="G115" s="46"/>
+      <c r="H115" s="12"/>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A116" s="35"/>
-      <c r="B116" s="38"/>
-      <c r="C116" s="43"/>
-      <c r="D116" s="10"/>
-      <c r="E116" s="11"/>
-      <c r="F116" s="46"/>
-      <c r="G116" s="46"/>
-      <c r="H116" s="12"/>
+      <c r="A116" s="36"/>
+      <c r="B116" s="39"/>
+      <c r="C116" s="41"/>
+      <c r="D116" s="8"/>
+      <c r="E116" s="7"/>
+      <c r="F116" s="45"/>
+      <c r="G116" s="45"/>
+      <c r="H116" s="13"/>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A117" s="36"/>
-      <c r="B117" s="39"/>
-      <c r="C117" s="41"/>
-      <c r="D117" s="8"/>
-      <c r="E117" s="7"/>
-      <c r="F117" s="45"/>
-      <c r="G117" s="45"/>
-      <c r="H117" s="13"/>
+      <c r="A117" s="35"/>
+      <c r="B117" s="38"/>
+      <c r="C117" s="43"/>
+      <c r="D117" s="10"/>
+      <c r="E117" s="11"/>
+      <c r="F117" s="46"/>
+      <c r="G117" s="46"/>
+      <c r="H117" s="12"/>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A118" s="35"/>
-      <c r="B118" s="38"/>
-      <c r="C118" s="43"/>
-      <c r="D118" s="10"/>
-      <c r="E118" s="11"/>
-      <c r="F118" s="46"/>
-      <c r="G118" s="46"/>
-      <c r="H118" s="12"/>
+      <c r="A118" s="37"/>
+      <c r="B118" s="40"/>
+      <c r="C118" s="42"/>
+      <c r="D118" s="4"/>
+      <c r="E118" s="3"/>
+      <c r="F118" s="44"/>
+      <c r="G118" s="44"/>
+      <c r="H118" s="14"/>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A119" s="37"/>
-      <c r="B119" s="40"/>
-      <c r="C119" s="42"/>
-      <c r="D119" s="4"/>
-      <c r="E119" s="3"/>
-      <c r="F119" s="44"/>
-      <c r="G119" s="44"/>
-      <c r="H119" s="14"/>
+      <c r="A119" s="36"/>
+      <c r="B119" s="39"/>
+      <c r="C119" s="41"/>
+      <c r="D119" s="8"/>
+      <c r="E119" s="7"/>
+      <c r="F119" s="45"/>
+      <c r="G119" s="45"/>
+      <c r="H119" s="13"/>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A120" s="36"/>
-      <c r="B120" s="39"/>
-      <c r="C120" s="41"/>
-      <c r="D120" s="8"/>
-      <c r="E120" s="7"/>
-      <c r="F120" s="45"/>
-      <c r="G120" s="45"/>
-      <c r="H120" s="13"/>
+      <c r="A120" s="35"/>
+      <c r="B120" s="38"/>
+      <c r="C120" s="43"/>
+      <c r="D120" s="10"/>
+      <c r="E120" s="11"/>
+      <c r="F120" s="46"/>
+      <c r="G120" s="46"/>
+      <c r="H120" s="12"/>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A121" s="35"/>
-      <c r="B121" s="38"/>
-      <c r="C121" s="43"/>
-      <c r="D121" s="10"/>
-      <c r="E121" s="11"/>
-      <c r="F121" s="46"/>
-      <c r="G121" s="46"/>
-      <c r="H121" s="12"/>
+      <c r="A121" s="37"/>
+      <c r="B121" s="40"/>
+      <c r="C121" s="42"/>
+      <c r="D121" s="4"/>
+      <c r="E121" s="3"/>
+      <c r="F121" s="44"/>
+      <c r="G121" s="44"/>
+      <c r="H121" s="14"/>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A122" s="37"/>
-      <c r="B122" s="40"/>
-      <c r="C122" s="42"/>
-      <c r="D122" s="4"/>
-      <c r="E122" s="3"/>
-      <c r="F122" s="44"/>
-      <c r="G122" s="44"/>
-      <c r="H122" s="14"/>
+      <c r="A122" s="36"/>
+      <c r="B122" s="39"/>
+      <c r="C122" s="41"/>
+      <c r="D122" s="8"/>
+      <c r="E122" s="7"/>
+      <c r="F122" s="45"/>
+      <c r="G122" s="45"/>
+      <c r="H122" s="13"/>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A123" s="36"/>
-      <c r="B123" s="39"/>
-      <c r="C123" s="41"/>
-      <c r="D123" s="8"/>
-      <c r="E123" s="7"/>
-      <c r="F123" s="45"/>
-      <c r="G123" s="45"/>
-      <c r="H123" s="13"/>
+      <c r="A123" s="35"/>
+      <c r="B123" s="38"/>
+      <c r="C123" s="43"/>
+      <c r="D123" s="10"/>
+      <c r="E123" s="11"/>
+      <c r="F123" s="46"/>
+      <c r="G123" s="46"/>
+      <c r="H123" s="12"/>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A124" s="35"/>
-      <c r="B124" s="38"/>
-      <c r="C124" s="43"/>
-      <c r="D124" s="10"/>
-      <c r="E124" s="11"/>
-      <c r="F124" s="46"/>
-      <c r="G124" s="46"/>
-      <c r="H124" s="12"/>
+      <c r="A124" s="37"/>
+      <c r="B124" s="40"/>
+      <c r="C124" s="42"/>
+      <c r="D124" s="4"/>
+      <c r="E124" s="3"/>
+      <c r="F124" s="44"/>
+      <c r="G124" s="44"/>
+      <c r="H124" s="14"/>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A125" s="37"/>
-      <c r="B125" s="40"/>
-      <c r="C125" s="42"/>
-      <c r="D125" s="4"/>
-      <c r="E125" s="3"/>
-      <c r="F125" s="44"/>
-      <c r="G125" s="44"/>
-      <c r="H125" s="14"/>
+      <c r="A125" s="36"/>
+      <c r="B125" s="39"/>
+      <c r="C125" s="41"/>
+      <c r="D125" s="8"/>
+      <c r="E125" s="7"/>
+      <c r="F125" s="45"/>
+      <c r="G125" s="45"/>
+      <c r="H125" s="13"/>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A126" s="36"/>
-      <c r="B126" s="39"/>
-      <c r="C126" s="41"/>
-      <c r="D126" s="8"/>
-      <c r="E126" s="7"/>
-      <c r="F126" s="45"/>
-      <c r="G126" s="45"/>
-      <c r="H126" s="13"/>
+      <c r="A126" s="35"/>
+      <c r="B126" s="38"/>
+      <c r="C126" s="43"/>
+      <c r="D126" s="10"/>
+      <c r="E126" s="11"/>
+      <c r="F126" s="46"/>
+      <c r="G126" s="46"/>
+      <c r="H126" s="12"/>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A127" s="35"/>
-      <c r="B127" s="38"/>
-      <c r="C127" s="43"/>
-      <c r="D127" s="10"/>
-      <c r="E127" s="11"/>
-      <c r="F127" s="46"/>
-      <c r="G127" s="46"/>
-      <c r="H127" s="12"/>
+      <c r="A127" s="37"/>
+      <c r="B127" s="40"/>
+      <c r="C127" s="42"/>
+      <c r="D127" s="4"/>
+      <c r="E127" s="3"/>
+      <c r="F127" s="44"/>
+      <c r="G127" s="44"/>
+      <c r="H127" s="14"/>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A128" s="37"/>
-      <c r="B128" s="40"/>
-      <c r="C128" s="42"/>
-      <c r="D128" s="4"/>
-      <c r="E128" s="3"/>
-      <c r="F128" s="44"/>
-      <c r="G128" s="44"/>
-      <c r="H128" s="14"/>
+      <c r="A128" s="36"/>
+      <c r="B128" s="39"/>
+      <c r="C128" s="41"/>
+      <c r="D128" s="8"/>
+      <c r="E128" s="7"/>
+      <c r="F128" s="45"/>
+      <c r="G128" s="45"/>
+      <c r="H128" s="13"/>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A129" s="36"/>
-      <c r="B129" s="39"/>
-      <c r="C129" s="41"/>
-      <c r="D129" s="8"/>
-      <c r="E129" s="7"/>
-      <c r="F129" s="45"/>
-      <c r="G129" s="45"/>
-      <c r="H129" s="13"/>
+      <c r="A129" s="35"/>
+      <c r="B129" s="38"/>
+      <c r="C129" s="43"/>
+      <c r="D129" s="10"/>
+      <c r="E129" s="11"/>
+      <c r="F129" s="46"/>
+      <c r="G129" s="46"/>
+      <c r="H129" s="12"/>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A130" s="35"/>
-      <c r="B130" s="38"/>
-      <c r="C130" s="43"/>
-      <c r="D130" s="10"/>
-      <c r="E130" s="11"/>
-      <c r="F130" s="46"/>
-      <c r="G130" s="46"/>
-      <c r="H130" s="12"/>
+      <c r="A130" s="37"/>
+      <c r="B130" s="40"/>
+      <c r="C130" s="42"/>
+      <c r="D130" s="4"/>
+      <c r="E130" s="3"/>
+      <c r="F130" s="44"/>
+      <c r="G130" s="44"/>
+      <c r="H130" s="14"/>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A131" s="37"/>
-      <c r="B131" s="40"/>
-      <c r="C131" s="42"/>
-      <c r="D131" s="4"/>
-      <c r="E131" s="3"/>
-      <c r="F131" s="44"/>
-      <c r="G131" s="44"/>
-      <c r="H131" s="14"/>
+      <c r="A131" s="36"/>
+      <c r="B131" s="39"/>
+      <c r="C131" s="41"/>
+      <c r="D131" s="8"/>
+      <c r="E131" s="7"/>
+      <c r="F131" s="45"/>
+      <c r="G131" s="45"/>
+      <c r="H131" s="13"/>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A132" s="36"/>
-      <c r="B132" s="39"/>
-      <c r="C132" s="41"/>
-      <c r="D132" s="8"/>
-      <c r="E132" s="7"/>
-      <c r="F132" s="45"/>
-      <c r="G132" s="45"/>
-      <c r="H132" s="13"/>
+      <c r="A132" s="35"/>
+      <c r="B132" s="38"/>
+      <c r="C132" s="43"/>
+      <c r="D132" s="10"/>
+      <c r="E132" s="11"/>
+      <c r="F132" s="46"/>
+      <c r="G132" s="46"/>
+      <c r="H132" s="12"/>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A133" s="35"/>
-      <c r="B133" s="38"/>
-      <c r="C133" s="43"/>
-      <c r="D133" s="10"/>
-      <c r="E133" s="11"/>
-      <c r="F133" s="46"/>
-      <c r="G133" s="46"/>
-      <c r="H133" s="12"/>
+      <c r="A133" s="37"/>
+      <c r="B133" s="40"/>
+      <c r="C133" s="42"/>
+      <c r="D133" s="4"/>
+      <c r="E133" s="3"/>
+      <c r="F133" s="44"/>
+      <c r="G133" s="44"/>
+      <c r="H133" s="14"/>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="37"/>
@@ -2904,24 +2929,24 @@
       <c r="H134" s="14"/>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A135" s="37"/>
-      <c r="B135" s="40"/>
-      <c r="C135" s="42"/>
-      <c r="D135" s="4"/>
-      <c r="E135" s="3"/>
-      <c r="F135" s="44"/>
-      <c r="G135" s="44"/>
-      <c r="H135" s="14"/>
+      <c r="A135" s="35"/>
+      <c r="B135" s="38"/>
+      <c r="C135" s="43"/>
+      <c r="D135" s="10"/>
+      <c r="E135" s="11"/>
+      <c r="F135" s="46"/>
+      <c r="G135" s="46"/>
+      <c r="H135" s="12"/>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A136" s="35"/>
-      <c r="B136" s="38"/>
-      <c r="C136" s="43"/>
-      <c r="D136" s="10"/>
-      <c r="E136" s="11"/>
-      <c r="F136" s="46"/>
-      <c r="G136" s="46"/>
-      <c r="H136" s="12"/>
+      <c r="A136" s="37"/>
+      <c r="B136" s="40"/>
+      <c r="C136" s="42"/>
+      <c r="D136" s="4"/>
+      <c r="E136" s="3"/>
+      <c r="F136" s="44"/>
+      <c r="G136" s="44"/>
+      <c r="H136" s="14"/>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="37"/>
@@ -2934,86 +2959,85 @@
       <c r="H137" s="14"/>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A138" s="37"/>
-      <c r="B138" s="40"/>
-      <c r="C138" s="42"/>
-      <c r="D138" s="4"/>
-      <c r="E138" s="3"/>
-      <c r="F138" s="44"/>
-      <c r="G138" s="44"/>
-      <c r="H138" s="14"/>
+      <c r="A138" s="35"/>
+      <c r="B138" s="54"/>
+      <c r="C138" s="43"/>
+      <c r="D138" s="57"/>
+      <c r="E138" s="11"/>
+      <c r="F138" s="53"/>
+      <c r="G138" s="46"/>
+      <c r="H138" s="12"/>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A139" s="35"/>
-      <c r="B139" s="54"/>
-      <c r="C139" s="43"/>
-      <c r="D139" s="57"/>
-      <c r="E139" s="11"/>
-      <c r="F139" s="53"/>
-      <c r="G139" s="46"/>
-      <c r="H139" s="12"/>
+      <c r="A139" s="37"/>
+      <c r="B139" s="55"/>
+      <c r="C139" s="42"/>
+      <c r="D139" s="58"/>
+      <c r="E139" s="3"/>
+      <c r="F139" s="44"/>
+      <c r="G139" s="44"/>
+      <c r="H139" s="14"/>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A140" s="37"/>
-      <c r="B140" s="55"/>
-      <c r="C140" s="42"/>
-      <c r="D140" s="58"/>
-      <c r="E140" s="3"/>
-      <c r="F140" s="44"/>
-      <c r="G140" s="44"/>
-      <c r="H140" s="14"/>
+      <c r="A140" s="36"/>
+      <c r="B140" s="56"/>
+      <c r="C140" s="41"/>
+      <c r="D140" s="59"/>
+      <c r="E140" s="7"/>
+      <c r="F140" s="45"/>
+      <c r="G140" s="45"/>
+      <c r="H140" s="13"/>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A141" s="36"/>
-      <c r="B141" s="56"/>
-      <c r="C141" s="41"/>
-      <c r="D141" s="59"/>
-      <c r="E141" s="7"/>
-      <c r="F141" s="45"/>
-      <c r="G141" s="45"/>
-      <c r="H141" s="13"/>
+      <c r="A141" s="35"/>
+      <c r="B141" s="54"/>
+      <c r="C141" s="43"/>
+      <c r="D141" s="57"/>
+      <c r="E141" s="11"/>
+      <c r="F141" s="53"/>
+      <c r="G141" s="44"/>
+      <c r="H141" s="12"/>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A142" s="35"/>
-      <c r="B142" s="54"/>
-      <c r="C142" s="43"/>
-      <c r="D142" s="57"/>
-      <c r="E142" s="11"/>
-      <c r="F142" s="53"/>
-      <c r="G142" s="44"/>
-      <c r="H142" s="12"/>
+      <c r="A142" s="36"/>
+      <c r="B142" s="56"/>
+      <c r="C142" s="41"/>
+      <c r="D142" s="59"/>
+      <c r="E142" s="7"/>
+      <c r="F142" s="45"/>
+      <c r="G142" s="45"/>
+      <c r="H142" s="13"/>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A143" s="36"/>
-      <c r="B143" s="56"/>
-      <c r="C143" s="41"/>
-      <c r="D143" s="59"/>
-      <c r="E143" s="7"/>
-      <c r="F143" s="45"/>
-      <c r="G143" s="45"/>
-      <c r="H143" s="13"/>
+      <c r="A143" s="35"/>
+      <c r="B143" s="54"/>
+      <c r="C143" s="43"/>
+      <c r="D143" s="57"/>
+      <c r="E143" s="11"/>
+      <c r="F143" s="53"/>
+      <c r="G143" s="44"/>
+      <c r="H143" s="12"/>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A144" s="35"/>
-      <c r="B144" s="54"/>
-      <c r="C144" s="43"/>
-      <c r="D144" s="57"/>
-      <c r="E144" s="11"/>
-      <c r="F144" s="53"/>
-      <c r="G144" s="44"/>
-      <c r="H144" s="12"/>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A145" s="36"/>
-      <c r="B145" s="56"/>
-      <c r="C145" s="41"/>
-      <c r="D145" s="59"/>
-      <c r="E145" s="7"/>
-      <c r="F145" s="45"/>
-      <c r="G145" s="45"/>
-      <c r="H145" s="13"/>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A144" s="36"/>
+      <c r="B144" s="56"/>
+      <c r="C144" s="41"/>
+      <c r="D144" s="59"/>
+      <c r="E144" s="7"/>
+      <c r="F144" s="45"/>
+      <c r="G144" s="45"/>
+      <c r="H144" s="13"/>
+    </row>
+    <row r="145" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B145" s="1"/>
+      <c r="C145" s="2"/>
+      <c r="D145" s="4"/>
+      <c r="E145" s="3"/>
+      <c r="F145" s="4"/>
+      <c r="G145" s="4"/>
+      <c r="H145" s="17"/>
+    </row>
+    <row r="146" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B146" s="1"/>
       <c r="C146" s="2"/>
       <c r="D146" s="4"/>
@@ -3022,7 +3046,7 @@
       <c r="G146" s="4"/>
       <c r="H146" s="17"/>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B147" s="1"/>
       <c r="C147" s="2"/>
       <c r="D147" s="4"/>
@@ -3031,7 +3055,7 @@
       <c r="G147" s="4"/>
       <c r="H147" s="17"/>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B148" s="1"/>
       <c r="C148" s="2"/>
       <c r="D148" s="4"/>
@@ -3040,7 +3064,7 @@
       <c r="G148" s="4"/>
       <c r="H148" s="17"/>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B149" s="1"/>
       <c r="C149" s="2"/>
       <c r="D149" s="4"/>
@@ -3049,7 +3073,7 @@
       <c r="G149" s="4"/>
       <c r="H149" s="17"/>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B150" s="1"/>
       <c r="C150" s="2"/>
       <c r="D150" s="4"/>
@@ -3058,7 +3082,7 @@
       <c r="G150" s="4"/>
       <c r="H150" s="17"/>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B151" s="1"/>
       <c r="C151" s="2"/>
       <c r="D151" s="4"/>
@@ -3067,7 +3091,7 @@
       <c r="G151" s="4"/>
       <c r="H151" s="17"/>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B152" s="1"/>
       <c r="C152" s="2"/>
       <c r="D152" s="4"/>
@@ -3076,7 +3100,7 @@
       <c r="G152" s="4"/>
       <c r="H152" s="17"/>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B153" s="1"/>
       <c r="C153" s="2"/>
       <c r="D153" s="4"/>
@@ -3085,7 +3109,7 @@
       <c r="G153" s="4"/>
       <c r="H153" s="17"/>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B154" s="1"/>
       <c r="C154" s="2"/>
       <c r="D154" s="4"/>
@@ -3094,7 +3118,7 @@
       <c r="G154" s="4"/>
       <c r="H154" s="17"/>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B155" s="1"/>
       <c r="C155" s="2"/>
       <c r="D155" s="4"/>
@@ -3103,7 +3127,7 @@
       <c r="G155" s="4"/>
       <c r="H155" s="17"/>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B156" s="1"/>
       <c r="C156" s="2"/>
       <c r="D156" s="4"/>
@@ -3112,7 +3136,7 @@
       <c r="G156" s="4"/>
       <c r="H156" s="17"/>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B157" s="1"/>
       <c r="C157" s="2"/>
       <c r="D157" s="4"/>
@@ -3121,7 +3145,7 @@
       <c r="G157" s="4"/>
       <c r="H157" s="17"/>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B158" s="1"/>
       <c r="C158" s="2"/>
       <c r="D158" s="4"/>
@@ -3130,7 +3154,7 @@
       <c r="G158" s="4"/>
       <c r="H158" s="17"/>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B159" s="1"/>
       <c r="C159" s="2"/>
       <c r="D159" s="4"/>
@@ -3139,7 +3163,7 @@
       <c r="G159" s="4"/>
       <c r="H159" s="17"/>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B160" s="1"/>
       <c r="C160" s="2"/>
       <c r="D160" s="4"/>
@@ -3228,15 +3252,6 @@
       <c r="F169" s="4"/>
       <c r="G169" s="4"/>
       <c r="H169" s="17"/>
-    </row>
-    <row r="170" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B170" s="1"/>
-      <c r="C170" s="2"/>
-      <c r="D170" s="4"/>
-      <c r="E170" s="3"/>
-      <c r="F170" s="4"/>
-      <c r="G170" s="4"/>
-      <c r="H170" s="17"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/TS Jatai Working/TTD Krama PaaraayaNam-Kramam.xlsx
+++ b/TS Jatai Working/TTD Krama PaaraayaNam-Kramam.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="105">
   <si>
     <t>Date</t>
   </si>
@@ -320,6 +320,15 @@
   </si>
   <si>
     <t>2.5.1.1</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=m__6iOMRu-A&amp;t=11s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5.6.2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5.6.3 </t>
   </si>
 </sst>
 </file>
@@ -1014,11 +1023,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L169"/>
+  <dimension ref="A1:L168"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H56" sqref="H56"/>
+      <selection pane="bottomLeft" activeCell="E58" sqref="E58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -2134,279 +2143,295 @@
       <c r="E55" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F55" s="46"/>
-      <c r="G55" s="46"/>
-      <c r="H55" s="12"/>
+      <c r="F55" s="46" t="s">
+        <v>103</v>
+      </c>
+      <c r="G55" s="70" t="s">
+        <v>13</v>
+      </c>
+      <c r="H55" s="12" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="37"/>
-      <c r="B56" s="40"/>
-      <c r="C56" s="42"/>
-      <c r="D56" s="4"/>
-      <c r="E56" s="3"/>
-      <c r="F56" s="44"/>
-      <c r="G56" s="44"/>
-      <c r="H56" s="14"/>
+      <c r="A56" s="36"/>
+      <c r="B56" s="41"/>
+      <c r="C56" s="41"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="27"/>
+      <c r="F56" s="47"/>
+      <c r="G56" s="41"/>
+      <c r="H56" s="13"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="36"/>
-      <c r="B57" s="41"/>
-      <c r="C57" s="41"/>
-      <c r="D57" s="6"/>
-      <c r="E57" s="27"/>
-      <c r="F57" s="47"/>
-      <c r="G57" s="41"/>
-      <c r="H57" s="13"/>
+      <c r="A57" s="35">
+        <v>23</v>
+      </c>
+      <c r="B57" s="38">
+        <v>44468</v>
+      </c>
+      <c r="C57" s="43">
+        <v>2</v>
+      </c>
+      <c r="D57" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E57" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F57" s="46"/>
+      <c r="G57" s="46"/>
+      <c r="H57" s="12"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="35"/>
-      <c r="B58" s="38"/>
-      <c r="C58" s="43"/>
-      <c r="D58" s="10"/>
-      <c r="E58" s="11"/>
-      <c r="F58" s="46"/>
-      <c r="G58" s="46"/>
-      <c r="H58" s="12"/>
+      <c r="A58" s="36"/>
+      <c r="B58" s="41"/>
+      <c r="C58" s="41"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="27"/>
+      <c r="F58" s="47"/>
+      <c r="G58" s="41"/>
+      <c r="H58" s="13"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="36"/>
-      <c r="B59" s="41"/>
-      <c r="C59" s="41"/>
-      <c r="D59" s="6"/>
-      <c r="E59" s="27"/>
-      <c r="F59" s="47"/>
-      <c r="G59" s="41"/>
-      <c r="H59" s="13"/>
+      <c r="A59" s="35"/>
+      <c r="B59" s="38"/>
+      <c r="C59" s="43"/>
+      <c r="D59" s="10"/>
+      <c r="E59" s="11"/>
+      <c r="F59" s="46"/>
+      <c r="G59" s="46"/>
+      <c r="H59" s="12"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="35"/>
-      <c r="B60" s="38"/>
-      <c r="C60" s="43"/>
-      <c r="D60" s="10"/>
-      <c r="E60" s="11"/>
-      <c r="F60" s="46"/>
-      <c r="G60" s="46"/>
-      <c r="H60" s="12"/>
+      <c r="A60" s="37"/>
+      <c r="B60" s="40"/>
+      <c r="C60" s="42"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="44"/>
+      <c r="G60" s="44"/>
+      <c r="H60" s="14"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="37"/>
-      <c r="B61" s="40"/>
-      <c r="C61" s="42"/>
-      <c r="D61" s="4"/>
-      <c r="E61" s="3"/>
-      <c r="F61" s="44"/>
-      <c r="G61" s="44"/>
-      <c r="H61" s="14"/>
+      <c r="A61" s="36"/>
+      <c r="B61" s="41"/>
+      <c r="C61" s="41"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="27"/>
+      <c r="F61" s="47"/>
+      <c r="G61" s="41"/>
+      <c r="H61" s="13"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="36"/>
-      <c r="B62" s="41"/>
-      <c r="C62" s="41"/>
-      <c r="D62" s="6"/>
-      <c r="E62" s="27"/>
-      <c r="F62" s="47"/>
-      <c r="G62" s="41"/>
-      <c r="H62" s="13"/>
+      <c r="A62" s="35"/>
+      <c r="B62" s="38"/>
+      <c r="C62" s="43"/>
+      <c r="D62" s="10"/>
+      <c r="E62" s="11"/>
+      <c r="F62" s="46"/>
+      <c r="G62" s="46"/>
+      <c r="H62" s="12"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="35"/>
-      <c r="B63" s="38"/>
-      <c r="C63" s="43"/>
-      <c r="D63" s="10"/>
-      <c r="E63" s="11"/>
-      <c r="F63" s="46"/>
-      <c r="G63" s="46"/>
-      <c r="H63" s="12"/>
+      <c r="A63" s="37"/>
+      <c r="B63" s="40"/>
+      <c r="C63" s="42"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="44"/>
+      <c r="G63" s="44"/>
+      <c r="H63" s="14"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="37"/>
-      <c r="B64" s="40"/>
-      <c r="C64" s="42"/>
-      <c r="D64" s="4"/>
-      <c r="E64" s="3"/>
-      <c r="F64" s="44"/>
-      <c r="G64" s="44"/>
-      <c r="H64" s="14"/>
+      <c r="A64" s="36"/>
+      <c r="B64" s="41"/>
+      <c r="C64" s="41"/>
+      <c r="D64" s="6"/>
+      <c r="E64" s="27"/>
+      <c r="F64" s="47"/>
+      <c r="G64" s="41"/>
+      <c r="H64" s="13"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="36"/>
-      <c r="B65" s="41"/>
-      <c r="C65" s="41"/>
-      <c r="D65" s="6"/>
-      <c r="E65" s="27"/>
-      <c r="F65" s="47"/>
-      <c r="G65" s="41"/>
-      <c r="H65" s="13"/>
+      <c r="A65" s="35"/>
+      <c r="B65" s="38"/>
+      <c r="C65" s="43"/>
+      <c r="D65" s="10"/>
+      <c r="E65" s="11"/>
+      <c r="F65" s="46"/>
+      <c r="G65" s="46"/>
+      <c r="H65" s="12"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="35"/>
-      <c r="B66" s="38"/>
-      <c r="C66" s="43"/>
-      <c r="D66" s="10"/>
-      <c r="E66" s="11"/>
-      <c r="F66" s="46"/>
-      <c r="G66" s="46"/>
-      <c r="H66" s="12"/>
+      <c r="A66" s="37"/>
+      <c r="B66" s="40"/>
+      <c r="C66" s="42"/>
+      <c r="D66" s="4"/>
+      <c r="E66" s="3"/>
+      <c r="F66" s="44"/>
+      <c r="G66" s="44"/>
+      <c r="H66" s="14"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="37"/>
-      <c r="B67" s="40"/>
-      <c r="C67" s="42"/>
-      <c r="D67" s="4"/>
-      <c r="E67" s="3"/>
-      <c r="F67" s="44"/>
-      <c r="G67" s="44"/>
-      <c r="H67" s="14"/>
+      <c r="A67" s="36"/>
+      <c r="B67" s="41"/>
+      <c r="C67" s="41"/>
+      <c r="D67" s="6"/>
+      <c r="E67" s="27"/>
+      <c r="F67" s="47"/>
+      <c r="G67" s="41"/>
+      <c r="H67" s="13"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="36"/>
-      <c r="B68" s="41"/>
-      <c r="C68" s="41"/>
-      <c r="D68" s="6"/>
-      <c r="E68" s="27"/>
-      <c r="F68" s="47"/>
-      <c r="G68" s="41"/>
-      <c r="H68" s="13"/>
+      <c r="A68" s="35"/>
+      <c r="B68" s="38"/>
+      <c r="C68" s="43"/>
+      <c r="D68" s="10"/>
+      <c r="E68" s="11"/>
+      <c r="F68" s="46"/>
+      <c r="G68" s="46"/>
+      <c r="H68" s="12"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="35"/>
-      <c r="B69" s="38"/>
-      <c r="C69" s="43"/>
-      <c r="D69" s="10"/>
-      <c r="E69" s="11"/>
-      <c r="F69" s="46"/>
-      <c r="G69" s="46"/>
-      <c r="H69" s="12"/>
+      <c r="A69" s="36"/>
+      <c r="B69" s="41"/>
+      <c r="C69" s="41"/>
+      <c r="D69" s="6"/>
+      <c r="E69" s="27"/>
+      <c r="F69" s="47"/>
+      <c r="G69" s="41"/>
+      <c r="H69" s="13"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="36"/>
-      <c r="B70" s="41"/>
-      <c r="C70" s="41"/>
-      <c r="D70" s="6"/>
-      <c r="E70" s="27"/>
-      <c r="F70" s="47"/>
-      <c r="G70" s="41"/>
-      <c r="H70" s="13"/>
+      <c r="A70" s="35"/>
+      <c r="B70" s="38"/>
+      <c r="C70" s="43"/>
+      <c r="D70" s="10"/>
+      <c r="E70" s="11"/>
+      <c r="F70" s="46"/>
+      <c r="G70" s="46"/>
+      <c r="H70" s="12"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="35"/>
-      <c r="B71" s="38"/>
-      <c r="C71" s="43"/>
-      <c r="D71" s="10"/>
-      <c r="E71" s="11"/>
-      <c r="F71" s="46"/>
-      <c r="G71" s="46"/>
-      <c r="H71" s="12"/>
+      <c r="A71" s="37"/>
+      <c r="B71" s="40"/>
+      <c r="C71" s="42"/>
+      <c r="D71" s="4"/>
+      <c r="E71" s="3"/>
+      <c r="F71" s="44"/>
+      <c r="G71" s="44"/>
+      <c r="H71" s="14"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="37"/>
-      <c r="B72" s="40"/>
-      <c r="C72" s="42"/>
-      <c r="D72" s="4"/>
-      <c r="E72" s="3"/>
-      <c r="F72" s="44"/>
-      <c r="G72" s="44"/>
-      <c r="H72" s="14"/>
+      <c r="A72" s="36"/>
+      <c r="B72" s="41"/>
+      <c r="C72" s="41"/>
+      <c r="D72" s="6"/>
+      <c r="E72" s="27"/>
+      <c r="F72" s="47"/>
+      <c r="G72" s="41"/>
+      <c r="H72" s="13"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="36"/>
-      <c r="B73" s="41"/>
-      <c r="C73" s="41"/>
-      <c r="D73" s="6"/>
-      <c r="E73" s="27"/>
-      <c r="F73" s="47"/>
-      <c r="G73" s="41"/>
-      <c r="H73" s="13"/>
+      <c r="A73" s="35"/>
+      <c r="B73" s="38"/>
+      <c r="C73" s="43"/>
+      <c r="D73" s="10"/>
+      <c r="E73" s="11"/>
+      <c r="F73" s="46"/>
+      <c r="G73" s="46"/>
+      <c r="H73" s="12"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="35"/>
-      <c r="B74" s="38"/>
-      <c r="C74" s="43"/>
-      <c r="D74" s="10"/>
-      <c r="E74" s="11"/>
-      <c r="F74" s="46"/>
-      <c r="G74" s="46"/>
-      <c r="H74" s="12"/>
+      <c r="A74" s="37"/>
+      <c r="B74" s="40"/>
+      <c r="C74" s="42"/>
+      <c r="D74" s="4"/>
+      <c r="E74" s="3"/>
+      <c r="F74" s="44"/>
+      <c r="G74" s="44"/>
+      <c r="H74" s="14"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="37"/>
-      <c r="B75" s="40"/>
-      <c r="C75" s="42"/>
-      <c r="D75" s="4"/>
-      <c r="E75" s="3"/>
-      <c r="F75" s="44"/>
-      <c r="G75" s="44"/>
-      <c r="H75" s="14"/>
+      <c r="A75" s="36"/>
+      <c r="B75" s="41"/>
+      <c r="C75" s="41"/>
+      <c r="D75" s="6"/>
+      <c r="E75" s="27"/>
+      <c r="F75" s="47"/>
+      <c r="G75" s="41"/>
+      <c r="H75" s="13"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" s="36"/>
-      <c r="B76" s="41"/>
-      <c r="C76" s="41"/>
-      <c r="D76" s="6"/>
-      <c r="E76" s="27"/>
-      <c r="F76" s="47"/>
-      <c r="G76" s="41"/>
-      <c r="H76" s="13"/>
+      <c r="A76" s="35"/>
+      <c r="B76" s="38"/>
+      <c r="C76" s="43"/>
+      <c r="D76" s="10"/>
+      <c r="E76" s="11"/>
+      <c r="F76" s="46"/>
+      <c r="G76" s="46"/>
+      <c r="H76" s="12"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77" s="35"/>
-      <c r="B77" s="38"/>
-      <c r="C77" s="43"/>
-      <c r="D77" s="10"/>
-      <c r="E77" s="11"/>
-      <c r="F77" s="46"/>
-      <c r="G77" s="46"/>
-      <c r="H77" s="12"/>
+      <c r="A77" s="37"/>
+      <c r="B77" s="40"/>
+      <c r="C77" s="42"/>
+      <c r="D77" s="4"/>
+      <c r="E77" s="3"/>
+      <c r="F77" s="44"/>
+      <c r="G77" s="44"/>
+      <c r="H77" s="14"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" s="37"/>
-      <c r="B78" s="40"/>
-      <c r="C78" s="42"/>
-      <c r="D78" s="4"/>
-      <c r="E78" s="3"/>
-      <c r="F78" s="44"/>
-      <c r="G78" s="44"/>
-      <c r="H78" s="14"/>
+      <c r="A78" s="36"/>
+      <c r="B78" s="41"/>
+      <c r="C78" s="41"/>
+      <c r="D78" s="6"/>
+      <c r="E78" s="27"/>
+      <c r="F78" s="47"/>
+      <c r="G78" s="41"/>
+      <c r="H78" s="13"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" s="36"/>
-      <c r="B79" s="41"/>
-      <c r="C79" s="41"/>
-      <c r="D79" s="6"/>
-      <c r="E79" s="27"/>
-      <c r="F79" s="47"/>
-      <c r="G79" s="41"/>
-      <c r="H79" s="13"/>
+      <c r="A79" s="35"/>
+      <c r="B79" s="38"/>
+      <c r="C79" s="43"/>
+      <c r="D79" s="10"/>
+      <c r="E79" s="11"/>
+      <c r="F79" s="46"/>
+      <c r="G79" s="46"/>
+      <c r="H79" s="12"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80" s="35"/>
-      <c r="B80" s="38"/>
-      <c r="C80" s="43"/>
-      <c r="D80" s="10"/>
-      <c r="E80" s="11"/>
-      <c r="F80" s="46"/>
-      <c r="G80" s="46"/>
-      <c r="H80" s="12"/>
+      <c r="A80" s="36"/>
+      <c r="B80" s="41"/>
+      <c r="C80" s="41"/>
+      <c r="D80" s="6"/>
+      <c r="E80" s="27"/>
+      <c r="F80" s="47"/>
+      <c r="G80" s="41"/>
+      <c r="H80" s="13"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81" s="36"/>
-      <c r="B81" s="41"/>
-      <c r="C81" s="41"/>
-      <c r="D81" s="6"/>
-      <c r="E81" s="27"/>
-      <c r="F81" s="47"/>
-      <c r="G81" s="41"/>
-      <c r="H81" s="13"/>
+      <c r="A81" s="35"/>
+      <c r="B81" s="38"/>
+      <c r="C81" s="43"/>
+      <c r="D81" s="10"/>
+      <c r="E81" s="11"/>
+      <c r="F81" s="46"/>
+      <c r="G81" s="46"/>
+      <c r="H81" s="12"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" s="35"/>
-      <c r="B82" s="38"/>
-      <c r="C82" s="43"/>
-      <c r="D82" s="10"/>
-      <c r="E82" s="11"/>
-      <c r="F82" s="46"/>
-      <c r="G82" s="46"/>
-      <c r="H82" s="12"/>
+      <c r="A82" s="37"/>
+      <c r="B82" s="40"/>
+      <c r="C82" s="42"/>
+      <c r="D82" s="4"/>
+      <c r="E82" s="3"/>
+      <c r="F82" s="44"/>
+      <c r="G82" s="44"/>
+      <c r="H82" s="14"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="37"/>
@@ -2419,144 +2444,144 @@
       <c r="H83" s="14"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84" s="37"/>
-      <c r="B84" s="40"/>
-      <c r="C84" s="42"/>
-      <c r="D84" s="4"/>
-      <c r="E84" s="3"/>
-      <c r="F84" s="44"/>
-      <c r="G84" s="44"/>
-      <c r="H84" s="14"/>
+      <c r="A84" s="36"/>
+      <c r="B84" s="41"/>
+      <c r="C84" s="41"/>
+      <c r="D84" s="6"/>
+      <c r="E84" s="27"/>
+      <c r="F84" s="47"/>
+      <c r="G84" s="41"/>
+      <c r="H84" s="13"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85" s="36"/>
-      <c r="B85" s="41"/>
-      <c r="C85" s="41"/>
-      <c r="D85" s="6"/>
-      <c r="E85" s="27"/>
-      <c r="F85" s="47"/>
-      <c r="G85" s="41"/>
-      <c r="H85" s="13"/>
+      <c r="A85" s="35"/>
+      <c r="B85" s="38"/>
+      <c r="C85" s="43"/>
+      <c r="D85" s="10"/>
+      <c r="E85" s="11"/>
+      <c r="F85" s="46"/>
+      <c r="G85" s="46"/>
+      <c r="H85" s="12"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86" s="35"/>
-      <c r="B86" s="38"/>
-      <c r="C86" s="43"/>
-      <c r="D86" s="10"/>
-      <c r="E86" s="11"/>
-      <c r="F86" s="46"/>
-      <c r="G86" s="46"/>
-      <c r="H86" s="12"/>
+      <c r="A86" s="36"/>
+      <c r="B86" s="41"/>
+      <c r="C86" s="41"/>
+      <c r="D86" s="6"/>
+      <c r="E86" s="27"/>
+      <c r="F86" s="47"/>
+      <c r="G86" s="41"/>
+      <c r="H86" s="13"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A87" s="36"/>
-      <c r="B87" s="41"/>
-      <c r="C87" s="41"/>
-      <c r="D87" s="6"/>
-      <c r="E87" s="27"/>
-      <c r="F87" s="47"/>
-      <c r="G87" s="41"/>
-      <c r="H87" s="13"/>
+      <c r="A87" s="35"/>
+      <c r="B87" s="38"/>
+      <c r="C87" s="43"/>
+      <c r="D87" s="10"/>
+      <c r="E87" s="11"/>
+      <c r="F87" s="46"/>
+      <c r="G87" s="46"/>
+      <c r="H87" s="12"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88" s="35"/>
-      <c r="B88" s="38"/>
-      <c r="C88" s="43"/>
-      <c r="D88" s="10"/>
-      <c r="E88" s="11"/>
-      <c r="F88" s="46"/>
-      <c r="G88" s="46"/>
-      <c r="H88" s="12"/>
+      <c r="A88" s="37"/>
+      <c r="B88" s="40"/>
+      <c r="C88" s="42"/>
+      <c r="D88" s="4"/>
+      <c r="E88" s="3"/>
+      <c r="F88" s="44"/>
+      <c r="G88" s="44"/>
+      <c r="H88" s="14"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A89" s="37"/>
-      <c r="B89" s="40"/>
-      <c r="C89" s="42"/>
-      <c r="D89" s="4"/>
-      <c r="E89" s="3"/>
-      <c r="F89" s="44"/>
-      <c r="G89" s="44"/>
-      <c r="H89" s="14"/>
+      <c r="A89" s="36"/>
+      <c r="B89" s="41"/>
+      <c r="C89" s="41"/>
+      <c r="D89" s="6"/>
+      <c r="E89" s="27"/>
+      <c r="F89" s="47"/>
+      <c r="G89" s="41"/>
+      <c r="H89" s="13"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90" s="36"/>
-      <c r="B90" s="41"/>
-      <c r="C90" s="41"/>
-      <c r="D90" s="6"/>
-      <c r="E90" s="27"/>
-      <c r="F90" s="47"/>
-      <c r="G90" s="41"/>
-      <c r="H90" s="13"/>
+      <c r="A90" s="35"/>
+      <c r="B90" s="38"/>
+      <c r="C90" s="43"/>
+      <c r="D90" s="10"/>
+      <c r="E90" s="11"/>
+      <c r="F90" s="46"/>
+      <c r="G90" s="46"/>
+      <c r="H90" s="12"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91" s="35"/>
-      <c r="B91" s="38"/>
-      <c r="C91" s="43"/>
-      <c r="D91" s="10"/>
-      <c r="E91" s="11"/>
-      <c r="F91" s="46"/>
-      <c r="G91" s="46"/>
-      <c r="H91" s="12"/>
+      <c r="A91" s="36"/>
+      <c r="B91" s="41"/>
+      <c r="C91" s="41"/>
+      <c r="D91" s="6"/>
+      <c r="E91" s="27"/>
+      <c r="F91" s="47"/>
+      <c r="G91" s="41"/>
+      <c r="H91" s="13"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A92" s="36"/>
-      <c r="B92" s="41"/>
-      <c r="C92" s="41"/>
-      <c r="D92" s="6"/>
-      <c r="E92" s="27"/>
-      <c r="F92" s="47"/>
-      <c r="G92" s="41"/>
-      <c r="H92" s="13"/>
+      <c r="A92" s="35"/>
+      <c r="B92" s="38"/>
+      <c r="C92" s="43"/>
+      <c r="D92" s="10"/>
+      <c r="E92" s="11"/>
+      <c r="F92" s="46"/>
+      <c r="G92" s="46"/>
+      <c r="H92" s="12"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93" s="35"/>
-      <c r="B93" s="38"/>
-      <c r="C93" s="43"/>
-      <c r="D93" s="10"/>
-      <c r="E93" s="11"/>
-      <c r="F93" s="46"/>
-      <c r="G93" s="46"/>
-      <c r="H93" s="12"/>
+      <c r="A93" s="37"/>
+      <c r="B93" s="40"/>
+      <c r="C93" s="42"/>
+      <c r="D93" s="4"/>
+      <c r="E93" s="3"/>
+      <c r="F93" s="44"/>
+      <c r="G93" s="44"/>
+      <c r="H93" s="14"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A94" s="37"/>
-      <c r="B94" s="40"/>
-      <c r="C94" s="42"/>
-      <c r="D94" s="4"/>
-      <c r="E94" s="3"/>
-      <c r="F94" s="44"/>
-      <c r="G94" s="44"/>
-      <c r="H94" s="14"/>
+      <c r="A94" s="36"/>
+      <c r="B94" s="41"/>
+      <c r="C94" s="41"/>
+      <c r="D94" s="6"/>
+      <c r="E94" s="27"/>
+      <c r="F94" s="47"/>
+      <c r="G94" s="41"/>
+      <c r="H94" s="13"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A95" s="36"/>
-      <c r="B95" s="41"/>
-      <c r="C95" s="41"/>
-      <c r="D95" s="6"/>
-      <c r="E95" s="27"/>
-      <c r="F95" s="47"/>
-      <c r="G95" s="41"/>
-      <c r="H95" s="13"/>
+      <c r="A95" s="35"/>
+      <c r="B95" s="38"/>
+      <c r="C95" s="43"/>
+      <c r="D95" s="10"/>
+      <c r="E95" s="11"/>
+      <c r="F95" s="46"/>
+      <c r="G95" s="46"/>
+      <c r="H95" s="12"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A96" s="35"/>
-      <c r="B96" s="38"/>
-      <c r="C96" s="43"/>
-      <c r="D96" s="10"/>
-      <c r="E96" s="11"/>
-      <c r="F96" s="46"/>
-      <c r="G96" s="46"/>
-      <c r="H96" s="12"/>
+      <c r="A96" s="36"/>
+      <c r="B96" s="41"/>
+      <c r="C96" s="41"/>
+      <c r="D96" s="6"/>
+      <c r="E96" s="27"/>
+      <c r="F96" s="47"/>
+      <c r="G96" s="41"/>
+      <c r="H96" s="13"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A97" s="36"/>
-      <c r="B97" s="41"/>
-      <c r="C97" s="41"/>
-      <c r="D97" s="6"/>
-      <c r="E97" s="27"/>
-      <c r="F97" s="47"/>
-      <c r="G97" s="41"/>
-      <c r="H97" s="13"/>
+      <c r="A97" s="37"/>
+      <c r="B97" s="40"/>
+      <c r="C97" s="42"/>
+      <c r="D97" s="4"/>
+      <c r="E97" s="3"/>
+      <c r="F97" s="44"/>
+      <c r="G97" s="44"/>
+      <c r="H97" s="17"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="37"/>
@@ -2570,343 +2595,343 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="37"/>
-      <c r="B99" s="40"/>
+      <c r="B99" s="42"/>
       <c r="C99" s="42"/>
-      <c r="D99" s="4"/>
-      <c r="E99" s="3"/>
-      <c r="F99" s="44"/>
-      <c r="G99" s="44"/>
+      <c r="D99" s="2"/>
+      <c r="E99" s="19"/>
+      <c r="F99" s="48"/>
+      <c r="G99" s="42"/>
       <c r="H99" s="17"/>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A100" s="37"/>
-      <c r="B100" s="42"/>
-      <c r="C100" s="42"/>
-      <c r="D100" s="2"/>
-      <c r="E100" s="19"/>
-      <c r="F100" s="48"/>
-      <c r="G100" s="42"/>
-      <c r="H100" s="17"/>
+      <c r="A100" s="35"/>
+      <c r="B100" s="38"/>
+      <c r="C100" s="43"/>
+      <c r="D100" s="10"/>
+      <c r="E100" s="11"/>
+      <c r="F100" s="46"/>
+      <c r="G100" s="46"/>
+      <c r="H100" s="12"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A101" s="35"/>
-      <c r="B101" s="38"/>
-      <c r="C101" s="43"/>
-      <c r="D101" s="10"/>
-      <c r="E101" s="11"/>
-      <c r="F101" s="46"/>
-      <c r="G101" s="46"/>
-      <c r="H101" s="12"/>
+      <c r="A101" s="37"/>
+      <c r="B101" s="40"/>
+      <c r="C101" s="42"/>
+      <c r="D101" s="4"/>
+      <c r="E101" s="3"/>
+      <c r="F101" s="44"/>
+      <c r="G101" s="44"/>
+      <c r="H101" s="14"/>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A102" s="37"/>
-      <c r="B102" s="40"/>
-      <c r="C102" s="42"/>
-      <c r="D102" s="4"/>
-      <c r="E102" s="3"/>
-      <c r="F102" s="44"/>
-      <c r="G102" s="44"/>
-      <c r="H102" s="14"/>
+      <c r="A102" s="36"/>
+      <c r="B102" s="39"/>
+      <c r="C102" s="41"/>
+      <c r="D102" s="8"/>
+      <c r="E102" s="7"/>
+      <c r="F102" s="45"/>
+      <c r="G102" s="45"/>
+      <c r="H102" s="13"/>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A103" s="36"/>
-      <c r="B103" s="39"/>
-      <c r="C103" s="41"/>
-      <c r="D103" s="8"/>
-      <c r="E103" s="7"/>
-      <c r="F103" s="45"/>
-      <c r="G103" s="45"/>
-      <c r="H103" s="13"/>
+      <c r="A103" s="35"/>
+      <c r="B103" s="38"/>
+      <c r="C103" s="43"/>
+      <c r="D103" s="10"/>
+      <c r="E103" s="11"/>
+      <c r="F103" s="46"/>
+      <c r="G103" s="46"/>
+      <c r="H103" s="12"/>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A104" s="35"/>
-      <c r="B104" s="38"/>
-      <c r="C104" s="43"/>
-      <c r="D104" s="10"/>
-      <c r="E104" s="11"/>
-      <c r="F104" s="46"/>
-      <c r="G104" s="46"/>
-      <c r="H104" s="12"/>
+      <c r="A104" s="36"/>
+      <c r="B104" s="39"/>
+      <c r="C104" s="41"/>
+      <c r="D104" s="8"/>
+      <c r="E104" s="7"/>
+      <c r="F104" s="45"/>
+      <c r="G104" s="45"/>
+      <c r="H104" s="13"/>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A105" s="36"/>
-      <c r="B105" s="39"/>
-      <c r="C105" s="41"/>
-      <c r="D105" s="8"/>
-      <c r="E105" s="7"/>
-      <c r="F105" s="45"/>
-      <c r="G105" s="45"/>
-      <c r="H105" s="13"/>
+      <c r="A105" s="35"/>
+      <c r="B105" s="38"/>
+      <c r="C105" s="43"/>
+      <c r="D105" s="10"/>
+      <c r="E105" s="11"/>
+      <c r="F105" s="46"/>
+      <c r="G105" s="46"/>
+      <c r="H105" s="12"/>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A106" s="35"/>
-      <c r="B106" s="38"/>
-      <c r="C106" s="43"/>
-      <c r="D106" s="10"/>
-      <c r="E106" s="11"/>
-      <c r="F106" s="46"/>
-      <c r="G106" s="46"/>
-      <c r="H106" s="12"/>
+      <c r="A106" s="37"/>
+      <c r="B106" s="40"/>
+      <c r="C106" s="42"/>
+      <c r="D106" s="4"/>
+      <c r="E106" s="3"/>
+      <c r="F106" s="44"/>
+      <c r="G106" s="44"/>
+      <c r="H106" s="14"/>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A107" s="37"/>
-      <c r="B107" s="40"/>
-      <c r="C107" s="42"/>
-      <c r="D107" s="4"/>
-      <c r="E107" s="3"/>
-      <c r="F107" s="44"/>
-      <c r="G107" s="44"/>
-      <c r="H107" s="14"/>
+      <c r="A107" s="36"/>
+      <c r="B107" s="39"/>
+      <c r="C107" s="41"/>
+      <c r="D107" s="8"/>
+      <c r="E107" s="7"/>
+      <c r="F107" s="45"/>
+      <c r="G107" s="45"/>
+      <c r="H107" s="13"/>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A108" s="36"/>
-      <c r="B108" s="39"/>
-      <c r="C108" s="41"/>
-      <c r="D108" s="8"/>
-      <c r="E108" s="7"/>
-      <c r="F108" s="45"/>
-      <c r="G108" s="45"/>
-      <c r="H108" s="13"/>
+      <c r="A108" s="35"/>
+      <c r="B108" s="38"/>
+      <c r="C108" s="43"/>
+      <c r="D108" s="10"/>
+      <c r="E108" s="11"/>
+      <c r="F108" s="46"/>
+      <c r="G108" s="46"/>
+      <c r="H108" s="12"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A109" s="35"/>
-      <c r="B109" s="38"/>
-      <c r="C109" s="43"/>
-      <c r="D109" s="10"/>
-      <c r="E109" s="11"/>
-      <c r="F109" s="46"/>
-      <c r="G109" s="46"/>
-      <c r="H109" s="12"/>
+      <c r="A109" s="37"/>
+      <c r="B109" s="40"/>
+      <c r="C109" s="42"/>
+      <c r="D109" s="4"/>
+      <c r="E109" s="3"/>
+      <c r="F109" s="44"/>
+      <c r="G109" s="44"/>
+      <c r="H109" s="14"/>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A110" s="37"/>
-      <c r="B110" s="40"/>
-      <c r="C110" s="42"/>
-      <c r="D110" s="4"/>
-      <c r="E110" s="3"/>
-      <c r="F110" s="44"/>
-      <c r="G110" s="44"/>
-      <c r="H110" s="14"/>
+      <c r="A110" s="36"/>
+      <c r="B110" s="39"/>
+      <c r="C110" s="41"/>
+      <c r="D110" s="8"/>
+      <c r="E110" s="7"/>
+      <c r="F110" s="45"/>
+      <c r="G110" s="45"/>
+      <c r="H110" s="13"/>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A111" s="36"/>
-      <c r="B111" s="39"/>
-      <c r="C111" s="41"/>
-      <c r="D111" s="8"/>
-      <c r="E111" s="7"/>
-      <c r="F111" s="45"/>
-      <c r="G111" s="45"/>
-      <c r="H111" s="13"/>
+      <c r="A111" s="35"/>
+      <c r="B111" s="38"/>
+      <c r="C111" s="43"/>
+      <c r="D111" s="10"/>
+      <c r="E111" s="11"/>
+      <c r="F111" s="46"/>
+      <c r="G111" s="46"/>
+      <c r="H111" s="12"/>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A112" s="35"/>
-      <c r="B112" s="38"/>
-      <c r="C112" s="43"/>
-      <c r="D112" s="10"/>
-      <c r="E112" s="11"/>
-      <c r="F112" s="46"/>
-      <c r="G112" s="46"/>
-      <c r="H112" s="12"/>
+      <c r="A112" s="37"/>
+      <c r="B112" s="40"/>
+      <c r="C112" s="42"/>
+      <c r="D112" s="4"/>
+      <c r="E112" s="3"/>
+      <c r="F112" s="44"/>
+      <c r="G112" s="44"/>
+      <c r="H112" s="14"/>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A113" s="37"/>
-      <c r="B113" s="40"/>
-      <c r="C113" s="42"/>
-      <c r="D113" s="4"/>
-      <c r="E113" s="3"/>
-      <c r="F113" s="44"/>
-      <c r="G113" s="44"/>
-      <c r="H113" s="14"/>
+      <c r="A113" s="36"/>
+      <c r="B113" s="39"/>
+      <c r="C113" s="41"/>
+      <c r="D113" s="8"/>
+      <c r="E113" s="7"/>
+      <c r="F113" s="45"/>
+      <c r="G113" s="45"/>
+      <c r="H113" s="13"/>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A114" s="36"/>
-      <c r="B114" s="39"/>
-      <c r="C114" s="41"/>
-      <c r="D114" s="8"/>
-      <c r="E114" s="7"/>
-      <c r="F114" s="45"/>
-      <c r="G114" s="45"/>
-      <c r="H114" s="13"/>
+      <c r="A114" s="35"/>
+      <c r="B114" s="38"/>
+      <c r="C114" s="43"/>
+      <c r="D114" s="10"/>
+      <c r="E114" s="11"/>
+      <c r="F114" s="46"/>
+      <c r="G114" s="46"/>
+      <c r="H114" s="12"/>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A115" s="35"/>
-      <c r="B115" s="38"/>
-      <c r="C115" s="43"/>
-      <c r="D115" s="10"/>
-      <c r="E115" s="11"/>
-      <c r="F115" s="46"/>
-      <c r="G115" s="46"/>
-      <c r="H115" s="12"/>
+      <c r="A115" s="36"/>
+      <c r="B115" s="39"/>
+      <c r="C115" s="41"/>
+      <c r="D115" s="8"/>
+      <c r="E115" s="7"/>
+      <c r="F115" s="45"/>
+      <c r="G115" s="45"/>
+      <c r="H115" s="13"/>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A116" s="36"/>
-      <c r="B116" s="39"/>
-      <c r="C116" s="41"/>
-      <c r="D116" s="8"/>
-      <c r="E116" s="7"/>
-      <c r="F116" s="45"/>
-      <c r="G116" s="45"/>
-      <c r="H116" s="13"/>
+      <c r="A116" s="35"/>
+      <c r="B116" s="38"/>
+      <c r="C116" s="43"/>
+      <c r="D116" s="10"/>
+      <c r="E116" s="11"/>
+      <c r="F116" s="46"/>
+      <c r="G116" s="46"/>
+      <c r="H116" s="12"/>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A117" s="35"/>
-      <c r="B117" s="38"/>
-      <c r="C117" s="43"/>
-      <c r="D117" s="10"/>
-      <c r="E117" s="11"/>
-      <c r="F117" s="46"/>
-      <c r="G117" s="46"/>
-      <c r="H117" s="12"/>
+      <c r="A117" s="37"/>
+      <c r="B117" s="40"/>
+      <c r="C117" s="42"/>
+      <c r="D117" s="4"/>
+      <c r="E117" s="3"/>
+      <c r="F117" s="44"/>
+      <c r="G117" s="44"/>
+      <c r="H117" s="14"/>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A118" s="37"/>
-      <c r="B118" s="40"/>
-      <c r="C118" s="42"/>
-      <c r="D118" s="4"/>
-      <c r="E118" s="3"/>
-      <c r="F118" s="44"/>
-      <c r="G118" s="44"/>
-      <c r="H118" s="14"/>
+      <c r="A118" s="36"/>
+      <c r="B118" s="39"/>
+      <c r="C118" s="41"/>
+      <c r="D118" s="8"/>
+      <c r="E118" s="7"/>
+      <c r="F118" s="45"/>
+      <c r="G118" s="45"/>
+      <c r="H118" s="13"/>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A119" s="36"/>
-      <c r="B119" s="39"/>
-      <c r="C119" s="41"/>
-      <c r="D119" s="8"/>
-      <c r="E119" s="7"/>
-      <c r="F119" s="45"/>
-      <c r="G119" s="45"/>
-      <c r="H119" s="13"/>
+      <c r="A119" s="35"/>
+      <c r="B119" s="38"/>
+      <c r="C119" s="43"/>
+      <c r="D119" s="10"/>
+      <c r="E119" s="11"/>
+      <c r="F119" s="46"/>
+      <c r="G119" s="46"/>
+      <c r="H119" s="12"/>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A120" s="35"/>
-      <c r="B120" s="38"/>
-      <c r="C120" s="43"/>
-      <c r="D120" s="10"/>
-      <c r="E120" s="11"/>
-      <c r="F120" s="46"/>
-      <c r="G120" s="46"/>
-      <c r="H120" s="12"/>
+      <c r="A120" s="37"/>
+      <c r="B120" s="40"/>
+      <c r="C120" s="42"/>
+      <c r="D120" s="4"/>
+      <c r="E120" s="3"/>
+      <c r="F120" s="44"/>
+      <c r="G120" s="44"/>
+      <c r="H120" s="14"/>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A121" s="37"/>
-      <c r="B121" s="40"/>
-      <c r="C121" s="42"/>
-      <c r="D121" s="4"/>
-      <c r="E121" s="3"/>
-      <c r="F121" s="44"/>
-      <c r="G121" s="44"/>
-      <c r="H121" s="14"/>
+      <c r="A121" s="36"/>
+      <c r="B121" s="39"/>
+      <c r="C121" s="41"/>
+      <c r="D121" s="8"/>
+      <c r="E121" s="7"/>
+      <c r="F121" s="45"/>
+      <c r="G121" s="45"/>
+      <c r="H121" s="13"/>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A122" s="36"/>
-      <c r="B122" s="39"/>
-      <c r="C122" s="41"/>
-      <c r="D122" s="8"/>
-      <c r="E122" s="7"/>
-      <c r="F122" s="45"/>
-      <c r="G122" s="45"/>
-      <c r="H122" s="13"/>
+      <c r="A122" s="35"/>
+      <c r="B122" s="38"/>
+      <c r="C122" s="43"/>
+      <c r="D122" s="10"/>
+      <c r="E122" s="11"/>
+      <c r="F122" s="46"/>
+      <c r="G122" s="46"/>
+      <c r="H122" s="12"/>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A123" s="35"/>
-      <c r="B123" s="38"/>
-      <c r="C123" s="43"/>
-      <c r="D123" s="10"/>
-      <c r="E123" s="11"/>
-      <c r="F123" s="46"/>
-      <c r="G123" s="46"/>
-      <c r="H123" s="12"/>
+      <c r="A123" s="37"/>
+      <c r="B123" s="40"/>
+      <c r="C123" s="42"/>
+      <c r="D123" s="4"/>
+      <c r="E123" s="3"/>
+      <c r="F123" s="44"/>
+      <c r="G123" s="44"/>
+      <c r="H123" s="14"/>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A124" s="37"/>
-      <c r="B124" s="40"/>
-      <c r="C124" s="42"/>
-      <c r="D124" s="4"/>
-      <c r="E124" s="3"/>
-      <c r="F124" s="44"/>
-      <c r="G124" s="44"/>
-      <c r="H124" s="14"/>
+      <c r="A124" s="36"/>
+      <c r="B124" s="39"/>
+      <c r="C124" s="41"/>
+      <c r="D124" s="8"/>
+      <c r="E124" s="7"/>
+      <c r="F124" s="45"/>
+      <c r="G124" s="45"/>
+      <c r="H124" s="13"/>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A125" s="36"/>
-      <c r="B125" s="39"/>
-      <c r="C125" s="41"/>
-      <c r="D125" s="8"/>
-      <c r="E125" s="7"/>
-      <c r="F125" s="45"/>
-      <c r="G125" s="45"/>
-      <c r="H125" s="13"/>
+      <c r="A125" s="35"/>
+      <c r="B125" s="38"/>
+      <c r="C125" s="43"/>
+      <c r="D125" s="10"/>
+      <c r="E125" s="11"/>
+      <c r="F125" s="46"/>
+      <c r="G125" s="46"/>
+      <c r="H125" s="12"/>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A126" s="35"/>
-      <c r="B126" s="38"/>
-      <c r="C126" s="43"/>
-      <c r="D126" s="10"/>
-      <c r="E126" s="11"/>
-      <c r="F126" s="46"/>
-      <c r="G126" s="46"/>
-      <c r="H126" s="12"/>
+      <c r="A126" s="37"/>
+      <c r="B126" s="40"/>
+      <c r="C126" s="42"/>
+      <c r="D126" s="4"/>
+      <c r="E126" s="3"/>
+      <c r="F126" s="44"/>
+      <c r="G126" s="44"/>
+      <c r="H126" s="14"/>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A127" s="37"/>
-      <c r="B127" s="40"/>
-      <c r="C127" s="42"/>
-      <c r="D127" s="4"/>
-      <c r="E127" s="3"/>
-      <c r="F127" s="44"/>
-      <c r="G127" s="44"/>
-      <c r="H127" s="14"/>
+      <c r="A127" s="36"/>
+      <c r="B127" s="39"/>
+      <c r="C127" s="41"/>
+      <c r="D127" s="8"/>
+      <c r="E127" s="7"/>
+      <c r="F127" s="45"/>
+      <c r="G127" s="45"/>
+      <c r="H127" s="13"/>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A128" s="36"/>
-      <c r="B128" s="39"/>
-      <c r="C128" s="41"/>
-      <c r="D128" s="8"/>
-      <c r="E128" s="7"/>
-      <c r="F128" s="45"/>
-      <c r="G128" s="45"/>
-      <c r="H128" s="13"/>
+      <c r="A128" s="35"/>
+      <c r="B128" s="38"/>
+      <c r="C128" s="43"/>
+      <c r="D128" s="10"/>
+      <c r="E128" s="11"/>
+      <c r="F128" s="46"/>
+      <c r="G128" s="46"/>
+      <c r="H128" s="12"/>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A129" s="35"/>
-      <c r="B129" s="38"/>
-      <c r="C129" s="43"/>
-      <c r="D129" s="10"/>
-      <c r="E129" s="11"/>
-      <c r="F129" s="46"/>
-      <c r="G129" s="46"/>
-      <c r="H129" s="12"/>
+      <c r="A129" s="37"/>
+      <c r="B129" s="40"/>
+      <c r="C129" s="42"/>
+      <c r="D129" s="4"/>
+      <c r="E129" s="3"/>
+      <c r="F129" s="44"/>
+      <c r="G129" s="44"/>
+      <c r="H129" s="14"/>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A130" s="37"/>
-      <c r="B130" s="40"/>
-      <c r="C130" s="42"/>
-      <c r="D130" s="4"/>
-      <c r="E130" s="3"/>
-      <c r="F130" s="44"/>
-      <c r="G130" s="44"/>
-      <c r="H130" s="14"/>
+      <c r="A130" s="36"/>
+      <c r="B130" s="39"/>
+      <c r="C130" s="41"/>
+      <c r="D130" s="8"/>
+      <c r="E130" s="7"/>
+      <c r="F130" s="45"/>
+      <c r="G130" s="45"/>
+      <c r="H130" s="13"/>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A131" s="36"/>
-      <c r="B131" s="39"/>
-      <c r="C131" s="41"/>
-      <c r="D131" s="8"/>
-      <c r="E131" s="7"/>
-      <c r="F131" s="45"/>
-      <c r="G131" s="45"/>
-      <c r="H131" s="13"/>
+      <c r="A131" s="35"/>
+      <c r="B131" s="38"/>
+      <c r="C131" s="43"/>
+      <c r="D131" s="10"/>
+      <c r="E131" s="11"/>
+      <c r="F131" s="46"/>
+      <c r="G131" s="46"/>
+      <c r="H131" s="12"/>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A132" s="35"/>
-      <c r="B132" s="38"/>
-      <c r="C132" s="43"/>
-      <c r="D132" s="10"/>
-      <c r="E132" s="11"/>
-      <c r="F132" s="46"/>
-      <c r="G132" s="46"/>
-      <c r="H132" s="12"/>
+      <c r="A132" s="37"/>
+      <c r="B132" s="40"/>
+      <c r="C132" s="42"/>
+      <c r="D132" s="4"/>
+      <c r="E132" s="3"/>
+      <c r="F132" s="44"/>
+      <c r="G132" s="44"/>
+      <c r="H132" s="14"/>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="37"/>
@@ -2919,24 +2944,24 @@
       <c r="H133" s="14"/>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A134" s="37"/>
-      <c r="B134" s="40"/>
-      <c r="C134" s="42"/>
-      <c r="D134" s="4"/>
-      <c r="E134" s="3"/>
-      <c r="F134" s="44"/>
-      <c r="G134" s="44"/>
-      <c r="H134" s="14"/>
+      <c r="A134" s="35"/>
+      <c r="B134" s="38"/>
+      <c r="C134" s="43"/>
+      <c r="D134" s="10"/>
+      <c r="E134" s="11"/>
+      <c r="F134" s="46"/>
+      <c r="G134" s="46"/>
+      <c r="H134" s="12"/>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A135" s="35"/>
-      <c r="B135" s="38"/>
-      <c r="C135" s="43"/>
-      <c r="D135" s="10"/>
-      <c r="E135" s="11"/>
-      <c r="F135" s="46"/>
-      <c r="G135" s="46"/>
-      <c r="H135" s="12"/>
+      <c r="A135" s="37"/>
+      <c r="B135" s="40"/>
+      <c r="C135" s="42"/>
+      <c r="D135" s="4"/>
+      <c r="E135" s="3"/>
+      <c r="F135" s="44"/>
+      <c r="G135" s="44"/>
+      <c r="H135" s="14"/>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" s="37"/>
@@ -2949,84 +2974,83 @@
       <c r="H136" s="14"/>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A137" s="37"/>
-      <c r="B137" s="40"/>
-      <c r="C137" s="42"/>
-      <c r="D137" s="4"/>
-      <c r="E137" s="3"/>
-      <c r="F137" s="44"/>
-      <c r="G137" s="44"/>
-      <c r="H137" s="14"/>
+      <c r="A137" s="35"/>
+      <c r="B137" s="54"/>
+      <c r="C137" s="43"/>
+      <c r="D137" s="57"/>
+      <c r="E137" s="11"/>
+      <c r="F137" s="53"/>
+      <c r="G137" s="46"/>
+      <c r="H137" s="12"/>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A138" s="35"/>
-      <c r="B138" s="54"/>
-      <c r="C138" s="43"/>
-      <c r="D138" s="57"/>
-      <c r="E138" s="11"/>
-      <c r="F138" s="53"/>
-      <c r="G138" s="46"/>
-      <c r="H138" s="12"/>
+      <c r="A138" s="37"/>
+      <c r="B138" s="55"/>
+      <c r="C138" s="42"/>
+      <c r="D138" s="58"/>
+      <c r="E138" s="3"/>
+      <c r="F138" s="44"/>
+      <c r="G138" s="44"/>
+      <c r="H138" s="14"/>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A139" s="37"/>
-      <c r="B139" s="55"/>
-      <c r="C139" s="42"/>
-      <c r="D139" s="58"/>
-      <c r="E139" s="3"/>
-      <c r="F139" s="44"/>
-      <c r="G139" s="44"/>
-      <c r="H139" s="14"/>
+      <c r="A139" s="36"/>
+      <c r="B139" s="56"/>
+      <c r="C139" s="41"/>
+      <c r="D139" s="59"/>
+      <c r="E139" s="7"/>
+      <c r="F139" s="45"/>
+      <c r="G139" s="45"/>
+      <c r="H139" s="13"/>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A140" s="36"/>
-      <c r="B140" s="56"/>
-      <c r="C140" s="41"/>
-      <c r="D140" s="59"/>
-      <c r="E140" s="7"/>
-      <c r="F140" s="45"/>
-      <c r="G140" s="45"/>
-      <c r="H140" s="13"/>
+      <c r="A140" s="35"/>
+      <c r="B140" s="54"/>
+      <c r="C140" s="43"/>
+      <c r="D140" s="57"/>
+      <c r="E140" s="11"/>
+      <c r="F140" s="53"/>
+      <c r="G140" s="44"/>
+      <c r="H140" s="12"/>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A141" s="35"/>
-      <c r="B141" s="54"/>
-      <c r="C141" s="43"/>
-      <c r="D141" s="57"/>
-      <c r="E141" s="11"/>
-      <c r="F141" s="53"/>
-      <c r="G141" s="44"/>
-      <c r="H141" s="12"/>
+      <c r="A141" s="36"/>
+      <c r="B141" s="56"/>
+      <c r="C141" s="41"/>
+      <c r="D141" s="59"/>
+      <c r="E141" s="7"/>
+      <c r="F141" s="45"/>
+      <c r="G141" s="45"/>
+      <c r="H141" s="13"/>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A142" s="36"/>
-      <c r="B142" s="56"/>
-      <c r="C142" s="41"/>
-      <c r="D142" s="59"/>
-      <c r="E142" s="7"/>
-      <c r="F142" s="45"/>
-      <c r="G142" s="45"/>
-      <c r="H142" s="13"/>
+      <c r="A142" s="35"/>
+      <c r="B142" s="54"/>
+      <c r="C142" s="43"/>
+      <c r="D142" s="57"/>
+      <c r="E142" s="11"/>
+      <c r="F142" s="53"/>
+      <c r="G142" s="44"/>
+      <c r="H142" s="12"/>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A143" s="35"/>
-      <c r="B143" s="54"/>
-      <c r="C143" s="43"/>
-      <c r="D143" s="57"/>
-      <c r="E143" s="11"/>
-      <c r="F143" s="53"/>
-      <c r="G143" s="44"/>
-      <c r="H143" s="12"/>
+      <c r="A143" s="36"/>
+      <c r="B143" s="56"/>
+      <c r="C143" s="41"/>
+      <c r="D143" s="59"/>
+      <c r="E143" s="7"/>
+      <c r="F143" s="45"/>
+      <c r="G143" s="45"/>
+      <c r="H143" s="13"/>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A144" s="36"/>
-      <c r="B144" s="56"/>
-      <c r="C144" s="41"/>
-      <c r="D144" s="59"/>
-      <c r="E144" s="7"/>
-      <c r="F144" s="45"/>
-      <c r="G144" s="45"/>
-      <c r="H144" s="13"/>
+      <c r="B144" s="1"/>
+      <c r="C144" s="2"/>
+      <c r="D144" s="4"/>
+      <c r="E144" s="3"/>
+      <c r="F144" s="4"/>
+      <c r="G144" s="4"/>
+      <c r="H144" s="17"/>
     </row>
     <row r="145" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B145" s="1"/>
@@ -3243,15 +3267,6 @@
       <c r="F168" s="4"/>
       <c r="G168" s="4"/>
       <c r="H168" s="17"/>
-    </row>
-    <row r="169" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B169" s="1"/>
-      <c r="C169" s="2"/>
-      <c r="D169" s="4"/>
-      <c r="E169" s="3"/>
-      <c r="F169" s="4"/>
-      <c r="G169" s="4"/>
-      <c r="H169" s="17"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/TS Jatai Working/TTD Krama PaaraayaNam-Kramam.xlsx
+++ b/TS Jatai Working/TTD Krama PaaraayaNam-Kramam.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="112">
   <si>
     <t>Date</t>
   </si>
@@ -329,6 +329,27 @@
   </si>
   <si>
     <t xml:space="preserve">2.5.6.3 </t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=uES9LEy0kjY&amp;t=877s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5.11.9 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5.12.1 </t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=7fJ6n6rEmsU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5.12.5 </t>
+  </si>
+  <si>
+    <t>12 min 28 sec</t>
+  </si>
+  <si>
+    <t>2.6.1.1</t>
   </si>
 </sst>
 </file>
@@ -1026,8 +1047,8 @@
   <dimension ref="A1:L168"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E58" sqref="E58"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A60" sqref="A60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -2179,59 +2200,93 @@
       <c r="E57" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F57" s="46"/>
-      <c r="G57" s="46"/>
-      <c r="H57" s="12"/>
+      <c r="F57" s="46" t="s">
+        <v>106</v>
+      </c>
+      <c r="G57" s="70" t="s">
+        <v>13</v>
+      </c>
+      <c r="H57" s="12" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="36"/>
-      <c r="B58" s="41"/>
-      <c r="C58" s="41"/>
-      <c r="D58" s="6"/>
-      <c r="E58" s="27"/>
-      <c r="F58" s="47"/>
-      <c r="G58" s="41"/>
-      <c r="H58" s="13"/>
+      <c r="A58" s="37"/>
+      <c r="B58" s="42"/>
+      <c r="C58" s="42"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="19"/>
+      <c r="F58" s="48"/>
+      <c r="G58" s="42"/>
+      <c r="H58" s="14"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="35"/>
-      <c r="B59" s="38"/>
-      <c r="C59" s="43"/>
-      <c r="D59" s="10"/>
-      <c r="E59" s="11"/>
-      <c r="F59" s="46"/>
-      <c r="G59" s="46"/>
-      <c r="H59" s="12"/>
+      <c r="A59" s="35">
+        <v>24</v>
+      </c>
+      <c r="B59" s="38">
+        <v>44469</v>
+      </c>
+      <c r="C59" s="43">
+        <v>3</v>
+      </c>
+      <c r="D59" s="57" t="s">
+        <v>107</v>
+      </c>
+      <c r="E59" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F59" s="46" t="s">
+        <v>109</v>
+      </c>
+      <c r="G59" s="46" t="s">
+        <v>110</v>
+      </c>
+      <c r="H59" s="12" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="37"/>
-      <c r="B60" s="40"/>
-      <c r="C60" s="42"/>
-      <c r="D60" s="4"/>
-      <c r="E60" s="3"/>
+      <c r="B60" s="40">
+        <v>44469</v>
+      </c>
+      <c r="C60" s="42">
+        <v>1</v>
+      </c>
+      <c r="D60" s="58" t="s">
+        <v>111</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="F60" s="44"/>
-      <c r="G60" s="44"/>
-      <c r="H60" s="14"/>
+      <c r="G60" s="70" t="s">
+        <v>13</v>
+      </c>
+      <c r="H60" s="14" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="36"/>
       <c r="B61" s="41"/>
       <c r="C61" s="41"/>
-      <c r="D61" s="6"/>
+      <c r="D61" s="66"/>
       <c r="E61" s="27"/>
       <c r="F61" s="47"/>
       <c r="G61" s="41"/>
       <c r="H61" s="13"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="35"/>
-      <c r="B62" s="38"/>
-      <c r="C62" s="43"/>
-      <c r="D62" s="10"/>
-      <c r="E62" s="11"/>
-      <c r="F62" s="46"/>
-      <c r="G62" s="46"/>
-      <c r="H62" s="12"/>
+      <c r="A62" s="37"/>
+      <c r="B62" s="40"/>
+      <c r="C62" s="42"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="44"/>
+      <c r="G62" s="44"/>
+      <c r="H62" s="14"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="37"/>

--- a/TS Jatai Working/TTD Krama PaaraayaNam-Kramam.xlsx
+++ b/TS Jatai Working/TTD Krama PaaraayaNam-Kramam.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="115">
   <si>
     <t>Date</t>
   </si>
@@ -350,6 +350,15 @@
   </si>
   <si>
     <t>2.6.1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6.6.6 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6.7.1 </t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=adw47D_NM_g</t>
   </si>
 </sst>
 </file>
@@ -1047,8 +1056,8 @@
   <dimension ref="A1:L168"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A60" sqref="A60"/>
+      <pane ySplit="4" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H62" sqref="H62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -2260,7 +2269,9 @@
       <c r="E60" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F60" s="44"/>
+      <c r="F60" s="4" t="s">
+        <v>112</v>
+      </c>
       <c r="G60" s="70" t="s">
         <v>13</v>
       </c>
@@ -2279,14 +2290,26 @@
       <c r="H61" s="13"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="37"/>
-      <c r="B62" s="40"/>
-      <c r="C62" s="42"/>
-      <c r="D62" s="4"/>
-      <c r="E62" s="3"/>
+      <c r="A62" s="37">
+        <v>25</v>
+      </c>
+      <c r="B62" s="40">
+        <v>44470</v>
+      </c>
+      <c r="C62" s="42">
+        <v>1</v>
+      </c>
+      <c r="D62" s="57" t="s">
+        <v>113</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="F62" s="44"/>
       <c r="G62" s="44"/>
-      <c r="H62" s="14"/>
+      <c r="H62" s="14" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="37"/>

--- a/TS Jatai Working/TTD Krama PaaraayaNam-Kramam.xlsx
+++ b/TS Jatai Working/TTD Krama PaaraayaNam-Kramam.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="120">
   <si>
     <t>Date</t>
   </si>
@@ -359,6 +359,21 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=adw47D_NM_g</t>
+  </si>
+  <si>
+    <t>2.6.11.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6.12.1 </t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=qOHgbbTmA3w</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6.12.6 </t>
+  </si>
+  <si>
+    <t>16 min 18 sec</t>
   </si>
 </sst>
 </file>
@@ -1053,11 +1068,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L168"/>
+  <dimension ref="A1:L167"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H62" sqref="H62"/>
+      <pane ySplit="4" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H66" sqref="H66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -2297,7 +2312,7 @@
         <v>44470</v>
       </c>
       <c r="C62" s="42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D62" s="57" t="s">
         <v>113</v>
@@ -2305,201 +2320,221 @@
       <c r="E62" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F62" s="44"/>
-      <c r="G62" s="44"/>
+      <c r="F62" s="46" t="s">
+        <v>115</v>
+      </c>
+      <c r="G62" s="70" t="s">
+        <v>13</v>
+      </c>
       <c r="H62" s="14" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="37"/>
-      <c r="B63" s="40"/>
-      <c r="C63" s="42"/>
-      <c r="D63" s="4"/>
-      <c r="E63" s="3"/>
-      <c r="F63" s="44"/>
-      <c r="G63" s="44"/>
-      <c r="H63" s="14"/>
+      <c r="A63" s="36"/>
+      <c r="B63" s="41"/>
+      <c r="C63" s="41"/>
+      <c r="D63" s="6"/>
+      <c r="E63" s="27"/>
+      <c r="F63" s="47"/>
+      <c r="G63" s="41"/>
+      <c r="H63" s="13"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="36"/>
-      <c r="B64" s="41"/>
-      <c r="C64" s="41"/>
-      <c r="D64" s="6"/>
-      <c r="E64" s="27"/>
-      <c r="F64" s="47"/>
-      <c r="G64" s="41"/>
-      <c r="H64" s="13"/>
+      <c r="A64" s="35">
+        <v>26</v>
+      </c>
+      <c r="B64" s="38">
+        <v>44471</v>
+      </c>
+      <c r="C64" s="43">
+        <v>3</v>
+      </c>
+      <c r="D64" s="57" t="s">
+        <v>116</v>
+      </c>
+      <c r="E64" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F64" s="46" t="s">
+        <v>118</v>
+      </c>
+      <c r="G64" s="46" t="s">
+        <v>119</v>
+      </c>
+      <c r="H64" s="12" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="35"/>
-      <c r="B65" s="38"/>
-      <c r="C65" s="43"/>
-      <c r="D65" s="10"/>
-      <c r="E65" s="11"/>
-      <c r="F65" s="46"/>
-      <c r="G65" s="46"/>
-      <c r="H65" s="12"/>
+      <c r="A65" s="37"/>
+      <c r="B65" s="40"/>
+      <c r="C65" s="42"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="3"/>
+      <c r="F65" s="44"/>
+      <c r="G65" s="44"/>
+      <c r="H65" s="14"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="37"/>
-      <c r="B66" s="40"/>
-      <c r="C66" s="42"/>
-      <c r="D66" s="4"/>
-      <c r="E66" s="3"/>
-      <c r="F66" s="44"/>
-      <c r="G66" s="44"/>
-      <c r="H66" s="14"/>
+      <c r="A66" s="36"/>
+      <c r="B66" s="41"/>
+      <c r="C66" s="41"/>
+      <c r="D66" s="6"/>
+      <c r="E66" s="27"/>
+      <c r="F66" s="47"/>
+      <c r="G66" s="41"/>
+      <c r="H66" s="13"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="36"/>
-      <c r="B67" s="41"/>
-      <c r="C67" s="41"/>
-      <c r="D67" s="6"/>
-      <c r="E67" s="27"/>
-      <c r="F67" s="47"/>
-      <c r="G67" s="41"/>
-      <c r="H67" s="13"/>
+      <c r="A67" s="35"/>
+      <c r="B67" s="38"/>
+      <c r="C67" s="43"/>
+      <c r="D67" s="10"/>
+      <c r="E67" s="11"/>
+      <c r="F67" s="46"/>
+      <c r="G67" s="46"/>
+      <c r="H67" s="12"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="35"/>
-      <c r="B68" s="38"/>
-      <c r="C68" s="43"/>
-      <c r="D68" s="10"/>
-      <c r="E68" s="11"/>
-      <c r="F68" s="46"/>
-      <c r="G68" s="46"/>
-      <c r="H68" s="12"/>
+      <c r="A68" s="36"/>
+      <c r="B68" s="41"/>
+      <c r="C68" s="41"/>
+      <c r="D68" s="6"/>
+      <c r="E68" s="27"/>
+      <c r="F68" s="47"/>
+      <c r="G68" s="41"/>
+      <c r="H68" s="13"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="36"/>
-      <c r="B69" s="41"/>
-      <c r="C69" s="41"/>
-      <c r="D69" s="6"/>
-      <c r="E69" s="27"/>
-      <c r="F69" s="47"/>
-      <c r="G69" s="41"/>
-      <c r="H69" s="13"/>
+      <c r="A69" s="35"/>
+      <c r="B69" s="38"/>
+      <c r="C69" s="43"/>
+      <c r="D69" s="10"/>
+      <c r="E69" s="11"/>
+      <c r="F69" s="46"/>
+      <c r="G69" s="46"/>
+      <c r="H69" s="12"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="35"/>
-      <c r="B70" s="38"/>
-      <c r="C70" s="43"/>
-      <c r="D70" s="10"/>
-      <c r="E70" s="11"/>
-      <c r="F70" s="46"/>
-      <c r="G70" s="46"/>
-      <c r="H70" s="12"/>
+      <c r="A70" s="37"/>
+      <c r="B70" s="40"/>
+      <c r="C70" s="42"/>
+      <c r="D70" s="4"/>
+      <c r="E70" s="3"/>
+      <c r="F70" s="44"/>
+      <c r="G70" s="44"/>
+      <c r="H70" s="14"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="37"/>
-      <c r="B71" s="40"/>
-      <c r="C71" s="42"/>
-      <c r="D71" s="4"/>
-      <c r="E71" s="3"/>
-      <c r="F71" s="44"/>
-      <c r="G71" s="44"/>
-      <c r="H71" s="14"/>
+      <c r="A71" s="36"/>
+      <c r="B71" s="41"/>
+      <c r="C71" s="41"/>
+      <c r="D71" s="6"/>
+      <c r="E71" s="27"/>
+      <c r="F71" s="47"/>
+      <c r="G71" s="41"/>
+      <c r="H71" s="13"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="36"/>
-      <c r="B72" s="41"/>
-      <c r="C72" s="41"/>
-      <c r="D72" s="6"/>
-      <c r="E72" s="27"/>
-      <c r="F72" s="47"/>
-      <c r="G72" s="41"/>
-      <c r="H72" s="13"/>
+      <c r="A72" s="35"/>
+      <c r="B72" s="38"/>
+      <c r="C72" s="43"/>
+      <c r="D72" s="10"/>
+      <c r="E72" s="11"/>
+      <c r="F72" s="46"/>
+      <c r="G72" s="46"/>
+      <c r="H72" s="12"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="35"/>
-      <c r="B73" s="38"/>
-      <c r="C73" s="43"/>
-      <c r="D73" s="10"/>
-      <c r="E73" s="11"/>
-      <c r="F73" s="46"/>
-      <c r="G73" s="46"/>
-      <c r="H73" s="12"/>
+      <c r="A73" s="37"/>
+      <c r="B73" s="40"/>
+      <c r="C73" s="42"/>
+      <c r="D73" s="4"/>
+      <c r="E73" s="3"/>
+      <c r="F73" s="44"/>
+      <c r="G73" s="44"/>
+      <c r="H73" s="14"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="37"/>
-      <c r="B74" s="40"/>
-      <c r="C74" s="42"/>
-      <c r="D74" s="4"/>
-      <c r="E74" s="3"/>
-      <c r="F74" s="44"/>
-      <c r="G74" s="44"/>
-      <c r="H74" s="14"/>
+      <c r="A74" s="36"/>
+      <c r="B74" s="41"/>
+      <c r="C74" s="41"/>
+      <c r="D74" s="6"/>
+      <c r="E74" s="27"/>
+      <c r="F74" s="47"/>
+      <c r="G74" s="41"/>
+      <c r="H74" s="13"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="36"/>
-      <c r="B75" s="41"/>
-      <c r="C75" s="41"/>
-      <c r="D75" s="6"/>
-      <c r="E75" s="27"/>
-      <c r="F75" s="47"/>
-      <c r="G75" s="41"/>
-      <c r="H75" s="13"/>
+      <c r="A75" s="35"/>
+      <c r="B75" s="38"/>
+      <c r="C75" s="43"/>
+      <c r="D75" s="10"/>
+      <c r="E75" s="11"/>
+      <c r="F75" s="46"/>
+      <c r="G75" s="46"/>
+      <c r="H75" s="12"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" s="35"/>
-      <c r="B76" s="38"/>
-      <c r="C76" s="43"/>
-      <c r="D76" s="10"/>
-      <c r="E76" s="11"/>
-      <c r="F76" s="46"/>
-      <c r="G76" s="46"/>
-      <c r="H76" s="12"/>
+      <c r="A76" s="37"/>
+      <c r="B76" s="40"/>
+      <c r="C76" s="42"/>
+      <c r="D76" s="4"/>
+      <c r="E76" s="3"/>
+      <c r="F76" s="44"/>
+      <c r="G76" s="44"/>
+      <c r="H76" s="14"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77" s="37"/>
-      <c r="B77" s="40"/>
-      <c r="C77" s="42"/>
-      <c r="D77" s="4"/>
-      <c r="E77" s="3"/>
-      <c r="F77" s="44"/>
-      <c r="G77" s="44"/>
-      <c r="H77" s="14"/>
+      <c r="A77" s="36"/>
+      <c r="B77" s="41"/>
+      <c r="C77" s="41"/>
+      <c r="D77" s="6"/>
+      <c r="E77" s="27"/>
+      <c r="F77" s="47"/>
+      <c r="G77" s="41"/>
+      <c r="H77" s="13"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" s="36"/>
-      <c r="B78" s="41"/>
-      <c r="C78" s="41"/>
-      <c r="D78" s="6"/>
-      <c r="E78" s="27"/>
-      <c r="F78" s="47"/>
-      <c r="G78" s="41"/>
-      <c r="H78" s="13"/>
+      <c r="A78" s="35"/>
+      <c r="B78" s="38"/>
+      <c r="C78" s="43"/>
+      <c r="D78" s="10"/>
+      <c r="E78" s="11"/>
+      <c r="F78" s="46"/>
+      <c r="G78" s="46"/>
+      <c r="H78" s="12"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" s="35"/>
-      <c r="B79" s="38"/>
-      <c r="C79" s="43"/>
-      <c r="D79" s="10"/>
-      <c r="E79" s="11"/>
-      <c r="F79" s="46"/>
-      <c r="G79" s="46"/>
-      <c r="H79" s="12"/>
+      <c r="A79" s="36"/>
+      <c r="B79" s="41"/>
+      <c r="C79" s="41"/>
+      <c r="D79" s="6"/>
+      <c r="E79" s="27"/>
+      <c r="F79" s="47"/>
+      <c r="G79" s="41"/>
+      <c r="H79" s="13"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80" s="36"/>
-      <c r="B80" s="41"/>
-      <c r="C80" s="41"/>
-      <c r="D80" s="6"/>
-      <c r="E80" s="27"/>
-      <c r="F80" s="47"/>
-      <c r="G80" s="41"/>
-      <c r="H80" s="13"/>
+      <c r="A80" s="35"/>
+      <c r="B80" s="38"/>
+      <c r="C80" s="43"/>
+      <c r="D80" s="10"/>
+      <c r="E80" s="11"/>
+      <c r="F80" s="46"/>
+      <c r="G80" s="46"/>
+      <c r="H80" s="12"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81" s="35"/>
-      <c r="B81" s="38"/>
-      <c r="C81" s="43"/>
-      <c r="D81" s="10"/>
-      <c r="E81" s="11"/>
-      <c r="F81" s="46"/>
-      <c r="G81" s="46"/>
-      <c r="H81" s="12"/>
+      <c r="A81" s="37"/>
+      <c r="B81" s="40"/>
+      <c r="C81" s="42"/>
+      <c r="D81" s="4"/>
+      <c r="E81" s="3"/>
+      <c r="F81" s="44"/>
+      <c r="G81" s="44"/>
+      <c r="H81" s="14"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="37"/>
@@ -2512,144 +2547,144 @@
       <c r="H82" s="14"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A83" s="37"/>
-      <c r="B83" s="40"/>
-      <c r="C83" s="42"/>
-      <c r="D83" s="4"/>
-      <c r="E83" s="3"/>
-      <c r="F83" s="44"/>
-      <c r="G83" s="44"/>
-      <c r="H83" s="14"/>
+      <c r="A83" s="36"/>
+      <c r="B83" s="41"/>
+      <c r="C83" s="41"/>
+      <c r="D83" s="6"/>
+      <c r="E83" s="27"/>
+      <c r="F83" s="47"/>
+      <c r="G83" s="41"/>
+      <c r="H83" s="13"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84" s="36"/>
-      <c r="B84" s="41"/>
-      <c r="C84" s="41"/>
-      <c r="D84" s="6"/>
-      <c r="E84" s="27"/>
-      <c r="F84" s="47"/>
-      <c r="G84" s="41"/>
-      <c r="H84" s="13"/>
+      <c r="A84" s="35"/>
+      <c r="B84" s="38"/>
+      <c r="C84" s="43"/>
+      <c r="D84" s="10"/>
+      <c r="E84" s="11"/>
+      <c r="F84" s="46"/>
+      <c r="G84" s="46"/>
+      <c r="H84" s="12"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85" s="35"/>
-      <c r="B85" s="38"/>
-      <c r="C85" s="43"/>
-      <c r="D85" s="10"/>
-      <c r="E85" s="11"/>
-      <c r="F85" s="46"/>
-      <c r="G85" s="46"/>
-      <c r="H85" s="12"/>
+      <c r="A85" s="36"/>
+      <c r="B85" s="41"/>
+      <c r="C85" s="41"/>
+      <c r="D85" s="6"/>
+      <c r="E85" s="27"/>
+      <c r="F85" s="47"/>
+      <c r="G85" s="41"/>
+      <c r="H85" s="13"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86" s="36"/>
-      <c r="B86" s="41"/>
-      <c r="C86" s="41"/>
-      <c r="D86" s="6"/>
-      <c r="E86" s="27"/>
-      <c r="F86" s="47"/>
-      <c r="G86" s="41"/>
-      <c r="H86" s="13"/>
+      <c r="A86" s="35"/>
+      <c r="B86" s="38"/>
+      <c r="C86" s="43"/>
+      <c r="D86" s="10"/>
+      <c r="E86" s="11"/>
+      <c r="F86" s="46"/>
+      <c r="G86" s="46"/>
+      <c r="H86" s="12"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A87" s="35"/>
-      <c r="B87" s="38"/>
-      <c r="C87" s="43"/>
-      <c r="D87" s="10"/>
-      <c r="E87" s="11"/>
-      <c r="F87" s="46"/>
-      <c r="G87" s="46"/>
-      <c r="H87" s="12"/>
+      <c r="A87" s="37"/>
+      <c r="B87" s="40"/>
+      <c r="C87" s="42"/>
+      <c r="D87" s="4"/>
+      <c r="E87" s="3"/>
+      <c r="F87" s="44"/>
+      <c r="G87" s="44"/>
+      <c r="H87" s="14"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88" s="37"/>
-      <c r="B88" s="40"/>
-      <c r="C88" s="42"/>
-      <c r="D88" s="4"/>
-      <c r="E88" s="3"/>
-      <c r="F88" s="44"/>
-      <c r="G88" s="44"/>
-      <c r="H88" s="14"/>
+      <c r="A88" s="36"/>
+      <c r="B88" s="41"/>
+      <c r="C88" s="41"/>
+      <c r="D88" s="6"/>
+      <c r="E88" s="27"/>
+      <c r="F88" s="47"/>
+      <c r="G88" s="41"/>
+      <c r="H88" s="13"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A89" s="36"/>
-      <c r="B89" s="41"/>
-      <c r="C89" s="41"/>
-      <c r="D89" s="6"/>
-      <c r="E89" s="27"/>
-      <c r="F89" s="47"/>
-      <c r="G89" s="41"/>
-      <c r="H89" s="13"/>
+      <c r="A89" s="35"/>
+      <c r="B89" s="38"/>
+      <c r="C89" s="43"/>
+      <c r="D89" s="10"/>
+      <c r="E89" s="11"/>
+      <c r="F89" s="46"/>
+      <c r="G89" s="46"/>
+      <c r="H89" s="12"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90" s="35"/>
-      <c r="B90" s="38"/>
-      <c r="C90" s="43"/>
-      <c r="D90" s="10"/>
-      <c r="E90" s="11"/>
-      <c r="F90" s="46"/>
-      <c r="G90" s="46"/>
-      <c r="H90" s="12"/>
+      <c r="A90" s="36"/>
+      <c r="B90" s="41"/>
+      <c r="C90" s="41"/>
+      <c r="D90" s="6"/>
+      <c r="E90" s="27"/>
+      <c r="F90" s="47"/>
+      <c r="G90" s="41"/>
+      <c r="H90" s="13"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91" s="36"/>
-      <c r="B91" s="41"/>
-      <c r="C91" s="41"/>
-      <c r="D91" s="6"/>
-      <c r="E91" s="27"/>
-      <c r="F91" s="47"/>
-      <c r="G91" s="41"/>
-      <c r="H91" s="13"/>
+      <c r="A91" s="35"/>
+      <c r="B91" s="38"/>
+      <c r="C91" s="43"/>
+      <c r="D91" s="10"/>
+      <c r="E91" s="11"/>
+      <c r="F91" s="46"/>
+      <c r="G91" s="46"/>
+      <c r="H91" s="12"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A92" s="35"/>
-      <c r="B92" s="38"/>
-      <c r="C92" s="43"/>
-      <c r="D92" s="10"/>
-      <c r="E92" s="11"/>
-      <c r="F92" s="46"/>
-      <c r="G92" s="46"/>
-      <c r="H92" s="12"/>
+      <c r="A92" s="37"/>
+      <c r="B92" s="40"/>
+      <c r="C92" s="42"/>
+      <c r="D92" s="4"/>
+      <c r="E92" s="3"/>
+      <c r="F92" s="44"/>
+      <c r="G92" s="44"/>
+      <c r="H92" s="14"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93" s="37"/>
-      <c r="B93" s="40"/>
-      <c r="C93" s="42"/>
-      <c r="D93" s="4"/>
-      <c r="E93" s="3"/>
-      <c r="F93" s="44"/>
-      <c r="G93" s="44"/>
-      <c r="H93" s="14"/>
+      <c r="A93" s="36"/>
+      <c r="B93" s="41"/>
+      <c r="C93" s="41"/>
+      <c r="D93" s="6"/>
+      <c r="E93" s="27"/>
+      <c r="F93" s="47"/>
+      <c r="G93" s="41"/>
+      <c r="H93" s="13"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A94" s="36"/>
-      <c r="B94" s="41"/>
-      <c r="C94" s="41"/>
-      <c r="D94" s="6"/>
-      <c r="E94" s="27"/>
-      <c r="F94" s="47"/>
-      <c r="G94" s="41"/>
-      <c r="H94" s="13"/>
+      <c r="A94" s="35"/>
+      <c r="B94" s="38"/>
+      <c r="C94" s="43"/>
+      <c r="D94" s="10"/>
+      <c r="E94" s="11"/>
+      <c r="F94" s="46"/>
+      <c r="G94" s="46"/>
+      <c r="H94" s="12"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A95" s="35"/>
-      <c r="B95" s="38"/>
-      <c r="C95" s="43"/>
-      <c r="D95" s="10"/>
-      <c r="E95" s="11"/>
-      <c r="F95" s="46"/>
-      <c r="G95" s="46"/>
-      <c r="H95" s="12"/>
+      <c r="A95" s="36"/>
+      <c r="B95" s="41"/>
+      <c r="C95" s="41"/>
+      <c r="D95" s="6"/>
+      <c r="E95" s="27"/>
+      <c r="F95" s="47"/>
+      <c r="G95" s="41"/>
+      <c r="H95" s="13"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A96" s="36"/>
-      <c r="B96" s="41"/>
-      <c r="C96" s="41"/>
-      <c r="D96" s="6"/>
-      <c r="E96" s="27"/>
-      <c r="F96" s="47"/>
-      <c r="G96" s="41"/>
-      <c r="H96" s="13"/>
+      <c r="A96" s="37"/>
+      <c r="B96" s="40"/>
+      <c r="C96" s="42"/>
+      <c r="D96" s="4"/>
+      <c r="E96" s="3"/>
+      <c r="F96" s="44"/>
+      <c r="G96" s="44"/>
+      <c r="H96" s="17"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="37"/>
@@ -2663,343 +2698,343 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="37"/>
-      <c r="B98" s="40"/>
+      <c r="B98" s="42"/>
       <c r="C98" s="42"/>
-      <c r="D98" s="4"/>
-      <c r="E98" s="3"/>
-      <c r="F98" s="44"/>
-      <c r="G98" s="44"/>
+      <c r="D98" s="2"/>
+      <c r="E98" s="19"/>
+      <c r="F98" s="48"/>
+      <c r="G98" s="42"/>
       <c r="H98" s="17"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A99" s="37"/>
-      <c r="B99" s="42"/>
-      <c r="C99" s="42"/>
-      <c r="D99" s="2"/>
-      <c r="E99" s="19"/>
-      <c r="F99" s="48"/>
-      <c r="G99" s="42"/>
-      <c r="H99" s="17"/>
+      <c r="A99" s="35"/>
+      <c r="B99" s="38"/>
+      <c r="C99" s="43"/>
+      <c r="D99" s="10"/>
+      <c r="E99" s="11"/>
+      <c r="F99" s="46"/>
+      <c r="G99" s="46"/>
+      <c r="H99" s="12"/>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A100" s="35"/>
-      <c r="B100" s="38"/>
-      <c r="C100" s="43"/>
-      <c r="D100" s="10"/>
-      <c r="E100" s="11"/>
-      <c r="F100" s="46"/>
-      <c r="G100" s="46"/>
-      <c r="H100" s="12"/>
+      <c r="A100" s="37"/>
+      <c r="B100" s="40"/>
+      <c r="C100" s="42"/>
+      <c r="D100" s="4"/>
+      <c r="E100" s="3"/>
+      <c r="F100" s="44"/>
+      <c r="G100" s="44"/>
+      <c r="H100" s="14"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A101" s="37"/>
-      <c r="B101" s="40"/>
-      <c r="C101" s="42"/>
-      <c r="D101" s="4"/>
-      <c r="E101" s="3"/>
-      <c r="F101" s="44"/>
-      <c r="G101" s="44"/>
-      <c r="H101" s="14"/>
+      <c r="A101" s="36"/>
+      <c r="B101" s="39"/>
+      <c r="C101" s="41"/>
+      <c r="D101" s="8"/>
+      <c r="E101" s="7"/>
+      <c r="F101" s="45"/>
+      <c r="G101" s="45"/>
+      <c r="H101" s="13"/>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A102" s="36"/>
-      <c r="B102" s="39"/>
-      <c r="C102" s="41"/>
-      <c r="D102" s="8"/>
-      <c r="E102" s="7"/>
-      <c r="F102" s="45"/>
-      <c r="G102" s="45"/>
-      <c r="H102" s="13"/>
+      <c r="A102" s="35"/>
+      <c r="B102" s="38"/>
+      <c r="C102" s="43"/>
+      <c r="D102" s="10"/>
+      <c r="E102" s="11"/>
+      <c r="F102" s="46"/>
+      <c r="G102" s="46"/>
+      <c r="H102" s="12"/>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A103" s="35"/>
-      <c r="B103" s="38"/>
-      <c r="C103" s="43"/>
-      <c r="D103" s="10"/>
-      <c r="E103" s="11"/>
-      <c r="F103" s="46"/>
-      <c r="G103" s="46"/>
-      <c r="H103" s="12"/>
+      <c r="A103" s="36"/>
+      <c r="B103" s="39"/>
+      <c r="C103" s="41"/>
+      <c r="D103" s="8"/>
+      <c r="E103" s="7"/>
+      <c r="F103" s="45"/>
+      <c r="G103" s="45"/>
+      <c r="H103" s="13"/>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A104" s="36"/>
-      <c r="B104" s="39"/>
-      <c r="C104" s="41"/>
-      <c r="D104" s="8"/>
-      <c r="E104" s="7"/>
-      <c r="F104" s="45"/>
-      <c r="G104" s="45"/>
-      <c r="H104" s="13"/>
+      <c r="A104" s="35"/>
+      <c r="B104" s="38"/>
+      <c r="C104" s="43"/>
+      <c r="D104" s="10"/>
+      <c r="E104" s="11"/>
+      <c r="F104" s="46"/>
+      <c r="G104" s="46"/>
+      <c r="H104" s="12"/>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A105" s="35"/>
-      <c r="B105" s="38"/>
-      <c r="C105" s="43"/>
-      <c r="D105" s="10"/>
-      <c r="E105" s="11"/>
-      <c r="F105" s="46"/>
-      <c r="G105" s="46"/>
-      <c r="H105" s="12"/>
+      <c r="A105" s="37"/>
+      <c r="B105" s="40"/>
+      <c r="C105" s="42"/>
+      <c r="D105" s="4"/>
+      <c r="E105" s="3"/>
+      <c r="F105" s="44"/>
+      <c r="G105" s="44"/>
+      <c r="H105" s="14"/>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A106" s="37"/>
-      <c r="B106" s="40"/>
-      <c r="C106" s="42"/>
-      <c r="D106" s="4"/>
-      <c r="E106" s="3"/>
-      <c r="F106" s="44"/>
-      <c r="G106" s="44"/>
-      <c r="H106" s="14"/>
+      <c r="A106" s="36"/>
+      <c r="B106" s="39"/>
+      <c r="C106" s="41"/>
+      <c r="D106" s="8"/>
+      <c r="E106" s="7"/>
+      <c r="F106" s="45"/>
+      <c r="G106" s="45"/>
+      <c r="H106" s="13"/>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A107" s="36"/>
-      <c r="B107" s="39"/>
-      <c r="C107" s="41"/>
-      <c r="D107" s="8"/>
-      <c r="E107" s="7"/>
-      <c r="F107" s="45"/>
-      <c r="G107" s="45"/>
-      <c r="H107" s="13"/>
+      <c r="A107" s="35"/>
+      <c r="B107" s="38"/>
+      <c r="C107" s="43"/>
+      <c r="D107" s="10"/>
+      <c r="E107" s="11"/>
+      <c r="F107" s="46"/>
+      <c r="G107" s="46"/>
+      <c r="H107" s="12"/>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A108" s="35"/>
-      <c r="B108" s="38"/>
-      <c r="C108" s="43"/>
-      <c r="D108" s="10"/>
-      <c r="E108" s="11"/>
-      <c r="F108" s="46"/>
-      <c r="G108" s="46"/>
-      <c r="H108" s="12"/>
+      <c r="A108" s="37"/>
+      <c r="B108" s="40"/>
+      <c r="C108" s="42"/>
+      <c r="D108" s="4"/>
+      <c r="E108" s="3"/>
+      <c r="F108" s="44"/>
+      <c r="G108" s="44"/>
+      <c r="H108" s="14"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A109" s="37"/>
-      <c r="B109" s="40"/>
-      <c r="C109" s="42"/>
-      <c r="D109" s="4"/>
-      <c r="E109" s="3"/>
-      <c r="F109" s="44"/>
-      <c r="G109" s="44"/>
-      <c r="H109" s="14"/>
+      <c r="A109" s="36"/>
+      <c r="B109" s="39"/>
+      <c r="C109" s="41"/>
+      <c r="D109" s="8"/>
+      <c r="E109" s="7"/>
+      <c r="F109" s="45"/>
+      <c r="G109" s="45"/>
+      <c r="H109" s="13"/>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A110" s="36"/>
-      <c r="B110" s="39"/>
-      <c r="C110" s="41"/>
-      <c r="D110" s="8"/>
-      <c r="E110" s="7"/>
-      <c r="F110" s="45"/>
-      <c r="G110" s="45"/>
-      <c r="H110" s="13"/>
+      <c r="A110" s="35"/>
+      <c r="B110" s="38"/>
+      <c r="C110" s="43"/>
+      <c r="D110" s="10"/>
+      <c r="E110" s="11"/>
+      <c r="F110" s="46"/>
+      <c r="G110" s="46"/>
+      <c r="H110" s="12"/>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A111" s="35"/>
-      <c r="B111" s="38"/>
-      <c r="C111" s="43"/>
-      <c r="D111" s="10"/>
-      <c r="E111" s="11"/>
-      <c r="F111" s="46"/>
-      <c r="G111" s="46"/>
-      <c r="H111" s="12"/>
+      <c r="A111" s="37"/>
+      <c r="B111" s="40"/>
+      <c r="C111" s="42"/>
+      <c r="D111" s="4"/>
+      <c r="E111" s="3"/>
+      <c r="F111" s="44"/>
+      <c r="G111" s="44"/>
+      <c r="H111" s="14"/>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A112" s="37"/>
-      <c r="B112" s="40"/>
-      <c r="C112" s="42"/>
-      <c r="D112" s="4"/>
-      <c r="E112" s="3"/>
-      <c r="F112" s="44"/>
-      <c r="G112" s="44"/>
-      <c r="H112" s="14"/>
+      <c r="A112" s="36"/>
+      <c r="B112" s="39"/>
+      <c r="C112" s="41"/>
+      <c r="D112" s="8"/>
+      <c r="E112" s="7"/>
+      <c r="F112" s="45"/>
+      <c r="G112" s="45"/>
+      <c r="H112" s="13"/>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A113" s="36"/>
-      <c r="B113" s="39"/>
-      <c r="C113" s="41"/>
-      <c r="D113" s="8"/>
-      <c r="E113" s="7"/>
-      <c r="F113" s="45"/>
-      <c r="G113" s="45"/>
-      <c r="H113" s="13"/>
+      <c r="A113" s="35"/>
+      <c r="B113" s="38"/>
+      <c r="C113" s="43"/>
+      <c r="D113" s="10"/>
+      <c r="E113" s="11"/>
+      <c r="F113" s="46"/>
+      <c r="G113" s="46"/>
+      <c r="H113" s="12"/>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A114" s="35"/>
-      <c r="B114" s="38"/>
-      <c r="C114" s="43"/>
-      <c r="D114" s="10"/>
-      <c r="E114" s="11"/>
-      <c r="F114" s="46"/>
-      <c r="G114" s="46"/>
-      <c r="H114" s="12"/>
+      <c r="A114" s="36"/>
+      <c r="B114" s="39"/>
+      <c r="C114" s="41"/>
+      <c r="D114" s="8"/>
+      <c r="E114" s="7"/>
+      <c r="F114" s="45"/>
+      <c r="G114" s="45"/>
+      <c r="H114" s="13"/>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A115" s="36"/>
-      <c r="B115" s="39"/>
-      <c r="C115" s="41"/>
-      <c r="D115" s="8"/>
-      <c r="E115" s="7"/>
-      <c r="F115" s="45"/>
-      <c r="G115" s="45"/>
-      <c r="H115" s="13"/>
+      <c r="A115" s="35"/>
+      <c r="B115" s="38"/>
+      <c r="C115" s="43"/>
+      <c r="D115" s="10"/>
+      <c r="E115" s="11"/>
+      <c r="F115" s="46"/>
+      <c r="G115" s="46"/>
+      <c r="H115" s="12"/>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A116" s="35"/>
-      <c r="B116" s="38"/>
-      <c r="C116" s="43"/>
-      <c r="D116" s="10"/>
-      <c r="E116" s="11"/>
-      <c r="F116" s="46"/>
-      <c r="G116" s="46"/>
-      <c r="H116" s="12"/>
+      <c r="A116" s="37"/>
+      <c r="B116" s="40"/>
+      <c r="C116" s="42"/>
+      <c r="D116" s="4"/>
+      <c r="E116" s="3"/>
+      <c r="F116" s="44"/>
+      <c r="G116" s="44"/>
+      <c r="H116" s="14"/>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A117" s="37"/>
-      <c r="B117" s="40"/>
-      <c r="C117" s="42"/>
-      <c r="D117" s="4"/>
-      <c r="E117" s="3"/>
-      <c r="F117" s="44"/>
-      <c r="G117" s="44"/>
-      <c r="H117" s="14"/>
+      <c r="A117" s="36"/>
+      <c r="B117" s="39"/>
+      <c r="C117" s="41"/>
+      <c r="D117" s="8"/>
+      <c r="E117" s="7"/>
+      <c r="F117" s="45"/>
+      <c r="G117" s="45"/>
+      <c r="H117" s="13"/>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A118" s="36"/>
-      <c r="B118" s="39"/>
-      <c r="C118" s="41"/>
-      <c r="D118" s="8"/>
-      <c r="E118" s="7"/>
-      <c r="F118" s="45"/>
-      <c r="G118" s="45"/>
-      <c r="H118" s="13"/>
+      <c r="A118" s="35"/>
+      <c r="B118" s="38"/>
+      <c r="C118" s="43"/>
+      <c r="D118" s="10"/>
+      <c r="E118" s="11"/>
+      <c r="F118" s="46"/>
+      <c r="G118" s="46"/>
+      <c r="H118" s="12"/>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A119" s="35"/>
-      <c r="B119" s="38"/>
-      <c r="C119" s="43"/>
-      <c r="D119" s="10"/>
-      <c r="E119" s="11"/>
-      <c r="F119" s="46"/>
-      <c r="G119" s="46"/>
-      <c r="H119" s="12"/>
+      <c r="A119" s="37"/>
+      <c r="B119" s="40"/>
+      <c r="C119" s="42"/>
+      <c r="D119" s="4"/>
+      <c r="E119" s="3"/>
+      <c r="F119" s="44"/>
+      <c r="G119" s="44"/>
+      <c r="H119" s="14"/>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A120" s="37"/>
-      <c r="B120" s="40"/>
-      <c r="C120" s="42"/>
-      <c r="D120" s="4"/>
-      <c r="E120" s="3"/>
-      <c r="F120" s="44"/>
-      <c r="G120" s="44"/>
-      <c r="H120" s="14"/>
+      <c r="A120" s="36"/>
+      <c r="B120" s="39"/>
+      <c r="C120" s="41"/>
+      <c r="D120" s="8"/>
+      <c r="E120" s="7"/>
+      <c r="F120" s="45"/>
+      <c r="G120" s="45"/>
+      <c r="H120" s="13"/>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A121" s="36"/>
-      <c r="B121" s="39"/>
-      <c r="C121" s="41"/>
-      <c r="D121" s="8"/>
-      <c r="E121" s="7"/>
-      <c r="F121" s="45"/>
-      <c r="G121" s="45"/>
-      <c r="H121" s="13"/>
+      <c r="A121" s="35"/>
+      <c r="B121" s="38"/>
+      <c r="C121" s="43"/>
+      <c r="D121" s="10"/>
+      <c r="E121" s="11"/>
+      <c r="F121" s="46"/>
+      <c r="G121" s="46"/>
+      <c r="H121" s="12"/>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A122" s="35"/>
-      <c r="B122" s="38"/>
-      <c r="C122" s="43"/>
-      <c r="D122" s="10"/>
-      <c r="E122" s="11"/>
-      <c r="F122" s="46"/>
-      <c r="G122" s="46"/>
-      <c r="H122" s="12"/>
+      <c r="A122" s="37"/>
+      <c r="B122" s="40"/>
+      <c r="C122" s="42"/>
+      <c r="D122" s="4"/>
+      <c r="E122" s="3"/>
+      <c r="F122" s="44"/>
+      <c r="G122" s="44"/>
+      <c r="H122" s="14"/>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A123" s="37"/>
-      <c r="B123" s="40"/>
-      <c r="C123" s="42"/>
-      <c r="D123" s="4"/>
-      <c r="E123" s="3"/>
-      <c r="F123" s="44"/>
-      <c r="G123" s="44"/>
-      <c r="H123" s="14"/>
+      <c r="A123" s="36"/>
+      <c r="B123" s="39"/>
+      <c r="C123" s="41"/>
+      <c r="D123" s="8"/>
+      <c r="E123" s="7"/>
+      <c r="F123" s="45"/>
+      <c r="G123" s="45"/>
+      <c r="H123" s="13"/>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A124" s="36"/>
-      <c r="B124" s="39"/>
-      <c r="C124" s="41"/>
-      <c r="D124" s="8"/>
-      <c r="E124" s="7"/>
-      <c r="F124" s="45"/>
-      <c r="G124" s="45"/>
-      <c r="H124" s="13"/>
+      <c r="A124" s="35"/>
+      <c r="B124" s="38"/>
+      <c r="C124" s="43"/>
+      <c r="D124" s="10"/>
+      <c r="E124" s="11"/>
+      <c r="F124" s="46"/>
+      <c r="G124" s="46"/>
+      <c r="H124" s="12"/>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A125" s="35"/>
-      <c r="B125" s="38"/>
-      <c r="C125" s="43"/>
-      <c r="D125" s="10"/>
-      <c r="E125" s="11"/>
-      <c r="F125" s="46"/>
-      <c r="G125" s="46"/>
-      <c r="H125" s="12"/>
+      <c r="A125" s="37"/>
+      <c r="B125" s="40"/>
+      <c r="C125" s="42"/>
+      <c r="D125" s="4"/>
+      <c r="E125" s="3"/>
+      <c r="F125" s="44"/>
+      <c r="G125" s="44"/>
+      <c r="H125" s="14"/>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A126" s="37"/>
-      <c r="B126" s="40"/>
-      <c r="C126" s="42"/>
-      <c r="D126" s="4"/>
-      <c r="E126" s="3"/>
-      <c r="F126" s="44"/>
-      <c r="G126" s="44"/>
-      <c r="H126" s="14"/>
+      <c r="A126" s="36"/>
+      <c r="B126" s="39"/>
+      <c r="C126" s="41"/>
+      <c r="D126" s="8"/>
+      <c r="E126" s="7"/>
+      <c r="F126" s="45"/>
+      <c r="G126" s="45"/>
+      <c r="H126" s="13"/>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A127" s="36"/>
-      <c r="B127" s="39"/>
-      <c r="C127" s="41"/>
-      <c r="D127" s="8"/>
-      <c r="E127" s="7"/>
-      <c r="F127" s="45"/>
-      <c r="G127" s="45"/>
-      <c r="H127" s="13"/>
+      <c r="A127" s="35"/>
+      <c r="B127" s="38"/>
+      <c r="C127" s="43"/>
+      <c r="D127" s="10"/>
+      <c r="E127" s="11"/>
+      <c r="F127" s="46"/>
+      <c r="G127" s="46"/>
+      <c r="H127" s="12"/>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A128" s="35"/>
-      <c r="B128" s="38"/>
-      <c r="C128" s="43"/>
-      <c r="D128" s="10"/>
-      <c r="E128" s="11"/>
-      <c r="F128" s="46"/>
-      <c r="G128" s="46"/>
-      <c r="H128" s="12"/>
+      <c r="A128" s="37"/>
+      <c r="B128" s="40"/>
+      <c r="C128" s="42"/>
+      <c r="D128" s="4"/>
+      <c r="E128" s="3"/>
+      <c r="F128" s="44"/>
+      <c r="G128" s="44"/>
+      <c r="H128" s="14"/>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A129" s="37"/>
-      <c r="B129" s="40"/>
-      <c r="C129" s="42"/>
-      <c r="D129" s="4"/>
-      <c r="E129" s="3"/>
-      <c r="F129" s="44"/>
-      <c r="G129" s="44"/>
-      <c r="H129" s="14"/>
+      <c r="A129" s="36"/>
+      <c r="B129" s="39"/>
+      <c r="C129" s="41"/>
+      <c r="D129" s="8"/>
+      <c r="E129" s="7"/>
+      <c r="F129" s="45"/>
+      <c r="G129" s="45"/>
+      <c r="H129" s="13"/>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A130" s="36"/>
-      <c r="B130" s="39"/>
-      <c r="C130" s="41"/>
-      <c r="D130" s="8"/>
-      <c r="E130" s="7"/>
-      <c r="F130" s="45"/>
-      <c r="G130" s="45"/>
-      <c r="H130" s="13"/>
+      <c r="A130" s="35"/>
+      <c r="B130" s="38"/>
+      <c r="C130" s="43"/>
+      <c r="D130" s="10"/>
+      <c r="E130" s="11"/>
+      <c r="F130" s="46"/>
+      <c r="G130" s="46"/>
+      <c r="H130" s="12"/>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A131" s="35"/>
-      <c r="B131" s="38"/>
-      <c r="C131" s="43"/>
-      <c r="D131" s="10"/>
-      <c r="E131" s="11"/>
-      <c r="F131" s="46"/>
-      <c r="G131" s="46"/>
-      <c r="H131" s="12"/>
+      <c r="A131" s="37"/>
+      <c r="B131" s="40"/>
+      <c r="C131" s="42"/>
+      <c r="D131" s="4"/>
+      <c r="E131" s="3"/>
+      <c r="F131" s="44"/>
+      <c r="G131" s="44"/>
+      <c r="H131" s="14"/>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="37"/>
@@ -3012,24 +3047,24 @@
       <c r="H132" s="14"/>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A133" s="37"/>
-      <c r="B133" s="40"/>
-      <c r="C133" s="42"/>
-      <c r="D133" s="4"/>
-      <c r="E133" s="3"/>
-      <c r="F133" s="44"/>
-      <c r="G133" s="44"/>
-      <c r="H133" s="14"/>
+      <c r="A133" s="35"/>
+      <c r="B133" s="38"/>
+      <c r="C133" s="43"/>
+      <c r="D133" s="10"/>
+      <c r="E133" s="11"/>
+      <c r="F133" s="46"/>
+      <c r="G133" s="46"/>
+      <c r="H133" s="12"/>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A134" s="35"/>
-      <c r="B134" s="38"/>
-      <c r="C134" s="43"/>
-      <c r="D134" s="10"/>
-      <c r="E134" s="11"/>
-      <c r="F134" s="46"/>
-      <c r="G134" s="46"/>
-      <c r="H134" s="12"/>
+      <c r="A134" s="37"/>
+      <c r="B134" s="40"/>
+      <c r="C134" s="42"/>
+      <c r="D134" s="4"/>
+      <c r="E134" s="3"/>
+      <c r="F134" s="44"/>
+      <c r="G134" s="44"/>
+      <c r="H134" s="14"/>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="37"/>
@@ -3042,84 +3077,83 @@
       <c r="H135" s="14"/>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A136" s="37"/>
-      <c r="B136" s="40"/>
-      <c r="C136" s="42"/>
-      <c r="D136" s="4"/>
-      <c r="E136" s="3"/>
-      <c r="F136" s="44"/>
-      <c r="G136" s="44"/>
-      <c r="H136" s="14"/>
+      <c r="A136" s="35"/>
+      <c r="B136" s="54"/>
+      <c r="C136" s="43"/>
+      <c r="D136" s="57"/>
+      <c r="E136" s="11"/>
+      <c r="F136" s="53"/>
+      <c r="G136" s="46"/>
+      <c r="H136" s="12"/>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A137" s="35"/>
-      <c r="B137" s="54"/>
-      <c r="C137" s="43"/>
-      <c r="D137" s="57"/>
-      <c r="E137" s="11"/>
-      <c r="F137" s="53"/>
-      <c r="G137" s="46"/>
-      <c r="H137" s="12"/>
+      <c r="A137" s="37"/>
+      <c r="B137" s="55"/>
+      <c r="C137" s="42"/>
+      <c r="D137" s="58"/>
+      <c r="E137" s="3"/>
+      <c r="F137" s="44"/>
+      <c r="G137" s="44"/>
+      <c r="H137" s="14"/>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A138" s="37"/>
-      <c r="B138" s="55"/>
-      <c r="C138" s="42"/>
-      <c r="D138" s="58"/>
-      <c r="E138" s="3"/>
-      <c r="F138" s="44"/>
-      <c r="G138" s="44"/>
-      <c r="H138" s="14"/>
+      <c r="A138" s="36"/>
+      <c r="B138" s="56"/>
+      <c r="C138" s="41"/>
+      <c r="D138" s="59"/>
+      <c r="E138" s="7"/>
+      <c r="F138" s="45"/>
+      <c r="G138" s="45"/>
+      <c r="H138" s="13"/>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A139" s="36"/>
-      <c r="B139" s="56"/>
-      <c r="C139" s="41"/>
-      <c r="D139" s="59"/>
-      <c r="E139" s="7"/>
-      <c r="F139" s="45"/>
-      <c r="G139" s="45"/>
-      <c r="H139" s="13"/>
+      <c r="A139" s="35"/>
+      <c r="B139" s="54"/>
+      <c r="C139" s="43"/>
+      <c r="D139" s="57"/>
+      <c r="E139" s="11"/>
+      <c r="F139" s="53"/>
+      <c r="G139" s="44"/>
+      <c r="H139" s="12"/>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A140" s="35"/>
-      <c r="B140" s="54"/>
-      <c r="C140" s="43"/>
-      <c r="D140" s="57"/>
-      <c r="E140" s="11"/>
-      <c r="F140" s="53"/>
-      <c r="G140" s="44"/>
-      <c r="H140" s="12"/>
+      <c r="A140" s="36"/>
+      <c r="B140" s="56"/>
+      <c r="C140" s="41"/>
+      <c r="D140" s="59"/>
+      <c r="E140" s="7"/>
+      <c r="F140" s="45"/>
+      <c r="G140" s="45"/>
+      <c r="H140" s="13"/>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A141" s="36"/>
-      <c r="B141" s="56"/>
-      <c r="C141" s="41"/>
-      <c r="D141" s="59"/>
-      <c r="E141" s="7"/>
-      <c r="F141" s="45"/>
-      <c r="G141" s="45"/>
-      <c r="H141" s="13"/>
+      <c r="A141" s="35"/>
+      <c r="B141" s="54"/>
+      <c r="C141" s="43"/>
+      <c r="D141" s="57"/>
+      <c r="E141" s="11"/>
+      <c r="F141" s="53"/>
+      <c r="G141" s="44"/>
+      <c r="H141" s="12"/>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A142" s="35"/>
-      <c r="B142" s="54"/>
-      <c r="C142" s="43"/>
-      <c r="D142" s="57"/>
-      <c r="E142" s="11"/>
-      <c r="F142" s="53"/>
-      <c r="G142" s="44"/>
-      <c r="H142" s="12"/>
+      <c r="A142" s="36"/>
+      <c r="B142" s="56"/>
+      <c r="C142" s="41"/>
+      <c r="D142" s="59"/>
+      <c r="E142" s="7"/>
+      <c r="F142" s="45"/>
+      <c r="G142" s="45"/>
+      <c r="H142" s="13"/>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A143" s="36"/>
-      <c r="B143" s="56"/>
-      <c r="C143" s="41"/>
-      <c r="D143" s="59"/>
-      <c r="E143" s="7"/>
-      <c r="F143" s="45"/>
-      <c r="G143" s="45"/>
-      <c r="H143" s="13"/>
+      <c r="B143" s="1"/>
+      <c r="C143" s="2"/>
+      <c r="D143" s="4"/>
+      <c r="E143" s="3"/>
+      <c r="F143" s="4"/>
+      <c r="G143" s="4"/>
+      <c r="H143" s="17"/>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B144" s="1"/>
@@ -3336,15 +3370,6 @@
       <c r="F167" s="4"/>
       <c r="G167" s="4"/>
       <c r="H167" s="17"/>
-    </row>
-    <row r="168" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B168" s="1"/>
-      <c r="C168" s="2"/>
-      <c r="D168" s="4"/>
-      <c r="E168" s="3"/>
-      <c r="F168" s="4"/>
-      <c r="G168" s="4"/>
-      <c r="H168" s="17"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/TS Jatai Working/TTD Krama PaaraayaNam-Kramam.xlsx
+++ b/TS Jatai Working/TTD Krama PaaraayaNam-Kramam.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="123">
   <si>
     <t>Date</t>
   </si>
@@ -374,6 +374,15 @@
   </si>
   <si>
     <t>16 min 18 sec</t>
+  </si>
+  <si>
+    <t>3.1.1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1.8.3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1.9.1 </t>
   </si>
 </sst>
 </file>
@@ -1072,7 +1081,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H66" sqref="H66"/>
+      <selection pane="bottomLeft" activeCell="G67" sqref="G67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -2338,7 +2347,7 @@
       <c r="E63" s="27"/>
       <c r="F63" s="47"/>
       <c r="G63" s="41"/>
-      <c r="H63" s="13"/>
+      <c r="H63" s="14"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="35">
@@ -2359,22 +2368,36 @@
       <c r="F64" s="46" t="s">
         <v>118</v>
       </c>
-      <c r="G64" s="46" t="s">
+      <c r="G64" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="H64" s="12" t="s">
+      <c r="H64" s="62" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="37"/>
-      <c r="B65" s="40"/>
-      <c r="C65" s="42"/>
-      <c r="D65" s="4"/>
-      <c r="E65" s="3"/>
-      <c r="F65" s="44"/>
-      <c r="G65" s="44"/>
-      <c r="H65" s="14"/>
+      <c r="B65" s="40">
+        <v>44471</v>
+      </c>
+      <c r="C65" s="42">
+        <v>1</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="G65" s="58" t="s">
+        <v>13</v>
+      </c>
+      <c r="H65" s="63" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="36"/>
@@ -2383,18 +2406,28 @@
       <c r="D66" s="6"/>
       <c r="E66" s="27"/>
       <c r="F66" s="47"/>
-      <c r="G66" s="41"/>
-      <c r="H66" s="13"/>
+      <c r="G66" s="6"/>
+      <c r="H66" s="64"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="35"/>
-      <c r="B67" s="38"/>
-      <c r="C67" s="43"/>
-      <c r="D67" s="10"/>
-      <c r="E67" s="11"/>
+      <c r="A67" s="35">
+        <v>27</v>
+      </c>
+      <c r="B67" s="38">
+        <v>44472</v>
+      </c>
+      <c r="C67" s="43">
+        <v>2</v>
+      </c>
+      <c r="D67" s="57" t="s">
+        <v>122</v>
+      </c>
+      <c r="E67" s="11" t="s">
+        <v>9</v>
+      </c>
       <c r="F67" s="46"/>
       <c r="G67" s="46"/>
-      <c r="H67" s="12"/>
+      <c r="H67" s="14"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="36"/>

--- a/TS Jatai Working/TTD Krama PaaraayaNam-Kramam.xlsx
+++ b/TS Jatai Working/TTD Krama PaaraayaNam-Kramam.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="139">
   <si>
     <t>Date</t>
   </si>
@@ -383,6 +383,54 @@
   </si>
   <si>
     <t xml:space="preserve">3.1.9.1 </t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=4jyjE4pCwKg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1.11.8 </t>
+  </si>
+  <si>
+    <t>34 min 45 sec</t>
+  </si>
+  <si>
+    <t>3.2.1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2.4.5 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2.5.1 </t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=vC_W15sUATE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2.11.3 </t>
+  </si>
+  <si>
+    <t>3.3.1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3.7.3 </t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=3KxK5uG3J_8&amp;t=13s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3.8.1 </t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=FsL7x2XfSI8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3.11.5 </t>
+  </si>
+  <si>
+    <t>33 min12 sec</t>
+  </si>
+  <si>
+    <t>3.4.1.1</t>
   </si>
 </sst>
 </file>
@@ -575,7 +623,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -772,6 +820,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1077,11 +1131,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L167"/>
+  <dimension ref="A1:L166"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G67" sqref="G67"/>
+      <pane ySplit="4" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G75" sqref="G75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -2400,14 +2454,14 @@
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="36"/>
-      <c r="B66" s="41"/>
-      <c r="C66" s="41"/>
-      <c r="D66" s="6"/>
-      <c r="E66" s="27"/>
-      <c r="F66" s="47"/>
-      <c r="G66" s="6"/>
-      <c r="H66" s="64"/>
+      <c r="A66" s="37"/>
+      <c r="B66" s="42"/>
+      <c r="C66" s="42"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="19"/>
+      <c r="F66" s="48"/>
+      <c r="G66" s="2"/>
+      <c r="H66" s="63"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="35">
@@ -2419,45 +2473,81 @@
       <c r="C67" s="43">
         <v>2</v>
       </c>
-      <c r="D67" s="57" t="s">
+      <c r="D67" s="10" t="s">
         <v>122</v>
       </c>
       <c r="E67" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F67" s="46"/>
-      <c r="G67" s="46"/>
-      <c r="H67" s="14"/>
+      <c r="F67" s="46" t="s">
+        <v>124</v>
+      </c>
+      <c r="G67" s="46" t="s">
+        <v>125</v>
+      </c>
+      <c r="H67" s="12" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="36"/>
-      <c r="B68" s="41"/>
-      <c r="C68" s="41"/>
-      <c r="D68" s="6"/>
-      <c r="E68" s="27"/>
-      <c r="F68" s="47"/>
-      <c r="G68" s="41"/>
-      <c r="H68" s="13"/>
+      <c r="A68" s="37"/>
+      <c r="B68" s="40">
+        <v>44472</v>
+      </c>
+      <c r="C68" s="42">
+        <v>1</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F68" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="G68" s="58" t="s">
+        <v>13</v>
+      </c>
+      <c r="H68" s="14" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="35"/>
-      <c r="B69" s="38"/>
-      <c r="C69" s="43"/>
-      <c r="D69" s="10"/>
-      <c r="E69" s="11"/>
-      <c r="F69" s="46"/>
-      <c r="G69" s="46"/>
-      <c r="H69" s="12"/>
+      <c r="A69" s="36"/>
+      <c r="B69" s="41"/>
+      <c r="C69" s="41"/>
+      <c r="D69" s="6"/>
+      <c r="E69" s="27"/>
+      <c r="F69" s="47"/>
+      <c r="G69" s="41"/>
+      <c r="H69" s="13"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="37"/>
-      <c r="B70" s="40"/>
-      <c r="C70" s="42"/>
-      <c r="D70" s="4"/>
-      <c r="E70" s="3"/>
-      <c r="F70" s="44"/>
-      <c r="G70" s="44"/>
-      <c r="H70" s="14"/>
+      <c r="A70" s="37">
+        <v>28</v>
+      </c>
+      <c r="B70" s="38">
+        <v>44473</v>
+      </c>
+      <c r="C70" s="42">
+        <v>2</v>
+      </c>
+      <c r="D70" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F70" s="46" t="s">
+        <v>130</v>
+      </c>
+      <c r="G70" s="70" t="s">
+        <v>13</v>
+      </c>
+      <c r="H70" s="14" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="36"/>
@@ -2470,94 +2560,138 @@
       <c r="H71" s="13"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="35"/>
-      <c r="B72" s="38"/>
-      <c r="C72" s="43"/>
-      <c r="D72" s="10"/>
-      <c r="E72" s="11"/>
-      <c r="F72" s="46"/>
-      <c r="G72" s="46"/>
-      <c r="H72" s="12"/>
+      <c r="A72" s="35">
+        <v>29</v>
+      </c>
+      <c r="B72" s="38">
+        <v>44474</v>
+      </c>
+      <c r="C72" s="43">
+        <v>1</v>
+      </c>
+      <c r="D72" s="75" t="s">
+        <v>131</v>
+      </c>
+      <c r="E72" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F72" s="46" t="s">
+        <v>132</v>
+      </c>
+      <c r="G72" s="70" t="s">
+        <v>13</v>
+      </c>
+      <c r="H72" s="12" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="37"/>
-      <c r="B73" s="40"/>
+      <c r="B73" s="42"/>
       <c r="C73" s="42"/>
-      <c r="D73" s="4"/>
-      <c r="E73" s="3"/>
-      <c r="F73" s="44"/>
-      <c r="G73" s="44"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="19"/>
+      <c r="F73" s="48"/>
+      <c r="G73" s="42"/>
       <c r="H73" s="14"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="36"/>
-      <c r="B74" s="41"/>
-      <c r="C74" s="41"/>
-      <c r="D74" s="6"/>
-      <c r="E74" s="27"/>
-      <c r="F74" s="47"/>
-      <c r="G74" s="41"/>
-      <c r="H74" s="13"/>
+      <c r="A74" s="35">
+        <v>30</v>
+      </c>
+      <c r="B74" s="54">
+        <v>44475</v>
+      </c>
+      <c r="C74" s="35">
+        <v>2</v>
+      </c>
+      <c r="D74" s="78" t="s">
+        <v>134</v>
+      </c>
+      <c r="E74" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F74" s="46" t="s">
+        <v>136</v>
+      </c>
+      <c r="G74" s="60" t="s">
+        <v>137</v>
+      </c>
+      <c r="H74" s="12" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="35"/>
-      <c r="B75" s="38"/>
-      <c r="C75" s="43"/>
-      <c r="D75" s="10"/>
-      <c r="E75" s="11"/>
-      <c r="F75" s="46"/>
-      <c r="G75" s="46"/>
-      <c r="H75" s="12"/>
+      <c r="A75" s="37">
+        <v>30</v>
+      </c>
+      <c r="B75" s="55">
+        <v>44475</v>
+      </c>
+      <c r="C75" s="37">
+        <v>2</v>
+      </c>
+      <c r="D75" s="79" t="s">
+        <v>138</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F75" s="44"/>
+      <c r="G75" s="70"/>
+      <c r="H75" s="14" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" s="37"/>
-      <c r="B76" s="40"/>
-      <c r="C76" s="42"/>
-      <c r="D76" s="4"/>
-      <c r="E76" s="3"/>
-      <c r="F76" s="44"/>
-      <c r="G76" s="44"/>
-      <c r="H76" s="14"/>
+      <c r="A76" s="36"/>
+      <c r="B76" s="36"/>
+      <c r="C76" s="36"/>
+      <c r="D76" s="66"/>
+      <c r="E76" s="27"/>
+      <c r="F76" s="47"/>
+      <c r="G76" s="36"/>
+      <c r="H76" s="13"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77" s="36"/>
-      <c r="B77" s="41"/>
-      <c r="C77" s="41"/>
-      <c r="D77" s="6"/>
-      <c r="E77" s="27"/>
-      <c r="F77" s="47"/>
-      <c r="G77" s="41"/>
-      <c r="H77" s="13"/>
+      <c r="A77" s="37"/>
+      <c r="B77" s="40"/>
+      <c r="C77" s="42"/>
+      <c r="D77" s="4"/>
+      <c r="E77" s="3"/>
+      <c r="F77" s="44"/>
+      <c r="G77" s="44"/>
+      <c r="H77" s="14"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" s="35"/>
-      <c r="B78" s="38"/>
-      <c r="C78" s="43"/>
-      <c r="D78" s="10"/>
-      <c r="E78" s="11"/>
-      <c r="F78" s="46"/>
-      <c r="G78" s="46"/>
-      <c r="H78" s="12"/>
+      <c r="A78" s="36"/>
+      <c r="B78" s="41"/>
+      <c r="C78" s="41"/>
+      <c r="D78" s="6"/>
+      <c r="E78" s="27"/>
+      <c r="F78" s="47"/>
+      <c r="G78" s="41"/>
+      <c r="H78" s="13"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" s="36"/>
-      <c r="B79" s="41"/>
-      <c r="C79" s="41"/>
-      <c r="D79" s="6"/>
-      <c r="E79" s="27"/>
-      <c r="F79" s="47"/>
-      <c r="G79" s="41"/>
-      <c r="H79" s="13"/>
+      <c r="A79" s="35"/>
+      <c r="B79" s="38"/>
+      <c r="C79" s="43"/>
+      <c r="D79" s="10"/>
+      <c r="E79" s="11"/>
+      <c r="F79" s="46"/>
+      <c r="G79" s="46"/>
+      <c r="H79" s="12"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80" s="35"/>
-      <c r="B80" s="38"/>
-      <c r="C80" s="43"/>
-      <c r="D80" s="10"/>
-      <c r="E80" s="11"/>
-      <c r="F80" s="46"/>
-      <c r="G80" s="46"/>
-      <c r="H80" s="12"/>
+      <c r="A80" s="37"/>
+      <c r="B80" s="40"/>
+      <c r="C80" s="42"/>
+      <c r="D80" s="4"/>
+      <c r="E80" s="3"/>
+      <c r="F80" s="44"/>
+      <c r="G80" s="44"/>
+      <c r="H80" s="14"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="37"/>
@@ -2570,144 +2704,144 @@
       <c r="H81" s="14"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" s="37"/>
-      <c r="B82" s="40"/>
-      <c r="C82" s="42"/>
-      <c r="D82" s="4"/>
-      <c r="E82" s="3"/>
-      <c r="F82" s="44"/>
-      <c r="G82" s="44"/>
-      <c r="H82" s="14"/>
+      <c r="A82" s="36"/>
+      <c r="B82" s="41"/>
+      <c r="C82" s="41"/>
+      <c r="D82" s="6"/>
+      <c r="E82" s="27"/>
+      <c r="F82" s="47"/>
+      <c r="G82" s="41"/>
+      <c r="H82" s="13"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A83" s="36"/>
-      <c r="B83" s="41"/>
-      <c r="C83" s="41"/>
-      <c r="D83" s="6"/>
-      <c r="E83" s="27"/>
-      <c r="F83" s="47"/>
-      <c r="G83" s="41"/>
-      <c r="H83" s="13"/>
+      <c r="A83" s="35"/>
+      <c r="B83" s="38"/>
+      <c r="C83" s="43"/>
+      <c r="D83" s="10"/>
+      <c r="E83" s="11"/>
+      <c r="F83" s="46"/>
+      <c r="G83" s="46"/>
+      <c r="H83" s="12"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84" s="35"/>
-      <c r="B84" s="38"/>
-      <c r="C84" s="43"/>
-      <c r="D84" s="10"/>
-      <c r="E84" s="11"/>
-      <c r="F84" s="46"/>
-      <c r="G84" s="46"/>
-      <c r="H84" s="12"/>
+      <c r="A84" s="36"/>
+      <c r="B84" s="41"/>
+      <c r="C84" s="41"/>
+      <c r="D84" s="6"/>
+      <c r="E84" s="27"/>
+      <c r="F84" s="47"/>
+      <c r="G84" s="41"/>
+      <c r="H84" s="13"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85" s="36"/>
-      <c r="B85" s="41"/>
-      <c r="C85" s="41"/>
-      <c r="D85" s="6"/>
-      <c r="E85" s="27"/>
-      <c r="F85" s="47"/>
-      <c r="G85" s="41"/>
-      <c r="H85" s="13"/>
+      <c r="A85" s="35"/>
+      <c r="B85" s="38"/>
+      <c r="C85" s="43"/>
+      <c r="D85" s="10"/>
+      <c r="E85" s="11"/>
+      <c r="F85" s="46"/>
+      <c r="G85" s="46"/>
+      <c r="H85" s="12"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86" s="35"/>
-      <c r="B86" s="38"/>
-      <c r="C86" s="43"/>
-      <c r="D86" s="10"/>
-      <c r="E86" s="11"/>
-      <c r="F86" s="46"/>
-      <c r="G86" s="46"/>
-      <c r="H86" s="12"/>
+      <c r="A86" s="37"/>
+      <c r="B86" s="40"/>
+      <c r="C86" s="42"/>
+      <c r="D86" s="4"/>
+      <c r="E86" s="3"/>
+      <c r="F86" s="44"/>
+      <c r="G86" s="44"/>
+      <c r="H86" s="14"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A87" s="37"/>
-      <c r="B87" s="40"/>
-      <c r="C87" s="42"/>
-      <c r="D87" s="4"/>
-      <c r="E87" s="3"/>
-      <c r="F87" s="44"/>
-      <c r="G87" s="44"/>
-      <c r="H87" s="14"/>
+      <c r="A87" s="36"/>
+      <c r="B87" s="41"/>
+      <c r="C87" s="41"/>
+      <c r="D87" s="6"/>
+      <c r="E87" s="27"/>
+      <c r="F87" s="47"/>
+      <c r="G87" s="41"/>
+      <c r="H87" s="13"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88" s="36"/>
-      <c r="B88" s="41"/>
-      <c r="C88" s="41"/>
-      <c r="D88" s="6"/>
-      <c r="E88" s="27"/>
-      <c r="F88" s="47"/>
-      <c r="G88" s="41"/>
-      <c r="H88" s="13"/>
+      <c r="A88" s="35"/>
+      <c r="B88" s="38"/>
+      <c r="C88" s="43"/>
+      <c r="D88" s="10"/>
+      <c r="E88" s="11"/>
+      <c r="F88" s="46"/>
+      <c r="G88" s="46"/>
+      <c r="H88" s="12"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A89" s="35"/>
-      <c r="B89" s="38"/>
-      <c r="C89" s="43"/>
-      <c r="D89" s="10"/>
-      <c r="E89" s="11"/>
-      <c r="F89" s="46"/>
-      <c r="G89" s="46"/>
-      <c r="H89" s="12"/>
+      <c r="A89" s="36"/>
+      <c r="B89" s="41"/>
+      <c r="C89" s="41"/>
+      <c r="D89" s="6"/>
+      <c r="E89" s="27"/>
+      <c r="F89" s="47"/>
+      <c r="G89" s="41"/>
+      <c r="H89" s="13"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90" s="36"/>
-      <c r="B90" s="41"/>
-      <c r="C90" s="41"/>
-      <c r="D90" s="6"/>
-      <c r="E90" s="27"/>
-      <c r="F90" s="47"/>
-      <c r="G90" s="41"/>
-      <c r="H90" s="13"/>
+      <c r="A90" s="35"/>
+      <c r="B90" s="38"/>
+      <c r="C90" s="43"/>
+      <c r="D90" s="10"/>
+      <c r="E90" s="11"/>
+      <c r="F90" s="46"/>
+      <c r="G90" s="46"/>
+      <c r="H90" s="12"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91" s="35"/>
-      <c r="B91" s="38"/>
-      <c r="C91" s="43"/>
-      <c r="D91" s="10"/>
-      <c r="E91" s="11"/>
-      <c r="F91" s="46"/>
-      <c r="G91" s="46"/>
-      <c r="H91" s="12"/>
+      <c r="A91" s="37"/>
+      <c r="B91" s="40"/>
+      <c r="C91" s="42"/>
+      <c r="D91" s="4"/>
+      <c r="E91" s="3"/>
+      <c r="F91" s="44"/>
+      <c r="G91" s="44"/>
+      <c r="H91" s="14"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A92" s="37"/>
-      <c r="B92" s="40"/>
-      <c r="C92" s="42"/>
-      <c r="D92" s="4"/>
-      <c r="E92" s="3"/>
-      <c r="F92" s="44"/>
-      <c r="G92" s="44"/>
-      <c r="H92" s="14"/>
+      <c r="A92" s="36"/>
+      <c r="B92" s="41"/>
+      <c r="C92" s="41"/>
+      <c r="D92" s="6"/>
+      <c r="E92" s="27"/>
+      <c r="F92" s="47"/>
+      <c r="G92" s="41"/>
+      <c r="H92" s="13"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93" s="36"/>
-      <c r="B93" s="41"/>
-      <c r="C93" s="41"/>
-      <c r="D93" s="6"/>
-      <c r="E93" s="27"/>
-      <c r="F93" s="47"/>
-      <c r="G93" s="41"/>
-      <c r="H93" s="13"/>
+      <c r="A93" s="35"/>
+      <c r="B93" s="38"/>
+      <c r="C93" s="43"/>
+      <c r="D93" s="10"/>
+      <c r="E93" s="11"/>
+      <c r="F93" s="46"/>
+      <c r="G93" s="46"/>
+      <c r="H93" s="12"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A94" s="35"/>
-      <c r="B94" s="38"/>
-      <c r="C94" s="43"/>
-      <c r="D94" s="10"/>
-      <c r="E94" s="11"/>
-      <c r="F94" s="46"/>
-      <c r="G94" s="46"/>
-      <c r="H94" s="12"/>
+      <c r="A94" s="36"/>
+      <c r="B94" s="41"/>
+      <c r="C94" s="41"/>
+      <c r="D94" s="6"/>
+      <c r="E94" s="27"/>
+      <c r="F94" s="47"/>
+      <c r="G94" s="41"/>
+      <c r="H94" s="13"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A95" s="36"/>
-      <c r="B95" s="41"/>
-      <c r="C95" s="41"/>
-      <c r="D95" s="6"/>
-      <c r="E95" s="27"/>
-      <c r="F95" s="47"/>
-      <c r="G95" s="41"/>
-      <c r="H95" s="13"/>
+      <c r="A95" s="37"/>
+      <c r="B95" s="40"/>
+      <c r="C95" s="42"/>
+      <c r="D95" s="4"/>
+      <c r="E95" s="3"/>
+      <c r="F95" s="44"/>
+      <c r="G95" s="44"/>
+      <c r="H95" s="17"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="37"/>
@@ -2721,343 +2855,343 @@
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="37"/>
-      <c r="B97" s="40"/>
+      <c r="B97" s="42"/>
       <c r="C97" s="42"/>
-      <c r="D97" s="4"/>
-      <c r="E97" s="3"/>
-      <c r="F97" s="44"/>
-      <c r="G97" s="44"/>
+      <c r="D97" s="2"/>
+      <c r="E97" s="19"/>
+      <c r="F97" s="48"/>
+      <c r="G97" s="42"/>
       <c r="H97" s="17"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A98" s="37"/>
-      <c r="B98" s="42"/>
-      <c r="C98" s="42"/>
-      <c r="D98" s="2"/>
-      <c r="E98" s="19"/>
-      <c r="F98" s="48"/>
-      <c r="G98" s="42"/>
-      <c r="H98" s="17"/>
+      <c r="A98" s="35"/>
+      <c r="B98" s="38"/>
+      <c r="C98" s="43"/>
+      <c r="D98" s="10"/>
+      <c r="E98" s="11"/>
+      <c r="F98" s="46"/>
+      <c r="G98" s="46"/>
+      <c r="H98" s="12"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A99" s="35"/>
-      <c r="B99" s="38"/>
-      <c r="C99" s="43"/>
-      <c r="D99" s="10"/>
-      <c r="E99" s="11"/>
-      <c r="F99" s="46"/>
-      <c r="G99" s="46"/>
-      <c r="H99" s="12"/>
+      <c r="A99" s="37"/>
+      <c r="B99" s="40"/>
+      <c r="C99" s="42"/>
+      <c r="D99" s="4"/>
+      <c r="E99" s="3"/>
+      <c r="F99" s="44"/>
+      <c r="G99" s="44"/>
+      <c r="H99" s="14"/>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A100" s="37"/>
-      <c r="B100" s="40"/>
-      <c r="C100" s="42"/>
-      <c r="D100" s="4"/>
-      <c r="E100" s="3"/>
-      <c r="F100" s="44"/>
-      <c r="G100" s="44"/>
-      <c r="H100" s="14"/>
+      <c r="A100" s="36"/>
+      <c r="B100" s="39"/>
+      <c r="C100" s="41"/>
+      <c r="D100" s="8"/>
+      <c r="E100" s="7"/>
+      <c r="F100" s="45"/>
+      <c r="G100" s="45"/>
+      <c r="H100" s="13"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A101" s="36"/>
-      <c r="B101" s="39"/>
-      <c r="C101" s="41"/>
-      <c r="D101" s="8"/>
-      <c r="E101" s="7"/>
-      <c r="F101" s="45"/>
-      <c r="G101" s="45"/>
-      <c r="H101" s="13"/>
+      <c r="A101" s="35"/>
+      <c r="B101" s="38"/>
+      <c r="C101" s="43"/>
+      <c r="D101" s="10"/>
+      <c r="E101" s="11"/>
+      <c r="F101" s="46"/>
+      <c r="G101" s="46"/>
+      <c r="H101" s="12"/>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A102" s="35"/>
-      <c r="B102" s="38"/>
-      <c r="C102" s="43"/>
-      <c r="D102" s="10"/>
-      <c r="E102" s="11"/>
-      <c r="F102" s="46"/>
-      <c r="G102" s="46"/>
-      <c r="H102" s="12"/>
+      <c r="A102" s="36"/>
+      <c r="B102" s="39"/>
+      <c r="C102" s="41"/>
+      <c r="D102" s="8"/>
+      <c r="E102" s="7"/>
+      <c r="F102" s="45"/>
+      <c r="G102" s="45"/>
+      <c r="H102" s="13"/>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A103" s="36"/>
-      <c r="B103" s="39"/>
-      <c r="C103" s="41"/>
-      <c r="D103" s="8"/>
-      <c r="E103" s="7"/>
-      <c r="F103" s="45"/>
-      <c r="G103" s="45"/>
-      <c r="H103" s="13"/>
+      <c r="A103" s="35"/>
+      <c r="B103" s="38"/>
+      <c r="C103" s="43"/>
+      <c r="D103" s="10"/>
+      <c r="E103" s="11"/>
+      <c r="F103" s="46"/>
+      <c r="G103" s="46"/>
+      <c r="H103" s="12"/>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A104" s="35"/>
-      <c r="B104" s="38"/>
-      <c r="C104" s="43"/>
-      <c r="D104" s="10"/>
-      <c r="E104" s="11"/>
-      <c r="F104" s="46"/>
-      <c r="G104" s="46"/>
-      <c r="H104" s="12"/>
+      <c r="A104" s="37"/>
+      <c r="B104" s="40"/>
+      <c r="C104" s="42"/>
+      <c r="D104" s="4"/>
+      <c r="E104" s="3"/>
+      <c r="F104" s="44"/>
+      <c r="G104" s="44"/>
+      <c r="H104" s="14"/>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A105" s="37"/>
-      <c r="B105" s="40"/>
-      <c r="C105" s="42"/>
-      <c r="D105" s="4"/>
-      <c r="E105" s="3"/>
-      <c r="F105" s="44"/>
-      <c r="G105" s="44"/>
-      <c r="H105" s="14"/>
+      <c r="A105" s="36"/>
+      <c r="B105" s="39"/>
+      <c r="C105" s="41"/>
+      <c r="D105" s="8"/>
+      <c r="E105" s="7"/>
+      <c r="F105" s="45"/>
+      <c r="G105" s="45"/>
+      <c r="H105" s="13"/>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A106" s="36"/>
-      <c r="B106" s="39"/>
-      <c r="C106" s="41"/>
-      <c r="D106" s="8"/>
-      <c r="E106" s="7"/>
-      <c r="F106" s="45"/>
-      <c r="G106" s="45"/>
-      <c r="H106" s="13"/>
+      <c r="A106" s="35"/>
+      <c r="B106" s="38"/>
+      <c r="C106" s="43"/>
+      <c r="D106" s="10"/>
+      <c r="E106" s="11"/>
+      <c r="F106" s="46"/>
+      <c r="G106" s="46"/>
+      <c r="H106" s="12"/>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A107" s="35"/>
-      <c r="B107" s="38"/>
-      <c r="C107" s="43"/>
-      <c r="D107" s="10"/>
-      <c r="E107" s="11"/>
-      <c r="F107" s="46"/>
-      <c r="G107" s="46"/>
-      <c r="H107" s="12"/>
+      <c r="A107" s="37"/>
+      <c r="B107" s="40"/>
+      <c r="C107" s="42"/>
+      <c r="D107" s="4"/>
+      <c r="E107" s="3"/>
+      <c r="F107" s="44"/>
+      <c r="G107" s="44"/>
+      <c r="H107" s="14"/>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A108" s="37"/>
-      <c r="B108" s="40"/>
-      <c r="C108" s="42"/>
-      <c r="D108" s="4"/>
-      <c r="E108" s="3"/>
-      <c r="F108" s="44"/>
-      <c r="G108" s="44"/>
-      <c r="H108" s="14"/>
+      <c r="A108" s="36"/>
+      <c r="B108" s="39"/>
+      <c r="C108" s="41"/>
+      <c r="D108" s="8"/>
+      <c r="E108" s="7"/>
+      <c r="F108" s="45"/>
+      <c r="G108" s="45"/>
+      <c r="H108" s="13"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A109" s="36"/>
-      <c r="B109" s="39"/>
-      <c r="C109" s="41"/>
-      <c r="D109" s="8"/>
-      <c r="E109" s="7"/>
-      <c r="F109" s="45"/>
-      <c r="G109" s="45"/>
-      <c r="H109" s="13"/>
+      <c r="A109" s="35"/>
+      <c r="B109" s="38"/>
+      <c r="C109" s="43"/>
+      <c r="D109" s="10"/>
+      <c r="E109" s="11"/>
+      <c r="F109" s="46"/>
+      <c r="G109" s="46"/>
+      <c r="H109" s="12"/>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A110" s="35"/>
-      <c r="B110" s="38"/>
-      <c r="C110" s="43"/>
-      <c r="D110" s="10"/>
-      <c r="E110" s="11"/>
-      <c r="F110" s="46"/>
-      <c r="G110" s="46"/>
-      <c r="H110" s="12"/>
+      <c r="A110" s="37"/>
+      <c r="B110" s="40"/>
+      <c r="C110" s="42"/>
+      <c r="D110" s="4"/>
+      <c r="E110" s="3"/>
+      <c r="F110" s="44"/>
+      <c r="G110" s="44"/>
+      <c r="H110" s="14"/>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A111" s="37"/>
-      <c r="B111" s="40"/>
-      <c r="C111" s="42"/>
-      <c r="D111" s="4"/>
-      <c r="E111" s="3"/>
-      <c r="F111" s="44"/>
-      <c r="G111" s="44"/>
-      <c r="H111" s="14"/>
+      <c r="A111" s="36"/>
+      <c r="B111" s="39"/>
+      <c r="C111" s="41"/>
+      <c r="D111" s="8"/>
+      <c r="E111" s="7"/>
+      <c r="F111" s="45"/>
+      <c r="G111" s="45"/>
+      <c r="H111" s="13"/>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A112" s="36"/>
-      <c r="B112" s="39"/>
-      <c r="C112" s="41"/>
-      <c r="D112" s="8"/>
-      <c r="E112" s="7"/>
-      <c r="F112" s="45"/>
-      <c r="G112" s="45"/>
-      <c r="H112" s="13"/>
+      <c r="A112" s="35"/>
+      <c r="B112" s="38"/>
+      <c r="C112" s="43"/>
+      <c r="D112" s="10"/>
+      <c r="E112" s="11"/>
+      <c r="F112" s="46"/>
+      <c r="G112" s="46"/>
+      <c r="H112" s="12"/>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A113" s="35"/>
-      <c r="B113" s="38"/>
-      <c r="C113" s="43"/>
-      <c r="D113" s="10"/>
-      <c r="E113" s="11"/>
-      <c r="F113" s="46"/>
-      <c r="G113" s="46"/>
-      <c r="H113" s="12"/>
+      <c r="A113" s="36"/>
+      <c r="B113" s="39"/>
+      <c r="C113" s="41"/>
+      <c r="D113" s="8"/>
+      <c r="E113" s="7"/>
+      <c r="F113" s="45"/>
+      <c r="G113" s="45"/>
+      <c r="H113" s="13"/>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A114" s="36"/>
-      <c r="B114" s="39"/>
-      <c r="C114" s="41"/>
-      <c r="D114" s="8"/>
-      <c r="E114" s="7"/>
-      <c r="F114" s="45"/>
-      <c r="G114" s="45"/>
-      <c r="H114" s="13"/>
+      <c r="A114" s="35"/>
+      <c r="B114" s="38"/>
+      <c r="C114" s="43"/>
+      <c r="D114" s="10"/>
+      <c r="E114" s="11"/>
+      <c r="F114" s="46"/>
+      <c r="G114" s="46"/>
+      <c r="H114" s="12"/>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A115" s="35"/>
-      <c r="B115" s="38"/>
-      <c r="C115" s="43"/>
-      <c r="D115" s="10"/>
-      <c r="E115" s="11"/>
-      <c r="F115" s="46"/>
-      <c r="G115" s="46"/>
-      <c r="H115" s="12"/>
+      <c r="A115" s="37"/>
+      <c r="B115" s="40"/>
+      <c r="C115" s="42"/>
+      <c r="D115" s="4"/>
+      <c r="E115" s="3"/>
+      <c r="F115" s="44"/>
+      <c r="G115" s="44"/>
+      <c r="H115" s="14"/>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A116" s="37"/>
-      <c r="B116" s="40"/>
-      <c r="C116" s="42"/>
-      <c r="D116" s="4"/>
-      <c r="E116" s="3"/>
-      <c r="F116" s="44"/>
-      <c r="G116" s="44"/>
-      <c r="H116" s="14"/>
+      <c r="A116" s="36"/>
+      <c r="B116" s="39"/>
+      <c r="C116" s="41"/>
+      <c r="D116" s="8"/>
+      <c r="E116" s="7"/>
+      <c r="F116" s="45"/>
+      <c r="G116" s="45"/>
+      <c r="H116" s="13"/>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A117" s="36"/>
-      <c r="B117" s="39"/>
-      <c r="C117" s="41"/>
-      <c r="D117" s="8"/>
-      <c r="E117" s="7"/>
-      <c r="F117" s="45"/>
-      <c r="G117" s="45"/>
-      <c r="H117" s="13"/>
+      <c r="A117" s="35"/>
+      <c r="B117" s="38"/>
+      <c r="C117" s="43"/>
+      <c r="D117" s="10"/>
+      <c r="E117" s="11"/>
+      <c r="F117" s="46"/>
+      <c r="G117" s="46"/>
+      <c r="H117" s="12"/>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A118" s="35"/>
-      <c r="B118" s="38"/>
-      <c r="C118" s="43"/>
-      <c r="D118" s="10"/>
-      <c r="E118" s="11"/>
-      <c r="F118" s="46"/>
-      <c r="G118" s="46"/>
-      <c r="H118" s="12"/>
+      <c r="A118" s="37"/>
+      <c r="B118" s="40"/>
+      <c r="C118" s="42"/>
+      <c r="D118" s="4"/>
+      <c r="E118" s="3"/>
+      <c r="F118" s="44"/>
+      <c r="G118" s="44"/>
+      <c r="H118" s="14"/>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A119" s="37"/>
-      <c r="B119" s="40"/>
-      <c r="C119" s="42"/>
-      <c r="D119" s="4"/>
-      <c r="E119" s="3"/>
-      <c r="F119" s="44"/>
-      <c r="G119" s="44"/>
-      <c r="H119" s="14"/>
+      <c r="A119" s="36"/>
+      <c r="B119" s="39"/>
+      <c r="C119" s="41"/>
+      <c r="D119" s="8"/>
+      <c r="E119" s="7"/>
+      <c r="F119" s="45"/>
+      <c r="G119" s="45"/>
+      <c r="H119" s="13"/>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A120" s="36"/>
-      <c r="B120" s="39"/>
-      <c r="C120" s="41"/>
-      <c r="D120" s="8"/>
-      <c r="E120" s="7"/>
-      <c r="F120" s="45"/>
-      <c r="G120" s="45"/>
-      <c r="H120" s="13"/>
+      <c r="A120" s="35"/>
+      <c r="B120" s="38"/>
+      <c r="C120" s="43"/>
+      <c r="D120" s="10"/>
+      <c r="E120" s="11"/>
+      <c r="F120" s="46"/>
+      <c r="G120" s="46"/>
+      <c r="H120" s="12"/>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A121" s="35"/>
-      <c r="B121" s="38"/>
-      <c r="C121" s="43"/>
-      <c r="D121" s="10"/>
-      <c r="E121" s="11"/>
-      <c r="F121" s="46"/>
-      <c r="G121" s="46"/>
-      <c r="H121" s="12"/>
+      <c r="A121" s="37"/>
+      <c r="B121" s="40"/>
+      <c r="C121" s="42"/>
+      <c r="D121" s="4"/>
+      <c r="E121" s="3"/>
+      <c r="F121" s="44"/>
+      <c r="G121" s="44"/>
+      <c r="H121" s="14"/>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A122" s="37"/>
-      <c r="B122" s="40"/>
-      <c r="C122" s="42"/>
-      <c r="D122" s="4"/>
-      <c r="E122" s="3"/>
-      <c r="F122" s="44"/>
-      <c r="G122" s="44"/>
-      <c r="H122" s="14"/>
+      <c r="A122" s="36"/>
+      <c r="B122" s="39"/>
+      <c r="C122" s="41"/>
+      <c r="D122" s="8"/>
+      <c r="E122" s="7"/>
+      <c r="F122" s="45"/>
+      <c r="G122" s="45"/>
+      <c r="H122" s="13"/>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A123" s="36"/>
-      <c r="B123" s="39"/>
-      <c r="C123" s="41"/>
-      <c r="D123" s="8"/>
-      <c r="E123" s="7"/>
-      <c r="F123" s="45"/>
-      <c r="G123" s="45"/>
-      <c r="H123" s="13"/>
+      <c r="A123" s="35"/>
+      <c r="B123" s="38"/>
+      <c r="C123" s="43"/>
+      <c r="D123" s="10"/>
+      <c r="E123" s="11"/>
+      <c r="F123" s="46"/>
+      <c r="G123" s="46"/>
+      <c r="H123" s="12"/>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A124" s="35"/>
-      <c r="B124" s="38"/>
-      <c r="C124" s="43"/>
-      <c r="D124" s="10"/>
-      <c r="E124" s="11"/>
-      <c r="F124" s="46"/>
-      <c r="G124" s="46"/>
-      <c r="H124" s="12"/>
+      <c r="A124" s="37"/>
+      <c r="B124" s="40"/>
+      <c r="C124" s="42"/>
+      <c r="D124" s="4"/>
+      <c r="E124" s="3"/>
+      <c r="F124" s="44"/>
+      <c r="G124" s="44"/>
+      <c r="H124" s="14"/>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A125" s="37"/>
-      <c r="B125" s="40"/>
-      <c r="C125" s="42"/>
-      <c r="D125" s="4"/>
-      <c r="E125" s="3"/>
-      <c r="F125" s="44"/>
-      <c r="G125" s="44"/>
-      <c r="H125" s="14"/>
+      <c r="A125" s="36"/>
+      <c r="B125" s="39"/>
+      <c r="C125" s="41"/>
+      <c r="D125" s="8"/>
+      <c r="E125" s="7"/>
+      <c r="F125" s="45"/>
+      <c r="G125" s="45"/>
+      <c r="H125" s="13"/>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A126" s="36"/>
-      <c r="B126" s="39"/>
-      <c r="C126" s="41"/>
-      <c r="D126" s="8"/>
-      <c r="E126" s="7"/>
-      <c r="F126" s="45"/>
-      <c r="G126" s="45"/>
-      <c r="H126" s="13"/>
+      <c r="A126" s="35"/>
+      <c r="B126" s="38"/>
+      <c r="C126" s="43"/>
+      <c r="D126" s="10"/>
+      <c r="E126" s="11"/>
+      <c r="F126" s="46"/>
+      <c r="G126" s="46"/>
+      <c r="H126" s="12"/>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A127" s="35"/>
-      <c r="B127" s="38"/>
-      <c r="C127" s="43"/>
-      <c r="D127" s="10"/>
-      <c r="E127" s="11"/>
-      <c r="F127" s="46"/>
-      <c r="G127" s="46"/>
-      <c r="H127" s="12"/>
+      <c r="A127" s="37"/>
+      <c r="B127" s="40"/>
+      <c r="C127" s="42"/>
+      <c r="D127" s="4"/>
+      <c r="E127" s="3"/>
+      <c r="F127" s="44"/>
+      <c r="G127" s="44"/>
+      <c r="H127" s="14"/>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A128" s="37"/>
-      <c r="B128" s="40"/>
-      <c r="C128" s="42"/>
-      <c r="D128" s="4"/>
-      <c r="E128" s="3"/>
-      <c r="F128" s="44"/>
-      <c r="G128" s="44"/>
-      <c r="H128" s="14"/>
+      <c r="A128" s="36"/>
+      <c r="B128" s="39"/>
+      <c r="C128" s="41"/>
+      <c r="D128" s="8"/>
+      <c r="E128" s="7"/>
+      <c r="F128" s="45"/>
+      <c r="G128" s="45"/>
+      <c r="H128" s="13"/>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A129" s="36"/>
-      <c r="B129" s="39"/>
-      <c r="C129" s="41"/>
-      <c r="D129" s="8"/>
-      <c r="E129" s="7"/>
-      <c r="F129" s="45"/>
-      <c r="G129" s="45"/>
-      <c r="H129" s="13"/>
+      <c r="A129" s="35"/>
+      <c r="B129" s="38"/>
+      <c r="C129" s="43"/>
+      <c r="D129" s="10"/>
+      <c r="E129" s="11"/>
+      <c r="F129" s="46"/>
+      <c r="G129" s="46"/>
+      <c r="H129" s="12"/>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A130" s="35"/>
-      <c r="B130" s="38"/>
-      <c r="C130" s="43"/>
-      <c r="D130" s="10"/>
-      <c r="E130" s="11"/>
-      <c r="F130" s="46"/>
-      <c r="G130" s="46"/>
-      <c r="H130" s="12"/>
+      <c r="A130" s="37"/>
+      <c r="B130" s="40"/>
+      <c r="C130" s="42"/>
+      <c r="D130" s="4"/>
+      <c r="E130" s="3"/>
+      <c r="F130" s="44"/>
+      <c r="G130" s="44"/>
+      <c r="H130" s="14"/>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="37"/>
@@ -3070,24 +3204,24 @@
       <c r="H131" s="14"/>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A132" s="37"/>
-      <c r="B132" s="40"/>
-      <c r="C132" s="42"/>
-      <c r="D132" s="4"/>
-      <c r="E132" s="3"/>
-      <c r="F132" s="44"/>
-      <c r="G132" s="44"/>
-      <c r="H132" s="14"/>
+      <c r="A132" s="35"/>
+      <c r="B132" s="38"/>
+      <c r="C132" s="43"/>
+      <c r="D132" s="10"/>
+      <c r="E132" s="11"/>
+      <c r="F132" s="46"/>
+      <c r="G132" s="46"/>
+      <c r="H132" s="12"/>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A133" s="35"/>
-      <c r="B133" s="38"/>
-      <c r="C133" s="43"/>
-      <c r="D133" s="10"/>
-      <c r="E133" s="11"/>
-      <c r="F133" s="46"/>
-      <c r="G133" s="46"/>
-      <c r="H133" s="12"/>
+      <c r="A133" s="37"/>
+      <c r="B133" s="40"/>
+      <c r="C133" s="42"/>
+      <c r="D133" s="4"/>
+      <c r="E133" s="3"/>
+      <c r="F133" s="44"/>
+      <c r="G133" s="44"/>
+      <c r="H133" s="14"/>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="37"/>
@@ -3100,84 +3234,83 @@
       <c r="H134" s="14"/>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A135" s="37"/>
-      <c r="B135" s="40"/>
-      <c r="C135" s="42"/>
-      <c r="D135" s="4"/>
-      <c r="E135" s="3"/>
-      <c r="F135" s="44"/>
-      <c r="G135" s="44"/>
-      <c r="H135" s="14"/>
+      <c r="A135" s="35"/>
+      <c r="B135" s="54"/>
+      <c r="C135" s="43"/>
+      <c r="D135" s="57"/>
+      <c r="E135" s="11"/>
+      <c r="F135" s="53"/>
+      <c r="G135" s="46"/>
+      <c r="H135" s="12"/>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A136" s="35"/>
-      <c r="B136" s="54"/>
-      <c r="C136" s="43"/>
-      <c r="D136" s="57"/>
-      <c r="E136" s="11"/>
-      <c r="F136" s="53"/>
-      <c r="G136" s="46"/>
-      <c r="H136" s="12"/>
+      <c r="A136" s="37"/>
+      <c r="B136" s="55"/>
+      <c r="C136" s="42"/>
+      <c r="D136" s="58"/>
+      <c r="E136" s="3"/>
+      <c r="F136" s="44"/>
+      <c r="G136" s="44"/>
+      <c r="H136" s="14"/>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A137" s="37"/>
-      <c r="B137" s="55"/>
-      <c r="C137" s="42"/>
-      <c r="D137" s="58"/>
-      <c r="E137" s="3"/>
-      <c r="F137" s="44"/>
-      <c r="G137" s="44"/>
-      <c r="H137" s="14"/>
+      <c r="A137" s="36"/>
+      <c r="B137" s="56"/>
+      <c r="C137" s="41"/>
+      <c r="D137" s="59"/>
+      <c r="E137" s="7"/>
+      <c r="F137" s="45"/>
+      <c r="G137" s="45"/>
+      <c r="H137" s="13"/>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A138" s="36"/>
-      <c r="B138" s="56"/>
-      <c r="C138" s="41"/>
-      <c r="D138" s="59"/>
-      <c r="E138" s="7"/>
-      <c r="F138" s="45"/>
-      <c r="G138" s="45"/>
-      <c r="H138" s="13"/>
+      <c r="A138" s="35"/>
+      <c r="B138" s="54"/>
+      <c r="C138" s="43"/>
+      <c r="D138" s="57"/>
+      <c r="E138" s="11"/>
+      <c r="F138" s="53"/>
+      <c r="G138" s="44"/>
+      <c r="H138" s="12"/>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A139" s="35"/>
-      <c r="B139" s="54"/>
-      <c r="C139" s="43"/>
-      <c r="D139" s="57"/>
-      <c r="E139" s="11"/>
-      <c r="F139" s="53"/>
-      <c r="G139" s="44"/>
-      <c r="H139" s="12"/>
+      <c r="A139" s="36"/>
+      <c r="B139" s="56"/>
+      <c r="C139" s="41"/>
+      <c r="D139" s="59"/>
+      <c r="E139" s="7"/>
+      <c r="F139" s="45"/>
+      <c r="G139" s="45"/>
+      <c r="H139" s="13"/>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A140" s="36"/>
-      <c r="B140" s="56"/>
-      <c r="C140" s="41"/>
-      <c r="D140" s="59"/>
-      <c r="E140" s="7"/>
-      <c r="F140" s="45"/>
-      <c r="G140" s="45"/>
-      <c r="H140" s="13"/>
+      <c r="A140" s="35"/>
+      <c r="B140" s="54"/>
+      <c r="C140" s="43"/>
+      <c r="D140" s="57"/>
+      <c r="E140" s="11"/>
+      <c r="F140" s="53"/>
+      <c r="G140" s="44"/>
+      <c r="H140" s="12"/>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A141" s="35"/>
-      <c r="B141" s="54"/>
-      <c r="C141" s="43"/>
-      <c r="D141" s="57"/>
-      <c r="E141" s="11"/>
-      <c r="F141" s="53"/>
-      <c r="G141" s="44"/>
-      <c r="H141" s="12"/>
+      <c r="A141" s="36"/>
+      <c r="B141" s="56"/>
+      <c r="C141" s="41"/>
+      <c r="D141" s="59"/>
+      <c r="E141" s="7"/>
+      <c r="F141" s="45"/>
+      <c r="G141" s="45"/>
+      <c r="H141" s="13"/>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A142" s="36"/>
-      <c r="B142" s="56"/>
-      <c r="C142" s="41"/>
-      <c r="D142" s="59"/>
-      <c r="E142" s="7"/>
-      <c r="F142" s="45"/>
-      <c r="G142" s="45"/>
-      <c r="H142" s="13"/>
+      <c r="B142" s="1"/>
+      <c r="C142" s="2"/>
+      <c r="D142" s="4"/>
+      <c r="E142" s="3"/>
+      <c r="F142" s="4"/>
+      <c r="G142" s="4"/>
+      <c r="H142" s="17"/>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B143" s="1"/>
@@ -3394,15 +3527,6 @@
       <c r="F166" s="4"/>
       <c r="G166" s="4"/>
       <c r="H166" s="17"/>
-    </row>
-    <row r="167" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B167" s="1"/>
-      <c r="C167" s="2"/>
-      <c r="D167" s="4"/>
-      <c r="E167" s="3"/>
-      <c r="F167" s="4"/>
-      <c r="G167" s="4"/>
-      <c r="H167" s="17"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/TS Jatai Working/TTD Krama PaaraayaNam-Kramam.xlsx
+++ b/TS Jatai Working/TTD Krama PaaraayaNam-Kramam.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="142">
   <si>
     <t>Date</t>
   </si>
@@ -431,6 +431,15 @@
   </si>
   <si>
     <t>3.4.1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.4.4.1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.4.5.1 </t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=cb9zA3YG2rQ</t>
   </si>
 </sst>
 </file>
@@ -1135,7 +1144,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G75" sqref="G75"/>
+      <selection pane="bottomLeft" activeCell="D78" sqref="D78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -2622,14 +2631,12 @@
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="37">
-        <v>30</v>
-      </c>
+      <c r="A75" s="37"/>
       <c r="B75" s="55">
         <v>44475</v>
       </c>
       <c r="C75" s="37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D75" s="79" t="s">
         <v>138</v>
@@ -2637,8 +2644,12 @@
       <c r="E75" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F75" s="44"/>
-      <c r="G75" s="70"/>
+      <c r="F75" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="G75" s="58" t="s">
+        <v>13</v>
+      </c>
       <c r="H75" s="14" t="s">
         <v>135</v>
       </c>
@@ -2654,14 +2665,26 @@
       <c r="H76" s="13"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77" s="37"/>
-      <c r="B77" s="40"/>
-      <c r="C77" s="42"/>
-      <c r="D77" s="4"/>
-      <c r="E77" s="3"/>
+      <c r="A77" s="37">
+        <v>31</v>
+      </c>
+      <c r="B77" s="55">
+        <v>44476</v>
+      </c>
+      <c r="C77" s="42">
+        <v>2</v>
+      </c>
+      <c r="D77" s="78" t="s">
+        <v>140</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="F77" s="44"/>
       <c r="G77" s="44"/>
-      <c r="H77" s="14"/>
+      <c r="H77" s="14" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="36"/>

--- a/TS Jatai Working/TTD Krama PaaraayaNam-Kramam.xlsx
+++ b/TS Jatai Working/TTD Krama PaaraayaNam-Kramam.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="148">
   <si>
     <t>Date</t>
   </si>
@@ -440,6 +440,24 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=cb9zA3YG2rQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.4.10.5 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.4.11.1 </t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=RgdYeqIP7pc</t>
+  </si>
+  <si>
+    <t>11 min 10 sec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.4.11.6 </t>
+  </si>
+  <si>
+    <t>3.5.1.1</t>
   </si>
 </sst>
 </file>
@@ -1140,11 +1158,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L166"/>
+  <dimension ref="A1:L165"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D78" sqref="D78"/>
+      <selection pane="bottomLeft" activeCell="G79" sqref="G79:G81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -2680,181 +2698,211 @@
       <c r="E77" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F77" s="44"/>
-      <c r="G77" s="44"/>
+      <c r="F77" s="46" t="s">
+        <v>142</v>
+      </c>
+      <c r="G77" s="70" t="s">
+        <v>13</v>
+      </c>
       <c r="H77" s="14" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" s="36"/>
-      <c r="B78" s="41"/>
-      <c r="C78" s="41"/>
-      <c r="D78" s="6"/>
-      <c r="E78" s="27"/>
-      <c r="F78" s="47"/>
-      <c r="G78" s="41"/>
-      <c r="H78" s="13"/>
+      <c r="A78" s="37"/>
+      <c r="B78" s="42"/>
+      <c r="C78" s="42"/>
+      <c r="D78" s="2"/>
+      <c r="E78" s="19"/>
+      <c r="F78" s="48"/>
+      <c r="G78" s="42"/>
+      <c r="H78" s="14"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" s="35"/>
-      <c r="B79" s="38"/>
-      <c r="C79" s="43"/>
-      <c r="D79" s="10"/>
-      <c r="E79" s="11"/>
-      <c r="F79" s="46"/>
-      <c r="G79" s="46"/>
-      <c r="H79" s="12"/>
+      <c r="A79" s="71">
+        <v>32</v>
+      </c>
+      <c r="B79" s="54">
+        <v>44477</v>
+      </c>
+      <c r="C79" s="35">
+        <v>3</v>
+      </c>
+      <c r="D79" s="78" t="s">
+        <v>143</v>
+      </c>
+      <c r="E79" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F79" s="46" t="s">
+        <v>146</v>
+      </c>
+      <c r="G79" s="60" t="s">
+        <v>145</v>
+      </c>
+      <c r="H79" s="12" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80" s="37"/>
-      <c r="B80" s="40"/>
-      <c r="C80" s="42"/>
-      <c r="D80" s="4"/>
-      <c r="E80" s="3"/>
+      <c r="A80" s="72"/>
+      <c r="B80" s="55">
+        <v>44477</v>
+      </c>
+      <c r="C80" s="37">
+        <v>1</v>
+      </c>
+      <c r="D80" s="79" t="s">
+        <v>147</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="F80" s="44"/>
-      <c r="G80" s="44"/>
-      <c r="H80" s="14"/>
+      <c r="G80" s="70"/>
+      <c r="H80" s="14" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81" s="37"/>
-      <c r="B81" s="40"/>
-      <c r="C81" s="42"/>
-      <c r="D81" s="4"/>
-      <c r="E81" s="3"/>
-      <c r="F81" s="44"/>
-      <c r="G81" s="44"/>
-      <c r="H81" s="14"/>
+      <c r="A81" s="66"/>
+      <c r="B81" s="36"/>
+      <c r="C81" s="36"/>
+      <c r="D81" s="66"/>
+      <c r="E81" s="27"/>
+      <c r="F81" s="47"/>
+      <c r="G81" s="36"/>
+      <c r="H81" s="13"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" s="36"/>
-      <c r="B82" s="41"/>
-      <c r="C82" s="41"/>
-      <c r="D82" s="6"/>
-      <c r="E82" s="27"/>
-      <c r="F82" s="47"/>
-      <c r="G82" s="41"/>
-      <c r="H82" s="13"/>
+      <c r="A82" s="37"/>
+      <c r="B82" s="40"/>
+      <c r="C82" s="42"/>
+      <c r="D82" s="4"/>
+      <c r="E82" s="3"/>
+      <c r="F82" s="44"/>
+      <c r="G82" s="44"/>
+      <c r="H82" s="14"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A83" s="35"/>
-      <c r="B83" s="38"/>
-      <c r="C83" s="43"/>
-      <c r="D83" s="10"/>
-      <c r="E83" s="11"/>
-      <c r="F83" s="46"/>
-      <c r="G83" s="46"/>
-      <c r="H83" s="12"/>
+      <c r="A83" s="36"/>
+      <c r="B83" s="41"/>
+      <c r="C83" s="41"/>
+      <c r="D83" s="6"/>
+      <c r="E83" s="27"/>
+      <c r="F83" s="47"/>
+      <c r="G83" s="41"/>
+      <c r="H83" s="13"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84" s="36"/>
-      <c r="B84" s="41"/>
-      <c r="C84" s="41"/>
-      <c r="D84" s="6"/>
-      <c r="E84" s="27"/>
-      <c r="F84" s="47"/>
-      <c r="G84" s="41"/>
-      <c r="H84" s="13"/>
+      <c r="A84" s="35"/>
+      <c r="B84" s="38"/>
+      <c r="C84" s="43"/>
+      <c r="D84" s="10"/>
+      <c r="E84" s="11"/>
+      <c r="F84" s="46"/>
+      <c r="G84" s="46"/>
+      <c r="H84" s="12"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85" s="35"/>
-      <c r="B85" s="38"/>
-      <c r="C85" s="43"/>
-      <c r="D85" s="10"/>
-      <c r="E85" s="11"/>
-      <c r="F85" s="46"/>
-      <c r="G85" s="46"/>
-      <c r="H85" s="12"/>
+      <c r="A85" s="37"/>
+      <c r="B85" s="40"/>
+      <c r="C85" s="42"/>
+      <c r="D85" s="4"/>
+      <c r="E85" s="3"/>
+      <c r="F85" s="44"/>
+      <c r="G85" s="44"/>
+      <c r="H85" s="14"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86" s="37"/>
-      <c r="B86" s="40"/>
-      <c r="C86" s="42"/>
-      <c r="D86" s="4"/>
-      <c r="E86" s="3"/>
-      <c r="F86" s="44"/>
-      <c r="G86" s="44"/>
-      <c r="H86" s="14"/>
+      <c r="A86" s="36"/>
+      <c r="B86" s="41"/>
+      <c r="C86" s="41"/>
+      <c r="D86" s="6"/>
+      <c r="E86" s="27"/>
+      <c r="F86" s="47"/>
+      <c r="G86" s="41"/>
+      <c r="H86" s="13"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A87" s="36"/>
-      <c r="B87" s="41"/>
-      <c r="C87" s="41"/>
-      <c r="D87" s="6"/>
-      <c r="E87" s="27"/>
-      <c r="F87" s="47"/>
-      <c r="G87" s="41"/>
-      <c r="H87" s="13"/>
+      <c r="A87" s="35"/>
+      <c r="B87" s="38"/>
+      <c r="C87" s="43"/>
+      <c r="D87" s="10"/>
+      <c r="E87" s="11"/>
+      <c r="F87" s="46"/>
+      <c r="G87" s="46"/>
+      <c r="H87" s="12"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88" s="35"/>
-      <c r="B88" s="38"/>
-      <c r="C88" s="43"/>
-      <c r="D88" s="10"/>
-      <c r="E88" s="11"/>
-      <c r="F88" s="46"/>
-      <c r="G88" s="46"/>
-      <c r="H88" s="12"/>
+      <c r="A88" s="36"/>
+      <c r="B88" s="41"/>
+      <c r="C88" s="41"/>
+      <c r="D88" s="6"/>
+      <c r="E88" s="27"/>
+      <c r="F88" s="47"/>
+      <c r="G88" s="41"/>
+      <c r="H88" s="13"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A89" s="36"/>
-      <c r="B89" s="41"/>
-      <c r="C89" s="41"/>
-      <c r="D89" s="6"/>
-      <c r="E89" s="27"/>
-      <c r="F89" s="47"/>
-      <c r="G89" s="41"/>
-      <c r="H89" s="13"/>
+      <c r="A89" s="35"/>
+      <c r="B89" s="38"/>
+      <c r="C89" s="43"/>
+      <c r="D89" s="10"/>
+      <c r="E89" s="11"/>
+      <c r="F89" s="46"/>
+      <c r="G89" s="46"/>
+      <c r="H89" s="12"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90" s="35"/>
-      <c r="B90" s="38"/>
-      <c r="C90" s="43"/>
-      <c r="D90" s="10"/>
-      <c r="E90" s="11"/>
-      <c r="F90" s="46"/>
-      <c r="G90" s="46"/>
-      <c r="H90" s="12"/>
+      <c r="A90" s="37"/>
+      <c r="B90" s="40"/>
+      <c r="C90" s="42"/>
+      <c r="D90" s="4"/>
+      <c r="E90" s="3"/>
+      <c r="F90" s="44"/>
+      <c r="G90" s="44"/>
+      <c r="H90" s="14"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91" s="37"/>
-      <c r="B91" s="40"/>
-      <c r="C91" s="42"/>
-      <c r="D91" s="4"/>
-      <c r="E91" s="3"/>
-      <c r="F91" s="44"/>
-      <c r="G91" s="44"/>
-      <c r="H91" s="14"/>
+      <c r="A91" s="36"/>
+      <c r="B91" s="41"/>
+      <c r="C91" s="41"/>
+      <c r="D91" s="6"/>
+      <c r="E91" s="27"/>
+      <c r="F91" s="47"/>
+      <c r="G91" s="41"/>
+      <c r="H91" s="13"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A92" s="36"/>
-      <c r="B92" s="41"/>
-      <c r="C92" s="41"/>
-      <c r="D92" s="6"/>
-      <c r="E92" s="27"/>
-      <c r="F92" s="47"/>
-      <c r="G92" s="41"/>
-      <c r="H92" s="13"/>
+      <c r="A92" s="35"/>
+      <c r="B92" s="38"/>
+      <c r="C92" s="43"/>
+      <c r="D92" s="10"/>
+      <c r="E92" s="11"/>
+      <c r="F92" s="46"/>
+      <c r="G92" s="46"/>
+      <c r="H92" s="12"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93" s="35"/>
-      <c r="B93" s="38"/>
-      <c r="C93" s="43"/>
-      <c r="D93" s="10"/>
-      <c r="E93" s="11"/>
-      <c r="F93" s="46"/>
-      <c r="G93" s="46"/>
-      <c r="H93" s="12"/>
+      <c r="A93" s="36"/>
+      <c r="B93" s="41"/>
+      <c r="C93" s="41"/>
+      <c r="D93" s="6"/>
+      <c r="E93" s="27"/>
+      <c r="F93" s="47"/>
+      <c r="G93" s="41"/>
+      <c r="H93" s="13"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A94" s="36"/>
-      <c r="B94" s="41"/>
-      <c r="C94" s="41"/>
-      <c r="D94" s="6"/>
-      <c r="E94" s="27"/>
-      <c r="F94" s="47"/>
-      <c r="G94" s="41"/>
-      <c r="H94" s="13"/>
+      <c r="A94" s="37"/>
+      <c r="B94" s="40"/>
+      <c r="C94" s="42"/>
+      <c r="D94" s="4"/>
+      <c r="E94" s="3"/>
+      <c r="F94" s="44"/>
+      <c r="G94" s="44"/>
+      <c r="H94" s="17"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="37"/>
@@ -2868,343 +2916,343 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="37"/>
-      <c r="B96" s="40"/>
+      <c r="B96" s="42"/>
       <c r="C96" s="42"/>
-      <c r="D96" s="4"/>
-      <c r="E96" s="3"/>
-      <c r="F96" s="44"/>
-      <c r="G96" s="44"/>
+      <c r="D96" s="2"/>
+      <c r="E96" s="19"/>
+      <c r="F96" s="48"/>
+      <c r="G96" s="42"/>
       <c r="H96" s="17"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A97" s="37"/>
-      <c r="B97" s="42"/>
-      <c r="C97" s="42"/>
-      <c r="D97" s="2"/>
-      <c r="E97" s="19"/>
-      <c r="F97" s="48"/>
-      <c r="G97" s="42"/>
-      <c r="H97" s="17"/>
+      <c r="A97" s="35"/>
+      <c r="B97" s="38"/>
+      <c r="C97" s="43"/>
+      <c r="D97" s="10"/>
+      <c r="E97" s="11"/>
+      <c r="F97" s="46"/>
+      <c r="G97" s="46"/>
+      <c r="H97" s="12"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A98" s="35"/>
-      <c r="B98" s="38"/>
-      <c r="C98" s="43"/>
-      <c r="D98" s="10"/>
-      <c r="E98" s="11"/>
-      <c r="F98" s="46"/>
-      <c r="G98" s="46"/>
-      <c r="H98" s="12"/>
+      <c r="A98" s="37"/>
+      <c r="B98" s="40"/>
+      <c r="C98" s="42"/>
+      <c r="D98" s="4"/>
+      <c r="E98" s="3"/>
+      <c r="F98" s="44"/>
+      <c r="G98" s="44"/>
+      <c r="H98" s="14"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A99" s="37"/>
-      <c r="B99" s="40"/>
-      <c r="C99" s="42"/>
-      <c r="D99" s="4"/>
-      <c r="E99" s="3"/>
-      <c r="F99" s="44"/>
-      <c r="G99" s="44"/>
-      <c r="H99" s="14"/>
+      <c r="A99" s="36"/>
+      <c r="B99" s="39"/>
+      <c r="C99" s="41"/>
+      <c r="D99" s="8"/>
+      <c r="E99" s="7"/>
+      <c r="F99" s="45"/>
+      <c r="G99" s="45"/>
+      <c r="H99" s="13"/>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A100" s="36"/>
-      <c r="B100" s="39"/>
-      <c r="C100" s="41"/>
-      <c r="D100" s="8"/>
-      <c r="E100" s="7"/>
-      <c r="F100" s="45"/>
-      <c r="G100" s="45"/>
-      <c r="H100" s="13"/>
+      <c r="A100" s="35"/>
+      <c r="B100" s="38"/>
+      <c r="C100" s="43"/>
+      <c r="D100" s="10"/>
+      <c r="E100" s="11"/>
+      <c r="F100" s="46"/>
+      <c r="G100" s="46"/>
+      <c r="H100" s="12"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A101" s="35"/>
-      <c r="B101" s="38"/>
-      <c r="C101" s="43"/>
-      <c r="D101" s="10"/>
-      <c r="E101" s="11"/>
-      <c r="F101" s="46"/>
-      <c r="G101" s="46"/>
-      <c r="H101" s="12"/>
+      <c r="A101" s="36"/>
+      <c r="B101" s="39"/>
+      <c r="C101" s="41"/>
+      <c r="D101" s="8"/>
+      <c r="E101" s="7"/>
+      <c r="F101" s="45"/>
+      <c r="G101" s="45"/>
+      <c r="H101" s="13"/>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A102" s="36"/>
-      <c r="B102" s="39"/>
-      <c r="C102" s="41"/>
-      <c r="D102" s="8"/>
-      <c r="E102" s="7"/>
-      <c r="F102" s="45"/>
-      <c r="G102" s="45"/>
-      <c r="H102" s="13"/>
+      <c r="A102" s="35"/>
+      <c r="B102" s="38"/>
+      <c r="C102" s="43"/>
+      <c r="D102" s="10"/>
+      <c r="E102" s="11"/>
+      <c r="F102" s="46"/>
+      <c r="G102" s="46"/>
+      <c r="H102" s="12"/>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A103" s="35"/>
-      <c r="B103" s="38"/>
-      <c r="C103" s="43"/>
-      <c r="D103" s="10"/>
-      <c r="E103" s="11"/>
-      <c r="F103" s="46"/>
-      <c r="G103" s="46"/>
-      <c r="H103" s="12"/>
+      <c r="A103" s="37"/>
+      <c r="B103" s="40"/>
+      <c r="C103" s="42"/>
+      <c r="D103" s="4"/>
+      <c r="E103" s="3"/>
+      <c r="F103" s="44"/>
+      <c r="G103" s="44"/>
+      <c r="H103" s="14"/>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A104" s="37"/>
-      <c r="B104" s="40"/>
-      <c r="C104" s="42"/>
-      <c r="D104" s="4"/>
-      <c r="E104" s="3"/>
-      <c r="F104" s="44"/>
-      <c r="G104" s="44"/>
-      <c r="H104" s="14"/>
+      <c r="A104" s="36"/>
+      <c r="B104" s="39"/>
+      <c r="C104" s="41"/>
+      <c r="D104" s="8"/>
+      <c r="E104" s="7"/>
+      <c r="F104" s="45"/>
+      <c r="G104" s="45"/>
+      <c r="H104" s="13"/>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A105" s="36"/>
-      <c r="B105" s="39"/>
-      <c r="C105" s="41"/>
-      <c r="D105" s="8"/>
-      <c r="E105" s="7"/>
-      <c r="F105" s="45"/>
-      <c r="G105" s="45"/>
-      <c r="H105" s="13"/>
+      <c r="A105" s="35"/>
+      <c r="B105" s="38"/>
+      <c r="C105" s="43"/>
+      <c r="D105" s="10"/>
+      <c r="E105" s="11"/>
+      <c r="F105" s="46"/>
+      <c r="G105" s="46"/>
+      <c r="H105" s="12"/>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A106" s="35"/>
-      <c r="B106" s="38"/>
-      <c r="C106" s="43"/>
-      <c r="D106" s="10"/>
-      <c r="E106" s="11"/>
-      <c r="F106" s="46"/>
-      <c r="G106" s="46"/>
-      <c r="H106" s="12"/>
+      <c r="A106" s="37"/>
+      <c r="B106" s="40"/>
+      <c r="C106" s="42"/>
+      <c r="D106" s="4"/>
+      <c r="E106" s="3"/>
+      <c r="F106" s="44"/>
+      <c r="G106" s="44"/>
+      <c r="H106" s="14"/>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A107" s="37"/>
-      <c r="B107" s="40"/>
-      <c r="C107" s="42"/>
-      <c r="D107" s="4"/>
-      <c r="E107" s="3"/>
-      <c r="F107" s="44"/>
-      <c r="G107" s="44"/>
-      <c r="H107" s="14"/>
+      <c r="A107" s="36"/>
+      <c r="B107" s="39"/>
+      <c r="C107" s="41"/>
+      <c r="D107" s="8"/>
+      <c r="E107" s="7"/>
+      <c r="F107" s="45"/>
+      <c r="G107" s="45"/>
+      <c r="H107" s="13"/>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A108" s="36"/>
-      <c r="B108" s="39"/>
-      <c r="C108" s="41"/>
-      <c r="D108" s="8"/>
-      <c r="E108" s="7"/>
-      <c r="F108" s="45"/>
-      <c r="G108" s="45"/>
-      <c r="H108" s="13"/>
+      <c r="A108" s="35"/>
+      <c r="B108" s="38"/>
+      <c r="C108" s="43"/>
+      <c r="D108" s="10"/>
+      <c r="E108" s="11"/>
+      <c r="F108" s="46"/>
+      <c r="G108" s="46"/>
+      <c r="H108" s="12"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A109" s="35"/>
-      <c r="B109" s="38"/>
-      <c r="C109" s="43"/>
-      <c r="D109" s="10"/>
-      <c r="E109" s="11"/>
-      <c r="F109" s="46"/>
-      <c r="G109" s="46"/>
-      <c r="H109" s="12"/>
+      <c r="A109" s="37"/>
+      <c r="B109" s="40"/>
+      <c r="C109" s="42"/>
+      <c r="D109" s="4"/>
+      <c r="E109" s="3"/>
+      <c r="F109" s="44"/>
+      <c r="G109" s="44"/>
+      <c r="H109" s="14"/>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A110" s="37"/>
-      <c r="B110" s="40"/>
-      <c r="C110" s="42"/>
-      <c r="D110" s="4"/>
-      <c r="E110" s="3"/>
-      <c r="F110" s="44"/>
-      <c r="G110" s="44"/>
-      <c r="H110" s="14"/>
+      <c r="A110" s="36"/>
+      <c r="B110" s="39"/>
+      <c r="C110" s="41"/>
+      <c r="D110" s="8"/>
+      <c r="E110" s="7"/>
+      <c r="F110" s="45"/>
+      <c r="G110" s="45"/>
+      <c r="H110" s="13"/>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A111" s="36"/>
-      <c r="B111" s="39"/>
-      <c r="C111" s="41"/>
-      <c r="D111" s="8"/>
-      <c r="E111" s="7"/>
-      <c r="F111" s="45"/>
-      <c r="G111" s="45"/>
-      <c r="H111" s="13"/>
+      <c r="A111" s="35"/>
+      <c r="B111" s="38"/>
+      <c r="C111" s="43"/>
+      <c r="D111" s="10"/>
+      <c r="E111" s="11"/>
+      <c r="F111" s="46"/>
+      <c r="G111" s="46"/>
+      <c r="H111" s="12"/>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A112" s="35"/>
-      <c r="B112" s="38"/>
-      <c r="C112" s="43"/>
-      <c r="D112" s="10"/>
-      <c r="E112" s="11"/>
-      <c r="F112" s="46"/>
-      <c r="G112" s="46"/>
-      <c r="H112" s="12"/>
+      <c r="A112" s="36"/>
+      <c r="B112" s="39"/>
+      <c r="C112" s="41"/>
+      <c r="D112" s="8"/>
+      <c r="E112" s="7"/>
+      <c r="F112" s="45"/>
+      <c r="G112" s="45"/>
+      <c r="H112" s="13"/>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A113" s="36"/>
-      <c r="B113" s="39"/>
-      <c r="C113" s="41"/>
-      <c r="D113" s="8"/>
-      <c r="E113" s="7"/>
-      <c r="F113" s="45"/>
-      <c r="G113" s="45"/>
-      <c r="H113" s="13"/>
+      <c r="A113" s="35"/>
+      <c r="B113" s="38"/>
+      <c r="C113" s="43"/>
+      <c r="D113" s="10"/>
+      <c r="E113" s="11"/>
+      <c r="F113" s="46"/>
+      <c r="G113" s="46"/>
+      <c r="H113" s="12"/>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A114" s="35"/>
-      <c r="B114" s="38"/>
-      <c r="C114" s="43"/>
-      <c r="D114" s="10"/>
-      <c r="E114" s="11"/>
-      <c r="F114" s="46"/>
-      <c r="G114" s="46"/>
-      <c r="H114" s="12"/>
+      <c r="A114" s="37"/>
+      <c r="B114" s="40"/>
+      <c r="C114" s="42"/>
+      <c r="D114" s="4"/>
+      <c r="E114" s="3"/>
+      <c r="F114" s="44"/>
+      <c r="G114" s="44"/>
+      <c r="H114" s="14"/>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A115" s="37"/>
-      <c r="B115" s="40"/>
-      <c r="C115" s="42"/>
-      <c r="D115" s="4"/>
-      <c r="E115" s="3"/>
-      <c r="F115" s="44"/>
-      <c r="G115" s="44"/>
-      <c r="H115" s="14"/>
+      <c r="A115" s="36"/>
+      <c r="B115" s="39"/>
+      <c r="C115" s="41"/>
+      <c r="D115" s="8"/>
+      <c r="E115" s="7"/>
+      <c r="F115" s="45"/>
+      <c r="G115" s="45"/>
+      <c r="H115" s="13"/>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A116" s="36"/>
-      <c r="B116" s="39"/>
-      <c r="C116" s="41"/>
-      <c r="D116" s="8"/>
-      <c r="E116" s="7"/>
-      <c r="F116" s="45"/>
-      <c r="G116" s="45"/>
-      <c r="H116" s="13"/>
+      <c r="A116" s="35"/>
+      <c r="B116" s="38"/>
+      <c r="C116" s="43"/>
+      <c r="D116" s="10"/>
+      <c r="E116" s="11"/>
+      <c r="F116" s="46"/>
+      <c r="G116" s="46"/>
+      <c r="H116" s="12"/>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A117" s="35"/>
-      <c r="B117" s="38"/>
-      <c r="C117" s="43"/>
-      <c r="D117" s="10"/>
-      <c r="E117" s="11"/>
-      <c r="F117" s="46"/>
-      <c r="G117" s="46"/>
-      <c r="H117" s="12"/>
+      <c r="A117" s="37"/>
+      <c r="B117" s="40"/>
+      <c r="C117" s="42"/>
+      <c r="D117" s="4"/>
+      <c r="E117" s="3"/>
+      <c r="F117" s="44"/>
+      <c r="G117" s="44"/>
+      <c r="H117" s="14"/>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A118" s="37"/>
-      <c r="B118" s="40"/>
-      <c r="C118" s="42"/>
-      <c r="D118" s="4"/>
-      <c r="E118" s="3"/>
-      <c r="F118" s="44"/>
-      <c r="G118" s="44"/>
-      <c r="H118" s="14"/>
+      <c r="A118" s="36"/>
+      <c r="B118" s="39"/>
+      <c r="C118" s="41"/>
+      <c r="D118" s="8"/>
+      <c r="E118" s="7"/>
+      <c r="F118" s="45"/>
+      <c r="G118" s="45"/>
+      <c r="H118" s="13"/>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A119" s="36"/>
-      <c r="B119" s="39"/>
-      <c r="C119" s="41"/>
-      <c r="D119" s="8"/>
-      <c r="E119" s="7"/>
-      <c r="F119" s="45"/>
-      <c r="G119" s="45"/>
-      <c r="H119" s="13"/>
+      <c r="A119" s="35"/>
+      <c r="B119" s="38"/>
+      <c r="C119" s="43"/>
+      <c r="D119" s="10"/>
+      <c r="E119" s="11"/>
+      <c r="F119" s="46"/>
+      <c r="G119" s="46"/>
+      <c r="H119" s="12"/>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A120" s="35"/>
-      <c r="B120" s="38"/>
-      <c r="C120" s="43"/>
-      <c r="D120" s="10"/>
-      <c r="E120" s="11"/>
-      <c r="F120" s="46"/>
-      <c r="G120" s="46"/>
-      <c r="H120" s="12"/>
+      <c r="A120" s="37"/>
+      <c r="B120" s="40"/>
+      <c r="C120" s="42"/>
+      <c r="D120" s="4"/>
+      <c r="E120" s="3"/>
+      <c r="F120" s="44"/>
+      <c r="G120" s="44"/>
+      <c r="H120" s="14"/>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A121" s="37"/>
-      <c r="B121" s="40"/>
-      <c r="C121" s="42"/>
-      <c r="D121" s="4"/>
-      <c r="E121" s="3"/>
-      <c r="F121" s="44"/>
-      <c r="G121" s="44"/>
-      <c r="H121" s="14"/>
+      <c r="A121" s="36"/>
+      <c r="B121" s="39"/>
+      <c r="C121" s="41"/>
+      <c r="D121" s="8"/>
+      <c r="E121" s="7"/>
+      <c r="F121" s="45"/>
+      <c r="G121" s="45"/>
+      <c r="H121" s="13"/>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A122" s="36"/>
-      <c r="B122" s="39"/>
-      <c r="C122" s="41"/>
-      <c r="D122" s="8"/>
-      <c r="E122" s="7"/>
-      <c r="F122" s="45"/>
-      <c r="G122" s="45"/>
-      <c r="H122" s="13"/>
+      <c r="A122" s="35"/>
+      <c r="B122" s="38"/>
+      <c r="C122" s="43"/>
+      <c r="D122" s="10"/>
+      <c r="E122" s="11"/>
+      <c r="F122" s="46"/>
+      <c r="G122" s="46"/>
+      <c r="H122" s="12"/>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A123" s="35"/>
-      <c r="B123" s="38"/>
-      <c r="C123" s="43"/>
-      <c r="D123" s="10"/>
-      <c r="E123" s="11"/>
-      <c r="F123" s="46"/>
-      <c r="G123" s="46"/>
-      <c r="H123" s="12"/>
+      <c r="A123" s="37"/>
+      <c r="B123" s="40"/>
+      <c r="C123" s="42"/>
+      <c r="D123" s="4"/>
+      <c r="E123" s="3"/>
+      <c r="F123" s="44"/>
+      <c r="G123" s="44"/>
+      <c r="H123" s="14"/>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A124" s="37"/>
-      <c r="B124" s="40"/>
-      <c r="C124" s="42"/>
-      <c r="D124" s="4"/>
-      <c r="E124" s="3"/>
-      <c r="F124" s="44"/>
-      <c r="G124" s="44"/>
-      <c r="H124" s="14"/>
+      <c r="A124" s="36"/>
+      <c r="B124" s="39"/>
+      <c r="C124" s="41"/>
+      <c r="D124" s="8"/>
+      <c r="E124" s="7"/>
+      <c r="F124" s="45"/>
+      <c r="G124" s="45"/>
+      <c r="H124" s="13"/>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A125" s="36"/>
-      <c r="B125" s="39"/>
-      <c r="C125" s="41"/>
-      <c r="D125" s="8"/>
-      <c r="E125" s="7"/>
-      <c r="F125" s="45"/>
-      <c r="G125" s="45"/>
-      <c r="H125" s="13"/>
+      <c r="A125" s="35"/>
+      <c r="B125" s="38"/>
+      <c r="C125" s="43"/>
+      <c r="D125" s="10"/>
+      <c r="E125" s="11"/>
+      <c r="F125" s="46"/>
+      <c r="G125" s="46"/>
+      <c r="H125" s="12"/>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A126" s="35"/>
-      <c r="B126" s="38"/>
-      <c r="C126" s="43"/>
-      <c r="D126" s="10"/>
-      <c r="E126" s="11"/>
-      <c r="F126" s="46"/>
-      <c r="G126" s="46"/>
-      <c r="H126" s="12"/>
+      <c r="A126" s="37"/>
+      <c r="B126" s="40"/>
+      <c r="C126" s="42"/>
+      <c r="D126" s="4"/>
+      <c r="E126" s="3"/>
+      <c r="F126" s="44"/>
+      <c r="G126" s="44"/>
+      <c r="H126" s="14"/>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A127" s="37"/>
-      <c r="B127" s="40"/>
-      <c r="C127" s="42"/>
-      <c r="D127" s="4"/>
-      <c r="E127" s="3"/>
-      <c r="F127" s="44"/>
-      <c r="G127" s="44"/>
-      <c r="H127" s="14"/>
+      <c r="A127" s="36"/>
+      <c r="B127" s="39"/>
+      <c r="C127" s="41"/>
+      <c r="D127" s="8"/>
+      <c r="E127" s="7"/>
+      <c r="F127" s="45"/>
+      <c r="G127" s="45"/>
+      <c r="H127" s="13"/>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A128" s="36"/>
-      <c r="B128" s="39"/>
-      <c r="C128" s="41"/>
-      <c r="D128" s="8"/>
-      <c r="E128" s="7"/>
-      <c r="F128" s="45"/>
-      <c r="G128" s="45"/>
-      <c r="H128" s="13"/>
+      <c r="A128" s="35"/>
+      <c r="B128" s="38"/>
+      <c r="C128" s="43"/>
+      <c r="D128" s="10"/>
+      <c r="E128" s="11"/>
+      <c r="F128" s="46"/>
+      <c r="G128" s="46"/>
+      <c r="H128" s="12"/>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A129" s="35"/>
-      <c r="B129" s="38"/>
-      <c r="C129" s="43"/>
-      <c r="D129" s="10"/>
-      <c r="E129" s="11"/>
-      <c r="F129" s="46"/>
-      <c r="G129" s="46"/>
-      <c r="H129" s="12"/>
+      <c r="A129" s="37"/>
+      <c r="B129" s="40"/>
+      <c r="C129" s="42"/>
+      <c r="D129" s="4"/>
+      <c r="E129" s="3"/>
+      <c r="F129" s="44"/>
+      <c r="G129" s="44"/>
+      <c r="H129" s="14"/>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="37"/>
@@ -3217,24 +3265,24 @@
       <c r="H130" s="14"/>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A131" s="37"/>
-      <c r="B131" s="40"/>
-      <c r="C131" s="42"/>
-      <c r="D131" s="4"/>
-      <c r="E131" s="3"/>
-      <c r="F131" s="44"/>
-      <c r="G131" s="44"/>
-      <c r="H131" s="14"/>
+      <c r="A131" s="35"/>
+      <c r="B131" s="38"/>
+      <c r="C131" s="43"/>
+      <c r="D131" s="10"/>
+      <c r="E131" s="11"/>
+      <c r="F131" s="46"/>
+      <c r="G131" s="46"/>
+      <c r="H131" s="12"/>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A132" s="35"/>
-      <c r="B132" s="38"/>
-      <c r="C132" s="43"/>
-      <c r="D132" s="10"/>
-      <c r="E132" s="11"/>
-      <c r="F132" s="46"/>
-      <c r="G132" s="46"/>
-      <c r="H132" s="12"/>
+      <c r="A132" s="37"/>
+      <c r="B132" s="40"/>
+      <c r="C132" s="42"/>
+      <c r="D132" s="4"/>
+      <c r="E132" s="3"/>
+      <c r="F132" s="44"/>
+      <c r="G132" s="44"/>
+      <c r="H132" s="14"/>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="37"/>
@@ -3247,84 +3295,83 @@
       <c r="H133" s="14"/>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A134" s="37"/>
-      <c r="B134" s="40"/>
-      <c r="C134" s="42"/>
-      <c r="D134" s="4"/>
-      <c r="E134" s="3"/>
-      <c r="F134" s="44"/>
-      <c r="G134" s="44"/>
-      <c r="H134" s="14"/>
+      <c r="A134" s="35"/>
+      <c r="B134" s="54"/>
+      <c r="C134" s="43"/>
+      <c r="D134" s="57"/>
+      <c r="E134" s="11"/>
+      <c r="F134" s="53"/>
+      <c r="G134" s="46"/>
+      <c r="H134" s="12"/>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A135" s="35"/>
-      <c r="B135" s="54"/>
-      <c r="C135" s="43"/>
-      <c r="D135" s="57"/>
-      <c r="E135" s="11"/>
-      <c r="F135" s="53"/>
-      <c r="G135" s="46"/>
-      <c r="H135" s="12"/>
+      <c r="A135" s="37"/>
+      <c r="B135" s="55"/>
+      <c r="C135" s="42"/>
+      <c r="D135" s="58"/>
+      <c r="E135" s="3"/>
+      <c r="F135" s="44"/>
+      <c r="G135" s="44"/>
+      <c r="H135" s="14"/>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A136" s="37"/>
-      <c r="B136" s="55"/>
-      <c r="C136" s="42"/>
-      <c r="D136" s="58"/>
-      <c r="E136" s="3"/>
-      <c r="F136" s="44"/>
-      <c r="G136" s="44"/>
-      <c r="H136" s="14"/>
+      <c r="A136" s="36"/>
+      <c r="B136" s="56"/>
+      <c r="C136" s="41"/>
+      <c r="D136" s="59"/>
+      <c r="E136" s="7"/>
+      <c r="F136" s="45"/>
+      <c r="G136" s="45"/>
+      <c r="H136" s="13"/>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A137" s="36"/>
-      <c r="B137" s="56"/>
-      <c r="C137" s="41"/>
-      <c r="D137" s="59"/>
-      <c r="E137" s="7"/>
-      <c r="F137" s="45"/>
-      <c r="G137" s="45"/>
-      <c r="H137" s="13"/>
+      <c r="A137" s="35"/>
+      <c r="B137" s="54"/>
+      <c r="C137" s="43"/>
+      <c r="D137" s="57"/>
+      <c r="E137" s="11"/>
+      <c r="F137" s="53"/>
+      <c r="G137" s="44"/>
+      <c r="H137" s="12"/>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A138" s="35"/>
-      <c r="B138" s="54"/>
-      <c r="C138" s="43"/>
-      <c r="D138" s="57"/>
-      <c r="E138" s="11"/>
-      <c r="F138" s="53"/>
-      <c r="G138" s="44"/>
-      <c r="H138" s="12"/>
+      <c r="A138" s="36"/>
+      <c r="B138" s="56"/>
+      <c r="C138" s="41"/>
+      <c r="D138" s="59"/>
+      <c r="E138" s="7"/>
+      <c r="F138" s="45"/>
+      <c r="G138" s="45"/>
+      <c r="H138" s="13"/>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A139" s="36"/>
-      <c r="B139" s="56"/>
-      <c r="C139" s="41"/>
-      <c r="D139" s="59"/>
-      <c r="E139" s="7"/>
-      <c r="F139" s="45"/>
-      <c r="G139" s="45"/>
-      <c r="H139" s="13"/>
+      <c r="A139" s="35"/>
+      <c r="B139" s="54"/>
+      <c r="C139" s="43"/>
+      <c r="D139" s="57"/>
+      <c r="E139" s="11"/>
+      <c r="F139" s="53"/>
+      <c r="G139" s="44"/>
+      <c r="H139" s="12"/>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A140" s="35"/>
-      <c r="B140" s="54"/>
-      <c r="C140" s="43"/>
-      <c r="D140" s="57"/>
-      <c r="E140" s="11"/>
-      <c r="F140" s="53"/>
-      <c r="G140" s="44"/>
-      <c r="H140" s="12"/>
+      <c r="A140" s="36"/>
+      <c r="B140" s="56"/>
+      <c r="C140" s="41"/>
+      <c r="D140" s="59"/>
+      <c r="E140" s="7"/>
+      <c r="F140" s="45"/>
+      <c r="G140" s="45"/>
+      <c r="H140" s="13"/>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A141" s="36"/>
-      <c r="B141" s="56"/>
-      <c r="C141" s="41"/>
-      <c r="D141" s="59"/>
-      <c r="E141" s="7"/>
-      <c r="F141" s="45"/>
-      <c r="G141" s="45"/>
-      <c r="H141" s="13"/>
+      <c r="B141" s="1"/>
+      <c r="C141" s="2"/>
+      <c r="D141" s="4"/>
+      <c r="E141" s="3"/>
+      <c r="F141" s="4"/>
+      <c r="G141" s="4"/>
+      <c r="H141" s="17"/>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B142" s="1"/>
@@ -3541,15 +3588,6 @@
       <c r="F165" s="4"/>
       <c r="G165" s="4"/>
       <c r="H165" s="17"/>
-    </row>
-    <row r="166" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B166" s="1"/>
-      <c r="C166" s="2"/>
-      <c r="D166" s="4"/>
-      <c r="E166" s="3"/>
-      <c r="F166" s="4"/>
-      <c r="G166" s="4"/>
-      <c r="H166" s="17"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/TS Jatai Working/TTD Krama PaaraayaNam-Kramam.xlsx
+++ b/TS Jatai Working/TTD Krama PaaraayaNam-Kramam.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="154">
   <si>
     <t>Date</t>
   </si>
@@ -458,6 +458,24 @@
   </si>
   <si>
     <t>3.5.1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.5.7.3 </t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=oYEz8Z79kdA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.5.8.1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.5.11.5 </t>
+  </si>
+  <si>
+    <t>25 min 27 sec</t>
+  </si>
+  <si>
+    <t>4.1.1.1</t>
   </si>
 </sst>
 </file>
@@ -650,7 +668,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -851,6 +869,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1158,11 +1179,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L165"/>
+  <dimension ref="A1:L166"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G79" sqref="G79:G81"/>
+      <pane ySplit="4" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A83" sqref="A83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -2758,8 +2779,12 @@
       <c r="E80" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F80" s="44"/>
-      <c r="G80" s="70"/>
+      <c r="F80" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="G80" s="58" t="s">
+        <v>13</v>
+      </c>
       <c r="H80" s="14" t="s">
         <v>144</v>
       </c>
@@ -2775,134 +2800,162 @@
       <c r="H81" s="13"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" s="37"/>
-      <c r="B82" s="40"/>
-      <c r="C82" s="42"/>
-      <c r="D82" s="4"/>
-      <c r="E82" s="3"/>
-      <c r="F82" s="44"/>
-      <c r="G82" s="44"/>
-      <c r="H82" s="14"/>
+      <c r="A82" s="37">
+        <v>33</v>
+      </c>
+      <c r="B82" s="40">
+        <v>44478</v>
+      </c>
+      <c r="C82" s="42">
+        <v>2</v>
+      </c>
+      <c r="D82" s="78" t="s">
+        <v>150</v>
+      </c>
+      <c r="E82" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F82" s="46" t="s">
+        <v>151</v>
+      </c>
+      <c r="G82" s="44" t="s">
+        <v>152</v>
+      </c>
+      <c r="H82" s="14" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A83" s="36"/>
-      <c r="B83" s="41"/>
-      <c r="C83" s="41"/>
-      <c r="D83" s="6"/>
-      <c r="E83" s="27"/>
-      <c r="F83" s="47"/>
-      <c r="G83" s="41"/>
-      <c r="H83" s="13"/>
+      <c r="A83" s="37"/>
+      <c r="B83" s="55">
+        <v>44478</v>
+      </c>
+      <c r="C83" s="42">
+        <v>1</v>
+      </c>
+      <c r="D83" s="80" t="s">
+        <v>153</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F83" s="44"/>
+      <c r="G83" s="58" t="s">
+        <v>13</v>
+      </c>
+      <c r="H83" s="14" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84" s="35"/>
-      <c r="B84" s="38"/>
-      <c r="C84" s="43"/>
-      <c r="D84" s="10"/>
-      <c r="E84" s="11"/>
-      <c r="F84" s="46"/>
-      <c r="G84" s="46"/>
-      <c r="H84" s="12"/>
+      <c r="A84" s="36"/>
+      <c r="B84" s="41"/>
+      <c r="C84" s="41"/>
+      <c r="D84" s="6"/>
+      <c r="E84" s="27"/>
+      <c r="F84" s="47"/>
+      <c r="G84" s="41"/>
+      <c r="H84" s="13"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85" s="37"/>
-      <c r="B85" s="40"/>
-      <c r="C85" s="42"/>
-      <c r="D85" s="4"/>
-      <c r="E85" s="3"/>
-      <c r="F85" s="44"/>
-      <c r="G85" s="44"/>
-      <c r="H85" s="14"/>
+      <c r="A85" s="35"/>
+      <c r="B85" s="38"/>
+      <c r="C85" s="43"/>
+      <c r="D85" s="10"/>
+      <c r="E85" s="11"/>
+      <c r="F85" s="46"/>
+      <c r="G85" s="46"/>
+      <c r="H85" s="12"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86" s="36"/>
-      <c r="B86" s="41"/>
-      <c r="C86" s="41"/>
-      <c r="D86" s="6"/>
-      <c r="E86" s="27"/>
-      <c r="F86" s="47"/>
-      <c r="G86" s="41"/>
-      <c r="H86" s="13"/>
+      <c r="A86" s="37"/>
+      <c r="B86" s="40"/>
+      <c r="C86" s="42"/>
+      <c r="D86" s="4"/>
+      <c r="E86" s="3"/>
+      <c r="F86" s="44"/>
+      <c r="G86" s="44"/>
+      <c r="H86" s="14"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A87" s="35"/>
-      <c r="B87" s="38"/>
-      <c r="C87" s="43"/>
-      <c r="D87" s="10"/>
-      <c r="E87" s="11"/>
-      <c r="F87" s="46"/>
-      <c r="G87" s="46"/>
-      <c r="H87" s="12"/>
+      <c r="A87" s="36"/>
+      <c r="B87" s="41"/>
+      <c r="C87" s="41"/>
+      <c r="D87" s="6"/>
+      <c r="E87" s="27"/>
+      <c r="F87" s="47"/>
+      <c r="G87" s="41"/>
+      <c r="H87" s="13"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88" s="36"/>
-      <c r="B88" s="41"/>
-      <c r="C88" s="41"/>
-      <c r="D88" s="6"/>
-      <c r="E88" s="27"/>
-      <c r="F88" s="47"/>
-      <c r="G88" s="41"/>
-      <c r="H88" s="13"/>
+      <c r="A88" s="35"/>
+      <c r="B88" s="38"/>
+      <c r="C88" s="43"/>
+      <c r="D88" s="10"/>
+      <c r="E88" s="11"/>
+      <c r="F88" s="46"/>
+      <c r="G88" s="46"/>
+      <c r="H88" s="12"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A89" s="35"/>
-      <c r="B89" s="38"/>
-      <c r="C89" s="43"/>
-      <c r="D89" s="10"/>
-      <c r="E89" s="11"/>
-      <c r="F89" s="46"/>
-      <c r="G89" s="46"/>
-      <c r="H89" s="12"/>
+      <c r="A89" s="36"/>
+      <c r="B89" s="41"/>
+      <c r="C89" s="41"/>
+      <c r="D89" s="6"/>
+      <c r="E89" s="27"/>
+      <c r="F89" s="47"/>
+      <c r="G89" s="41"/>
+      <c r="H89" s="13"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90" s="37"/>
-      <c r="B90" s="40"/>
-      <c r="C90" s="42"/>
-      <c r="D90" s="4"/>
-      <c r="E90" s="3"/>
-      <c r="F90" s="44"/>
-      <c r="G90" s="44"/>
-      <c r="H90" s="14"/>
+      <c r="A90" s="35"/>
+      <c r="B90" s="38"/>
+      <c r="C90" s="43"/>
+      <c r="D90" s="10"/>
+      <c r="E90" s="11"/>
+      <c r="F90" s="46"/>
+      <c r="G90" s="46"/>
+      <c r="H90" s="12"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91" s="36"/>
-      <c r="B91" s="41"/>
-      <c r="C91" s="41"/>
-      <c r="D91" s="6"/>
-      <c r="E91" s="27"/>
-      <c r="F91" s="47"/>
-      <c r="G91" s="41"/>
-      <c r="H91" s="13"/>
+      <c r="A91" s="37"/>
+      <c r="B91" s="40"/>
+      <c r="C91" s="42"/>
+      <c r="D91" s="4"/>
+      <c r="E91" s="3"/>
+      <c r="F91" s="44"/>
+      <c r="G91" s="44"/>
+      <c r="H91" s="14"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A92" s="35"/>
-      <c r="B92" s="38"/>
-      <c r="C92" s="43"/>
-      <c r="D92" s="10"/>
-      <c r="E92" s="11"/>
-      <c r="F92" s="46"/>
-      <c r="G92" s="46"/>
-      <c r="H92" s="12"/>
+      <c r="A92" s="36"/>
+      <c r="B92" s="41"/>
+      <c r="C92" s="41"/>
+      <c r="D92" s="6"/>
+      <c r="E92" s="27"/>
+      <c r="F92" s="47"/>
+      <c r="G92" s="41"/>
+      <c r="H92" s="13"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93" s="36"/>
-      <c r="B93" s="41"/>
-      <c r="C93" s="41"/>
-      <c r="D93" s="6"/>
-      <c r="E93" s="27"/>
-      <c r="F93" s="47"/>
-      <c r="G93" s="41"/>
-      <c r="H93" s="13"/>
+      <c r="A93" s="35"/>
+      <c r="B93" s="38"/>
+      <c r="C93" s="43"/>
+      <c r="D93" s="10"/>
+      <c r="E93" s="11"/>
+      <c r="F93" s="46"/>
+      <c r="G93" s="46"/>
+      <c r="H93" s="12"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A94" s="37"/>
-      <c r="B94" s="40"/>
-      <c r="C94" s="42"/>
-      <c r="D94" s="4"/>
-      <c r="E94" s="3"/>
-      <c r="F94" s="44"/>
-      <c r="G94" s="44"/>
-      <c r="H94" s="17"/>
+      <c r="A94" s="36"/>
+      <c r="B94" s="41"/>
+      <c r="C94" s="41"/>
+      <c r="D94" s="6"/>
+      <c r="E94" s="27"/>
+      <c r="F94" s="47"/>
+      <c r="G94" s="41"/>
+      <c r="H94" s="13"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="37"/>
@@ -2916,343 +2969,343 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="37"/>
-      <c r="B96" s="42"/>
+      <c r="B96" s="40"/>
       <c r="C96" s="42"/>
-      <c r="D96" s="2"/>
-      <c r="E96" s="19"/>
-      <c r="F96" s="48"/>
-      <c r="G96" s="42"/>
+      <c r="D96" s="4"/>
+      <c r="E96" s="3"/>
+      <c r="F96" s="44"/>
+      <c r="G96" s="44"/>
       <c r="H96" s="17"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A97" s="35"/>
-      <c r="B97" s="38"/>
-      <c r="C97" s="43"/>
-      <c r="D97" s="10"/>
-      <c r="E97" s="11"/>
-      <c r="F97" s="46"/>
-      <c r="G97" s="46"/>
-      <c r="H97" s="12"/>
+      <c r="A97" s="37"/>
+      <c r="B97" s="42"/>
+      <c r="C97" s="42"/>
+      <c r="D97" s="2"/>
+      <c r="E97" s="19"/>
+      <c r="F97" s="48"/>
+      <c r="G97" s="42"/>
+      <c r="H97" s="17"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A98" s="37"/>
-      <c r="B98" s="40"/>
-      <c r="C98" s="42"/>
-      <c r="D98" s="4"/>
-      <c r="E98" s="3"/>
-      <c r="F98" s="44"/>
-      <c r="G98" s="44"/>
-      <c r="H98" s="14"/>
+      <c r="A98" s="35"/>
+      <c r="B98" s="38"/>
+      <c r="C98" s="43"/>
+      <c r="D98" s="10"/>
+      <c r="E98" s="11"/>
+      <c r="F98" s="46"/>
+      <c r="G98" s="46"/>
+      <c r="H98" s="12"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A99" s="36"/>
-      <c r="B99" s="39"/>
-      <c r="C99" s="41"/>
-      <c r="D99" s="8"/>
-      <c r="E99" s="7"/>
-      <c r="F99" s="45"/>
-      <c r="G99" s="45"/>
-      <c r="H99" s="13"/>
+      <c r="A99" s="37"/>
+      <c r="B99" s="40"/>
+      <c r="C99" s="42"/>
+      <c r="D99" s="4"/>
+      <c r="E99" s="3"/>
+      <c r="F99" s="44"/>
+      <c r="G99" s="44"/>
+      <c r="H99" s="14"/>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A100" s="35"/>
-      <c r="B100" s="38"/>
-      <c r="C100" s="43"/>
-      <c r="D100" s="10"/>
-      <c r="E100" s="11"/>
-      <c r="F100" s="46"/>
-      <c r="G100" s="46"/>
-      <c r="H100" s="12"/>
+      <c r="A100" s="36"/>
+      <c r="B100" s="39"/>
+      <c r="C100" s="41"/>
+      <c r="D100" s="8"/>
+      <c r="E100" s="7"/>
+      <c r="F100" s="45"/>
+      <c r="G100" s="45"/>
+      <c r="H100" s="13"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A101" s="36"/>
-      <c r="B101" s="39"/>
-      <c r="C101" s="41"/>
-      <c r="D101" s="8"/>
-      <c r="E101" s="7"/>
-      <c r="F101" s="45"/>
-      <c r="G101" s="45"/>
-      <c r="H101" s="13"/>
+      <c r="A101" s="35"/>
+      <c r="B101" s="38"/>
+      <c r="C101" s="43"/>
+      <c r="D101" s="10"/>
+      <c r="E101" s="11"/>
+      <c r="F101" s="46"/>
+      <c r="G101" s="46"/>
+      <c r="H101" s="12"/>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A102" s="35"/>
-      <c r="B102" s="38"/>
-      <c r="C102" s="43"/>
-      <c r="D102" s="10"/>
-      <c r="E102" s="11"/>
-      <c r="F102" s="46"/>
-      <c r="G102" s="46"/>
-      <c r="H102" s="12"/>
+      <c r="A102" s="36"/>
+      <c r="B102" s="39"/>
+      <c r="C102" s="41"/>
+      <c r="D102" s="8"/>
+      <c r="E102" s="7"/>
+      <c r="F102" s="45"/>
+      <c r="G102" s="45"/>
+      <c r="H102" s="13"/>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A103" s="37"/>
-      <c r="B103" s="40"/>
-      <c r="C103" s="42"/>
-      <c r="D103" s="4"/>
-      <c r="E103" s="3"/>
-      <c r="F103" s="44"/>
-      <c r="G103" s="44"/>
-      <c r="H103" s="14"/>
+      <c r="A103" s="35"/>
+      <c r="B103" s="38"/>
+      <c r="C103" s="43"/>
+      <c r="D103" s="10"/>
+      <c r="E103" s="11"/>
+      <c r="F103" s="46"/>
+      <c r="G103" s="46"/>
+      <c r="H103" s="12"/>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A104" s="36"/>
-      <c r="B104" s="39"/>
-      <c r="C104" s="41"/>
-      <c r="D104" s="8"/>
-      <c r="E104" s="7"/>
-      <c r="F104" s="45"/>
-      <c r="G104" s="45"/>
-      <c r="H104" s="13"/>
+      <c r="A104" s="37"/>
+      <c r="B104" s="40"/>
+      <c r="C104" s="42"/>
+      <c r="D104" s="4"/>
+      <c r="E104" s="3"/>
+      <c r="F104" s="44"/>
+      <c r="G104" s="44"/>
+      <c r="H104" s="14"/>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A105" s="35"/>
-      <c r="B105" s="38"/>
-      <c r="C105" s="43"/>
-      <c r="D105" s="10"/>
-      <c r="E105" s="11"/>
-      <c r="F105" s="46"/>
-      <c r="G105" s="46"/>
-      <c r="H105" s="12"/>
+      <c r="A105" s="36"/>
+      <c r="B105" s="39"/>
+      <c r="C105" s="41"/>
+      <c r="D105" s="8"/>
+      <c r="E105" s="7"/>
+      <c r="F105" s="45"/>
+      <c r="G105" s="45"/>
+      <c r="H105" s="13"/>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A106" s="37"/>
-      <c r="B106" s="40"/>
-      <c r="C106" s="42"/>
-      <c r="D106" s="4"/>
-      <c r="E106" s="3"/>
-      <c r="F106" s="44"/>
-      <c r="G106" s="44"/>
-      <c r="H106" s="14"/>
+      <c r="A106" s="35"/>
+      <c r="B106" s="38"/>
+      <c r="C106" s="43"/>
+      <c r="D106" s="10"/>
+      <c r="E106" s="11"/>
+      <c r="F106" s="46"/>
+      <c r="G106" s="46"/>
+      <c r="H106" s="12"/>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A107" s="36"/>
-      <c r="B107" s="39"/>
-      <c r="C107" s="41"/>
-      <c r="D107" s="8"/>
-      <c r="E107" s="7"/>
-      <c r="F107" s="45"/>
-      <c r="G107" s="45"/>
-      <c r="H107" s="13"/>
+      <c r="A107" s="37"/>
+      <c r="B107" s="40"/>
+      <c r="C107" s="42"/>
+      <c r="D107" s="4"/>
+      <c r="E107" s="3"/>
+      <c r="F107" s="44"/>
+      <c r="G107" s="44"/>
+      <c r="H107" s="14"/>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A108" s="35"/>
-      <c r="B108" s="38"/>
-      <c r="C108" s="43"/>
-      <c r="D108" s="10"/>
-      <c r="E108" s="11"/>
-      <c r="F108" s="46"/>
-      <c r="G108" s="46"/>
-      <c r="H108" s="12"/>
+      <c r="A108" s="36"/>
+      <c r="B108" s="39"/>
+      <c r="C108" s="41"/>
+      <c r="D108" s="8"/>
+      <c r="E108" s="7"/>
+      <c r="F108" s="45"/>
+      <c r="G108" s="45"/>
+      <c r="H108" s="13"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A109" s="37"/>
-      <c r="B109" s="40"/>
-      <c r="C109" s="42"/>
-      <c r="D109" s="4"/>
-      <c r="E109" s="3"/>
-      <c r="F109" s="44"/>
-      <c r="G109" s="44"/>
-      <c r="H109" s="14"/>
+      <c r="A109" s="35"/>
+      <c r="B109" s="38"/>
+      <c r="C109" s="43"/>
+      <c r="D109" s="10"/>
+      <c r="E109" s="11"/>
+      <c r="F109" s="46"/>
+      <c r="G109" s="46"/>
+      <c r="H109" s="12"/>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A110" s="36"/>
-      <c r="B110" s="39"/>
-      <c r="C110" s="41"/>
-      <c r="D110" s="8"/>
-      <c r="E110" s="7"/>
-      <c r="F110" s="45"/>
-      <c r="G110" s="45"/>
-      <c r="H110" s="13"/>
+      <c r="A110" s="37"/>
+      <c r="B110" s="40"/>
+      <c r="C110" s="42"/>
+      <c r="D110" s="4"/>
+      <c r="E110" s="3"/>
+      <c r="F110" s="44"/>
+      <c r="G110" s="44"/>
+      <c r="H110" s="14"/>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A111" s="35"/>
-      <c r="B111" s="38"/>
-      <c r="C111" s="43"/>
-      <c r="D111" s="10"/>
-      <c r="E111" s="11"/>
-      <c r="F111" s="46"/>
-      <c r="G111" s="46"/>
-      <c r="H111" s="12"/>
+      <c r="A111" s="36"/>
+      <c r="B111" s="39"/>
+      <c r="C111" s="41"/>
+      <c r="D111" s="8"/>
+      <c r="E111" s="7"/>
+      <c r="F111" s="45"/>
+      <c r="G111" s="45"/>
+      <c r="H111" s="13"/>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A112" s="36"/>
-      <c r="B112" s="39"/>
-      <c r="C112" s="41"/>
-      <c r="D112" s="8"/>
-      <c r="E112" s="7"/>
-      <c r="F112" s="45"/>
-      <c r="G112" s="45"/>
-      <c r="H112" s="13"/>
+      <c r="A112" s="35"/>
+      <c r="B112" s="38"/>
+      <c r="C112" s="43"/>
+      <c r="D112" s="10"/>
+      <c r="E112" s="11"/>
+      <c r="F112" s="46"/>
+      <c r="G112" s="46"/>
+      <c r="H112" s="12"/>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A113" s="35"/>
-      <c r="B113" s="38"/>
-      <c r="C113" s="43"/>
-      <c r="D113" s="10"/>
-      <c r="E113" s="11"/>
-      <c r="F113" s="46"/>
-      <c r="G113" s="46"/>
-      <c r="H113" s="12"/>
+      <c r="A113" s="36"/>
+      <c r="B113" s="39"/>
+      <c r="C113" s="41"/>
+      <c r="D113" s="8"/>
+      <c r="E113" s="7"/>
+      <c r="F113" s="45"/>
+      <c r="G113" s="45"/>
+      <c r="H113" s="13"/>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A114" s="37"/>
-      <c r="B114" s="40"/>
-      <c r="C114" s="42"/>
-      <c r="D114" s="4"/>
-      <c r="E114" s="3"/>
-      <c r="F114" s="44"/>
-      <c r="G114" s="44"/>
-      <c r="H114" s="14"/>
+      <c r="A114" s="35"/>
+      <c r="B114" s="38"/>
+      <c r="C114" s="43"/>
+      <c r="D114" s="10"/>
+      <c r="E114" s="11"/>
+      <c r="F114" s="46"/>
+      <c r="G114" s="46"/>
+      <c r="H114" s="12"/>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A115" s="36"/>
-      <c r="B115" s="39"/>
-      <c r="C115" s="41"/>
-      <c r="D115" s="8"/>
-      <c r="E115" s="7"/>
-      <c r="F115" s="45"/>
-      <c r="G115" s="45"/>
-      <c r="H115" s="13"/>
+      <c r="A115" s="37"/>
+      <c r="B115" s="40"/>
+      <c r="C115" s="42"/>
+      <c r="D115" s="4"/>
+      <c r="E115" s="3"/>
+      <c r="F115" s="44"/>
+      <c r="G115" s="44"/>
+      <c r="H115" s="14"/>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A116" s="35"/>
-      <c r="B116" s="38"/>
-      <c r="C116" s="43"/>
-      <c r="D116" s="10"/>
-      <c r="E116" s="11"/>
-      <c r="F116" s="46"/>
-      <c r="G116" s="46"/>
-      <c r="H116" s="12"/>
+      <c r="A116" s="36"/>
+      <c r="B116" s="39"/>
+      <c r="C116" s="41"/>
+      <c r="D116" s="8"/>
+      <c r="E116" s="7"/>
+      <c r="F116" s="45"/>
+      <c r="G116" s="45"/>
+      <c r="H116" s="13"/>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A117" s="37"/>
-      <c r="B117" s="40"/>
-      <c r="C117" s="42"/>
-      <c r="D117" s="4"/>
-      <c r="E117" s="3"/>
-      <c r="F117" s="44"/>
-      <c r="G117" s="44"/>
-      <c r="H117" s="14"/>
+      <c r="A117" s="35"/>
+      <c r="B117" s="38"/>
+      <c r="C117" s="43"/>
+      <c r="D117" s="10"/>
+      <c r="E117" s="11"/>
+      <c r="F117" s="46"/>
+      <c r="G117" s="46"/>
+      <c r="H117" s="12"/>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A118" s="36"/>
-      <c r="B118" s="39"/>
-      <c r="C118" s="41"/>
-      <c r="D118" s="8"/>
-      <c r="E118" s="7"/>
-      <c r="F118" s="45"/>
-      <c r="G118" s="45"/>
-      <c r="H118" s="13"/>
+      <c r="A118" s="37"/>
+      <c r="B118" s="40"/>
+      <c r="C118" s="42"/>
+      <c r="D118" s="4"/>
+      <c r="E118" s="3"/>
+      <c r="F118" s="44"/>
+      <c r="G118" s="44"/>
+      <c r="H118" s="14"/>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A119" s="35"/>
-      <c r="B119" s="38"/>
-      <c r="C119" s="43"/>
-      <c r="D119" s="10"/>
-      <c r="E119" s="11"/>
-      <c r="F119" s="46"/>
-      <c r="G119" s="46"/>
-      <c r="H119" s="12"/>
+      <c r="A119" s="36"/>
+      <c r="B119" s="39"/>
+      <c r="C119" s="41"/>
+      <c r="D119" s="8"/>
+      <c r="E119" s="7"/>
+      <c r="F119" s="45"/>
+      <c r="G119" s="45"/>
+      <c r="H119" s="13"/>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A120" s="37"/>
-      <c r="B120" s="40"/>
-      <c r="C120" s="42"/>
-      <c r="D120" s="4"/>
-      <c r="E120" s="3"/>
-      <c r="F120" s="44"/>
-      <c r="G120" s="44"/>
-      <c r="H120" s="14"/>
+      <c r="A120" s="35"/>
+      <c r="B120" s="38"/>
+      <c r="C120" s="43"/>
+      <c r="D120" s="10"/>
+      <c r="E120" s="11"/>
+      <c r="F120" s="46"/>
+      <c r="G120" s="46"/>
+      <c r="H120" s="12"/>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A121" s="36"/>
-      <c r="B121" s="39"/>
-      <c r="C121" s="41"/>
-      <c r="D121" s="8"/>
-      <c r="E121" s="7"/>
-      <c r="F121" s="45"/>
-      <c r="G121" s="45"/>
-      <c r="H121" s="13"/>
+      <c r="A121" s="37"/>
+      <c r="B121" s="40"/>
+      <c r="C121" s="42"/>
+      <c r="D121" s="4"/>
+      <c r="E121" s="3"/>
+      <c r="F121" s="44"/>
+      <c r="G121" s="44"/>
+      <c r="H121" s="14"/>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A122" s="35"/>
-      <c r="B122" s="38"/>
-      <c r="C122" s="43"/>
-      <c r="D122" s="10"/>
-      <c r="E122" s="11"/>
-      <c r="F122" s="46"/>
-      <c r="G122" s="46"/>
-      <c r="H122" s="12"/>
+      <c r="A122" s="36"/>
+      <c r="B122" s="39"/>
+      <c r="C122" s="41"/>
+      <c r="D122" s="8"/>
+      <c r="E122" s="7"/>
+      <c r="F122" s="45"/>
+      <c r="G122" s="45"/>
+      <c r="H122" s="13"/>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A123" s="37"/>
-      <c r="B123" s="40"/>
-      <c r="C123" s="42"/>
-      <c r="D123" s="4"/>
-      <c r="E123" s="3"/>
-      <c r="F123" s="44"/>
-      <c r="G123" s="44"/>
-      <c r="H123" s="14"/>
+      <c r="A123" s="35"/>
+      <c r="B123" s="38"/>
+      <c r="C123" s="43"/>
+      <c r="D123" s="10"/>
+      <c r="E123" s="11"/>
+      <c r="F123" s="46"/>
+      <c r="G123" s="46"/>
+      <c r="H123" s="12"/>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A124" s="36"/>
-      <c r="B124" s="39"/>
-      <c r="C124" s="41"/>
-      <c r="D124" s="8"/>
-      <c r="E124" s="7"/>
-      <c r="F124" s="45"/>
-      <c r="G124" s="45"/>
-      <c r="H124" s="13"/>
+      <c r="A124" s="37"/>
+      <c r="B124" s="40"/>
+      <c r="C124" s="42"/>
+      <c r="D124" s="4"/>
+      <c r="E124" s="3"/>
+      <c r="F124" s="44"/>
+      <c r="G124" s="44"/>
+      <c r="H124" s="14"/>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A125" s="35"/>
-      <c r="B125" s="38"/>
-      <c r="C125" s="43"/>
-      <c r="D125" s="10"/>
-      <c r="E125" s="11"/>
-      <c r="F125" s="46"/>
-      <c r="G125" s="46"/>
-      <c r="H125" s="12"/>
+      <c r="A125" s="36"/>
+      <c r="B125" s="39"/>
+      <c r="C125" s="41"/>
+      <c r="D125" s="8"/>
+      <c r="E125" s="7"/>
+      <c r="F125" s="45"/>
+      <c r="G125" s="45"/>
+      <c r="H125" s="13"/>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A126" s="37"/>
-      <c r="B126" s="40"/>
-      <c r="C126" s="42"/>
-      <c r="D126" s="4"/>
-      <c r="E126" s="3"/>
-      <c r="F126" s="44"/>
-      <c r="G126" s="44"/>
-      <c r="H126" s="14"/>
+      <c r="A126" s="35"/>
+      <c r="B126" s="38"/>
+      <c r="C126" s="43"/>
+      <c r="D126" s="10"/>
+      <c r="E126" s="11"/>
+      <c r="F126" s="46"/>
+      <c r="G126" s="46"/>
+      <c r="H126" s="12"/>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A127" s="36"/>
-      <c r="B127" s="39"/>
-      <c r="C127" s="41"/>
-      <c r="D127" s="8"/>
-      <c r="E127" s="7"/>
-      <c r="F127" s="45"/>
-      <c r="G127" s="45"/>
-      <c r="H127" s="13"/>
+      <c r="A127" s="37"/>
+      <c r="B127" s="40"/>
+      <c r="C127" s="42"/>
+      <c r="D127" s="4"/>
+      <c r="E127" s="3"/>
+      <c r="F127" s="44"/>
+      <c r="G127" s="44"/>
+      <c r="H127" s="14"/>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A128" s="35"/>
-      <c r="B128" s="38"/>
-      <c r="C128" s="43"/>
-      <c r="D128" s="10"/>
-      <c r="E128" s="11"/>
-      <c r="F128" s="46"/>
-      <c r="G128" s="46"/>
-      <c r="H128" s="12"/>
+      <c r="A128" s="36"/>
+      <c r="B128" s="39"/>
+      <c r="C128" s="41"/>
+      <c r="D128" s="8"/>
+      <c r="E128" s="7"/>
+      <c r="F128" s="45"/>
+      <c r="G128" s="45"/>
+      <c r="H128" s="13"/>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A129" s="37"/>
-      <c r="B129" s="40"/>
-      <c r="C129" s="42"/>
-      <c r="D129" s="4"/>
-      <c r="E129" s="3"/>
-      <c r="F129" s="44"/>
-      <c r="G129" s="44"/>
-      <c r="H129" s="14"/>
+      <c r="A129" s="35"/>
+      <c r="B129" s="38"/>
+      <c r="C129" s="43"/>
+      <c r="D129" s="10"/>
+      <c r="E129" s="11"/>
+      <c r="F129" s="46"/>
+      <c r="G129" s="46"/>
+      <c r="H129" s="12"/>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="37"/>
@@ -3265,24 +3318,24 @@
       <c r="H130" s="14"/>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A131" s="35"/>
-      <c r="B131" s="38"/>
-      <c r="C131" s="43"/>
-      <c r="D131" s="10"/>
-      <c r="E131" s="11"/>
-      <c r="F131" s="46"/>
-      <c r="G131" s="46"/>
-      <c r="H131" s="12"/>
+      <c r="A131" s="37"/>
+      <c r="B131" s="40"/>
+      <c r="C131" s="42"/>
+      <c r="D131" s="4"/>
+      <c r="E131" s="3"/>
+      <c r="F131" s="44"/>
+      <c r="G131" s="44"/>
+      <c r="H131" s="14"/>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A132" s="37"/>
-      <c r="B132" s="40"/>
-      <c r="C132" s="42"/>
-      <c r="D132" s="4"/>
-      <c r="E132" s="3"/>
-      <c r="F132" s="44"/>
-      <c r="G132" s="44"/>
-      <c r="H132" s="14"/>
+      <c r="A132" s="35"/>
+      <c r="B132" s="38"/>
+      <c r="C132" s="43"/>
+      <c r="D132" s="10"/>
+      <c r="E132" s="11"/>
+      <c r="F132" s="46"/>
+      <c r="G132" s="46"/>
+      <c r="H132" s="12"/>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="37"/>
@@ -3295,83 +3348,84 @@
       <c r="H133" s="14"/>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A134" s="35"/>
-      <c r="B134" s="54"/>
-      <c r="C134" s="43"/>
-      <c r="D134" s="57"/>
-      <c r="E134" s="11"/>
-      <c r="F134" s="53"/>
-      <c r="G134" s="46"/>
-      <c r="H134" s="12"/>
+      <c r="A134" s="37"/>
+      <c r="B134" s="40"/>
+      <c r="C134" s="42"/>
+      <c r="D134" s="4"/>
+      <c r="E134" s="3"/>
+      <c r="F134" s="44"/>
+      <c r="G134" s="44"/>
+      <c r="H134" s="14"/>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A135" s="37"/>
-      <c r="B135" s="55"/>
-      <c r="C135" s="42"/>
-      <c r="D135" s="58"/>
-      <c r="E135" s="3"/>
-      <c r="F135" s="44"/>
-      <c r="G135" s="44"/>
-      <c r="H135" s="14"/>
+      <c r="A135" s="35"/>
+      <c r="B135" s="54"/>
+      <c r="C135" s="43"/>
+      <c r="D135" s="57"/>
+      <c r="E135" s="11"/>
+      <c r="F135" s="53"/>
+      <c r="G135" s="46"/>
+      <c r="H135" s="12"/>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A136" s="36"/>
-      <c r="B136" s="56"/>
-      <c r="C136" s="41"/>
-      <c r="D136" s="59"/>
-      <c r="E136" s="7"/>
-      <c r="F136" s="45"/>
-      <c r="G136" s="45"/>
-      <c r="H136" s="13"/>
+      <c r="A136" s="37"/>
+      <c r="B136" s="55"/>
+      <c r="C136" s="42"/>
+      <c r="D136" s="58"/>
+      <c r="E136" s="3"/>
+      <c r="F136" s="44"/>
+      <c r="G136" s="44"/>
+      <c r="H136" s="14"/>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A137" s="35"/>
-      <c r="B137" s="54"/>
-      <c r="C137" s="43"/>
-      <c r="D137" s="57"/>
-      <c r="E137" s="11"/>
-      <c r="F137" s="53"/>
-      <c r="G137" s="44"/>
-      <c r="H137" s="12"/>
+      <c r="A137" s="36"/>
+      <c r="B137" s="56"/>
+      <c r="C137" s="41"/>
+      <c r="D137" s="59"/>
+      <c r="E137" s="7"/>
+      <c r="F137" s="45"/>
+      <c r="G137" s="45"/>
+      <c r="H137" s="13"/>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A138" s="36"/>
-      <c r="B138" s="56"/>
-      <c r="C138" s="41"/>
-      <c r="D138" s="59"/>
-      <c r="E138" s="7"/>
-      <c r="F138" s="45"/>
-      <c r="G138" s="45"/>
-      <c r="H138" s="13"/>
+      <c r="A138" s="35"/>
+      <c r="B138" s="54"/>
+      <c r="C138" s="43"/>
+      <c r="D138" s="57"/>
+      <c r="E138" s="11"/>
+      <c r="F138" s="53"/>
+      <c r="G138" s="44"/>
+      <c r="H138" s="12"/>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A139" s="35"/>
-      <c r="B139" s="54"/>
-      <c r="C139" s="43"/>
-      <c r="D139" s="57"/>
-      <c r="E139" s="11"/>
-      <c r="F139" s="53"/>
-      <c r="G139" s="44"/>
-      <c r="H139" s="12"/>
+      <c r="A139" s="36"/>
+      <c r="B139" s="56"/>
+      <c r="C139" s="41"/>
+      <c r="D139" s="59"/>
+      <c r="E139" s="7"/>
+      <c r="F139" s="45"/>
+      <c r="G139" s="45"/>
+      <c r="H139" s="13"/>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A140" s="36"/>
-      <c r="B140" s="56"/>
-      <c r="C140" s="41"/>
-      <c r="D140" s="59"/>
-      <c r="E140" s="7"/>
-      <c r="F140" s="45"/>
-      <c r="G140" s="45"/>
-      <c r="H140" s="13"/>
+      <c r="A140" s="35"/>
+      <c r="B140" s="54"/>
+      <c r="C140" s="43"/>
+      <c r="D140" s="57"/>
+      <c r="E140" s="11"/>
+      <c r="F140" s="53"/>
+      <c r="G140" s="44"/>
+      <c r="H140" s="12"/>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B141" s="1"/>
-      <c r="C141" s="2"/>
-      <c r="D141" s="4"/>
-      <c r="E141" s="3"/>
-      <c r="F141" s="4"/>
-      <c r="G141" s="4"/>
-      <c r="H141" s="17"/>
+      <c r="A141" s="36"/>
+      <c r="B141" s="56"/>
+      <c r="C141" s="41"/>
+      <c r="D141" s="59"/>
+      <c r="E141" s="7"/>
+      <c r="F141" s="45"/>
+      <c r="G141" s="45"/>
+      <c r="H141" s="13"/>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B142" s="1"/>
@@ -3588,6 +3642,15 @@
       <c r="F165" s="4"/>
       <c r="G165" s="4"/>
       <c r="H165" s="17"/>
+    </row>
+    <row r="166" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B166" s="1"/>
+      <c r="C166" s="2"/>
+      <c r="D166" s="4"/>
+      <c r="E166" s="3"/>
+      <c r="F166" s="4"/>
+      <c r="G166" s="4"/>
+      <c r="H166" s="17"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/TS Jatai Working/TTD Krama PaaraayaNam-Kramam.xlsx
+++ b/TS Jatai Working/TTD Krama PaaraayaNam-Kramam.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="164">
   <si>
     <t>Date</t>
   </si>
@@ -476,6 +476,36 @@
   </si>
   <si>
     <t>4.1.1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1.4.4 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1.5.1 </t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=z4-Er0d5myg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1.10.5 </t>
+  </si>
+  <si>
+    <t>10-10-2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1.11.1 </t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=MoQ4OvDpMUU</t>
+  </si>
+  <si>
+    <t>4.1.11.4</t>
+  </si>
+  <si>
+    <t>12 min 18 sec</t>
+  </si>
+  <si>
+    <t>4.2.1.1</t>
   </si>
 </sst>
 </file>
@@ -668,7 +698,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -872,6 +902,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1182,8 +1215,8 @@
   <dimension ref="A1:L166"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A83" sqref="A83"/>
+      <pane ySplit="4" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G88" sqref="G88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -2839,7 +2872,9 @@
       <c r="E83" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F83" s="44"/>
+      <c r="F83" s="4" t="s">
+        <v>154</v>
+      </c>
       <c r="G83" s="58" t="s">
         <v>13</v>
       </c>
@@ -2851,71 +2886,115 @@
       <c r="A84" s="36"/>
       <c r="B84" s="41"/>
       <c r="C84" s="41"/>
-      <c r="D84" s="6"/>
+      <c r="D84" s="2"/>
       <c r="E84" s="27"/>
       <c r="F84" s="47"/>
       <c r="G84" s="41"/>
       <c r="H84" s="13"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85" s="35"/>
-      <c r="B85" s="38"/>
-      <c r="C85" s="43"/>
-      <c r="D85" s="10"/>
-      <c r="E85" s="11"/>
-      <c r="F85" s="46"/>
-      <c r="G85" s="46"/>
-      <c r="H85" s="12"/>
+      <c r="A85" s="35">
+        <v>34</v>
+      </c>
+      <c r="B85" s="81" t="s">
+        <v>158</v>
+      </c>
+      <c r="C85" s="67">
+        <v>2</v>
+      </c>
+      <c r="D85" s="78" t="s">
+        <v>155</v>
+      </c>
+      <c r="E85" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F85" s="46" t="s">
+        <v>157</v>
+      </c>
+      <c r="G85" s="70" t="s">
+        <v>13</v>
+      </c>
+      <c r="H85" s="12" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86" s="37"/>
-      <c r="B86" s="40"/>
+      <c r="A86" s="36"/>
+      <c r="B86" s="42"/>
       <c r="C86" s="42"/>
-      <c r="D86" s="4"/>
-      <c r="E86" s="3"/>
-      <c r="F86" s="44"/>
-      <c r="G86" s="44"/>
+      <c r="D86" s="2"/>
+      <c r="E86" s="19"/>
+      <c r="F86" s="48"/>
+      <c r="G86" s="42"/>
       <c r="H86" s="14"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A87" s="36"/>
-      <c r="B87" s="41"/>
-      <c r="C87" s="41"/>
-      <c r="D87" s="6"/>
-      <c r="E87" s="27"/>
-      <c r="F87" s="47"/>
-      <c r="G87" s="41"/>
-      <c r="H87" s="13"/>
+      <c r="A87" s="71">
+        <v>35</v>
+      </c>
+      <c r="B87" s="54">
+        <v>44480</v>
+      </c>
+      <c r="C87" s="35">
+        <v>3</v>
+      </c>
+      <c r="D87" s="75" t="s">
+        <v>159</v>
+      </c>
+      <c r="E87" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F87" s="46" t="s">
+        <v>161</v>
+      </c>
+      <c r="G87" s="60" t="s">
+        <v>162</v>
+      </c>
+      <c r="H87" s="12" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88" s="35"/>
-      <c r="B88" s="38"/>
-      <c r="C88" s="43"/>
-      <c r="D88" s="10"/>
-      <c r="E88" s="11"/>
-      <c r="F88" s="46"/>
-      <c r="G88" s="46"/>
-      <c r="H88" s="12"/>
+      <c r="A88" s="72"/>
+      <c r="B88" s="55">
+        <v>44480</v>
+      </c>
+      <c r="C88" s="37">
+        <v>3</v>
+      </c>
+      <c r="D88" s="80" t="s">
+        <v>163</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F88" s="44"/>
+      <c r="G88" s="70" t="s">
+        <v>13</v>
+      </c>
+      <c r="H88" s="14" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A89" s="36"/>
-      <c r="B89" s="41"/>
-      <c r="C89" s="41"/>
+      <c r="A89" s="66"/>
+      <c r="B89" s="36"/>
+      <c r="C89" s="36"/>
       <c r="D89" s="6"/>
       <c r="E89" s="27"/>
       <c r="F89" s="47"/>
-      <c r="G89" s="41"/>
+      <c r="G89" s="36"/>
       <c r="H89" s="13"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="35"/>
-      <c r="B90" s="38"/>
-      <c r="C90" s="43"/>
-      <c r="D90" s="10"/>
-      <c r="E90" s="11"/>
-      <c r="F90" s="46"/>
-      <c r="G90" s="46"/>
-      <c r="H90" s="12"/>
+      <c r="B90" s="40"/>
+      <c r="C90" s="42"/>
+      <c r="D90" s="4"/>
+      <c r="E90" s="3"/>
+      <c r="F90" s="44"/>
+      <c r="G90" s="44"/>
+      <c r="H90" s="14"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="37"/>

--- a/TS Jatai Working/TTD Krama PaaraayaNam-Kramam.xlsx
+++ b/TS Jatai Working/TTD Krama PaaraayaNam-Kramam.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="166">
   <si>
     <t>Date</t>
   </si>
@@ -506,6 +506,12 @@
   </si>
   <si>
     <t>4.2.1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2.5.6 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2.6.1 </t>
   </si>
 </sst>
 </file>
@@ -1216,7 +1222,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G88" sqref="G88"/>
+      <selection pane="bottomLeft" activeCell="C87" sqref="C87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -2960,7 +2966,7 @@
         <v>44480</v>
       </c>
       <c r="C88" s="37">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D88" s="80" t="s">
         <v>163</v>
@@ -2968,7 +2974,9 @@
       <c r="E88" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F88" s="44"/>
+      <c r="F88" s="4" t="s">
+        <v>164</v>
+      </c>
       <c r="G88" s="70" t="s">
         <v>13</v>
       </c>
@@ -2987,11 +2995,21 @@
       <c r="H89" s="13"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90" s="35"/>
-      <c r="B90" s="40"/>
-      <c r="C90" s="42"/>
-      <c r="D90" s="4"/>
-      <c r="E90" s="3"/>
+      <c r="A90" s="35">
+        <v>36</v>
+      </c>
+      <c r="B90" s="40">
+        <v>44481</v>
+      </c>
+      <c r="C90" s="42">
+        <v>2</v>
+      </c>
+      <c r="D90" s="80" t="s">
+        <v>165</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="F90" s="44"/>
       <c r="G90" s="44"/>
       <c r="H90" s="14"/>

--- a/TS Jatai Working/TTD Krama PaaraayaNam-Kramam.xlsx
+++ b/TS Jatai Working/TTD Krama PaaraayaNam-Kramam.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="172">
   <si>
     <t>Date</t>
   </si>
@@ -512,6 +512,24 @@
   </si>
   <si>
     <t xml:space="preserve">4.2.6.1 </t>
+  </si>
+  <si>
+    <t>45 min 03 sec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2.11.3 </t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=yMJIp2oDZ18&amp;t=2116s</t>
+  </si>
+  <si>
+    <t>4.3.1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.3.2.3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.3.3.1 </t>
   </si>
 </sst>
 </file>
@@ -704,7 +722,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -912,6 +930,9 @@
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1221,8 +1242,8 @@
   <dimension ref="A1:L166"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C87" sqref="C87"/>
+      <pane ySplit="4" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E94" sqref="E94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -2980,7 +3001,7 @@
       <c r="G88" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="H88" s="14" t="s">
+      <c r="H88" s="82" t="s">
         <v>160</v>
       </c>
     </row>
@@ -3010,19 +3031,39 @@
       <c r="E90" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F90" s="44"/>
-      <c r="G90" s="44"/>
-      <c r="H90" s="14"/>
+      <c r="F90" s="46" t="s">
+        <v>167</v>
+      </c>
+      <c r="G90" s="44" t="s">
+        <v>166</v>
+      </c>
+      <c r="H90" s="14" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="37"/>
-      <c r="B91" s="40"/>
-      <c r="C91" s="42"/>
-      <c r="D91" s="4"/>
-      <c r="E91" s="3"/>
-      <c r="F91" s="44"/>
-      <c r="G91" s="44"/>
-      <c r="H91" s="14"/>
+      <c r="B91" s="40">
+        <v>44481</v>
+      </c>
+      <c r="C91" s="42">
+        <v>1</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F91" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="G91" s="70" t="s">
+        <v>13</v>
+      </c>
+      <c r="H91" s="14" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="36"/>
@@ -3035,11 +3076,21 @@
       <c r="H92" s="13"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93" s="35"/>
-      <c r="B93" s="38"/>
-      <c r="C93" s="43"/>
-      <c r="D93" s="10"/>
-      <c r="E93" s="11"/>
+      <c r="A93" s="35">
+        <v>37</v>
+      </c>
+      <c r="B93" s="38">
+        <v>44482</v>
+      </c>
+      <c r="C93" s="43">
+        <v>2</v>
+      </c>
+      <c r="D93" s="80" t="s">
+        <v>171</v>
+      </c>
+      <c r="E93" s="11" t="s">
+        <v>9</v>
+      </c>
       <c r="F93" s="46"/>
       <c r="G93" s="46"/>
       <c r="H93" s="12"/>

--- a/TS Jatai Working/TTD Krama PaaraayaNam-Kramam.xlsx
+++ b/TS Jatai Working/TTD Krama PaaraayaNam-Kramam.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="179">
   <si>
     <t>Date</t>
   </si>
@@ -530,6 +530,27 @@
   </si>
   <si>
     <t xml:space="preserve">4.3.3.1 </t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=EGzkzsIKhWU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.3.10.3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.3.11.1 </t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=x10Mq_IUshI&amp;t=14s</t>
+  </si>
+  <si>
+    <t>29 min 02 sec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.3.13.8 </t>
+  </si>
+  <si>
+    <t>4.4.1.1</t>
   </si>
 </sst>
 </file>
@@ -1242,8 +1263,8 @@
   <dimension ref="A1:L166"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E94" sqref="E94"/>
+      <pane ySplit="4" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A96" sqref="A96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -3091,9 +3112,15 @@
       <c r="E93" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F93" s="46"/>
-      <c r="G93" s="46"/>
-      <c r="H93" s="12"/>
+      <c r="F93" s="46" t="s">
+        <v>173</v>
+      </c>
+      <c r="G93" s="70" t="s">
+        <v>13</v>
+      </c>
+      <c r="H93" s="12" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="36"/>
@@ -3106,24 +3133,52 @@
       <c r="H94" s="13"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A95" s="37"/>
-      <c r="B95" s="40"/>
-      <c r="C95" s="42"/>
-      <c r="D95" s="4"/>
-      <c r="E95" s="3"/>
-      <c r="F95" s="44"/>
-      <c r="G95" s="44"/>
-      <c r="H95" s="17"/>
+      <c r="A95" s="37">
+        <v>38</v>
+      </c>
+      <c r="B95" s="40">
+        <v>44483</v>
+      </c>
+      <c r="C95" s="42">
+        <v>3</v>
+      </c>
+      <c r="D95" s="80" t="s">
+        <v>174</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F95" s="46" t="s">
+        <v>177</v>
+      </c>
+      <c r="G95" s="44" t="s">
+        <v>176</v>
+      </c>
+      <c r="H95" s="17" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="37"/>
-      <c r="B96" s="40"/>
-      <c r="C96" s="42"/>
-      <c r="D96" s="4"/>
-      <c r="E96" s="3"/>
+      <c r="B96" s="40">
+        <v>44483</v>
+      </c>
+      <c r="C96" s="42">
+        <v>1</v>
+      </c>
+      <c r="D96" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="F96" s="44"/>
-      <c r="G96" s="44"/>
-      <c r="H96" s="17"/>
+      <c r="G96" s="70" t="s">
+        <v>13</v>
+      </c>
+      <c r="H96" s="17" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="37"/>

--- a/TS Jatai Working/TTD Krama PaaraayaNam-Kramam.xlsx
+++ b/TS Jatai Working/TTD Krama PaaraayaNam-Kramam.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="184">
   <si>
     <t>Date</t>
   </si>
@@ -551,6 +551,21 @@
   </si>
   <si>
     <t>4.4.1.1</t>
+  </si>
+  <si>
+    <t>4.4.3.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.4.4.1 </t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=VSzia84qh_U</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.4.12.5 </t>
+  </si>
+  <si>
+    <t>4.5.1.1</t>
   </si>
 </sst>
 </file>
@@ -1260,11 +1275,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L166"/>
+  <dimension ref="A1:L165"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A96" sqref="A96"/>
+      <pane ySplit="4" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E100" sqref="E100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -3142,19 +3157,19 @@
       <c r="C95" s="42">
         <v>3</v>
       </c>
-      <c r="D95" s="80" t="s">
+      <c r="D95" s="78" t="s">
         <v>174</v>
       </c>
-      <c r="E95" s="3" t="s">
+      <c r="E95" s="11" t="s">
         <v>9</v>
       </c>
       <c r="F95" s="46" t="s">
         <v>177</v>
       </c>
-      <c r="G95" s="44" t="s">
+      <c r="G95" s="60" t="s">
         <v>176</v>
       </c>
-      <c r="H95" s="17" t="s">
+      <c r="H95" s="62" t="s">
         <v>175</v>
       </c>
     </row>
@@ -3166,17 +3181,19 @@
       <c r="C96" s="42">
         <v>1</v>
       </c>
-      <c r="D96" s="4" t="s">
+      <c r="D96" s="58" t="s">
         <v>178</v>
       </c>
       <c r="E96" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F96" s="44"/>
+      <c r="F96" s="44" t="s">
+        <v>179</v>
+      </c>
       <c r="G96" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="H96" s="17" t="s">
+      <c r="H96" s="63" t="s">
         <v>175</v>
       </c>
     </row>
@@ -3184,331 +3201,357 @@
       <c r="A97" s="37"/>
       <c r="B97" s="42"/>
       <c r="C97" s="42"/>
-      <c r="D97" s="2"/>
-      <c r="E97" s="19"/>
-      <c r="F97" s="48"/>
-      <c r="G97" s="42"/>
-      <c r="H97" s="17"/>
+      <c r="D97" s="66"/>
+      <c r="E97" s="27"/>
+      <c r="F97" s="47"/>
+      <c r="G97" s="36"/>
+      <c r="H97" s="64"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A98" s="35"/>
-      <c r="B98" s="38"/>
-      <c r="C98" s="43"/>
-      <c r="D98" s="10"/>
-      <c r="E98" s="11"/>
-      <c r="F98" s="46"/>
-      <c r="G98" s="46"/>
-      <c r="H98" s="12"/>
+      <c r="A98" s="35">
+        <v>39</v>
+      </c>
+      <c r="B98" s="38">
+        <v>44484</v>
+      </c>
+      <c r="C98" s="43">
+        <v>2</v>
+      </c>
+      <c r="D98" s="80" t="s">
+        <v>180</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F98" s="46" t="s">
+        <v>182</v>
+      </c>
+      <c r="G98" s="70" t="s">
+        <v>13</v>
+      </c>
+      <c r="H98" s="12" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A99" s="37"/>
-      <c r="B99" s="40"/>
-      <c r="C99" s="42"/>
-      <c r="D99" s="4"/>
-      <c r="E99" s="3"/>
-      <c r="F99" s="44"/>
-      <c r="G99" s="44"/>
-      <c r="H99" s="14"/>
+      <c r="A99" s="36"/>
+      <c r="B99" s="39"/>
+      <c r="C99" s="41"/>
+      <c r="D99" s="8"/>
+      <c r="E99" s="7"/>
+      <c r="F99" s="45"/>
+      <c r="G99" s="45"/>
+      <c r="H99" s="13"/>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A100" s="36"/>
-      <c r="B100" s="39"/>
-      <c r="C100" s="41"/>
-      <c r="D100" s="8"/>
-      <c r="E100" s="7"/>
-      <c r="F100" s="45"/>
-      <c r="G100" s="45"/>
-      <c r="H100" s="13"/>
+      <c r="A100" s="35">
+        <v>40</v>
+      </c>
+      <c r="B100" s="38">
+        <v>44485</v>
+      </c>
+      <c r="C100" s="43">
+        <v>1</v>
+      </c>
+      <c r="D100" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="E100" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F100" s="46"/>
+      <c r="G100" s="46"/>
+      <c r="H100" s="12"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A101" s="35"/>
-      <c r="B101" s="38"/>
-      <c r="C101" s="43"/>
-      <c r="D101" s="10"/>
-      <c r="E101" s="11"/>
-      <c r="F101" s="46"/>
-      <c r="G101" s="46"/>
-      <c r="H101" s="12"/>
+      <c r="A101" s="36"/>
+      <c r="B101" s="39"/>
+      <c r="C101" s="41"/>
+      <c r="D101" s="8"/>
+      <c r="E101" s="7"/>
+      <c r="F101" s="45"/>
+      <c r="G101" s="45"/>
+      <c r="H101" s="13"/>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A102" s="36"/>
-      <c r="B102" s="39"/>
-      <c r="C102" s="41"/>
-      <c r="D102" s="8"/>
-      <c r="E102" s="7"/>
-      <c r="F102" s="45"/>
-      <c r="G102" s="45"/>
-      <c r="H102" s="13"/>
+      <c r="A102" s="35"/>
+      <c r="B102" s="38"/>
+      <c r="C102" s="43"/>
+      <c r="D102" s="10"/>
+      <c r="E102" s="11"/>
+      <c r="F102" s="46"/>
+      <c r="G102" s="46"/>
+      <c r="H102" s="12"/>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A103" s="35"/>
-      <c r="B103" s="38"/>
-      <c r="C103" s="43"/>
-      <c r="D103" s="10"/>
-      <c r="E103" s="11"/>
-      <c r="F103" s="46"/>
-      <c r="G103" s="46"/>
-      <c r="H103" s="12"/>
+      <c r="A103" s="37"/>
+      <c r="B103" s="40"/>
+      <c r="C103" s="42"/>
+      <c r="D103" s="4"/>
+      <c r="E103" s="3"/>
+      <c r="F103" s="44"/>
+      <c r="G103" s="44"/>
+      <c r="H103" s="14"/>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A104" s="37"/>
-      <c r="B104" s="40"/>
-      <c r="C104" s="42"/>
-      <c r="D104" s="4"/>
-      <c r="E104" s="3"/>
-      <c r="F104" s="44"/>
-      <c r="G104" s="44"/>
-      <c r="H104" s="14"/>
+      <c r="A104" s="36"/>
+      <c r="B104" s="39"/>
+      <c r="C104" s="41"/>
+      <c r="D104" s="8"/>
+      <c r="E104" s="7"/>
+      <c r="F104" s="45"/>
+      <c r="G104" s="45"/>
+      <c r="H104" s="13"/>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A105" s="36"/>
-      <c r="B105" s="39"/>
-      <c r="C105" s="41"/>
-      <c r="D105" s="8"/>
-      <c r="E105" s="7"/>
-      <c r="F105" s="45"/>
-      <c r="G105" s="45"/>
-      <c r="H105" s="13"/>
+      <c r="A105" s="35"/>
+      <c r="B105" s="38"/>
+      <c r="C105" s="43"/>
+      <c r="D105" s="10"/>
+      <c r="E105" s="11"/>
+      <c r="F105" s="46"/>
+      <c r="G105" s="46"/>
+      <c r="H105" s="12"/>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A106" s="35"/>
-      <c r="B106" s="38"/>
-      <c r="C106" s="43"/>
-      <c r="D106" s="10"/>
-      <c r="E106" s="11"/>
-      <c r="F106" s="46"/>
-      <c r="G106" s="46"/>
-      <c r="H106" s="12"/>
+      <c r="A106" s="37"/>
+      <c r="B106" s="40"/>
+      <c r="C106" s="42"/>
+      <c r="D106" s="4"/>
+      <c r="E106" s="3"/>
+      <c r="F106" s="44"/>
+      <c r="G106" s="44"/>
+      <c r="H106" s="14"/>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A107" s="37"/>
-      <c r="B107" s="40"/>
-      <c r="C107" s="42"/>
-      <c r="D107" s="4"/>
-      <c r="E107" s="3"/>
-      <c r="F107" s="44"/>
-      <c r="G107" s="44"/>
-      <c r="H107" s="14"/>
+      <c r="A107" s="36"/>
+      <c r="B107" s="39"/>
+      <c r="C107" s="41"/>
+      <c r="D107" s="8"/>
+      <c r="E107" s="7"/>
+      <c r="F107" s="45"/>
+      <c r="G107" s="45"/>
+      <c r="H107" s="13"/>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A108" s="36"/>
-      <c r="B108" s="39"/>
-      <c r="C108" s="41"/>
-      <c r="D108" s="8"/>
-      <c r="E108" s="7"/>
-      <c r="F108" s="45"/>
-      <c r="G108" s="45"/>
-      <c r="H108" s="13"/>
+      <c r="A108" s="35"/>
+      <c r="B108" s="38"/>
+      <c r="C108" s="43"/>
+      <c r="D108" s="10"/>
+      <c r="E108" s="11"/>
+      <c r="F108" s="46"/>
+      <c r="G108" s="46"/>
+      <c r="H108" s="12"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A109" s="35"/>
-      <c r="B109" s="38"/>
-      <c r="C109" s="43"/>
-      <c r="D109" s="10"/>
-      <c r="E109" s="11"/>
-      <c r="F109" s="46"/>
-      <c r="G109" s="46"/>
-      <c r="H109" s="12"/>
+      <c r="A109" s="37"/>
+      <c r="B109" s="40"/>
+      <c r="C109" s="42"/>
+      <c r="D109" s="4"/>
+      <c r="E109" s="3"/>
+      <c r="F109" s="44"/>
+      <c r="G109" s="44"/>
+      <c r="H109" s="14"/>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A110" s="37"/>
-      <c r="B110" s="40"/>
-      <c r="C110" s="42"/>
-      <c r="D110" s="4"/>
-      <c r="E110" s="3"/>
-      <c r="F110" s="44"/>
-      <c r="G110" s="44"/>
-      <c r="H110" s="14"/>
+      <c r="A110" s="36"/>
+      <c r="B110" s="39"/>
+      <c r="C110" s="41"/>
+      <c r="D110" s="8"/>
+      <c r="E110" s="7"/>
+      <c r="F110" s="45"/>
+      <c r="G110" s="45"/>
+      <c r="H110" s="13"/>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A111" s="36"/>
-      <c r="B111" s="39"/>
-      <c r="C111" s="41"/>
-      <c r="D111" s="8"/>
-      <c r="E111" s="7"/>
-      <c r="F111" s="45"/>
-      <c r="G111" s="45"/>
-      <c r="H111" s="13"/>
+      <c r="A111" s="35"/>
+      <c r="B111" s="38"/>
+      <c r="C111" s="43"/>
+      <c r="D111" s="10"/>
+      <c r="E111" s="11"/>
+      <c r="F111" s="46"/>
+      <c r="G111" s="46"/>
+      <c r="H111" s="12"/>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A112" s="35"/>
-      <c r="B112" s="38"/>
-      <c r="C112" s="43"/>
-      <c r="D112" s="10"/>
-      <c r="E112" s="11"/>
-      <c r="F112" s="46"/>
-      <c r="G112" s="46"/>
-      <c r="H112" s="12"/>
+      <c r="A112" s="36"/>
+      <c r="B112" s="39"/>
+      <c r="C112" s="41"/>
+      <c r="D112" s="8"/>
+      <c r="E112" s="7"/>
+      <c r="F112" s="45"/>
+      <c r="G112" s="45"/>
+      <c r="H112" s="13"/>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A113" s="36"/>
-      <c r="B113" s="39"/>
-      <c r="C113" s="41"/>
-      <c r="D113" s="8"/>
-      <c r="E113" s="7"/>
-      <c r="F113" s="45"/>
-      <c r="G113" s="45"/>
-      <c r="H113" s="13"/>
+      <c r="A113" s="35"/>
+      <c r="B113" s="38"/>
+      <c r="C113" s="43"/>
+      <c r="D113" s="10"/>
+      <c r="E113" s="11"/>
+      <c r="F113" s="46"/>
+      <c r="G113" s="46"/>
+      <c r="H113" s="12"/>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A114" s="35"/>
-      <c r="B114" s="38"/>
-      <c r="C114" s="43"/>
-      <c r="D114" s="10"/>
-      <c r="E114" s="11"/>
-      <c r="F114" s="46"/>
-      <c r="G114" s="46"/>
-      <c r="H114" s="12"/>
+      <c r="A114" s="37"/>
+      <c r="B114" s="40"/>
+      <c r="C114" s="42"/>
+      <c r="D114" s="4"/>
+      <c r="E114" s="3"/>
+      <c r="F114" s="44"/>
+      <c r="G114" s="44"/>
+      <c r="H114" s="14"/>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A115" s="37"/>
-      <c r="B115" s="40"/>
-      <c r="C115" s="42"/>
-      <c r="D115" s="4"/>
-      <c r="E115" s="3"/>
-      <c r="F115" s="44"/>
-      <c r="G115" s="44"/>
-      <c r="H115" s="14"/>
+      <c r="A115" s="36"/>
+      <c r="B115" s="39"/>
+      <c r="C115" s="41"/>
+      <c r="D115" s="8"/>
+      <c r="E115" s="7"/>
+      <c r="F115" s="45"/>
+      <c r="G115" s="45"/>
+      <c r="H115" s="13"/>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A116" s="36"/>
-      <c r="B116" s="39"/>
-      <c r="C116" s="41"/>
-      <c r="D116" s="8"/>
-      <c r="E116" s="7"/>
-      <c r="F116" s="45"/>
-      <c r="G116" s="45"/>
-      <c r="H116" s="13"/>
+      <c r="A116" s="35"/>
+      <c r="B116" s="38"/>
+      <c r="C116" s="43"/>
+      <c r="D116" s="10"/>
+      <c r="E116" s="11"/>
+      <c r="F116" s="46"/>
+      <c r="G116" s="46"/>
+      <c r="H116" s="12"/>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A117" s="35"/>
-      <c r="B117" s="38"/>
-      <c r="C117" s="43"/>
-      <c r="D117" s="10"/>
-      <c r="E117" s="11"/>
-      <c r="F117" s="46"/>
-      <c r="G117" s="46"/>
-      <c r="H117" s="12"/>
+      <c r="A117" s="37"/>
+      <c r="B117" s="40"/>
+      <c r="C117" s="42"/>
+      <c r="D117" s="4"/>
+      <c r="E117" s="3"/>
+      <c r="F117" s="44"/>
+      <c r="G117" s="44"/>
+      <c r="H117" s="14"/>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A118" s="37"/>
-      <c r="B118" s="40"/>
-      <c r="C118" s="42"/>
-      <c r="D118" s="4"/>
-      <c r="E118" s="3"/>
-      <c r="F118" s="44"/>
-      <c r="G118" s="44"/>
-      <c r="H118" s="14"/>
+      <c r="A118" s="36"/>
+      <c r="B118" s="39"/>
+      <c r="C118" s="41"/>
+      <c r="D118" s="8"/>
+      <c r="E118" s="7"/>
+      <c r="F118" s="45"/>
+      <c r="G118" s="45"/>
+      <c r="H118" s="13"/>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A119" s="36"/>
-      <c r="B119" s="39"/>
-      <c r="C119" s="41"/>
-      <c r="D119" s="8"/>
-      <c r="E119" s="7"/>
-      <c r="F119" s="45"/>
-      <c r="G119" s="45"/>
-      <c r="H119" s="13"/>
+      <c r="A119" s="35"/>
+      <c r="B119" s="38"/>
+      <c r="C119" s="43"/>
+      <c r="D119" s="10"/>
+      <c r="E119" s="11"/>
+      <c r="F119" s="46"/>
+      <c r="G119" s="46"/>
+      <c r="H119" s="12"/>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A120" s="35"/>
-      <c r="B120" s="38"/>
-      <c r="C120" s="43"/>
-      <c r="D120" s="10"/>
-      <c r="E120" s="11"/>
-      <c r="F120" s="46"/>
-      <c r="G120" s="46"/>
-      <c r="H120" s="12"/>
+      <c r="A120" s="37"/>
+      <c r="B120" s="40"/>
+      <c r="C120" s="42"/>
+      <c r="D120" s="4"/>
+      <c r="E120" s="3"/>
+      <c r="F120" s="44"/>
+      <c r="G120" s="44"/>
+      <c r="H120" s="14"/>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A121" s="37"/>
-      <c r="B121" s="40"/>
-      <c r="C121" s="42"/>
-      <c r="D121" s="4"/>
-      <c r="E121" s="3"/>
-      <c r="F121" s="44"/>
-      <c r="G121" s="44"/>
-      <c r="H121" s="14"/>
+      <c r="A121" s="36"/>
+      <c r="B121" s="39"/>
+      <c r="C121" s="41"/>
+      <c r="D121" s="8"/>
+      <c r="E121" s="7"/>
+      <c r="F121" s="45"/>
+      <c r="G121" s="45"/>
+      <c r="H121" s="13"/>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A122" s="36"/>
-      <c r="B122" s="39"/>
-      <c r="C122" s="41"/>
-      <c r="D122" s="8"/>
-      <c r="E122" s="7"/>
-      <c r="F122" s="45"/>
-      <c r="G122" s="45"/>
-      <c r="H122" s="13"/>
+      <c r="A122" s="35"/>
+      <c r="B122" s="38"/>
+      <c r="C122" s="43"/>
+      <c r="D122" s="10"/>
+      <c r="E122" s="11"/>
+      <c r="F122" s="46"/>
+      <c r="G122" s="46"/>
+      <c r="H122" s="12"/>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A123" s="35"/>
-      <c r="B123" s="38"/>
-      <c r="C123" s="43"/>
-      <c r="D123" s="10"/>
-      <c r="E123" s="11"/>
-      <c r="F123" s="46"/>
-      <c r="G123" s="46"/>
-      <c r="H123" s="12"/>
+      <c r="A123" s="37"/>
+      <c r="B123" s="40"/>
+      <c r="C123" s="42"/>
+      <c r="D123" s="4"/>
+      <c r="E123" s="3"/>
+      <c r="F123" s="44"/>
+      <c r="G123" s="44"/>
+      <c r="H123" s="14"/>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A124" s="37"/>
-      <c r="B124" s="40"/>
-      <c r="C124" s="42"/>
-      <c r="D124" s="4"/>
-      <c r="E124" s="3"/>
-      <c r="F124" s="44"/>
-      <c r="G124" s="44"/>
-      <c r="H124" s="14"/>
+      <c r="A124" s="36"/>
+      <c r="B124" s="39"/>
+      <c r="C124" s="41"/>
+      <c r="D124" s="8"/>
+      <c r="E124" s="7"/>
+      <c r="F124" s="45"/>
+      <c r="G124" s="45"/>
+      <c r="H124" s="13"/>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A125" s="36"/>
-      <c r="B125" s="39"/>
-      <c r="C125" s="41"/>
-      <c r="D125" s="8"/>
-      <c r="E125" s="7"/>
-      <c r="F125" s="45"/>
-      <c r="G125" s="45"/>
-      <c r="H125" s="13"/>
+      <c r="A125" s="35"/>
+      <c r="B125" s="38"/>
+      <c r="C125" s="43"/>
+      <c r="D125" s="10"/>
+      <c r="E125" s="11"/>
+      <c r="F125" s="46"/>
+      <c r="G125" s="46"/>
+      <c r="H125" s="12"/>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A126" s="35"/>
-      <c r="B126" s="38"/>
-      <c r="C126" s="43"/>
-      <c r="D126" s="10"/>
-      <c r="E126" s="11"/>
-      <c r="F126" s="46"/>
-      <c r="G126" s="46"/>
-      <c r="H126" s="12"/>
+      <c r="A126" s="37"/>
+      <c r="B126" s="40"/>
+      <c r="C126" s="42"/>
+      <c r="D126" s="4"/>
+      <c r="E126" s="3"/>
+      <c r="F126" s="44"/>
+      <c r="G126" s="44"/>
+      <c r="H126" s="14"/>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A127" s="37"/>
-      <c r="B127" s="40"/>
-      <c r="C127" s="42"/>
-      <c r="D127" s="4"/>
-      <c r="E127" s="3"/>
-      <c r="F127" s="44"/>
-      <c r="G127" s="44"/>
-      <c r="H127" s="14"/>
+      <c r="A127" s="36"/>
+      <c r="B127" s="39"/>
+      <c r="C127" s="41"/>
+      <c r="D127" s="8"/>
+      <c r="E127" s="7"/>
+      <c r="F127" s="45"/>
+      <c r="G127" s="45"/>
+      <c r="H127" s="13"/>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A128" s="36"/>
-      <c r="B128" s="39"/>
-      <c r="C128" s="41"/>
-      <c r="D128" s="8"/>
-      <c r="E128" s="7"/>
-      <c r="F128" s="45"/>
-      <c r="G128" s="45"/>
-      <c r="H128" s="13"/>
+      <c r="A128" s="35"/>
+      <c r="B128" s="38"/>
+      <c r="C128" s="43"/>
+      <c r="D128" s="10"/>
+      <c r="E128" s="11"/>
+      <c r="F128" s="46"/>
+      <c r="G128" s="46"/>
+      <c r="H128" s="12"/>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A129" s="35"/>
-      <c r="B129" s="38"/>
-      <c r="C129" s="43"/>
-      <c r="D129" s="10"/>
-      <c r="E129" s="11"/>
-      <c r="F129" s="46"/>
-      <c r="G129" s="46"/>
-      <c r="H129" s="12"/>
+      <c r="A129" s="37"/>
+      <c r="B129" s="40"/>
+      <c r="C129" s="42"/>
+      <c r="D129" s="4"/>
+      <c r="E129" s="3"/>
+      <c r="F129" s="44"/>
+      <c r="G129" s="44"/>
+      <c r="H129" s="14"/>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="37"/>
@@ -3521,24 +3564,24 @@
       <c r="H130" s="14"/>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A131" s="37"/>
-      <c r="B131" s="40"/>
-      <c r="C131" s="42"/>
-      <c r="D131" s="4"/>
-      <c r="E131" s="3"/>
-      <c r="F131" s="44"/>
-      <c r="G131" s="44"/>
-      <c r="H131" s="14"/>
+      <c r="A131" s="35"/>
+      <c r="B131" s="38"/>
+      <c r="C131" s="43"/>
+      <c r="D131" s="10"/>
+      <c r="E131" s="11"/>
+      <c r="F131" s="46"/>
+      <c r="G131" s="46"/>
+      <c r="H131" s="12"/>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A132" s="35"/>
-      <c r="B132" s="38"/>
-      <c r="C132" s="43"/>
-      <c r="D132" s="10"/>
-      <c r="E132" s="11"/>
-      <c r="F132" s="46"/>
-      <c r="G132" s="46"/>
-      <c r="H132" s="12"/>
+      <c r="A132" s="37"/>
+      <c r="B132" s="40"/>
+      <c r="C132" s="42"/>
+      <c r="D132" s="4"/>
+      <c r="E132" s="3"/>
+      <c r="F132" s="44"/>
+      <c r="G132" s="44"/>
+      <c r="H132" s="14"/>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="37"/>
@@ -3551,84 +3594,83 @@
       <c r="H133" s="14"/>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A134" s="37"/>
-      <c r="B134" s="40"/>
-      <c r="C134" s="42"/>
-      <c r="D134" s="4"/>
-      <c r="E134" s="3"/>
-      <c r="F134" s="44"/>
-      <c r="G134" s="44"/>
-      <c r="H134" s="14"/>
+      <c r="A134" s="35"/>
+      <c r="B134" s="54"/>
+      <c r="C134" s="43"/>
+      <c r="D134" s="57"/>
+      <c r="E134" s="11"/>
+      <c r="F134" s="53"/>
+      <c r="G134" s="46"/>
+      <c r="H134" s="12"/>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A135" s="35"/>
-      <c r="B135" s="54"/>
-      <c r="C135" s="43"/>
-      <c r="D135" s="57"/>
-      <c r="E135" s="11"/>
-      <c r="F135" s="53"/>
-      <c r="G135" s="46"/>
-      <c r="H135" s="12"/>
+      <c r="A135" s="37"/>
+      <c r="B135" s="55"/>
+      <c r="C135" s="42"/>
+      <c r="D135" s="58"/>
+      <c r="E135" s="3"/>
+      <c r="F135" s="44"/>
+      <c r="G135" s="44"/>
+      <c r="H135" s="14"/>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A136" s="37"/>
-      <c r="B136" s="55"/>
-      <c r="C136" s="42"/>
-      <c r="D136" s="58"/>
-      <c r="E136" s="3"/>
-      <c r="F136" s="44"/>
-      <c r="G136" s="44"/>
-      <c r="H136" s="14"/>
+      <c r="A136" s="36"/>
+      <c r="B136" s="56"/>
+      <c r="C136" s="41"/>
+      <c r="D136" s="59"/>
+      <c r="E136" s="7"/>
+      <c r="F136" s="45"/>
+      <c r="G136" s="45"/>
+      <c r="H136" s="13"/>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A137" s="36"/>
-      <c r="B137" s="56"/>
-      <c r="C137" s="41"/>
-      <c r="D137" s="59"/>
-      <c r="E137" s="7"/>
-      <c r="F137" s="45"/>
-      <c r="G137" s="45"/>
-      <c r="H137" s="13"/>
+      <c r="A137" s="35"/>
+      <c r="B137" s="54"/>
+      <c r="C137" s="43"/>
+      <c r="D137" s="57"/>
+      <c r="E137" s="11"/>
+      <c r="F137" s="53"/>
+      <c r="G137" s="44"/>
+      <c r="H137" s="12"/>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A138" s="35"/>
-      <c r="B138" s="54"/>
-      <c r="C138" s="43"/>
-      <c r="D138" s="57"/>
-      <c r="E138" s="11"/>
-      <c r="F138" s="53"/>
-      <c r="G138" s="44"/>
-      <c r="H138" s="12"/>
+      <c r="A138" s="36"/>
+      <c r="B138" s="56"/>
+      <c r="C138" s="41"/>
+      <c r="D138" s="59"/>
+      <c r="E138" s="7"/>
+      <c r="F138" s="45"/>
+      <c r="G138" s="45"/>
+      <c r="H138" s="13"/>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A139" s="36"/>
-      <c r="B139" s="56"/>
-      <c r="C139" s="41"/>
-      <c r="D139" s="59"/>
-      <c r="E139" s="7"/>
-      <c r="F139" s="45"/>
-      <c r="G139" s="45"/>
-      <c r="H139" s="13"/>
+      <c r="A139" s="35"/>
+      <c r="B139" s="54"/>
+      <c r="C139" s="43"/>
+      <c r="D139" s="57"/>
+      <c r="E139" s="11"/>
+      <c r="F139" s="53"/>
+      <c r="G139" s="44"/>
+      <c r="H139" s="12"/>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A140" s="35"/>
-      <c r="B140" s="54"/>
-      <c r="C140" s="43"/>
-      <c r="D140" s="57"/>
-      <c r="E140" s="11"/>
-      <c r="F140" s="53"/>
-      <c r="G140" s="44"/>
-      <c r="H140" s="12"/>
+      <c r="A140" s="36"/>
+      <c r="B140" s="56"/>
+      <c r="C140" s="41"/>
+      <c r="D140" s="59"/>
+      <c r="E140" s="7"/>
+      <c r="F140" s="45"/>
+      <c r="G140" s="45"/>
+      <c r="H140" s="13"/>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A141" s="36"/>
-      <c r="B141" s="56"/>
-      <c r="C141" s="41"/>
-      <c r="D141" s="59"/>
-      <c r="E141" s="7"/>
-      <c r="F141" s="45"/>
-      <c r="G141" s="45"/>
-      <c r="H141" s="13"/>
+      <c r="B141" s="1"/>
+      <c r="C141" s="2"/>
+      <c r="D141" s="4"/>
+      <c r="E141" s="3"/>
+      <c r="F141" s="4"/>
+      <c r="G141" s="4"/>
+      <c r="H141" s="17"/>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B142" s="1"/>
@@ -3845,15 +3887,6 @@
       <c r="F165" s="4"/>
       <c r="G165" s="4"/>
       <c r="H165" s="17"/>
-    </row>
-    <row r="166" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B166" s="1"/>
-      <c r="C166" s="2"/>
-      <c r="D166" s="4"/>
-      <c r="E166" s="3"/>
-      <c r="F166" s="4"/>
-      <c r="G166" s="4"/>
-      <c r="H166" s="17"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/TS Jatai Working/TTD Krama PaaraayaNam-Kramam.xlsx
+++ b/TS Jatai Working/TTD Krama PaaraayaNam-Kramam.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="188">
   <si>
     <t>Date</t>
   </si>
@@ -566,6 +566,18 @@
   </si>
   <si>
     <t>4.5.1.1</t>
+  </si>
+  <si>
+    <t>40 min 12 sec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.5.11.2 </t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=dFYyccjjr_M&amp;t=1820s</t>
+  </si>
+  <si>
+    <t>4.6.1.1</t>
   </si>
 </sst>
 </file>
@@ -1275,11 +1287,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L165"/>
+  <dimension ref="A1:L166"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E100" sqref="E100"/>
+      <selection pane="bottomLeft" activeCell="G101" sqref="G101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -3259,299 +3271,317 @@
       <c r="E100" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F100" s="46"/>
-      <c r="G100" s="46"/>
-      <c r="H100" s="12"/>
+      <c r="F100" s="46" t="s">
+        <v>185</v>
+      </c>
+      <c r="G100" s="46" t="s">
+        <v>184</v>
+      </c>
+      <c r="H100" s="12" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A101" s="36"/>
-      <c r="B101" s="39"/>
-      <c r="C101" s="41"/>
-      <c r="D101" s="8"/>
-      <c r="E101" s="7"/>
-      <c r="F101" s="45"/>
-      <c r="G101" s="45"/>
-      <c r="H101" s="13"/>
+      <c r="A101" s="37"/>
+      <c r="B101" s="40">
+        <v>44485</v>
+      </c>
+      <c r="C101" s="42">
+        <v>1</v>
+      </c>
+      <c r="D101" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F101" s="44"/>
+      <c r="G101" s="70" t="s">
+        <v>13</v>
+      </c>
+      <c r="H101" s="14" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A102" s="35"/>
-      <c r="B102" s="38"/>
-      <c r="C102" s="43"/>
-      <c r="D102" s="10"/>
-      <c r="E102" s="11"/>
-      <c r="F102" s="46"/>
-      <c r="G102" s="46"/>
-      <c r="H102" s="12"/>
+      <c r="A102" s="36"/>
+      <c r="B102" s="39"/>
+      <c r="C102" s="41"/>
+      <c r="D102" s="8"/>
+      <c r="E102" s="7"/>
+      <c r="F102" s="45"/>
+      <c r="G102" s="45"/>
+      <c r="H102" s="13"/>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A103" s="37"/>
-      <c r="B103" s="40"/>
-      <c r="C103" s="42"/>
-      <c r="D103" s="4"/>
-      <c r="E103" s="3"/>
-      <c r="F103" s="44"/>
-      <c r="G103" s="44"/>
-      <c r="H103" s="14"/>
+      <c r="A103" s="35"/>
+      <c r="B103" s="38"/>
+      <c r="C103" s="43"/>
+      <c r="D103" s="10"/>
+      <c r="E103" s="11"/>
+      <c r="F103" s="46"/>
+      <c r="G103" s="46"/>
+      <c r="H103" s="12"/>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A104" s="36"/>
-      <c r="B104" s="39"/>
-      <c r="C104" s="41"/>
-      <c r="D104" s="8"/>
-      <c r="E104" s="7"/>
-      <c r="F104" s="45"/>
-      <c r="G104" s="45"/>
-      <c r="H104" s="13"/>
+      <c r="A104" s="37"/>
+      <c r="B104" s="40"/>
+      <c r="C104" s="42"/>
+      <c r="D104" s="4"/>
+      <c r="E104" s="3"/>
+      <c r="F104" s="44"/>
+      <c r="G104" s="44"/>
+      <c r="H104" s="14"/>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A105" s="35"/>
-      <c r="B105" s="38"/>
-      <c r="C105" s="43"/>
-      <c r="D105" s="10"/>
-      <c r="E105" s="11"/>
-      <c r="F105" s="46"/>
-      <c r="G105" s="46"/>
-      <c r="H105" s="12"/>
+      <c r="A105" s="36"/>
+      <c r="B105" s="39"/>
+      <c r="C105" s="41"/>
+      <c r="D105" s="8"/>
+      <c r="E105" s="7"/>
+      <c r="F105" s="45"/>
+      <c r="G105" s="45"/>
+      <c r="H105" s="13"/>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A106" s="37"/>
-      <c r="B106" s="40"/>
-      <c r="C106" s="42"/>
-      <c r="D106" s="4"/>
-      <c r="E106" s="3"/>
-      <c r="F106" s="44"/>
-      <c r="G106" s="44"/>
-      <c r="H106" s="14"/>
+      <c r="A106" s="35"/>
+      <c r="B106" s="38"/>
+      <c r="C106" s="43"/>
+      <c r="D106" s="10"/>
+      <c r="E106" s="11"/>
+      <c r="F106" s="46"/>
+      <c r="G106" s="46"/>
+      <c r="H106" s="12"/>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A107" s="36"/>
-      <c r="B107" s="39"/>
-      <c r="C107" s="41"/>
-      <c r="D107" s="8"/>
-      <c r="E107" s="7"/>
-      <c r="F107" s="45"/>
-      <c r="G107" s="45"/>
-      <c r="H107" s="13"/>
+      <c r="A107" s="37"/>
+      <c r="B107" s="40"/>
+      <c r="C107" s="42"/>
+      <c r="D107" s="4"/>
+      <c r="E107" s="3"/>
+      <c r="F107" s="44"/>
+      <c r="G107" s="44"/>
+      <c r="H107" s="14"/>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A108" s="35"/>
-      <c r="B108" s="38"/>
-      <c r="C108" s="43"/>
-      <c r="D108" s="10"/>
-      <c r="E108" s="11"/>
-      <c r="F108" s="46"/>
-      <c r="G108" s="46"/>
-      <c r="H108" s="12"/>
+      <c r="A108" s="36"/>
+      <c r="B108" s="39"/>
+      <c r="C108" s="41"/>
+      <c r="D108" s="8"/>
+      <c r="E108" s="7"/>
+      <c r="F108" s="45"/>
+      <c r="G108" s="45"/>
+      <c r="H108" s="13"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A109" s="37"/>
-      <c r="B109" s="40"/>
-      <c r="C109" s="42"/>
-      <c r="D109" s="4"/>
-      <c r="E109" s="3"/>
-      <c r="F109" s="44"/>
-      <c r="G109" s="44"/>
-      <c r="H109" s="14"/>
+      <c r="A109" s="35"/>
+      <c r="B109" s="38"/>
+      <c r="C109" s="43"/>
+      <c r="D109" s="10"/>
+      <c r="E109" s="11"/>
+      <c r="F109" s="46"/>
+      <c r="G109" s="46"/>
+      <c r="H109" s="12"/>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A110" s="36"/>
-      <c r="B110" s="39"/>
-      <c r="C110" s="41"/>
-      <c r="D110" s="8"/>
-      <c r="E110" s="7"/>
-      <c r="F110" s="45"/>
-      <c r="G110" s="45"/>
-      <c r="H110" s="13"/>
+      <c r="A110" s="37"/>
+      <c r="B110" s="40"/>
+      <c r="C110" s="42"/>
+      <c r="D110" s="4"/>
+      <c r="E110" s="3"/>
+      <c r="F110" s="44"/>
+      <c r="G110" s="44"/>
+      <c r="H110" s="14"/>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A111" s="35"/>
-      <c r="B111" s="38"/>
-      <c r="C111" s="43"/>
-      <c r="D111" s="10"/>
-      <c r="E111" s="11"/>
-      <c r="F111" s="46"/>
-      <c r="G111" s="46"/>
-      <c r="H111" s="12"/>
+      <c r="A111" s="36"/>
+      <c r="B111" s="39"/>
+      <c r="C111" s="41"/>
+      <c r="D111" s="8"/>
+      <c r="E111" s="7"/>
+      <c r="F111" s="45"/>
+      <c r="G111" s="45"/>
+      <c r="H111" s="13"/>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A112" s="36"/>
-      <c r="B112" s="39"/>
-      <c r="C112" s="41"/>
-      <c r="D112" s="8"/>
-      <c r="E112" s="7"/>
-      <c r="F112" s="45"/>
-      <c r="G112" s="45"/>
-      <c r="H112" s="13"/>
+      <c r="A112" s="35"/>
+      <c r="B112" s="38"/>
+      <c r="C112" s="43"/>
+      <c r="D112" s="10"/>
+      <c r="E112" s="11"/>
+      <c r="F112" s="46"/>
+      <c r="G112" s="46"/>
+      <c r="H112" s="12"/>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A113" s="35"/>
-      <c r="B113" s="38"/>
-      <c r="C113" s="43"/>
-      <c r="D113" s="10"/>
-      <c r="E113" s="11"/>
-      <c r="F113" s="46"/>
-      <c r="G113" s="46"/>
-      <c r="H113" s="12"/>
+      <c r="A113" s="36"/>
+      <c r="B113" s="39"/>
+      <c r="C113" s="41"/>
+      <c r="D113" s="8"/>
+      <c r="E113" s="7"/>
+      <c r="F113" s="45"/>
+      <c r="G113" s="45"/>
+      <c r="H113" s="13"/>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A114" s="37"/>
-      <c r="B114" s="40"/>
-      <c r="C114" s="42"/>
-      <c r="D114" s="4"/>
-      <c r="E114" s="3"/>
-      <c r="F114" s="44"/>
-      <c r="G114" s="44"/>
-      <c r="H114" s="14"/>
+      <c r="A114" s="35"/>
+      <c r="B114" s="38"/>
+      <c r="C114" s="43"/>
+      <c r="D114" s="10"/>
+      <c r="E114" s="11"/>
+      <c r="F114" s="46"/>
+      <c r="G114" s="46"/>
+      <c r="H114" s="12"/>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A115" s="36"/>
-      <c r="B115" s="39"/>
-      <c r="C115" s="41"/>
-      <c r="D115" s="8"/>
-      <c r="E115" s="7"/>
-      <c r="F115" s="45"/>
-      <c r="G115" s="45"/>
-      <c r="H115" s="13"/>
+      <c r="A115" s="37"/>
+      <c r="B115" s="40"/>
+      <c r="C115" s="42"/>
+      <c r="D115" s="4"/>
+      <c r="E115" s="3"/>
+      <c r="F115" s="44"/>
+      <c r="G115" s="44"/>
+      <c r="H115" s="14"/>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A116" s="35"/>
-      <c r="B116" s="38"/>
-      <c r="C116" s="43"/>
-      <c r="D116" s="10"/>
-      <c r="E116" s="11"/>
-      <c r="F116" s="46"/>
-      <c r="G116" s="46"/>
-      <c r="H116" s="12"/>
+      <c r="A116" s="36"/>
+      <c r="B116" s="39"/>
+      <c r="C116" s="41"/>
+      <c r="D116" s="8"/>
+      <c r="E116" s="7"/>
+      <c r="F116" s="45"/>
+      <c r="G116" s="45"/>
+      <c r="H116" s="13"/>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A117" s="37"/>
-      <c r="B117" s="40"/>
-      <c r="C117" s="42"/>
-      <c r="D117" s="4"/>
-      <c r="E117" s="3"/>
-      <c r="F117" s="44"/>
-      <c r="G117" s="44"/>
-      <c r="H117" s="14"/>
+      <c r="A117" s="35"/>
+      <c r="B117" s="38"/>
+      <c r="C117" s="43"/>
+      <c r="D117" s="10"/>
+      <c r="E117" s="11"/>
+      <c r="F117" s="46"/>
+      <c r="G117" s="46"/>
+      <c r="H117" s="12"/>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A118" s="36"/>
-      <c r="B118" s="39"/>
-      <c r="C118" s="41"/>
-      <c r="D118" s="8"/>
-      <c r="E118" s="7"/>
-      <c r="F118" s="45"/>
-      <c r="G118" s="45"/>
-      <c r="H118" s="13"/>
+      <c r="A118" s="37"/>
+      <c r="B118" s="40"/>
+      <c r="C118" s="42"/>
+      <c r="D118" s="4"/>
+      <c r="E118" s="3"/>
+      <c r="F118" s="44"/>
+      <c r="G118" s="44"/>
+      <c r="H118" s="14"/>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A119" s="35"/>
-      <c r="B119" s="38"/>
-      <c r="C119" s="43"/>
-      <c r="D119" s="10"/>
-      <c r="E119" s="11"/>
-      <c r="F119" s="46"/>
-      <c r="G119" s="46"/>
-      <c r="H119" s="12"/>
+      <c r="A119" s="36"/>
+      <c r="B119" s="39"/>
+      <c r="C119" s="41"/>
+      <c r="D119" s="8"/>
+      <c r="E119" s="7"/>
+      <c r="F119" s="45"/>
+      <c r="G119" s="45"/>
+      <c r="H119" s="13"/>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A120" s="37"/>
-      <c r="B120" s="40"/>
-      <c r="C120" s="42"/>
-      <c r="D120" s="4"/>
-      <c r="E120" s="3"/>
-      <c r="F120" s="44"/>
-      <c r="G120" s="44"/>
-      <c r="H120" s="14"/>
+      <c r="A120" s="35"/>
+      <c r="B120" s="38"/>
+      <c r="C120" s="43"/>
+      <c r="D120" s="10"/>
+      <c r="E120" s="11"/>
+      <c r="F120" s="46"/>
+      <c r="G120" s="46"/>
+      <c r="H120" s="12"/>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A121" s="36"/>
-      <c r="B121" s="39"/>
-      <c r="C121" s="41"/>
-      <c r="D121" s="8"/>
-      <c r="E121" s="7"/>
-      <c r="F121" s="45"/>
-      <c r="G121" s="45"/>
-      <c r="H121" s="13"/>
+      <c r="A121" s="37"/>
+      <c r="B121" s="40"/>
+      <c r="C121" s="42"/>
+      <c r="D121" s="4"/>
+      <c r="E121" s="3"/>
+      <c r="F121" s="44"/>
+      <c r="G121" s="44"/>
+      <c r="H121" s="14"/>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A122" s="35"/>
-      <c r="B122" s="38"/>
-      <c r="C122" s="43"/>
-      <c r="D122" s="10"/>
-      <c r="E122" s="11"/>
-      <c r="F122" s="46"/>
-      <c r="G122" s="46"/>
-      <c r="H122" s="12"/>
+      <c r="A122" s="36"/>
+      <c r="B122" s="39"/>
+      <c r="C122" s="41"/>
+      <c r="D122" s="8"/>
+      <c r="E122" s="7"/>
+      <c r="F122" s="45"/>
+      <c r="G122" s="45"/>
+      <c r="H122" s="13"/>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A123" s="37"/>
-      <c r="B123" s="40"/>
-      <c r="C123" s="42"/>
-      <c r="D123" s="4"/>
-      <c r="E123" s="3"/>
-      <c r="F123" s="44"/>
-      <c r="G123" s="44"/>
-      <c r="H123" s="14"/>
+      <c r="A123" s="35"/>
+      <c r="B123" s="38"/>
+      <c r="C123" s="43"/>
+      <c r="D123" s="10"/>
+      <c r="E123" s="11"/>
+      <c r="F123" s="46"/>
+      <c r="G123" s="46"/>
+      <c r="H123" s="12"/>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A124" s="36"/>
-      <c r="B124" s="39"/>
-      <c r="C124" s="41"/>
-      <c r="D124" s="8"/>
-      <c r="E124" s="7"/>
-      <c r="F124" s="45"/>
-      <c r="G124" s="45"/>
-      <c r="H124" s="13"/>
+      <c r="A124" s="37"/>
+      <c r="B124" s="40"/>
+      <c r="C124" s="42"/>
+      <c r="D124" s="4"/>
+      <c r="E124" s="3"/>
+      <c r="F124" s="44"/>
+      <c r="G124" s="44"/>
+      <c r="H124" s="14"/>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A125" s="35"/>
-      <c r="B125" s="38"/>
-      <c r="C125" s="43"/>
-      <c r="D125" s="10"/>
-      <c r="E125" s="11"/>
-      <c r="F125" s="46"/>
-      <c r="G125" s="46"/>
-      <c r="H125" s="12"/>
+      <c r="A125" s="36"/>
+      <c r="B125" s="39"/>
+      <c r="C125" s="41"/>
+      <c r="D125" s="8"/>
+      <c r="E125" s="7"/>
+      <c r="F125" s="45"/>
+      <c r="G125" s="45"/>
+      <c r="H125" s="13"/>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A126" s="37"/>
-      <c r="B126" s="40"/>
-      <c r="C126" s="42"/>
-      <c r="D126" s="4"/>
-      <c r="E126" s="3"/>
-      <c r="F126" s="44"/>
-      <c r="G126" s="44"/>
-      <c r="H126" s="14"/>
+      <c r="A126" s="35"/>
+      <c r="B126" s="38"/>
+      <c r="C126" s="43"/>
+      <c r="D126" s="10"/>
+      <c r="E126" s="11"/>
+      <c r="F126" s="46"/>
+      <c r="G126" s="46"/>
+      <c r="H126" s="12"/>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A127" s="36"/>
-      <c r="B127" s="39"/>
-      <c r="C127" s="41"/>
-      <c r="D127" s="8"/>
-      <c r="E127" s="7"/>
-      <c r="F127" s="45"/>
-      <c r="G127" s="45"/>
-      <c r="H127" s="13"/>
+      <c r="A127" s="37"/>
+      <c r="B127" s="40"/>
+      <c r="C127" s="42"/>
+      <c r="D127" s="4"/>
+      <c r="E127" s="3"/>
+      <c r="F127" s="44"/>
+      <c r="G127" s="44"/>
+      <c r="H127" s="14"/>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A128" s="35"/>
-      <c r="B128" s="38"/>
-      <c r="C128" s="43"/>
-      <c r="D128" s="10"/>
-      <c r="E128" s="11"/>
-      <c r="F128" s="46"/>
-      <c r="G128" s="46"/>
-      <c r="H128" s="12"/>
+      <c r="A128" s="36"/>
+      <c r="B128" s="39"/>
+      <c r="C128" s="41"/>
+      <c r="D128" s="8"/>
+      <c r="E128" s="7"/>
+      <c r="F128" s="45"/>
+      <c r="G128" s="45"/>
+      <c r="H128" s="13"/>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A129" s="37"/>
-      <c r="B129" s="40"/>
-      <c r="C129" s="42"/>
-      <c r="D129" s="4"/>
-      <c r="E129" s="3"/>
-      <c r="F129" s="44"/>
-      <c r="G129" s="44"/>
-      <c r="H129" s="14"/>
+      <c r="A129" s="35"/>
+      <c r="B129" s="38"/>
+      <c r="C129" s="43"/>
+      <c r="D129" s="10"/>
+      <c r="E129" s="11"/>
+      <c r="F129" s="46"/>
+      <c r="G129" s="46"/>
+      <c r="H129" s="12"/>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="37"/>
@@ -3564,24 +3594,24 @@
       <c r="H130" s="14"/>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A131" s="35"/>
-      <c r="B131" s="38"/>
-      <c r="C131" s="43"/>
-      <c r="D131" s="10"/>
-      <c r="E131" s="11"/>
-      <c r="F131" s="46"/>
-      <c r="G131" s="46"/>
-      <c r="H131" s="12"/>
+      <c r="A131" s="37"/>
+      <c r="B131" s="40"/>
+      <c r="C131" s="42"/>
+      <c r="D131" s="4"/>
+      <c r="E131" s="3"/>
+      <c r="F131" s="44"/>
+      <c r="G131" s="44"/>
+      <c r="H131" s="14"/>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A132" s="37"/>
-      <c r="B132" s="40"/>
-      <c r="C132" s="42"/>
-      <c r="D132" s="4"/>
-      <c r="E132" s="3"/>
-      <c r="F132" s="44"/>
-      <c r="G132" s="44"/>
-      <c r="H132" s="14"/>
+      <c r="A132" s="35"/>
+      <c r="B132" s="38"/>
+      <c r="C132" s="43"/>
+      <c r="D132" s="10"/>
+      <c r="E132" s="11"/>
+      <c r="F132" s="46"/>
+      <c r="G132" s="46"/>
+      <c r="H132" s="12"/>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="37"/>
@@ -3594,83 +3624,84 @@
       <c r="H133" s="14"/>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A134" s="35"/>
-      <c r="B134" s="54"/>
-      <c r="C134" s="43"/>
-      <c r="D134" s="57"/>
-      <c r="E134" s="11"/>
-      <c r="F134" s="53"/>
-      <c r="G134" s="46"/>
-      <c r="H134" s="12"/>
+      <c r="A134" s="37"/>
+      <c r="B134" s="40"/>
+      <c r="C134" s="42"/>
+      <c r="D134" s="4"/>
+      <c r="E134" s="3"/>
+      <c r="F134" s="44"/>
+      <c r="G134" s="44"/>
+      <c r="H134" s="14"/>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A135" s="37"/>
-      <c r="B135" s="55"/>
-      <c r="C135" s="42"/>
-      <c r="D135" s="58"/>
-      <c r="E135" s="3"/>
-      <c r="F135" s="44"/>
-      <c r="G135" s="44"/>
-      <c r="H135" s="14"/>
+      <c r="A135" s="35"/>
+      <c r="B135" s="54"/>
+      <c r="C135" s="43"/>
+      <c r="D135" s="57"/>
+      <c r="E135" s="11"/>
+      <c r="F135" s="53"/>
+      <c r="G135" s="46"/>
+      <c r="H135" s="12"/>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A136" s="36"/>
-      <c r="B136" s="56"/>
-      <c r="C136" s="41"/>
-      <c r="D136" s="59"/>
-      <c r="E136" s="7"/>
-      <c r="F136" s="45"/>
-      <c r="G136" s="45"/>
-      <c r="H136" s="13"/>
+      <c r="A136" s="37"/>
+      <c r="B136" s="55"/>
+      <c r="C136" s="42"/>
+      <c r="D136" s="58"/>
+      <c r="E136" s="3"/>
+      <c r="F136" s="44"/>
+      <c r="G136" s="44"/>
+      <c r="H136" s="14"/>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A137" s="35"/>
-      <c r="B137" s="54"/>
-      <c r="C137" s="43"/>
-      <c r="D137" s="57"/>
-      <c r="E137" s="11"/>
-      <c r="F137" s="53"/>
-      <c r="G137" s="44"/>
-      <c r="H137" s="12"/>
+      <c r="A137" s="36"/>
+      <c r="B137" s="56"/>
+      <c r="C137" s="41"/>
+      <c r="D137" s="59"/>
+      <c r="E137" s="7"/>
+      <c r="F137" s="45"/>
+      <c r="G137" s="45"/>
+      <c r="H137" s="13"/>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A138" s="36"/>
-      <c r="B138" s="56"/>
-      <c r="C138" s="41"/>
-      <c r="D138" s="59"/>
-      <c r="E138" s="7"/>
-      <c r="F138" s="45"/>
-      <c r="G138" s="45"/>
-      <c r="H138" s="13"/>
+      <c r="A138" s="35"/>
+      <c r="B138" s="54"/>
+      <c r="C138" s="43"/>
+      <c r="D138" s="57"/>
+      <c r="E138" s="11"/>
+      <c r="F138" s="53"/>
+      <c r="G138" s="44"/>
+      <c r="H138" s="12"/>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A139" s="35"/>
-      <c r="B139" s="54"/>
-      <c r="C139" s="43"/>
-      <c r="D139" s="57"/>
-      <c r="E139" s="11"/>
-      <c r="F139" s="53"/>
-      <c r="G139" s="44"/>
-      <c r="H139" s="12"/>
+      <c r="A139" s="36"/>
+      <c r="B139" s="56"/>
+      <c r="C139" s="41"/>
+      <c r="D139" s="59"/>
+      <c r="E139" s="7"/>
+      <c r="F139" s="45"/>
+      <c r="G139" s="45"/>
+      <c r="H139" s="13"/>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A140" s="36"/>
-      <c r="B140" s="56"/>
-      <c r="C140" s="41"/>
-      <c r="D140" s="59"/>
-      <c r="E140" s="7"/>
-      <c r="F140" s="45"/>
-      <c r="G140" s="45"/>
-      <c r="H140" s="13"/>
+      <c r="A140" s="35"/>
+      <c r="B140" s="54"/>
+      <c r="C140" s="43"/>
+      <c r="D140" s="57"/>
+      <c r="E140" s="11"/>
+      <c r="F140" s="53"/>
+      <c r="G140" s="44"/>
+      <c r="H140" s="12"/>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B141" s="1"/>
-      <c r="C141" s="2"/>
-      <c r="D141" s="4"/>
-      <c r="E141" s="3"/>
-      <c r="F141" s="4"/>
-      <c r="G141" s="4"/>
-      <c r="H141" s="17"/>
+      <c r="A141" s="36"/>
+      <c r="B141" s="56"/>
+      <c r="C141" s="41"/>
+      <c r="D141" s="59"/>
+      <c r="E141" s="7"/>
+      <c r="F141" s="45"/>
+      <c r="G141" s="45"/>
+      <c r="H141" s="13"/>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B142" s="1"/>
@@ -3887,6 +3918,15 @@
       <c r="F165" s="4"/>
       <c r="G165" s="4"/>
       <c r="H165" s="17"/>
+    </row>
+    <row r="166" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B166" s="1"/>
+      <c r="C166" s="2"/>
+      <c r="D166" s="4"/>
+      <c r="E166" s="3"/>
+      <c r="F166" s="4"/>
+      <c r="G166" s="4"/>
+      <c r="H166" s="17"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/TS Jatai Working/TTD Krama PaaraayaNam-Kramam.xlsx
+++ b/TS Jatai Working/TTD Krama PaaraayaNam-Kramam.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="193">
   <si>
     <t>Date</t>
   </si>
@@ -578,6 +578,21 @@
   </si>
   <si>
     <t>4.6.1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.6.2.6 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.6.3.1 </t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=hhRPXF4ZLGw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.6.6.7 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.6.7.1 </t>
   </si>
 </sst>
 </file>
@@ -1287,11 +1302,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L166"/>
+  <dimension ref="A1:L165"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G101" sqref="G101"/>
+      <pane ySplit="4" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E106" sqref="E106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -3295,7 +3310,9 @@
       <c r="E101" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F101" s="44"/>
+      <c r="F101" s="44" t="s">
+        <v>188</v>
+      </c>
       <c r="G101" s="70" t="s">
         <v>13</v>
       </c>
@@ -3314,274 +3331,300 @@
       <c r="H102" s="13"/>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A103" s="35"/>
-      <c r="B103" s="38"/>
-      <c r="C103" s="43"/>
-      <c r="D103" s="10"/>
-      <c r="E103" s="11"/>
-      <c r="F103" s="46"/>
-      <c r="G103" s="46"/>
-      <c r="H103" s="12"/>
+      <c r="A103" s="35">
+        <v>41</v>
+      </c>
+      <c r="B103" s="38">
+        <v>44486</v>
+      </c>
+      <c r="C103" s="43">
+        <v>2</v>
+      </c>
+      <c r="D103" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="E103" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F103" s="46" t="s">
+        <v>191</v>
+      </c>
+      <c r="G103" s="70" t="s">
+        <v>13</v>
+      </c>
+      <c r="H103" s="12" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A104" s="37"/>
-      <c r="B104" s="40"/>
-      <c r="C104" s="42"/>
-      <c r="D104" s="4"/>
-      <c r="E104" s="3"/>
-      <c r="F104" s="44"/>
-      <c r="G104" s="44"/>
-      <c r="H104" s="14"/>
+      <c r="A104" s="36"/>
+      <c r="B104" s="39"/>
+      <c r="C104" s="41"/>
+      <c r="D104" s="8"/>
+      <c r="E104" s="7"/>
+      <c r="F104" s="45"/>
+      <c r="G104" s="45"/>
+      <c r="H104" s="13"/>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A105" s="36"/>
-      <c r="B105" s="39"/>
-      <c r="C105" s="41"/>
-      <c r="D105" s="8"/>
-      <c r="E105" s="7"/>
-      <c r="F105" s="45"/>
-      <c r="G105" s="45"/>
-      <c r="H105" s="13"/>
+      <c r="A105" s="35">
+        <v>42</v>
+      </c>
+      <c r="B105" s="38">
+        <v>44487</v>
+      </c>
+      <c r="C105" s="43">
+        <v>3</v>
+      </c>
+      <c r="D105" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="E105" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F105" s="46"/>
+      <c r="G105" s="46"/>
+      <c r="H105" s="12"/>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A106" s="35"/>
-      <c r="B106" s="38"/>
-      <c r="C106" s="43"/>
-      <c r="D106" s="10"/>
-      <c r="E106" s="11"/>
-      <c r="F106" s="46"/>
-      <c r="G106" s="46"/>
-      <c r="H106" s="12"/>
+      <c r="A106" s="37"/>
+      <c r="B106" s="40"/>
+      <c r="C106" s="42"/>
+      <c r="D106" s="4"/>
+      <c r="E106" s="3"/>
+      <c r="F106" s="44"/>
+      <c r="G106" s="44"/>
+      <c r="H106" s="14"/>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A107" s="37"/>
-      <c r="B107" s="40"/>
-      <c r="C107" s="42"/>
-      <c r="D107" s="4"/>
-      <c r="E107" s="3"/>
-      <c r="F107" s="44"/>
-      <c r="G107" s="44"/>
-      <c r="H107" s="14"/>
+      <c r="A107" s="36"/>
+      <c r="B107" s="39"/>
+      <c r="C107" s="41"/>
+      <c r="D107" s="8"/>
+      <c r="E107" s="7"/>
+      <c r="F107" s="45"/>
+      <c r="G107" s="45"/>
+      <c r="H107" s="13"/>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A108" s="36"/>
-      <c r="B108" s="39"/>
-      <c r="C108" s="41"/>
-      <c r="D108" s="8"/>
-      <c r="E108" s="7"/>
-      <c r="F108" s="45"/>
-      <c r="G108" s="45"/>
-      <c r="H108" s="13"/>
+      <c r="A108" s="35"/>
+      <c r="B108" s="38"/>
+      <c r="C108" s="43"/>
+      <c r="D108" s="10"/>
+      <c r="E108" s="11"/>
+      <c r="F108" s="46"/>
+      <c r="G108" s="46"/>
+      <c r="H108" s="12"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A109" s="35"/>
-      <c r="B109" s="38"/>
-      <c r="C109" s="43"/>
-      <c r="D109" s="10"/>
-      <c r="E109" s="11"/>
-      <c r="F109" s="46"/>
-      <c r="G109" s="46"/>
-      <c r="H109" s="12"/>
+      <c r="A109" s="37"/>
+      <c r="B109" s="40"/>
+      <c r="C109" s="42"/>
+      <c r="D109" s="4"/>
+      <c r="E109" s="3"/>
+      <c r="F109" s="44"/>
+      <c r="G109" s="44"/>
+      <c r="H109" s="14"/>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A110" s="37"/>
-      <c r="B110" s="40"/>
-      <c r="C110" s="42"/>
-      <c r="D110" s="4"/>
-      <c r="E110" s="3"/>
-      <c r="F110" s="44"/>
-      <c r="G110" s="44"/>
-      <c r="H110" s="14"/>
+      <c r="A110" s="36"/>
+      <c r="B110" s="39"/>
+      <c r="C110" s="41"/>
+      <c r="D110" s="8"/>
+      <c r="E110" s="7"/>
+      <c r="F110" s="45"/>
+      <c r="G110" s="45"/>
+      <c r="H110" s="13"/>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A111" s="36"/>
-      <c r="B111" s="39"/>
-      <c r="C111" s="41"/>
-      <c r="D111" s="8"/>
-      <c r="E111" s="7"/>
-      <c r="F111" s="45"/>
-      <c r="G111" s="45"/>
-      <c r="H111" s="13"/>
+      <c r="A111" s="35"/>
+      <c r="B111" s="38"/>
+      <c r="C111" s="43"/>
+      <c r="D111" s="10"/>
+      <c r="E111" s="11"/>
+      <c r="F111" s="46"/>
+      <c r="G111" s="46"/>
+      <c r="H111" s="12"/>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A112" s="35"/>
-      <c r="B112" s="38"/>
-      <c r="C112" s="43"/>
-      <c r="D112" s="10"/>
-      <c r="E112" s="11"/>
-      <c r="F112" s="46"/>
-      <c r="G112" s="46"/>
-      <c r="H112" s="12"/>
+      <c r="A112" s="36"/>
+      <c r="B112" s="39"/>
+      <c r="C112" s="41"/>
+      <c r="D112" s="8"/>
+      <c r="E112" s="7"/>
+      <c r="F112" s="45"/>
+      <c r="G112" s="45"/>
+      <c r="H112" s="13"/>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A113" s="36"/>
-      <c r="B113" s="39"/>
-      <c r="C113" s="41"/>
-      <c r="D113" s="8"/>
-      <c r="E113" s="7"/>
-      <c r="F113" s="45"/>
-      <c r="G113" s="45"/>
-      <c r="H113" s="13"/>
+      <c r="A113" s="35"/>
+      <c r="B113" s="38"/>
+      <c r="C113" s="43"/>
+      <c r="D113" s="10"/>
+      <c r="E113" s="11"/>
+      <c r="F113" s="46"/>
+      <c r="G113" s="46"/>
+      <c r="H113" s="12"/>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A114" s="35"/>
-      <c r="B114" s="38"/>
-      <c r="C114" s="43"/>
-      <c r="D114" s="10"/>
-      <c r="E114" s="11"/>
-      <c r="F114" s="46"/>
-      <c r="G114" s="46"/>
-      <c r="H114" s="12"/>
+      <c r="A114" s="37"/>
+      <c r="B114" s="40"/>
+      <c r="C114" s="42"/>
+      <c r="D114" s="4"/>
+      <c r="E114" s="3"/>
+      <c r="F114" s="44"/>
+      <c r="G114" s="44"/>
+      <c r="H114" s="14"/>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A115" s="37"/>
-      <c r="B115" s="40"/>
-      <c r="C115" s="42"/>
-      <c r="D115" s="4"/>
-      <c r="E115" s="3"/>
-      <c r="F115" s="44"/>
-      <c r="G115" s="44"/>
-      <c r="H115" s="14"/>
+      <c r="A115" s="36"/>
+      <c r="B115" s="39"/>
+      <c r="C115" s="41"/>
+      <c r="D115" s="8"/>
+      <c r="E115" s="7"/>
+      <c r="F115" s="45"/>
+      <c r="G115" s="45"/>
+      <c r="H115" s="13"/>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A116" s="36"/>
-      <c r="B116" s="39"/>
-      <c r="C116" s="41"/>
-      <c r="D116" s="8"/>
-      <c r="E116" s="7"/>
-      <c r="F116" s="45"/>
-      <c r="G116" s="45"/>
-      <c r="H116" s="13"/>
+      <c r="A116" s="35"/>
+      <c r="B116" s="38"/>
+      <c r="C116" s="43"/>
+      <c r="D116" s="10"/>
+      <c r="E116" s="11"/>
+      <c r="F116" s="46"/>
+      <c r="G116" s="46"/>
+      <c r="H116" s="12"/>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A117" s="35"/>
-      <c r="B117" s="38"/>
-      <c r="C117" s="43"/>
-      <c r="D117" s="10"/>
-      <c r="E117" s="11"/>
-      <c r="F117" s="46"/>
-      <c r="G117" s="46"/>
-      <c r="H117" s="12"/>
+      <c r="A117" s="37"/>
+      <c r="B117" s="40"/>
+      <c r="C117" s="42"/>
+      <c r="D117" s="4"/>
+      <c r="E117" s="3"/>
+      <c r="F117" s="44"/>
+      <c r="G117" s="44"/>
+      <c r="H117" s="14"/>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A118" s="37"/>
-      <c r="B118" s="40"/>
-      <c r="C118" s="42"/>
-      <c r="D118" s="4"/>
-      <c r="E118" s="3"/>
-      <c r="F118" s="44"/>
-      <c r="G118" s="44"/>
-      <c r="H118" s="14"/>
+      <c r="A118" s="36"/>
+      <c r="B118" s="39"/>
+      <c r="C118" s="41"/>
+      <c r="D118" s="8"/>
+      <c r="E118" s="7"/>
+      <c r="F118" s="45"/>
+      <c r="G118" s="45"/>
+      <c r="H118" s="13"/>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A119" s="36"/>
-      <c r="B119" s="39"/>
-      <c r="C119" s="41"/>
-      <c r="D119" s="8"/>
-      <c r="E119" s="7"/>
-      <c r="F119" s="45"/>
-      <c r="G119" s="45"/>
-      <c r="H119" s="13"/>
+      <c r="A119" s="35"/>
+      <c r="B119" s="38"/>
+      <c r="C119" s="43"/>
+      <c r="D119" s="10"/>
+      <c r="E119" s="11"/>
+      <c r="F119" s="46"/>
+      <c r="G119" s="46"/>
+      <c r="H119" s="12"/>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A120" s="35"/>
-      <c r="B120" s="38"/>
-      <c r="C120" s="43"/>
-      <c r="D120" s="10"/>
-      <c r="E120" s="11"/>
-      <c r="F120" s="46"/>
-      <c r="G120" s="46"/>
-      <c r="H120" s="12"/>
+      <c r="A120" s="37"/>
+      <c r="B120" s="40"/>
+      <c r="C120" s="42"/>
+      <c r="D120" s="4"/>
+      <c r="E120" s="3"/>
+      <c r="F120" s="44"/>
+      <c r="G120" s="44"/>
+      <c r="H120" s="14"/>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A121" s="37"/>
-      <c r="B121" s="40"/>
-      <c r="C121" s="42"/>
-      <c r="D121" s="4"/>
-      <c r="E121" s="3"/>
-      <c r="F121" s="44"/>
-      <c r="G121" s="44"/>
-      <c r="H121" s="14"/>
+      <c r="A121" s="36"/>
+      <c r="B121" s="39"/>
+      <c r="C121" s="41"/>
+      <c r="D121" s="8"/>
+      <c r="E121" s="7"/>
+      <c r="F121" s="45"/>
+      <c r="G121" s="45"/>
+      <c r="H121" s="13"/>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A122" s="36"/>
-      <c r="B122" s="39"/>
-      <c r="C122" s="41"/>
-      <c r="D122" s="8"/>
-      <c r="E122" s="7"/>
-      <c r="F122" s="45"/>
-      <c r="G122" s="45"/>
-      <c r="H122" s="13"/>
+      <c r="A122" s="35"/>
+      <c r="B122" s="38"/>
+      <c r="C122" s="43"/>
+      <c r="D122" s="10"/>
+      <c r="E122" s="11"/>
+      <c r="F122" s="46"/>
+      <c r="G122" s="46"/>
+      <c r="H122" s="12"/>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A123" s="35"/>
-      <c r="B123" s="38"/>
-      <c r="C123" s="43"/>
-      <c r="D123" s="10"/>
-      <c r="E123" s="11"/>
-      <c r="F123" s="46"/>
-      <c r="G123" s="46"/>
-      <c r="H123" s="12"/>
+      <c r="A123" s="37"/>
+      <c r="B123" s="40"/>
+      <c r="C123" s="42"/>
+      <c r="D123" s="4"/>
+      <c r="E123" s="3"/>
+      <c r="F123" s="44"/>
+      <c r="G123" s="44"/>
+      <c r="H123" s="14"/>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A124" s="37"/>
-      <c r="B124" s="40"/>
-      <c r="C124" s="42"/>
-      <c r="D124" s="4"/>
-      <c r="E124" s="3"/>
-      <c r="F124" s="44"/>
-      <c r="G124" s="44"/>
-      <c r="H124" s="14"/>
+      <c r="A124" s="36"/>
+      <c r="B124" s="39"/>
+      <c r="C124" s="41"/>
+      <c r="D124" s="8"/>
+      <c r="E124" s="7"/>
+      <c r="F124" s="45"/>
+      <c r="G124" s="45"/>
+      <c r="H124" s="13"/>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A125" s="36"/>
-      <c r="B125" s="39"/>
-      <c r="C125" s="41"/>
-      <c r="D125" s="8"/>
-      <c r="E125" s="7"/>
-      <c r="F125" s="45"/>
-      <c r="G125" s="45"/>
-      <c r="H125" s="13"/>
+      <c r="A125" s="35"/>
+      <c r="B125" s="38"/>
+      <c r="C125" s="43"/>
+      <c r="D125" s="10"/>
+      <c r="E125" s="11"/>
+      <c r="F125" s="46"/>
+      <c r="G125" s="46"/>
+      <c r="H125" s="12"/>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A126" s="35"/>
-      <c r="B126" s="38"/>
-      <c r="C126" s="43"/>
-      <c r="D126" s="10"/>
-      <c r="E126" s="11"/>
-      <c r="F126" s="46"/>
-      <c r="G126" s="46"/>
-      <c r="H126" s="12"/>
+      <c r="A126" s="37"/>
+      <c r="B126" s="40"/>
+      <c r="C126" s="42"/>
+      <c r="D126" s="4"/>
+      <c r="E126" s="3"/>
+      <c r="F126" s="44"/>
+      <c r="G126" s="44"/>
+      <c r="H126" s="14"/>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A127" s="37"/>
-      <c r="B127" s="40"/>
-      <c r="C127" s="42"/>
-      <c r="D127" s="4"/>
-      <c r="E127" s="3"/>
-      <c r="F127" s="44"/>
-      <c r="G127" s="44"/>
-      <c r="H127" s="14"/>
+      <c r="A127" s="36"/>
+      <c r="B127" s="39"/>
+      <c r="C127" s="41"/>
+      <c r="D127" s="8"/>
+      <c r="E127" s="7"/>
+      <c r="F127" s="45"/>
+      <c r="G127" s="45"/>
+      <c r="H127" s="13"/>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A128" s="36"/>
-      <c r="B128" s="39"/>
-      <c r="C128" s="41"/>
-      <c r="D128" s="8"/>
-      <c r="E128" s="7"/>
-      <c r="F128" s="45"/>
-      <c r="G128" s="45"/>
-      <c r="H128" s="13"/>
+      <c r="A128" s="35"/>
+      <c r="B128" s="38"/>
+      <c r="C128" s="43"/>
+      <c r="D128" s="10"/>
+      <c r="E128" s="11"/>
+      <c r="F128" s="46"/>
+      <c r="G128" s="46"/>
+      <c r="H128" s="12"/>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A129" s="35"/>
-      <c r="B129" s="38"/>
-      <c r="C129" s="43"/>
-      <c r="D129" s="10"/>
-      <c r="E129" s="11"/>
-      <c r="F129" s="46"/>
-      <c r="G129" s="46"/>
-      <c r="H129" s="12"/>
+      <c r="A129" s="37"/>
+      <c r="B129" s="40"/>
+      <c r="C129" s="42"/>
+      <c r="D129" s="4"/>
+      <c r="E129" s="3"/>
+      <c r="F129" s="44"/>
+      <c r="G129" s="44"/>
+      <c r="H129" s="14"/>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="37"/>
@@ -3594,24 +3637,24 @@
       <c r="H130" s="14"/>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A131" s="37"/>
-      <c r="B131" s="40"/>
-      <c r="C131" s="42"/>
-      <c r="D131" s="4"/>
-      <c r="E131" s="3"/>
-      <c r="F131" s="44"/>
-      <c r="G131" s="44"/>
-      <c r="H131" s="14"/>
+      <c r="A131" s="35"/>
+      <c r="B131" s="38"/>
+      <c r="C131" s="43"/>
+      <c r="D131" s="10"/>
+      <c r="E131" s="11"/>
+      <c r="F131" s="46"/>
+      <c r="G131" s="46"/>
+      <c r="H131" s="12"/>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A132" s="35"/>
-      <c r="B132" s="38"/>
-      <c r="C132" s="43"/>
-      <c r="D132" s="10"/>
-      <c r="E132" s="11"/>
-      <c r="F132" s="46"/>
-      <c r="G132" s="46"/>
-      <c r="H132" s="12"/>
+      <c r="A132" s="37"/>
+      <c r="B132" s="40"/>
+      <c r="C132" s="42"/>
+      <c r="D132" s="4"/>
+      <c r="E132" s="3"/>
+      <c r="F132" s="44"/>
+      <c r="G132" s="44"/>
+      <c r="H132" s="14"/>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="37"/>
@@ -3624,84 +3667,83 @@
       <c r="H133" s="14"/>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A134" s="37"/>
-      <c r="B134" s="40"/>
-      <c r="C134" s="42"/>
-      <c r="D134" s="4"/>
-      <c r="E134" s="3"/>
-      <c r="F134" s="44"/>
-      <c r="G134" s="44"/>
-      <c r="H134" s="14"/>
+      <c r="A134" s="35"/>
+      <c r="B134" s="54"/>
+      <c r="C134" s="43"/>
+      <c r="D134" s="57"/>
+      <c r="E134" s="11"/>
+      <c r="F134" s="53"/>
+      <c r="G134" s="46"/>
+      <c r="H134" s="12"/>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A135" s="35"/>
-      <c r="B135" s="54"/>
-      <c r="C135" s="43"/>
-      <c r="D135" s="57"/>
-      <c r="E135" s="11"/>
-      <c r="F135" s="53"/>
-      <c r="G135" s="46"/>
-      <c r="H135" s="12"/>
+      <c r="A135" s="37"/>
+      <c r="B135" s="55"/>
+      <c r="C135" s="42"/>
+      <c r="D135" s="58"/>
+      <c r="E135" s="3"/>
+      <c r="F135" s="44"/>
+      <c r="G135" s="44"/>
+      <c r="H135" s="14"/>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A136" s="37"/>
-      <c r="B136" s="55"/>
-      <c r="C136" s="42"/>
-      <c r="D136" s="58"/>
-      <c r="E136" s="3"/>
-      <c r="F136" s="44"/>
-      <c r="G136" s="44"/>
-      <c r="H136" s="14"/>
+      <c r="A136" s="36"/>
+      <c r="B136" s="56"/>
+      <c r="C136" s="41"/>
+      <c r="D136" s="59"/>
+      <c r="E136" s="7"/>
+      <c r="F136" s="45"/>
+      <c r="G136" s="45"/>
+      <c r="H136" s="13"/>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A137" s="36"/>
-      <c r="B137" s="56"/>
-      <c r="C137" s="41"/>
-      <c r="D137" s="59"/>
-      <c r="E137" s="7"/>
-      <c r="F137" s="45"/>
-      <c r="G137" s="45"/>
-      <c r="H137" s="13"/>
+      <c r="A137" s="35"/>
+      <c r="B137" s="54"/>
+      <c r="C137" s="43"/>
+      <c r="D137" s="57"/>
+      <c r="E137" s="11"/>
+      <c r="F137" s="53"/>
+      <c r="G137" s="44"/>
+      <c r="H137" s="12"/>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A138" s="35"/>
-      <c r="B138" s="54"/>
-      <c r="C138" s="43"/>
-      <c r="D138" s="57"/>
-      <c r="E138" s="11"/>
-      <c r="F138" s="53"/>
-      <c r="G138" s="44"/>
-      <c r="H138" s="12"/>
+      <c r="A138" s="36"/>
+      <c r="B138" s="56"/>
+      <c r="C138" s="41"/>
+      <c r="D138" s="59"/>
+      <c r="E138" s="7"/>
+      <c r="F138" s="45"/>
+      <c r="G138" s="45"/>
+      <c r="H138" s="13"/>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A139" s="36"/>
-      <c r="B139" s="56"/>
-      <c r="C139" s="41"/>
-      <c r="D139" s="59"/>
-      <c r="E139" s="7"/>
-      <c r="F139" s="45"/>
-      <c r="G139" s="45"/>
-      <c r="H139" s="13"/>
+      <c r="A139" s="35"/>
+      <c r="B139" s="54"/>
+      <c r="C139" s="43"/>
+      <c r="D139" s="57"/>
+      <c r="E139" s="11"/>
+      <c r="F139" s="53"/>
+      <c r="G139" s="44"/>
+      <c r="H139" s="12"/>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A140" s="35"/>
-      <c r="B140" s="54"/>
-      <c r="C140" s="43"/>
-      <c r="D140" s="57"/>
-      <c r="E140" s="11"/>
-      <c r="F140" s="53"/>
-      <c r="G140" s="44"/>
-      <c r="H140" s="12"/>
+      <c r="A140" s="36"/>
+      <c r="B140" s="56"/>
+      <c r="C140" s="41"/>
+      <c r="D140" s="59"/>
+      <c r="E140" s="7"/>
+      <c r="F140" s="45"/>
+      <c r="G140" s="45"/>
+      <c r="H140" s="13"/>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A141" s="36"/>
-      <c r="B141" s="56"/>
-      <c r="C141" s="41"/>
-      <c r="D141" s="59"/>
-      <c r="E141" s="7"/>
-      <c r="F141" s="45"/>
-      <c r="G141" s="45"/>
-      <c r="H141" s="13"/>
+      <c r="B141" s="1"/>
+      <c r="C141" s="2"/>
+      <c r="D141" s="4"/>
+      <c r="E141" s="3"/>
+      <c r="F141" s="4"/>
+      <c r="G141" s="4"/>
+      <c r="H141" s="17"/>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B142" s="1"/>
@@ -3918,15 +3960,6 @@
       <c r="F165" s="4"/>
       <c r="G165" s="4"/>
       <c r="H165" s="17"/>
-    </row>
-    <row r="166" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B166" s="1"/>
-      <c r="C166" s="2"/>
-      <c r="D166" s="4"/>
-      <c r="E166" s="3"/>
-      <c r="F166" s="4"/>
-      <c r="G166" s="4"/>
-      <c r="H166" s="17"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/TS Jatai Working/TTD Krama PaaraayaNam-Kramam.xlsx
+++ b/TS Jatai Working/TTD Krama PaaraayaNam-Kramam.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="197">
   <si>
     <t>Date</t>
   </si>
@@ -593,6 +593,18 @@
   </si>
   <si>
     <t xml:space="preserve">4.6.7.1 </t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=aqwZ1Qz4Hv4</t>
+  </si>
+  <si>
+    <t>21 min 36 sec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.6.9.4 </t>
+  </si>
+  <si>
+    <t>4.7.1.1</t>
   </si>
 </sst>
 </file>
@@ -1306,7 +1318,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E106" sqref="E106"/>
+      <selection pane="bottomLeft" activeCell="H104" sqref="H104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -3364,7 +3376,7 @@
       <c r="E104" s="7"/>
       <c r="F104" s="45"/>
       <c r="G104" s="45"/>
-      <c r="H104" s="13"/>
+      <c r="H104" s="14"/>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="35">
@@ -3382,19 +3394,35 @@
       <c r="E105" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F105" s="46"/>
-      <c r="G105" s="46"/>
-      <c r="H105" s="12"/>
+      <c r="F105" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="G105" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="H105" s="62" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="37"/>
-      <c r="B106" s="40"/>
-      <c r="C106" s="42"/>
-      <c r="D106" s="4"/>
-      <c r="E106" s="3"/>
+      <c r="B106" s="40">
+        <v>44487</v>
+      </c>
+      <c r="C106" s="42">
+        <v>1</v>
+      </c>
+      <c r="D106" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="E106" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="F106" s="44"/>
-      <c r="G106" s="44"/>
-      <c r="H106" s="14"/>
+      <c r="G106" s="4"/>
+      <c r="H106" s="63" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="36"/>
@@ -3403,8 +3431,8 @@
       <c r="D107" s="8"/>
       <c r="E107" s="7"/>
       <c r="F107" s="45"/>
-      <c r="G107" s="45"/>
-      <c r="H107" s="13"/>
+      <c r="G107" s="8"/>
+      <c r="H107" s="64"/>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="35"/>
@@ -3414,7 +3442,7 @@
       <c r="E108" s="11"/>
       <c r="F108" s="46"/>
       <c r="G108" s="46"/>
-      <c r="H108" s="12"/>
+      <c r="H108" s="14"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="37"/>

--- a/TS Jatai Working/TTD Krama PaaraayaNam-Kramam.xlsx
+++ b/TS Jatai Working/TTD Krama PaaraayaNam-Kramam.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="203">
   <si>
     <t>Date</t>
   </si>
@@ -605,6 +605,24 @@
   </si>
   <si>
     <t>4.7.1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7.12.3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7.13.1 </t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=dliLYDBPUxg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7.15.7 </t>
+  </si>
+  <si>
+    <t>28 min 04 sec</t>
+  </si>
+  <si>
+    <t>5.1.1.1</t>
   </si>
 </sst>
 </file>
@@ -1317,8 +1335,8 @@
   <dimension ref="A1:L165"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H104" sqref="H104"/>
+      <pane ySplit="4" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A108" sqref="A108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -3418,8 +3436,12 @@
       <c r="E106" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F106" s="44"/>
-      <c r="G106" s="4"/>
+      <c r="F106" s="44" t="s">
+        <v>197</v>
+      </c>
+      <c r="G106" s="70" t="s">
+        <v>13</v>
+      </c>
       <c r="H106" s="63" t="s">
         <v>193</v>
       </c>
@@ -3435,24 +3457,50 @@
       <c r="H107" s="64"/>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A108" s="35"/>
-      <c r="B108" s="38"/>
-      <c r="C108" s="43"/>
-      <c r="D108" s="10"/>
-      <c r="E108" s="11"/>
-      <c r="F108" s="46"/>
-      <c r="G108" s="46"/>
-      <c r="H108" s="14"/>
+      <c r="A108" s="35">
+        <v>43</v>
+      </c>
+      <c r="B108" s="38">
+        <v>44488</v>
+      </c>
+      <c r="C108" s="43">
+        <v>2</v>
+      </c>
+      <c r="D108" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="E108" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F108" s="46" t="s">
+        <v>200</v>
+      </c>
+      <c r="G108" s="46" t="s">
+        <v>201</v>
+      </c>
+      <c r="H108" s="14" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="37"/>
-      <c r="B109" s="40"/>
-      <c r="C109" s="42"/>
-      <c r="D109" s="4"/>
-      <c r="E109" s="3"/>
+      <c r="B109" s="40">
+        <v>44488</v>
+      </c>
+      <c r="C109" s="42">
+        <v>1</v>
+      </c>
+      <c r="D109" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="E109" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="F109" s="44"/>
       <c r="G109" s="44"/>
-      <c r="H109" s="14"/>
+      <c r="H109" s="14" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="36"/>

--- a/TS Jatai Working/TTD Krama PaaraayaNam-Kramam.xlsx
+++ b/TS Jatai Working/TTD Krama PaaraayaNam-Kramam.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="212">
   <si>
     <t>Date</t>
   </si>
@@ -623,6 +623,33 @@
   </si>
   <si>
     <t>5.1.1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1.3.5 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1.4.1 </t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=OCiLTrOeCUs&amp;t=27s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1.9.6 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1.10.1 </t>
+  </si>
+  <si>
+    <t>15 min 13 sec</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=-wyyPsdyBss&amp;list=PLjhrDIztP9pcSE8dR7xYZb7zwX5SXxNKy&amp;index=17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1.11.4 </t>
+  </si>
+  <si>
+    <t>5.2.1.1</t>
   </si>
 </sst>
 </file>
@@ -1335,8 +1362,8 @@
   <dimension ref="A1:L165"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A108" sqref="A108"/>
+      <pane ySplit="4" topLeftCell="A103" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G114" sqref="G114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -3496,8 +3523,12 @@
       <c r="E109" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F109" s="44"/>
-      <c r="G109" s="44"/>
+      <c r="F109" s="44" t="s">
+        <v>203</v>
+      </c>
+      <c r="G109" s="70" t="s">
+        <v>13</v>
+      </c>
       <c r="H109" s="14" t="s">
         <v>199</v>
       </c>
@@ -3513,64 +3544,108 @@
       <c r="H110" s="13"/>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A111" s="35"/>
-      <c r="B111" s="38"/>
-      <c r="C111" s="43"/>
-      <c r="D111" s="10"/>
-      <c r="E111" s="11"/>
-      <c r="F111" s="46"/>
-      <c r="G111" s="46"/>
-      <c r="H111" s="12"/>
+      <c r="A111" s="35">
+        <v>44</v>
+      </c>
+      <c r="B111" s="38">
+        <v>44489</v>
+      </c>
+      <c r="C111" s="43">
+        <v>2</v>
+      </c>
+      <c r="D111" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="E111" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F111" s="46" t="s">
+        <v>206</v>
+      </c>
+      <c r="G111" s="70" t="s">
+        <v>13</v>
+      </c>
+      <c r="H111" s="12" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="36"/>
-      <c r="B112" s="39"/>
-      <c r="C112" s="41"/>
-      <c r="D112" s="8"/>
-      <c r="E112" s="7"/>
-      <c r="F112" s="45"/>
-      <c r="G112" s="45"/>
-      <c r="H112" s="13"/>
+      <c r="B112" s="40"/>
+      <c r="C112" s="42"/>
+      <c r="D112" s="4"/>
+      <c r="E112" s="3"/>
+      <c r="F112" s="44"/>
+      <c r="G112" s="44"/>
+      <c r="H112" s="14"/>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A113" s="35"/>
-      <c r="B113" s="38"/>
-      <c r="C113" s="43"/>
-      <c r="D113" s="10"/>
-      <c r="E113" s="11"/>
-      <c r="F113" s="46"/>
-      <c r="G113" s="46"/>
-      <c r="H113" s="12"/>
+      <c r="A113" s="71">
+        <v>45</v>
+      </c>
+      <c r="B113" s="54">
+        <v>44490</v>
+      </c>
+      <c r="C113" s="43">
+        <v>3</v>
+      </c>
+      <c r="D113" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="E113" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F113" s="46" t="s">
+        <v>210</v>
+      </c>
+      <c r="G113" s="60" t="s">
+        <v>208</v>
+      </c>
+      <c r="H113" s="12" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A114" s="37"/>
-      <c r="B114" s="40"/>
-      <c r="C114" s="42"/>
-      <c r="D114" s="4"/>
-      <c r="E114" s="3"/>
+      <c r="A114" s="72"/>
+      <c r="B114" s="55">
+        <v>44490</v>
+      </c>
+      <c r="C114" s="42">
+        <v>1</v>
+      </c>
+      <c r="D114" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="E114" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="F114" s="44"/>
-      <c r="G114" s="44"/>
-      <c r="H114" s="14"/>
+      <c r="G114" s="70" t="s">
+        <v>13</v>
+      </c>
+      <c r="H114" s="14" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A115" s="36"/>
-      <c r="B115" s="39"/>
+      <c r="A115" s="66"/>
+      <c r="B115" s="56"/>
       <c r="C115" s="41"/>
       <c r="D115" s="8"/>
       <c r="E115" s="7"/>
       <c r="F115" s="45"/>
-      <c r="G115" s="45"/>
+      <c r="G115" s="61"/>
       <c r="H115" s="13"/>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="35"/>
-      <c r="B116" s="38"/>
-      <c r="C116" s="43"/>
-      <c r="D116" s="10"/>
-      <c r="E116" s="11"/>
-      <c r="F116" s="46"/>
-      <c r="G116" s="46"/>
-      <c r="H116" s="12"/>
+      <c r="B116" s="40"/>
+      <c r="C116" s="42"/>
+      <c r="D116" s="4"/>
+      <c r="E116" s="3"/>
+      <c r="F116" s="44"/>
+      <c r="G116" s="44"/>
+      <c r="H116" s="14"/>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="37"/>

--- a/TS Jatai Working/TTD Krama PaaraayaNam-Kramam.xlsx
+++ b/TS Jatai Working/TTD Krama PaaraayaNam-Kramam.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="224">
   <si>
     <t>Date</t>
   </si>
@@ -650,6 +650,42 @@
   </si>
   <si>
     <t>5.2.1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.2.3.7 </t>
+  </si>
+  <si>
+    <t>5.2.4.1</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=EOjLhHQvarg&amp;list=PLjhrDIztP9pcSE8dR7xYZb7zwX5SXxNKy&amp;index=17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.2.5.6 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.2.6.1 </t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=cKun2k9hDUY&amp;list=PLjhrDIztP9pcSE8dR7xYZb7zwX5SXxNKy&amp;index=16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.2.10.5 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.2.10.6 </t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=fwJzzP4BN7U&amp;list=PLjhrDIztP9pcSE8dR7xYZb7zwX5SXxNKy&amp;index=15</t>
+  </si>
+  <si>
+    <t>11 min 47 sec</t>
+  </si>
+  <si>
+    <t>5.2.12.2</t>
+  </si>
+  <si>
+    <t>5.3.1.1</t>
   </si>
 </sst>
 </file>
@@ -1359,11 +1395,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L165"/>
+  <dimension ref="A1:L163"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A103" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G114" sqref="G114"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A112" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B120" sqref="B120:H122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -3619,7 +3655,9 @@
       <c r="E114" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F114" s="44"/>
+      <c r="F114" s="44" t="s">
+        <v>212</v>
+      </c>
       <c r="G114" s="70" t="s">
         <v>13</v>
       </c>
@@ -3638,77 +3676,137 @@
       <c r="H115" s="13"/>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A116" s="35"/>
-      <c r="B116" s="40"/>
-      <c r="C116" s="42"/>
-      <c r="D116" s="4"/>
-      <c r="E116" s="3"/>
-      <c r="F116" s="44"/>
-      <c r="G116" s="44"/>
-      <c r="H116" s="14"/>
+      <c r="A116" s="35">
+        <v>46</v>
+      </c>
+      <c r="B116" s="40">
+        <v>44491</v>
+      </c>
+      <c r="C116" s="42">
+        <v>2</v>
+      </c>
+      <c r="D116" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="E116" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F116" s="46" t="s">
+        <v>215</v>
+      </c>
+      <c r="G116" s="70" t="s">
+        <v>13</v>
+      </c>
+      <c r="H116" s="14" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A117" s="37"/>
-      <c r="B117" s="40"/>
-      <c r="C117" s="42"/>
-      <c r="D117" s="4"/>
-      <c r="E117" s="3"/>
-      <c r="F117" s="44"/>
-      <c r="G117" s="44"/>
-      <c r="H117" s="14"/>
+      <c r="A117" s="36"/>
+      <c r="B117" s="39"/>
+      <c r="C117" s="41"/>
+      <c r="D117" s="8"/>
+      <c r="E117" s="7"/>
+      <c r="F117" s="45"/>
+      <c r="G117" s="45"/>
+      <c r="H117" s="13"/>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A118" s="36"/>
-      <c r="B118" s="39"/>
-      <c r="C118" s="41"/>
-      <c r="D118" s="8"/>
-      <c r="E118" s="7"/>
-      <c r="F118" s="45"/>
-      <c r="G118" s="45"/>
-      <c r="H118" s="13"/>
+      <c r="A118" s="35">
+        <v>47</v>
+      </c>
+      <c r="B118" s="38">
+        <v>44492</v>
+      </c>
+      <c r="C118" s="43">
+        <v>3</v>
+      </c>
+      <c r="D118" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="E118" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F118" s="46" t="s">
+        <v>218</v>
+      </c>
+      <c r="G118" s="70" t="s">
+        <v>13</v>
+      </c>
+      <c r="H118" s="12" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A119" s="35"/>
-      <c r="B119" s="38"/>
-      <c r="C119" s="43"/>
-      <c r="D119" s="10"/>
-      <c r="E119" s="11"/>
-      <c r="F119" s="46"/>
-      <c r="G119" s="46"/>
-      <c r="H119" s="12"/>
+      <c r="A119" s="36"/>
+      <c r="B119" s="40"/>
+      <c r="C119" s="42"/>
+      <c r="D119" s="4"/>
+      <c r="E119" s="3"/>
+      <c r="F119" s="44"/>
+      <c r="G119" s="44"/>
+      <c r="H119" s="14"/>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A120" s="37"/>
-      <c r="B120" s="40"/>
-      <c r="C120" s="42"/>
-      <c r="D120" s="4"/>
-      <c r="E120" s="3"/>
-      <c r="F120" s="44"/>
-      <c r="G120" s="44"/>
-      <c r="H120" s="14"/>
+      <c r="A120" s="71">
+        <v>48</v>
+      </c>
+      <c r="B120" s="54">
+        <v>44493</v>
+      </c>
+      <c r="C120" s="43">
+        <v>4</v>
+      </c>
+      <c r="D120" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="E120" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F120" s="46" t="s">
+        <v>222</v>
+      </c>
+      <c r="G120" s="46" t="s">
+        <v>221</v>
+      </c>
+      <c r="H120" s="12" t="s">
+        <v>220</v>
+      </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A121" s="36"/>
-      <c r="B121" s="39"/>
-      <c r="C121" s="41"/>
-      <c r="D121" s="8"/>
-      <c r="E121" s="7"/>
-      <c r="F121" s="45"/>
-      <c r="G121" s="45"/>
-      <c r="H121" s="13"/>
+      <c r="A121" s="72"/>
+      <c r="B121" s="55">
+        <v>44493</v>
+      </c>
+      <c r="C121" s="42">
+        <v>1</v>
+      </c>
+      <c r="D121" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="E121" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F121" s="44"/>
+      <c r="G121" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="H121" s="14" t="s">
+        <v>220</v>
+      </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A122" s="35"/>
-      <c r="B122" s="38"/>
-      <c r="C122" s="43"/>
-      <c r="D122" s="10"/>
-      <c r="E122" s="11"/>
-      <c r="F122" s="46"/>
-      <c r="G122" s="46"/>
-      <c r="H122" s="12"/>
+      <c r="A122" s="66"/>
+      <c r="B122" s="56"/>
+      <c r="C122" s="41"/>
+      <c r="D122" s="8"/>
+      <c r="E122" s="7"/>
+      <c r="F122" s="45"/>
+      <c r="G122" s="45"/>
+      <c r="H122" s="13"/>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A123" s="37"/>
+      <c r="A123" s="35"/>
       <c r="B123" s="40"/>
       <c r="C123" s="42"/>
       <c r="D123" s="4"/>
@@ -3718,64 +3816,64 @@
       <c r="H123" s="14"/>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A124" s="36"/>
-      <c r="B124" s="39"/>
-      <c r="C124" s="41"/>
-      <c r="D124" s="8"/>
-      <c r="E124" s="7"/>
-      <c r="F124" s="45"/>
-      <c r="G124" s="45"/>
-      <c r="H124" s="13"/>
+      <c r="A124" s="37"/>
+      <c r="B124" s="40"/>
+      <c r="C124" s="42"/>
+      <c r="D124" s="4"/>
+      <c r="E124" s="3"/>
+      <c r="F124" s="44"/>
+      <c r="G124" s="44"/>
+      <c r="H124" s="14"/>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A125" s="35"/>
-      <c r="B125" s="38"/>
-      <c r="C125" s="43"/>
-      <c r="D125" s="10"/>
-      <c r="E125" s="11"/>
-      <c r="F125" s="46"/>
-      <c r="G125" s="46"/>
-      <c r="H125" s="12"/>
+      <c r="A125" s="36"/>
+      <c r="B125" s="39"/>
+      <c r="C125" s="41"/>
+      <c r="D125" s="8"/>
+      <c r="E125" s="7"/>
+      <c r="F125" s="45"/>
+      <c r="G125" s="45"/>
+      <c r="H125" s="13"/>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A126" s="37"/>
-      <c r="B126" s="40"/>
-      <c r="C126" s="42"/>
-      <c r="D126" s="4"/>
-      <c r="E126" s="3"/>
-      <c r="F126" s="44"/>
-      <c r="G126" s="44"/>
-      <c r="H126" s="14"/>
+      <c r="A126" s="35"/>
+      <c r="B126" s="38"/>
+      <c r="C126" s="43"/>
+      <c r="D126" s="10"/>
+      <c r="E126" s="11"/>
+      <c r="F126" s="46"/>
+      <c r="G126" s="46"/>
+      <c r="H126" s="12"/>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A127" s="36"/>
-      <c r="B127" s="39"/>
-      <c r="C127" s="41"/>
-      <c r="D127" s="8"/>
-      <c r="E127" s="7"/>
-      <c r="F127" s="45"/>
-      <c r="G127" s="45"/>
-      <c r="H127" s="13"/>
+      <c r="A127" s="37"/>
+      <c r="B127" s="40"/>
+      <c r="C127" s="42"/>
+      <c r="D127" s="4"/>
+      <c r="E127" s="3"/>
+      <c r="F127" s="44"/>
+      <c r="G127" s="44"/>
+      <c r="H127" s="14"/>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A128" s="35"/>
-      <c r="B128" s="38"/>
-      <c r="C128" s="43"/>
-      <c r="D128" s="10"/>
-      <c r="E128" s="11"/>
-      <c r="F128" s="46"/>
-      <c r="G128" s="46"/>
-      <c r="H128" s="12"/>
+      <c r="A128" s="37"/>
+      <c r="B128" s="40"/>
+      <c r="C128" s="42"/>
+      <c r="D128" s="4"/>
+      <c r="E128" s="3"/>
+      <c r="F128" s="44"/>
+      <c r="G128" s="44"/>
+      <c r="H128" s="14"/>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A129" s="37"/>
-      <c r="B129" s="40"/>
-      <c r="C129" s="42"/>
-      <c r="D129" s="4"/>
-      <c r="E129" s="3"/>
-      <c r="F129" s="44"/>
-      <c r="G129" s="44"/>
-      <c r="H129" s="14"/>
+      <c r="A129" s="35"/>
+      <c r="B129" s="38"/>
+      <c r="C129" s="43"/>
+      <c r="D129" s="10"/>
+      <c r="E129" s="11"/>
+      <c r="F129" s="46"/>
+      <c r="G129" s="46"/>
+      <c r="H129" s="12"/>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="37"/>
@@ -3788,54 +3886,54 @@
       <c r="H130" s="14"/>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A131" s="35"/>
-      <c r="B131" s="38"/>
-      <c r="C131" s="43"/>
-      <c r="D131" s="10"/>
-      <c r="E131" s="11"/>
-      <c r="F131" s="46"/>
-      <c r="G131" s="46"/>
-      <c r="H131" s="12"/>
+      <c r="A131" s="37"/>
+      <c r="B131" s="40"/>
+      <c r="C131" s="42"/>
+      <c r="D131" s="4"/>
+      <c r="E131" s="3"/>
+      <c r="F131" s="44"/>
+      <c r="G131" s="44"/>
+      <c r="H131" s="14"/>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A132" s="37"/>
-      <c r="B132" s="40"/>
-      <c r="C132" s="42"/>
-      <c r="D132" s="4"/>
-      <c r="E132" s="3"/>
-      <c r="F132" s="44"/>
-      <c r="G132" s="44"/>
-      <c r="H132" s="14"/>
+      <c r="A132" s="35"/>
+      <c r="B132" s="54"/>
+      <c r="C132" s="43"/>
+      <c r="D132" s="57"/>
+      <c r="E132" s="11"/>
+      <c r="F132" s="53"/>
+      <c r="G132" s="46"/>
+      <c r="H132" s="12"/>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="37"/>
-      <c r="B133" s="40"/>
+      <c r="B133" s="55"/>
       <c r="C133" s="42"/>
-      <c r="D133" s="4"/>
+      <c r="D133" s="58"/>
       <c r="E133" s="3"/>
       <c r="F133" s="44"/>
       <c r="G133" s="44"/>
       <c r="H133" s="14"/>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A134" s="35"/>
-      <c r="B134" s="54"/>
-      <c r="C134" s="43"/>
-      <c r="D134" s="57"/>
-      <c r="E134" s="11"/>
-      <c r="F134" s="53"/>
-      <c r="G134" s="46"/>
-      <c r="H134" s="12"/>
+      <c r="A134" s="36"/>
+      <c r="B134" s="56"/>
+      <c r="C134" s="41"/>
+      <c r="D134" s="59"/>
+      <c r="E134" s="7"/>
+      <c r="F134" s="45"/>
+      <c r="G134" s="45"/>
+      <c r="H134" s="13"/>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A135" s="37"/>
-      <c r="B135" s="55"/>
-      <c r="C135" s="42"/>
-      <c r="D135" s="58"/>
-      <c r="E135" s="3"/>
-      <c r="F135" s="44"/>
+      <c r="A135" s="35"/>
+      <c r="B135" s="54"/>
+      <c r="C135" s="43"/>
+      <c r="D135" s="57"/>
+      <c r="E135" s="11"/>
+      <c r="F135" s="53"/>
       <c r="G135" s="44"/>
-      <c r="H135" s="14"/>
+      <c r="H135" s="12"/>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" s="36"/>
@@ -3868,24 +3966,22 @@
       <c r="H138" s="13"/>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A139" s="35"/>
-      <c r="B139" s="54"/>
-      <c r="C139" s="43"/>
-      <c r="D139" s="57"/>
-      <c r="E139" s="11"/>
-      <c r="F139" s="53"/>
-      <c r="G139" s="44"/>
-      <c r="H139" s="12"/>
+      <c r="B139" s="1"/>
+      <c r="C139" s="2"/>
+      <c r="D139" s="4"/>
+      <c r="E139" s="3"/>
+      <c r="F139" s="4"/>
+      <c r="G139" s="4"/>
+      <c r="H139" s="17"/>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A140" s="36"/>
-      <c r="B140" s="56"/>
-      <c r="C140" s="41"/>
-      <c r="D140" s="59"/>
-      <c r="E140" s="7"/>
-      <c r="F140" s="45"/>
-      <c r="G140" s="45"/>
-      <c r="H140" s="13"/>
+      <c r="B140" s="1"/>
+      <c r="C140" s="2"/>
+      <c r="D140" s="4"/>
+      <c r="E140" s="3"/>
+      <c r="F140" s="4"/>
+      <c r="G140" s="4"/>
+      <c r="H140" s="17"/>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B141" s="1"/>
@@ -4093,24 +4189,6 @@
       <c r="F163" s="4"/>
       <c r="G163" s="4"/>
       <c r="H163" s="17"/>
-    </row>
-    <row r="164" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B164" s="1"/>
-      <c r="C164" s="2"/>
-      <c r="D164" s="4"/>
-      <c r="E164" s="3"/>
-      <c r="F164" s="4"/>
-      <c r="G164" s="4"/>
-      <c r="H164" s="17"/>
-    </row>
-    <row r="165" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B165" s="1"/>
-      <c r="C165" s="2"/>
-      <c r="D165" s="4"/>
-      <c r="E165" s="3"/>
-      <c r="F165" s="4"/>
-      <c r="G165" s="4"/>
-      <c r="H165" s="17"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/TS Jatai Working/TTD Krama PaaraayaNam-Kramam.xlsx
+++ b/TS Jatai Working/TTD Krama PaaraayaNam-Kramam.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="233">
   <si>
     <t>Date</t>
   </si>
@@ -686,6 +686,33 @@
   </si>
   <si>
     <t>5.3.1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.3.3.5 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.3.4.1 </t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=HkyRRuO5nq8&amp;list=PLjhrDIztP9pcSE8dR7xYZb7zwX5SXxNKy&amp;index=15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.3.7.4 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.3.8.1 </t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=AOwYl4-Nj8E&amp;list=PLjhrDIztP9pcSE8dR7xYZb7zwX5SXxNKy&amp;index=14</t>
+  </si>
+  <si>
+    <t>25 min 43 sec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.3.12.2 </t>
+  </si>
+  <si>
+    <t>5.4.1.1</t>
   </si>
 </sst>
 </file>
@@ -1395,11 +1422,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L163"/>
+  <dimension ref="A1:L162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A112" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B120" sqref="B120:H122"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A126" sqref="A126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -3787,7 +3814,9 @@
       <c r="E121" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F121" s="44"/>
+      <c r="F121" s="44" t="s">
+        <v>224</v>
+      </c>
       <c r="G121" s="44" t="s">
         <v>13</v>
       </c>
@@ -3806,17 +3835,33 @@
       <c r="H122" s="13"/>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A123" s="35"/>
-      <c r="B123" s="40"/>
-      <c r="C123" s="42"/>
-      <c r="D123" s="4"/>
-      <c r="E123" s="3"/>
-      <c r="F123" s="44"/>
-      <c r="G123" s="44"/>
-      <c r="H123" s="14"/>
+      <c r="A123" s="35">
+        <v>49</v>
+      </c>
+      <c r="B123" s="40">
+        <v>44494</v>
+      </c>
+      <c r="C123" s="42">
+        <v>2</v>
+      </c>
+      <c r="D123" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="E123" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F123" s="46" t="s">
+        <v>227</v>
+      </c>
+      <c r="G123" s="70" t="s">
+        <v>13</v>
+      </c>
+      <c r="H123" s="14" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A124" s="37"/>
+      <c r="A124" s="36"/>
       <c r="B124" s="40"/>
       <c r="C124" s="42"/>
       <c r="D124" s="4"/>
@@ -3826,37 +3871,65 @@
       <c r="H124" s="14"/>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A125" s="36"/>
-      <c r="B125" s="39"/>
-      <c r="C125" s="41"/>
-      <c r="D125" s="8"/>
-      <c r="E125" s="7"/>
-      <c r="F125" s="45"/>
-      <c r="G125" s="45"/>
-      <c r="H125" s="13"/>
+      <c r="A125" s="71">
+        <v>50</v>
+      </c>
+      <c r="B125" s="54">
+        <v>44495</v>
+      </c>
+      <c r="C125" s="35">
+        <v>3</v>
+      </c>
+      <c r="D125" s="57" t="s">
+        <v>228</v>
+      </c>
+      <c r="E125" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F125" s="46" t="s">
+        <v>231</v>
+      </c>
+      <c r="G125" s="46" t="s">
+        <v>230</v>
+      </c>
+      <c r="H125" s="12" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A126" s="35"/>
-      <c r="B126" s="38"/>
-      <c r="C126" s="43"/>
-      <c r="D126" s="10"/>
-      <c r="E126" s="11"/>
-      <c r="F126" s="46"/>
-      <c r="G126" s="46"/>
-      <c r="H126" s="12"/>
+      <c r="A126" s="72"/>
+      <c r="B126" s="55">
+        <v>44495</v>
+      </c>
+      <c r="C126" s="37">
+        <v>3</v>
+      </c>
+      <c r="D126" s="58" t="s">
+        <v>232</v>
+      </c>
+      <c r="E126" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F126" s="44"/>
+      <c r="G126" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="H126" s="14" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A127" s="37"/>
-      <c r="B127" s="40"/>
-      <c r="C127" s="42"/>
-      <c r="D127" s="4"/>
-      <c r="E127" s="3"/>
-      <c r="F127" s="44"/>
-      <c r="G127" s="44"/>
-      <c r="H127" s="14"/>
+      <c r="A127" s="72"/>
+      <c r="B127" s="56"/>
+      <c r="C127" s="36"/>
+      <c r="D127" s="59"/>
+      <c r="E127" s="7"/>
+      <c r="F127" s="45"/>
+      <c r="G127" s="45"/>
+      <c r="H127" s="13"/>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A128" s="37"/>
+      <c r="A128" s="35"/>
       <c r="B128" s="40"/>
       <c r="C128" s="42"/>
       <c r="D128" s="4"/>
@@ -3866,14 +3939,14 @@
       <c r="H128" s="14"/>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A129" s="35"/>
-      <c r="B129" s="38"/>
-      <c r="C129" s="43"/>
-      <c r="D129" s="10"/>
-      <c r="E129" s="11"/>
-      <c r="F129" s="46"/>
-      <c r="G129" s="46"/>
-      <c r="H129" s="12"/>
+      <c r="A129" s="37"/>
+      <c r="B129" s="40"/>
+      <c r="C129" s="42"/>
+      <c r="D129" s="4"/>
+      <c r="E129" s="3"/>
+      <c r="F129" s="44"/>
+      <c r="G129" s="44"/>
+      <c r="H129" s="14"/>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="37"/>
@@ -3886,84 +3959,83 @@
       <c r="H130" s="14"/>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A131" s="37"/>
-      <c r="B131" s="40"/>
-      <c r="C131" s="42"/>
-      <c r="D131" s="4"/>
-      <c r="E131" s="3"/>
-      <c r="F131" s="44"/>
-      <c r="G131" s="44"/>
-      <c r="H131" s="14"/>
+      <c r="A131" s="35"/>
+      <c r="B131" s="54"/>
+      <c r="C131" s="43"/>
+      <c r="D131" s="57"/>
+      <c r="E131" s="11"/>
+      <c r="F131" s="53"/>
+      <c r="G131" s="46"/>
+      <c r="H131" s="12"/>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A132" s="35"/>
-      <c r="B132" s="54"/>
-      <c r="C132" s="43"/>
-      <c r="D132" s="57"/>
-      <c r="E132" s="11"/>
-      <c r="F132" s="53"/>
-      <c r="G132" s="46"/>
-      <c r="H132" s="12"/>
+      <c r="A132" s="37"/>
+      <c r="B132" s="55"/>
+      <c r="C132" s="42"/>
+      <c r="D132" s="58"/>
+      <c r="E132" s="3"/>
+      <c r="F132" s="44"/>
+      <c r="G132" s="44"/>
+      <c r="H132" s="14"/>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A133" s="37"/>
-      <c r="B133" s="55"/>
-      <c r="C133" s="42"/>
-      <c r="D133" s="58"/>
-      <c r="E133" s="3"/>
-      <c r="F133" s="44"/>
-      <c r="G133" s="44"/>
-      <c r="H133" s="14"/>
+      <c r="A133" s="36"/>
+      <c r="B133" s="56"/>
+      <c r="C133" s="41"/>
+      <c r="D133" s="59"/>
+      <c r="E133" s="7"/>
+      <c r="F133" s="45"/>
+      <c r="G133" s="45"/>
+      <c r="H133" s="13"/>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A134" s="36"/>
-      <c r="B134" s="56"/>
-      <c r="C134" s="41"/>
-      <c r="D134" s="59"/>
-      <c r="E134" s="7"/>
-      <c r="F134" s="45"/>
-      <c r="G134" s="45"/>
-      <c r="H134" s="13"/>
+      <c r="A134" s="35"/>
+      <c r="B134" s="54"/>
+      <c r="C134" s="43"/>
+      <c r="D134" s="57"/>
+      <c r="E134" s="11"/>
+      <c r="F134" s="53"/>
+      <c r="G134" s="44"/>
+      <c r="H134" s="12"/>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A135" s="35"/>
-      <c r="B135" s="54"/>
-      <c r="C135" s="43"/>
-      <c r="D135" s="57"/>
-      <c r="E135" s="11"/>
-      <c r="F135" s="53"/>
-      <c r="G135" s="44"/>
-      <c r="H135" s="12"/>
+      <c r="A135" s="36"/>
+      <c r="B135" s="56"/>
+      <c r="C135" s="41"/>
+      <c r="D135" s="59"/>
+      <c r="E135" s="7"/>
+      <c r="F135" s="45"/>
+      <c r="G135" s="45"/>
+      <c r="H135" s="13"/>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A136" s="36"/>
-      <c r="B136" s="56"/>
-      <c r="C136" s="41"/>
-      <c r="D136" s="59"/>
-      <c r="E136" s="7"/>
-      <c r="F136" s="45"/>
-      <c r="G136" s="45"/>
-      <c r="H136" s="13"/>
+      <c r="A136" s="35"/>
+      <c r="B136" s="54"/>
+      <c r="C136" s="43"/>
+      <c r="D136" s="57"/>
+      <c r="E136" s="11"/>
+      <c r="F136" s="53"/>
+      <c r="G136" s="44"/>
+      <c r="H136" s="12"/>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A137" s="35"/>
-      <c r="B137" s="54"/>
-      <c r="C137" s="43"/>
-      <c r="D137" s="57"/>
-      <c r="E137" s="11"/>
-      <c r="F137" s="53"/>
-      <c r="G137" s="44"/>
-      <c r="H137" s="12"/>
+      <c r="A137" s="36"/>
+      <c r="B137" s="56"/>
+      <c r="C137" s="41"/>
+      <c r="D137" s="59"/>
+      <c r="E137" s="7"/>
+      <c r="F137" s="45"/>
+      <c r="G137" s="45"/>
+      <c r="H137" s="13"/>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A138" s="36"/>
-      <c r="B138" s="56"/>
-      <c r="C138" s="41"/>
-      <c r="D138" s="59"/>
-      <c r="E138" s="7"/>
-      <c r="F138" s="45"/>
-      <c r="G138" s="45"/>
-      <c r="H138" s="13"/>
+      <c r="B138" s="1"/>
+      <c r="C138" s="2"/>
+      <c r="D138" s="4"/>
+      <c r="E138" s="3"/>
+      <c r="F138" s="4"/>
+      <c r="G138" s="4"/>
+      <c r="H138" s="17"/>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B139" s="1"/>
@@ -4180,15 +4252,6 @@
       <c r="F162" s="4"/>
       <c r="G162" s="4"/>
       <c r="H162" s="17"/>
-    </row>
-    <row r="163" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B163" s="1"/>
-      <c r="C163" s="2"/>
-      <c r="D163" s="4"/>
-      <c r="E163" s="3"/>
-      <c r="F163" s="4"/>
-      <c r="G163" s="4"/>
-      <c r="H163" s="17"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/TS Jatai Working/TTD Krama PaaraayaNam-Kramam.xlsx
+++ b/TS Jatai Working/TTD Krama PaaraayaNam-Kramam.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="241">
   <si>
     <t>Date</t>
   </si>
@@ -713,6 +713,30 @@
   </si>
   <si>
     <t>5.4.1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.4.2.4 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.4.3.1 </t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=x88uKcsF10o&amp;list=PLjhrDIztP9pcSE8dR7xYZb7zwX5SXxNKy&amp;index=17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.4.7.7 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.4.8.1 </t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=v3M96Umf1wk&amp;list=PLjhrDIztP9pcSE8dR7xYZb7zwX5SXxNKy&amp;index=16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.4.12.3 </t>
+  </si>
+  <si>
+    <t>5.5.1.1</t>
   </si>
 </sst>
 </file>
@@ -1422,11 +1446,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L162"/>
+  <dimension ref="A1:L160"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A126" sqref="A126"/>
+      <pane ySplit="4" topLeftCell="A123" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H130" sqref="H130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -3902,7 +3926,7 @@
         <v>44495</v>
       </c>
       <c r="C126" s="37">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D126" s="58" t="s">
         <v>232</v>
@@ -3910,7 +3934,9 @@
       <c r="E126" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F126" s="44"/>
+      <c r="F126" s="44" t="s">
+        <v>233</v>
+      </c>
       <c r="G126" s="44" t="s">
         <v>13</v>
       </c>
@@ -3929,14 +3955,30 @@
       <c r="H127" s="13"/>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A128" s="35"/>
-      <c r="B128" s="40"/>
-      <c r="C128" s="42"/>
-      <c r="D128" s="4"/>
-      <c r="E128" s="3"/>
-      <c r="F128" s="44"/>
-      <c r="G128" s="44"/>
-      <c r="H128" s="14"/>
+      <c r="A128" s="35">
+        <v>51</v>
+      </c>
+      <c r="B128" s="40">
+        <v>44496</v>
+      </c>
+      <c r="C128" s="42">
+        <v>2</v>
+      </c>
+      <c r="D128" s="57" t="s">
+        <v>234</v>
+      </c>
+      <c r="E128" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F128" s="46" t="s">
+        <v>236</v>
+      </c>
+      <c r="G128" s="60" t="s">
+        <v>13</v>
+      </c>
+      <c r="H128" s="14" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="37"/>
@@ -3945,38 +3987,64 @@
       <c r="D129" s="4"/>
       <c r="E129" s="3"/>
       <c r="F129" s="44"/>
-      <c r="G129" s="44"/>
+      <c r="G129" s="61"/>
       <c r="H129" s="14"/>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A130" s="37"/>
-      <c r="B130" s="40"/>
-      <c r="C130" s="42"/>
-      <c r="D130" s="4"/>
-      <c r="E130" s="3"/>
-      <c r="F130" s="44"/>
-      <c r="G130" s="44"/>
-      <c r="H130" s="14"/>
+      <c r="A130" s="35">
+        <v>52</v>
+      </c>
+      <c r="B130" s="54">
+        <v>44497</v>
+      </c>
+      <c r="C130" s="43">
+        <v>3</v>
+      </c>
+      <c r="D130" s="57" t="s">
+        <v>237</v>
+      </c>
+      <c r="E130" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F130" s="46" t="s">
+        <v>239</v>
+      </c>
+      <c r="G130" s="70" t="s">
+        <v>13</v>
+      </c>
+      <c r="H130" s="12" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A131" s="35"/>
-      <c r="B131" s="54"/>
-      <c r="C131" s="43"/>
-      <c r="D131" s="57"/>
-      <c r="E131" s="11"/>
-      <c r="F131" s="53"/>
-      <c r="G131" s="46"/>
-      <c r="H131" s="12"/>
+      <c r="A131" s="36"/>
+      <c r="B131" s="56"/>
+      <c r="C131" s="41"/>
+      <c r="D131" s="59"/>
+      <c r="E131" s="7"/>
+      <c r="F131" s="45"/>
+      <c r="G131" s="45"/>
+      <c r="H131" s="13"/>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A132" s="37"/>
-      <c r="B132" s="55"/>
-      <c r="C132" s="42"/>
-      <c r="D132" s="58"/>
-      <c r="E132" s="3"/>
-      <c r="F132" s="44"/>
+      <c r="A132" s="35">
+        <v>53</v>
+      </c>
+      <c r="B132" s="54">
+        <v>44498</v>
+      </c>
+      <c r="C132" s="43">
+        <v>1</v>
+      </c>
+      <c r="D132" s="57" t="s">
+        <v>240</v>
+      </c>
+      <c r="E132" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F132" s="53"/>
       <c r="G132" s="44"/>
-      <c r="H132" s="14"/>
+      <c r="H132" s="12"/>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="36"/>
@@ -4009,24 +4077,22 @@
       <c r="H135" s="13"/>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A136" s="35"/>
-      <c r="B136" s="54"/>
-      <c r="C136" s="43"/>
-      <c r="D136" s="57"/>
-      <c r="E136" s="11"/>
-      <c r="F136" s="53"/>
-      <c r="G136" s="44"/>
-      <c r="H136" s="12"/>
+      <c r="B136" s="1"/>
+      <c r="C136" s="2"/>
+      <c r="D136" s="4"/>
+      <c r="E136" s="3"/>
+      <c r="F136" s="4"/>
+      <c r="G136" s="4"/>
+      <c r="H136" s="17"/>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A137" s="36"/>
-      <c r="B137" s="56"/>
-      <c r="C137" s="41"/>
-      <c r="D137" s="59"/>
-      <c r="E137" s="7"/>
-      <c r="F137" s="45"/>
-      <c r="G137" s="45"/>
-      <c r="H137" s="13"/>
+      <c r="B137" s="1"/>
+      <c r="C137" s="2"/>
+      <c r="D137" s="4"/>
+      <c r="E137" s="3"/>
+      <c r="F137" s="4"/>
+      <c r="G137" s="4"/>
+      <c r="H137" s="17"/>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B138" s="1"/>
@@ -4234,24 +4300,6 @@
       <c r="F160" s="4"/>
       <c r="G160" s="4"/>
       <c r="H160" s="17"/>
-    </row>
-    <row r="161" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B161" s="1"/>
-      <c r="C161" s="2"/>
-      <c r="D161" s="4"/>
-      <c r="E161" s="3"/>
-      <c r="F161" s="4"/>
-      <c r="G161" s="4"/>
-      <c r="H161" s="17"/>
-    </row>
-    <row r="162" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B162" s="1"/>
-      <c r="C162" s="2"/>
-      <c r="D162" s="4"/>
-      <c r="E162" s="3"/>
-      <c r="F162" s="4"/>
-      <c r="G162" s="4"/>
-      <c r="H162" s="17"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/TS Jatai Working/TTD Krama PaaraayaNam-Kramam.xlsx
+++ b/TS Jatai Working/TTD Krama PaaraayaNam-Kramam.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="254">
   <si>
     <t>Date</t>
   </si>
@@ -737,6 +737,45 @@
   </si>
   <si>
     <t>5.5.1.1</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=l_YTCPK4odk&amp;list=PLjhrDIztP9pcSE8dR7xYZb7zwX5SXxNKy&amp;index=15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.5.6.3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.5.7.1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.5.10.7 </t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=X0Ugb4vSj6E&amp;list=PLjhrDIztP9pcSE8dR7xYZb7zwX5SXxNKy&amp;index=15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.5.11.1 </t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=9PlkXENF5zg&amp;list=PLjhrDIztP9pcSE8dR7xYZb7zwX5SXxNKy&amp;index=13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.5.24.1 </t>
+  </si>
+  <si>
+    <t>18 min 47 sec</t>
+  </si>
+  <si>
+    <t>5.6.1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.6.4.5 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.6.5.1 </t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=zqIAd7klHqU&amp;list=PLjhrDIztP9pcSE8dR7xYZb7zwX5SXxNKy&amp;index=12</t>
   </si>
 </sst>
 </file>
@@ -929,11 +968,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1057,9 +1093,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1446,2860 +1479,3349 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L160"/>
+  <dimension ref="A1:L200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A123" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H130" sqref="H130"/>
+      <pane ySplit="4" topLeftCell="A135" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H139" sqref="H139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="2"/>
-    <col min="2" max="2" width="15.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14" style="20" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="20" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" style="21" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" style="22" customWidth="1"/>
-    <col min="7" max="7" width="20.5703125" style="20" customWidth="1"/>
-    <col min="8" max="8" width="138.140625" style="18" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="18"/>
+    <col min="1" max="1" width="8.85546875" style="1"/>
+    <col min="2" max="2" width="15.7109375" style="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" style="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="19" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" style="20" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" style="21" customWidth="1"/>
+    <col min="7" max="7" width="20.5703125" style="19" customWidth="1"/>
+    <col min="8" max="8" width="138.140625" style="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31" t="s">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="30"/>
-      <c r="F1" s="31" t="s">
+      <c r="E1" s="29"/>
+      <c r="F1" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="31"/>
-      <c r="H1" s="49" t="s">
+      <c r="G1" s="30"/>
+      <c r="H1" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="25"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="15" t="s">
+      <c r="A2" s="24"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="16"/>
-      <c r="F2" s="15" t="s">
+      <c r="E2" s="15"/>
+      <c r="F2" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="32"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="25"/>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="15" t="s">
+      <c r="A3" s="24"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="16"/>
-      <c r="F3" s="32" t="s">
+      <c r="E3" s="15"/>
+      <c r="F3" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="C4" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="29" t="s">
+      <c r="D4" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="34" t="s">
+      <c r="E4" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="34" t="s">
+      <c r="G4" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="51"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="35">
+      <c r="A5" s="34">
         <v>1</v>
       </c>
-      <c r="B5" s="38">
+      <c r="B5" s="37">
         <v>44446</v>
       </c>
-      <c r="C5" s="43">
+      <c r="C5" s="42">
         <v>1</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="2" t="s">
+      <c r="E5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="5" t="s">
+      <c r="G5" s="58" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="36"/>
-      <c r="B6" s="39"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
+      <c r="A6" s="35"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="59"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="35">
+      <c r="A7" s="34">
         <v>2</v>
       </c>
-      <c r="B7" s="38">
+      <c r="B7" s="37">
         <v>44447</v>
       </c>
-      <c r="C7" s="43">
+      <c r="C7" s="42">
         <v>1</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="10" t="s">
+      <c r="E7" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="12" t="s">
+      <c r="G7" s="58" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="36"/>
-      <c r="B8" s="39"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="61"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
+      <c r="A8" s="35"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="59"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="35">
+      <c r="A9" s="34">
         <v>3</v>
       </c>
-      <c r="B9" s="38">
+      <c r="B9" s="37">
         <v>44448</v>
       </c>
-      <c r="C9" s="43">
+      <c r="C9" s="42">
         <v>2</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="10" t="s">
+      <c r="E9" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="G9" s="57" t="s">
+      <c r="G9" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="H9" s="62" t="s">
+      <c r="H9" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="37"/>
-      <c r="B10" s="40">
+      <c r="A10" s="36"/>
+      <c r="B10" s="39">
         <v>44448</v>
       </c>
-      <c r="C10" s="42">
+      <c r="C10" s="41">
         <v>1</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="4" t="s">
+      <c r="E10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G10" s="58" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="63" t="s">
+      <c r="G10" s="56" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="36"/>
-      <c r="B11" s="39"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="59"/>
-      <c r="H11" s="64"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
+      <c r="A11" s="35"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="62"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="35">
+      <c r="A12" s="34">
         <v>4</v>
       </c>
-      <c r="B12" s="38">
+      <c r="B12" s="37">
         <v>44449</v>
       </c>
-      <c r="C12" s="43">
+      <c r="C12" s="42">
         <v>2</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E12" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" s="10" t="s">
+      <c r="E12" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="G12" s="65" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" s="14" t="s">
+      <c r="G12" s="63" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="36"/>
-      <c r="B13" s="39"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
+      <c r="A13" s="35"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="35">
+      <c r="A14" s="34">
         <v>5</v>
       </c>
-      <c r="B14" s="38">
+      <c r="B14" s="37">
         <v>44450</v>
       </c>
-      <c r="C14" s="43">
+      <c r="C14" s="42">
         <v>1</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="E14" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F14" s="10" t="s">
+      <c r="E14" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="G14" s="65" t="s">
-        <v>13</v>
-      </c>
-      <c r="H14" s="12" t="s">
+      <c r="G14" s="63" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="36"/>
-      <c r="B15" s="39"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="52"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17"/>
+      <c r="A15" s="35"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="35">
+      <c r="A16" s="34">
         <v>6</v>
       </c>
-      <c r="B16" s="38">
+      <c r="B16" s="37">
         <v>44451</v>
       </c>
-      <c r="C16" s="43">
+      <c r="C16" s="42">
         <v>2</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F16" s="10" t="s">
+      <c r="E16" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="G16" s="57" t="s">
+      <c r="G16" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="H16" s="62" t="s">
+      <c r="H16" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="37"/>
-      <c r="B17" s="40">
+      <c r="A17" s="36"/>
+      <c r="B17" s="39">
         <v>44451</v>
       </c>
-      <c r="C17" s="42">
+      <c r="C17" s="41">
         <v>1</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E17" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F17" s="4" t="s">
+      <c r="E17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="G17" s="58" t="s">
-        <v>13</v>
-      </c>
-      <c r="H17" s="63" t="s">
+      <c r="G17" s="56" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="17"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="36"/>
-      <c r="B18" s="39"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="66"/>
-      <c r="H18" s="64"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="17"/>
+      <c r="A18" s="35"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="64"/>
+      <c r="H18" s="62"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="16"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="35">
+      <c r="A19" s="34">
         <v>7</v>
       </c>
-      <c r="B19" s="38">
+      <c r="B19" s="37">
         <v>44452</v>
       </c>
-      <c r="C19" s="67">
+      <c r="C19" s="65">
         <v>2</v>
       </c>
-      <c r="D19" s="68" t="s">
+      <c r="D19" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="E19" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F19" s="10" t="s">
+      <c r="E19" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="G19" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="H19" s="14" t="s">
+      <c r="G19" s="58" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" s="13" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="36"/>
-      <c r="B20" s="41"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="66"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="14"/>
+      <c r="A20" s="35"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="13"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="35">
+      <c r="A21" s="34">
         <v>8</v>
       </c>
-      <c r="B21" s="38">
+      <c r="B21" s="37">
         <v>44453</v>
       </c>
-      <c r="C21" s="43">
+      <c r="C21" s="42">
         <v>2</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="D21" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E21" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F21" s="10" t="s">
+      <c r="E21" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="G21" s="60" t="s">
+      <c r="G21" s="58" t="s">
         <v>43</v>
       </c>
-      <c r="H21" s="12" t="s">
+      <c r="H21" s="11" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="37"/>
-      <c r="B22" s="40">
+      <c r="A22" s="36"/>
+      <c r="B22" s="39">
         <v>44453</v>
       </c>
-      <c r="C22" s="42">
+      <c r="C22" s="41">
         <v>1</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F22" s="4" t="s">
+      <c r="E22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G22" s="70" t="s">
-        <v>13</v>
-      </c>
-      <c r="H22" s="14" t="s">
+      <c r="G22" s="68" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" s="13" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="36"/>
-      <c r="B23" s="41"/>
-      <c r="C23" s="41"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="69"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="13"/>
+      <c r="A23" s="35"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="67"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="12"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="35">
-        <v>9</v>
-      </c>
-      <c r="B24" s="38">
+      <c r="A24" s="34">
+        <v>9</v>
+      </c>
+      <c r="B24" s="37">
         <v>44454</v>
       </c>
-      <c r="C24" s="43">
+      <c r="C24" s="42">
         <v>2</v>
       </c>
-      <c r="D24" s="10" t="s">
+      <c r="D24" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E24" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F24" s="10" t="s">
+      <c r="E24" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="G24" s="70" t="s">
-        <v>13</v>
-      </c>
-      <c r="H24" s="5" t="s">
+      <c r="G24" s="68" t="s">
+        <v>13</v>
+      </c>
+      <c r="H24" s="4" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="36"/>
-      <c r="B25" s="42"/>
-      <c r="C25" s="42"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="48"/>
-      <c r="G25" s="42"/>
-      <c r="H25" s="14"/>
+      <c r="A25" s="35"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="13"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="71">
+      <c r="A26" s="69">
         <v>10</v>
       </c>
-      <c r="B26" s="73">
+      <c r="B26" s="71">
         <v>44455</v>
       </c>
-      <c r="C26" s="43">
+      <c r="C26" s="42">
         <v>3</v>
       </c>
-      <c r="D26" s="10" t="s">
+      <c r="D26" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="E26" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F26" s="10" t="s">
+      <c r="E26" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="G26" s="60" t="s">
+      <c r="G26" s="58" t="s">
         <v>53</v>
       </c>
-      <c r="H26" s="12" t="s">
+      <c r="H26" s="11" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="72"/>
-      <c r="B27" s="74">
+      <c r="A27" s="70"/>
+      <c r="B27" s="72">
         <v>44455</v>
       </c>
-      <c r="C27" s="42">
+      <c r="C27" s="41">
         <v>1</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="D27" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E27" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F27" s="4" t="s">
+      <c r="E27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="G27" s="70" t="s">
-        <v>13</v>
-      </c>
-      <c r="H27" s="14" t="s">
+      <c r="G27" s="68" t="s">
+        <v>13</v>
+      </c>
+      <c r="H27" s="13" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="66"/>
-      <c r="B28" s="36"/>
-      <c r="C28" s="41"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="69"/>
-      <c r="G28" s="36"/>
-      <c r="H28" s="13"/>
+      <c r="A28" s="64"/>
+      <c r="B28" s="35"/>
+      <c r="C28" s="40"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="67"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="12"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="35">
+      <c r="A29" s="34">
         <v>11</v>
       </c>
-      <c r="B29" s="40">
+      <c r="B29" s="39">
         <v>44456</v>
       </c>
-      <c r="C29" s="42">
+      <c r="C29" s="41">
         <v>2</v>
       </c>
-      <c r="D29" s="75" t="s">
+      <c r="D29" s="73" t="s">
         <v>56</v>
       </c>
-      <c r="E29" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F29" s="10" t="s">
+      <c r="E29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="G29" s="70" t="s">
-        <v>13</v>
-      </c>
-      <c r="H29" s="76" t="s">
+      <c r="G29" s="68" t="s">
+        <v>13</v>
+      </c>
+      <c r="H29" s="74" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="36"/>
-      <c r="B30" s="41"/>
-      <c r="C30" s="41"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="47"/>
-      <c r="G30" s="41"/>
-      <c r="H30" s="13"/>
+      <c r="A30" s="35"/>
+      <c r="B30" s="40"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="46"/>
+      <c r="G30" s="40"/>
+      <c r="H30" s="12"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="35">
+      <c r="A31" s="34">
         <v>12</v>
       </c>
-      <c r="B31" s="38">
+      <c r="B31" s="37">
         <v>44457</v>
       </c>
-      <c r="C31" s="43">
+      <c r="C31" s="42">
         <v>3</v>
       </c>
-      <c r="D31" s="75" t="s">
+      <c r="D31" s="73" t="s">
         <v>59</v>
       </c>
-      <c r="E31" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F31" s="10" t="s">
+      <c r="E31" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="G31" s="70" t="s">
-        <v>13</v>
-      </c>
-      <c r="H31" s="23" t="s">
+      <c r="G31" s="68" t="s">
+        <v>13</v>
+      </c>
+      <c r="H31" s="22" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="36"/>
-      <c r="B32" s="39"/>
-      <c r="C32" s="41"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="45"/>
-      <c r="G32" s="41"/>
-      <c r="H32" s="13"/>
+      <c r="A32" s="35"/>
+      <c r="B32" s="38"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="44"/>
+      <c r="G32" s="40"/>
+      <c r="H32" s="12"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="35">
-        <v>13</v>
-      </c>
-      <c r="B33" s="38">
+      <c r="A33" s="34">
+        <v>13</v>
+      </c>
+      <c r="B33" s="37">
         <v>44458</v>
       </c>
-      <c r="C33" s="43">
+      <c r="C33" s="42">
         <v>1</v>
       </c>
-      <c r="D33" s="10" t="s">
+      <c r="D33" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="E33" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F33" s="10" t="s">
+      <c r="E33" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F33" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="G33" s="70" t="s">
-        <v>13</v>
-      </c>
-      <c r="H33" s="12" t="s">
+      <c r="G33" s="68" t="s">
+        <v>13</v>
+      </c>
+      <c r="H33" s="11" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="37"/>
-      <c r="B34" s="40"/>
-      <c r="C34" s="42"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="44"/>
-      <c r="G34" s="44"/>
-      <c r="H34" s="14"/>
+      <c r="A34" s="36"/>
+      <c r="B34" s="39"/>
+      <c r="C34" s="41"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="43"/>
+      <c r="G34" s="43"/>
+      <c r="H34" s="13"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="35">
+      <c r="A35" s="34">
         <v>14</v>
       </c>
-      <c r="B35" s="54">
+      <c r="B35" s="52">
         <v>44459</v>
       </c>
-      <c r="C35" s="35">
+      <c r="C35" s="34">
         <v>2</v>
       </c>
-      <c r="D35" s="57" t="s">
+      <c r="D35" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="E35" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F35" s="46" t="s">
+      <c r="E35" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F35" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="G35" s="60" t="s">
+      <c r="G35" s="58" t="s">
         <v>67</v>
       </c>
-      <c r="H35" s="12" t="s">
+      <c r="H35" s="11" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="37"/>
-      <c r="B36" s="55">
+      <c r="A36" s="36"/>
+      <c r="B36" s="53">
         <v>44459</v>
       </c>
-      <c r="C36" s="37">
+      <c r="C36" s="36">
         <v>1</v>
       </c>
-      <c r="D36" s="58" t="s">
+      <c r="D36" s="56" t="s">
         <v>69</v>
       </c>
-      <c r="E36" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F36" s="4" t="s">
+      <c r="E36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F36" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="G36" s="70" t="s">
-        <v>13</v>
-      </c>
-      <c r="H36" s="14" t="s">
+      <c r="G36" s="68" t="s">
+        <v>13</v>
+      </c>
+      <c r="H36" s="13" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="36"/>
-      <c r="B37" s="36"/>
-      <c r="C37" s="36"/>
-      <c r="D37" s="66"/>
-      <c r="E37" s="27"/>
-      <c r="F37" s="47"/>
-      <c r="G37" s="36"/>
-      <c r="H37" s="13"/>
+      <c r="A37" s="35"/>
+      <c r="B37" s="35"/>
+      <c r="C37" s="35"/>
+      <c r="D37" s="64"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="46"/>
+      <c r="G37" s="35"/>
+      <c r="H37" s="12"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="37">
+      <c r="A38" s="36">
         <v>15</v>
       </c>
-      <c r="B38" s="40">
+      <c r="B38" s="39">
         <v>44460</v>
       </c>
-      <c r="C38" s="42">
+      <c r="C38" s="41">
         <v>2</v>
       </c>
-      <c r="D38" s="57" t="s">
+      <c r="D38" s="55" t="s">
         <v>71</v>
       </c>
-      <c r="E38" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F38" s="46" t="s">
+      <c r="E38" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F38" s="45" t="s">
         <v>73</v>
       </c>
-      <c r="G38" s="70" t="s">
-        <v>13</v>
-      </c>
-      <c r="H38" s="14" t="s">
+      <c r="G38" s="68" t="s">
+        <v>13</v>
+      </c>
+      <c r="H38" s="13" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="36"/>
-      <c r="B39" s="41"/>
-      <c r="C39" s="41"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="27"/>
-      <c r="F39" s="47"/>
-      <c r="G39" s="41"/>
-      <c r="H39" s="14"/>
+      <c r="A39" s="35"/>
+      <c r="B39" s="40"/>
+      <c r="C39" s="40"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="26"/>
+      <c r="F39" s="46"/>
+      <c r="G39" s="40"/>
+      <c r="H39" s="13"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="35">
+      <c r="A40" s="34">
         <v>16</v>
       </c>
-      <c r="B40" s="38">
+      <c r="B40" s="37">
         <v>44461</v>
       </c>
-      <c r="C40" s="43">
+      <c r="C40" s="42">
         <v>3</v>
       </c>
-      <c r="D40" s="57" t="s">
+      <c r="D40" s="55" t="s">
         <v>74</v>
       </c>
-      <c r="E40" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F40" s="46" t="s">
+      <c r="E40" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F40" s="45" t="s">
         <v>77</v>
       </c>
-      <c r="G40" s="10" t="s">
+      <c r="G40" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="H40" s="62" t="s">
+      <c r="H40" s="60" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="37"/>
-      <c r="B41" s="40">
+      <c r="A41" s="36"/>
+      <c r="B41" s="39">
         <v>44461</v>
       </c>
-      <c r="C41" s="42">
+      <c r="C41" s="41">
         <v>1</v>
       </c>
-      <c r="D41" s="4" t="s">
+      <c r="D41" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="E41" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F41" s="4" t="s">
+      <c r="E41" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F41" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="G41" s="58" t="s">
-        <v>13</v>
-      </c>
-      <c r="H41" s="63" t="s">
+      <c r="G41" s="56" t="s">
+        <v>13</v>
+      </c>
+      <c r="H41" s="61" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="36"/>
-      <c r="B42" s="41"/>
-      <c r="C42" s="41"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="27"/>
-      <c r="F42" s="47"/>
-      <c r="G42" s="6"/>
-      <c r="H42" s="64"/>
+      <c r="A42" s="35"/>
+      <c r="B42" s="40"/>
+      <c r="C42" s="40"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="26"/>
+      <c r="F42" s="46"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="62"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="35">
+      <c r="A43" s="34">
         <v>17</v>
       </c>
-      <c r="B43" s="38">
+      <c r="B43" s="37">
         <v>44462</v>
       </c>
-      <c r="C43" s="43">
+      <c r="C43" s="42">
         <v>2</v>
       </c>
-      <c r="D43" s="57" t="s">
+      <c r="D43" s="55" t="s">
         <v>80</v>
       </c>
-      <c r="E43" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F43" s="46" t="s">
+      <c r="E43" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F43" s="45" t="s">
         <v>82</v>
       </c>
-      <c r="G43" s="70" t="s">
-        <v>13</v>
-      </c>
-      <c r="H43" s="5" t="s">
+      <c r="G43" s="68" t="s">
+        <v>13</v>
+      </c>
+      <c r="H43" s="4" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="36"/>
-      <c r="B44" s="42"/>
-      <c r="C44" s="42"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="19"/>
-      <c r="F44" s="48"/>
-      <c r="G44" s="42"/>
-      <c r="H44" s="14"/>
+      <c r="A44" s="35"/>
+      <c r="B44" s="41"/>
+      <c r="C44" s="41"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="18"/>
+      <c r="F44" s="47"/>
+      <c r="G44" s="41"/>
+      <c r="H44" s="13"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="71">
+      <c r="A45" s="69">
         <v>18</v>
       </c>
-      <c r="B45" s="54">
+      <c r="B45" s="52">
         <v>44463</v>
       </c>
-      <c r="C45" s="35">
+      <c r="C45" s="34">
         <v>3</v>
       </c>
-      <c r="D45" s="57" t="s">
+      <c r="D45" s="55" t="s">
         <v>83</v>
       </c>
-      <c r="E45" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F45" s="46" t="s">
+      <c r="E45" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F45" s="45" t="s">
         <v>85</v>
       </c>
-      <c r="G45" s="60" t="s">
+      <c r="G45" s="58" t="s">
         <v>86</v>
       </c>
-      <c r="H45" s="23" t="s">
+      <c r="H45" s="22" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="72"/>
-      <c r="B46" s="55">
+      <c r="A46" s="70"/>
+      <c r="B46" s="53">
         <v>44463</v>
       </c>
-      <c r="C46" s="37">
+      <c r="C46" s="36">
         <v>1</v>
       </c>
-      <c r="D46" s="58" t="s">
+      <c r="D46" s="56" t="s">
         <v>87</v>
       </c>
-      <c r="E46" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F46" s="4" t="s">
+      <c r="E46" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F46" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="G46" s="70" t="s">
-        <v>13</v>
-      </c>
-      <c r="H46" s="5" t="s">
+      <c r="G46" s="68" t="s">
+        <v>13</v>
+      </c>
+      <c r="H46" s="4" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="66"/>
-      <c r="B47" s="36"/>
-      <c r="C47" s="36"/>
-      <c r="D47" s="66"/>
-      <c r="E47" s="27"/>
-      <c r="F47" s="47"/>
-      <c r="G47" s="36"/>
-      <c r="H47" s="13"/>
+      <c r="A47" s="64"/>
+      <c r="B47" s="35"/>
+      <c r="C47" s="35"/>
+      <c r="D47" s="64"/>
+      <c r="E47" s="26"/>
+      <c r="F47" s="46"/>
+      <c r="G47" s="35"/>
+      <c r="H47" s="12"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="35">
+      <c r="A48" s="34">
         <v>19</v>
       </c>
-      <c r="B48" s="40">
+      <c r="B48" s="39">
         <v>44464</v>
       </c>
-      <c r="C48" s="42">
+      <c r="C48" s="41">
         <v>2</v>
       </c>
-      <c r="D48" s="57" t="s">
+      <c r="D48" s="55" t="s">
         <v>89</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F48" s="46" t="s">
+      <c r="E48" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F48" s="45" t="s">
         <v>90</v>
       </c>
-      <c r="G48" s="70" t="s">
-        <v>13</v>
-      </c>
-      <c r="H48" s="77" t="s">
+      <c r="G48" s="68" t="s">
+        <v>13</v>
+      </c>
+      <c r="H48" s="75" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="37"/>
-      <c r="B49" s="42"/>
-      <c r="C49" s="42"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="19"/>
-      <c r="F49" s="48"/>
-      <c r="G49" s="42"/>
-      <c r="H49" s="14"/>
+      <c r="A49" s="36"/>
+      <c r="B49" s="41"/>
+      <c r="C49" s="41"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="18"/>
+      <c r="F49" s="47"/>
+      <c r="G49" s="41"/>
+      <c r="H49" s="13"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="35">
+      <c r="A50" s="34">
         <v>20</v>
       </c>
-      <c r="B50" s="38">
+      <c r="B50" s="37">
         <v>44465</v>
       </c>
-      <c r="C50" s="43">
+      <c r="C50" s="42">
         <v>3</v>
       </c>
-      <c r="D50" s="10" t="s">
+      <c r="D50" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="E50" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F50" s="46" t="s">
+      <c r="E50" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F50" s="45" t="s">
         <v>93</v>
       </c>
-      <c r="G50" s="46" t="s">
+      <c r="G50" s="45" t="s">
         <v>94</v>
       </c>
-      <c r="H50" s="12" t="s">
+      <c r="H50" s="11" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="37"/>
-      <c r="B51" s="40">
+      <c r="A51" s="36"/>
+      <c r="B51" s="39">
         <v>44465</v>
       </c>
-      <c r="C51" s="42">
+      <c r="C51" s="41">
         <v>1</v>
       </c>
-      <c r="D51" s="4" t="s">
+      <c r="D51" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="E51" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F51" s="4" t="s">
+      <c r="E51" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F51" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="G51" s="70" t="s">
-        <v>13</v>
-      </c>
-      <c r="H51" s="14" t="s">
+      <c r="G51" s="68" t="s">
+        <v>13</v>
+      </c>
+      <c r="H51" s="13" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="36"/>
-      <c r="B52" s="41"/>
-      <c r="C52" s="41"/>
-      <c r="D52" s="6"/>
-      <c r="E52" s="27"/>
-      <c r="F52" s="47"/>
-      <c r="G52" s="41"/>
-      <c r="H52" s="13"/>
+      <c r="A52" s="35"/>
+      <c r="B52" s="40"/>
+      <c r="C52" s="40"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="26"/>
+      <c r="F52" s="46"/>
+      <c r="G52" s="40"/>
+      <c r="H52" s="12"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="37">
+      <c r="A53" s="36">
         <v>21</v>
       </c>
-      <c r="B53" s="40">
+      <c r="B53" s="39">
         <v>44466</v>
       </c>
-      <c r="C53" s="42">
+      <c r="C53" s="41">
         <v>2</v>
       </c>
-      <c r="D53" s="10" t="s">
+      <c r="D53" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="E53" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F53" s="46" t="s">
+      <c r="E53" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F53" s="45" t="s">
         <v>99</v>
       </c>
-      <c r="G53" s="70" t="s">
-        <v>13</v>
-      </c>
-      <c r="H53" s="14" t="s">
+      <c r="G53" s="68" t="s">
+        <v>13</v>
+      </c>
+      <c r="H53" s="13" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="36"/>
-      <c r="B54" s="41"/>
-      <c r="C54" s="41"/>
-      <c r="D54" s="6"/>
-      <c r="E54" s="27"/>
-      <c r="F54" s="47"/>
-      <c r="G54" s="41"/>
-      <c r="H54" s="13"/>
+      <c r="A54" s="35"/>
+      <c r="B54" s="40"/>
+      <c r="C54" s="40"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="26"/>
+      <c r="F54" s="46"/>
+      <c r="G54" s="40"/>
+      <c r="H54" s="12"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="35">
+      <c r="A55" s="34">
         <v>22</v>
       </c>
-      <c r="B55" s="38">
+      <c r="B55" s="37">
         <v>44467</v>
       </c>
-      <c r="C55" s="43">
+      <c r="C55" s="42">
         <v>1</v>
       </c>
-      <c r="D55" s="10" t="s">
+      <c r="D55" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="E55" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F55" s="46" t="s">
+      <c r="E55" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F55" s="45" t="s">
         <v>103</v>
       </c>
-      <c r="G55" s="70" t="s">
-        <v>13</v>
-      </c>
-      <c r="H55" s="12" t="s">
+      <c r="G55" s="68" t="s">
+        <v>13</v>
+      </c>
+      <c r="H55" s="11" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="36"/>
-      <c r="B56" s="41"/>
-      <c r="C56" s="41"/>
-      <c r="D56" s="6"/>
-      <c r="E56" s="27"/>
-      <c r="F56" s="47"/>
-      <c r="G56" s="41"/>
-      <c r="H56" s="13"/>
+      <c r="A56" s="35"/>
+      <c r="B56" s="40"/>
+      <c r="C56" s="40"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="26"/>
+      <c r="F56" s="46"/>
+      <c r="G56" s="40"/>
+      <c r="H56" s="12"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="35">
+      <c r="A57" s="34">
         <v>23</v>
       </c>
-      <c r="B57" s="38">
+      <c r="B57" s="37">
         <v>44468</v>
       </c>
-      <c r="C57" s="43">
+      <c r="C57" s="42">
         <v>2</v>
       </c>
-      <c r="D57" s="10" t="s">
+      <c r="D57" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="E57" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F57" s="46" t="s">
+      <c r="E57" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F57" s="45" t="s">
         <v>106</v>
       </c>
-      <c r="G57" s="70" t="s">
-        <v>13</v>
-      </c>
-      <c r="H57" s="12" t="s">
+      <c r="G57" s="68" t="s">
+        <v>13</v>
+      </c>
+      <c r="H57" s="11" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="37"/>
-      <c r="B58" s="42"/>
-      <c r="C58" s="42"/>
-      <c r="D58" s="2"/>
-      <c r="E58" s="19"/>
-      <c r="F58" s="48"/>
-      <c r="G58" s="42"/>
-      <c r="H58" s="14"/>
+      <c r="A58" s="36"/>
+      <c r="B58" s="41"/>
+      <c r="C58" s="41"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="18"/>
+      <c r="F58" s="47"/>
+      <c r="G58" s="41"/>
+      <c r="H58" s="13"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="35">
+      <c r="A59" s="34">
         <v>24</v>
       </c>
-      <c r="B59" s="38">
+      <c r="B59" s="37">
         <v>44469</v>
       </c>
-      <c r="C59" s="43">
+      <c r="C59" s="42">
         <v>3</v>
       </c>
-      <c r="D59" s="57" t="s">
+      <c r="D59" s="55" t="s">
         <v>107</v>
       </c>
-      <c r="E59" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F59" s="46" t="s">
+      <c r="E59" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F59" s="45" t="s">
         <v>109</v>
       </c>
-      <c r="G59" s="46" t="s">
+      <c r="G59" s="45" t="s">
         <v>110</v>
       </c>
-      <c r="H59" s="12" t="s">
+      <c r="H59" s="11" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="37"/>
-      <c r="B60" s="40">
+      <c r="A60" s="36"/>
+      <c r="B60" s="39">
         <v>44469</v>
       </c>
-      <c r="C60" s="42">
+      <c r="C60" s="41">
         <v>1</v>
       </c>
-      <c r="D60" s="58" t="s">
+      <c r="D60" s="56" t="s">
         <v>111</v>
       </c>
-      <c r="E60" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F60" s="4" t="s">
+      <c r="E60" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F60" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="G60" s="70" t="s">
-        <v>13</v>
-      </c>
-      <c r="H60" s="14" t="s">
+      <c r="G60" s="68" t="s">
+        <v>13</v>
+      </c>
+      <c r="H60" s="13" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="36"/>
-      <c r="B61" s="41"/>
-      <c r="C61" s="41"/>
-      <c r="D61" s="66"/>
-      <c r="E61" s="27"/>
-      <c r="F61" s="47"/>
-      <c r="G61" s="41"/>
-      <c r="H61" s="13"/>
+      <c r="A61" s="35"/>
+      <c r="B61" s="40"/>
+      <c r="C61" s="40"/>
+      <c r="D61" s="64"/>
+      <c r="E61" s="26"/>
+      <c r="F61" s="46"/>
+      <c r="G61" s="40"/>
+      <c r="H61" s="12"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="37">
+      <c r="A62" s="36">
         <v>25</v>
       </c>
-      <c r="B62" s="40">
+      <c r="B62" s="39">
         <v>44470</v>
       </c>
-      <c r="C62" s="42">
+      <c r="C62" s="41">
         <v>2</v>
       </c>
-      <c r="D62" s="57" t="s">
+      <c r="D62" s="55" t="s">
         <v>113</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F62" s="46" t="s">
+      <c r="E62" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F62" s="45" t="s">
         <v>115</v>
       </c>
-      <c r="G62" s="70" t="s">
-        <v>13</v>
-      </c>
-      <c r="H62" s="14" t="s">
+      <c r="G62" s="68" t="s">
+        <v>13</v>
+      </c>
+      <c r="H62" s="13" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="36"/>
-      <c r="B63" s="41"/>
-      <c r="C63" s="41"/>
-      <c r="D63" s="6"/>
-      <c r="E63" s="27"/>
-      <c r="F63" s="47"/>
-      <c r="G63" s="41"/>
-      <c r="H63" s="14"/>
+      <c r="A63" s="35"/>
+      <c r="B63" s="40"/>
+      <c r="C63" s="40"/>
+      <c r="D63" s="5"/>
+      <c r="E63" s="26"/>
+      <c r="F63" s="46"/>
+      <c r="G63" s="40"/>
+      <c r="H63" s="13"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="35">
+      <c r="A64" s="34">
         <v>26</v>
       </c>
-      <c r="B64" s="38">
+      <c r="B64" s="37">
         <v>44471</v>
       </c>
-      <c r="C64" s="43">
+      <c r="C64" s="42">
         <v>3</v>
       </c>
-      <c r="D64" s="57" t="s">
+      <c r="D64" s="55" t="s">
         <v>116</v>
       </c>
-      <c r="E64" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F64" s="46" t="s">
+      <c r="E64" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F64" s="45" t="s">
         <v>118</v>
       </c>
-      <c r="G64" s="10" t="s">
+      <c r="G64" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="H64" s="62" t="s">
+      <c r="H64" s="60" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="37"/>
-      <c r="B65" s="40">
+      <c r="A65" s="36"/>
+      <c r="B65" s="39">
         <v>44471</v>
       </c>
-      <c r="C65" s="42">
+      <c r="C65" s="41">
         <v>1</v>
       </c>
-      <c r="D65" s="4" t="s">
+      <c r="D65" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="E65" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F65" s="4" t="s">
+      <c r="E65" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F65" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="G65" s="58" t="s">
-        <v>13</v>
-      </c>
-      <c r="H65" s="63" t="s">
+      <c r="G65" s="56" t="s">
+        <v>13</v>
+      </c>
+      <c r="H65" s="61" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="37"/>
-      <c r="B66" s="42"/>
-      <c r="C66" s="42"/>
-      <c r="D66" s="2"/>
-      <c r="E66" s="19"/>
-      <c r="F66" s="48"/>
-      <c r="G66" s="2"/>
-      <c r="H66" s="63"/>
+      <c r="A66" s="36"/>
+      <c r="B66" s="41"/>
+      <c r="C66" s="41"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="18"/>
+      <c r="F66" s="47"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="61"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="35">
+      <c r="A67" s="34">
         <v>27</v>
       </c>
-      <c r="B67" s="38">
+      <c r="B67" s="37">
         <v>44472</v>
       </c>
-      <c r="C67" s="43">
+      <c r="C67" s="42">
         <v>2</v>
       </c>
-      <c r="D67" s="10" t="s">
+      <c r="D67" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="E67" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F67" s="46" t="s">
+      <c r="E67" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F67" s="45" t="s">
         <v>124</v>
       </c>
-      <c r="G67" s="46" t="s">
+      <c r="G67" s="45" t="s">
         <v>125</v>
       </c>
-      <c r="H67" s="12" t="s">
+      <c r="H67" s="11" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="37"/>
-      <c r="B68" s="40">
+      <c r="A68" s="36"/>
+      <c r="B68" s="39">
         <v>44472</v>
       </c>
-      <c r="C68" s="42">
+      <c r="C68" s="41">
         <v>1</v>
       </c>
-      <c r="D68" s="4" t="s">
+      <c r="D68" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="E68" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F68" s="4" t="s">
+      <c r="E68" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F68" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="G68" s="58" t="s">
-        <v>13</v>
-      </c>
-      <c r="H68" s="14" t="s">
+      <c r="G68" s="56" t="s">
+        <v>13</v>
+      </c>
+      <c r="H68" s="13" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="36"/>
-      <c r="B69" s="41"/>
-      <c r="C69" s="41"/>
-      <c r="D69" s="6"/>
-      <c r="E69" s="27"/>
-      <c r="F69" s="47"/>
-      <c r="G69" s="41"/>
-      <c r="H69" s="13"/>
+      <c r="A69" s="35"/>
+      <c r="B69" s="40"/>
+      <c r="C69" s="40"/>
+      <c r="D69" s="5"/>
+      <c r="E69" s="26"/>
+      <c r="F69" s="46"/>
+      <c r="G69" s="40"/>
+      <c r="H69" s="12"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="37">
+      <c r="A70" s="36">
         <v>28</v>
       </c>
-      <c r="B70" s="38">
+      <c r="B70" s="37">
         <v>44473</v>
       </c>
-      <c r="C70" s="42">
+      <c r="C70" s="41">
         <v>2</v>
       </c>
-      <c r="D70" s="10" t="s">
+      <c r="D70" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="E70" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F70" s="46" t="s">
+      <c r="E70" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F70" s="45" t="s">
         <v>130</v>
       </c>
-      <c r="G70" s="70" t="s">
-        <v>13</v>
-      </c>
-      <c r="H70" s="14" t="s">
+      <c r="G70" s="68" t="s">
+        <v>13</v>
+      </c>
+      <c r="H70" s="13" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="36"/>
-      <c r="B71" s="41"/>
-      <c r="C71" s="41"/>
-      <c r="D71" s="6"/>
-      <c r="E71" s="27"/>
-      <c r="F71" s="47"/>
-      <c r="G71" s="41"/>
-      <c r="H71" s="13"/>
+      <c r="A71" s="35"/>
+      <c r="B71" s="40"/>
+      <c r="C71" s="40"/>
+      <c r="D71" s="5"/>
+      <c r="E71" s="26"/>
+      <c r="F71" s="46"/>
+      <c r="G71" s="40"/>
+      <c r="H71" s="12"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="35">
+      <c r="A72" s="34">
         <v>29</v>
       </c>
-      <c r="B72" s="38">
+      <c r="B72" s="37">
         <v>44474</v>
       </c>
-      <c r="C72" s="43">
+      <c r="C72" s="42">
         <v>1</v>
       </c>
-      <c r="D72" s="75" t="s">
+      <c r="D72" s="73" t="s">
         <v>131</v>
       </c>
-      <c r="E72" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F72" s="46" t="s">
+      <c r="E72" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F72" s="45" t="s">
         <v>132</v>
       </c>
-      <c r="G72" s="70" t="s">
-        <v>13</v>
-      </c>
-      <c r="H72" s="12" t="s">
+      <c r="G72" s="68" t="s">
+        <v>13</v>
+      </c>
+      <c r="H72" s="11" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="37"/>
-      <c r="B73" s="42"/>
-      <c r="C73" s="42"/>
-      <c r="D73" s="2"/>
-      <c r="E73" s="19"/>
-      <c r="F73" s="48"/>
-      <c r="G73" s="42"/>
-      <c r="H73" s="14"/>
+      <c r="A73" s="36"/>
+      <c r="B73" s="41"/>
+      <c r="C73" s="41"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="18"/>
+      <c r="F73" s="47"/>
+      <c r="G73" s="41"/>
+      <c r="H73" s="13"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="35">
+      <c r="A74" s="34">
         <v>30</v>
       </c>
-      <c r="B74" s="54">
+      <c r="B74" s="52">
         <v>44475</v>
       </c>
-      <c r="C74" s="35">
+      <c r="C74" s="34">
         <v>2</v>
       </c>
-      <c r="D74" s="78" t="s">
+      <c r="D74" s="76" t="s">
         <v>134</v>
       </c>
-      <c r="E74" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F74" s="46" t="s">
+      <c r="E74" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F74" s="45" t="s">
         <v>136</v>
       </c>
-      <c r="G74" s="60" t="s">
+      <c r="G74" s="58" t="s">
         <v>137</v>
       </c>
-      <c r="H74" s="12" t="s">
+      <c r="H74" s="11" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="37"/>
-      <c r="B75" s="55">
+      <c r="A75" s="36"/>
+      <c r="B75" s="53">
         <v>44475</v>
       </c>
-      <c r="C75" s="37">
+      <c r="C75" s="36">
         <v>1</v>
       </c>
-      <c r="D75" s="79" t="s">
+      <c r="D75" s="77" t="s">
         <v>138</v>
       </c>
-      <c r="E75" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F75" s="4" t="s">
+      <c r="E75" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F75" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="G75" s="58" t="s">
-        <v>13</v>
-      </c>
-      <c r="H75" s="14" t="s">
+      <c r="G75" s="56" t="s">
+        <v>13</v>
+      </c>
+      <c r="H75" s="13" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" s="36"/>
-      <c r="B76" s="36"/>
-      <c r="C76" s="36"/>
-      <c r="D76" s="66"/>
-      <c r="E76" s="27"/>
-      <c r="F76" s="47"/>
-      <c r="G76" s="36"/>
-      <c r="H76" s="13"/>
+      <c r="A76" s="35"/>
+      <c r="B76" s="35"/>
+      <c r="C76" s="35"/>
+      <c r="D76" s="64"/>
+      <c r="E76" s="26"/>
+      <c r="F76" s="46"/>
+      <c r="G76" s="35"/>
+      <c r="H76" s="12"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77" s="37">
+      <c r="A77" s="36">
         <v>31</v>
       </c>
-      <c r="B77" s="55">
+      <c r="B77" s="53">
         <v>44476</v>
       </c>
-      <c r="C77" s="42">
+      <c r="C77" s="41">
         <v>2</v>
       </c>
-      <c r="D77" s="78" t="s">
+      <c r="D77" s="76" t="s">
         <v>140</v>
       </c>
-      <c r="E77" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F77" s="46" t="s">
+      <c r="E77" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F77" s="45" t="s">
         <v>142</v>
       </c>
-      <c r="G77" s="70" t="s">
-        <v>13</v>
-      </c>
-      <c r="H77" s="14" t="s">
+      <c r="G77" s="68" t="s">
+        <v>13</v>
+      </c>
+      <c r="H77" s="13" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" s="37"/>
-      <c r="B78" s="42"/>
-      <c r="C78" s="42"/>
-      <c r="D78" s="2"/>
-      <c r="E78" s="19"/>
-      <c r="F78" s="48"/>
-      <c r="G78" s="42"/>
-      <c r="H78" s="14"/>
+      <c r="A78" s="36"/>
+      <c r="B78" s="41"/>
+      <c r="C78" s="41"/>
+      <c r="D78" s="1"/>
+      <c r="E78" s="18"/>
+      <c r="F78" s="47"/>
+      <c r="G78" s="41"/>
+      <c r="H78" s="13"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" s="71">
+      <c r="A79" s="69">
         <v>32</v>
       </c>
-      <c r="B79" s="54">
+      <c r="B79" s="52">
         <v>44477</v>
       </c>
-      <c r="C79" s="35">
+      <c r="C79" s="34">
         <v>3</v>
       </c>
-      <c r="D79" s="78" t="s">
+      <c r="D79" s="76" t="s">
         <v>143</v>
       </c>
-      <c r="E79" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F79" s="46" t="s">
+      <c r="E79" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F79" s="45" t="s">
         <v>146</v>
       </c>
-      <c r="G79" s="60" t="s">
+      <c r="G79" s="58" t="s">
         <v>145</v>
       </c>
-      <c r="H79" s="12" t="s">
+      <c r="H79" s="11" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80" s="72"/>
-      <c r="B80" s="55">
+      <c r="A80" s="70"/>
+      <c r="B80" s="53">
         <v>44477</v>
       </c>
-      <c r="C80" s="37">
+      <c r="C80" s="36">
         <v>1</v>
       </c>
-      <c r="D80" s="79" t="s">
+      <c r="D80" s="77" t="s">
         <v>147</v>
       </c>
-      <c r="E80" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F80" s="4" t="s">
+      <c r="E80" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F80" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="G80" s="58" t="s">
-        <v>13</v>
-      </c>
-      <c r="H80" s="14" t="s">
+      <c r="G80" s="56" t="s">
+        <v>13</v>
+      </c>
+      <c r="H80" s="13" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81" s="66"/>
-      <c r="B81" s="36"/>
-      <c r="C81" s="36"/>
-      <c r="D81" s="66"/>
-      <c r="E81" s="27"/>
-      <c r="F81" s="47"/>
-      <c r="G81" s="36"/>
-      <c r="H81" s="13"/>
+      <c r="A81" s="64"/>
+      <c r="B81" s="35"/>
+      <c r="C81" s="35"/>
+      <c r="D81" s="64"/>
+      <c r="E81" s="26"/>
+      <c r="F81" s="46"/>
+      <c r="G81" s="35"/>
+      <c r="H81" s="12"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" s="37">
+      <c r="A82" s="36">
         <v>33</v>
       </c>
-      <c r="B82" s="40">
+      <c r="B82" s="39">
         <v>44478</v>
       </c>
-      <c r="C82" s="42">
+      <c r="C82" s="41">
         <v>2</v>
       </c>
-      <c r="D82" s="78" t="s">
+      <c r="D82" s="76" t="s">
         <v>150</v>
       </c>
-      <c r="E82" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F82" s="46" t="s">
+      <c r="E82" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F82" s="45" t="s">
         <v>151</v>
       </c>
-      <c r="G82" s="44" t="s">
+      <c r="G82" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="H82" s="14" t="s">
+      <c r="H82" s="13" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A83" s="37"/>
-      <c r="B83" s="55">
+      <c r="A83" s="36"/>
+      <c r="B83" s="53">
         <v>44478</v>
       </c>
-      <c r="C83" s="42">
+      <c r="C83" s="41">
         <v>1</v>
       </c>
-      <c r="D83" s="80" t="s">
+      <c r="D83" s="78" t="s">
         <v>153</v>
       </c>
-      <c r="E83" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F83" s="4" t="s">
+      <c r="E83" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F83" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="G83" s="58" t="s">
-        <v>13</v>
-      </c>
-      <c r="H83" s="14" t="s">
+      <c r="G83" s="56" t="s">
+        <v>13</v>
+      </c>
+      <c r="H83" s="13" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84" s="36"/>
-      <c r="B84" s="41"/>
-      <c r="C84" s="41"/>
-      <c r="D84" s="2"/>
-      <c r="E84" s="27"/>
-      <c r="F84" s="47"/>
-      <c r="G84" s="41"/>
-      <c r="H84" s="13"/>
+      <c r="A84" s="35"/>
+      <c r="B84" s="40"/>
+      <c r="C84" s="40"/>
+      <c r="D84" s="1"/>
+      <c r="E84" s="26"/>
+      <c r="F84" s="46"/>
+      <c r="G84" s="40"/>
+      <c r="H84" s="12"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85" s="35">
+      <c r="A85" s="34">
         <v>34</v>
       </c>
-      <c r="B85" s="81" t="s">
+      <c r="B85" s="79" t="s">
         <v>158</v>
       </c>
-      <c r="C85" s="67">
+      <c r="C85" s="65">
         <v>2</v>
       </c>
-      <c r="D85" s="78" t="s">
+      <c r="D85" s="76" t="s">
         <v>155</v>
       </c>
-      <c r="E85" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F85" s="46" t="s">
+      <c r="E85" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F85" s="45" t="s">
         <v>157</v>
       </c>
-      <c r="G85" s="70" t="s">
-        <v>13</v>
-      </c>
-      <c r="H85" s="12" t="s">
+      <c r="G85" s="68" t="s">
+        <v>13</v>
+      </c>
+      <c r="H85" s="11" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86" s="36"/>
-      <c r="B86" s="42"/>
-      <c r="C86" s="42"/>
-      <c r="D86" s="2"/>
-      <c r="E86" s="19"/>
-      <c r="F86" s="48"/>
-      <c r="G86" s="42"/>
-      <c r="H86" s="14"/>
+      <c r="A86" s="35"/>
+      <c r="B86" s="41"/>
+      <c r="C86" s="41"/>
+      <c r="D86" s="1"/>
+      <c r="E86" s="18"/>
+      <c r="F86" s="47"/>
+      <c r="G86" s="41"/>
+      <c r="H86" s="13"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A87" s="71">
+      <c r="A87" s="69">
         <v>35</v>
       </c>
-      <c r="B87" s="54">
+      <c r="B87" s="52">
         <v>44480</v>
       </c>
-      <c r="C87" s="35">
+      <c r="C87" s="34">
         <v>3</v>
       </c>
-      <c r="D87" s="75" t="s">
+      <c r="D87" s="73" t="s">
         <v>159</v>
       </c>
-      <c r="E87" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F87" s="46" t="s">
+      <c r="E87" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F87" s="45" t="s">
         <v>161</v>
       </c>
-      <c r="G87" s="60" t="s">
+      <c r="G87" s="58" t="s">
         <v>162</v>
       </c>
-      <c r="H87" s="12" t="s">
+      <c r="H87" s="11" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88" s="72"/>
-      <c r="B88" s="55">
+      <c r="A88" s="70"/>
+      <c r="B88" s="53">
         <v>44480</v>
       </c>
-      <c r="C88" s="37">
+      <c r="C88" s="36">
         <v>1</v>
       </c>
-      <c r="D88" s="80" t="s">
+      <c r="D88" s="78" t="s">
         <v>163</v>
       </c>
-      <c r="E88" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F88" s="4" t="s">
+      <c r="E88" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F88" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="G88" s="70" t="s">
-        <v>13</v>
-      </c>
-      <c r="H88" s="82" t="s">
+      <c r="G88" s="68" t="s">
+        <v>13</v>
+      </c>
+      <c r="H88" s="80" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A89" s="66"/>
-      <c r="B89" s="36"/>
-      <c r="C89" s="36"/>
-      <c r="D89" s="6"/>
-      <c r="E89" s="27"/>
-      <c r="F89" s="47"/>
-      <c r="G89" s="36"/>
-      <c r="H89" s="13"/>
+      <c r="A89" s="64"/>
+      <c r="B89" s="35"/>
+      <c r="C89" s="35"/>
+      <c r="D89" s="5"/>
+      <c r="E89" s="26"/>
+      <c r="F89" s="46"/>
+      <c r="G89" s="35"/>
+      <c r="H89" s="12"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90" s="35">
+      <c r="A90" s="34">
         <v>36</v>
       </c>
-      <c r="B90" s="40">
+      <c r="B90" s="39">
         <v>44481</v>
       </c>
-      <c r="C90" s="42">
+      <c r="C90" s="41">
         <v>2</v>
       </c>
-      <c r="D90" s="80" t="s">
+      <c r="D90" s="78" t="s">
         <v>165</v>
       </c>
-      <c r="E90" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F90" s="46" t="s">
+      <c r="E90" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F90" s="45" t="s">
         <v>167</v>
       </c>
-      <c r="G90" s="44" t="s">
+      <c r="G90" s="43" t="s">
         <v>166</v>
       </c>
-      <c r="H90" s="14" t="s">
+      <c r="H90" s="13" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91" s="37"/>
-      <c r="B91" s="40">
+      <c r="A91" s="36"/>
+      <c r="B91" s="39">
         <v>44481</v>
       </c>
-      <c r="C91" s="42">
+      <c r="C91" s="41">
         <v>1</v>
       </c>
-      <c r="D91" s="4" t="s">
+      <c r="D91" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F91" s="4" t="s">
+      <c r="E91" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F91" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="G91" s="70" t="s">
-        <v>13</v>
-      </c>
-      <c r="H91" s="14" t="s">
+      <c r="G91" s="68" t="s">
+        <v>13</v>
+      </c>
+      <c r="H91" s="13" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A92" s="36"/>
-      <c r="B92" s="41"/>
-      <c r="C92" s="41"/>
-      <c r="D92" s="6"/>
-      <c r="E92" s="27"/>
-      <c r="F92" s="47"/>
-      <c r="G92" s="41"/>
-      <c r="H92" s="13"/>
+      <c r="A92" s="35"/>
+      <c r="B92" s="40"/>
+      <c r="C92" s="40"/>
+      <c r="D92" s="5"/>
+      <c r="E92" s="26"/>
+      <c r="F92" s="46"/>
+      <c r="G92" s="40"/>
+      <c r="H92" s="12"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93" s="35">
+      <c r="A93" s="34">
         <v>37</v>
       </c>
-      <c r="B93" s="38">
+      <c r="B93" s="37">
         <v>44482</v>
       </c>
-      <c r="C93" s="43">
+      <c r="C93" s="42">
         <v>2</v>
       </c>
-      <c r="D93" s="80" t="s">
+      <c r="D93" s="78" t="s">
         <v>171</v>
       </c>
-      <c r="E93" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F93" s="46" t="s">
+      <c r="E93" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F93" s="45" t="s">
         <v>173</v>
       </c>
-      <c r="G93" s="70" t="s">
-        <v>13</v>
-      </c>
-      <c r="H93" s="12" t="s">
+      <c r="G93" s="68" t="s">
+        <v>13</v>
+      </c>
+      <c r="H93" s="11" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A94" s="36"/>
-      <c r="B94" s="41"/>
-      <c r="C94" s="41"/>
-      <c r="D94" s="6"/>
-      <c r="E94" s="27"/>
-      <c r="F94" s="47"/>
-      <c r="G94" s="41"/>
-      <c r="H94" s="13"/>
+      <c r="A94" s="35"/>
+      <c r="B94" s="40"/>
+      <c r="C94" s="40"/>
+      <c r="D94" s="5"/>
+      <c r="E94" s="26"/>
+      <c r="F94" s="46"/>
+      <c r="G94" s="40"/>
+      <c r="H94" s="12"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A95" s="37">
+      <c r="A95" s="36">
         <v>38</v>
       </c>
-      <c r="B95" s="40">
+      <c r="B95" s="39">
         <v>44483</v>
       </c>
-      <c r="C95" s="42">
+      <c r="C95" s="41">
         <v>3</v>
       </c>
-      <c r="D95" s="78" t="s">
+      <c r="D95" s="76" t="s">
         <v>174</v>
       </c>
-      <c r="E95" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F95" s="46" t="s">
+      <c r="E95" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F95" s="45" t="s">
         <v>177</v>
       </c>
-      <c r="G95" s="60" t="s">
+      <c r="G95" s="58" t="s">
         <v>176</v>
       </c>
-      <c r="H95" s="62" t="s">
+      <c r="H95" s="60" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A96" s="37"/>
-      <c r="B96" s="40">
+      <c r="A96" s="36"/>
+      <c r="B96" s="39">
         <v>44483</v>
       </c>
-      <c r="C96" s="42">
+      <c r="C96" s="41">
         <v>1</v>
       </c>
-      <c r="D96" s="58" t="s">
+      <c r="D96" s="56" t="s">
         <v>178</v>
       </c>
-      <c r="E96" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F96" s="44" t="s">
+      <c r="E96" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F96" s="43" t="s">
         <v>179</v>
       </c>
-      <c r="G96" s="70" t="s">
-        <v>13</v>
-      </c>
-      <c r="H96" s="63" t="s">
+      <c r="G96" s="68" t="s">
+        <v>13</v>
+      </c>
+      <c r="H96" s="61" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A97" s="37"/>
-      <c r="B97" s="42"/>
-      <c r="C97" s="42"/>
-      <c r="D97" s="66"/>
-      <c r="E97" s="27"/>
-      <c r="F97" s="47"/>
-      <c r="G97" s="36"/>
-      <c r="H97" s="64"/>
+      <c r="A97" s="36"/>
+      <c r="B97" s="41"/>
+      <c r="C97" s="41"/>
+      <c r="D97" s="64"/>
+      <c r="E97" s="26"/>
+      <c r="F97" s="46"/>
+      <c r="G97" s="35"/>
+      <c r="H97" s="62"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A98" s="35">
+      <c r="A98" s="34">
         <v>39</v>
       </c>
-      <c r="B98" s="38">
+      <c r="B98" s="37">
         <v>44484</v>
       </c>
-      <c r="C98" s="43">
+      <c r="C98" s="42">
         <v>2</v>
       </c>
-      <c r="D98" s="80" t="s">
+      <c r="D98" s="78" t="s">
         <v>180</v>
       </c>
-      <c r="E98" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F98" s="46" t="s">
+      <c r="E98" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F98" s="45" t="s">
         <v>182</v>
       </c>
-      <c r="G98" s="70" t="s">
-        <v>13</v>
-      </c>
-      <c r="H98" s="12" t="s">
+      <c r="G98" s="68" t="s">
+        <v>13</v>
+      </c>
+      <c r="H98" s="11" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A99" s="36"/>
-      <c r="B99" s="39"/>
-      <c r="C99" s="41"/>
-      <c r="D99" s="8"/>
-      <c r="E99" s="7"/>
-      <c r="F99" s="45"/>
-      <c r="G99" s="45"/>
-      <c r="H99" s="13"/>
+      <c r="A99" s="35"/>
+      <c r="B99" s="38"/>
+      <c r="C99" s="40"/>
+      <c r="D99" s="7"/>
+      <c r="E99" s="6"/>
+      <c r="F99" s="44"/>
+      <c r="G99" s="44"/>
+      <c r="H99" s="12"/>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A100" s="35">
+      <c r="A100" s="34">
         <v>40</v>
       </c>
-      <c r="B100" s="38">
+      <c r="B100" s="37">
         <v>44485</v>
       </c>
-      <c r="C100" s="43">
+      <c r="C100" s="42">
         <v>1</v>
       </c>
-      <c r="D100" s="10" t="s">
+      <c r="D100" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E100" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F100" s="46" t="s">
+      <c r="E100" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F100" s="45" t="s">
         <v>185</v>
       </c>
-      <c r="G100" s="46" t="s">
+      <c r="G100" s="45" t="s">
         <v>184</v>
       </c>
-      <c r="H100" s="12" t="s">
+      <c r="H100" s="11" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A101" s="37"/>
-      <c r="B101" s="40">
+      <c r="A101" s="36"/>
+      <c r="B101" s="39">
         <v>44485</v>
       </c>
-      <c r="C101" s="42">
+      <c r="C101" s="41">
         <v>1</v>
       </c>
-      <c r="D101" s="4" t="s">
+      <c r="D101" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="E101" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F101" s="44" t="s">
+      <c r="E101" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F101" s="43" t="s">
         <v>188</v>
       </c>
-      <c r="G101" s="70" t="s">
-        <v>13</v>
-      </c>
-      <c r="H101" s="14" t="s">
+      <c r="G101" s="68" t="s">
+        <v>13</v>
+      </c>
+      <c r="H101" s="13" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A102" s="36"/>
-      <c r="B102" s="39"/>
-      <c r="C102" s="41"/>
-      <c r="D102" s="8"/>
-      <c r="E102" s="7"/>
-      <c r="F102" s="45"/>
-      <c r="G102" s="45"/>
-      <c r="H102" s="13"/>
+      <c r="A102" s="35"/>
+      <c r="B102" s="38"/>
+      <c r="C102" s="40"/>
+      <c r="D102" s="7"/>
+      <c r="E102" s="6"/>
+      <c r="F102" s="44"/>
+      <c r="G102" s="44"/>
+      <c r="H102" s="12"/>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A103" s="35">
+      <c r="A103" s="34">
         <v>41</v>
       </c>
-      <c r="B103" s="38">
+      <c r="B103" s="37">
         <v>44486</v>
       </c>
-      <c r="C103" s="43">
+      <c r="C103" s="42">
         <v>2</v>
       </c>
-      <c r="D103" s="10" t="s">
+      <c r="D103" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="E103" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F103" s="46" t="s">
+      <c r="E103" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F103" s="45" t="s">
         <v>191</v>
       </c>
-      <c r="G103" s="70" t="s">
-        <v>13</v>
-      </c>
-      <c r="H103" s="12" t="s">
+      <c r="G103" s="68" t="s">
+        <v>13</v>
+      </c>
+      <c r="H103" s="11" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A104" s="36"/>
-      <c r="B104" s="39"/>
-      <c r="C104" s="41"/>
-      <c r="D104" s="8"/>
-      <c r="E104" s="7"/>
-      <c r="F104" s="45"/>
-      <c r="G104" s="45"/>
-      <c r="H104" s="14"/>
+      <c r="A104" s="35"/>
+      <c r="B104" s="38"/>
+      <c r="C104" s="40"/>
+      <c r="D104" s="7"/>
+      <c r="E104" s="6"/>
+      <c r="F104" s="44"/>
+      <c r="G104" s="44"/>
+      <c r="H104" s="13"/>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A105" s="35">
+      <c r="A105" s="34">
         <v>42</v>
       </c>
-      <c r="B105" s="38">
+      <c r="B105" s="37">
         <v>44487</v>
       </c>
-      <c r="C105" s="43">
+      <c r="C105" s="42">
         <v>3</v>
       </c>
-      <c r="D105" s="10" t="s">
+      <c r="D105" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="E105" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F105" s="46" t="s">
+      <c r="E105" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F105" s="45" t="s">
         <v>195</v>
       </c>
-      <c r="G105" s="10" t="s">
+      <c r="G105" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="H105" s="62" t="s">
+      <c r="H105" s="60" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A106" s="37"/>
-      <c r="B106" s="40">
+      <c r="A106" s="36"/>
+      <c r="B106" s="39">
         <v>44487</v>
       </c>
-      <c r="C106" s="42">
+      <c r="C106" s="41">
         <v>1</v>
       </c>
-      <c r="D106" s="4" t="s">
+      <c r="D106" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="E106" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F106" s="44" t="s">
+      <c r="E106" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F106" s="43" t="s">
         <v>197</v>
       </c>
-      <c r="G106" s="70" t="s">
-        <v>13</v>
-      </c>
-      <c r="H106" s="63" t="s">
+      <c r="G106" s="68" t="s">
+        <v>13</v>
+      </c>
+      <c r="H106" s="61" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A107" s="36"/>
-      <c r="B107" s="39"/>
-      <c r="C107" s="41"/>
-      <c r="D107" s="8"/>
-      <c r="E107" s="7"/>
-      <c r="F107" s="45"/>
-      <c r="G107" s="8"/>
-      <c r="H107" s="64"/>
+      <c r="A107" s="35"/>
+      <c r="B107" s="38"/>
+      <c r="C107" s="40"/>
+      <c r="D107" s="7"/>
+      <c r="E107" s="6"/>
+      <c r="F107" s="44"/>
+      <c r="G107" s="7"/>
+      <c r="H107" s="62"/>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A108" s="35">
+      <c r="A108" s="34">
         <v>43</v>
       </c>
-      <c r="B108" s="38">
+      <c r="B108" s="37">
         <v>44488</v>
       </c>
-      <c r="C108" s="43">
+      <c r="C108" s="42">
         <v>2</v>
       </c>
-      <c r="D108" s="10" t="s">
+      <c r="D108" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="E108" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F108" s="46" t="s">
+      <c r="E108" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F108" s="45" t="s">
         <v>200</v>
       </c>
-      <c r="G108" s="46" t="s">
+      <c r="G108" s="45" t="s">
         <v>201</v>
       </c>
-      <c r="H108" s="14" t="s">
+      <c r="H108" s="13" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A109" s="37"/>
-      <c r="B109" s="40">
+      <c r="A109" s="36"/>
+      <c r="B109" s="39">
         <v>44488</v>
       </c>
-      <c r="C109" s="42">
+      <c r="C109" s="41">
         <v>1</v>
       </c>
-      <c r="D109" s="4" t="s">
+      <c r="D109" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="E109" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F109" s="44" t="s">
+      <c r="E109" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F109" s="43" t="s">
         <v>203</v>
       </c>
-      <c r="G109" s="70" t="s">
-        <v>13</v>
-      </c>
-      <c r="H109" s="14" t="s">
+      <c r="G109" s="68" t="s">
+        <v>13</v>
+      </c>
+      <c r="H109" s="13" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A110" s="36"/>
-      <c r="B110" s="39"/>
-      <c r="C110" s="41"/>
-      <c r="D110" s="8"/>
-      <c r="E110" s="7"/>
-      <c r="F110" s="45"/>
-      <c r="G110" s="45"/>
-      <c r="H110" s="13"/>
+      <c r="A110" s="35"/>
+      <c r="B110" s="38"/>
+      <c r="C110" s="40"/>
+      <c r="D110" s="7"/>
+      <c r="E110" s="6"/>
+      <c r="F110" s="44"/>
+      <c r="G110" s="44"/>
+      <c r="H110" s="12"/>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A111" s="35">
+      <c r="A111" s="34">
         <v>44</v>
       </c>
-      <c r="B111" s="38">
+      <c r="B111" s="37">
         <v>44489</v>
       </c>
-      <c r="C111" s="43">
+      <c r="C111" s="42">
         <v>2</v>
       </c>
-      <c r="D111" s="10" t="s">
+      <c r="D111" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="E111" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F111" s="46" t="s">
+      <c r="E111" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F111" s="45" t="s">
         <v>206</v>
       </c>
-      <c r="G111" s="70" t="s">
-        <v>13</v>
-      </c>
-      <c r="H111" s="12" t="s">
+      <c r="G111" s="68" t="s">
+        <v>13</v>
+      </c>
+      <c r="H111" s="11" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A112" s="36"/>
-      <c r="B112" s="40"/>
-      <c r="C112" s="42"/>
-      <c r="D112" s="4"/>
-      <c r="E112" s="3"/>
-      <c r="F112" s="44"/>
-      <c r="G112" s="44"/>
-      <c r="H112" s="14"/>
+      <c r="A112" s="35"/>
+      <c r="B112" s="39"/>
+      <c r="C112" s="41"/>
+      <c r="D112" s="3"/>
+      <c r="E112" s="2"/>
+      <c r="F112" s="43"/>
+      <c r="G112" s="43"/>
+      <c r="H112" s="13"/>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A113" s="71">
+      <c r="A113" s="69">
         <v>45</v>
       </c>
-      <c r="B113" s="54">
+      <c r="B113" s="52">
         <v>44490</v>
       </c>
-      <c r="C113" s="43">
+      <c r="C113" s="42">
         <v>3</v>
       </c>
-      <c r="D113" s="10" t="s">
+      <c r="D113" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="E113" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F113" s="46" t="s">
+      <c r="E113" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F113" s="45" t="s">
         <v>210</v>
       </c>
-      <c r="G113" s="60" t="s">
+      <c r="G113" s="58" t="s">
         <v>208</v>
       </c>
-      <c r="H113" s="12" t="s">
+      <c r="H113" s="11" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A114" s="72"/>
-      <c r="B114" s="55">
+      <c r="A114" s="70"/>
+      <c r="B114" s="53">
         <v>44490</v>
       </c>
-      <c r="C114" s="42">
+      <c r="C114" s="41">
         <v>1</v>
       </c>
-      <c r="D114" s="4" t="s">
+      <c r="D114" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="E114" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F114" s="44" t="s">
+      <c r="E114" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F114" s="43" t="s">
         <v>212</v>
       </c>
-      <c r="G114" s="70" t="s">
-        <v>13</v>
-      </c>
-      <c r="H114" s="14" t="s">
+      <c r="G114" s="68" t="s">
+        <v>13</v>
+      </c>
+      <c r="H114" s="13" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A115" s="66"/>
-      <c r="B115" s="56"/>
-      <c r="C115" s="41"/>
-      <c r="D115" s="8"/>
-      <c r="E115" s="7"/>
-      <c r="F115" s="45"/>
-      <c r="G115" s="61"/>
-      <c r="H115" s="13"/>
+      <c r="A115" s="64"/>
+      <c r="B115" s="54"/>
+      <c r="C115" s="40"/>
+      <c r="D115" s="7"/>
+      <c r="E115" s="6"/>
+      <c r="F115" s="44"/>
+      <c r="G115" s="59"/>
+      <c r="H115" s="12"/>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A116" s="35">
+      <c r="A116" s="34">
         <v>46</v>
       </c>
-      <c r="B116" s="40">
+      <c r="B116" s="39">
         <v>44491</v>
       </c>
-      <c r="C116" s="42">
+      <c r="C116" s="41">
         <v>2</v>
       </c>
-      <c r="D116" s="10" t="s">
+      <c r="D116" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="E116" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F116" s="46" t="s">
+      <c r="E116" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F116" s="45" t="s">
         <v>215</v>
       </c>
-      <c r="G116" s="70" t="s">
-        <v>13</v>
-      </c>
-      <c r="H116" s="14" t="s">
+      <c r="G116" s="68" t="s">
+        <v>13</v>
+      </c>
+      <c r="H116" s="13" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A117" s="36"/>
-      <c r="B117" s="39"/>
-      <c r="C117" s="41"/>
-      <c r="D117" s="8"/>
-      <c r="E117" s="7"/>
-      <c r="F117" s="45"/>
-      <c r="G117" s="45"/>
-      <c r="H117" s="13"/>
+      <c r="A117" s="35"/>
+      <c r="B117" s="38"/>
+      <c r="C117" s="40"/>
+      <c r="D117" s="7"/>
+      <c r="E117" s="6"/>
+      <c r="F117" s="44"/>
+      <c r="G117" s="44"/>
+      <c r="H117" s="12"/>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A118" s="35">
+      <c r="A118" s="34">
         <v>47</v>
       </c>
-      <c r="B118" s="38">
+      <c r="B118" s="37">
         <v>44492</v>
       </c>
-      <c r="C118" s="43">
+      <c r="C118" s="42">
         <v>3</v>
       </c>
-      <c r="D118" s="10" t="s">
+      <c r="D118" s="9" t="s">
         <v>216</v>
       </c>
-      <c r="E118" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F118" s="46" t="s">
+      <c r="E118" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F118" s="45" t="s">
         <v>218</v>
       </c>
-      <c r="G118" s="70" t="s">
-        <v>13</v>
-      </c>
-      <c r="H118" s="12" t="s">
+      <c r="G118" s="68" t="s">
+        <v>13</v>
+      </c>
+      <c r="H118" s="11" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A119" s="36"/>
-      <c r="B119" s="40"/>
-      <c r="C119" s="42"/>
-      <c r="D119" s="4"/>
-      <c r="E119" s="3"/>
-      <c r="F119" s="44"/>
-      <c r="G119" s="44"/>
-      <c r="H119" s="14"/>
+      <c r="A119" s="35"/>
+      <c r="B119" s="39"/>
+      <c r="C119" s="41"/>
+      <c r="D119" s="3"/>
+      <c r="E119" s="2"/>
+      <c r="F119" s="43"/>
+      <c r="G119" s="43"/>
+      <c r="H119" s="13"/>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A120" s="71">
+      <c r="A120" s="69">
         <v>48</v>
       </c>
-      <c r="B120" s="54">
+      <c r="B120" s="52">
         <v>44493</v>
       </c>
-      <c r="C120" s="43">
+      <c r="C120" s="42">
         <v>4</v>
       </c>
-      <c r="D120" s="10" t="s">
+      <c r="D120" s="9" t="s">
         <v>219</v>
       </c>
-      <c r="E120" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F120" s="46" t="s">
+      <c r="E120" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F120" s="45" t="s">
         <v>222</v>
       </c>
-      <c r="G120" s="46" t="s">
+      <c r="G120" s="45" t="s">
         <v>221</v>
       </c>
-      <c r="H120" s="12" t="s">
+      <c r="H120" s="11" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A121" s="72"/>
-      <c r="B121" s="55">
+      <c r="A121" s="70"/>
+      <c r="B121" s="53">
         <v>44493</v>
       </c>
-      <c r="C121" s="42">
+      <c r="C121" s="41">
         <v>1</v>
       </c>
-      <c r="D121" s="4" t="s">
+      <c r="D121" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="E121" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F121" s="44" t="s">
+      <c r="E121" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F121" s="43" t="s">
         <v>224</v>
       </c>
-      <c r="G121" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="H121" s="14" t="s">
+      <c r="G121" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="H121" s="13" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A122" s="66"/>
-      <c r="B122" s="56"/>
-      <c r="C122" s="41"/>
-      <c r="D122" s="8"/>
-      <c r="E122" s="7"/>
-      <c r="F122" s="45"/>
-      <c r="G122" s="45"/>
-      <c r="H122" s="13"/>
+      <c r="A122" s="64"/>
+      <c r="B122" s="54"/>
+      <c r="C122" s="40"/>
+      <c r="D122" s="7"/>
+      <c r="E122" s="6"/>
+      <c r="F122" s="44"/>
+      <c r="G122" s="44"/>
+      <c r="H122" s="12"/>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A123" s="35">
+      <c r="A123" s="34">
         <v>49</v>
       </c>
-      <c r="B123" s="40">
+      <c r="B123" s="39">
         <v>44494</v>
       </c>
-      <c r="C123" s="42">
+      <c r="C123" s="41">
         <v>2</v>
       </c>
-      <c r="D123" s="10" t="s">
+      <c r="D123" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="E123" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F123" s="46" t="s">
+      <c r="E123" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F123" s="45" t="s">
         <v>227</v>
       </c>
-      <c r="G123" s="70" t="s">
-        <v>13</v>
-      </c>
-      <c r="H123" s="14" t="s">
+      <c r="G123" s="68" t="s">
+        <v>13</v>
+      </c>
+      <c r="H123" s="13" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A124" s="36"/>
-      <c r="B124" s="40"/>
-      <c r="C124" s="42"/>
-      <c r="D124" s="4"/>
-      <c r="E124" s="3"/>
-      <c r="F124" s="44"/>
-      <c r="G124" s="44"/>
-      <c r="H124" s="14"/>
+      <c r="A124" s="35"/>
+      <c r="B124" s="39"/>
+      <c r="C124" s="41"/>
+      <c r="D124" s="3"/>
+      <c r="E124" s="2"/>
+      <c r="F124" s="43"/>
+      <c r="G124" s="43"/>
+      <c r="H124" s="13"/>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A125" s="71">
+      <c r="A125" s="69">
         <v>50</v>
       </c>
-      <c r="B125" s="54">
+      <c r="B125" s="52">
         <v>44495</v>
       </c>
-      <c r="C125" s="35">
+      <c r="C125" s="34">
         <v>3</v>
       </c>
-      <c r="D125" s="57" t="s">
+      <c r="D125" s="55" t="s">
         <v>228</v>
       </c>
-      <c r="E125" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F125" s="46" t="s">
+      <c r="E125" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F125" s="45" t="s">
         <v>231</v>
       </c>
-      <c r="G125" s="46" t="s">
+      <c r="G125" s="45" t="s">
         <v>230</v>
       </c>
-      <c r="H125" s="12" t="s">
+      <c r="H125" s="11" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A126" s="72"/>
-      <c r="B126" s="55">
+      <c r="A126" s="70"/>
+      <c r="B126" s="53">
         <v>44495</v>
       </c>
-      <c r="C126" s="37">
+      <c r="C126" s="36">
         <v>1</v>
       </c>
-      <c r="D126" s="58" t="s">
+      <c r="D126" s="56" t="s">
         <v>232</v>
       </c>
-      <c r="E126" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F126" s="44" t="s">
+      <c r="E126" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F126" s="43" t="s">
         <v>233</v>
       </c>
-      <c r="G126" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="H126" s="14" t="s">
+      <c r="G126" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="H126" s="13" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A127" s="72"/>
-      <c r="B127" s="56"/>
-      <c r="C127" s="36"/>
-      <c r="D127" s="59"/>
-      <c r="E127" s="7"/>
-      <c r="F127" s="45"/>
-      <c r="G127" s="45"/>
-      <c r="H127" s="13"/>
+      <c r="A127" s="70"/>
+      <c r="B127" s="54"/>
+      <c r="C127" s="35"/>
+      <c r="D127" s="57"/>
+      <c r="E127" s="6"/>
+      <c r="F127" s="44"/>
+      <c r="G127" s="44"/>
+      <c r="H127" s="12"/>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A128" s="35">
+      <c r="A128" s="34">
         <v>51</v>
       </c>
-      <c r="B128" s="40">
+      <c r="B128" s="39">
         <v>44496</v>
       </c>
-      <c r="C128" s="42">
+      <c r="C128" s="41">
         <v>2</v>
       </c>
-      <c r="D128" s="57" t="s">
+      <c r="D128" s="55" t="s">
         <v>234</v>
       </c>
-      <c r="E128" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F128" s="46" t="s">
+      <c r="E128" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F128" s="45" t="s">
         <v>236</v>
       </c>
-      <c r="G128" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="H128" s="14" t="s">
+      <c r="G128" s="58" t="s">
+        <v>13</v>
+      </c>
+      <c r="H128" s="13" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A129" s="37"/>
-      <c r="B129" s="40"/>
-      <c r="C129" s="42"/>
-      <c r="D129" s="4"/>
-      <c r="E129" s="3"/>
-      <c r="F129" s="44"/>
-      <c r="G129" s="61"/>
-      <c r="H129" s="14"/>
+      <c r="A129" s="36"/>
+      <c r="B129" s="39"/>
+      <c r="C129" s="41"/>
+      <c r="D129" s="3"/>
+      <c r="E129" s="2"/>
+      <c r="F129" s="43"/>
+      <c r="G129" s="59"/>
+      <c r="H129" s="13"/>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A130" s="35">
+      <c r="A130" s="34">
         <v>52</v>
       </c>
-      <c r="B130" s="54">
+      <c r="B130" s="52">
         <v>44497</v>
       </c>
-      <c r="C130" s="43">
+      <c r="C130" s="42">
         <v>3</v>
       </c>
-      <c r="D130" s="57" t="s">
+      <c r="D130" s="55" t="s">
         <v>237</v>
       </c>
-      <c r="E130" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F130" s="46" t="s">
+      <c r="E130" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F130" s="45" t="s">
         <v>239</v>
       </c>
-      <c r="G130" s="70" t="s">
-        <v>13</v>
-      </c>
-      <c r="H130" s="12" t="s">
+      <c r="G130" s="68" t="s">
+        <v>13</v>
+      </c>
+      <c r="H130" s="11" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A131" s="36"/>
-      <c r="B131" s="56"/>
-      <c r="C131" s="41"/>
-      <c r="D131" s="59"/>
-      <c r="E131" s="7"/>
-      <c r="F131" s="45"/>
-      <c r="G131" s="45"/>
-      <c r="H131" s="13"/>
+      <c r="A131" s="35"/>
+      <c r="B131" s="54"/>
+      <c r="C131" s="40"/>
+      <c r="D131" s="57"/>
+      <c r="E131" s="6"/>
+      <c r="F131" s="44"/>
+      <c r="G131" s="44"/>
+      <c r="H131" s="12"/>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A132" s="35">
+      <c r="A132" s="34">
         <v>53</v>
       </c>
-      <c r="B132" s="54">
+      <c r="B132" s="52">
         <v>44498</v>
       </c>
-      <c r="C132" s="43">
+      <c r="C132" s="42">
         <v>1</v>
       </c>
-      <c r="D132" s="57" t="s">
+      <c r="D132" s="55" t="s">
         <v>240</v>
       </c>
-      <c r="E132" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F132" s="53"/>
-      <c r="G132" s="44"/>
-      <c r="H132" s="12"/>
+      <c r="E132" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F132" s="45" t="s">
+        <v>242</v>
+      </c>
+      <c r="G132" s="68" t="s">
+        <v>13</v>
+      </c>
+      <c r="H132" s="11" t="s">
+        <v>241</v>
+      </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A133" s="36"/>
-      <c r="B133" s="56"/>
-      <c r="C133" s="41"/>
-      <c r="D133" s="59"/>
-      <c r="E133" s="7"/>
-      <c r="F133" s="45"/>
-      <c r="G133" s="45"/>
-      <c r="H133" s="13"/>
+      <c r="A133" s="35"/>
+      <c r="B133" s="54"/>
+      <c r="C133" s="40"/>
+      <c r="D133" s="57"/>
+      <c r="E133" s="6"/>
+      <c r="F133" s="44"/>
+      <c r="G133" s="44"/>
+      <c r="H133" s="12"/>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A134" s="35"/>
-      <c r="B134" s="54"/>
-      <c r="C134" s="43"/>
-      <c r="D134" s="57"/>
-      <c r="E134" s="11"/>
-      <c r="F134" s="53"/>
-      <c r="G134" s="44"/>
-      <c r="H134" s="12"/>
+      <c r="A134" s="34">
+        <v>54</v>
+      </c>
+      <c r="B134" s="52">
+        <v>44499</v>
+      </c>
+      <c r="C134" s="42">
+        <v>2</v>
+      </c>
+      <c r="D134" s="55" t="s">
+        <v>243</v>
+      </c>
+      <c r="E134" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F134" s="45" t="s">
+        <v>244</v>
+      </c>
+      <c r="G134" s="68" t="s">
+        <v>13</v>
+      </c>
+      <c r="H134" s="11" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="36"/>
-      <c r="B135" s="56"/>
+      <c r="B135" s="53"/>
       <c r="C135" s="41"/>
-      <c r="D135" s="59"/>
-      <c r="E135" s="7"/>
-      <c r="F135" s="45"/>
-      <c r="G135" s="45"/>
+      <c r="D135" s="56"/>
+      <c r="E135" s="2"/>
+      <c r="F135" s="43"/>
+      <c r="G135" s="43"/>
       <c r="H135" s="13"/>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B136" s="1"/>
-      <c r="C136" s="2"/>
-      <c r="D136" s="4"/>
-      <c r="E136" s="3"/>
-      <c r="F136" s="4"/>
-      <c r="G136" s="4"/>
-      <c r="H136" s="17"/>
+      <c r="A136" s="34">
+        <v>55</v>
+      </c>
+      <c r="B136" s="37">
+        <v>44500</v>
+      </c>
+      <c r="C136" s="42">
+        <v>3</v>
+      </c>
+      <c r="D136" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="E136" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F136" s="45" t="s">
+        <v>248</v>
+      </c>
+      <c r="G136" s="45" t="s">
+        <v>249</v>
+      </c>
+      <c r="H136" s="11" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B137" s="1"/>
-      <c r="C137" s="2"/>
-      <c r="D137" s="4"/>
-      <c r="E137" s="3"/>
-      <c r="F137" s="4"/>
-      <c r="G137" s="4"/>
-      <c r="H137" s="17"/>
+      <c r="A137" s="36"/>
+      <c r="B137" s="39">
+        <v>44500</v>
+      </c>
+      <c r="C137" s="41">
+        <v>1</v>
+      </c>
+      <c r="D137" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F137" s="43" t="s">
+        <v>251</v>
+      </c>
+      <c r="G137" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="H137" s="13" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B138" s="1"/>
-      <c r="C138" s="2"/>
-      <c r="D138" s="4"/>
-      <c r="E138" s="3"/>
-      <c r="F138" s="4"/>
-      <c r="G138" s="4"/>
-      <c r="H138" s="17"/>
+      <c r="A138" s="35"/>
+      <c r="B138" s="38"/>
+      <c r="C138" s="40"/>
+      <c r="D138" s="7"/>
+      <c r="E138" s="6"/>
+      <c r="F138" s="44"/>
+      <c r="G138" s="44"/>
+      <c r="H138" s="12"/>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B139" s="1"/>
-      <c r="C139" s="2"/>
-      <c r="D139" s="4"/>
-      <c r="E139" s="3"/>
-      <c r="F139" s="4"/>
-      <c r="G139" s="4"/>
-      <c r="H139" s="17"/>
+      <c r="A139" s="36">
+        <v>56</v>
+      </c>
+      <c r="B139" s="53">
+        <v>44501</v>
+      </c>
+      <c r="C139" s="41">
+        <v>2</v>
+      </c>
+      <c r="D139" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F139" s="43"/>
+      <c r="G139" s="68"/>
+      <c r="H139" s="13" t="s">
+        <v>253</v>
+      </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B140" s="1"/>
-      <c r="C140" s="2"/>
-      <c r="D140" s="4"/>
-      <c r="E140" s="3"/>
-      <c r="F140" s="4"/>
-      <c r="G140" s="4"/>
-      <c r="H140" s="17"/>
+      <c r="A140" s="35"/>
+      <c r="B140" s="54"/>
+      <c r="C140" s="40"/>
+      <c r="D140" s="57"/>
+      <c r="E140" s="6"/>
+      <c r="F140" s="44"/>
+      <c r="G140" s="44"/>
+      <c r="H140" s="12"/>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B141" s="1"/>
-      <c r="C141" s="2"/>
-      <c r="D141" s="4"/>
-      <c r="E141" s="3"/>
-      <c r="F141" s="4"/>
-      <c r="G141" s="4"/>
-      <c r="H141" s="17"/>
+      <c r="A141" s="34"/>
+      <c r="B141" s="52"/>
+      <c r="C141" s="42"/>
+      <c r="D141" s="55"/>
+      <c r="E141" s="10"/>
+      <c r="F141" s="45"/>
+      <c r="G141" s="68"/>
+      <c r="H141" s="11"/>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B142" s="1"/>
-      <c r="C142" s="2"/>
-      <c r="D142" s="4"/>
-      <c r="E142" s="3"/>
-      <c r="F142" s="4"/>
-      <c r="G142" s="4"/>
-      <c r="H142" s="17"/>
+      <c r="A142" s="35"/>
+      <c r="B142" s="54"/>
+      <c r="C142" s="40"/>
+      <c r="D142" s="57"/>
+      <c r="E142" s="6"/>
+      <c r="F142" s="44"/>
+      <c r="G142" s="44"/>
+      <c r="H142" s="12"/>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B143" s="1"/>
-      <c r="C143" s="2"/>
-      <c r="D143" s="4"/>
-      <c r="E143" s="3"/>
-      <c r="F143" s="4"/>
-      <c r="G143" s="4"/>
-      <c r="H143" s="17"/>
+      <c r="A143" s="34"/>
+      <c r="B143" s="52"/>
+      <c r="C143" s="42"/>
+      <c r="D143" s="55"/>
+      <c r="E143" s="10"/>
+      <c r="F143" s="45"/>
+      <c r="G143" s="68"/>
+      <c r="H143" s="11"/>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B144" s="1"/>
-      <c r="C144" s="2"/>
-      <c r="D144" s="4"/>
-      <c r="E144" s="3"/>
-      <c r="F144" s="4"/>
-      <c r="G144" s="4"/>
-      <c r="H144" s="17"/>
-    </row>
-    <row r="145" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B145" s="1"/>
-      <c r="C145" s="2"/>
-      <c r="D145" s="4"/>
-      <c r="E145" s="3"/>
-      <c r="F145" s="4"/>
-      <c r="G145" s="4"/>
-      <c r="H145" s="17"/>
-    </row>
-    <row r="146" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B146" s="1"/>
-      <c r="C146" s="2"/>
-      <c r="D146" s="4"/>
-      <c r="E146" s="3"/>
-      <c r="F146" s="4"/>
-      <c r="G146" s="4"/>
-      <c r="H146" s="17"/>
-    </row>
-    <row r="147" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B147" s="1"/>
-      <c r="C147" s="2"/>
-      <c r="D147" s="4"/>
-      <c r="E147" s="3"/>
-      <c r="F147" s="4"/>
-      <c r="G147" s="4"/>
-      <c r="H147" s="17"/>
-    </row>
-    <row r="148" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B148" s="1"/>
-      <c r="C148" s="2"/>
-      <c r="D148" s="4"/>
-      <c r="E148" s="3"/>
-      <c r="F148" s="4"/>
-      <c r="G148" s="4"/>
-      <c r="H148" s="17"/>
-    </row>
-    <row r="149" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B149" s="1"/>
-      <c r="C149" s="2"/>
-      <c r="D149" s="4"/>
-      <c r="E149" s="3"/>
-      <c r="F149" s="4"/>
-      <c r="G149" s="4"/>
-      <c r="H149" s="17"/>
-    </row>
-    <row r="150" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B150" s="1"/>
-      <c r="C150" s="2"/>
-      <c r="D150" s="4"/>
-      <c r="E150" s="3"/>
-      <c r="F150" s="4"/>
-      <c r="G150" s="4"/>
-      <c r="H150" s="17"/>
-    </row>
-    <row r="151" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B151" s="1"/>
-      <c r="C151" s="2"/>
-      <c r="D151" s="4"/>
-      <c r="E151" s="3"/>
-      <c r="F151" s="4"/>
-      <c r="G151" s="4"/>
-      <c r="H151" s="17"/>
-    </row>
-    <row r="152" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B152" s="1"/>
-      <c r="C152" s="2"/>
-      <c r="D152" s="4"/>
-      <c r="E152" s="3"/>
-      <c r="F152" s="4"/>
-      <c r="G152" s="4"/>
-      <c r="H152" s="17"/>
-    </row>
-    <row r="153" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B153" s="1"/>
-      <c r="C153" s="2"/>
-      <c r="D153" s="4"/>
-      <c r="E153" s="3"/>
-      <c r="F153" s="4"/>
-      <c r="G153" s="4"/>
-      <c r="H153" s="17"/>
-    </row>
-    <row r="154" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B154" s="1"/>
-      <c r="C154" s="2"/>
-      <c r="D154" s="4"/>
-      <c r="E154" s="3"/>
-      <c r="F154" s="4"/>
-      <c r="G154" s="4"/>
-      <c r="H154" s="17"/>
-    </row>
-    <row r="155" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B155" s="1"/>
-      <c r="C155" s="2"/>
-      <c r="D155" s="4"/>
-      <c r="E155" s="3"/>
-      <c r="F155" s="4"/>
-      <c r="G155" s="4"/>
-      <c r="H155" s="17"/>
-    </row>
-    <row r="156" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B156" s="1"/>
-      <c r="C156" s="2"/>
-      <c r="D156" s="4"/>
-      <c r="E156" s="3"/>
-      <c r="F156" s="4"/>
-      <c r="G156" s="4"/>
-      <c r="H156" s="17"/>
-    </row>
-    <row r="157" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B157" s="1"/>
-      <c r="C157" s="2"/>
-      <c r="D157" s="4"/>
-      <c r="E157" s="3"/>
-      <c r="F157" s="4"/>
-      <c r="G157" s="4"/>
-      <c r="H157" s="17"/>
-    </row>
-    <row r="158" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B158" s="1"/>
-      <c r="C158" s="2"/>
-      <c r="D158" s="4"/>
-      <c r="E158" s="3"/>
-      <c r="F158" s="4"/>
-      <c r="G158" s="4"/>
-      <c r="H158" s="17"/>
-    </row>
-    <row r="159" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B159" s="1"/>
-      <c r="C159" s="2"/>
-      <c r="D159" s="4"/>
-      <c r="E159" s="3"/>
-      <c r="F159" s="4"/>
-      <c r="G159" s="4"/>
-      <c r="H159" s="17"/>
-    </row>
-    <row r="160" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B160" s="1"/>
-      <c r="C160" s="2"/>
-      <c r="D160" s="4"/>
-      <c r="E160" s="3"/>
-      <c r="F160" s="4"/>
-      <c r="G160" s="4"/>
-      <c r="H160" s="17"/>
+      <c r="A144" s="35"/>
+      <c r="B144" s="54"/>
+      <c r="C144" s="40"/>
+      <c r="D144" s="57"/>
+      <c r="E144" s="6"/>
+      <c r="F144" s="44"/>
+      <c r="G144" s="44"/>
+      <c r="H144" s="12"/>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A145" s="34"/>
+      <c r="B145" s="52"/>
+      <c r="C145" s="42"/>
+      <c r="D145" s="55"/>
+      <c r="E145" s="10"/>
+      <c r="F145" s="45"/>
+      <c r="G145" s="68"/>
+      <c r="H145" s="11"/>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A146" s="35"/>
+      <c r="B146" s="54"/>
+      <c r="C146" s="40"/>
+      <c r="D146" s="57"/>
+      <c r="E146" s="6"/>
+      <c r="F146" s="44"/>
+      <c r="G146" s="44"/>
+      <c r="H146" s="12"/>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A147" s="34"/>
+      <c r="B147" s="52"/>
+      <c r="C147" s="42"/>
+      <c r="D147" s="55"/>
+      <c r="E147" s="10"/>
+      <c r="F147" s="45"/>
+      <c r="G147" s="68"/>
+      <c r="H147" s="11"/>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A148" s="35"/>
+      <c r="B148" s="54"/>
+      <c r="C148" s="40"/>
+      <c r="D148" s="57"/>
+      <c r="E148" s="6"/>
+      <c r="F148" s="44"/>
+      <c r="G148" s="44"/>
+      <c r="H148" s="12"/>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A149" s="34"/>
+      <c r="B149" s="52"/>
+      <c r="C149" s="42"/>
+      <c r="D149" s="55"/>
+      <c r="E149" s="10"/>
+      <c r="F149" s="45"/>
+      <c r="G149" s="68"/>
+      <c r="H149" s="11"/>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A150" s="35"/>
+      <c r="B150" s="54"/>
+      <c r="C150" s="40"/>
+      <c r="D150" s="57"/>
+      <c r="E150" s="6"/>
+      <c r="F150" s="44"/>
+      <c r="G150" s="44"/>
+      <c r="H150" s="12"/>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A151" s="34"/>
+      <c r="B151" s="52"/>
+      <c r="C151" s="42"/>
+      <c r="D151" s="55"/>
+      <c r="E151" s="10"/>
+      <c r="F151" s="45"/>
+      <c r="G151" s="68"/>
+      <c r="H151" s="11"/>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A152" s="35"/>
+      <c r="B152" s="54"/>
+      <c r="C152" s="40"/>
+      <c r="D152" s="57"/>
+      <c r="E152" s="6"/>
+      <c r="F152" s="44"/>
+      <c r="G152" s="44"/>
+      <c r="H152" s="12"/>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A153" s="34"/>
+      <c r="B153" s="52"/>
+      <c r="C153" s="42"/>
+      <c r="D153" s="55"/>
+      <c r="E153" s="10"/>
+      <c r="F153" s="45"/>
+      <c r="G153" s="68"/>
+      <c r="H153" s="11"/>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A154" s="35"/>
+      <c r="B154" s="54"/>
+      <c r="C154" s="40"/>
+      <c r="D154" s="57"/>
+      <c r="E154" s="6"/>
+      <c r="F154" s="44"/>
+      <c r="G154" s="44"/>
+      <c r="H154" s="12"/>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A155" s="34"/>
+      <c r="B155" s="52"/>
+      <c r="C155" s="42"/>
+      <c r="D155" s="55"/>
+      <c r="E155" s="10"/>
+      <c r="F155" s="45"/>
+      <c r="G155" s="68"/>
+      <c r="H155" s="11"/>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A156" s="35"/>
+      <c r="B156" s="54"/>
+      <c r="C156" s="40"/>
+      <c r="D156" s="57"/>
+      <c r="E156" s="6"/>
+      <c r="F156" s="44"/>
+      <c r="G156" s="44"/>
+      <c r="H156" s="12"/>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A157" s="34"/>
+      <c r="B157" s="52"/>
+      <c r="C157" s="42"/>
+      <c r="D157" s="55"/>
+      <c r="E157" s="10"/>
+      <c r="F157" s="45"/>
+      <c r="G157" s="68"/>
+      <c r="H157" s="11"/>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A158" s="35"/>
+      <c r="B158" s="54"/>
+      <c r="C158" s="40"/>
+      <c r="D158" s="57"/>
+      <c r="E158" s="6"/>
+      <c r="F158" s="44"/>
+      <c r="G158" s="44"/>
+      <c r="H158" s="12"/>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A159" s="34"/>
+      <c r="B159" s="52"/>
+      <c r="C159" s="42"/>
+      <c r="D159" s="55"/>
+      <c r="E159" s="10"/>
+      <c r="F159" s="45"/>
+      <c r="G159" s="68"/>
+      <c r="H159" s="11"/>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A160" s="35"/>
+      <c r="B160" s="54"/>
+      <c r="C160" s="40"/>
+      <c r="D160" s="57"/>
+      <c r="E160" s="6"/>
+      <c r="F160" s="44"/>
+      <c r="G160" s="44"/>
+      <c r="H160" s="12"/>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A161" s="34"/>
+      <c r="B161" s="52"/>
+      <c r="C161" s="42"/>
+      <c r="D161" s="55"/>
+      <c r="E161" s="10"/>
+      <c r="F161" s="45"/>
+      <c r="G161" s="68"/>
+      <c r="H161" s="11"/>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A162" s="35"/>
+      <c r="B162" s="54"/>
+      <c r="C162" s="40"/>
+      <c r="D162" s="57"/>
+      <c r="E162" s="6"/>
+      <c r="F162" s="44"/>
+      <c r="G162" s="44"/>
+      <c r="H162" s="12"/>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A163" s="34"/>
+      <c r="B163" s="52"/>
+      <c r="C163" s="42"/>
+      <c r="D163" s="55"/>
+      <c r="E163" s="10"/>
+      <c r="F163" s="45"/>
+      <c r="G163" s="68"/>
+      <c r="H163" s="11"/>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A164" s="35"/>
+      <c r="B164" s="54"/>
+      <c r="C164" s="40"/>
+      <c r="D164" s="57"/>
+      <c r="E164" s="6"/>
+      <c r="F164" s="44"/>
+      <c r="G164" s="44"/>
+      <c r="H164" s="12"/>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A165" s="34"/>
+      <c r="B165" s="52"/>
+      <c r="C165" s="42"/>
+      <c r="D165" s="55"/>
+      <c r="E165" s="10"/>
+      <c r="F165" s="45"/>
+      <c r="G165" s="68"/>
+      <c r="H165" s="11"/>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A166" s="35"/>
+      <c r="B166" s="54"/>
+      <c r="C166" s="40"/>
+      <c r="D166" s="57"/>
+      <c r="E166" s="6"/>
+      <c r="F166" s="44"/>
+      <c r="G166" s="44"/>
+      <c r="H166" s="12"/>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A167" s="34"/>
+      <c r="B167" s="52"/>
+      <c r="C167" s="42"/>
+      <c r="D167" s="55"/>
+      <c r="E167" s="10"/>
+      <c r="F167" s="45"/>
+      <c r="G167" s="68"/>
+      <c r="H167" s="11"/>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A168" s="35"/>
+      <c r="B168" s="54"/>
+      <c r="C168" s="40"/>
+      <c r="D168" s="57"/>
+      <c r="E168" s="6"/>
+      <c r="F168" s="44"/>
+      <c r="G168" s="44"/>
+      <c r="H168" s="12"/>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A169" s="34"/>
+      <c r="B169" s="52"/>
+      <c r="C169" s="42"/>
+      <c r="D169" s="55"/>
+      <c r="E169" s="10"/>
+      <c r="F169" s="45"/>
+      <c r="G169" s="68"/>
+      <c r="H169" s="11"/>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A170" s="35"/>
+      <c r="B170" s="54"/>
+      <c r="C170" s="40"/>
+      <c r="D170" s="57"/>
+      <c r="E170" s="6"/>
+      <c r="F170" s="44"/>
+      <c r="G170" s="44"/>
+      <c r="H170" s="12"/>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A171" s="34"/>
+      <c r="B171" s="52"/>
+      <c r="C171" s="42"/>
+      <c r="D171" s="55"/>
+      <c r="E171" s="10"/>
+      <c r="F171" s="45"/>
+      <c r="G171" s="68"/>
+      <c r="H171" s="11"/>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A172" s="35"/>
+      <c r="B172" s="54"/>
+      <c r="C172" s="40"/>
+      <c r="D172" s="57"/>
+      <c r="E172" s="6"/>
+      <c r="F172" s="44"/>
+      <c r="G172" s="44"/>
+      <c r="H172" s="12"/>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A173" s="34"/>
+      <c r="B173" s="52"/>
+      <c r="C173" s="42"/>
+      <c r="D173" s="55"/>
+      <c r="E173" s="10"/>
+      <c r="F173" s="45"/>
+      <c r="G173" s="68"/>
+      <c r="H173" s="11"/>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A174" s="35"/>
+      <c r="B174" s="54"/>
+      <c r="C174" s="40"/>
+      <c r="D174" s="57"/>
+      <c r="E174" s="6"/>
+      <c r="F174" s="44"/>
+      <c r="G174" s="44"/>
+      <c r="H174" s="12"/>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A175" s="34"/>
+      <c r="B175" s="52"/>
+      <c r="C175" s="42"/>
+      <c r="D175" s="55"/>
+      <c r="E175" s="10"/>
+      <c r="F175" s="45"/>
+      <c r="G175" s="68"/>
+      <c r="H175" s="11"/>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A176" s="35"/>
+      <c r="B176" s="54"/>
+      <c r="C176" s="40"/>
+      <c r="D176" s="57"/>
+      <c r="E176" s="6"/>
+      <c r="F176" s="44"/>
+      <c r="G176" s="44"/>
+      <c r="H176" s="12"/>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A177" s="34"/>
+      <c r="B177" s="52"/>
+      <c r="C177" s="42"/>
+      <c r="D177" s="55"/>
+      <c r="E177" s="10"/>
+      <c r="F177" s="45"/>
+      <c r="G177" s="68"/>
+      <c r="H177" s="11"/>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A178" s="35"/>
+      <c r="B178" s="54"/>
+      <c r="C178" s="40"/>
+      <c r="D178" s="57"/>
+      <c r="E178" s="6"/>
+      <c r="F178" s="44"/>
+      <c r="G178" s="44"/>
+      <c r="H178" s="12"/>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A179" s="34"/>
+      <c r="B179" s="52"/>
+      <c r="C179" s="42"/>
+      <c r="D179" s="55"/>
+      <c r="E179" s="10"/>
+      <c r="F179" s="45"/>
+      <c r="G179" s="68"/>
+      <c r="H179" s="11"/>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A180" s="35"/>
+      <c r="B180" s="54"/>
+      <c r="C180" s="40"/>
+      <c r="D180" s="57"/>
+      <c r="E180" s="6"/>
+      <c r="F180" s="44"/>
+      <c r="G180" s="44"/>
+      <c r="H180" s="12"/>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A181" s="34"/>
+      <c r="B181" s="52"/>
+      <c r="C181" s="42"/>
+      <c r="D181" s="55"/>
+      <c r="E181" s="10"/>
+      <c r="F181" s="45"/>
+      <c r="G181" s="68"/>
+      <c r="H181" s="11"/>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A182" s="35"/>
+      <c r="B182" s="54"/>
+      <c r="C182" s="40"/>
+      <c r="D182" s="57"/>
+      <c r="E182" s="6"/>
+      <c r="F182" s="44"/>
+      <c r="G182" s="44"/>
+      <c r="H182" s="12"/>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A183" s="34"/>
+      <c r="B183" s="52"/>
+      <c r="C183" s="42"/>
+      <c r="D183" s="55"/>
+      <c r="E183" s="10"/>
+      <c r="F183" s="45"/>
+      <c r="G183" s="68"/>
+      <c r="H183" s="11"/>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A184" s="35"/>
+      <c r="B184" s="54"/>
+      <c r="C184" s="40"/>
+      <c r="D184" s="57"/>
+      <c r="E184" s="6"/>
+      <c r="F184" s="44"/>
+      <c r="G184" s="44"/>
+      <c r="H184" s="12"/>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A185" s="34"/>
+      <c r="B185" s="52"/>
+      <c r="C185" s="42"/>
+      <c r="D185" s="55"/>
+      <c r="E185" s="10"/>
+      <c r="F185" s="45"/>
+      <c r="G185" s="68"/>
+      <c r="H185" s="11"/>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A186" s="35"/>
+      <c r="B186" s="54"/>
+      <c r="C186" s="40"/>
+      <c r="D186" s="57"/>
+      <c r="E186" s="6"/>
+      <c r="F186" s="44"/>
+      <c r="G186" s="44"/>
+      <c r="H186" s="12"/>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A187" s="34"/>
+      <c r="B187" s="52"/>
+      <c r="C187" s="42"/>
+      <c r="D187" s="55"/>
+      <c r="E187" s="10"/>
+      <c r="F187" s="45"/>
+      <c r="G187" s="68"/>
+      <c r="H187" s="11"/>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A188" s="35"/>
+      <c r="B188" s="54"/>
+      <c r="C188" s="40"/>
+      <c r="D188" s="57"/>
+      <c r="E188" s="6"/>
+      <c r="F188" s="44"/>
+      <c r="G188" s="44"/>
+      <c r="H188" s="12"/>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A189" s="34"/>
+      <c r="B189" s="52"/>
+      <c r="C189" s="42"/>
+      <c r="D189" s="55"/>
+      <c r="E189" s="10"/>
+      <c r="F189" s="45"/>
+      <c r="G189" s="68"/>
+      <c r="H189" s="11"/>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A190" s="35"/>
+      <c r="B190" s="54"/>
+      <c r="C190" s="40"/>
+      <c r="D190" s="57"/>
+      <c r="E190" s="6"/>
+      <c r="F190" s="44"/>
+      <c r="G190" s="44"/>
+      <c r="H190" s="12"/>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A191" s="34"/>
+      <c r="B191" s="52"/>
+      <c r="C191" s="42"/>
+      <c r="D191" s="55"/>
+      <c r="E191" s="10"/>
+      <c r="F191" s="45"/>
+      <c r="G191" s="68"/>
+      <c r="H191" s="11"/>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A192" s="35"/>
+      <c r="B192" s="54"/>
+      <c r="C192" s="40"/>
+      <c r="D192" s="57"/>
+      <c r="E192" s="6"/>
+      <c r="F192" s="44"/>
+      <c r="G192" s="44"/>
+      <c r="H192" s="12"/>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A193" s="34"/>
+      <c r="B193" s="52"/>
+      <c r="C193" s="42"/>
+      <c r="D193" s="55"/>
+      <c r="E193" s="10"/>
+      <c r="F193" s="45"/>
+      <c r="G193" s="68"/>
+      <c r="H193" s="11"/>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A194" s="35"/>
+      <c r="B194" s="54"/>
+      <c r="C194" s="40"/>
+      <c r="D194" s="57"/>
+      <c r="E194" s="6"/>
+      <c r="F194" s="44"/>
+      <c r="G194" s="44"/>
+      <c r="H194" s="12"/>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A195" s="34"/>
+      <c r="B195" s="52"/>
+      <c r="C195" s="42"/>
+      <c r="D195" s="55"/>
+      <c r="E195" s="10"/>
+      <c r="F195" s="45"/>
+      <c r="G195" s="68"/>
+      <c r="H195" s="11"/>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A196" s="35"/>
+      <c r="B196" s="54"/>
+      <c r="C196" s="40"/>
+      <c r="D196" s="57"/>
+      <c r="E196" s="6"/>
+      <c r="F196" s="44"/>
+      <c r="G196" s="44"/>
+      <c r="H196" s="12"/>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A197" s="34"/>
+      <c r="B197" s="52"/>
+      <c r="C197" s="42"/>
+      <c r="D197" s="55"/>
+      <c r="E197" s="10"/>
+      <c r="F197" s="45"/>
+      <c r="G197" s="68"/>
+      <c r="H197" s="11"/>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A198" s="35"/>
+      <c r="B198" s="54"/>
+      <c r="C198" s="40"/>
+      <c r="D198" s="57"/>
+      <c r="E198" s="6"/>
+      <c r="F198" s="44"/>
+      <c r="G198" s="44"/>
+      <c r="H198" s="12"/>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A199" s="34"/>
+      <c r="B199" s="52"/>
+      <c r="C199" s="42"/>
+      <c r="D199" s="55"/>
+      <c r="E199" s="10"/>
+      <c r="F199" s="45"/>
+      <c r="G199" s="68"/>
+      <c r="H199" s="11"/>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A200" s="35"/>
+      <c r="B200" s="54"/>
+      <c r="C200" s="40"/>
+      <c r="D200" s="57"/>
+      <c r="E200" s="6"/>
+      <c r="F200" s="44"/>
+      <c r="G200" s="44"/>
+      <c r="H200" s="12"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/TS Jatai Working/TTD Krama PaaraayaNam-Kramam.xlsx
+++ b/TS Jatai Working/TTD Krama PaaraayaNam-Kramam.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="260">
   <si>
     <t>Date</t>
   </si>
@@ -776,6 +776,24 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=zqIAd7klHqU&amp;list=PLjhrDIztP9pcSE8dR7xYZb7zwX5SXxNKy&amp;index=12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.6.9.3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.6.10.1 </t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=YcEmAtQNxto&amp;list=PLjhrDIztP9pcSE8dR7xYZb7zwX5SXxNKy&amp;index=17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.6.23.1 </t>
+  </si>
+  <si>
+    <t>26 min 52 sec</t>
+  </si>
+  <si>
+    <t>5.7.1.1</t>
   </si>
 </sst>
 </file>
@@ -968,7 +986,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1173,6 +1191,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1479,11 +1503,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L200"/>
+  <dimension ref="A1:L201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A135" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H139" sqref="H139"/>
+      <selection pane="bottomLeft" activeCell="G142" sqref="G142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -4207,621 +4231,663 @@
       <c r="E139" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F139" s="43"/>
-      <c r="G139" s="68"/>
+      <c r="F139" s="45" t="s">
+        <v>254</v>
+      </c>
+      <c r="G139" s="68" t="s">
+        <v>13</v>
+      </c>
       <c r="H139" s="13" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A140" s="35"/>
-      <c r="B140" s="54"/>
-      <c r="C140" s="40"/>
-      <c r="D140" s="57"/>
-      <c r="E140" s="6"/>
-      <c r="F140" s="44"/>
-      <c r="G140" s="44"/>
-      <c r="H140" s="12"/>
+      <c r="A140" s="36"/>
+      <c r="B140" s="53"/>
+      <c r="C140" s="41"/>
+      <c r="D140" s="56"/>
+      <c r="E140" s="2"/>
+      <c r="F140" s="43"/>
+      <c r="G140" s="43"/>
+      <c r="H140" s="13"/>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A141" s="34"/>
-      <c r="B141" s="52"/>
-      <c r="C141" s="42"/>
-      <c r="D141" s="55"/>
-      <c r="E141" s="10"/>
-      <c r="F141" s="45"/>
-      <c r="G141" s="68"/>
-      <c r="H141" s="11"/>
+      <c r="A141" s="34">
+        <v>57</v>
+      </c>
+      <c r="B141" s="37">
+        <v>44502</v>
+      </c>
+      <c r="C141" s="42">
+        <v>3</v>
+      </c>
+      <c r="D141" s="81" t="s">
+        <v>255</v>
+      </c>
+      <c r="E141" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F141" s="45" t="s">
+        <v>257</v>
+      </c>
+      <c r="G141" s="45" t="s">
+        <v>258</v>
+      </c>
+      <c r="H141" s="11" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A142" s="35"/>
-      <c r="B142" s="54"/>
-      <c r="C142" s="40"/>
-      <c r="D142" s="57"/>
-      <c r="E142" s="6"/>
-      <c r="F142" s="44"/>
-      <c r="G142" s="44"/>
-      <c r="H142" s="12"/>
+      <c r="A142" s="36"/>
+      <c r="B142" s="39">
+        <v>44502</v>
+      </c>
+      <c r="C142" s="41">
+        <v>1</v>
+      </c>
+      <c r="D142" s="82" t="s">
+        <v>259</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F142" s="43"/>
+      <c r="G142" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="H142" s="13" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A143" s="34"/>
-      <c r="B143" s="52"/>
-      <c r="C143" s="42"/>
-      <c r="D143" s="55"/>
-      <c r="E143" s="10"/>
-      <c r="F143" s="45"/>
-      <c r="G143" s="68"/>
-      <c r="H143" s="11"/>
+      <c r="A143" s="35"/>
+      <c r="B143" s="38"/>
+      <c r="C143" s="40"/>
+      <c r="D143" s="7"/>
+      <c r="E143" s="6"/>
+      <c r="F143" s="44"/>
+      <c r="G143" s="44"/>
+      <c r="H143" s="12"/>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A144" s="35"/>
-      <c r="B144" s="54"/>
-      <c r="C144" s="40"/>
-      <c r="D144" s="57"/>
-      <c r="E144" s="6"/>
-      <c r="F144" s="44"/>
-      <c r="G144" s="44"/>
-      <c r="H144" s="12"/>
+      <c r="A144" s="36"/>
+      <c r="B144" s="53"/>
+      <c r="C144" s="41"/>
+      <c r="D144" s="56"/>
+      <c r="E144" s="2"/>
+      <c r="F144" s="43"/>
+      <c r="G144" s="68"/>
+      <c r="H144" s="13"/>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A145" s="34"/>
-      <c r="B145" s="52"/>
-      <c r="C145" s="42"/>
-      <c r="D145" s="55"/>
-      <c r="E145" s="10"/>
-      <c r="F145" s="45"/>
-      <c r="G145" s="68"/>
-      <c r="H145" s="11"/>
+      <c r="A145" s="35"/>
+      <c r="B145" s="54"/>
+      <c r="C145" s="40"/>
+      <c r="D145" s="57"/>
+      <c r="E145" s="6"/>
+      <c r="F145" s="44"/>
+      <c r="G145" s="44"/>
+      <c r="H145" s="12"/>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A146" s="35"/>
-      <c r="B146" s="54"/>
-      <c r="C146" s="40"/>
-      <c r="D146" s="57"/>
-      <c r="E146" s="6"/>
-      <c r="F146" s="44"/>
-      <c r="G146" s="44"/>
-      <c r="H146" s="12"/>
+      <c r="A146" s="34"/>
+      <c r="B146" s="52"/>
+      <c r="C146" s="42"/>
+      <c r="D146" s="55"/>
+      <c r="E146" s="10"/>
+      <c r="F146" s="45"/>
+      <c r="G146" s="68"/>
+      <c r="H146" s="11"/>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A147" s="34"/>
-      <c r="B147" s="52"/>
-      <c r="C147" s="42"/>
-      <c r="D147" s="55"/>
-      <c r="E147" s="10"/>
-      <c r="F147" s="45"/>
-      <c r="G147" s="68"/>
-      <c r="H147" s="11"/>
+      <c r="A147" s="35"/>
+      <c r="B147" s="54"/>
+      <c r="C147" s="40"/>
+      <c r="D147" s="57"/>
+      <c r="E147" s="6"/>
+      <c r="F147" s="44"/>
+      <c r="G147" s="44"/>
+      <c r="H147" s="12"/>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A148" s="35"/>
-      <c r="B148" s="54"/>
-      <c r="C148" s="40"/>
-      <c r="D148" s="57"/>
-      <c r="E148" s="6"/>
-      <c r="F148" s="44"/>
-      <c r="G148" s="44"/>
-      <c r="H148" s="12"/>
+      <c r="A148" s="34"/>
+      <c r="B148" s="52"/>
+      <c r="C148" s="42"/>
+      <c r="D148" s="55"/>
+      <c r="E148" s="10"/>
+      <c r="F148" s="45"/>
+      <c r="G148" s="68"/>
+      <c r="H148" s="11"/>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A149" s="34"/>
-      <c r="B149" s="52"/>
-      <c r="C149" s="42"/>
-      <c r="D149" s="55"/>
-      <c r="E149" s="10"/>
-      <c r="F149" s="45"/>
-      <c r="G149" s="68"/>
-      <c r="H149" s="11"/>
+      <c r="A149" s="35"/>
+      <c r="B149" s="54"/>
+      <c r="C149" s="40"/>
+      <c r="D149" s="57"/>
+      <c r="E149" s="6"/>
+      <c r="F149" s="44"/>
+      <c r="G149" s="44"/>
+      <c r="H149" s="12"/>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A150" s="35"/>
-      <c r="B150" s="54"/>
-      <c r="C150" s="40"/>
-      <c r="D150" s="57"/>
-      <c r="E150" s="6"/>
-      <c r="F150" s="44"/>
-      <c r="G150" s="44"/>
-      <c r="H150" s="12"/>
+      <c r="A150" s="34"/>
+      <c r="B150" s="52"/>
+      <c r="C150" s="42"/>
+      <c r="D150" s="55"/>
+      <c r="E150" s="10"/>
+      <c r="F150" s="45"/>
+      <c r="G150" s="68"/>
+      <c r="H150" s="11"/>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A151" s="34"/>
-      <c r="B151" s="52"/>
-      <c r="C151" s="42"/>
-      <c r="D151" s="55"/>
-      <c r="E151" s="10"/>
-      <c r="F151" s="45"/>
-      <c r="G151" s="68"/>
-      <c r="H151" s="11"/>
+      <c r="A151" s="35"/>
+      <c r="B151" s="54"/>
+      <c r="C151" s="40"/>
+      <c r="D151" s="57"/>
+      <c r="E151" s="6"/>
+      <c r="F151" s="44"/>
+      <c r="G151" s="44"/>
+      <c r="H151" s="12"/>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A152" s="35"/>
-      <c r="B152" s="54"/>
-      <c r="C152" s="40"/>
-      <c r="D152" s="57"/>
-      <c r="E152" s="6"/>
-      <c r="F152" s="44"/>
-      <c r="G152" s="44"/>
-      <c r="H152" s="12"/>
+      <c r="A152" s="34"/>
+      <c r="B152" s="52"/>
+      <c r="C152" s="42"/>
+      <c r="D152" s="55"/>
+      <c r="E152" s="10"/>
+      <c r="F152" s="45"/>
+      <c r="G152" s="68"/>
+      <c r="H152" s="11"/>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A153" s="34"/>
-      <c r="B153" s="52"/>
-      <c r="C153" s="42"/>
-      <c r="D153" s="55"/>
-      <c r="E153" s="10"/>
-      <c r="F153" s="45"/>
-      <c r="G153" s="68"/>
-      <c r="H153" s="11"/>
+      <c r="A153" s="35"/>
+      <c r="B153" s="54"/>
+      <c r="C153" s="40"/>
+      <c r="D153" s="57"/>
+      <c r="E153" s="6"/>
+      <c r="F153" s="44"/>
+      <c r="G153" s="44"/>
+      <c r="H153" s="12"/>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A154" s="35"/>
-      <c r="B154" s="54"/>
-      <c r="C154" s="40"/>
-      <c r="D154" s="57"/>
-      <c r="E154" s="6"/>
-      <c r="F154" s="44"/>
-      <c r="G154" s="44"/>
-      <c r="H154" s="12"/>
+      <c r="A154" s="34"/>
+      <c r="B154" s="52"/>
+      <c r="C154" s="42"/>
+      <c r="D154" s="55"/>
+      <c r="E154" s="10"/>
+      <c r="F154" s="45"/>
+      <c r="G154" s="68"/>
+      <c r="H154" s="11"/>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A155" s="34"/>
-      <c r="B155" s="52"/>
-      <c r="C155" s="42"/>
-      <c r="D155" s="55"/>
-      <c r="E155" s="10"/>
-      <c r="F155" s="45"/>
-      <c r="G155" s="68"/>
-      <c r="H155" s="11"/>
+      <c r="A155" s="35"/>
+      <c r="B155" s="54"/>
+      <c r="C155" s="40"/>
+      <c r="D155" s="57"/>
+      <c r="E155" s="6"/>
+      <c r="F155" s="44"/>
+      <c r="G155" s="44"/>
+      <c r="H155" s="12"/>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A156" s="35"/>
-      <c r="B156" s="54"/>
-      <c r="C156" s="40"/>
-      <c r="D156" s="57"/>
-      <c r="E156" s="6"/>
-      <c r="F156" s="44"/>
-      <c r="G156" s="44"/>
-      <c r="H156" s="12"/>
+      <c r="A156" s="34"/>
+      <c r="B156" s="52"/>
+      <c r="C156" s="42"/>
+      <c r="D156" s="55"/>
+      <c r="E156" s="10"/>
+      <c r="F156" s="45"/>
+      <c r="G156" s="68"/>
+      <c r="H156" s="11"/>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A157" s="34"/>
-      <c r="B157" s="52"/>
-      <c r="C157" s="42"/>
-      <c r="D157" s="55"/>
-      <c r="E157" s="10"/>
-      <c r="F157" s="45"/>
-      <c r="G157" s="68"/>
-      <c r="H157" s="11"/>
+      <c r="A157" s="35"/>
+      <c r="B157" s="54"/>
+      <c r="C157" s="40"/>
+      <c r="D157" s="57"/>
+      <c r="E157" s="6"/>
+      <c r="F157" s="44"/>
+      <c r="G157" s="44"/>
+      <c r="H157" s="12"/>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A158" s="35"/>
-      <c r="B158" s="54"/>
-      <c r="C158" s="40"/>
-      <c r="D158" s="57"/>
-      <c r="E158" s="6"/>
-      <c r="F158" s="44"/>
-      <c r="G158" s="44"/>
-      <c r="H158" s="12"/>
+      <c r="A158" s="34"/>
+      <c r="B158" s="52"/>
+      <c r="C158" s="42"/>
+      <c r="D158" s="55"/>
+      <c r="E158" s="10"/>
+      <c r="F158" s="45"/>
+      <c r="G158" s="68"/>
+      <c r="H158" s="11"/>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A159" s="34"/>
-      <c r="B159" s="52"/>
-      <c r="C159" s="42"/>
-      <c r="D159" s="55"/>
-      <c r="E159" s="10"/>
-      <c r="F159" s="45"/>
-      <c r="G159" s="68"/>
-      <c r="H159" s="11"/>
+      <c r="A159" s="35"/>
+      <c r="B159" s="54"/>
+      <c r="C159" s="40"/>
+      <c r="D159" s="57"/>
+      <c r="E159" s="6"/>
+      <c r="F159" s="44"/>
+      <c r="G159" s="44"/>
+      <c r="H159" s="12"/>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A160" s="35"/>
-      <c r="B160" s="54"/>
-      <c r="C160" s="40"/>
-      <c r="D160" s="57"/>
-      <c r="E160" s="6"/>
-      <c r="F160" s="44"/>
-      <c r="G160" s="44"/>
-      <c r="H160" s="12"/>
+      <c r="A160" s="34"/>
+      <c r="B160" s="52"/>
+      <c r="C160" s="42"/>
+      <c r="D160" s="55"/>
+      <c r="E160" s="10"/>
+      <c r="F160" s="45"/>
+      <c r="G160" s="68"/>
+      <c r="H160" s="11"/>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A161" s="34"/>
-      <c r="B161" s="52"/>
-      <c r="C161" s="42"/>
-      <c r="D161" s="55"/>
-      <c r="E161" s="10"/>
-      <c r="F161" s="45"/>
-      <c r="G161" s="68"/>
-      <c r="H161" s="11"/>
+      <c r="A161" s="35"/>
+      <c r="B161" s="54"/>
+      <c r="C161" s="40"/>
+      <c r="D161" s="57"/>
+      <c r="E161" s="6"/>
+      <c r="F161" s="44"/>
+      <c r="G161" s="44"/>
+      <c r="H161" s="12"/>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A162" s="35"/>
-      <c r="B162" s="54"/>
-      <c r="C162" s="40"/>
-      <c r="D162" s="57"/>
-      <c r="E162" s="6"/>
-      <c r="F162" s="44"/>
-      <c r="G162" s="44"/>
-      <c r="H162" s="12"/>
+      <c r="A162" s="34"/>
+      <c r="B162" s="52"/>
+      <c r="C162" s="42"/>
+      <c r="D162" s="55"/>
+      <c r="E162" s="10"/>
+      <c r="F162" s="45"/>
+      <c r="G162" s="68"/>
+      <c r="H162" s="11"/>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A163" s="34"/>
-      <c r="B163" s="52"/>
-      <c r="C163" s="42"/>
-      <c r="D163" s="55"/>
-      <c r="E163" s="10"/>
-      <c r="F163" s="45"/>
-      <c r="G163" s="68"/>
-      <c r="H163" s="11"/>
+      <c r="A163" s="35"/>
+      <c r="B163" s="54"/>
+      <c r="C163" s="40"/>
+      <c r="D163" s="57"/>
+      <c r="E163" s="6"/>
+      <c r="F163" s="44"/>
+      <c r="G163" s="44"/>
+      <c r="H163" s="12"/>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A164" s="35"/>
-      <c r="B164" s="54"/>
-      <c r="C164" s="40"/>
-      <c r="D164" s="57"/>
-      <c r="E164" s="6"/>
-      <c r="F164" s="44"/>
-      <c r="G164" s="44"/>
-      <c r="H164" s="12"/>
+      <c r="A164" s="34"/>
+      <c r="B164" s="52"/>
+      <c r="C164" s="42"/>
+      <c r="D164" s="55"/>
+      <c r="E164" s="10"/>
+      <c r="F164" s="45"/>
+      <c r="G164" s="68"/>
+      <c r="H164" s="11"/>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A165" s="34"/>
-      <c r="B165" s="52"/>
-      <c r="C165" s="42"/>
-      <c r="D165" s="55"/>
-      <c r="E165" s="10"/>
-      <c r="F165" s="45"/>
-      <c r="G165" s="68"/>
-      <c r="H165" s="11"/>
+      <c r="A165" s="35"/>
+      <c r="B165" s="54"/>
+      <c r="C165" s="40"/>
+      <c r="D165" s="57"/>
+      <c r="E165" s="6"/>
+      <c r="F165" s="44"/>
+      <c r="G165" s="44"/>
+      <c r="H165" s="12"/>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A166" s="35"/>
-      <c r="B166" s="54"/>
-      <c r="C166" s="40"/>
-      <c r="D166" s="57"/>
-      <c r="E166" s="6"/>
-      <c r="F166" s="44"/>
-      <c r="G166" s="44"/>
-      <c r="H166" s="12"/>
+      <c r="A166" s="34"/>
+      <c r="B166" s="52"/>
+      <c r="C166" s="42"/>
+      <c r="D166" s="55"/>
+      <c r="E166" s="10"/>
+      <c r="F166" s="45"/>
+      <c r="G166" s="68"/>
+      <c r="H166" s="11"/>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A167" s="34"/>
-      <c r="B167" s="52"/>
-      <c r="C167" s="42"/>
-      <c r="D167" s="55"/>
-      <c r="E167" s="10"/>
-      <c r="F167" s="45"/>
-      <c r="G167" s="68"/>
-      <c r="H167" s="11"/>
+      <c r="A167" s="35"/>
+      <c r="B167" s="54"/>
+      <c r="C167" s="40"/>
+      <c r="D167" s="57"/>
+      <c r="E167" s="6"/>
+      <c r="F167" s="44"/>
+      <c r="G167" s="44"/>
+      <c r="H167" s="12"/>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A168" s="35"/>
-      <c r="B168" s="54"/>
-      <c r="C168" s="40"/>
-      <c r="D168" s="57"/>
-      <c r="E168" s="6"/>
-      <c r="F168" s="44"/>
-      <c r="G168" s="44"/>
-      <c r="H168" s="12"/>
+      <c r="A168" s="34"/>
+      <c r="B168" s="52"/>
+      <c r="C168" s="42"/>
+      <c r="D168" s="55"/>
+      <c r="E168" s="10"/>
+      <c r="F168" s="45"/>
+      <c r="G168" s="68"/>
+      <c r="H168" s="11"/>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A169" s="34"/>
-      <c r="B169" s="52"/>
-      <c r="C169" s="42"/>
-      <c r="D169" s="55"/>
-      <c r="E169" s="10"/>
-      <c r="F169" s="45"/>
-      <c r="G169" s="68"/>
-      <c r="H169" s="11"/>
+      <c r="A169" s="35"/>
+      <c r="B169" s="54"/>
+      <c r="C169" s="40"/>
+      <c r="D169" s="57"/>
+      <c r="E169" s="6"/>
+      <c r="F169" s="44"/>
+      <c r="G169" s="44"/>
+      <c r="H169" s="12"/>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A170" s="35"/>
-      <c r="B170" s="54"/>
-      <c r="C170" s="40"/>
-      <c r="D170" s="57"/>
-      <c r="E170" s="6"/>
-      <c r="F170" s="44"/>
-      <c r="G170" s="44"/>
-      <c r="H170" s="12"/>
+      <c r="A170" s="34"/>
+      <c r="B170" s="52"/>
+      <c r="C170" s="42"/>
+      <c r="D170" s="55"/>
+      <c r="E170" s="10"/>
+      <c r="F170" s="45"/>
+      <c r="G170" s="68"/>
+      <c r="H170" s="11"/>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A171" s="34"/>
-      <c r="B171" s="52"/>
-      <c r="C171" s="42"/>
-      <c r="D171" s="55"/>
-      <c r="E171" s="10"/>
-      <c r="F171" s="45"/>
-      <c r="G171" s="68"/>
-      <c r="H171" s="11"/>
+      <c r="A171" s="35"/>
+      <c r="B171" s="54"/>
+      <c r="C171" s="40"/>
+      <c r="D171" s="57"/>
+      <c r="E171" s="6"/>
+      <c r="F171" s="44"/>
+      <c r="G171" s="44"/>
+      <c r="H171" s="12"/>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A172" s="35"/>
-      <c r="B172" s="54"/>
-      <c r="C172" s="40"/>
-      <c r="D172" s="57"/>
-      <c r="E172" s="6"/>
-      <c r="F172" s="44"/>
-      <c r="G172" s="44"/>
-      <c r="H172" s="12"/>
+      <c r="A172" s="34"/>
+      <c r="B172" s="52"/>
+      <c r="C172" s="42"/>
+      <c r="D172" s="55"/>
+      <c r="E172" s="10"/>
+      <c r="F172" s="45"/>
+      <c r="G172" s="68"/>
+      <c r="H172" s="11"/>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A173" s="34"/>
-      <c r="B173" s="52"/>
-      <c r="C173" s="42"/>
-      <c r="D173" s="55"/>
-      <c r="E173" s="10"/>
-      <c r="F173" s="45"/>
-      <c r="G173" s="68"/>
-      <c r="H173" s="11"/>
+      <c r="A173" s="35"/>
+      <c r="B173" s="54"/>
+      <c r="C173" s="40"/>
+      <c r="D173" s="57"/>
+      <c r="E173" s="6"/>
+      <c r="F173" s="44"/>
+      <c r="G173" s="44"/>
+      <c r="H173" s="12"/>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A174" s="35"/>
-      <c r="B174" s="54"/>
-      <c r="C174" s="40"/>
-      <c r="D174" s="57"/>
-      <c r="E174" s="6"/>
-      <c r="F174" s="44"/>
-      <c r="G174" s="44"/>
-      <c r="H174" s="12"/>
+      <c r="A174" s="34"/>
+      <c r="B174" s="52"/>
+      <c r="C174" s="42"/>
+      <c r="D174" s="55"/>
+      <c r="E174" s="10"/>
+      <c r="F174" s="45"/>
+      <c r="G174" s="68"/>
+      <c r="H174" s="11"/>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A175" s="34"/>
-      <c r="B175" s="52"/>
-      <c r="C175" s="42"/>
-      <c r="D175" s="55"/>
-      <c r="E175" s="10"/>
-      <c r="F175" s="45"/>
-      <c r="G175" s="68"/>
-      <c r="H175" s="11"/>
+      <c r="A175" s="35"/>
+      <c r="B175" s="54"/>
+      <c r="C175" s="40"/>
+      <c r="D175" s="57"/>
+      <c r="E175" s="6"/>
+      <c r="F175" s="44"/>
+      <c r="G175" s="44"/>
+      <c r="H175" s="12"/>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A176" s="35"/>
-      <c r="B176" s="54"/>
-      <c r="C176" s="40"/>
-      <c r="D176" s="57"/>
-      <c r="E176" s="6"/>
-      <c r="F176" s="44"/>
-      <c r="G176" s="44"/>
-      <c r="H176" s="12"/>
+      <c r="A176" s="34"/>
+      <c r="B176" s="52"/>
+      <c r="C176" s="42"/>
+      <c r="D176" s="55"/>
+      <c r="E176" s="10"/>
+      <c r="F176" s="45"/>
+      <c r="G176" s="68"/>
+      <c r="H176" s="11"/>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A177" s="34"/>
-      <c r="B177" s="52"/>
-      <c r="C177" s="42"/>
-      <c r="D177" s="55"/>
-      <c r="E177" s="10"/>
-      <c r="F177" s="45"/>
-      <c r="G177" s="68"/>
-      <c r="H177" s="11"/>
+      <c r="A177" s="35"/>
+      <c r="B177" s="54"/>
+      <c r="C177" s="40"/>
+      <c r="D177" s="57"/>
+      <c r="E177" s="6"/>
+      <c r="F177" s="44"/>
+      <c r="G177" s="44"/>
+      <c r="H177" s="12"/>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A178" s="35"/>
-      <c r="B178" s="54"/>
-      <c r="C178" s="40"/>
-      <c r="D178" s="57"/>
-      <c r="E178" s="6"/>
-      <c r="F178" s="44"/>
-      <c r="G178" s="44"/>
-      <c r="H178" s="12"/>
+      <c r="A178" s="34"/>
+      <c r="B178" s="52"/>
+      <c r="C178" s="42"/>
+      <c r="D178" s="55"/>
+      <c r="E178" s="10"/>
+      <c r="F178" s="45"/>
+      <c r="G178" s="68"/>
+      <c r="H178" s="11"/>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A179" s="34"/>
-      <c r="B179" s="52"/>
-      <c r="C179" s="42"/>
-      <c r="D179" s="55"/>
-      <c r="E179" s="10"/>
-      <c r="F179" s="45"/>
-      <c r="G179" s="68"/>
-      <c r="H179" s="11"/>
+      <c r="A179" s="35"/>
+      <c r="B179" s="54"/>
+      <c r="C179" s="40"/>
+      <c r="D179" s="57"/>
+      <c r="E179" s="6"/>
+      <c r="F179" s="44"/>
+      <c r="G179" s="44"/>
+      <c r="H179" s="12"/>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A180" s="35"/>
-      <c r="B180" s="54"/>
-      <c r="C180" s="40"/>
-      <c r="D180" s="57"/>
-      <c r="E180" s="6"/>
-      <c r="F180" s="44"/>
-      <c r="G180" s="44"/>
-      <c r="H180" s="12"/>
+      <c r="A180" s="34"/>
+      <c r="B180" s="52"/>
+      <c r="C180" s="42"/>
+      <c r="D180" s="55"/>
+      <c r="E180" s="10"/>
+      <c r="F180" s="45"/>
+      <c r="G180" s="68"/>
+      <c r="H180" s="11"/>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A181" s="34"/>
-      <c r="B181" s="52"/>
-      <c r="C181" s="42"/>
-      <c r="D181" s="55"/>
-      <c r="E181" s="10"/>
-      <c r="F181" s="45"/>
-      <c r="G181" s="68"/>
-      <c r="H181" s="11"/>
+      <c r="A181" s="35"/>
+      <c r="B181" s="54"/>
+      <c r="C181" s="40"/>
+      <c r="D181" s="57"/>
+      <c r="E181" s="6"/>
+      <c r="F181" s="44"/>
+      <c r="G181" s="44"/>
+      <c r="H181" s="12"/>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A182" s="35"/>
-      <c r="B182" s="54"/>
-      <c r="C182" s="40"/>
-      <c r="D182" s="57"/>
-      <c r="E182" s="6"/>
-      <c r="F182" s="44"/>
-      <c r="G182" s="44"/>
-      <c r="H182" s="12"/>
+      <c r="A182" s="34"/>
+      <c r="B182" s="52"/>
+      <c r="C182" s="42"/>
+      <c r="D182" s="55"/>
+      <c r="E182" s="10"/>
+      <c r="F182" s="45"/>
+      <c r="G182" s="68"/>
+      <c r="H182" s="11"/>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A183" s="34"/>
-      <c r="B183" s="52"/>
-      <c r="C183" s="42"/>
-      <c r="D183" s="55"/>
-      <c r="E183" s="10"/>
-      <c r="F183" s="45"/>
-      <c r="G183" s="68"/>
-      <c r="H183" s="11"/>
+      <c r="A183" s="35"/>
+      <c r="B183" s="54"/>
+      <c r="C183" s="40"/>
+      <c r="D183" s="57"/>
+      <c r="E183" s="6"/>
+      <c r="F183" s="44"/>
+      <c r="G183" s="44"/>
+      <c r="H183" s="12"/>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A184" s="35"/>
-      <c r="B184" s="54"/>
-      <c r="C184" s="40"/>
-      <c r="D184" s="57"/>
-      <c r="E184" s="6"/>
-      <c r="F184" s="44"/>
-      <c r="G184" s="44"/>
-      <c r="H184" s="12"/>
+      <c r="A184" s="34"/>
+      <c r="B184" s="52"/>
+      <c r="C184" s="42"/>
+      <c r="D184" s="55"/>
+      <c r="E184" s="10"/>
+      <c r="F184" s="45"/>
+      <c r="G184" s="68"/>
+      <c r="H184" s="11"/>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A185" s="34"/>
-      <c r="B185" s="52"/>
-      <c r="C185" s="42"/>
-      <c r="D185" s="55"/>
-      <c r="E185" s="10"/>
-      <c r="F185" s="45"/>
-      <c r="G185" s="68"/>
-      <c r="H185" s="11"/>
+      <c r="A185" s="35"/>
+      <c r="B185" s="54"/>
+      <c r="C185" s="40"/>
+      <c r="D185" s="57"/>
+      <c r="E185" s="6"/>
+      <c r="F185" s="44"/>
+      <c r="G185" s="44"/>
+      <c r="H185" s="12"/>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A186" s="35"/>
-      <c r="B186" s="54"/>
-      <c r="C186" s="40"/>
-      <c r="D186" s="57"/>
-      <c r="E186" s="6"/>
-      <c r="F186" s="44"/>
-      <c r="G186" s="44"/>
-      <c r="H186" s="12"/>
+      <c r="A186" s="34"/>
+      <c r="B186" s="52"/>
+      <c r="C186" s="42"/>
+      <c r="D186" s="55"/>
+      <c r="E186" s="10"/>
+      <c r="F186" s="45"/>
+      <c r="G186" s="68"/>
+      <c r="H186" s="11"/>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A187" s="34"/>
-      <c r="B187" s="52"/>
-      <c r="C187" s="42"/>
-      <c r="D187" s="55"/>
-      <c r="E187" s="10"/>
-      <c r="F187" s="45"/>
-      <c r="G187" s="68"/>
-      <c r="H187" s="11"/>
+      <c r="A187" s="35"/>
+      <c r="B187" s="54"/>
+      <c r="C187" s="40"/>
+      <c r="D187" s="57"/>
+      <c r="E187" s="6"/>
+      <c r="F187" s="44"/>
+      <c r="G187" s="44"/>
+      <c r="H187" s="12"/>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A188" s="35"/>
-      <c r="B188" s="54"/>
-      <c r="C188" s="40"/>
-      <c r="D188" s="57"/>
-      <c r="E188" s="6"/>
-      <c r="F188" s="44"/>
-      <c r="G188" s="44"/>
-      <c r="H188" s="12"/>
+      <c r="A188" s="34"/>
+      <c r="B188" s="52"/>
+      <c r="C188" s="42"/>
+      <c r="D188" s="55"/>
+      <c r="E188" s="10"/>
+      <c r="F188" s="45"/>
+      <c r="G188" s="68"/>
+      <c r="H188" s="11"/>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A189" s="34"/>
-      <c r="B189" s="52"/>
-      <c r="C189" s="42"/>
-      <c r="D189" s="55"/>
-      <c r="E189" s="10"/>
-      <c r="F189" s="45"/>
-      <c r="G189" s="68"/>
-      <c r="H189" s="11"/>
+      <c r="A189" s="35"/>
+      <c r="B189" s="54"/>
+      <c r="C189" s="40"/>
+      <c r="D189" s="57"/>
+      <c r="E189" s="6"/>
+      <c r="F189" s="44"/>
+      <c r="G189" s="44"/>
+      <c r="H189" s="12"/>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A190" s="35"/>
-      <c r="B190" s="54"/>
-      <c r="C190" s="40"/>
-      <c r="D190" s="57"/>
-      <c r="E190" s="6"/>
-      <c r="F190" s="44"/>
-      <c r="G190" s="44"/>
-      <c r="H190" s="12"/>
+      <c r="A190" s="34"/>
+      <c r="B190" s="52"/>
+      <c r="C190" s="42"/>
+      <c r="D190" s="55"/>
+      <c r="E190" s="10"/>
+      <c r="F190" s="45"/>
+      <c r="G190" s="68"/>
+      <c r="H190" s="11"/>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A191" s="34"/>
-      <c r="B191" s="52"/>
-      <c r="C191" s="42"/>
-      <c r="D191" s="55"/>
-      <c r="E191" s="10"/>
-      <c r="F191" s="45"/>
-      <c r="G191" s="68"/>
-      <c r="H191" s="11"/>
+      <c r="A191" s="35"/>
+      <c r="B191" s="54"/>
+      <c r="C191" s="40"/>
+      <c r="D191" s="57"/>
+      <c r="E191" s="6"/>
+      <c r="F191" s="44"/>
+      <c r="G191" s="44"/>
+      <c r="H191" s="12"/>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A192" s="35"/>
-      <c r="B192" s="54"/>
-      <c r="C192" s="40"/>
-      <c r="D192" s="57"/>
-      <c r="E192" s="6"/>
-      <c r="F192" s="44"/>
-      <c r="G192" s="44"/>
-      <c r="H192" s="12"/>
+      <c r="A192" s="34"/>
+      <c r="B192" s="52"/>
+      <c r="C192" s="42"/>
+      <c r="D192" s="55"/>
+      <c r="E192" s="10"/>
+      <c r="F192" s="45"/>
+      <c r="G192" s="68"/>
+      <c r="H192" s="11"/>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A193" s="34"/>
-      <c r="B193" s="52"/>
-      <c r="C193" s="42"/>
-      <c r="D193" s="55"/>
-      <c r="E193" s="10"/>
-      <c r="F193" s="45"/>
-      <c r="G193" s="68"/>
-      <c r="H193" s="11"/>
+      <c r="A193" s="35"/>
+      <c r="B193" s="54"/>
+      <c r="C193" s="40"/>
+      <c r="D193" s="57"/>
+      <c r="E193" s="6"/>
+      <c r="F193" s="44"/>
+      <c r="G193" s="44"/>
+      <c r="H193" s="12"/>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A194" s="35"/>
-      <c r="B194" s="54"/>
-      <c r="C194" s="40"/>
-      <c r="D194" s="57"/>
-      <c r="E194" s="6"/>
-      <c r="F194" s="44"/>
-      <c r="G194" s="44"/>
-      <c r="H194" s="12"/>
+      <c r="A194" s="34"/>
+      <c r="B194" s="52"/>
+      <c r="C194" s="42"/>
+      <c r="D194" s="55"/>
+      <c r="E194" s="10"/>
+      <c r="F194" s="45"/>
+      <c r="G194" s="68"/>
+      <c r="H194" s="11"/>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A195" s="34"/>
-      <c r="B195" s="52"/>
-      <c r="C195" s="42"/>
-      <c r="D195" s="55"/>
-      <c r="E195" s="10"/>
-      <c r="F195" s="45"/>
-      <c r="G195" s="68"/>
-      <c r="H195" s="11"/>
+      <c r="A195" s="35"/>
+      <c r="B195" s="54"/>
+      <c r="C195" s="40"/>
+      <c r="D195" s="57"/>
+      <c r="E195" s="6"/>
+      <c r="F195" s="44"/>
+      <c r="G195" s="44"/>
+      <c r="H195" s="12"/>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A196" s="35"/>
-      <c r="B196" s="54"/>
-      <c r="C196" s="40"/>
-      <c r="D196" s="57"/>
-      <c r="E196" s="6"/>
-      <c r="F196" s="44"/>
-      <c r="G196" s="44"/>
-      <c r="H196" s="12"/>
+      <c r="A196" s="34"/>
+      <c r="B196" s="52"/>
+      <c r="C196" s="42"/>
+      <c r="D196" s="55"/>
+      <c r="E196" s="10"/>
+      <c r="F196" s="45"/>
+      <c r="G196" s="68"/>
+      <c r="H196" s="11"/>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A197" s="34"/>
-      <c r="B197" s="52"/>
-      <c r="C197" s="42"/>
-      <c r="D197" s="55"/>
-      <c r="E197" s="10"/>
-      <c r="F197" s="45"/>
-      <c r="G197" s="68"/>
-      <c r="H197" s="11"/>
+      <c r="A197" s="35"/>
+      <c r="B197" s="54"/>
+      <c r="C197" s="40"/>
+      <c r="D197" s="57"/>
+      <c r="E197" s="6"/>
+      <c r="F197" s="44"/>
+      <c r="G197" s="44"/>
+      <c r="H197" s="12"/>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A198" s="35"/>
-      <c r="B198" s="54"/>
-      <c r="C198" s="40"/>
-      <c r="D198" s="57"/>
-      <c r="E198" s="6"/>
-      <c r="F198" s="44"/>
-      <c r="G198" s="44"/>
-      <c r="H198" s="12"/>
+      <c r="A198" s="34"/>
+      <c r="B198" s="52"/>
+      <c r="C198" s="42"/>
+      <c r="D198" s="55"/>
+      <c r="E198" s="10"/>
+      <c r="F198" s="45"/>
+      <c r="G198" s="68"/>
+      <c r="H198" s="11"/>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A199" s="34"/>
-      <c r="B199" s="52"/>
-      <c r="C199" s="42"/>
-      <c r="D199" s="55"/>
-      <c r="E199" s="10"/>
-      <c r="F199" s="45"/>
-      <c r="G199" s="68"/>
-      <c r="H199" s="11"/>
+      <c r="A199" s="35"/>
+      <c r="B199" s="54"/>
+      <c r="C199" s="40"/>
+      <c r="D199" s="57"/>
+      <c r="E199" s="6"/>
+      <c r="F199" s="44"/>
+      <c r="G199" s="44"/>
+      <c r="H199" s="12"/>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A200" s="35"/>
-      <c r="B200" s="54"/>
-      <c r="C200" s="40"/>
-      <c r="D200" s="57"/>
-      <c r="E200" s="6"/>
-      <c r="F200" s="44"/>
-      <c r="G200" s="44"/>
-      <c r="H200" s="12"/>
+      <c r="A200" s="34"/>
+      <c r="B200" s="52"/>
+      <c r="C200" s="42"/>
+      <c r="D200" s="55"/>
+      <c r="E200" s="10"/>
+      <c r="F200" s="45"/>
+      <c r="G200" s="68"/>
+      <c r="H200" s="11"/>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A201" s="35"/>
+      <c r="B201" s="54"/>
+      <c r="C201" s="40"/>
+      <c r="D201" s="57"/>
+      <c r="E201" s="6"/>
+      <c r="F201" s="44"/>
+      <c r="G201" s="44"/>
+      <c r="H201" s="12"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/TS Jatai Working/TTD Krama PaaraayaNam-Kramam.xlsx
+++ b/TS Jatai Working/TTD Krama PaaraayaNam-Kramam.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="272">
   <si>
     <t>Date</t>
   </si>
@@ -794,6 +794,42 @@
   </si>
   <si>
     <t>5.7.1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.7.2.5 </t>
+  </si>
+  <si>
+    <t>5.7.3.1</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=0N3qcSaTA6c&amp;list=PLjhrDIztP9pcSE8dR7xYZb7zwX5SXxNKy&amp;index=17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.7.7.3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.7.8.1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.7.22.1 </t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Q6PuRSABRH8&amp;list=PLjhrDIztP9pcSE8dR7xYZb7zwX5SXxNKy&amp;index=16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.7.23.1 </t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=yIKCBXEZypk&amp;list=PLjhrDIztP9pcSE8dR7xYZb7zwX5SXxNKy&amp;index=15</t>
+  </si>
+  <si>
+    <t>7 min 51 sec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.7.26.1 </t>
+  </si>
+  <si>
+    <t>6.1.1.1</t>
   </si>
 </sst>
 </file>
@@ -1503,11 +1539,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L201"/>
+  <dimension ref="A1:L202"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A135" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G142" sqref="G142"/>
+      <pane ySplit="4" topLeftCell="A143" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G149" sqref="G149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -4291,7 +4327,9 @@
       <c r="E142" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F142" s="43"/>
+      <c r="F142" s="43" t="s">
+        <v>260</v>
+      </c>
       <c r="G142" s="43" t="s">
         <v>13</v>
       </c>
@@ -4310,14 +4348,30 @@
       <c r="H143" s="12"/>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A144" s="36"/>
-      <c r="B144" s="53"/>
-      <c r="C144" s="41"/>
-      <c r="D144" s="56"/>
-      <c r="E144" s="2"/>
-      <c r="F144" s="43"/>
-      <c r="G144" s="68"/>
-      <c r="H144" s="13"/>
+      <c r="A144" s="36">
+        <v>58</v>
+      </c>
+      <c r="B144" s="53">
+        <v>44503</v>
+      </c>
+      <c r="C144" s="41">
+        <v>2</v>
+      </c>
+      <c r="D144" s="81" t="s">
+        <v>261</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F144" s="45" t="s">
+        <v>263</v>
+      </c>
+      <c r="G144" s="68" t="s">
+        <v>13</v>
+      </c>
+      <c r="H144" s="13" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" s="35"/>
@@ -4330,564 +4384,618 @@
       <c r="H145" s="12"/>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A146" s="34"/>
-      <c r="B146" s="52"/>
-      <c r="C146" s="42"/>
-      <c r="D146" s="55"/>
-      <c r="E146" s="10"/>
-      <c r="F146" s="45"/>
-      <c r="G146" s="68"/>
-      <c r="H146" s="11"/>
+      <c r="A146" s="34">
+        <v>59</v>
+      </c>
+      <c r="B146" s="52">
+        <v>44504</v>
+      </c>
+      <c r="C146" s="42">
+        <v>3</v>
+      </c>
+      <c r="D146" s="81" t="s">
+        <v>264</v>
+      </c>
+      <c r="E146" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F146" s="45" t="s">
+        <v>265</v>
+      </c>
+      <c r="G146" s="68" t="s">
+        <v>13</v>
+      </c>
+      <c r="H146" s="11" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A147" s="35"/>
-      <c r="B147" s="54"/>
-      <c r="C147" s="40"/>
-      <c r="D147" s="57"/>
-      <c r="E147" s="6"/>
-      <c r="F147" s="44"/>
-      <c r="G147" s="44"/>
-      <c r="H147" s="12"/>
+      <c r="A147" s="36"/>
+      <c r="B147" s="53"/>
+      <c r="C147" s="41"/>
+      <c r="D147" s="56"/>
+      <c r="E147" s="2"/>
+      <c r="F147" s="43"/>
+      <c r="G147" s="43"/>
+      <c r="H147" s="13"/>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A148" s="34"/>
-      <c r="B148" s="52"/>
-      <c r="C148" s="42"/>
-      <c r="D148" s="55"/>
-      <c r="E148" s="10"/>
-      <c r="F148" s="45"/>
-      <c r="G148" s="68"/>
-      <c r="H148" s="11"/>
+      <c r="A148" s="34">
+        <v>60</v>
+      </c>
+      <c r="B148" s="37">
+        <v>44505</v>
+      </c>
+      <c r="C148" s="42">
+        <v>4</v>
+      </c>
+      <c r="D148" s="81" t="s">
+        <v>267</v>
+      </c>
+      <c r="E148" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F148" s="45" t="s">
+        <v>270</v>
+      </c>
+      <c r="G148" s="45" t="s">
+        <v>269</v>
+      </c>
+      <c r="H148" s="11" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A149" s="35"/>
-      <c r="B149" s="54"/>
-      <c r="C149" s="40"/>
-      <c r="D149" s="57"/>
-      <c r="E149" s="6"/>
-      <c r="F149" s="44"/>
-      <c r="G149" s="44"/>
-      <c r="H149" s="12"/>
+      <c r="A149" s="36"/>
+      <c r="B149" s="39">
+        <v>44505</v>
+      </c>
+      <c r="C149" s="41">
+        <v>1</v>
+      </c>
+      <c r="D149" s="82" t="s">
+        <v>271</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F149" s="43"/>
+      <c r="G149" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="H149" s="13" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A150" s="34"/>
-      <c r="B150" s="52"/>
-      <c r="C150" s="42"/>
-      <c r="D150" s="55"/>
-      <c r="E150" s="10"/>
-      <c r="F150" s="45"/>
-      <c r="G150" s="68"/>
-      <c r="H150" s="11"/>
+      <c r="A150" s="35"/>
+      <c r="B150" s="38"/>
+      <c r="C150" s="40"/>
+      <c r="D150" s="7"/>
+      <c r="E150" s="6"/>
+      <c r="F150" s="44"/>
+      <c r="G150" s="44"/>
+      <c r="H150" s="12"/>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A151" s="35"/>
-      <c r="B151" s="54"/>
-      <c r="C151" s="40"/>
-      <c r="D151" s="57"/>
-      <c r="E151" s="6"/>
-      <c r="F151" s="44"/>
-      <c r="G151" s="44"/>
-      <c r="H151" s="12"/>
+      <c r="A151" s="36"/>
+      <c r="B151" s="53"/>
+      <c r="C151" s="41"/>
+      <c r="D151" s="56"/>
+      <c r="E151" s="2"/>
+      <c r="F151" s="43"/>
+      <c r="G151" s="68"/>
+      <c r="H151" s="13"/>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A152" s="34"/>
-      <c r="B152" s="52"/>
-      <c r="C152" s="42"/>
-      <c r="D152" s="55"/>
-      <c r="E152" s="10"/>
-      <c r="F152" s="45"/>
-      <c r="G152" s="68"/>
-      <c r="H152" s="11"/>
+      <c r="A152" s="35"/>
+      <c r="B152" s="54"/>
+      <c r="C152" s="40"/>
+      <c r="D152" s="57"/>
+      <c r="E152" s="6"/>
+      <c r="F152" s="44"/>
+      <c r="G152" s="44"/>
+      <c r="H152" s="12"/>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A153" s="35"/>
-      <c r="B153" s="54"/>
-      <c r="C153" s="40"/>
-      <c r="D153" s="57"/>
-      <c r="E153" s="6"/>
-      <c r="F153" s="44"/>
-      <c r="G153" s="44"/>
-      <c r="H153" s="12"/>
+      <c r="A153" s="34"/>
+      <c r="B153" s="52"/>
+      <c r="C153" s="42"/>
+      <c r="D153" s="55"/>
+      <c r="E153" s="10"/>
+      <c r="F153" s="45"/>
+      <c r="G153" s="68"/>
+      <c r="H153" s="11"/>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A154" s="34"/>
-      <c r="B154" s="52"/>
-      <c r="C154" s="42"/>
-      <c r="D154" s="55"/>
-      <c r="E154" s="10"/>
-      <c r="F154" s="45"/>
-      <c r="G154" s="68"/>
-      <c r="H154" s="11"/>
+      <c r="A154" s="35"/>
+      <c r="B154" s="54"/>
+      <c r="C154" s="40"/>
+      <c r="D154" s="57"/>
+      <c r="E154" s="6"/>
+      <c r="F154" s="44"/>
+      <c r="G154" s="44"/>
+      <c r="H154" s="12"/>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A155" s="35"/>
-      <c r="B155" s="54"/>
-      <c r="C155" s="40"/>
-      <c r="D155" s="57"/>
-      <c r="E155" s="6"/>
-      <c r="F155" s="44"/>
-      <c r="G155" s="44"/>
-      <c r="H155" s="12"/>
+      <c r="A155" s="34"/>
+      <c r="B155" s="52"/>
+      <c r="C155" s="42"/>
+      <c r="D155" s="55"/>
+      <c r="E155" s="10"/>
+      <c r="F155" s="45"/>
+      <c r="G155" s="68"/>
+      <c r="H155" s="11"/>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A156" s="34"/>
-      <c r="B156" s="52"/>
-      <c r="C156" s="42"/>
-      <c r="D156" s="55"/>
-      <c r="E156" s="10"/>
-      <c r="F156" s="45"/>
-      <c r="G156" s="68"/>
-      <c r="H156" s="11"/>
+      <c r="A156" s="35"/>
+      <c r="B156" s="54"/>
+      <c r="C156" s="40"/>
+      <c r="D156" s="57"/>
+      <c r="E156" s="6"/>
+      <c r="F156" s="44"/>
+      <c r="G156" s="44"/>
+      <c r="H156" s="12"/>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A157" s="35"/>
-      <c r="B157" s="54"/>
-      <c r="C157" s="40"/>
-      <c r="D157" s="57"/>
-      <c r="E157" s="6"/>
-      <c r="F157" s="44"/>
-      <c r="G157" s="44"/>
-      <c r="H157" s="12"/>
+      <c r="A157" s="34"/>
+      <c r="B157" s="52"/>
+      <c r="C157" s="42"/>
+      <c r="D157" s="55"/>
+      <c r="E157" s="10"/>
+      <c r="F157" s="45"/>
+      <c r="G157" s="68"/>
+      <c r="H157" s="11"/>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A158" s="34"/>
-      <c r="B158" s="52"/>
-      <c r="C158" s="42"/>
-      <c r="D158" s="55"/>
-      <c r="E158" s="10"/>
-      <c r="F158" s="45"/>
-      <c r="G158" s="68"/>
-      <c r="H158" s="11"/>
+      <c r="A158" s="35"/>
+      <c r="B158" s="54"/>
+      <c r="C158" s="40"/>
+      <c r="D158" s="57"/>
+      <c r="E158" s="6"/>
+      <c r="F158" s="44"/>
+      <c r="G158" s="44"/>
+      <c r="H158" s="12"/>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A159" s="35"/>
-      <c r="B159" s="54"/>
-      <c r="C159" s="40"/>
-      <c r="D159" s="57"/>
-      <c r="E159" s="6"/>
-      <c r="F159" s="44"/>
-      <c r="G159" s="44"/>
-      <c r="H159" s="12"/>
+      <c r="A159" s="34"/>
+      <c r="B159" s="52"/>
+      <c r="C159" s="42"/>
+      <c r="D159" s="55"/>
+      <c r="E159" s="10"/>
+      <c r="F159" s="45"/>
+      <c r="G159" s="68"/>
+      <c r="H159" s="11"/>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A160" s="34"/>
-      <c r="B160" s="52"/>
-      <c r="C160" s="42"/>
-      <c r="D160" s="55"/>
-      <c r="E160" s="10"/>
-      <c r="F160" s="45"/>
-      <c r="G160" s="68"/>
-      <c r="H160" s="11"/>
+      <c r="A160" s="35"/>
+      <c r="B160" s="54"/>
+      <c r="C160" s="40"/>
+      <c r="D160" s="57"/>
+      <c r="E160" s="6"/>
+      <c r="F160" s="44"/>
+      <c r="G160" s="44"/>
+      <c r="H160" s="12"/>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A161" s="35"/>
-      <c r="B161" s="54"/>
-      <c r="C161" s="40"/>
-      <c r="D161" s="57"/>
-      <c r="E161" s="6"/>
-      <c r="F161" s="44"/>
-      <c r="G161" s="44"/>
-      <c r="H161" s="12"/>
+      <c r="A161" s="34"/>
+      <c r="B161" s="52"/>
+      <c r="C161" s="42"/>
+      <c r="D161" s="55"/>
+      <c r="E161" s="10"/>
+      <c r="F161" s="45"/>
+      <c r="G161" s="68"/>
+      <c r="H161" s="11"/>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A162" s="34"/>
-      <c r="B162" s="52"/>
-      <c r="C162" s="42"/>
-      <c r="D162" s="55"/>
-      <c r="E162" s="10"/>
-      <c r="F162" s="45"/>
-      <c r="G162" s="68"/>
-      <c r="H162" s="11"/>
+      <c r="A162" s="35"/>
+      <c r="B162" s="54"/>
+      <c r="C162" s="40"/>
+      <c r="D162" s="57"/>
+      <c r="E162" s="6"/>
+      <c r="F162" s="44"/>
+      <c r="G162" s="44"/>
+      <c r="H162" s="12"/>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A163" s="35"/>
-      <c r="B163" s="54"/>
-      <c r="C163" s="40"/>
-      <c r="D163" s="57"/>
-      <c r="E163" s="6"/>
-      <c r="F163" s="44"/>
-      <c r="G163" s="44"/>
-      <c r="H163" s="12"/>
+      <c r="A163" s="34"/>
+      <c r="B163" s="52"/>
+      <c r="C163" s="42"/>
+      <c r="D163" s="55"/>
+      <c r="E163" s="10"/>
+      <c r="F163" s="45"/>
+      <c r="G163" s="68"/>
+      <c r="H163" s="11"/>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A164" s="34"/>
-      <c r="B164" s="52"/>
-      <c r="C164" s="42"/>
-      <c r="D164" s="55"/>
-      <c r="E164" s="10"/>
-      <c r="F164" s="45"/>
-      <c r="G164" s="68"/>
-      <c r="H164" s="11"/>
+      <c r="A164" s="35"/>
+      <c r="B164" s="54"/>
+      <c r="C164" s="40"/>
+      <c r="D164" s="57"/>
+      <c r="E164" s="6"/>
+      <c r="F164" s="44"/>
+      <c r="G164" s="44"/>
+      <c r="H164" s="12"/>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A165" s="35"/>
-      <c r="B165" s="54"/>
-      <c r="C165" s="40"/>
-      <c r="D165" s="57"/>
-      <c r="E165" s="6"/>
-      <c r="F165" s="44"/>
-      <c r="G165" s="44"/>
-      <c r="H165" s="12"/>
+      <c r="A165" s="34"/>
+      <c r="B165" s="52"/>
+      <c r="C165" s="42"/>
+      <c r="D165" s="55"/>
+      <c r="E165" s="10"/>
+      <c r="F165" s="45"/>
+      <c r="G165" s="68"/>
+      <c r="H165" s="11"/>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A166" s="34"/>
-      <c r="B166" s="52"/>
-      <c r="C166" s="42"/>
-      <c r="D166" s="55"/>
-      <c r="E166" s="10"/>
-      <c r="F166" s="45"/>
-      <c r="G166" s="68"/>
-      <c r="H166" s="11"/>
+      <c r="A166" s="35"/>
+      <c r="B166" s="54"/>
+      <c r="C166" s="40"/>
+      <c r="D166" s="57"/>
+      <c r="E166" s="6"/>
+      <c r="F166" s="44"/>
+      <c r="G166" s="44"/>
+      <c r="H166" s="12"/>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A167" s="35"/>
-      <c r="B167" s="54"/>
-      <c r="C167" s="40"/>
-      <c r="D167" s="57"/>
-      <c r="E167" s="6"/>
-      <c r="F167" s="44"/>
-      <c r="G167" s="44"/>
-      <c r="H167" s="12"/>
+      <c r="A167" s="34"/>
+      <c r="B167" s="52"/>
+      <c r="C167" s="42"/>
+      <c r="D167" s="55"/>
+      <c r="E167" s="10"/>
+      <c r="F167" s="45"/>
+      <c r="G167" s="68"/>
+      <c r="H167" s="11"/>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A168" s="34"/>
-      <c r="B168" s="52"/>
-      <c r="C168" s="42"/>
-      <c r="D168" s="55"/>
-      <c r="E168" s="10"/>
-      <c r="F168" s="45"/>
-      <c r="G168" s="68"/>
-      <c r="H168" s="11"/>
+      <c r="A168" s="35"/>
+      <c r="B168" s="54"/>
+      <c r="C168" s="40"/>
+      <c r="D168" s="57"/>
+      <c r="E168" s="6"/>
+      <c r="F168" s="44"/>
+      <c r="G168" s="44"/>
+      <c r="H168" s="12"/>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A169" s="35"/>
-      <c r="B169" s="54"/>
-      <c r="C169" s="40"/>
-      <c r="D169" s="57"/>
-      <c r="E169" s="6"/>
-      <c r="F169" s="44"/>
-      <c r="G169" s="44"/>
-      <c r="H169" s="12"/>
+      <c r="A169" s="34"/>
+      <c r="B169" s="52"/>
+      <c r="C169" s="42"/>
+      <c r="D169" s="55"/>
+      <c r="E169" s="10"/>
+      <c r="F169" s="45"/>
+      <c r="G169" s="68"/>
+      <c r="H169" s="11"/>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A170" s="34"/>
-      <c r="B170" s="52"/>
-      <c r="C170" s="42"/>
-      <c r="D170" s="55"/>
-      <c r="E170" s="10"/>
-      <c r="F170" s="45"/>
-      <c r="G170" s="68"/>
-      <c r="H170" s="11"/>
+      <c r="A170" s="35"/>
+      <c r="B170" s="54"/>
+      <c r="C170" s="40"/>
+      <c r="D170" s="57"/>
+      <c r="E170" s="6"/>
+      <c r="F170" s="44"/>
+      <c r="G170" s="44"/>
+      <c r="H170" s="12"/>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A171" s="35"/>
-      <c r="B171" s="54"/>
-      <c r="C171" s="40"/>
-      <c r="D171" s="57"/>
-      <c r="E171" s="6"/>
-      <c r="F171" s="44"/>
-      <c r="G171" s="44"/>
-      <c r="H171" s="12"/>
+      <c r="A171" s="34"/>
+      <c r="B171" s="52"/>
+      <c r="C171" s="42"/>
+      <c r="D171" s="55"/>
+      <c r="E171" s="10"/>
+      <c r="F171" s="45"/>
+      <c r="G171" s="68"/>
+      <c r="H171" s="11"/>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A172" s="34"/>
-      <c r="B172" s="52"/>
-      <c r="C172" s="42"/>
-      <c r="D172" s="55"/>
-      <c r="E172" s="10"/>
-      <c r="F172" s="45"/>
-      <c r="G172" s="68"/>
-      <c r="H172" s="11"/>
+      <c r="A172" s="35"/>
+      <c r="B172" s="54"/>
+      <c r="C172" s="40"/>
+      <c r="D172" s="57"/>
+      <c r="E172" s="6"/>
+      <c r="F172" s="44"/>
+      <c r="G172" s="44"/>
+      <c r="H172" s="12"/>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A173" s="35"/>
-      <c r="B173" s="54"/>
-      <c r="C173" s="40"/>
-      <c r="D173" s="57"/>
-      <c r="E173" s="6"/>
-      <c r="F173" s="44"/>
-      <c r="G173" s="44"/>
-      <c r="H173" s="12"/>
+      <c r="A173" s="34"/>
+      <c r="B173" s="52"/>
+      <c r="C173" s="42"/>
+      <c r="D173" s="55"/>
+      <c r="E173" s="10"/>
+      <c r="F173" s="45"/>
+      <c r="G173" s="68"/>
+      <c r="H173" s="11"/>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A174" s="34"/>
-      <c r="B174" s="52"/>
-      <c r="C174" s="42"/>
-      <c r="D174" s="55"/>
-      <c r="E174" s="10"/>
-      <c r="F174" s="45"/>
-      <c r="G174" s="68"/>
-      <c r="H174" s="11"/>
+      <c r="A174" s="35"/>
+      <c r="B174" s="54"/>
+      <c r="C174" s="40"/>
+      <c r="D174" s="57"/>
+      <c r="E174" s="6"/>
+      <c r="F174" s="44"/>
+      <c r="G174" s="44"/>
+      <c r="H174" s="12"/>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A175" s="35"/>
-      <c r="B175" s="54"/>
-      <c r="C175" s="40"/>
-      <c r="D175" s="57"/>
-      <c r="E175" s="6"/>
-      <c r="F175" s="44"/>
-      <c r="G175" s="44"/>
-      <c r="H175" s="12"/>
+      <c r="A175" s="34"/>
+      <c r="B175" s="52"/>
+      <c r="C175" s="42"/>
+      <c r="D175" s="55"/>
+      <c r="E175" s="10"/>
+      <c r="F175" s="45"/>
+      <c r="G175" s="68"/>
+      <c r="H175" s="11"/>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A176" s="34"/>
-      <c r="B176" s="52"/>
-      <c r="C176" s="42"/>
-      <c r="D176" s="55"/>
-      <c r="E176" s="10"/>
-      <c r="F176" s="45"/>
-      <c r="G176" s="68"/>
-      <c r="H176" s="11"/>
+      <c r="A176" s="35"/>
+      <c r="B176" s="54"/>
+      <c r="C176" s="40"/>
+      <c r="D176" s="57"/>
+      <c r="E176" s="6"/>
+      <c r="F176" s="44"/>
+      <c r="G176" s="44"/>
+      <c r="H176" s="12"/>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A177" s="35"/>
-      <c r="B177" s="54"/>
-      <c r="C177" s="40"/>
-      <c r="D177" s="57"/>
-      <c r="E177" s="6"/>
-      <c r="F177" s="44"/>
-      <c r="G177" s="44"/>
-      <c r="H177" s="12"/>
+      <c r="A177" s="34"/>
+      <c r="B177" s="52"/>
+      <c r="C177" s="42"/>
+      <c r="D177" s="55"/>
+      <c r="E177" s="10"/>
+      <c r="F177" s="45"/>
+      <c r="G177" s="68"/>
+      <c r="H177" s="11"/>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A178" s="34"/>
-      <c r="B178" s="52"/>
-      <c r="C178" s="42"/>
-      <c r="D178" s="55"/>
-      <c r="E178" s="10"/>
-      <c r="F178" s="45"/>
-      <c r="G178" s="68"/>
-      <c r="H178" s="11"/>
+      <c r="A178" s="35"/>
+      <c r="B178" s="54"/>
+      <c r="C178" s="40"/>
+      <c r="D178" s="57"/>
+      <c r="E178" s="6"/>
+      <c r="F178" s="44"/>
+      <c r="G178" s="44"/>
+      <c r="H178" s="12"/>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A179" s="35"/>
-      <c r="B179" s="54"/>
-      <c r="C179" s="40"/>
-      <c r="D179" s="57"/>
-      <c r="E179" s="6"/>
-      <c r="F179" s="44"/>
-      <c r="G179" s="44"/>
-      <c r="H179" s="12"/>
+      <c r="A179" s="34"/>
+      <c r="B179" s="52"/>
+      <c r="C179" s="42"/>
+      <c r="D179" s="55"/>
+      <c r="E179" s="10"/>
+      <c r="F179" s="45"/>
+      <c r="G179" s="68"/>
+      <c r="H179" s="11"/>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A180" s="34"/>
-      <c r="B180" s="52"/>
-      <c r="C180" s="42"/>
-      <c r="D180" s="55"/>
-      <c r="E180" s="10"/>
-      <c r="F180" s="45"/>
-      <c r="G180" s="68"/>
-      <c r="H180" s="11"/>
+      <c r="A180" s="35"/>
+      <c r="B180" s="54"/>
+      <c r="C180" s="40"/>
+      <c r="D180" s="57"/>
+      <c r="E180" s="6"/>
+      <c r="F180" s="44"/>
+      <c r="G180" s="44"/>
+      <c r="H180" s="12"/>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A181" s="35"/>
-      <c r="B181" s="54"/>
-      <c r="C181" s="40"/>
-      <c r="D181" s="57"/>
-      <c r="E181" s="6"/>
-      <c r="F181" s="44"/>
-      <c r="G181" s="44"/>
-      <c r="H181" s="12"/>
+      <c r="A181" s="34"/>
+      <c r="B181" s="52"/>
+      <c r="C181" s="42"/>
+      <c r="D181" s="55"/>
+      <c r="E181" s="10"/>
+      <c r="F181" s="45"/>
+      <c r="G181" s="68"/>
+      <c r="H181" s="11"/>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A182" s="34"/>
-      <c r="B182" s="52"/>
-      <c r="C182" s="42"/>
-      <c r="D182" s="55"/>
-      <c r="E182" s="10"/>
-      <c r="F182" s="45"/>
-      <c r="G182" s="68"/>
-      <c r="H182" s="11"/>
+      <c r="A182" s="35"/>
+      <c r="B182" s="54"/>
+      <c r="C182" s="40"/>
+      <c r="D182" s="57"/>
+      <c r="E182" s="6"/>
+      <c r="F182" s="44"/>
+      <c r="G182" s="44"/>
+      <c r="H182" s="12"/>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A183" s="35"/>
-      <c r="B183" s="54"/>
-      <c r="C183" s="40"/>
-      <c r="D183" s="57"/>
-      <c r="E183" s="6"/>
-      <c r="F183" s="44"/>
-      <c r="G183" s="44"/>
-      <c r="H183" s="12"/>
+      <c r="A183" s="34"/>
+      <c r="B183" s="52"/>
+      <c r="C183" s="42"/>
+      <c r="D183" s="55"/>
+      <c r="E183" s="10"/>
+      <c r="F183" s="45"/>
+      <c r="G183" s="68"/>
+      <c r="H183" s="11"/>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A184" s="34"/>
-      <c r="B184" s="52"/>
-      <c r="C184" s="42"/>
-      <c r="D184" s="55"/>
-      <c r="E184" s="10"/>
-      <c r="F184" s="45"/>
-      <c r="G184" s="68"/>
-      <c r="H184" s="11"/>
+      <c r="A184" s="35"/>
+      <c r="B184" s="54"/>
+      <c r="C184" s="40"/>
+      <c r="D184" s="57"/>
+      <c r="E184" s="6"/>
+      <c r="F184" s="44"/>
+      <c r="G184" s="44"/>
+      <c r="H184" s="12"/>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A185" s="35"/>
-      <c r="B185" s="54"/>
-      <c r="C185" s="40"/>
-      <c r="D185" s="57"/>
-      <c r="E185" s="6"/>
-      <c r="F185" s="44"/>
-      <c r="G185" s="44"/>
-      <c r="H185" s="12"/>
+      <c r="A185" s="34"/>
+      <c r="B185" s="52"/>
+      <c r="C185" s="42"/>
+      <c r="D185" s="55"/>
+      <c r="E185" s="10"/>
+      <c r="F185" s="45"/>
+      <c r="G185" s="68"/>
+      <c r="H185" s="11"/>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A186" s="34"/>
-      <c r="B186" s="52"/>
-      <c r="C186" s="42"/>
-      <c r="D186" s="55"/>
-      <c r="E186" s="10"/>
-      <c r="F186" s="45"/>
-      <c r="G186" s="68"/>
-      <c r="H186" s="11"/>
+      <c r="A186" s="35"/>
+      <c r="B186" s="54"/>
+      <c r="C186" s="40"/>
+      <c r="D186" s="57"/>
+      <c r="E186" s="6"/>
+      <c r="F186" s="44"/>
+      <c r="G186" s="44"/>
+      <c r="H186" s="12"/>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A187" s="35"/>
-      <c r="B187" s="54"/>
-      <c r="C187" s="40"/>
-      <c r="D187" s="57"/>
-      <c r="E187" s="6"/>
-      <c r="F187" s="44"/>
-      <c r="G187" s="44"/>
-      <c r="H187" s="12"/>
+      <c r="A187" s="34"/>
+      <c r="B187" s="52"/>
+      <c r="C187" s="42"/>
+      <c r="D187" s="55"/>
+      <c r="E187" s="10"/>
+      <c r="F187" s="45"/>
+      <c r="G187" s="68"/>
+      <c r="H187" s="11"/>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A188" s="34"/>
-      <c r="B188" s="52"/>
-      <c r="C188" s="42"/>
-      <c r="D188" s="55"/>
-      <c r="E188" s="10"/>
-      <c r="F188" s="45"/>
-      <c r="G188" s="68"/>
-      <c r="H188" s="11"/>
+      <c r="A188" s="35"/>
+      <c r="B188" s="54"/>
+      <c r="C188" s="40"/>
+      <c r="D188" s="57"/>
+      <c r="E188" s="6"/>
+      <c r="F188" s="44"/>
+      <c r="G188" s="44"/>
+      <c r="H188" s="12"/>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A189" s="35"/>
-      <c r="B189" s="54"/>
-      <c r="C189" s="40"/>
-      <c r="D189" s="57"/>
-      <c r="E189" s="6"/>
-      <c r="F189" s="44"/>
-      <c r="G189" s="44"/>
-      <c r="H189" s="12"/>
+      <c r="A189" s="34"/>
+      <c r="B189" s="52"/>
+      <c r="C189" s="42"/>
+      <c r="D189" s="55"/>
+      <c r="E189" s="10"/>
+      <c r="F189" s="45"/>
+      <c r="G189" s="68"/>
+      <c r="H189" s="11"/>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A190" s="34"/>
-      <c r="B190" s="52"/>
-      <c r="C190" s="42"/>
-      <c r="D190" s="55"/>
-      <c r="E190" s="10"/>
-      <c r="F190" s="45"/>
-      <c r="G190" s="68"/>
-      <c r="H190" s="11"/>
+      <c r="A190" s="35"/>
+      <c r="B190" s="54"/>
+      <c r="C190" s="40"/>
+      <c r="D190" s="57"/>
+      <c r="E190" s="6"/>
+      <c r="F190" s="44"/>
+      <c r="G190" s="44"/>
+      <c r="H190" s="12"/>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A191" s="35"/>
-      <c r="B191" s="54"/>
-      <c r="C191" s="40"/>
-      <c r="D191" s="57"/>
-      <c r="E191" s="6"/>
-      <c r="F191" s="44"/>
-      <c r="G191" s="44"/>
-      <c r="H191" s="12"/>
+      <c r="A191" s="34"/>
+      <c r="B191" s="52"/>
+      <c r="C191" s="42"/>
+      <c r="D191" s="55"/>
+      <c r="E191" s="10"/>
+      <c r="F191" s="45"/>
+      <c r="G191" s="68"/>
+      <c r="H191" s="11"/>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A192" s="34"/>
-      <c r="B192" s="52"/>
-      <c r="C192" s="42"/>
-      <c r="D192" s="55"/>
-      <c r="E192" s="10"/>
-      <c r="F192" s="45"/>
-      <c r="G192" s="68"/>
-      <c r="H192" s="11"/>
+      <c r="A192" s="35"/>
+      <c r="B192" s="54"/>
+      <c r="C192" s="40"/>
+      <c r="D192" s="57"/>
+      <c r="E192" s="6"/>
+      <c r="F192" s="44"/>
+      <c r="G192" s="44"/>
+      <c r="H192" s="12"/>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A193" s="35"/>
-      <c r="B193" s="54"/>
-      <c r="C193" s="40"/>
-      <c r="D193" s="57"/>
-      <c r="E193" s="6"/>
-      <c r="F193" s="44"/>
-      <c r="G193" s="44"/>
-      <c r="H193" s="12"/>
+      <c r="A193" s="34"/>
+      <c r="B193" s="52"/>
+      <c r="C193" s="42"/>
+      <c r="D193" s="55"/>
+      <c r="E193" s="10"/>
+      <c r="F193" s="45"/>
+      <c r="G193" s="68"/>
+      <c r="H193" s="11"/>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A194" s="34"/>
-      <c r="B194" s="52"/>
-      <c r="C194" s="42"/>
-      <c r="D194" s="55"/>
-      <c r="E194" s="10"/>
-      <c r="F194" s="45"/>
-      <c r="G194" s="68"/>
-      <c r="H194" s="11"/>
+      <c r="A194" s="35"/>
+      <c r="B194" s="54"/>
+      <c r="C194" s="40"/>
+      <c r="D194" s="57"/>
+      <c r="E194" s="6"/>
+      <c r="F194" s="44"/>
+      <c r="G194" s="44"/>
+      <c r="H194" s="12"/>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A195" s="35"/>
-      <c r="B195" s="54"/>
-      <c r="C195" s="40"/>
-      <c r="D195" s="57"/>
-      <c r="E195" s="6"/>
-      <c r="F195" s="44"/>
-      <c r="G195" s="44"/>
-      <c r="H195" s="12"/>
+      <c r="A195" s="34"/>
+      <c r="B195" s="52"/>
+      <c r="C195" s="42"/>
+      <c r="D195" s="55"/>
+      <c r="E195" s="10"/>
+      <c r="F195" s="45"/>
+      <c r="G195" s="68"/>
+      <c r="H195" s="11"/>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A196" s="34"/>
-      <c r="B196" s="52"/>
-      <c r="C196" s="42"/>
-      <c r="D196" s="55"/>
-      <c r="E196" s="10"/>
-      <c r="F196" s="45"/>
-      <c r="G196" s="68"/>
-      <c r="H196" s="11"/>
+      <c r="A196" s="35"/>
+      <c r="B196" s="54"/>
+      <c r="C196" s="40"/>
+      <c r="D196" s="57"/>
+      <c r="E196" s="6"/>
+      <c r="F196" s="44"/>
+      <c r="G196" s="44"/>
+      <c r="H196" s="12"/>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A197" s="35"/>
-      <c r="B197" s="54"/>
-      <c r="C197" s="40"/>
-      <c r="D197" s="57"/>
-      <c r="E197" s="6"/>
-      <c r="F197" s="44"/>
-      <c r="G197" s="44"/>
-      <c r="H197" s="12"/>
+      <c r="A197" s="34"/>
+      <c r="B197" s="52"/>
+      <c r="C197" s="42"/>
+      <c r="D197" s="55"/>
+      <c r="E197" s="10"/>
+      <c r="F197" s="45"/>
+      <c r="G197" s="68"/>
+      <c r="H197" s="11"/>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A198" s="34"/>
-      <c r="B198" s="52"/>
-      <c r="C198" s="42"/>
-      <c r="D198" s="55"/>
-      <c r="E198" s="10"/>
-      <c r="F198" s="45"/>
-      <c r="G198" s="68"/>
-      <c r="H198" s="11"/>
+      <c r="A198" s="35"/>
+      <c r="B198" s="54"/>
+      <c r="C198" s="40"/>
+      <c r="D198" s="57"/>
+      <c r="E198" s="6"/>
+      <c r="F198" s="44"/>
+      <c r="G198" s="44"/>
+      <c r="H198" s="12"/>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A199" s="35"/>
-      <c r="B199" s="54"/>
-      <c r="C199" s="40"/>
-      <c r="D199" s="57"/>
-      <c r="E199" s="6"/>
-      <c r="F199" s="44"/>
-      <c r="G199" s="44"/>
-      <c r="H199" s="12"/>
+      <c r="A199" s="34"/>
+      <c r="B199" s="52"/>
+      <c r="C199" s="42"/>
+      <c r="D199" s="55"/>
+      <c r="E199" s="10"/>
+      <c r="F199" s="45"/>
+      <c r="G199" s="68"/>
+      <c r="H199" s="11"/>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A200" s="34"/>
-      <c r="B200" s="52"/>
-      <c r="C200" s="42"/>
-      <c r="D200" s="55"/>
-      <c r="E200" s="10"/>
-      <c r="F200" s="45"/>
-      <c r="G200" s="68"/>
-      <c r="H200" s="11"/>
+      <c r="A200" s="35"/>
+      <c r="B200" s="54"/>
+      <c r="C200" s="40"/>
+      <c r="D200" s="57"/>
+      <c r="E200" s="6"/>
+      <c r="F200" s="44"/>
+      <c r="G200" s="44"/>
+      <c r="H200" s="12"/>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A201" s="35"/>
-      <c r="B201" s="54"/>
-      <c r="C201" s="40"/>
-      <c r="D201" s="57"/>
-      <c r="E201" s="6"/>
-      <c r="F201" s="44"/>
-      <c r="G201" s="44"/>
-      <c r="H201" s="12"/>
+      <c r="A201" s="34"/>
+      <c r="B201" s="52"/>
+      <c r="C201" s="42"/>
+      <c r="D201" s="55"/>
+      <c r="E201" s="10"/>
+      <c r="F201" s="45"/>
+      <c r="G201" s="68"/>
+      <c r="H201" s="11"/>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A202" s="35"/>
+      <c r="B202" s="54"/>
+      <c r="C202" s="40"/>
+      <c r="D202" s="57"/>
+      <c r="E202" s="6"/>
+      <c r="F202" s="44"/>
+      <c r="G202" s="44"/>
+      <c r="H202" s="12"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/TS Jatai Working/TTD Krama PaaraayaNam-Kramam.xlsx
+++ b/TS Jatai Working/TTD Krama PaaraayaNam-Kramam.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="284">
   <si>
     <t>Date</t>
   </si>
@@ -830,6 +830,42 @@
   </si>
   <si>
     <t>6.1.1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1.2.7 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1.3.1 </t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=fQzxSEANdWU&amp;list=PLjhrDIztP9pcSE8dR7xYZb7zwX5SXxNKy&amp;index=21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1.6.2 </t>
+  </si>
+  <si>
+    <t>6.1.6.3</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=K0DL7nN259A&amp;list=PLjhrDIztP9pcSE8dR7xYZb7zwX5SXxNKy&amp;index=20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1.9.7 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1.10.1 </t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ReGNTt8pAPM&amp;list=PLjhrDIztP9pcSE8dR7xYZb7zwX5SXxNKy&amp;index=20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1.11.6 </t>
+  </si>
+  <si>
+    <t>23 min 50 sec</t>
+  </si>
+  <si>
+    <t>6.2.1.1</t>
   </si>
 </sst>
 </file>
@@ -1539,11 +1575,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L202"/>
+  <dimension ref="A1:L203"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A143" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G149" sqref="G149"/>
+      <pane ySplit="4" topLeftCell="A145" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A156" sqref="A156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -4459,7 +4495,9 @@
       <c r="E149" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F149" s="43"/>
+      <c r="F149" s="43" t="s">
+        <v>272</v>
+      </c>
       <c r="G149" s="43" t="s">
         <v>13</v>
       </c>
@@ -4478,14 +4516,30 @@
       <c r="H150" s="12"/>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A151" s="36"/>
-      <c r="B151" s="53"/>
-      <c r="C151" s="41"/>
-      <c r="D151" s="56"/>
-      <c r="E151" s="2"/>
-      <c r="F151" s="43"/>
-      <c r="G151" s="68"/>
-      <c r="H151" s="13"/>
+      <c r="A151" s="36">
+        <v>61</v>
+      </c>
+      <c r="B151" s="53">
+        <v>44506</v>
+      </c>
+      <c r="C151" s="41">
+        <v>2</v>
+      </c>
+      <c r="D151" s="81" t="s">
+        <v>273</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F151" s="45" t="s">
+        <v>275</v>
+      </c>
+      <c r="G151" s="68" t="s">
+        <v>13</v>
+      </c>
+      <c r="H151" s="13" t="s">
+        <v>274</v>
+      </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" s="35"/>
@@ -4498,504 +4552,558 @@
       <c r="H152" s="12"/>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A153" s="34"/>
-      <c r="B153" s="52"/>
-      <c r="C153" s="42"/>
-      <c r="D153" s="55"/>
-      <c r="E153" s="10"/>
-      <c r="F153" s="45"/>
-      <c r="G153" s="68"/>
-      <c r="H153" s="11"/>
+      <c r="A153" s="34">
+        <v>62</v>
+      </c>
+      <c r="B153" s="52">
+        <v>44507</v>
+      </c>
+      <c r="C153" s="42">
+        <v>3</v>
+      </c>
+      <c r="D153" s="76" t="s">
+        <v>276</v>
+      </c>
+      <c r="E153" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F153" s="45" t="s">
+        <v>278</v>
+      </c>
+      <c r="G153" s="68" t="s">
+        <v>13</v>
+      </c>
+      <c r="H153" s="11" t="s">
+        <v>277</v>
+      </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A154" s="35"/>
-      <c r="B154" s="54"/>
-      <c r="C154" s="40"/>
-      <c r="D154" s="57"/>
-      <c r="E154" s="6"/>
-      <c r="F154" s="44"/>
-      <c r="G154" s="44"/>
-      <c r="H154" s="12"/>
+      <c r="A154" s="36"/>
+      <c r="B154" s="53"/>
+      <c r="C154" s="41"/>
+      <c r="D154" s="56"/>
+      <c r="E154" s="2"/>
+      <c r="F154" s="43"/>
+      <c r="G154" s="43"/>
+      <c r="H154" s="13"/>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A155" s="34"/>
-      <c r="B155" s="52"/>
-      <c r="C155" s="42"/>
-      <c r="D155" s="55"/>
-      <c r="E155" s="10"/>
-      <c r="F155" s="45"/>
-      <c r="G155" s="68"/>
-      <c r="H155" s="11"/>
+      <c r="A155" s="34">
+        <v>63</v>
+      </c>
+      <c r="B155" s="37">
+        <v>44508</v>
+      </c>
+      <c r="C155" s="42">
+        <v>4</v>
+      </c>
+      <c r="D155" s="73" t="s">
+        <v>279</v>
+      </c>
+      <c r="E155" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F155" s="45" t="s">
+        <v>281</v>
+      </c>
+      <c r="G155" s="45" t="s">
+        <v>282</v>
+      </c>
+      <c r="H155" s="11" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A156" s="35"/>
-      <c r="B156" s="54"/>
-      <c r="C156" s="40"/>
-      <c r="D156" s="57"/>
-      <c r="E156" s="6"/>
-      <c r="F156" s="44"/>
-      <c r="G156" s="44"/>
-      <c r="H156" s="12"/>
+      <c r="A156" s="36"/>
+      <c r="B156" s="39">
+        <v>44508</v>
+      </c>
+      <c r="C156" s="41">
+        <v>1</v>
+      </c>
+      <c r="D156" s="78" t="s">
+        <v>283</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F156" s="43"/>
+      <c r="G156" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="H156" s="13" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A157" s="34"/>
-      <c r="B157" s="52"/>
-      <c r="C157" s="42"/>
-      <c r="D157" s="55"/>
-      <c r="E157" s="10"/>
-      <c r="F157" s="45"/>
-      <c r="G157" s="68"/>
-      <c r="H157" s="11"/>
+      <c r="A157" s="35"/>
+      <c r="B157" s="38"/>
+      <c r="C157" s="40"/>
+      <c r="D157" s="7"/>
+      <c r="E157" s="6"/>
+      <c r="F157" s="44"/>
+      <c r="G157" s="44"/>
+      <c r="H157" s="12"/>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A158" s="35"/>
-      <c r="B158" s="54"/>
-      <c r="C158" s="40"/>
-      <c r="D158" s="57"/>
-      <c r="E158" s="6"/>
-      <c r="F158" s="44"/>
-      <c r="G158" s="44"/>
-      <c r="H158" s="12"/>
+      <c r="A158" s="36"/>
+      <c r="B158" s="53"/>
+      <c r="C158" s="41"/>
+      <c r="D158" s="56"/>
+      <c r="E158" s="2"/>
+      <c r="F158" s="43"/>
+      <c r="G158" s="68"/>
+      <c r="H158" s="13"/>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A159" s="34"/>
-      <c r="B159" s="52"/>
-      <c r="C159" s="42"/>
-      <c r="D159" s="55"/>
-      <c r="E159" s="10"/>
-      <c r="F159" s="45"/>
-      <c r="G159" s="68"/>
-      <c r="H159" s="11"/>
+      <c r="A159" s="35"/>
+      <c r="B159" s="54"/>
+      <c r="C159" s="40"/>
+      <c r="D159" s="57"/>
+      <c r="E159" s="6"/>
+      <c r="F159" s="44"/>
+      <c r="G159" s="44"/>
+      <c r="H159" s="12"/>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A160" s="35"/>
-      <c r="B160" s="54"/>
-      <c r="C160" s="40"/>
-      <c r="D160" s="57"/>
-      <c r="E160" s="6"/>
-      <c r="F160" s="44"/>
-      <c r="G160" s="44"/>
-      <c r="H160" s="12"/>
+      <c r="A160" s="34"/>
+      <c r="B160" s="52"/>
+      <c r="C160" s="42"/>
+      <c r="D160" s="55"/>
+      <c r="E160" s="10"/>
+      <c r="F160" s="45"/>
+      <c r="G160" s="68"/>
+      <c r="H160" s="11"/>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A161" s="34"/>
-      <c r="B161" s="52"/>
-      <c r="C161" s="42"/>
-      <c r="D161" s="55"/>
-      <c r="E161" s="10"/>
-      <c r="F161" s="45"/>
-      <c r="G161" s="68"/>
-      <c r="H161" s="11"/>
+      <c r="A161" s="35"/>
+      <c r="B161" s="54"/>
+      <c r="C161" s="40"/>
+      <c r="D161" s="57"/>
+      <c r="E161" s="6"/>
+      <c r="F161" s="44"/>
+      <c r="G161" s="44"/>
+      <c r="H161" s="12"/>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A162" s="35"/>
-      <c r="B162" s="54"/>
-      <c r="C162" s="40"/>
-      <c r="D162" s="57"/>
-      <c r="E162" s="6"/>
-      <c r="F162" s="44"/>
-      <c r="G162" s="44"/>
-      <c r="H162" s="12"/>
+      <c r="A162" s="34"/>
+      <c r="B162" s="52"/>
+      <c r="C162" s="42"/>
+      <c r="D162" s="55"/>
+      <c r="E162" s="10"/>
+      <c r="F162" s="45"/>
+      <c r="G162" s="68"/>
+      <c r="H162" s="11"/>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A163" s="34"/>
-      <c r="B163" s="52"/>
-      <c r="C163" s="42"/>
-      <c r="D163" s="55"/>
-      <c r="E163" s="10"/>
-      <c r="F163" s="45"/>
-      <c r="G163" s="68"/>
-      <c r="H163" s="11"/>
+      <c r="A163" s="35"/>
+      <c r="B163" s="54"/>
+      <c r="C163" s="40"/>
+      <c r="D163" s="57"/>
+      <c r="E163" s="6"/>
+      <c r="F163" s="44"/>
+      <c r="G163" s="44"/>
+      <c r="H163" s="12"/>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A164" s="35"/>
-      <c r="B164" s="54"/>
-      <c r="C164" s="40"/>
-      <c r="D164" s="57"/>
-      <c r="E164" s="6"/>
-      <c r="F164" s="44"/>
-      <c r="G164" s="44"/>
-      <c r="H164" s="12"/>
+      <c r="A164" s="34"/>
+      <c r="B164" s="52"/>
+      <c r="C164" s="42"/>
+      <c r="D164" s="55"/>
+      <c r="E164" s="10"/>
+      <c r="F164" s="45"/>
+      <c r="G164" s="68"/>
+      <c r="H164" s="11"/>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A165" s="34"/>
-      <c r="B165" s="52"/>
-      <c r="C165" s="42"/>
-      <c r="D165" s="55"/>
-      <c r="E165" s="10"/>
-      <c r="F165" s="45"/>
-      <c r="G165" s="68"/>
-      <c r="H165" s="11"/>
+      <c r="A165" s="35"/>
+      <c r="B165" s="54"/>
+      <c r="C165" s="40"/>
+      <c r="D165" s="57"/>
+      <c r="E165" s="6"/>
+      <c r="F165" s="44"/>
+      <c r="G165" s="44"/>
+      <c r="H165" s="12"/>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A166" s="35"/>
-      <c r="B166" s="54"/>
-      <c r="C166" s="40"/>
-      <c r="D166" s="57"/>
-      <c r="E166" s="6"/>
-      <c r="F166" s="44"/>
-      <c r="G166" s="44"/>
-      <c r="H166" s="12"/>
+      <c r="A166" s="34"/>
+      <c r="B166" s="52"/>
+      <c r="C166" s="42"/>
+      <c r="D166" s="55"/>
+      <c r="E166" s="10"/>
+      <c r="F166" s="45"/>
+      <c r="G166" s="68"/>
+      <c r="H166" s="11"/>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A167" s="34"/>
-      <c r="B167" s="52"/>
-      <c r="C167" s="42"/>
-      <c r="D167" s="55"/>
-      <c r="E167" s="10"/>
-      <c r="F167" s="45"/>
-      <c r="G167" s="68"/>
-      <c r="H167" s="11"/>
+      <c r="A167" s="35"/>
+      <c r="B167" s="54"/>
+      <c r="C167" s="40"/>
+      <c r="D167" s="57"/>
+      <c r="E167" s="6"/>
+      <c r="F167" s="44"/>
+      <c r="G167" s="44"/>
+      <c r="H167" s="12"/>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A168" s="35"/>
-      <c r="B168" s="54"/>
-      <c r="C168" s="40"/>
-      <c r="D168" s="57"/>
-      <c r="E168" s="6"/>
-      <c r="F168" s="44"/>
-      <c r="G168" s="44"/>
-      <c r="H168" s="12"/>
+      <c r="A168" s="34"/>
+      <c r="B168" s="52"/>
+      <c r="C168" s="42"/>
+      <c r="D168" s="55"/>
+      <c r="E168" s="10"/>
+      <c r="F168" s="45"/>
+      <c r="G168" s="68"/>
+      <c r="H168" s="11"/>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A169" s="34"/>
-      <c r="B169" s="52"/>
-      <c r="C169" s="42"/>
-      <c r="D169" s="55"/>
-      <c r="E169" s="10"/>
-      <c r="F169" s="45"/>
-      <c r="G169" s="68"/>
-      <c r="H169" s="11"/>
+      <c r="A169" s="35"/>
+      <c r="B169" s="54"/>
+      <c r="C169" s="40"/>
+      <c r="D169" s="57"/>
+      <c r="E169" s="6"/>
+      <c r="F169" s="44"/>
+      <c r="G169" s="44"/>
+      <c r="H169" s="12"/>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A170" s="35"/>
-      <c r="B170" s="54"/>
-      <c r="C170" s="40"/>
-      <c r="D170" s="57"/>
-      <c r="E170" s="6"/>
-      <c r="F170" s="44"/>
-      <c r="G170" s="44"/>
-      <c r="H170" s="12"/>
+      <c r="A170" s="34"/>
+      <c r="B170" s="52"/>
+      <c r="C170" s="42"/>
+      <c r="D170" s="55"/>
+      <c r="E170" s="10"/>
+      <c r="F170" s="45"/>
+      <c r="G170" s="68"/>
+      <c r="H170" s="11"/>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A171" s="34"/>
-      <c r="B171" s="52"/>
-      <c r="C171" s="42"/>
-      <c r="D171" s="55"/>
-      <c r="E171" s="10"/>
-      <c r="F171" s="45"/>
-      <c r="G171" s="68"/>
-      <c r="H171" s="11"/>
+      <c r="A171" s="35"/>
+      <c r="B171" s="54"/>
+      <c r="C171" s="40"/>
+      <c r="D171" s="57"/>
+      <c r="E171" s="6"/>
+      <c r="F171" s="44"/>
+      <c r="G171" s="44"/>
+      <c r="H171" s="12"/>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A172" s="35"/>
-      <c r="B172" s="54"/>
-      <c r="C172" s="40"/>
-      <c r="D172" s="57"/>
-      <c r="E172" s="6"/>
-      <c r="F172" s="44"/>
-      <c r="G172" s="44"/>
-      <c r="H172" s="12"/>
+      <c r="A172" s="34"/>
+      <c r="B172" s="52"/>
+      <c r="C172" s="42"/>
+      <c r="D172" s="55"/>
+      <c r="E172" s="10"/>
+      <c r="F172" s="45"/>
+      <c r="G172" s="68"/>
+      <c r="H172" s="11"/>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A173" s="34"/>
-      <c r="B173" s="52"/>
-      <c r="C173" s="42"/>
-      <c r="D173" s="55"/>
-      <c r="E173" s="10"/>
-      <c r="F173" s="45"/>
-      <c r="G173" s="68"/>
-      <c r="H173" s="11"/>
+      <c r="A173" s="35"/>
+      <c r="B173" s="54"/>
+      <c r="C173" s="40"/>
+      <c r="D173" s="57"/>
+      <c r="E173" s="6"/>
+      <c r="F173" s="44"/>
+      <c r="G173" s="44"/>
+      <c r="H173" s="12"/>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A174" s="35"/>
-      <c r="B174" s="54"/>
-      <c r="C174" s="40"/>
-      <c r="D174" s="57"/>
-      <c r="E174" s="6"/>
-      <c r="F174" s="44"/>
-      <c r="G174" s="44"/>
-      <c r="H174" s="12"/>
+      <c r="A174" s="34"/>
+      <c r="B174" s="52"/>
+      <c r="C174" s="42"/>
+      <c r="D174" s="55"/>
+      <c r="E174" s="10"/>
+      <c r="F174" s="45"/>
+      <c r="G174" s="68"/>
+      <c r="H174" s="11"/>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A175" s="34"/>
-      <c r="B175" s="52"/>
-      <c r="C175" s="42"/>
-      <c r="D175" s="55"/>
-      <c r="E175" s="10"/>
-      <c r="F175" s="45"/>
-      <c r="G175" s="68"/>
-      <c r="H175" s="11"/>
+      <c r="A175" s="35"/>
+      <c r="B175" s="54"/>
+      <c r="C175" s="40"/>
+      <c r="D175" s="57"/>
+      <c r="E175" s="6"/>
+      <c r="F175" s="44"/>
+      <c r="G175" s="44"/>
+      <c r="H175" s="12"/>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A176" s="35"/>
-      <c r="B176" s="54"/>
-      <c r="C176" s="40"/>
-      <c r="D176" s="57"/>
-      <c r="E176" s="6"/>
-      <c r="F176" s="44"/>
-      <c r="G176" s="44"/>
-      <c r="H176" s="12"/>
+      <c r="A176" s="34"/>
+      <c r="B176" s="52"/>
+      <c r="C176" s="42"/>
+      <c r="D176" s="55"/>
+      <c r="E176" s="10"/>
+      <c r="F176" s="45"/>
+      <c r="G176" s="68"/>
+      <c r="H176" s="11"/>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A177" s="34"/>
-      <c r="B177" s="52"/>
-      <c r="C177" s="42"/>
-      <c r="D177" s="55"/>
-      <c r="E177" s="10"/>
-      <c r="F177" s="45"/>
-      <c r="G177" s="68"/>
-      <c r="H177" s="11"/>
+      <c r="A177" s="35"/>
+      <c r="B177" s="54"/>
+      <c r="C177" s="40"/>
+      <c r="D177" s="57"/>
+      <c r="E177" s="6"/>
+      <c r="F177" s="44"/>
+      <c r="G177" s="44"/>
+      <c r="H177" s="12"/>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A178" s="35"/>
-      <c r="B178" s="54"/>
-      <c r="C178" s="40"/>
-      <c r="D178" s="57"/>
-      <c r="E178" s="6"/>
-      <c r="F178" s="44"/>
-      <c r="G178" s="44"/>
-      <c r="H178" s="12"/>
+      <c r="A178" s="34"/>
+      <c r="B178" s="52"/>
+      <c r="C178" s="42"/>
+      <c r="D178" s="55"/>
+      <c r="E178" s="10"/>
+      <c r="F178" s="45"/>
+      <c r="G178" s="68"/>
+      <c r="H178" s="11"/>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A179" s="34"/>
-      <c r="B179" s="52"/>
-      <c r="C179" s="42"/>
-      <c r="D179" s="55"/>
-      <c r="E179" s="10"/>
-      <c r="F179" s="45"/>
-      <c r="G179" s="68"/>
-      <c r="H179" s="11"/>
+      <c r="A179" s="35"/>
+      <c r="B179" s="54"/>
+      <c r="C179" s="40"/>
+      <c r="D179" s="57"/>
+      <c r="E179" s="6"/>
+      <c r="F179" s="44"/>
+      <c r="G179" s="44"/>
+      <c r="H179" s="12"/>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A180" s="35"/>
-      <c r="B180" s="54"/>
-      <c r="C180" s="40"/>
-      <c r="D180" s="57"/>
-      <c r="E180" s="6"/>
-      <c r="F180" s="44"/>
-      <c r="G180" s="44"/>
-      <c r="H180" s="12"/>
+      <c r="A180" s="34"/>
+      <c r="B180" s="52"/>
+      <c r="C180" s="42"/>
+      <c r="D180" s="55"/>
+      <c r="E180" s="10"/>
+      <c r="F180" s="45"/>
+      <c r="G180" s="68"/>
+      <c r="H180" s="11"/>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A181" s="34"/>
-      <c r="B181" s="52"/>
-      <c r="C181" s="42"/>
-      <c r="D181" s="55"/>
-      <c r="E181" s="10"/>
-      <c r="F181" s="45"/>
-      <c r="G181" s="68"/>
-      <c r="H181" s="11"/>
+      <c r="A181" s="35"/>
+      <c r="B181" s="54"/>
+      <c r="C181" s="40"/>
+      <c r="D181" s="57"/>
+      <c r="E181" s="6"/>
+      <c r="F181" s="44"/>
+      <c r="G181" s="44"/>
+      <c r="H181" s="12"/>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A182" s="35"/>
-      <c r="B182" s="54"/>
-      <c r="C182" s="40"/>
-      <c r="D182" s="57"/>
-      <c r="E182" s="6"/>
-      <c r="F182" s="44"/>
-      <c r="G182" s="44"/>
-      <c r="H182" s="12"/>
+      <c r="A182" s="34"/>
+      <c r="B182" s="52"/>
+      <c r="C182" s="42"/>
+      <c r="D182" s="55"/>
+      <c r="E182" s="10"/>
+      <c r="F182" s="45"/>
+      <c r="G182" s="68"/>
+      <c r="H182" s="11"/>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A183" s="34"/>
-      <c r="B183" s="52"/>
-      <c r="C183" s="42"/>
-      <c r="D183" s="55"/>
-      <c r="E183" s="10"/>
-      <c r="F183" s="45"/>
-      <c r="G183" s="68"/>
-      <c r="H183" s="11"/>
+      <c r="A183" s="35"/>
+      <c r="B183" s="54"/>
+      <c r="C183" s="40"/>
+      <c r="D183" s="57"/>
+      <c r="E183" s="6"/>
+      <c r="F183" s="44"/>
+      <c r="G183" s="44"/>
+      <c r="H183" s="12"/>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A184" s="35"/>
-      <c r="B184" s="54"/>
-      <c r="C184" s="40"/>
-      <c r="D184" s="57"/>
-      <c r="E184" s="6"/>
-      <c r="F184" s="44"/>
-      <c r="G184" s="44"/>
-      <c r="H184" s="12"/>
+      <c r="A184" s="34"/>
+      <c r="B184" s="52"/>
+      <c r="C184" s="42"/>
+      <c r="D184" s="55"/>
+      <c r="E184" s="10"/>
+      <c r="F184" s="45"/>
+      <c r="G184" s="68"/>
+      <c r="H184" s="11"/>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A185" s="34"/>
-      <c r="B185" s="52"/>
-      <c r="C185" s="42"/>
-      <c r="D185" s="55"/>
-      <c r="E185" s="10"/>
-      <c r="F185" s="45"/>
-      <c r="G185" s="68"/>
-      <c r="H185" s="11"/>
+      <c r="A185" s="35"/>
+      <c r="B185" s="54"/>
+      <c r="C185" s="40"/>
+      <c r="D185" s="57"/>
+      <c r="E185" s="6"/>
+      <c r="F185" s="44"/>
+      <c r="G185" s="44"/>
+      <c r="H185" s="12"/>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A186" s="35"/>
-      <c r="B186" s="54"/>
-      <c r="C186" s="40"/>
-      <c r="D186" s="57"/>
-      <c r="E186" s="6"/>
-      <c r="F186" s="44"/>
-      <c r="G186" s="44"/>
-      <c r="H186" s="12"/>
+      <c r="A186" s="34"/>
+      <c r="B186" s="52"/>
+      <c r="C186" s="42"/>
+      <c r="D186" s="55"/>
+      <c r="E186" s="10"/>
+      <c r="F186" s="45"/>
+      <c r="G186" s="68"/>
+      <c r="H186" s="11"/>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A187" s="34"/>
-      <c r="B187" s="52"/>
-      <c r="C187" s="42"/>
-      <c r="D187" s="55"/>
-      <c r="E187" s="10"/>
-      <c r="F187" s="45"/>
-      <c r="G187" s="68"/>
-      <c r="H187" s="11"/>
+      <c r="A187" s="35"/>
+      <c r="B187" s="54"/>
+      <c r="C187" s="40"/>
+      <c r="D187" s="57"/>
+      <c r="E187" s="6"/>
+      <c r="F187" s="44"/>
+      <c r="G187" s="44"/>
+      <c r="H187" s="12"/>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A188" s="35"/>
-      <c r="B188" s="54"/>
-      <c r="C188" s="40"/>
-      <c r="D188" s="57"/>
-      <c r="E188" s="6"/>
-      <c r="F188" s="44"/>
-      <c r="G188" s="44"/>
-      <c r="H188" s="12"/>
+      <c r="A188" s="34"/>
+      <c r="B188" s="52"/>
+      <c r="C188" s="42"/>
+      <c r="D188" s="55"/>
+      <c r="E188" s="10"/>
+      <c r="F188" s="45"/>
+      <c r="G188" s="68"/>
+      <c r="H188" s="11"/>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A189" s="34"/>
-      <c r="B189" s="52"/>
-      <c r="C189" s="42"/>
-      <c r="D189" s="55"/>
-      <c r="E189" s="10"/>
-      <c r="F189" s="45"/>
-      <c r="G189" s="68"/>
-      <c r="H189" s="11"/>
+      <c r="A189" s="35"/>
+      <c r="B189" s="54"/>
+      <c r="C189" s="40"/>
+      <c r="D189" s="57"/>
+      <c r="E189" s="6"/>
+      <c r="F189" s="44"/>
+      <c r="G189" s="44"/>
+      <c r="H189" s="12"/>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A190" s="35"/>
-      <c r="B190" s="54"/>
-      <c r="C190" s="40"/>
-      <c r="D190" s="57"/>
-      <c r="E190" s="6"/>
-      <c r="F190" s="44"/>
-      <c r="G190" s="44"/>
-      <c r="H190" s="12"/>
+      <c r="A190" s="34"/>
+      <c r="B190" s="52"/>
+      <c r="C190" s="42"/>
+      <c r="D190" s="55"/>
+      <c r="E190" s="10"/>
+      <c r="F190" s="45"/>
+      <c r="G190" s="68"/>
+      <c r="H190" s="11"/>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A191" s="34"/>
-      <c r="B191" s="52"/>
-      <c r="C191" s="42"/>
-      <c r="D191" s="55"/>
-      <c r="E191" s="10"/>
-      <c r="F191" s="45"/>
-      <c r="G191" s="68"/>
-      <c r="H191" s="11"/>
+      <c r="A191" s="35"/>
+      <c r="B191" s="54"/>
+      <c r="C191" s="40"/>
+      <c r="D191" s="57"/>
+      <c r="E191" s="6"/>
+      <c r="F191" s="44"/>
+      <c r="G191" s="44"/>
+      <c r="H191" s="12"/>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A192" s="35"/>
-      <c r="B192" s="54"/>
-      <c r="C192" s="40"/>
-      <c r="D192" s="57"/>
-      <c r="E192" s="6"/>
-      <c r="F192" s="44"/>
-      <c r="G192" s="44"/>
-      <c r="H192" s="12"/>
+      <c r="A192" s="34"/>
+      <c r="B192" s="52"/>
+      <c r="C192" s="42"/>
+      <c r="D192" s="55"/>
+      <c r="E192" s="10"/>
+      <c r="F192" s="45"/>
+      <c r="G192" s="68"/>
+      <c r="H192" s="11"/>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A193" s="34"/>
-      <c r="B193" s="52"/>
-      <c r="C193" s="42"/>
-      <c r="D193" s="55"/>
-      <c r="E193" s="10"/>
-      <c r="F193" s="45"/>
-      <c r="G193" s="68"/>
-      <c r="H193" s="11"/>
+      <c r="A193" s="35"/>
+      <c r="B193" s="54"/>
+      <c r="C193" s="40"/>
+      <c r="D193" s="57"/>
+      <c r="E193" s="6"/>
+      <c r="F193" s="44"/>
+      <c r="G193" s="44"/>
+      <c r="H193" s="12"/>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A194" s="35"/>
-      <c r="B194" s="54"/>
-      <c r="C194" s="40"/>
-      <c r="D194" s="57"/>
-      <c r="E194" s="6"/>
-      <c r="F194" s="44"/>
-      <c r="G194" s="44"/>
-      <c r="H194" s="12"/>
+      <c r="A194" s="34"/>
+      <c r="B194" s="52"/>
+      <c r="C194" s="42"/>
+      <c r="D194" s="55"/>
+      <c r="E194" s="10"/>
+      <c r="F194" s="45"/>
+      <c r="G194" s="68"/>
+      <c r="H194" s="11"/>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A195" s="34"/>
-      <c r="B195" s="52"/>
-      <c r="C195" s="42"/>
-      <c r="D195" s="55"/>
-      <c r="E195" s="10"/>
-      <c r="F195" s="45"/>
-      <c r="G195" s="68"/>
-      <c r="H195" s="11"/>
+      <c r="A195" s="35"/>
+      <c r="B195" s="54"/>
+      <c r="C195" s="40"/>
+      <c r="D195" s="57"/>
+      <c r="E195" s="6"/>
+      <c r="F195" s="44"/>
+      <c r="G195" s="44"/>
+      <c r="H195" s="12"/>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A196" s="35"/>
-      <c r="B196" s="54"/>
-      <c r="C196" s="40"/>
-      <c r="D196" s="57"/>
-      <c r="E196" s="6"/>
-      <c r="F196" s="44"/>
-      <c r="G196" s="44"/>
-      <c r="H196" s="12"/>
+      <c r="A196" s="34"/>
+      <c r="B196" s="52"/>
+      <c r="C196" s="42"/>
+      <c r="D196" s="55"/>
+      <c r="E196" s="10"/>
+      <c r="F196" s="45"/>
+      <c r="G196" s="68"/>
+      <c r="H196" s="11"/>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A197" s="34"/>
-      <c r="B197" s="52"/>
-      <c r="C197" s="42"/>
-      <c r="D197" s="55"/>
-      <c r="E197" s="10"/>
-      <c r="F197" s="45"/>
-      <c r="G197" s="68"/>
-      <c r="H197" s="11"/>
+      <c r="A197" s="35"/>
+      <c r="B197" s="54"/>
+      <c r="C197" s="40"/>
+      <c r="D197" s="57"/>
+      <c r="E197" s="6"/>
+      <c r="F197" s="44"/>
+      <c r="G197" s="44"/>
+      <c r="H197" s="12"/>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A198" s="35"/>
-      <c r="B198" s="54"/>
-      <c r="C198" s="40"/>
-      <c r="D198" s="57"/>
-      <c r="E198" s="6"/>
-      <c r="F198" s="44"/>
-      <c r="G198" s="44"/>
-      <c r="H198" s="12"/>
+      <c r="A198" s="34"/>
+      <c r="B198" s="52"/>
+      <c r="C198" s="42"/>
+      <c r="D198" s="55"/>
+      <c r="E198" s="10"/>
+      <c r="F198" s="45"/>
+      <c r="G198" s="68"/>
+      <c r="H198" s="11"/>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A199" s="34"/>
-      <c r="B199" s="52"/>
-      <c r="C199" s="42"/>
-      <c r="D199" s="55"/>
-      <c r="E199" s="10"/>
-      <c r="F199" s="45"/>
-      <c r="G199" s="68"/>
-      <c r="H199" s="11"/>
+      <c r="A199" s="35"/>
+      <c r="B199" s="54"/>
+      <c r="C199" s="40"/>
+      <c r="D199" s="57"/>
+      <c r="E199" s="6"/>
+      <c r="F199" s="44"/>
+      <c r="G199" s="44"/>
+      <c r="H199" s="12"/>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A200" s="35"/>
-      <c r="B200" s="54"/>
-      <c r="C200" s="40"/>
-      <c r="D200" s="57"/>
-      <c r="E200" s="6"/>
-      <c r="F200" s="44"/>
-      <c r="G200" s="44"/>
-      <c r="H200" s="12"/>
+      <c r="A200" s="34"/>
+      <c r="B200" s="52"/>
+      <c r="C200" s="42"/>
+      <c r="D200" s="55"/>
+      <c r="E200" s="10"/>
+      <c r="F200" s="45"/>
+      <c r="G200" s="68"/>
+      <c r="H200" s="11"/>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A201" s="34"/>
-      <c r="B201" s="52"/>
-      <c r="C201" s="42"/>
-      <c r="D201" s="55"/>
-      <c r="E201" s="10"/>
-      <c r="F201" s="45"/>
-      <c r="G201" s="68"/>
-      <c r="H201" s="11"/>
+      <c r="A201" s="35"/>
+      <c r="B201" s="54"/>
+      <c r="C201" s="40"/>
+      <c r="D201" s="57"/>
+      <c r="E201" s="6"/>
+      <c r="F201" s="44"/>
+      <c r="G201" s="44"/>
+      <c r="H201" s="12"/>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A202" s="35"/>
-      <c r="B202" s="54"/>
-      <c r="C202" s="40"/>
-      <c r="D202" s="57"/>
-      <c r="E202" s="6"/>
-      <c r="F202" s="44"/>
-      <c r="G202" s="44"/>
-      <c r="H202" s="12"/>
+      <c r="A202" s="34"/>
+      <c r="B202" s="52"/>
+      <c r="C202" s="42"/>
+      <c r="D202" s="55"/>
+      <c r="E202" s="10"/>
+      <c r="F202" s="45"/>
+      <c r="G202" s="68"/>
+      <c r="H202" s="11"/>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A203" s="35"/>
+      <c r="B203" s="54"/>
+      <c r="C203" s="40"/>
+      <c r="D203" s="57"/>
+      <c r="E203" s="6"/>
+      <c r="F203" s="44"/>
+      <c r="G203" s="44"/>
+      <c r="H203" s="12"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/TS Jatai Working/TTD Krama PaaraayaNam-Kramam.xlsx
+++ b/TS Jatai Working/TTD Krama PaaraayaNam-Kramam.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="296">
   <si>
     <t>Date</t>
   </si>
@@ -866,6 +866,42 @@
   </si>
   <si>
     <t>6.2.1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.2.2.2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.2.2.3 </t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=KNbQZRrBuxQ&amp;list=PLjhrDIztP9pcSE8dR7xYZb7zwX5SXxNKy&amp;index=19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.2.6.4 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.2.7.1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.2.10.7 </t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=jaOsq7ARazU&amp;list=PLjhrDIztP9pcSE8dR7xYZb7zwX5SXxNKy&amp;index=20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.2.11.1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.2.11.4 </t>
+  </si>
+  <si>
+    <t>9 min 20 sec</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=yHVPOD63h08&amp;list=PLjhrDIztP9pcSE8dR7xYZb7zwX5SXxNKy&amp;index=19</t>
+  </si>
+  <si>
+    <t>6.3.1.1</t>
   </si>
 </sst>
 </file>
@@ -1575,11 +1611,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L203"/>
+  <dimension ref="A1:L204"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A145" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A156" sqref="A156"/>
+      <pane ySplit="4" topLeftCell="A152" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D163" sqref="D163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -4627,7 +4663,9 @@
       <c r="E156" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F156" s="43"/>
+      <c r="F156" s="43" t="s">
+        <v>284</v>
+      </c>
       <c r="G156" s="43" t="s">
         <v>13</v>
       </c>
@@ -4646,14 +4684,30 @@
       <c r="H157" s="12"/>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A158" s="36"/>
-      <c r="B158" s="53"/>
-      <c r="C158" s="41"/>
-      <c r="D158" s="56"/>
-      <c r="E158" s="2"/>
-      <c r="F158" s="43"/>
-      <c r="G158" s="68"/>
-      <c r="H158" s="13"/>
+      <c r="A158" s="36">
+        <v>64</v>
+      </c>
+      <c r="B158" s="53">
+        <v>44509</v>
+      </c>
+      <c r="C158" s="41">
+        <v>2</v>
+      </c>
+      <c r="D158" s="78" t="s">
+        <v>285</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F158" s="45" t="s">
+        <v>287</v>
+      </c>
+      <c r="G158" s="68" t="s">
+        <v>13</v>
+      </c>
+      <c r="H158" s="13" t="s">
+        <v>286</v>
+      </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" s="35"/>
@@ -4666,444 +4720,498 @@
       <c r="H159" s="12"/>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A160" s="34"/>
-      <c r="B160" s="52"/>
-      <c r="C160" s="42"/>
-      <c r="D160" s="55"/>
-      <c r="E160" s="10"/>
-      <c r="F160" s="45"/>
-      <c r="G160" s="68"/>
-      <c r="H160" s="11"/>
+      <c r="A160" s="34">
+        <v>65</v>
+      </c>
+      <c r="B160" s="52">
+        <v>44510</v>
+      </c>
+      <c r="C160" s="42">
+        <v>3</v>
+      </c>
+      <c r="D160" s="73" t="s">
+        <v>288</v>
+      </c>
+      <c r="E160" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F160" s="45" t="s">
+        <v>289</v>
+      </c>
+      <c r="G160" s="68" t="s">
+        <v>13</v>
+      </c>
+      <c r="H160" s="11" t="s">
+        <v>290</v>
+      </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A161" s="35"/>
-      <c r="B161" s="54"/>
-      <c r="C161" s="40"/>
-      <c r="D161" s="57"/>
-      <c r="E161" s="6"/>
-      <c r="F161" s="44"/>
-      <c r="G161" s="44"/>
-      <c r="H161" s="12"/>
+      <c r="A161" s="36"/>
+      <c r="B161" s="53"/>
+      <c r="C161" s="41"/>
+      <c r="D161" s="56"/>
+      <c r="E161" s="2"/>
+      <c r="F161" s="43"/>
+      <c r="G161" s="43"/>
+      <c r="H161" s="13"/>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A162" s="34"/>
-      <c r="B162" s="52"/>
-      <c r="C162" s="42"/>
-      <c r="D162" s="55"/>
-      <c r="E162" s="10"/>
-      <c r="F162" s="45"/>
-      <c r="G162" s="68"/>
-      <c r="H162" s="11"/>
+      <c r="A162" s="34">
+        <v>66</v>
+      </c>
+      <c r="B162" s="37">
+        <v>44511</v>
+      </c>
+      <c r="C162" s="42">
+        <v>4</v>
+      </c>
+      <c r="D162" s="73" t="s">
+        <v>291</v>
+      </c>
+      <c r="E162" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F162" s="45" t="s">
+        <v>292</v>
+      </c>
+      <c r="G162" s="45" t="s">
+        <v>293</v>
+      </c>
+      <c r="H162" s="11" t="s">
+        <v>294</v>
+      </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A163" s="35"/>
-      <c r="B163" s="54"/>
-      <c r="C163" s="40"/>
-      <c r="D163" s="57"/>
-      <c r="E163" s="6"/>
-      <c r="F163" s="44"/>
-      <c r="G163" s="44"/>
-      <c r="H163" s="12"/>
+      <c r="A163" s="36"/>
+      <c r="B163" s="39">
+        <v>44511</v>
+      </c>
+      <c r="C163" s="41">
+        <v>1</v>
+      </c>
+      <c r="D163" s="78" t="s">
+        <v>295</v>
+      </c>
+      <c r="E163" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F163" s="43"/>
+      <c r="G163" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="H163" s="13" t="s">
+        <v>294</v>
+      </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A164" s="34"/>
-      <c r="B164" s="52"/>
-      <c r="C164" s="42"/>
-      <c r="D164" s="55"/>
-      <c r="E164" s="10"/>
-      <c r="F164" s="45"/>
-      <c r="G164" s="68"/>
-      <c r="H164" s="11"/>
+      <c r="A164" s="35"/>
+      <c r="B164" s="38"/>
+      <c r="C164" s="40"/>
+      <c r="D164" s="7"/>
+      <c r="E164" s="6"/>
+      <c r="F164" s="44"/>
+      <c r="G164" s="44"/>
+      <c r="H164" s="12"/>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A165" s="35"/>
-      <c r="B165" s="54"/>
-      <c r="C165" s="40"/>
-      <c r="D165" s="57"/>
-      <c r="E165" s="6"/>
-      <c r="F165" s="44"/>
-      <c r="G165" s="44"/>
-      <c r="H165" s="12"/>
+      <c r="A165" s="36"/>
+      <c r="B165" s="53"/>
+      <c r="C165" s="41"/>
+      <c r="D165" s="56"/>
+      <c r="E165" s="2"/>
+      <c r="F165" s="43"/>
+      <c r="G165" s="68"/>
+      <c r="H165" s="13"/>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A166" s="34"/>
-      <c r="B166" s="52"/>
-      <c r="C166" s="42"/>
-      <c r="D166" s="55"/>
-      <c r="E166" s="10"/>
-      <c r="F166" s="45"/>
-      <c r="G166" s="68"/>
-      <c r="H166" s="11"/>
+      <c r="A166" s="35"/>
+      <c r="B166" s="54"/>
+      <c r="C166" s="40"/>
+      <c r="D166" s="57"/>
+      <c r="E166" s="6"/>
+      <c r="F166" s="44"/>
+      <c r="G166" s="44"/>
+      <c r="H166" s="12"/>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A167" s="35"/>
-      <c r="B167" s="54"/>
-      <c r="C167" s="40"/>
-      <c r="D167" s="57"/>
-      <c r="E167" s="6"/>
-      <c r="F167" s="44"/>
-      <c r="G167" s="44"/>
-      <c r="H167" s="12"/>
+      <c r="A167" s="34"/>
+      <c r="B167" s="52"/>
+      <c r="C167" s="42"/>
+      <c r="D167" s="55"/>
+      <c r="E167" s="10"/>
+      <c r="F167" s="45"/>
+      <c r="G167" s="68"/>
+      <c r="H167" s="11"/>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A168" s="34"/>
-      <c r="B168" s="52"/>
-      <c r="C168" s="42"/>
-      <c r="D168" s="55"/>
-      <c r="E168" s="10"/>
-      <c r="F168" s="45"/>
-      <c r="G168" s="68"/>
-      <c r="H168" s="11"/>
+      <c r="A168" s="35"/>
+      <c r="B168" s="54"/>
+      <c r="C168" s="40"/>
+      <c r="D168" s="57"/>
+      <c r="E168" s="6"/>
+      <c r="F168" s="44"/>
+      <c r="G168" s="44"/>
+      <c r="H168" s="12"/>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A169" s="35"/>
-      <c r="B169" s="54"/>
-      <c r="C169" s="40"/>
-      <c r="D169" s="57"/>
-      <c r="E169" s="6"/>
-      <c r="F169" s="44"/>
-      <c r="G169" s="44"/>
-      <c r="H169" s="12"/>
+      <c r="A169" s="34"/>
+      <c r="B169" s="52"/>
+      <c r="C169" s="42"/>
+      <c r="D169" s="55"/>
+      <c r="E169" s="10"/>
+      <c r="F169" s="45"/>
+      <c r="G169" s="68"/>
+      <c r="H169" s="11"/>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A170" s="34"/>
-      <c r="B170" s="52"/>
-      <c r="C170" s="42"/>
-      <c r="D170" s="55"/>
-      <c r="E170" s="10"/>
-      <c r="F170" s="45"/>
-      <c r="G170" s="68"/>
-      <c r="H170" s="11"/>
+      <c r="A170" s="35"/>
+      <c r="B170" s="54"/>
+      <c r="C170" s="40"/>
+      <c r="D170" s="57"/>
+      <c r="E170" s="6"/>
+      <c r="F170" s="44"/>
+      <c r="G170" s="44"/>
+      <c r="H170" s="12"/>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A171" s="35"/>
-      <c r="B171" s="54"/>
-      <c r="C171" s="40"/>
-      <c r="D171" s="57"/>
-      <c r="E171" s="6"/>
-      <c r="F171" s="44"/>
-      <c r="G171" s="44"/>
-      <c r="H171" s="12"/>
+      <c r="A171" s="34"/>
+      <c r="B171" s="52"/>
+      <c r="C171" s="42"/>
+      <c r="D171" s="55"/>
+      <c r="E171" s="10"/>
+      <c r="F171" s="45"/>
+      <c r="G171" s="68"/>
+      <c r="H171" s="11"/>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A172" s="34"/>
-      <c r="B172" s="52"/>
-      <c r="C172" s="42"/>
-      <c r="D172" s="55"/>
-      <c r="E172" s="10"/>
-      <c r="F172" s="45"/>
-      <c r="G172" s="68"/>
-      <c r="H172" s="11"/>
+      <c r="A172" s="35"/>
+      <c r="B172" s="54"/>
+      <c r="C172" s="40"/>
+      <c r="D172" s="57"/>
+      <c r="E172" s="6"/>
+      <c r="F172" s="44"/>
+      <c r="G172" s="44"/>
+      <c r="H172" s="12"/>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A173" s="35"/>
-      <c r="B173" s="54"/>
-      <c r="C173" s="40"/>
-      <c r="D173" s="57"/>
-      <c r="E173" s="6"/>
-      <c r="F173" s="44"/>
-      <c r="G173" s="44"/>
-      <c r="H173" s="12"/>
+      <c r="A173" s="34"/>
+      <c r="B173" s="52"/>
+      <c r="C173" s="42"/>
+      <c r="D173" s="55"/>
+      <c r="E173" s="10"/>
+      <c r="F173" s="45"/>
+      <c r="G173" s="68"/>
+      <c r="H173" s="11"/>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A174" s="34"/>
-      <c r="B174" s="52"/>
-      <c r="C174" s="42"/>
-      <c r="D174" s="55"/>
-      <c r="E174" s="10"/>
-      <c r="F174" s="45"/>
-      <c r="G174" s="68"/>
-      <c r="H174" s="11"/>
+      <c r="A174" s="35"/>
+      <c r="B174" s="54"/>
+      <c r="C174" s="40"/>
+      <c r="D174" s="57"/>
+      <c r="E174" s="6"/>
+      <c r="F174" s="44"/>
+      <c r="G174" s="44"/>
+      <c r="H174" s="12"/>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A175" s="35"/>
-      <c r="B175" s="54"/>
-      <c r="C175" s="40"/>
-      <c r="D175" s="57"/>
-      <c r="E175" s="6"/>
-      <c r="F175" s="44"/>
-      <c r="G175" s="44"/>
-      <c r="H175" s="12"/>
+      <c r="A175" s="34"/>
+      <c r="B175" s="52"/>
+      <c r="C175" s="42"/>
+      <c r="D175" s="55"/>
+      <c r="E175" s="10"/>
+      <c r="F175" s="45"/>
+      <c r="G175" s="68"/>
+      <c r="H175" s="11"/>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A176" s="34"/>
-      <c r="B176" s="52"/>
-      <c r="C176" s="42"/>
-      <c r="D176" s="55"/>
-      <c r="E176" s="10"/>
-      <c r="F176" s="45"/>
-      <c r="G176" s="68"/>
-      <c r="H176" s="11"/>
+      <c r="A176" s="35"/>
+      <c r="B176" s="54"/>
+      <c r="C176" s="40"/>
+      <c r="D176" s="57"/>
+      <c r="E176" s="6"/>
+      <c r="F176" s="44"/>
+      <c r="G176" s="44"/>
+      <c r="H176" s="12"/>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A177" s="35"/>
-      <c r="B177" s="54"/>
-      <c r="C177" s="40"/>
-      <c r="D177" s="57"/>
-      <c r="E177" s="6"/>
-      <c r="F177" s="44"/>
-      <c r="G177" s="44"/>
-      <c r="H177" s="12"/>
+      <c r="A177" s="34"/>
+      <c r="B177" s="52"/>
+      <c r="C177" s="42"/>
+      <c r="D177" s="55"/>
+      <c r="E177" s="10"/>
+      <c r="F177" s="45"/>
+      <c r="G177" s="68"/>
+      <c r="H177" s="11"/>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A178" s="34"/>
-      <c r="B178" s="52"/>
-      <c r="C178" s="42"/>
-      <c r="D178" s="55"/>
-      <c r="E178" s="10"/>
-      <c r="F178" s="45"/>
-      <c r="G178" s="68"/>
-      <c r="H178" s="11"/>
+      <c r="A178" s="35"/>
+      <c r="B178" s="54"/>
+      <c r="C178" s="40"/>
+      <c r="D178" s="57"/>
+      <c r="E178" s="6"/>
+      <c r="F178" s="44"/>
+      <c r="G178" s="44"/>
+      <c r="H178" s="12"/>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A179" s="35"/>
-      <c r="B179" s="54"/>
-      <c r="C179" s="40"/>
-      <c r="D179" s="57"/>
-      <c r="E179" s="6"/>
-      <c r="F179" s="44"/>
-      <c r="G179" s="44"/>
-      <c r="H179" s="12"/>
+      <c r="A179" s="34"/>
+      <c r="B179" s="52"/>
+      <c r="C179" s="42"/>
+      <c r="D179" s="55"/>
+      <c r="E179" s="10"/>
+      <c r="F179" s="45"/>
+      <c r="G179" s="68"/>
+      <c r="H179" s="11"/>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A180" s="34"/>
-      <c r="B180" s="52"/>
-      <c r="C180" s="42"/>
-      <c r="D180" s="55"/>
-      <c r="E180" s="10"/>
-      <c r="F180" s="45"/>
-      <c r="G180" s="68"/>
-      <c r="H180" s="11"/>
+      <c r="A180" s="35"/>
+      <c r="B180" s="54"/>
+      <c r="C180" s="40"/>
+      <c r="D180" s="57"/>
+      <c r="E180" s="6"/>
+      <c r="F180" s="44"/>
+      <c r="G180" s="44"/>
+      <c r="H180" s="12"/>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A181" s="35"/>
-      <c r="B181" s="54"/>
-      <c r="C181" s="40"/>
-      <c r="D181" s="57"/>
-      <c r="E181" s="6"/>
-      <c r="F181" s="44"/>
-      <c r="G181" s="44"/>
-      <c r="H181" s="12"/>
+      <c r="A181" s="34"/>
+      <c r="B181" s="52"/>
+      <c r="C181" s="42"/>
+      <c r="D181" s="55"/>
+      <c r="E181" s="10"/>
+      <c r="F181" s="45"/>
+      <c r="G181" s="68"/>
+      <c r="H181" s="11"/>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A182" s="34"/>
-      <c r="B182" s="52"/>
-      <c r="C182" s="42"/>
-      <c r="D182" s="55"/>
-      <c r="E182" s="10"/>
-      <c r="F182" s="45"/>
-      <c r="G182" s="68"/>
-      <c r="H182" s="11"/>
+      <c r="A182" s="35"/>
+      <c r="B182" s="54"/>
+      <c r="C182" s="40"/>
+      <c r="D182" s="57"/>
+      <c r="E182" s="6"/>
+      <c r="F182" s="44"/>
+      <c r="G182" s="44"/>
+      <c r="H182" s="12"/>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A183" s="35"/>
-      <c r="B183" s="54"/>
-      <c r="C183" s="40"/>
-      <c r="D183" s="57"/>
-      <c r="E183" s="6"/>
-      <c r="F183" s="44"/>
-      <c r="G183" s="44"/>
-      <c r="H183" s="12"/>
+      <c r="A183" s="34"/>
+      <c r="B183" s="52"/>
+      <c r="C183" s="42"/>
+      <c r="D183" s="55"/>
+      <c r="E183" s="10"/>
+      <c r="F183" s="45"/>
+      <c r="G183" s="68"/>
+      <c r="H183" s="11"/>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A184" s="34"/>
-      <c r="B184" s="52"/>
-      <c r="C184" s="42"/>
-      <c r="D184" s="55"/>
-      <c r="E184" s="10"/>
-      <c r="F184" s="45"/>
-      <c r="G184" s="68"/>
-      <c r="H184" s="11"/>
+      <c r="A184" s="35"/>
+      <c r="B184" s="54"/>
+      <c r="C184" s="40"/>
+      <c r="D184" s="57"/>
+      <c r="E184" s="6"/>
+      <c r="F184" s="44"/>
+      <c r="G184" s="44"/>
+      <c r="H184" s="12"/>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A185" s="35"/>
-      <c r="B185" s="54"/>
-      <c r="C185" s="40"/>
-      <c r="D185" s="57"/>
-      <c r="E185" s="6"/>
-      <c r="F185" s="44"/>
-      <c r="G185" s="44"/>
-      <c r="H185" s="12"/>
+      <c r="A185" s="34"/>
+      <c r="B185" s="52"/>
+      <c r="C185" s="42"/>
+      <c r="D185" s="55"/>
+      <c r="E185" s="10"/>
+      <c r="F185" s="45"/>
+      <c r="G185" s="68"/>
+      <c r="H185" s="11"/>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A186" s="34"/>
-      <c r="B186" s="52"/>
-      <c r="C186" s="42"/>
-      <c r="D186" s="55"/>
-      <c r="E186" s="10"/>
-      <c r="F186" s="45"/>
-      <c r="G186" s="68"/>
-      <c r="H186" s="11"/>
+      <c r="A186" s="35"/>
+      <c r="B186" s="54"/>
+      <c r="C186" s="40"/>
+      <c r="D186" s="57"/>
+      <c r="E186" s="6"/>
+      <c r="F186" s="44"/>
+      <c r="G186" s="44"/>
+      <c r="H186" s="12"/>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A187" s="35"/>
-      <c r="B187" s="54"/>
-      <c r="C187" s="40"/>
-      <c r="D187" s="57"/>
-      <c r="E187" s="6"/>
-      <c r="F187" s="44"/>
-      <c r="G187" s="44"/>
-      <c r="H187" s="12"/>
+      <c r="A187" s="34"/>
+      <c r="B187" s="52"/>
+      <c r="C187" s="42"/>
+      <c r="D187" s="55"/>
+      <c r="E187" s="10"/>
+      <c r="F187" s="45"/>
+      <c r="G187" s="68"/>
+      <c r="H187" s="11"/>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A188" s="34"/>
-      <c r="B188" s="52"/>
-      <c r="C188" s="42"/>
-      <c r="D188" s="55"/>
-      <c r="E188" s="10"/>
-      <c r="F188" s="45"/>
-      <c r="G188" s="68"/>
-      <c r="H188" s="11"/>
+      <c r="A188" s="35"/>
+      <c r="B188" s="54"/>
+      <c r="C188" s="40"/>
+      <c r="D188" s="57"/>
+      <c r="E188" s="6"/>
+      <c r="F188" s="44"/>
+      <c r="G188" s="44"/>
+      <c r="H188" s="12"/>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A189" s="35"/>
-      <c r="B189" s="54"/>
-      <c r="C189" s="40"/>
-      <c r="D189" s="57"/>
-      <c r="E189" s="6"/>
-      <c r="F189" s="44"/>
-      <c r="G189" s="44"/>
-      <c r="H189" s="12"/>
+      <c r="A189" s="34"/>
+      <c r="B189" s="52"/>
+      <c r="C189" s="42"/>
+      <c r="D189" s="55"/>
+      <c r="E189" s="10"/>
+      <c r="F189" s="45"/>
+      <c r="G189" s="68"/>
+      <c r="H189" s="11"/>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A190" s="34"/>
-      <c r="B190" s="52"/>
-      <c r="C190" s="42"/>
-      <c r="D190" s="55"/>
-      <c r="E190" s="10"/>
-      <c r="F190" s="45"/>
-      <c r="G190" s="68"/>
-      <c r="H190" s="11"/>
+      <c r="A190" s="35"/>
+      <c r="B190" s="54"/>
+      <c r="C190" s="40"/>
+      <c r="D190" s="57"/>
+      <c r="E190" s="6"/>
+      <c r="F190" s="44"/>
+      <c r="G190" s="44"/>
+      <c r="H190" s="12"/>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A191" s="35"/>
-      <c r="B191" s="54"/>
-      <c r="C191" s="40"/>
-      <c r="D191" s="57"/>
-      <c r="E191" s="6"/>
-      <c r="F191" s="44"/>
-      <c r="G191" s="44"/>
-      <c r="H191" s="12"/>
+      <c r="A191" s="34"/>
+      <c r="B191" s="52"/>
+      <c r="C191" s="42"/>
+      <c r="D191" s="55"/>
+      <c r="E191" s="10"/>
+      <c r="F191" s="45"/>
+      <c r="G191" s="68"/>
+      <c r="H191" s="11"/>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A192" s="34"/>
-      <c r="B192" s="52"/>
-      <c r="C192" s="42"/>
-      <c r="D192" s="55"/>
-      <c r="E192" s="10"/>
-      <c r="F192" s="45"/>
-      <c r="G192" s="68"/>
-      <c r="H192" s="11"/>
+      <c r="A192" s="35"/>
+      <c r="B192" s="54"/>
+      <c r="C192" s="40"/>
+      <c r="D192" s="57"/>
+      <c r="E192" s="6"/>
+      <c r="F192" s="44"/>
+      <c r="G192" s="44"/>
+      <c r="H192" s="12"/>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A193" s="35"/>
-      <c r="B193" s="54"/>
-      <c r="C193" s="40"/>
-      <c r="D193" s="57"/>
-      <c r="E193" s="6"/>
-      <c r="F193" s="44"/>
-      <c r="G193" s="44"/>
-      <c r="H193" s="12"/>
+      <c r="A193" s="34"/>
+      <c r="B193" s="52"/>
+      <c r="C193" s="42"/>
+      <c r="D193" s="55"/>
+      <c r="E193" s="10"/>
+      <c r="F193" s="45"/>
+      <c r="G193" s="68"/>
+      <c r="H193" s="11"/>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A194" s="34"/>
-      <c r="B194" s="52"/>
-      <c r="C194" s="42"/>
-      <c r="D194" s="55"/>
-      <c r="E194" s="10"/>
-      <c r="F194" s="45"/>
-      <c r="G194" s="68"/>
-      <c r="H194" s="11"/>
+      <c r="A194" s="35"/>
+      <c r="B194" s="54"/>
+      <c r="C194" s="40"/>
+      <c r="D194" s="57"/>
+      <c r="E194" s="6"/>
+      <c r="F194" s="44"/>
+      <c r="G194" s="44"/>
+      <c r="H194" s="12"/>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A195" s="35"/>
-      <c r="B195" s="54"/>
-      <c r="C195" s="40"/>
-      <c r="D195" s="57"/>
-      <c r="E195" s="6"/>
-      <c r="F195" s="44"/>
-      <c r="G195" s="44"/>
-      <c r="H195" s="12"/>
+      <c r="A195" s="34"/>
+      <c r="B195" s="52"/>
+      <c r="C195" s="42"/>
+      <c r="D195" s="55"/>
+      <c r="E195" s="10"/>
+      <c r="F195" s="45"/>
+      <c r="G195" s="68"/>
+      <c r="H195" s="11"/>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A196" s="34"/>
-      <c r="B196" s="52"/>
-      <c r="C196" s="42"/>
-      <c r="D196" s="55"/>
-      <c r="E196" s="10"/>
-      <c r="F196" s="45"/>
-      <c r="G196" s="68"/>
-      <c r="H196" s="11"/>
+      <c r="A196" s="35"/>
+      <c r="B196" s="54"/>
+      <c r="C196" s="40"/>
+      <c r="D196" s="57"/>
+      <c r="E196" s="6"/>
+      <c r="F196" s="44"/>
+      <c r="G196" s="44"/>
+      <c r="H196" s="12"/>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A197" s="35"/>
-      <c r="B197" s="54"/>
-      <c r="C197" s="40"/>
-      <c r="D197" s="57"/>
-      <c r="E197" s="6"/>
-      <c r="F197" s="44"/>
-      <c r="G197" s="44"/>
-      <c r="H197" s="12"/>
+      <c r="A197" s="34"/>
+      <c r="B197" s="52"/>
+      <c r="C197" s="42"/>
+      <c r="D197" s="55"/>
+      <c r="E197" s="10"/>
+      <c r="F197" s="45"/>
+      <c r="G197" s="68"/>
+      <c r="H197" s="11"/>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A198" s="34"/>
-      <c r="B198" s="52"/>
-      <c r="C198" s="42"/>
-      <c r="D198" s="55"/>
-      <c r="E198" s="10"/>
-      <c r="F198" s="45"/>
-      <c r="G198" s="68"/>
-      <c r="H198" s="11"/>
+      <c r="A198" s="35"/>
+      <c r="B198" s="54"/>
+      <c r="C198" s="40"/>
+      <c r="D198" s="57"/>
+      <c r="E198" s="6"/>
+      <c r="F198" s="44"/>
+      <c r="G198" s="44"/>
+      <c r="H198" s="12"/>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A199" s="35"/>
-      <c r="B199" s="54"/>
-      <c r="C199" s="40"/>
-      <c r="D199" s="57"/>
-      <c r="E199" s="6"/>
-      <c r="F199" s="44"/>
-      <c r="G199" s="44"/>
-      <c r="H199" s="12"/>
+      <c r="A199" s="34"/>
+      <c r="B199" s="52"/>
+      <c r="C199" s="42"/>
+      <c r="D199" s="55"/>
+      <c r="E199" s="10"/>
+      <c r="F199" s="45"/>
+      <c r="G199" s="68"/>
+      <c r="H199" s="11"/>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A200" s="34"/>
-      <c r="B200" s="52"/>
-      <c r="C200" s="42"/>
-      <c r="D200" s="55"/>
-      <c r="E200" s="10"/>
-      <c r="F200" s="45"/>
-      <c r="G200" s="68"/>
-      <c r="H200" s="11"/>
+      <c r="A200" s="35"/>
+      <c r="B200" s="54"/>
+      <c r="C200" s="40"/>
+      <c r="D200" s="57"/>
+      <c r="E200" s="6"/>
+      <c r="F200" s="44"/>
+      <c r="G200" s="44"/>
+      <c r="H200" s="12"/>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A201" s="35"/>
-      <c r="B201" s="54"/>
-      <c r="C201" s="40"/>
-      <c r="D201" s="57"/>
-      <c r="E201" s="6"/>
-      <c r="F201" s="44"/>
-      <c r="G201" s="44"/>
-      <c r="H201" s="12"/>
+      <c r="A201" s="34"/>
+      <c r="B201" s="52"/>
+      <c r="C201" s="42"/>
+      <c r="D201" s="55"/>
+      <c r="E201" s="10"/>
+      <c r="F201" s="45"/>
+      <c r="G201" s="68"/>
+      <c r="H201" s="11"/>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A202" s="34"/>
-      <c r="B202" s="52"/>
-      <c r="C202" s="42"/>
-      <c r="D202" s="55"/>
-      <c r="E202" s="10"/>
-      <c r="F202" s="45"/>
-      <c r="G202" s="68"/>
-      <c r="H202" s="11"/>
+      <c r="A202" s="35"/>
+      <c r="B202" s="54"/>
+      <c r="C202" s="40"/>
+      <c r="D202" s="57"/>
+      <c r="E202" s="6"/>
+      <c r="F202" s="44"/>
+      <c r="G202" s="44"/>
+      <c r="H202" s="12"/>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A203" s="35"/>
-      <c r="B203" s="54"/>
-      <c r="C203" s="40"/>
-      <c r="D203" s="57"/>
-      <c r="E203" s="6"/>
-      <c r="F203" s="44"/>
-      <c r="G203" s="44"/>
-      <c r="H203" s="12"/>
+      <c r="A203" s="34"/>
+      <c r="B203" s="52"/>
+      <c r="C203" s="42"/>
+      <c r="D203" s="55"/>
+      <c r="E203" s="10"/>
+      <c r="F203" s="45"/>
+      <c r="G203" s="68"/>
+      <c r="H203" s="11"/>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A204" s="35"/>
+      <c r="B204" s="54"/>
+      <c r="C204" s="40"/>
+      <c r="D204" s="57"/>
+      <c r="E204" s="6"/>
+      <c r="F204" s="44"/>
+      <c r="G204" s="44"/>
+      <c r="H204" s="12"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/TS Jatai Working/TTD Krama PaaraayaNam-Kramam.xlsx
+++ b/TS Jatai Working/TTD Krama PaaraayaNam-Kramam.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="304">
   <si>
     <t>Date</t>
   </si>
@@ -902,6 +902,30 @@
   </si>
   <si>
     <t>6.3.1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.3.3.6 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.3.4.1 </t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=iQ3_fa7zNyU&amp;list=PLjhrDIztP9pcSE8dR7xYZb7zwX5SXxNKy&amp;index=20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.3.6.4 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.3.7.1 </t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=d9In4c10BcU&amp;list=PLjhrDIztP9pcSE8dR7xYZb7zwX5SXxNKy&amp;index=19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.3.11.6 </t>
+  </si>
+  <si>
+    <t>6.4.1.1</t>
   </si>
 </sst>
 </file>
@@ -1614,8 +1638,8 @@
   <dimension ref="A1:L204"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A152" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D163" sqref="D163"/>
+      <pane ySplit="4" topLeftCell="A158" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E170" sqref="E170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -4795,7 +4819,9 @@
       <c r="E163" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F163" s="43"/>
+      <c r="F163" s="43" t="s">
+        <v>296</v>
+      </c>
       <c r="G163" s="43" t="s">
         <v>13</v>
       </c>
@@ -4814,14 +4840,30 @@
       <c r="H164" s="12"/>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A165" s="36"/>
-      <c r="B165" s="53"/>
-      <c r="C165" s="41"/>
-      <c r="D165" s="56"/>
-      <c r="E165" s="2"/>
-      <c r="F165" s="43"/>
-      <c r="G165" s="68"/>
-      <c r="H165" s="13"/>
+      <c r="A165" s="36">
+        <v>67</v>
+      </c>
+      <c r="B165" s="53">
+        <v>44512</v>
+      </c>
+      <c r="C165" s="41">
+        <v>2</v>
+      </c>
+      <c r="D165" s="73" t="s">
+        <v>297</v>
+      </c>
+      <c r="E165" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F165" s="45" t="s">
+        <v>299</v>
+      </c>
+      <c r="G165" s="68" t="s">
+        <v>13</v>
+      </c>
+      <c r="H165" s="13" t="s">
+        <v>298</v>
+      </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" s="35"/>
@@ -4834,14 +4876,30 @@
       <c r="H166" s="12"/>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A167" s="34"/>
-      <c r="B167" s="52"/>
-      <c r="C167" s="42"/>
-      <c r="D167" s="55"/>
-      <c r="E167" s="10"/>
-      <c r="F167" s="45"/>
-      <c r="G167" s="68"/>
-      <c r="H167" s="11"/>
+      <c r="A167" s="34">
+        <v>68</v>
+      </c>
+      <c r="B167" s="52">
+        <v>44513</v>
+      </c>
+      <c r="C167" s="42">
+        <v>3</v>
+      </c>
+      <c r="D167" s="73" t="s">
+        <v>300</v>
+      </c>
+      <c r="E167" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F167" s="45" t="s">
+        <v>302</v>
+      </c>
+      <c r="G167" s="68" t="s">
+        <v>13</v>
+      </c>
+      <c r="H167" s="11" t="s">
+        <v>301</v>
+      </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" s="35"/>
@@ -4854,11 +4912,21 @@
       <c r="H168" s="12"/>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A169" s="34"/>
-      <c r="B169" s="52"/>
-      <c r="C169" s="42"/>
-      <c r="D169" s="55"/>
-      <c r="E169" s="10"/>
+      <c r="A169" s="34">
+        <v>69</v>
+      </c>
+      <c r="B169" s="52">
+        <v>44514</v>
+      </c>
+      <c r="C169" s="42">
+        <v>1</v>
+      </c>
+      <c r="D169" s="55" t="s">
+        <v>303</v>
+      </c>
+      <c r="E169" s="10" t="s">
+        <v>9</v>
+      </c>
       <c r="F169" s="45"/>
       <c r="G169" s="68"/>
       <c r="H169" s="11"/>

--- a/TS Jatai Working/TTD Krama PaaraayaNam-Kramam.xlsx
+++ b/TS Jatai Working/TTD Krama PaaraayaNam-Kramam.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="310">
   <si>
     <t>Date</t>
   </si>
@@ -926,6 +926,24 @@
   </si>
   <si>
     <t>6.4.1.1</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=jtxWmESDApI&amp;list=PLjhrDIztP9pcSE8dR7xYZb7zwX5SXxNKy&amp;index=18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.4.3.2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.4.3.3 </t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=2XpOLFw8VIc&amp;list=PLjhrDIztP9pcSE8dR7xYZb7zwX5SXxNKy&amp;index=17</t>
+  </si>
+  <si>
+    <t>6.4.8.3</t>
+  </si>
+  <si>
+    <t>6.4.9.1</t>
   </si>
 </sst>
 </file>
@@ -1638,8 +1656,8 @@
   <dimension ref="A1:L204"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A158" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E170" sqref="E170"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H171" sqref="H171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -4927,9 +4945,15 @@
       <c r="E169" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F169" s="45"/>
-      <c r="G169" s="68"/>
-      <c r="H169" s="11"/>
+      <c r="F169" s="45" t="s">
+        <v>305</v>
+      </c>
+      <c r="G169" s="68" t="s">
+        <v>13</v>
+      </c>
+      <c r="H169" s="11" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" s="35"/>
@@ -4942,14 +4966,30 @@
       <c r="H170" s="12"/>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A171" s="34"/>
-      <c r="B171" s="52"/>
-      <c r="C171" s="42"/>
-      <c r="D171" s="55"/>
-      <c r="E171" s="10"/>
-      <c r="F171" s="45"/>
-      <c r="G171" s="68"/>
-      <c r="H171" s="11"/>
+      <c r="A171" s="34">
+        <v>70</v>
+      </c>
+      <c r="B171" s="52">
+        <v>44515</v>
+      </c>
+      <c r="C171" s="42">
+        <v>2</v>
+      </c>
+      <c r="D171" s="55" t="s">
+        <v>306</v>
+      </c>
+      <c r="E171" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F171" s="45" t="s">
+        <v>308</v>
+      </c>
+      <c r="G171" s="68" t="s">
+        <v>13</v>
+      </c>
+      <c r="H171" s="11" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" s="35"/>
@@ -4962,11 +5002,21 @@
       <c r="H172" s="12"/>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A173" s="34"/>
-      <c r="B173" s="52"/>
-      <c r="C173" s="42"/>
-      <c r="D173" s="55"/>
-      <c r="E173" s="10"/>
+      <c r="A173" s="34">
+        <v>71</v>
+      </c>
+      <c r="B173" s="52">
+        <v>44516</v>
+      </c>
+      <c r="C173" s="42">
+        <v>3</v>
+      </c>
+      <c r="D173" s="55" t="s">
+        <v>309</v>
+      </c>
+      <c r="E173" s="10" t="s">
+        <v>9</v>
+      </c>
       <c r="F173" s="45"/>
       <c r="G173" s="68"/>
       <c r="H173" s="11"/>

--- a/TS Jatai Working/TTD Krama PaaraayaNam-Kramam.xlsx
+++ b/TS Jatai Working/TTD Krama PaaraayaNam-Kramam.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="314">
   <si>
     <t>Date</t>
   </si>
@@ -944,6 +944,18 @@
   </si>
   <si>
     <t>6.4.9.1</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=5xnGXzpdQJE&amp;list=PLjhrDIztP9pcSE8dR7xYZb7zwX5SXxNKy&amp;index=17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.4.11.4 </t>
+  </si>
+  <si>
+    <t>21 min 51 sec</t>
+  </si>
+  <si>
+    <t>6.5.1.1</t>
   </si>
 </sst>
 </file>
@@ -1653,11 +1665,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L204"/>
+  <dimension ref="A1:L205"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H171" sqref="H171"/>
+      <pane ySplit="4" topLeftCell="A164" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G174" sqref="G174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -4992,23 +5004,23 @@
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A172" s="35"/>
-      <c r="B172" s="54"/>
-      <c r="C172" s="40"/>
-      <c r="D172" s="57"/>
-      <c r="E172" s="6"/>
-      <c r="F172" s="44"/>
-      <c r="G172" s="44"/>
-      <c r="H172" s="12"/>
+      <c r="A172" s="36"/>
+      <c r="B172" s="53"/>
+      <c r="C172" s="41"/>
+      <c r="D172" s="56"/>
+      <c r="E172" s="2"/>
+      <c r="F172" s="43"/>
+      <c r="G172" s="43"/>
+      <c r="H172" s="13"/>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A173" s="34">
+      <c r="A173" s="69">
         <v>71</v>
       </c>
       <c r="B173" s="52">
         <v>44516</v>
       </c>
-      <c r="C173" s="42">
+      <c r="C173" s="34">
         <v>3</v>
       </c>
       <c r="D173" s="55" t="s">
@@ -5017,319 +5029,347 @@
       <c r="E173" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F173" s="45"/>
-      <c r="G173" s="68"/>
-      <c r="H173" s="11"/>
+      <c r="F173" s="45" t="s">
+        <v>311</v>
+      </c>
+      <c r="G173" s="58" t="s">
+        <v>312</v>
+      </c>
+      <c r="H173" s="11" t="s">
+        <v>310</v>
+      </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A174" s="35"/>
-      <c r="B174" s="54"/>
-      <c r="C174" s="40"/>
-      <c r="D174" s="57"/>
-      <c r="E174" s="6"/>
-      <c r="F174" s="44"/>
-      <c r="G174" s="44"/>
-      <c r="H174" s="12"/>
+      <c r="A174" s="70"/>
+      <c r="B174" s="53">
+        <v>44516</v>
+      </c>
+      <c r="C174" s="36">
+        <v>3</v>
+      </c>
+      <c r="D174" s="56" t="s">
+        <v>313</v>
+      </c>
+      <c r="E174" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F174" s="43"/>
+      <c r="G174" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="H174" s="13" t="s">
+        <v>310</v>
+      </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A175" s="34"/>
-      <c r="B175" s="52"/>
-      <c r="C175" s="42"/>
-      <c r="D175" s="55"/>
-      <c r="E175" s="10"/>
-      <c r="F175" s="45"/>
-      <c r="G175" s="68"/>
-      <c r="H175" s="11"/>
+      <c r="A175" s="64"/>
+      <c r="B175" s="54"/>
+      <c r="C175" s="35"/>
+      <c r="D175" s="57"/>
+      <c r="E175" s="6"/>
+      <c r="F175" s="44"/>
+      <c r="G175" s="59"/>
+      <c r="H175" s="12"/>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A176" s="35"/>
-      <c r="B176" s="54"/>
-      <c r="C176" s="40"/>
-      <c r="D176" s="57"/>
-      <c r="E176" s="6"/>
-      <c r="F176" s="44"/>
-      <c r="G176" s="44"/>
-      <c r="H176" s="12"/>
+      <c r="A176" s="36"/>
+      <c r="B176" s="53"/>
+      <c r="C176" s="41"/>
+      <c r="D176" s="56"/>
+      <c r="E176" s="2"/>
+      <c r="F176" s="43"/>
+      <c r="G176" s="68"/>
+      <c r="H176" s="13"/>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A177" s="34"/>
-      <c r="B177" s="52"/>
-      <c r="C177" s="42"/>
-      <c r="D177" s="55"/>
-      <c r="E177" s="10"/>
-      <c r="F177" s="45"/>
-      <c r="G177" s="68"/>
-      <c r="H177" s="11"/>
+      <c r="A177" s="35"/>
+      <c r="B177" s="54"/>
+      <c r="C177" s="40"/>
+      <c r="D177" s="57"/>
+      <c r="E177" s="6"/>
+      <c r="F177" s="44"/>
+      <c r="G177" s="44"/>
+      <c r="H177" s="12"/>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A178" s="35"/>
-      <c r="B178" s="54"/>
-      <c r="C178" s="40"/>
-      <c r="D178" s="57"/>
-      <c r="E178" s="6"/>
-      <c r="F178" s="44"/>
-      <c r="G178" s="44"/>
-      <c r="H178" s="12"/>
+      <c r="A178" s="34"/>
+      <c r="B178" s="52"/>
+      <c r="C178" s="42"/>
+      <c r="D178" s="55"/>
+      <c r="E178" s="10"/>
+      <c r="F178" s="45"/>
+      <c r="G178" s="68"/>
+      <c r="H178" s="11"/>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A179" s="34"/>
-      <c r="B179" s="52"/>
-      <c r="C179" s="42"/>
-      <c r="D179" s="55"/>
-      <c r="E179" s="10"/>
-      <c r="F179" s="45"/>
-      <c r="G179" s="68"/>
-      <c r="H179" s="11"/>
+      <c r="A179" s="35"/>
+      <c r="B179" s="54"/>
+      <c r="C179" s="40"/>
+      <c r="D179" s="57"/>
+      <c r="E179" s="6"/>
+      <c r="F179" s="44"/>
+      <c r="G179" s="44"/>
+      <c r="H179" s="12"/>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A180" s="35"/>
-      <c r="B180" s="54"/>
-      <c r="C180" s="40"/>
-      <c r="D180" s="57"/>
-      <c r="E180" s="6"/>
-      <c r="F180" s="44"/>
-      <c r="G180" s="44"/>
-      <c r="H180" s="12"/>
+      <c r="A180" s="34"/>
+      <c r="B180" s="52"/>
+      <c r="C180" s="42"/>
+      <c r="D180" s="55"/>
+      <c r="E180" s="10"/>
+      <c r="F180" s="45"/>
+      <c r="G180" s="68"/>
+      <c r="H180" s="11"/>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A181" s="34"/>
-      <c r="B181" s="52"/>
-      <c r="C181" s="42"/>
-      <c r="D181" s="55"/>
-      <c r="E181" s="10"/>
-      <c r="F181" s="45"/>
-      <c r="G181" s="68"/>
-      <c r="H181" s="11"/>
+      <c r="A181" s="35"/>
+      <c r="B181" s="54"/>
+      <c r="C181" s="40"/>
+      <c r="D181" s="57"/>
+      <c r="E181" s="6"/>
+      <c r="F181" s="44"/>
+      <c r="G181" s="44"/>
+      <c r="H181" s="12"/>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A182" s="35"/>
-      <c r="B182" s="54"/>
-      <c r="C182" s="40"/>
-      <c r="D182" s="57"/>
-      <c r="E182" s="6"/>
-      <c r="F182" s="44"/>
-      <c r="G182" s="44"/>
-      <c r="H182" s="12"/>
+      <c r="A182" s="34"/>
+      <c r="B182" s="52"/>
+      <c r="C182" s="42"/>
+      <c r="D182" s="55"/>
+      <c r="E182" s="10"/>
+      <c r="F182" s="45"/>
+      <c r="G182" s="68"/>
+      <c r="H182" s="11"/>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A183" s="34"/>
-      <c r="B183" s="52"/>
-      <c r="C183" s="42"/>
-      <c r="D183" s="55"/>
-      <c r="E183" s="10"/>
-      <c r="F183" s="45"/>
-      <c r="G183" s="68"/>
-      <c r="H183" s="11"/>
+      <c r="A183" s="35"/>
+      <c r="B183" s="54"/>
+      <c r="C183" s="40"/>
+      <c r="D183" s="57"/>
+      <c r="E183" s="6"/>
+      <c r="F183" s="44"/>
+      <c r="G183" s="44"/>
+      <c r="H183" s="12"/>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A184" s="35"/>
-      <c r="B184" s="54"/>
-      <c r="C184" s="40"/>
-      <c r="D184" s="57"/>
-      <c r="E184" s="6"/>
-      <c r="F184" s="44"/>
-      <c r="G184" s="44"/>
-      <c r="H184" s="12"/>
+      <c r="A184" s="34"/>
+      <c r="B184" s="52"/>
+      <c r="C184" s="42"/>
+      <c r="D184" s="55"/>
+      <c r="E184" s="10"/>
+      <c r="F184" s="45"/>
+      <c r="G184" s="68"/>
+      <c r="H184" s="11"/>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A185" s="34"/>
-      <c r="B185" s="52"/>
-      <c r="C185" s="42"/>
-      <c r="D185" s="55"/>
-      <c r="E185" s="10"/>
-      <c r="F185" s="45"/>
-      <c r="G185" s="68"/>
-      <c r="H185" s="11"/>
+      <c r="A185" s="35"/>
+      <c r="B185" s="54"/>
+      <c r="C185" s="40"/>
+      <c r="D185" s="57"/>
+      <c r="E185" s="6"/>
+      <c r="F185" s="44"/>
+      <c r="G185" s="44"/>
+      <c r="H185" s="12"/>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A186" s="35"/>
-      <c r="B186" s="54"/>
-      <c r="C186" s="40"/>
-      <c r="D186" s="57"/>
-      <c r="E186" s="6"/>
-      <c r="F186" s="44"/>
-      <c r="G186" s="44"/>
-      <c r="H186" s="12"/>
+      <c r="A186" s="34"/>
+      <c r="B186" s="52"/>
+      <c r="C186" s="42"/>
+      <c r="D186" s="55"/>
+      <c r="E186" s="10"/>
+      <c r="F186" s="45"/>
+      <c r="G186" s="68"/>
+      <c r="H186" s="11"/>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A187" s="34"/>
-      <c r="B187" s="52"/>
-      <c r="C187" s="42"/>
-      <c r="D187" s="55"/>
-      <c r="E187" s="10"/>
-      <c r="F187" s="45"/>
-      <c r="G187" s="68"/>
-      <c r="H187" s="11"/>
+      <c r="A187" s="35"/>
+      <c r="B187" s="54"/>
+      <c r="C187" s="40"/>
+      <c r="D187" s="57"/>
+      <c r="E187" s="6"/>
+      <c r="F187" s="44"/>
+      <c r="G187" s="44"/>
+      <c r="H187" s="12"/>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A188" s="35"/>
-      <c r="B188" s="54"/>
-      <c r="C188" s="40"/>
-      <c r="D188" s="57"/>
-      <c r="E188" s="6"/>
-      <c r="F188" s="44"/>
-      <c r="G188" s="44"/>
-      <c r="H188" s="12"/>
+      <c r="A188" s="34"/>
+      <c r="B188" s="52"/>
+      <c r="C188" s="42"/>
+      <c r="D188" s="55"/>
+      <c r="E188" s="10"/>
+      <c r="F188" s="45"/>
+      <c r="G188" s="68"/>
+      <c r="H188" s="11"/>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A189" s="34"/>
-      <c r="B189" s="52"/>
-      <c r="C189" s="42"/>
-      <c r="D189" s="55"/>
-      <c r="E189" s="10"/>
-      <c r="F189" s="45"/>
-      <c r="G189" s="68"/>
-      <c r="H189" s="11"/>
+      <c r="A189" s="35"/>
+      <c r="B189" s="54"/>
+      <c r="C189" s="40"/>
+      <c r="D189" s="57"/>
+      <c r="E189" s="6"/>
+      <c r="F189" s="44"/>
+      <c r="G189" s="44"/>
+      <c r="H189" s="12"/>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A190" s="35"/>
-      <c r="B190" s="54"/>
-      <c r="C190" s="40"/>
-      <c r="D190" s="57"/>
-      <c r="E190" s="6"/>
-      <c r="F190" s="44"/>
-      <c r="G190" s="44"/>
-      <c r="H190" s="12"/>
+      <c r="A190" s="34"/>
+      <c r="B190" s="52"/>
+      <c r="C190" s="42"/>
+      <c r="D190" s="55"/>
+      <c r="E190" s="10"/>
+      <c r="F190" s="45"/>
+      <c r="G190" s="68"/>
+      <c r="H190" s="11"/>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A191" s="34"/>
-      <c r="B191" s="52"/>
-      <c r="C191" s="42"/>
-      <c r="D191" s="55"/>
-      <c r="E191" s="10"/>
-      <c r="F191" s="45"/>
-      <c r="G191" s="68"/>
-      <c r="H191" s="11"/>
+      <c r="A191" s="35"/>
+      <c r="B191" s="54"/>
+      <c r="C191" s="40"/>
+      <c r="D191" s="57"/>
+      <c r="E191" s="6"/>
+      <c r="F191" s="44"/>
+      <c r="G191" s="44"/>
+      <c r="H191" s="12"/>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A192" s="35"/>
-      <c r="B192" s="54"/>
-      <c r="C192" s="40"/>
-      <c r="D192" s="57"/>
-      <c r="E192" s="6"/>
-      <c r="F192" s="44"/>
-      <c r="G192" s="44"/>
-      <c r="H192" s="12"/>
+      <c r="A192" s="34"/>
+      <c r="B192" s="52"/>
+      <c r="C192" s="42"/>
+      <c r="D192" s="55"/>
+      <c r="E192" s="10"/>
+      <c r="F192" s="45"/>
+      <c r="G192" s="68"/>
+      <c r="H192" s="11"/>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A193" s="34"/>
-      <c r="B193" s="52"/>
-      <c r="C193" s="42"/>
-      <c r="D193" s="55"/>
-      <c r="E193" s="10"/>
-      <c r="F193" s="45"/>
-      <c r="G193" s="68"/>
-      <c r="H193" s="11"/>
+      <c r="A193" s="35"/>
+      <c r="B193" s="54"/>
+      <c r="C193" s="40"/>
+      <c r="D193" s="57"/>
+      <c r="E193" s="6"/>
+      <c r="F193" s="44"/>
+      <c r="G193" s="44"/>
+      <c r="H193" s="12"/>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A194" s="35"/>
-      <c r="B194" s="54"/>
-      <c r="C194" s="40"/>
-      <c r="D194" s="57"/>
-      <c r="E194" s="6"/>
-      <c r="F194" s="44"/>
-      <c r="G194" s="44"/>
-      <c r="H194" s="12"/>
+      <c r="A194" s="34"/>
+      <c r="B194" s="52"/>
+      <c r="C194" s="42"/>
+      <c r="D194" s="55"/>
+      <c r="E194" s="10"/>
+      <c r="F194" s="45"/>
+      <c r="G194" s="68"/>
+      <c r="H194" s="11"/>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A195" s="34"/>
-      <c r="B195" s="52"/>
-      <c r="C195" s="42"/>
-      <c r="D195" s="55"/>
-      <c r="E195" s="10"/>
-      <c r="F195" s="45"/>
-      <c r="G195" s="68"/>
-      <c r="H195" s="11"/>
+      <c r="A195" s="35"/>
+      <c r="B195" s="54"/>
+      <c r="C195" s="40"/>
+      <c r="D195" s="57"/>
+      <c r="E195" s="6"/>
+      <c r="F195" s="44"/>
+      <c r="G195" s="44"/>
+      <c r="H195" s="12"/>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A196" s="35"/>
-      <c r="B196" s="54"/>
-      <c r="C196" s="40"/>
-      <c r="D196" s="57"/>
-      <c r="E196" s="6"/>
-      <c r="F196" s="44"/>
-      <c r="G196" s="44"/>
-      <c r="H196" s="12"/>
+      <c r="A196" s="34"/>
+      <c r="B196" s="52"/>
+      <c r="C196" s="42"/>
+      <c r="D196" s="55"/>
+      <c r="E196" s="10"/>
+      <c r="F196" s="45"/>
+      <c r="G196" s="68"/>
+      <c r="H196" s="11"/>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A197" s="34"/>
-      <c r="B197" s="52"/>
-      <c r="C197" s="42"/>
-      <c r="D197" s="55"/>
-      <c r="E197" s="10"/>
-      <c r="F197" s="45"/>
-      <c r="G197" s="68"/>
-      <c r="H197" s="11"/>
+      <c r="A197" s="35"/>
+      <c r="B197" s="54"/>
+      <c r="C197" s="40"/>
+      <c r="D197" s="57"/>
+      <c r="E197" s="6"/>
+      <c r="F197" s="44"/>
+      <c r="G197" s="44"/>
+      <c r="H197" s="12"/>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A198" s="35"/>
-      <c r="B198" s="54"/>
-      <c r="C198" s="40"/>
-      <c r="D198" s="57"/>
-      <c r="E198" s="6"/>
-      <c r="F198" s="44"/>
-      <c r="G198" s="44"/>
-      <c r="H198" s="12"/>
+      <c r="A198" s="34"/>
+      <c r="B198" s="52"/>
+      <c r="C198" s="42"/>
+      <c r="D198" s="55"/>
+      <c r="E198" s="10"/>
+      <c r="F198" s="45"/>
+      <c r="G198" s="68"/>
+      <c r="H198" s="11"/>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A199" s="34"/>
-      <c r="B199" s="52"/>
-      <c r="C199" s="42"/>
-      <c r="D199" s="55"/>
-      <c r="E199" s="10"/>
-      <c r="F199" s="45"/>
-      <c r="G199" s="68"/>
-      <c r="H199" s="11"/>
+      <c r="A199" s="35"/>
+      <c r="B199" s="54"/>
+      <c r="C199" s="40"/>
+      <c r="D199" s="57"/>
+      <c r="E199" s="6"/>
+      <c r="F199" s="44"/>
+      <c r="G199" s="44"/>
+      <c r="H199" s="12"/>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A200" s="35"/>
-      <c r="B200" s="54"/>
-      <c r="C200" s="40"/>
-      <c r="D200" s="57"/>
-      <c r="E200" s="6"/>
-      <c r="F200" s="44"/>
-      <c r="G200" s="44"/>
-      <c r="H200" s="12"/>
+      <c r="A200" s="34"/>
+      <c r="B200" s="52"/>
+      <c r="C200" s="42"/>
+      <c r="D200" s="55"/>
+      <c r="E200" s="10"/>
+      <c r="F200" s="45"/>
+      <c r="G200" s="68"/>
+      <c r="H200" s="11"/>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A201" s="34"/>
-      <c r="B201" s="52"/>
-      <c r="C201" s="42"/>
-      <c r="D201" s="55"/>
-      <c r="E201" s="10"/>
-      <c r="F201" s="45"/>
-      <c r="G201" s="68"/>
-      <c r="H201" s="11"/>
+      <c r="A201" s="35"/>
+      <c r="B201" s="54"/>
+      <c r="C201" s="40"/>
+      <c r="D201" s="57"/>
+      <c r="E201" s="6"/>
+      <c r="F201" s="44"/>
+      <c r="G201" s="44"/>
+      <c r="H201" s="12"/>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A202" s="35"/>
-      <c r="B202" s="54"/>
-      <c r="C202" s="40"/>
-      <c r="D202" s="57"/>
-      <c r="E202" s="6"/>
-      <c r="F202" s="44"/>
-      <c r="G202" s="44"/>
-      <c r="H202" s="12"/>
+      <c r="A202" s="34"/>
+      <c r="B202" s="52"/>
+      <c r="C202" s="42"/>
+      <c r="D202" s="55"/>
+      <c r="E202" s="10"/>
+      <c r="F202" s="45"/>
+      <c r="G202" s="68"/>
+      <c r="H202" s="11"/>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A203" s="34"/>
-      <c r="B203" s="52"/>
-      <c r="C203" s="42"/>
-      <c r="D203" s="55"/>
-      <c r="E203" s="10"/>
-      <c r="F203" s="45"/>
-      <c r="G203" s="68"/>
-      <c r="H203" s="11"/>
+      <c r="A203" s="35"/>
+      <c r="B203" s="54"/>
+      <c r="C203" s="40"/>
+      <c r="D203" s="57"/>
+      <c r="E203" s="6"/>
+      <c r="F203" s="44"/>
+      <c r="G203" s="44"/>
+      <c r="H203" s="12"/>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A204" s="35"/>
-      <c r="B204" s="54"/>
-      <c r="C204" s="40"/>
-      <c r="D204" s="57"/>
-      <c r="E204" s="6"/>
-      <c r="F204" s="44"/>
-      <c r="G204" s="44"/>
-      <c r="H204" s="12"/>
+      <c r="A204" s="34"/>
+      <c r="B204" s="52"/>
+      <c r="C204" s="42"/>
+      <c r="D204" s="55"/>
+      <c r="E204" s="10"/>
+      <c r="F204" s="45"/>
+      <c r="G204" s="68"/>
+      <c r="H204" s="11"/>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A205" s="35"/>
+      <c r="B205" s="54"/>
+      <c r="C205" s="40"/>
+      <c r="D205" s="57"/>
+      <c r="E205" s="6"/>
+      <c r="F205" s="44"/>
+      <c r="G205" s="44"/>
+      <c r="H205" s="12"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/TS Jatai Working/TTD Krama PaaraayaNam-Kramam.xlsx
+++ b/TS Jatai Working/TTD Krama PaaraayaNam-Kramam.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="323">
   <si>
     <t>Date</t>
   </si>
@@ -956,6 +956,33 @@
   </si>
   <si>
     <t>6.5.1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.5.2.3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.5.3.1 </t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=n6XlVIFFXi4&amp;list=PLjhrDIztP9pcSE8dR7xYZb7zwX5SXxNKy&amp;index=18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.5.9.3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.5.9.4 </t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=dT_9AqRftvI&amp;list=PLjhrDIztP9pcSE8dR7xYZb7zwX5SXxNKy&amp;index=17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.5.11.4 </t>
+  </si>
+  <si>
+    <t>18 min 25 sec</t>
+  </si>
+  <si>
+    <t>6.6.1.1</t>
   </si>
 </sst>
 </file>
@@ -1665,11 +1692,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L205"/>
+  <dimension ref="A1:L206"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A164" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G174" sqref="G174"/>
+      <pane ySplit="4" topLeftCell="A168" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A179" sqref="A179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -5045,7 +5072,7 @@
         <v>44516</v>
       </c>
       <c r="C174" s="36">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D174" s="56" t="s">
         <v>313</v>
@@ -5053,7 +5080,9 @@
       <c r="E174" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F174" s="43"/>
+      <c r="F174" s="43" t="s">
+        <v>314</v>
+      </c>
       <c r="G174" s="43" t="s">
         <v>13</v>
       </c>
@@ -5072,304 +5101,358 @@
       <c r="H175" s="12"/>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A176" s="36"/>
-      <c r="B176" s="53"/>
-      <c r="C176" s="41"/>
-      <c r="D176" s="56"/>
-      <c r="E176" s="2"/>
-      <c r="F176" s="43"/>
-      <c r="G176" s="68"/>
-      <c r="H176" s="13"/>
+      <c r="A176" s="36">
+        <v>72</v>
+      </c>
+      <c r="B176" s="53">
+        <v>44517</v>
+      </c>
+      <c r="C176" s="41">
+        <v>2</v>
+      </c>
+      <c r="D176" s="55" t="s">
+        <v>315</v>
+      </c>
+      <c r="E176" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F176" s="45" t="s">
+        <v>317</v>
+      </c>
+      <c r="G176" s="68" t="s">
+        <v>13</v>
+      </c>
+      <c r="H176" s="13" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A177" s="35"/>
-      <c r="B177" s="54"/>
-      <c r="C177" s="40"/>
-      <c r="D177" s="57"/>
-      <c r="E177" s="6"/>
-      <c r="F177" s="44"/>
-      <c r="G177" s="44"/>
-      <c r="H177" s="12"/>
+      <c r="A177" s="36"/>
+      <c r="B177" s="53"/>
+      <c r="C177" s="41"/>
+      <c r="D177" s="56"/>
+      <c r="E177" s="2"/>
+      <c r="F177" s="43"/>
+      <c r="G177" s="43"/>
+      <c r="H177" s="13"/>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A178" s="34"/>
-      <c r="B178" s="52"/>
-      <c r="C178" s="42"/>
-      <c r="D178" s="55"/>
-      <c r="E178" s="10"/>
-      <c r="F178" s="45"/>
-      <c r="G178" s="68"/>
-      <c r="H178" s="11"/>
+      <c r="A178" s="34">
+        <v>73</v>
+      </c>
+      <c r="B178" s="37">
+        <v>44518</v>
+      </c>
+      <c r="C178" s="42">
+        <v>3</v>
+      </c>
+      <c r="D178" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="E178" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F178" s="45" t="s">
+        <v>320</v>
+      </c>
+      <c r="G178" s="45" t="s">
+        <v>321</v>
+      </c>
+      <c r="H178" s="11" t="s">
+        <v>319</v>
+      </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A179" s="35"/>
-      <c r="B179" s="54"/>
-      <c r="C179" s="40"/>
-      <c r="D179" s="57"/>
-      <c r="E179" s="6"/>
-      <c r="F179" s="44"/>
-      <c r="G179" s="44"/>
-      <c r="H179" s="12"/>
+      <c r="A179" s="36"/>
+      <c r="B179" s="39">
+        <v>44518</v>
+      </c>
+      <c r="C179" s="41">
+        <v>1</v>
+      </c>
+      <c r="D179" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="E179" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F179" s="43"/>
+      <c r="G179" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="H179" s="13" t="s">
+        <v>319</v>
+      </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A180" s="34"/>
-      <c r="B180" s="52"/>
-      <c r="C180" s="42"/>
-      <c r="D180" s="55"/>
-      <c r="E180" s="10"/>
-      <c r="F180" s="45"/>
-      <c r="G180" s="68"/>
-      <c r="H180" s="11"/>
+      <c r="A180" s="35"/>
+      <c r="B180" s="38"/>
+      <c r="C180" s="40"/>
+      <c r="D180" s="7"/>
+      <c r="E180" s="6"/>
+      <c r="F180" s="44"/>
+      <c r="G180" s="44"/>
+      <c r="H180" s="12"/>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A181" s="35"/>
-      <c r="B181" s="54"/>
-      <c r="C181" s="40"/>
-      <c r="D181" s="57"/>
-      <c r="E181" s="6"/>
-      <c r="F181" s="44"/>
-      <c r="G181" s="44"/>
-      <c r="H181" s="12"/>
+      <c r="A181" s="36"/>
+      <c r="B181" s="53"/>
+      <c r="C181" s="41"/>
+      <c r="D181" s="56"/>
+      <c r="E181" s="2"/>
+      <c r="F181" s="43"/>
+      <c r="G181" s="68"/>
+      <c r="H181" s="13"/>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A182" s="34"/>
-      <c r="B182" s="52"/>
-      <c r="C182" s="42"/>
-      <c r="D182" s="55"/>
-      <c r="E182" s="10"/>
-      <c r="F182" s="45"/>
-      <c r="G182" s="68"/>
-      <c r="H182" s="11"/>
+      <c r="A182" s="35"/>
+      <c r="B182" s="54"/>
+      <c r="C182" s="40"/>
+      <c r="D182" s="57"/>
+      <c r="E182" s="6"/>
+      <c r="F182" s="44"/>
+      <c r="G182" s="44"/>
+      <c r="H182" s="12"/>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A183" s="35"/>
-      <c r="B183" s="54"/>
-      <c r="C183" s="40"/>
-      <c r="D183" s="57"/>
-      <c r="E183" s="6"/>
-      <c r="F183" s="44"/>
-      <c r="G183" s="44"/>
-      <c r="H183" s="12"/>
+      <c r="A183" s="34"/>
+      <c r="B183" s="52"/>
+      <c r="C183" s="42"/>
+      <c r="D183" s="55"/>
+      <c r="E183" s="10"/>
+      <c r="F183" s="45"/>
+      <c r="G183" s="68"/>
+      <c r="H183" s="11"/>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A184" s="34"/>
-      <c r="B184" s="52"/>
-      <c r="C184" s="42"/>
-      <c r="D184" s="55"/>
-      <c r="E184" s="10"/>
-      <c r="F184" s="45"/>
-      <c r="G184" s="68"/>
-      <c r="H184" s="11"/>
+      <c r="A184" s="35"/>
+      <c r="B184" s="54"/>
+      <c r="C184" s="40"/>
+      <c r="D184" s="57"/>
+      <c r="E184" s="6"/>
+      <c r="F184" s="44"/>
+      <c r="G184" s="44"/>
+      <c r="H184" s="12"/>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A185" s="35"/>
-      <c r="B185" s="54"/>
-      <c r="C185" s="40"/>
-      <c r="D185" s="57"/>
-      <c r="E185" s="6"/>
-      <c r="F185" s="44"/>
-      <c r="G185" s="44"/>
-      <c r="H185" s="12"/>
+      <c r="A185" s="34"/>
+      <c r="B185" s="52"/>
+      <c r="C185" s="42"/>
+      <c r="D185" s="55"/>
+      <c r="E185" s="10"/>
+      <c r="F185" s="45"/>
+      <c r="G185" s="68"/>
+      <c r="H185" s="11"/>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A186" s="34"/>
-      <c r="B186" s="52"/>
-      <c r="C186" s="42"/>
-      <c r="D186" s="55"/>
-      <c r="E186" s="10"/>
-      <c r="F186" s="45"/>
-      <c r="G186" s="68"/>
-      <c r="H186" s="11"/>
+      <c r="A186" s="35"/>
+      <c r="B186" s="54"/>
+      <c r="C186" s="40"/>
+      <c r="D186" s="57"/>
+      <c r="E186" s="6"/>
+      <c r="F186" s="44"/>
+      <c r="G186" s="44"/>
+      <c r="H186" s="12"/>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A187" s="35"/>
-      <c r="B187" s="54"/>
-      <c r="C187" s="40"/>
-      <c r="D187" s="57"/>
-      <c r="E187" s="6"/>
-      <c r="F187" s="44"/>
-      <c r="G187" s="44"/>
-      <c r="H187" s="12"/>
+      <c r="A187" s="34"/>
+      <c r="B187" s="52"/>
+      <c r="C187" s="42"/>
+      <c r="D187" s="55"/>
+      <c r="E187" s="10"/>
+      <c r="F187" s="45"/>
+      <c r="G187" s="68"/>
+      <c r="H187" s="11"/>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A188" s="34"/>
-      <c r="B188" s="52"/>
-      <c r="C188" s="42"/>
-      <c r="D188" s="55"/>
-      <c r="E188" s="10"/>
-      <c r="F188" s="45"/>
-      <c r="G188" s="68"/>
-      <c r="H188" s="11"/>
+      <c r="A188" s="35"/>
+      <c r="B188" s="54"/>
+      <c r="C188" s="40"/>
+      <c r="D188" s="57"/>
+      <c r="E188" s="6"/>
+      <c r="F188" s="44"/>
+      <c r="G188" s="44"/>
+      <c r="H188" s="12"/>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A189" s="35"/>
-      <c r="B189" s="54"/>
-      <c r="C189" s="40"/>
-      <c r="D189" s="57"/>
-      <c r="E189" s="6"/>
-      <c r="F189" s="44"/>
-      <c r="G189" s="44"/>
-      <c r="H189" s="12"/>
+      <c r="A189" s="34"/>
+      <c r="B189" s="52"/>
+      <c r="C189" s="42"/>
+      <c r="D189" s="55"/>
+      <c r="E189" s="10"/>
+      <c r="F189" s="45"/>
+      <c r="G189" s="68"/>
+      <c r="H189" s="11"/>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A190" s="34"/>
-      <c r="B190" s="52"/>
-      <c r="C190" s="42"/>
-      <c r="D190" s="55"/>
-      <c r="E190" s="10"/>
-      <c r="F190" s="45"/>
-      <c r="G190" s="68"/>
-      <c r="H190" s="11"/>
+      <c r="A190" s="35"/>
+      <c r="B190" s="54"/>
+      <c r="C190" s="40"/>
+      <c r="D190" s="57"/>
+      <c r="E190" s="6"/>
+      <c r="F190" s="44"/>
+      <c r="G190" s="44"/>
+      <c r="H190" s="12"/>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A191" s="35"/>
-      <c r="B191" s="54"/>
-      <c r="C191" s="40"/>
-      <c r="D191" s="57"/>
-      <c r="E191" s="6"/>
-      <c r="F191" s="44"/>
-      <c r="G191" s="44"/>
-      <c r="H191" s="12"/>
+      <c r="A191" s="34"/>
+      <c r="B191" s="52"/>
+      <c r="C191" s="42"/>
+      <c r="D191" s="55"/>
+      <c r="E191" s="10"/>
+      <c r="F191" s="45"/>
+      <c r="G191" s="68"/>
+      <c r="H191" s="11"/>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A192" s="34"/>
-      <c r="B192" s="52"/>
-      <c r="C192" s="42"/>
-      <c r="D192" s="55"/>
-      <c r="E192" s="10"/>
-      <c r="F192" s="45"/>
-      <c r="G192" s="68"/>
-      <c r="H192" s="11"/>
+      <c r="A192" s="35"/>
+      <c r="B192" s="54"/>
+      <c r="C192" s="40"/>
+      <c r="D192" s="57"/>
+      <c r="E192" s="6"/>
+      <c r="F192" s="44"/>
+      <c r="G192" s="44"/>
+      <c r="H192" s="12"/>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A193" s="35"/>
-      <c r="B193" s="54"/>
-      <c r="C193" s="40"/>
-      <c r="D193" s="57"/>
-      <c r="E193" s="6"/>
-      <c r="F193" s="44"/>
-      <c r="G193" s="44"/>
-      <c r="H193" s="12"/>
+      <c r="A193" s="34"/>
+      <c r="B193" s="52"/>
+      <c r="C193" s="42"/>
+      <c r="D193" s="55"/>
+      <c r="E193" s="10"/>
+      <c r="F193" s="45"/>
+      <c r="G193" s="68"/>
+      <c r="H193" s="11"/>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A194" s="34"/>
-      <c r="B194" s="52"/>
-      <c r="C194" s="42"/>
-      <c r="D194" s="55"/>
-      <c r="E194" s="10"/>
-      <c r="F194" s="45"/>
-      <c r="G194" s="68"/>
-      <c r="H194" s="11"/>
+      <c r="A194" s="35"/>
+      <c r="B194" s="54"/>
+      <c r="C194" s="40"/>
+      <c r="D194" s="57"/>
+      <c r="E194" s="6"/>
+      <c r="F194" s="44"/>
+      <c r="G194" s="44"/>
+      <c r="H194" s="12"/>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A195" s="35"/>
-      <c r="B195" s="54"/>
-      <c r="C195" s="40"/>
-      <c r="D195" s="57"/>
-      <c r="E195" s="6"/>
-      <c r="F195" s="44"/>
-      <c r="G195" s="44"/>
-      <c r="H195" s="12"/>
+      <c r="A195" s="34"/>
+      <c r="B195" s="52"/>
+      <c r="C195" s="42"/>
+      <c r="D195" s="55"/>
+      <c r="E195" s="10"/>
+      <c r="F195" s="45"/>
+      <c r="G195" s="68"/>
+      <c r="H195" s="11"/>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A196" s="34"/>
-      <c r="B196" s="52"/>
-      <c r="C196" s="42"/>
-      <c r="D196" s="55"/>
-      <c r="E196" s="10"/>
-      <c r="F196" s="45"/>
-      <c r="G196" s="68"/>
-      <c r="H196" s="11"/>
+      <c r="A196" s="35"/>
+      <c r="B196" s="54"/>
+      <c r="C196" s="40"/>
+      <c r="D196" s="57"/>
+      <c r="E196" s="6"/>
+      <c r="F196" s="44"/>
+      <c r="G196" s="44"/>
+      <c r="H196" s="12"/>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A197" s="35"/>
-      <c r="B197" s="54"/>
-      <c r="C197" s="40"/>
-      <c r="D197" s="57"/>
-      <c r="E197" s="6"/>
-      <c r="F197" s="44"/>
-      <c r="G197" s="44"/>
-      <c r="H197" s="12"/>
+      <c r="A197" s="34"/>
+      <c r="B197" s="52"/>
+      <c r="C197" s="42"/>
+      <c r="D197" s="55"/>
+      <c r="E197" s="10"/>
+      <c r="F197" s="45"/>
+      <c r="G197" s="68"/>
+      <c r="H197" s="11"/>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A198" s="34"/>
-      <c r="B198" s="52"/>
-      <c r="C198" s="42"/>
-      <c r="D198" s="55"/>
-      <c r="E198" s="10"/>
-      <c r="F198" s="45"/>
-      <c r="G198" s="68"/>
-      <c r="H198" s="11"/>
+      <c r="A198" s="35"/>
+      <c r="B198" s="54"/>
+      <c r="C198" s="40"/>
+      <c r="D198" s="57"/>
+      <c r="E198" s="6"/>
+      <c r="F198" s="44"/>
+      <c r="G198" s="44"/>
+      <c r="H198" s="12"/>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A199" s="35"/>
-      <c r="B199" s="54"/>
-      <c r="C199" s="40"/>
-      <c r="D199" s="57"/>
-      <c r="E199" s="6"/>
-      <c r="F199" s="44"/>
-      <c r="G199" s="44"/>
-      <c r="H199" s="12"/>
+      <c r="A199" s="34"/>
+      <c r="B199" s="52"/>
+      <c r="C199" s="42"/>
+      <c r="D199" s="55"/>
+      <c r="E199" s="10"/>
+      <c r="F199" s="45"/>
+      <c r="G199" s="68"/>
+      <c r="H199" s="11"/>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A200" s="34"/>
-      <c r="B200" s="52"/>
-      <c r="C200" s="42"/>
-      <c r="D200" s="55"/>
-      <c r="E200" s="10"/>
-      <c r="F200" s="45"/>
-      <c r="G200" s="68"/>
-      <c r="H200" s="11"/>
+      <c r="A200" s="35"/>
+      <c r="B200" s="54"/>
+      <c r="C200" s="40"/>
+      <c r="D200" s="57"/>
+      <c r="E200" s="6"/>
+      <c r="F200" s="44"/>
+      <c r="G200" s="44"/>
+      <c r="H200" s="12"/>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A201" s="35"/>
-      <c r="B201" s="54"/>
-      <c r="C201" s="40"/>
-      <c r="D201" s="57"/>
-      <c r="E201" s="6"/>
-      <c r="F201" s="44"/>
-      <c r="G201" s="44"/>
-      <c r="H201" s="12"/>
+      <c r="A201" s="34"/>
+      <c r="B201" s="52"/>
+      <c r="C201" s="42"/>
+      <c r="D201" s="55"/>
+      <c r="E201" s="10"/>
+      <c r="F201" s="45"/>
+      <c r="G201" s="68"/>
+      <c r="H201" s="11"/>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A202" s="34"/>
-      <c r="B202" s="52"/>
-      <c r="C202" s="42"/>
-      <c r="D202" s="55"/>
-      <c r="E202" s="10"/>
-      <c r="F202" s="45"/>
-      <c r="G202" s="68"/>
-      <c r="H202" s="11"/>
+      <c r="A202" s="35"/>
+      <c r="B202" s="54"/>
+      <c r="C202" s="40"/>
+      <c r="D202" s="57"/>
+      <c r="E202" s="6"/>
+      <c r="F202" s="44"/>
+      <c r="G202" s="44"/>
+      <c r="H202" s="12"/>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A203" s="35"/>
-      <c r="B203" s="54"/>
-      <c r="C203" s="40"/>
-      <c r="D203" s="57"/>
-      <c r="E203" s="6"/>
-      <c r="F203" s="44"/>
-      <c r="G203" s="44"/>
-      <c r="H203" s="12"/>
+      <c r="A203" s="34"/>
+      <c r="B203" s="52"/>
+      <c r="C203" s="42"/>
+      <c r="D203" s="55"/>
+      <c r="E203" s="10"/>
+      <c r="F203" s="45"/>
+      <c r="G203" s="68"/>
+      <c r="H203" s="11"/>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A204" s="34"/>
-      <c r="B204" s="52"/>
-      <c r="C204" s="42"/>
-      <c r="D204" s="55"/>
-      <c r="E204" s="10"/>
-      <c r="F204" s="45"/>
-      <c r="G204" s="68"/>
-      <c r="H204" s="11"/>
+      <c r="A204" s="35"/>
+      <c r="B204" s="54"/>
+      <c r="C204" s="40"/>
+      <c r="D204" s="57"/>
+      <c r="E204" s="6"/>
+      <c r="F204" s="44"/>
+      <c r="G204" s="44"/>
+      <c r="H204" s="12"/>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A205" s="35"/>
-      <c r="B205" s="54"/>
-      <c r="C205" s="40"/>
-      <c r="D205" s="57"/>
-      <c r="E205" s="6"/>
-      <c r="F205" s="44"/>
-      <c r="G205" s="44"/>
-      <c r="H205" s="12"/>
+      <c r="A205" s="34"/>
+      <c r="B205" s="52"/>
+      <c r="C205" s="42"/>
+      <c r="D205" s="55"/>
+      <c r="E205" s="10"/>
+      <c r="F205" s="45"/>
+      <c r="G205" s="68"/>
+      <c r="H205" s="11"/>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A206" s="35"/>
+      <c r="B206" s="54"/>
+      <c r="C206" s="40"/>
+      <c r="D206" s="57"/>
+      <c r="E206" s="6"/>
+      <c r="F206" s="44"/>
+      <c r="G206" s="44"/>
+      <c r="H206" s="12"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/TS Jatai Working/TTD Krama PaaraayaNam-Kramam.xlsx
+++ b/TS Jatai Working/TTD Krama PaaraayaNam-Kramam.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="328">
   <si>
     <t>Date</t>
   </si>
@@ -983,6 +983,21 @@
   </si>
   <si>
     <t>6.6.1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.6.6.2 </t>
+  </si>
+  <si>
+    <t>6.6.7.1</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=XYo3IJQDAXw&amp;list=PLjhrDIztP9pcSE8dR7xYZb7zwX5SXxNKy&amp;index=17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.6.11.6 </t>
+  </si>
+  <si>
+    <t>7.1.1.1</t>
   </si>
 </sst>
 </file>
@@ -1695,8 +1710,8 @@
   <dimension ref="A1:L206"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A168" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A179" sqref="A179"/>
+      <pane ySplit="4" topLeftCell="A177" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E183" sqref="E183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -5176,7 +5191,9 @@
       <c r="E179" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F179" s="43"/>
+      <c r="F179" s="43" t="s">
+        <v>323</v>
+      </c>
       <c r="G179" s="43" t="s">
         <v>13</v>
       </c>
@@ -5195,14 +5212,30 @@
       <c r="H180" s="12"/>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A181" s="36"/>
-      <c r="B181" s="53"/>
-      <c r="C181" s="41"/>
-      <c r="D181" s="56"/>
-      <c r="E181" s="2"/>
-      <c r="F181" s="43"/>
-      <c r="G181" s="68"/>
-      <c r="H181" s="13"/>
+      <c r="A181" s="36">
+        <v>74</v>
+      </c>
+      <c r="B181" s="53">
+        <v>44519</v>
+      </c>
+      <c r="C181" s="41">
+        <v>2</v>
+      </c>
+      <c r="D181" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="E181" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F181" s="45" t="s">
+        <v>326</v>
+      </c>
+      <c r="G181" s="68" t="s">
+        <v>13</v>
+      </c>
+      <c r="H181" s="13" t="s">
+        <v>325</v>
+      </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" s="35"/>
@@ -5215,11 +5248,21 @@
       <c r="H182" s="12"/>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A183" s="34"/>
-      <c r="B183" s="52"/>
-      <c r="C183" s="42"/>
-      <c r="D183" s="55"/>
-      <c r="E183" s="10"/>
+      <c r="A183" s="34">
+        <v>75</v>
+      </c>
+      <c r="B183" s="52">
+        <v>44520</v>
+      </c>
+      <c r="C183" s="42">
+        <v>1</v>
+      </c>
+      <c r="D183" s="55" t="s">
+        <v>327</v>
+      </c>
+      <c r="E183" s="10" t="s">
+        <v>9</v>
+      </c>
       <c r="F183" s="45"/>
       <c r="G183" s="68"/>
       <c r="H183" s="11"/>

--- a/TS Jatai Working/TTD Krama PaaraayaNam-Kramam.xlsx
+++ b/TS Jatai Working/TTD Krama PaaraayaNam-Kramam.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="334">
   <si>
     <t>Date</t>
   </si>
@@ -998,6 +998,24 @@
   </si>
   <si>
     <t>7.1.1.1</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=J_C1bBg78mo&amp;list=PLjhrDIztP9pcSE8dR7xYZb7zwX5SXxNKy&amp;index=60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.1.7.4 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.1.8.1 </t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=rWliOzBkHAY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.1.20.1 </t>
+  </si>
+  <si>
+    <t>7.2.1.1</t>
   </si>
 </sst>
 </file>
@@ -1711,7 +1729,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A177" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E183" sqref="E183"/>
+      <selection pane="bottomLeft" activeCell="H187" sqref="H187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -5263,9 +5281,15 @@
       <c r="E183" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F183" s="45"/>
-      <c r="G183" s="68"/>
-      <c r="H183" s="11"/>
+      <c r="F183" s="45" t="s">
+        <v>329</v>
+      </c>
+      <c r="G183" s="68" t="s">
+        <v>13</v>
+      </c>
+      <c r="H183" s="11" t="s">
+        <v>328</v>
+      </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" s="35"/>
@@ -5278,14 +5302,30 @@
       <c r="H184" s="12"/>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A185" s="34"/>
-      <c r="B185" s="52"/>
-      <c r="C185" s="42"/>
-      <c r="D185" s="55"/>
-      <c r="E185" s="10"/>
-      <c r="F185" s="45"/>
-      <c r="G185" s="68"/>
-      <c r="H185" s="11"/>
+      <c r="A185" s="34">
+        <v>76</v>
+      </c>
+      <c r="B185" s="52">
+        <v>44521</v>
+      </c>
+      <c r="C185" s="42">
+        <v>2</v>
+      </c>
+      <c r="D185" s="55" t="s">
+        <v>330</v>
+      </c>
+      <c r="E185" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F185" s="45" t="s">
+        <v>332</v>
+      </c>
+      <c r="G185" s="68" t="s">
+        <v>13</v>
+      </c>
+      <c r="H185" s="11" t="s">
+        <v>331</v>
+      </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" s="35"/>
@@ -5298,11 +5338,21 @@
       <c r="H186" s="12"/>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A187" s="34"/>
-      <c r="B187" s="52"/>
-      <c r="C187" s="42"/>
-      <c r="D187" s="55"/>
-      <c r="E187" s="10"/>
+      <c r="A187" s="34">
+        <v>77</v>
+      </c>
+      <c r="B187" s="52">
+        <v>44522</v>
+      </c>
+      <c r="C187" s="42">
+        <v>1</v>
+      </c>
+      <c r="D187" s="55" t="s">
+        <v>333</v>
+      </c>
+      <c r="E187" s="10" t="s">
+        <v>9</v>
+      </c>
       <c r="F187" s="45"/>
       <c r="G187" s="68"/>
       <c r="H187" s="11"/>

--- a/TS Jatai Working/TTD Krama PaaraayaNam-Kramam.xlsx
+++ b/TS Jatai Working/TTD Krama PaaraayaNam-Kramam.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="341">
   <si>
     <t>Date</t>
   </si>
@@ -1016,6 +1016,27 @@
   </si>
   <si>
     <t>7.2.1.1</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=gipHLh-644s&amp;list=PLjhrDIztP9pcSE8dR7xYZb7zwX5SXxNKy&amp;index=60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.2.7.5 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.2.8.1 </t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=HNmgRUZP9u0&amp;list=PLjhrDIztP9pcSE8dR7xYZb7zwX5SXxNKy&amp;index=59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.2.20.1 </t>
+  </si>
+  <si>
+    <t>40 min 48 sec</t>
+  </si>
+  <si>
+    <t>7.3.1.1</t>
   </si>
 </sst>
 </file>
@@ -1725,10 +1746,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L206"/>
+  <dimension ref="A1:L207"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A177" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A179" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H187" sqref="H187"/>
     </sheetView>
   </sheetViews>
@@ -5353,9 +5374,15 @@
       <c r="E187" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F187" s="45"/>
-      <c r="G187" s="68"/>
-      <c r="H187" s="11"/>
+      <c r="F187" s="45" t="s">
+        <v>335</v>
+      </c>
+      <c r="G187" s="68" t="s">
+        <v>13</v>
+      </c>
+      <c r="H187" s="11" t="s">
+        <v>334</v>
+      </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" s="35"/>
@@ -5365,187 +5392,225 @@
       <c r="E188" s="6"/>
       <c r="F188" s="44"/>
       <c r="G188" s="44"/>
-      <c r="H188" s="12"/>
+      <c r="H188" s="13"/>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A189" s="34"/>
-      <c r="B189" s="52"/>
-      <c r="C189" s="42"/>
-      <c r="D189" s="55"/>
-      <c r="E189" s="10"/>
-      <c r="F189" s="45"/>
-      <c r="G189" s="68"/>
-      <c r="H189" s="11"/>
+      <c r="A189" s="34">
+        <v>78</v>
+      </c>
+      <c r="B189" s="52">
+        <v>44523</v>
+      </c>
+      <c r="C189" s="42">
+        <v>2</v>
+      </c>
+      <c r="D189" s="55" t="s">
+        <v>336</v>
+      </c>
+      <c r="E189" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F189" s="45" t="s">
+        <v>338</v>
+      </c>
+      <c r="G189" s="56" t="s">
+        <v>339</v>
+      </c>
+      <c r="H189" s="60" t="s">
+        <v>337</v>
+      </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A190" s="35"/>
-      <c r="B190" s="54"/>
-      <c r="C190" s="40"/>
-      <c r="D190" s="57"/>
-      <c r="E190" s="6"/>
-      <c r="F190" s="44"/>
-      <c r="G190" s="44"/>
-      <c r="H190" s="12"/>
+      <c r="A190" s="36"/>
+      <c r="B190" s="53">
+        <v>44523</v>
+      </c>
+      <c r="C190" s="41">
+        <v>1</v>
+      </c>
+      <c r="D190" s="56" t="s">
+        <v>340</v>
+      </c>
+      <c r="E190" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F190" s="43"/>
+      <c r="G190" s="56" t="s">
+        <v>13</v>
+      </c>
+      <c r="H190" s="61" t="s">
+        <v>337</v>
+      </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A191" s="34"/>
-      <c r="B191" s="52"/>
-      <c r="C191" s="42"/>
-      <c r="D191" s="55"/>
-      <c r="E191" s="10"/>
-      <c r="F191" s="45"/>
-      <c r="G191" s="68"/>
-      <c r="H191" s="11"/>
+      <c r="A191" s="35"/>
+      <c r="B191" s="54"/>
+      <c r="C191" s="40"/>
+      <c r="D191" s="57"/>
+      <c r="E191" s="6"/>
+      <c r="F191" s="44"/>
+      <c r="G191" s="7"/>
+      <c r="H191" s="62"/>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A192" s="35"/>
-      <c r="B192" s="54"/>
-      <c r="C192" s="40"/>
-      <c r="D192" s="57"/>
-      <c r="E192" s="6"/>
-      <c r="F192" s="44"/>
-      <c r="G192" s="44"/>
-      <c r="H192" s="12"/>
+      <c r="A192" s="34"/>
+      <c r="B192" s="52"/>
+      <c r="C192" s="42"/>
+      <c r="D192" s="55"/>
+      <c r="E192" s="10"/>
+      <c r="F192" s="45"/>
+      <c r="G192" s="68"/>
+      <c r="H192" s="13"/>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A193" s="34"/>
-      <c r="B193" s="52"/>
-      <c r="C193" s="42"/>
-      <c r="D193" s="55"/>
-      <c r="E193" s="10"/>
-      <c r="F193" s="45"/>
-      <c r="G193" s="68"/>
-      <c r="H193" s="11"/>
+      <c r="A193" s="35"/>
+      <c r="B193" s="54"/>
+      <c r="C193" s="40"/>
+      <c r="D193" s="57"/>
+      <c r="E193" s="6"/>
+      <c r="F193" s="44"/>
+      <c r="G193" s="44"/>
+      <c r="H193" s="12"/>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A194" s="35"/>
-      <c r="B194" s="54"/>
-      <c r="C194" s="40"/>
-      <c r="D194" s="57"/>
-      <c r="E194" s="6"/>
-      <c r="F194" s="44"/>
-      <c r="G194" s="44"/>
-      <c r="H194" s="12"/>
+      <c r="A194" s="34"/>
+      <c r="B194" s="52"/>
+      <c r="C194" s="42"/>
+      <c r="D194" s="55"/>
+      <c r="E194" s="10"/>
+      <c r="F194" s="45"/>
+      <c r="G194" s="68"/>
+      <c r="H194" s="11"/>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A195" s="34"/>
-      <c r="B195" s="52"/>
-      <c r="C195" s="42"/>
-      <c r="D195" s="55"/>
-      <c r="E195" s="10"/>
-      <c r="F195" s="45"/>
-      <c r="G195" s="68"/>
-      <c r="H195" s="11"/>
+      <c r="A195" s="35"/>
+      <c r="B195" s="54"/>
+      <c r="C195" s="40"/>
+      <c r="D195" s="57"/>
+      <c r="E195" s="6"/>
+      <c r="F195" s="44"/>
+      <c r="G195" s="44"/>
+      <c r="H195" s="12"/>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A196" s="35"/>
-      <c r="B196" s="54"/>
-      <c r="C196" s="40"/>
-      <c r="D196" s="57"/>
-      <c r="E196" s="6"/>
-      <c r="F196" s="44"/>
-      <c r="G196" s="44"/>
-      <c r="H196" s="12"/>
+      <c r="A196" s="34"/>
+      <c r="B196" s="52"/>
+      <c r="C196" s="42"/>
+      <c r="D196" s="55"/>
+      <c r="E196" s="10"/>
+      <c r="F196" s="45"/>
+      <c r="G196" s="68"/>
+      <c r="H196" s="11"/>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A197" s="34"/>
-      <c r="B197" s="52"/>
-      <c r="C197" s="42"/>
-      <c r="D197" s="55"/>
-      <c r="E197" s="10"/>
-      <c r="F197" s="45"/>
-      <c r="G197" s="68"/>
-      <c r="H197" s="11"/>
+      <c r="A197" s="35"/>
+      <c r="B197" s="54"/>
+      <c r="C197" s="40"/>
+      <c r="D197" s="57"/>
+      <c r="E197" s="6"/>
+      <c r="F197" s="44"/>
+      <c r="G197" s="44"/>
+      <c r="H197" s="12"/>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A198" s="35"/>
-      <c r="B198" s="54"/>
-      <c r="C198" s="40"/>
-      <c r="D198" s="57"/>
-      <c r="E198" s="6"/>
-      <c r="F198" s="44"/>
-      <c r="G198" s="44"/>
-      <c r="H198" s="12"/>
+      <c r="A198" s="34"/>
+      <c r="B198" s="52"/>
+      <c r="C198" s="42"/>
+      <c r="D198" s="55"/>
+      <c r="E198" s="10"/>
+      <c r="F198" s="45"/>
+      <c r="G198" s="68"/>
+      <c r="H198" s="11"/>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A199" s="34"/>
-      <c r="B199" s="52"/>
-      <c r="C199" s="42"/>
-      <c r="D199" s="55"/>
-      <c r="E199" s="10"/>
-      <c r="F199" s="45"/>
-      <c r="G199" s="68"/>
-      <c r="H199" s="11"/>
+      <c r="A199" s="35"/>
+      <c r="B199" s="54"/>
+      <c r="C199" s="40"/>
+      <c r="D199" s="57"/>
+      <c r="E199" s="6"/>
+      <c r="F199" s="44"/>
+      <c r="G199" s="44"/>
+      <c r="H199" s="12"/>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A200" s="35"/>
-      <c r="B200" s="54"/>
-      <c r="C200" s="40"/>
-      <c r="D200" s="57"/>
-      <c r="E200" s="6"/>
-      <c r="F200" s="44"/>
-      <c r="G200" s="44"/>
-      <c r="H200" s="12"/>
+      <c r="A200" s="34"/>
+      <c r="B200" s="52"/>
+      <c r="C200" s="42"/>
+      <c r="D200" s="55"/>
+      <c r="E200" s="10"/>
+      <c r="F200" s="45"/>
+      <c r="G200" s="68"/>
+      <c r="H200" s="11"/>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A201" s="34"/>
-      <c r="B201" s="52"/>
-      <c r="C201" s="42"/>
-      <c r="D201" s="55"/>
-      <c r="E201" s="10"/>
-      <c r="F201" s="45"/>
-      <c r="G201" s="68"/>
-      <c r="H201" s="11"/>
+      <c r="A201" s="35"/>
+      <c r="B201" s="54"/>
+      <c r="C201" s="40"/>
+      <c r="D201" s="57"/>
+      <c r="E201" s="6"/>
+      <c r="F201" s="44"/>
+      <c r="G201" s="44"/>
+      <c r="H201" s="12"/>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A202" s="35"/>
-      <c r="B202" s="54"/>
-      <c r="C202" s="40"/>
-      <c r="D202" s="57"/>
-      <c r="E202" s="6"/>
-      <c r="F202" s="44"/>
-      <c r="G202" s="44"/>
-      <c r="H202" s="12"/>
+      <c r="A202" s="34"/>
+      <c r="B202" s="52"/>
+      <c r="C202" s="42"/>
+      <c r="D202" s="55"/>
+      <c r="E202" s="10"/>
+      <c r="F202" s="45"/>
+      <c r="G202" s="68"/>
+      <c r="H202" s="11"/>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A203" s="34"/>
-      <c r="B203" s="52"/>
-      <c r="C203" s="42"/>
-      <c r="D203" s="55"/>
-      <c r="E203" s="10"/>
-      <c r="F203" s="45"/>
-      <c r="G203" s="68"/>
-      <c r="H203" s="11"/>
+      <c r="A203" s="35"/>
+      <c r="B203" s="54"/>
+      <c r="C203" s="40"/>
+      <c r="D203" s="57"/>
+      <c r="E203" s="6"/>
+      <c r="F203" s="44"/>
+      <c r="G203" s="44"/>
+      <c r="H203" s="12"/>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A204" s="35"/>
-      <c r="B204" s="54"/>
-      <c r="C204" s="40"/>
-      <c r="D204" s="57"/>
-      <c r="E204" s="6"/>
-      <c r="F204" s="44"/>
-      <c r="G204" s="44"/>
-      <c r="H204" s="12"/>
+      <c r="A204" s="34"/>
+      <c r="B204" s="52"/>
+      <c r="C204" s="42"/>
+      <c r="D204" s="55"/>
+      <c r="E204" s="10"/>
+      <c r="F204" s="45"/>
+      <c r="G204" s="68"/>
+      <c r="H204" s="11"/>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A205" s="34"/>
-      <c r="B205" s="52"/>
-      <c r="C205" s="42"/>
-      <c r="D205" s="55"/>
-      <c r="E205" s="10"/>
-      <c r="F205" s="45"/>
-      <c r="G205" s="68"/>
-      <c r="H205" s="11"/>
+      <c r="A205" s="35"/>
+      <c r="B205" s="54"/>
+      <c r="C205" s="40"/>
+      <c r="D205" s="57"/>
+      <c r="E205" s="6"/>
+      <c r="F205" s="44"/>
+      <c r="G205" s="44"/>
+      <c r="H205" s="12"/>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A206" s="35"/>
-      <c r="B206" s="54"/>
-      <c r="C206" s="40"/>
-      <c r="D206" s="57"/>
-      <c r="E206" s="6"/>
-      <c r="F206" s="44"/>
-      <c r="G206" s="44"/>
-      <c r="H206" s="12"/>
+      <c r="A206" s="34"/>
+      <c r="B206" s="52"/>
+      <c r="C206" s="42"/>
+      <c r="D206" s="55"/>
+      <c r="E206" s="10"/>
+      <c r="F206" s="45"/>
+      <c r="G206" s="68"/>
+      <c r="H206" s="11"/>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A207" s="35"/>
+      <c r="B207" s="54"/>
+      <c r="C207" s="40"/>
+      <c r="D207" s="57"/>
+      <c r="E207" s="6"/>
+      <c r="F207" s="44"/>
+      <c r="G207" s="44"/>
+      <c r="H207" s="12"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/TS Jatai Working/TTD Krama PaaraayaNam-Kramam.xlsx
+++ b/TS Jatai Working/TTD Krama PaaraayaNam-Kramam.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="349">
   <si>
     <t>Date</t>
   </si>
@@ -1037,6 +1037,30 @@
   </si>
   <si>
     <t>7.3.1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.3.2.2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.3.3.1 </t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=IUq4gh2fBMo&amp;list=PLjhrDIztP9pcSE8dR7xYZb7zwX5SXxNKy&amp;index=60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.3.9.3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.3.10.1 </t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=2txBJVu3YaU&amp;list=PLjhrDIztP9pcSE8dR7xYZb7zwX5SXxNKy&amp;index=59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.3.20.1 </t>
+  </si>
+  <si>
+    <t>7.4.11</t>
   </si>
 </sst>
 </file>
@@ -1748,9 +1772,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L207"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A179" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H187" sqref="H187"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A188" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G197" sqref="G197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -5434,7 +5458,9 @@
       <c r="E190" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F190" s="43"/>
+      <c r="F190" s="43" t="s">
+        <v>341</v>
+      </c>
       <c r="G190" s="56" t="s">
         <v>13</v>
       </c>
@@ -5446,26 +5472,42 @@
       <c r="A191" s="35"/>
       <c r="B191" s="54"/>
       <c r="C191" s="40"/>
-      <c r="D191" s="57"/>
-      <c r="E191" s="6"/>
-      <c r="F191" s="44"/>
+      <c r="D191" s="56"/>
+      <c r="E191" s="2"/>
+      <c r="F191" s="43"/>
       <c r="G191" s="7"/>
       <c r="H191" s="62"/>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A192" s="34"/>
-      <c r="B192" s="52"/>
-      <c r="C192" s="42"/>
-      <c r="D192" s="55"/>
-      <c r="E192" s="10"/>
-      <c r="F192" s="45"/>
-      <c r="G192" s="68"/>
-      <c r="H192" s="13"/>
+      <c r="A192" s="34">
+        <v>79</v>
+      </c>
+      <c r="B192" s="52">
+        <v>44524</v>
+      </c>
+      <c r="C192" s="65">
+        <v>2</v>
+      </c>
+      <c r="D192" s="55" t="s">
+        <v>342</v>
+      </c>
+      <c r="E192" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F192" s="45" t="s">
+        <v>344</v>
+      </c>
+      <c r="G192" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="H192" s="13" t="s">
+        <v>343</v>
+      </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" s="35"/>
       <c r="B193" s="54"/>
-      <c r="C193" s="40"/>
+      <c r="C193" s="5"/>
       <c r="D193" s="57"/>
       <c r="E193" s="6"/>
       <c r="F193" s="44"/>
@@ -5473,14 +5515,30 @@
       <c r="H193" s="12"/>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A194" s="34"/>
-      <c r="B194" s="52"/>
-      <c r="C194" s="42"/>
-      <c r="D194" s="55"/>
-      <c r="E194" s="10"/>
-      <c r="F194" s="45"/>
-      <c r="G194" s="68"/>
-      <c r="H194" s="11"/>
+      <c r="A194" s="34">
+        <v>80</v>
+      </c>
+      <c r="B194" s="52">
+        <v>44525</v>
+      </c>
+      <c r="C194" s="42">
+        <v>3</v>
+      </c>
+      <c r="D194" s="55" t="s">
+        <v>345</v>
+      </c>
+      <c r="E194" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F194" s="45" t="s">
+        <v>347</v>
+      </c>
+      <c r="G194" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="H194" s="11" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" s="35"/>
@@ -5493,11 +5551,21 @@
       <c r="H195" s="12"/>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A196" s="34"/>
-      <c r="B196" s="52"/>
-      <c r="C196" s="42"/>
-      <c r="D196" s="55"/>
-      <c r="E196" s="10"/>
+      <c r="A196" s="34">
+        <v>81</v>
+      </c>
+      <c r="B196" s="52">
+        <v>44526</v>
+      </c>
+      <c r="C196" s="42">
+        <v>1</v>
+      </c>
+      <c r="D196" s="55" t="s">
+        <v>348</v>
+      </c>
+      <c r="E196" s="10" t="s">
+        <v>9</v>
+      </c>
       <c r="F196" s="45"/>
       <c r="G196" s="68"/>
       <c r="H196" s="11"/>

--- a/TS Jatai Working/TTD Krama PaaraayaNam-Kramam.xlsx
+++ b/TS Jatai Working/TTD Krama PaaraayaNam-Kramam.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="358">
   <si>
     <t>Date</t>
   </si>
@@ -1061,6 +1061,33 @@
   </si>
   <si>
     <t>7.4.11</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=RzMY5DcHEDA&amp;list=PLjhrDIztP9pcSE8dR7xYZb7zwX5SXxNKy&amp;index=59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4.3.6 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4.4.1 </t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=YZaJmDHkB24&amp;list=PLjhrDIztP9pcSE8dR7xYZb7zwX5SXxNKy&amp;index=58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4.12.1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4.13.1 </t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=5A35ooLiDbE&amp;list=PLjhrDIztP9pcSE8dR7xYZb7zwX5SXxNKy&amp;index=58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4.22.1 </t>
+  </si>
+  <si>
+    <t>7.5.1.1</t>
   </si>
 </sst>
 </file>
@@ -1253,7 +1280,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1261,9 +1288,6 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1284,9 +1308,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -1295,9 +1316,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1309,12 +1327,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1362,12 +1374,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1416,12 +1422,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1437,33 +1437,117 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1773,3912 +1857,3960 @@
   <dimension ref="A1:L207"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A188" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G197" sqref="G197"/>
+      <pane ySplit="4" topLeftCell="A197" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H201" sqref="H201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.85546875" style="1"/>
-    <col min="2" max="2" width="15.7109375" style="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14" style="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="19" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" style="21" customWidth="1"/>
-    <col min="7" max="7" width="20.5703125" style="19" customWidth="1"/>
-    <col min="8" max="8" width="138.140625" style="17" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="17"/>
+    <col min="2" max="2" width="15.7109375" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="86" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" style="101" customWidth="1"/>
+    <col min="7" max="7" width="20.5703125" style="17" customWidth="1"/>
+    <col min="8" max="8" width="138.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="29"/>
-      <c r="F1" s="30" t="s">
+      <c r="E1" s="24"/>
+      <c r="F1" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="30"/>
-      <c r="H1" s="48" t="s">
+      <c r="G1" s="25"/>
+      <c r="H1" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="24"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="14" t="s">
+      <c r="A2" s="21"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="15"/>
-      <c r="F2" s="14" t="s">
+      <c r="E2" s="13"/>
+      <c r="F2" s="88" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="31"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="24"/>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="14" t="s">
+      <c r="A3" s="21"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="15"/>
-      <c r="F3" s="31" t="s">
+      <c r="E3" s="13"/>
+      <c r="F3" s="89" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="D4" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="33" t="s">
+      <c r="E4" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="33" t="s">
+      <c r="G4" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="50"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="34">
+      <c r="A5" s="29">
         <v>1</v>
       </c>
-      <c r="B5" s="37">
+      <c r="B5" s="32">
         <v>44446</v>
       </c>
-      <c r="C5" s="42">
+      <c r="C5" s="37">
         <v>1</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="73" t="s">
         <v>1</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="58" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="4" t="s">
+      <c r="G5" s="51" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="35"/>
-      <c r="B6" s="38"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="59"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
+      <c r="A6" s="30"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="74"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="92"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="34">
+      <c r="A7" s="29">
         <v>2</v>
       </c>
-      <c r="B7" s="37">
+      <c r="B7" s="32">
         <v>44447</v>
       </c>
-      <c r="C7" s="42">
+      <c r="C7" s="37">
         <v>1</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="9" t="s">
+      <c r="E7" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="93" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="58" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="11" t="s">
+      <c r="G7" s="51" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="35"/>
-      <c r="B8" s="38"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="59"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="16"/>
+      <c r="A8" s="30"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="76"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="92"/>
+      <c r="G8" s="52"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="34">
+      <c r="A9" s="29">
         <v>3</v>
       </c>
-      <c r="B9" s="37">
+      <c r="B9" s="32">
         <v>44448</v>
       </c>
-      <c r="C9" s="42">
+      <c r="C9" s="37">
         <v>2</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="9" t="s">
+      <c r="E9" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="93" t="s">
         <v>22</v>
       </c>
-      <c r="G9" s="55" t="s">
+      <c r="G9" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="H9" s="60" t="s">
+      <c r="H9" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="36"/>
-      <c r="B10" s="39">
+      <c r="A10" s="31"/>
+      <c r="B10" s="34">
         <v>44448</v>
       </c>
-      <c r="C10" s="41">
+      <c r="C10" s="36">
         <v>1</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="64" t="s">
         <v>24</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="94" t="s">
         <v>25</v>
       </c>
-      <c r="G10" s="56" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="61" t="s">
+      <c r="G10" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="35"/>
-      <c r="B11" s="38"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="62"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="16"/>
+      <c r="A11" s="30"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="76"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="92"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="55"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="34">
+      <c r="A12" s="29">
         <v>4</v>
       </c>
-      <c r="B12" s="37">
+      <c r="B12" s="32">
         <v>44449</v>
       </c>
-      <c r="C12" s="42">
+      <c r="C12" s="37">
         <v>2</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="E12" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" s="9" t="s">
+      <c r="E12" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="93" t="s">
         <v>28</v>
       </c>
-      <c r="G12" s="63" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" s="13" t="s">
+      <c r="G12" s="56" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="35"/>
-      <c r="B13" s="38"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="16"/>
+      <c r="A13" s="30"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="76"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="92"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="34">
+      <c r="A14" s="29">
         <v>5</v>
       </c>
-      <c r="B14" s="37">
+      <c r="B14" s="32">
         <v>44450</v>
       </c>
-      <c r="C14" s="42">
+      <c r="C14" s="37">
         <v>1</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="75" t="s">
         <v>29</v>
       </c>
-      <c r="E14" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F14" s="9" t="s">
+      <c r="E14" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="93" t="s">
         <v>31</v>
       </c>
-      <c r="G14" s="63" t="s">
-        <v>13</v>
-      </c>
-      <c r="H14" s="11" t="s">
+      <c r="G14" s="56" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="16"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="35"/>
-      <c r="B15" s="38"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="16"/>
+      <c r="A15" s="30"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="76"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="95"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="34">
+      <c r="A16" s="29">
         <v>6</v>
       </c>
-      <c r="B16" s="37">
+      <c r="B16" s="32">
         <v>44451</v>
       </c>
-      <c r="C16" s="42">
+      <c r="C16" s="37">
         <v>2</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="75" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F16" s="9" t="s">
+      <c r="E16" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="93" t="s">
         <v>35</v>
       </c>
-      <c r="G16" s="55" t="s">
+      <c r="G16" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="H16" s="60" t="s">
+      <c r="H16" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="16"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="36"/>
-      <c r="B17" s="39">
+      <c r="A17" s="31"/>
+      <c r="B17" s="34">
         <v>44451</v>
       </c>
-      <c r="C17" s="41">
+      <c r="C17" s="36">
         <v>1</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="64" t="s">
         <v>36</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" s="94" t="s">
         <v>37</v>
       </c>
-      <c r="G17" s="56" t="s">
-        <v>13</v>
-      </c>
-      <c r="H17" s="61" t="s">
+      <c r="G17" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="16"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="35"/>
-      <c r="B18" s="38"/>
-      <c r="C18" s="40"/>
-      <c r="D18" s="3"/>
+      <c r="A18" s="30"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="64"/>
       <c r="E18" s="2"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="64"/>
-      <c r="H18" s="62"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="16"/>
+      <c r="F18" s="94"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="55"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="34">
+      <c r="A19" s="29">
         <v>7</v>
       </c>
-      <c r="B19" s="37">
+      <c r="B19" s="32">
         <v>44452</v>
       </c>
-      <c r="C19" s="65">
+      <c r="C19" s="58">
         <v>2</v>
       </c>
-      <c r="D19" s="66" t="s">
+      <c r="D19" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="E19" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F19" s="9" t="s">
+      <c r="E19" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="93" t="s">
         <v>40</v>
       </c>
-      <c r="G19" s="58" t="s">
-        <v>13</v>
-      </c>
-      <c r="H19" s="13" t="s">
+      <c r="G19" s="51" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" s="12" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="35"/>
-      <c r="B20" s="40"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="64"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="46"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="13"/>
+      <c r="A20" s="30"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="78"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="96"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="12"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="34">
+      <c r="A21" s="29">
         <v>8</v>
       </c>
-      <c r="B21" s="37">
+      <c r="B21" s="32">
         <v>44453</v>
       </c>
-      <c r="C21" s="42">
+      <c r="C21" s="37">
         <v>2</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D21" s="75" t="s">
         <v>41</v>
       </c>
-      <c r="E21" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F21" s="9" t="s">
+      <c r="E21" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" s="93" t="s">
         <v>44</v>
       </c>
-      <c r="G21" s="58" t="s">
+      <c r="G21" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="H21" s="11" t="s">
+      <c r="H21" s="10" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="36"/>
-      <c r="B22" s="39">
+      <c r="A22" s="31"/>
+      <c r="B22" s="34">
         <v>44453</v>
       </c>
-      <c r="C22" s="41">
+      <c r="C22" s="36">
         <v>1</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="64" t="s">
         <v>45</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="F22" s="94" t="s">
         <v>46</v>
       </c>
-      <c r="G22" s="68" t="s">
-        <v>13</v>
-      </c>
-      <c r="H22" s="13" t="s">
+      <c r="G22" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" s="12" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="35"/>
-      <c r="B23" s="40"/>
-      <c r="C23" s="40"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="67"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="12"/>
+      <c r="A23" s="30"/>
+      <c r="B23" s="35"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="74"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="97"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="11"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="34">
-        <v>9</v>
-      </c>
-      <c r="B24" s="37">
+      <c r="A24" s="29">
+        <v>9</v>
+      </c>
+      <c r="B24" s="32">
         <v>44454</v>
       </c>
-      <c r="C24" s="42">
+      <c r="C24" s="37">
         <v>2</v>
       </c>
-      <c r="D24" s="9" t="s">
+      <c r="D24" s="75" t="s">
         <v>47</v>
       </c>
-      <c r="E24" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F24" s="9" t="s">
+      <c r="E24" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" s="93" t="s">
         <v>49</v>
       </c>
-      <c r="G24" s="68" t="s">
-        <v>13</v>
-      </c>
-      <c r="H24" s="4" t="s">
+      <c r="G24" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="H24" s="3" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="35"/>
-      <c r="B25" s="41"/>
-      <c r="C25" s="41"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="47"/>
-      <c r="G25" s="41"/>
-      <c r="H25" s="13"/>
+      <c r="A25" s="30"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="98"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="12"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="69">
+      <c r="A26" s="60">
         <v>10</v>
       </c>
-      <c r="B26" s="71">
+      <c r="B26" s="62">
         <v>44455</v>
       </c>
-      <c r="C26" s="42">
+      <c r="C26" s="37">
         <v>3</v>
       </c>
-      <c r="D26" s="9" t="s">
+      <c r="D26" s="75" t="s">
         <v>50</v>
       </c>
-      <c r="E26" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F26" s="9" t="s">
+      <c r="E26" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" s="93" t="s">
         <v>52</v>
       </c>
-      <c r="G26" s="58" t="s">
+      <c r="G26" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="H26" s="11" t="s">
+      <c r="H26" s="10" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="70"/>
-      <c r="B27" s="72">
+      <c r="A27" s="61"/>
+      <c r="B27" s="63">
         <v>44455</v>
       </c>
-      <c r="C27" s="41">
+      <c r="C27" s="36">
         <v>1</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="64" t="s">
         <v>54</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F27" s="3" t="s">
+      <c r="F27" s="94" t="s">
         <v>55</v>
       </c>
-      <c r="G27" s="68" t="s">
-        <v>13</v>
-      </c>
-      <c r="H27" s="13" t="s">
+      <c r="G27" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="H27" s="12" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="64"/>
-      <c r="B28" s="35"/>
-      <c r="C28" s="40"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="67"/>
-      <c r="G28" s="35"/>
-      <c r="H28" s="12"/>
+      <c r="A28" s="57"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="35"/>
+      <c r="D28" s="74"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="97"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="11"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="34">
+      <c r="A29" s="29">
         <v>11</v>
       </c>
-      <c r="B29" s="39">
+      <c r="B29" s="34">
         <v>44456</v>
       </c>
-      <c r="C29" s="41">
+      <c r="C29" s="36">
         <v>2</v>
       </c>
-      <c r="D29" s="73" t="s">
+      <c r="D29" s="79" t="s">
         <v>56</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F29" s="9" t="s">
+      <c r="F29" s="93" t="s">
         <v>58</v>
       </c>
-      <c r="G29" s="68" t="s">
-        <v>13</v>
-      </c>
-      <c r="H29" s="74" t="s">
+      <c r="G29" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="H29" s="64" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="35"/>
-      <c r="B30" s="40"/>
-      <c r="C30" s="40"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="46"/>
-      <c r="G30" s="40"/>
-      <c r="H30" s="12"/>
+      <c r="A30" s="30"/>
+      <c r="B30" s="35"/>
+      <c r="C30" s="35"/>
+      <c r="D30" s="74"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="96"/>
+      <c r="G30" s="35"/>
+      <c r="H30" s="11"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="34">
+      <c r="A31" s="29">
         <v>12</v>
       </c>
-      <c r="B31" s="37">
+      <c r="B31" s="32">
         <v>44457</v>
       </c>
-      <c r="C31" s="42">
+      <c r="C31" s="37">
         <v>3</v>
       </c>
-      <c r="D31" s="73" t="s">
+      <c r="D31" s="79" t="s">
         <v>59</v>
       </c>
-      <c r="E31" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F31" s="9" t="s">
+      <c r="E31" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31" s="93" t="s">
         <v>61</v>
       </c>
-      <c r="G31" s="68" t="s">
-        <v>13</v>
-      </c>
-      <c r="H31" s="22" t="s">
+      <c r="G31" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="H31" s="19" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="35"/>
-      <c r="B32" s="38"/>
-      <c r="C32" s="40"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="44"/>
-      <c r="G32" s="40"/>
-      <c r="H32" s="12"/>
+      <c r="A32" s="30"/>
+      <c r="B32" s="33"/>
+      <c r="C32" s="35"/>
+      <c r="D32" s="76"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="95"/>
+      <c r="G32" s="35"/>
+      <c r="H32" s="11"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="34">
-        <v>13</v>
-      </c>
-      <c r="B33" s="37">
+      <c r="A33" s="29">
+        <v>13</v>
+      </c>
+      <c r="B33" s="32">
         <v>44458</v>
       </c>
-      <c r="C33" s="42">
+      <c r="C33" s="37">
         <v>1</v>
       </c>
-      <c r="D33" s="9" t="s">
+      <c r="D33" s="75" t="s">
         <v>62</v>
       </c>
-      <c r="E33" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F33" s="9" t="s">
+      <c r="E33" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F33" s="93" t="s">
         <v>64</v>
       </c>
-      <c r="G33" s="68" t="s">
-        <v>13</v>
-      </c>
-      <c r="H33" s="11" t="s">
+      <c r="G33" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="H33" s="10" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="36"/>
-      <c r="B34" s="39"/>
-      <c r="C34" s="41"/>
-      <c r="D34" s="3"/>
+      <c r="A34" s="31"/>
+      <c r="B34" s="34"/>
+      <c r="C34" s="36"/>
+      <c r="D34" s="64"/>
       <c r="E34" s="2"/>
-      <c r="F34" s="43"/>
-      <c r="G34" s="43"/>
-      <c r="H34" s="13"/>
+      <c r="F34" s="99"/>
+      <c r="G34" s="38"/>
+      <c r="H34" s="12"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="34">
+      <c r="A35" s="29">
         <v>14</v>
       </c>
-      <c r="B35" s="52">
+      <c r="B35" s="45">
         <v>44459</v>
       </c>
-      <c r="C35" s="34">
+      <c r="C35" s="29">
         <v>2</v>
       </c>
-      <c r="D35" s="55" t="s">
+      <c r="D35" s="68" t="s">
         <v>65</v>
       </c>
-      <c r="E35" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F35" s="45" t="s">
+      <c r="E35" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F35" s="100" t="s">
         <v>68</v>
       </c>
-      <c r="G35" s="58" t="s">
+      <c r="G35" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="H35" s="11" t="s">
+      <c r="H35" s="10" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="36"/>
-      <c r="B36" s="53">
+      <c r="A36" s="31"/>
+      <c r="B36" s="46">
         <v>44459</v>
       </c>
-      <c r="C36" s="36">
+      <c r="C36" s="31">
         <v>1</v>
       </c>
-      <c r="D36" s="56" t="s">
+      <c r="D36" s="69" t="s">
         <v>69</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F36" s="3" t="s">
+      <c r="F36" s="94" t="s">
         <v>70</v>
       </c>
-      <c r="G36" s="68" t="s">
-        <v>13</v>
-      </c>
-      <c r="H36" s="13" t="s">
+      <c r="G36" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="H36" s="12" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="35"/>
-      <c r="B37" s="35"/>
-      <c r="C37" s="35"/>
-      <c r="D37" s="64"/>
-      <c r="E37" s="26"/>
-      <c r="F37" s="46"/>
-      <c r="G37" s="35"/>
-      <c r="H37" s="12"/>
+      <c r="A37" s="30"/>
+      <c r="B37" s="30"/>
+      <c r="C37" s="30"/>
+      <c r="D37" s="78"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="96"/>
+      <c r="G37" s="30"/>
+      <c r="H37" s="11"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="36">
+      <c r="A38" s="31">
         <v>15</v>
       </c>
-      <c r="B38" s="39">
+      <c r="B38" s="34">
         <v>44460</v>
       </c>
-      <c r="C38" s="41">
+      <c r="C38" s="36">
         <v>2</v>
       </c>
-      <c r="D38" s="55" t="s">
+      <c r="D38" s="68" t="s">
         <v>71</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F38" s="45" t="s">
+      <c r="F38" s="100" t="s">
         <v>73</v>
       </c>
-      <c r="G38" s="68" t="s">
-        <v>13</v>
-      </c>
-      <c r="H38" s="13" t="s">
+      <c r="G38" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="H38" s="12" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="35"/>
-      <c r="B39" s="40"/>
-      <c r="C39" s="40"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="26"/>
-      <c r="F39" s="46"/>
-      <c r="G39" s="40"/>
-      <c r="H39" s="13"/>
+      <c r="A39" s="30"/>
+      <c r="B39" s="35"/>
+      <c r="C39" s="35"/>
+      <c r="D39" s="74"/>
+      <c r="E39" s="23"/>
+      <c r="F39" s="96"/>
+      <c r="G39" s="35"/>
+      <c r="H39" s="12"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="34">
+      <c r="A40" s="29">
         <v>16</v>
       </c>
-      <c r="B40" s="37">
+      <c r="B40" s="32">
         <v>44461</v>
       </c>
-      <c r="C40" s="42">
+      <c r="C40" s="37">
         <v>3</v>
       </c>
-      <c r="D40" s="55" t="s">
+      <c r="D40" s="68" t="s">
         <v>74</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F40" s="45" t="s">
+      <c r="F40" s="100" t="s">
         <v>77</v>
       </c>
-      <c r="G40" s="9" t="s">
+      <c r="G40" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="H40" s="60" t="s">
+      <c r="H40" s="53" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="36"/>
-      <c r="B41" s="39">
+      <c r="A41" s="31"/>
+      <c r="B41" s="34">
         <v>44461</v>
       </c>
-      <c r="C41" s="41">
+      <c r="C41" s="36">
         <v>1</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="D41" s="64" t="s">
         <v>78</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F41" s="3" t="s">
+      <c r="F41" s="94" t="s">
         <v>79</v>
       </c>
-      <c r="G41" s="56" t="s">
-        <v>13</v>
-      </c>
-      <c r="H41" s="61" t="s">
+      <c r="G41" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="H41" s="54" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="35"/>
-      <c r="B42" s="40"/>
-      <c r="C42" s="40"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="26"/>
-      <c r="F42" s="46"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="62"/>
+      <c r="A42" s="30"/>
+      <c r="B42" s="35"/>
+      <c r="C42" s="35"/>
+      <c r="D42" s="74"/>
+      <c r="E42" s="23"/>
+      <c r="F42" s="96"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="55"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="34">
+      <c r="A43" s="29">
         <v>17</v>
       </c>
-      <c r="B43" s="37">
+      <c r="B43" s="32">
         <v>44462</v>
       </c>
-      <c r="C43" s="42">
+      <c r="C43" s="37">
         <v>2</v>
       </c>
-      <c r="D43" s="55" t="s">
+      <c r="D43" s="68" t="s">
         <v>80</v>
       </c>
-      <c r="E43" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F43" s="45" t="s">
+      <c r="E43" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F43" s="100" t="s">
         <v>82</v>
       </c>
-      <c r="G43" s="68" t="s">
-        <v>13</v>
-      </c>
-      <c r="H43" s="4" t="s">
+      <c r="G43" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="H43" s="3" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="35"/>
-      <c r="B44" s="41"/>
-      <c r="C44" s="41"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="18"/>
-      <c r="F44" s="47"/>
-      <c r="G44" s="41"/>
-      <c r="H44" s="13"/>
+      <c r="A44" s="30"/>
+      <c r="B44" s="36"/>
+      <c r="C44" s="36"/>
+      <c r="D44" s="73"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="98"/>
+      <c r="G44" s="36"/>
+      <c r="H44" s="12"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="69">
+      <c r="A45" s="60">
         <v>18</v>
       </c>
-      <c r="B45" s="52">
+      <c r="B45" s="45">
         <v>44463</v>
       </c>
-      <c r="C45" s="34">
+      <c r="C45" s="29">
         <v>3</v>
       </c>
-      <c r="D45" s="55" t="s">
+      <c r="D45" s="68" t="s">
         <v>83</v>
       </c>
-      <c r="E45" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F45" s="45" t="s">
+      <c r="E45" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F45" s="100" t="s">
         <v>85</v>
       </c>
-      <c r="G45" s="58" t="s">
+      <c r="G45" s="51" t="s">
         <v>86</v>
       </c>
-      <c r="H45" s="22" t="s">
+      <c r="H45" s="19" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="70"/>
-      <c r="B46" s="53">
+      <c r="A46" s="61"/>
+      <c r="B46" s="46">
         <v>44463</v>
       </c>
-      <c r="C46" s="36">
+      <c r="C46" s="31">
         <v>1</v>
       </c>
-      <c r="D46" s="56" t="s">
+      <c r="D46" s="69" t="s">
         <v>87</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F46" s="3" t="s">
+      <c r="F46" s="94" t="s">
         <v>88</v>
       </c>
-      <c r="G46" s="68" t="s">
-        <v>13</v>
-      </c>
-      <c r="H46" s="4" t="s">
+      <c r="G46" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="H46" s="3" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="64"/>
-      <c r="B47" s="35"/>
-      <c r="C47" s="35"/>
-      <c r="D47" s="64"/>
-      <c r="E47" s="26"/>
-      <c r="F47" s="46"/>
-      <c r="G47" s="35"/>
-      <c r="H47" s="12"/>
+      <c r="A47" s="57"/>
+      <c r="B47" s="30"/>
+      <c r="C47" s="30"/>
+      <c r="D47" s="78"/>
+      <c r="E47" s="23"/>
+      <c r="F47" s="96"/>
+      <c r="G47" s="30"/>
+      <c r="H47" s="11"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="34">
+      <c r="A48" s="29">
         <v>19</v>
       </c>
-      <c r="B48" s="39">
+      <c r="B48" s="34">
         <v>44464</v>
       </c>
-      <c r="C48" s="41">
+      <c r="C48" s="36">
         <v>2</v>
       </c>
-      <c r="D48" s="55" t="s">
+      <c r="D48" s="68" t="s">
         <v>89</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F48" s="45" t="s">
+      <c r="F48" s="100" t="s">
         <v>90</v>
       </c>
-      <c r="G48" s="68" t="s">
-        <v>13</v>
-      </c>
-      <c r="H48" s="75" t="s">
+      <c r="G48" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="H48" s="65" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="36"/>
-      <c r="B49" s="41"/>
-      <c r="C49" s="41"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="18"/>
-      <c r="F49" s="47"/>
-      <c r="G49" s="41"/>
-      <c r="H49" s="13"/>
+      <c r="A49" s="31"/>
+      <c r="B49" s="36"/>
+      <c r="C49" s="36"/>
+      <c r="D49" s="73"/>
+      <c r="E49" s="16"/>
+      <c r="F49" s="98"/>
+      <c r="G49" s="36"/>
+      <c r="H49" s="12"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="34">
+      <c r="A50" s="29">
         <v>20</v>
       </c>
-      <c r="B50" s="37">
+      <c r="B50" s="32">
         <v>44465</v>
       </c>
-      <c r="C50" s="42">
+      <c r="C50" s="37">
         <v>3</v>
       </c>
-      <c r="D50" s="9" t="s">
+      <c r="D50" s="75" t="s">
         <v>91</v>
       </c>
-      <c r="E50" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F50" s="45" t="s">
+      <c r="E50" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F50" s="100" t="s">
         <v>93</v>
       </c>
-      <c r="G50" s="45" t="s">
+      <c r="G50" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="H50" s="11" t="s">
+      <c r="H50" s="10" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="36"/>
-      <c r="B51" s="39">
+      <c r="A51" s="31"/>
+      <c r="B51" s="34">
         <v>44465</v>
       </c>
-      <c r="C51" s="41">
+      <c r="C51" s="36">
         <v>1</v>
       </c>
-      <c r="D51" s="3" t="s">
+      <c r="D51" s="64" t="s">
         <v>95</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F51" s="3" t="s">
+      <c r="F51" s="94" t="s">
         <v>96</v>
       </c>
-      <c r="G51" s="68" t="s">
-        <v>13</v>
-      </c>
-      <c r="H51" s="13" t="s">
+      <c r="G51" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="H51" s="12" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="35"/>
-      <c r="B52" s="40"/>
-      <c r="C52" s="40"/>
-      <c r="D52" s="5"/>
-      <c r="E52" s="26"/>
-      <c r="F52" s="46"/>
-      <c r="G52" s="40"/>
-      <c r="H52" s="12"/>
+      <c r="A52" s="30"/>
+      <c r="B52" s="35"/>
+      <c r="C52" s="35"/>
+      <c r="D52" s="74"/>
+      <c r="E52" s="23"/>
+      <c r="F52" s="96"/>
+      <c r="G52" s="35"/>
+      <c r="H52" s="11"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="36">
+      <c r="A53" s="31">
         <v>21</v>
       </c>
-      <c r="B53" s="39">
+      <c r="B53" s="34">
         <v>44466</v>
       </c>
-      <c r="C53" s="41">
+      <c r="C53" s="36">
         <v>2</v>
       </c>
-      <c r="D53" s="9" t="s">
+      <c r="D53" s="75" t="s">
         <v>97</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F53" s="45" t="s">
+      <c r="F53" s="100" t="s">
         <v>99</v>
       </c>
-      <c r="G53" s="68" t="s">
-        <v>13</v>
-      </c>
-      <c r="H53" s="13" t="s">
+      <c r="G53" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="H53" s="12" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="35"/>
-      <c r="B54" s="40"/>
-      <c r="C54" s="40"/>
-      <c r="D54" s="5"/>
-      <c r="E54" s="26"/>
-      <c r="F54" s="46"/>
-      <c r="G54" s="40"/>
-      <c r="H54" s="12"/>
+      <c r="A54" s="30"/>
+      <c r="B54" s="35"/>
+      <c r="C54" s="35"/>
+      <c r="D54" s="74"/>
+      <c r="E54" s="23"/>
+      <c r="F54" s="96"/>
+      <c r="G54" s="35"/>
+      <c r="H54" s="11"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="34">
+      <c r="A55" s="29">
         <v>22</v>
       </c>
-      <c r="B55" s="37">
+      <c r="B55" s="32">
         <v>44467</v>
       </c>
-      <c r="C55" s="42">
+      <c r="C55" s="37">
         <v>1</v>
       </c>
-      <c r="D55" s="9" t="s">
+      <c r="D55" s="75" t="s">
         <v>101</v>
       </c>
-      <c r="E55" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F55" s="45" t="s">
+      <c r="E55" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F55" s="100" t="s">
         <v>103</v>
       </c>
-      <c r="G55" s="68" t="s">
-        <v>13</v>
-      </c>
-      <c r="H55" s="11" t="s">
+      <c r="G55" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="H55" s="10" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="35"/>
-      <c r="B56" s="40"/>
-      <c r="C56" s="40"/>
-      <c r="D56" s="5"/>
-      <c r="E56" s="26"/>
-      <c r="F56" s="46"/>
-      <c r="G56" s="40"/>
-      <c r="H56" s="12"/>
+      <c r="A56" s="30"/>
+      <c r="B56" s="35"/>
+      <c r="C56" s="35"/>
+      <c r="D56" s="74"/>
+      <c r="E56" s="23"/>
+      <c r="F56" s="96"/>
+      <c r="G56" s="35"/>
+      <c r="H56" s="11"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="34">
+      <c r="A57" s="29">
         <v>23</v>
       </c>
-      <c r="B57" s="37">
+      <c r="B57" s="32">
         <v>44468</v>
       </c>
-      <c r="C57" s="42">
+      <c r="C57" s="37">
         <v>2</v>
       </c>
-      <c r="D57" s="9" t="s">
+      <c r="D57" s="75" t="s">
         <v>104</v>
       </c>
-      <c r="E57" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F57" s="45" t="s">
+      <c r="E57" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F57" s="100" t="s">
         <v>106</v>
       </c>
-      <c r="G57" s="68" t="s">
-        <v>13</v>
-      </c>
-      <c r="H57" s="11" t="s">
+      <c r="G57" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="H57" s="10" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="36"/>
-      <c r="B58" s="41"/>
-      <c r="C58" s="41"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="18"/>
-      <c r="F58" s="47"/>
-      <c r="G58" s="41"/>
-      <c r="H58" s="13"/>
+      <c r="A58" s="31"/>
+      <c r="B58" s="36"/>
+      <c r="C58" s="36"/>
+      <c r="D58" s="73"/>
+      <c r="E58" s="16"/>
+      <c r="F58" s="98"/>
+      <c r="G58" s="36"/>
+      <c r="H58" s="12"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="34">
+      <c r="A59" s="29">
         <v>24</v>
       </c>
-      <c r="B59" s="37">
+      <c r="B59" s="32">
         <v>44469</v>
       </c>
-      <c r="C59" s="42">
+      <c r="C59" s="37">
         <v>3</v>
       </c>
-      <c r="D59" s="55" t="s">
+      <c r="D59" s="68" t="s">
         <v>107</v>
       </c>
-      <c r="E59" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F59" s="45" t="s">
+      <c r="E59" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F59" s="100" t="s">
         <v>109</v>
       </c>
-      <c r="G59" s="45" t="s">
+      <c r="G59" s="40" t="s">
         <v>110</v>
       </c>
-      <c r="H59" s="11" t="s">
+      <c r="H59" s="10" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="36"/>
-      <c r="B60" s="39">
+      <c r="A60" s="31"/>
+      <c r="B60" s="34">
         <v>44469</v>
       </c>
-      <c r="C60" s="41">
+      <c r="C60" s="36">
         <v>1</v>
       </c>
-      <c r="D60" s="56" t="s">
+      <c r="D60" s="69" t="s">
         <v>111</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F60" s="3" t="s">
+      <c r="F60" s="94" t="s">
         <v>112</v>
       </c>
-      <c r="G60" s="68" t="s">
-        <v>13</v>
-      </c>
-      <c r="H60" s="13" t="s">
+      <c r="G60" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="H60" s="12" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="35"/>
-      <c r="B61" s="40"/>
-      <c r="C61" s="40"/>
-      <c r="D61" s="64"/>
-      <c r="E61" s="26"/>
-      <c r="F61" s="46"/>
-      <c r="G61" s="40"/>
-      <c r="H61" s="12"/>
+      <c r="A61" s="30"/>
+      <c r="B61" s="35"/>
+      <c r="C61" s="35"/>
+      <c r="D61" s="78"/>
+      <c r="E61" s="23"/>
+      <c r="F61" s="96"/>
+      <c r="G61" s="35"/>
+      <c r="H61" s="11"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="36">
+      <c r="A62" s="31">
         <v>25</v>
       </c>
-      <c r="B62" s="39">
+      <c r="B62" s="34">
         <v>44470</v>
       </c>
-      <c r="C62" s="41">
+      <c r="C62" s="36">
         <v>2</v>
       </c>
-      <c r="D62" s="55" t="s">
+      <c r="D62" s="68" t="s">
         <v>113</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F62" s="45" t="s">
+      <c r="F62" s="100" t="s">
         <v>115</v>
       </c>
-      <c r="G62" s="68" t="s">
-        <v>13</v>
-      </c>
-      <c r="H62" s="13" t="s">
+      <c r="G62" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="H62" s="12" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="35"/>
-      <c r="B63" s="40"/>
-      <c r="C63" s="40"/>
-      <c r="D63" s="5"/>
-      <c r="E63" s="26"/>
-      <c r="F63" s="46"/>
-      <c r="G63" s="40"/>
-      <c r="H63" s="13"/>
+      <c r="A63" s="30"/>
+      <c r="B63" s="35"/>
+      <c r="C63" s="35"/>
+      <c r="D63" s="74"/>
+      <c r="E63" s="23"/>
+      <c r="F63" s="96"/>
+      <c r="G63" s="35"/>
+      <c r="H63" s="12"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="34">
+      <c r="A64" s="29">
         <v>26</v>
       </c>
-      <c r="B64" s="37">
+      <c r="B64" s="32">
         <v>44471</v>
       </c>
-      <c r="C64" s="42">
+      <c r="C64" s="37">
         <v>3</v>
       </c>
-      <c r="D64" s="55" t="s">
+      <c r="D64" s="68" t="s">
         <v>116</v>
       </c>
-      <c r="E64" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F64" s="45" t="s">
+      <c r="E64" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F64" s="100" t="s">
         <v>118</v>
       </c>
-      <c r="G64" s="9" t="s">
+      <c r="G64" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="H64" s="60" t="s">
+      <c r="H64" s="53" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="36"/>
-      <c r="B65" s="39">
+      <c r="A65" s="31"/>
+      <c r="B65" s="34">
         <v>44471</v>
       </c>
-      <c r="C65" s="41">
+      <c r="C65" s="36">
         <v>1</v>
       </c>
-      <c r="D65" s="3" t="s">
+      <c r="D65" s="64" t="s">
         <v>120</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F65" s="3" t="s">
+      <c r="F65" s="94" t="s">
         <v>121</v>
       </c>
-      <c r="G65" s="56" t="s">
-        <v>13</v>
-      </c>
-      <c r="H65" s="61" t="s">
+      <c r="G65" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="H65" s="54" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="36"/>
-      <c r="B66" s="41"/>
-      <c r="C66" s="41"/>
-      <c r="D66" s="1"/>
-      <c r="E66" s="18"/>
-      <c r="F66" s="47"/>
+      <c r="A66" s="31"/>
+      <c r="B66" s="36"/>
+      <c r="C66" s="36"/>
+      <c r="D66" s="73"/>
+      <c r="E66" s="16"/>
+      <c r="F66" s="98"/>
       <c r="G66" s="1"/>
-      <c r="H66" s="61"/>
+      <c r="H66" s="54"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="34">
+      <c r="A67" s="29">
         <v>27</v>
       </c>
-      <c r="B67" s="37">
+      <c r="B67" s="32">
         <v>44472</v>
       </c>
-      <c r="C67" s="42">
+      <c r="C67" s="37">
         <v>2</v>
       </c>
-      <c r="D67" s="9" t="s">
+      <c r="D67" s="75" t="s">
         <v>122</v>
       </c>
-      <c r="E67" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F67" s="45" t="s">
+      <c r="E67" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F67" s="100" t="s">
         <v>124</v>
       </c>
-      <c r="G67" s="45" t="s">
+      <c r="G67" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="H67" s="11" t="s">
+      <c r="H67" s="10" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="36"/>
-      <c r="B68" s="39">
+      <c r="A68" s="31"/>
+      <c r="B68" s="34">
         <v>44472</v>
       </c>
-      <c r="C68" s="41">
+      <c r="C68" s="36">
         <v>1</v>
       </c>
-      <c r="D68" s="3" t="s">
+      <c r="D68" s="64" t="s">
         <v>126</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F68" s="3" t="s">
+      <c r="F68" s="94" t="s">
         <v>127</v>
       </c>
-      <c r="G68" s="56" t="s">
-        <v>13</v>
-      </c>
-      <c r="H68" s="13" t="s">
+      <c r="G68" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="H68" s="12" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="35"/>
-      <c r="B69" s="40"/>
-      <c r="C69" s="40"/>
-      <c r="D69" s="5"/>
-      <c r="E69" s="26"/>
-      <c r="F69" s="46"/>
-      <c r="G69" s="40"/>
-      <c r="H69" s="12"/>
+      <c r="A69" s="30"/>
+      <c r="B69" s="35"/>
+      <c r="C69" s="35"/>
+      <c r="D69" s="74"/>
+      <c r="E69" s="23"/>
+      <c r="F69" s="96"/>
+      <c r="G69" s="35"/>
+      <c r="H69" s="11"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="36">
+      <c r="A70" s="31">
         <v>28</v>
       </c>
-      <c r="B70" s="37">
+      <c r="B70" s="32">
         <v>44473</v>
       </c>
-      <c r="C70" s="41">
+      <c r="C70" s="36">
         <v>2</v>
       </c>
-      <c r="D70" s="9" t="s">
+      <c r="D70" s="75" t="s">
         <v>128</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F70" s="45" t="s">
+      <c r="F70" s="100" t="s">
         <v>130</v>
       </c>
-      <c r="G70" s="68" t="s">
-        <v>13</v>
-      </c>
-      <c r="H70" s="13" t="s">
+      <c r="G70" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="H70" s="12" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="35"/>
-      <c r="B71" s="40"/>
-      <c r="C71" s="40"/>
-      <c r="D71" s="5"/>
-      <c r="E71" s="26"/>
-      <c r="F71" s="46"/>
-      <c r="G71" s="40"/>
-      <c r="H71" s="12"/>
+      <c r="A71" s="30"/>
+      <c r="B71" s="35"/>
+      <c r="C71" s="35"/>
+      <c r="D71" s="74"/>
+      <c r="E71" s="23"/>
+      <c r="F71" s="96"/>
+      <c r="G71" s="35"/>
+      <c r="H71" s="11"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="34">
+      <c r="A72" s="29">
         <v>29</v>
       </c>
-      <c r="B72" s="37">
+      <c r="B72" s="32">
         <v>44474</v>
       </c>
-      <c r="C72" s="42">
+      <c r="C72" s="37">
         <v>1</v>
       </c>
-      <c r="D72" s="73" t="s">
+      <c r="D72" s="79" t="s">
         <v>131</v>
       </c>
-      <c r="E72" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F72" s="45" t="s">
+      <c r="E72" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F72" s="100" t="s">
         <v>132</v>
       </c>
-      <c r="G72" s="68" t="s">
-        <v>13</v>
-      </c>
-      <c r="H72" s="11" t="s">
+      <c r="G72" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="H72" s="10" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="36"/>
-      <c r="B73" s="41"/>
-      <c r="C73" s="41"/>
-      <c r="D73" s="1"/>
-      <c r="E73" s="18"/>
-      <c r="F73" s="47"/>
-      <c r="G73" s="41"/>
-      <c r="H73" s="13"/>
+      <c r="A73" s="31"/>
+      <c r="B73" s="36"/>
+      <c r="C73" s="36"/>
+      <c r="D73" s="73"/>
+      <c r="E73" s="16"/>
+      <c r="F73" s="98"/>
+      <c r="G73" s="36"/>
+      <c r="H73" s="12"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="34">
+      <c r="A74" s="29">
         <v>30</v>
       </c>
-      <c r="B74" s="52">
+      <c r="B74" s="45">
         <v>44475</v>
       </c>
-      <c r="C74" s="34">
+      <c r="C74" s="29">
         <v>2</v>
       </c>
-      <c r="D74" s="76" t="s">
+      <c r="D74" s="80" t="s">
         <v>134</v>
       </c>
-      <c r="E74" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F74" s="45" t="s">
+      <c r="E74" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F74" s="100" t="s">
         <v>136</v>
       </c>
-      <c r="G74" s="58" t="s">
+      <c r="G74" s="51" t="s">
         <v>137</v>
       </c>
-      <c r="H74" s="11" t="s">
+      <c r="H74" s="10" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="36"/>
-      <c r="B75" s="53">
+      <c r="A75" s="31"/>
+      <c r="B75" s="46">
         <v>44475</v>
       </c>
-      <c r="C75" s="36">
+      <c r="C75" s="31">
         <v>1</v>
       </c>
-      <c r="D75" s="77" t="s">
+      <c r="D75" s="81" t="s">
         <v>138</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F75" s="3" t="s">
+      <c r="F75" s="94" t="s">
         <v>139</v>
       </c>
-      <c r="G75" s="56" t="s">
-        <v>13</v>
-      </c>
-      <c r="H75" s="13" t="s">
+      <c r="G75" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="H75" s="12" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" s="35"/>
-      <c r="B76" s="35"/>
-      <c r="C76" s="35"/>
-      <c r="D76" s="64"/>
-      <c r="E76" s="26"/>
-      <c r="F76" s="46"/>
-      <c r="G76" s="35"/>
-      <c r="H76" s="12"/>
+      <c r="A76" s="30"/>
+      <c r="B76" s="30"/>
+      <c r="C76" s="30"/>
+      <c r="D76" s="78"/>
+      <c r="E76" s="23"/>
+      <c r="F76" s="96"/>
+      <c r="G76" s="30"/>
+      <c r="H76" s="11"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77" s="36">
+      <c r="A77" s="31">
         <v>31</v>
       </c>
-      <c r="B77" s="53">
+      <c r="B77" s="46">
         <v>44476</v>
       </c>
-      <c r="C77" s="41">
+      <c r="C77" s="36">
         <v>2</v>
       </c>
-      <c r="D77" s="76" t="s">
+      <c r="D77" s="80" t="s">
         <v>140</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F77" s="45" t="s">
+      <c r="F77" s="100" t="s">
         <v>142</v>
       </c>
-      <c r="G77" s="68" t="s">
-        <v>13</v>
-      </c>
-      <c r="H77" s="13" t="s">
+      <c r="G77" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="H77" s="12" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" s="36"/>
-      <c r="B78" s="41"/>
-      <c r="C78" s="41"/>
-      <c r="D78" s="1"/>
-      <c r="E78" s="18"/>
-      <c r="F78" s="47"/>
-      <c r="G78" s="41"/>
-      <c r="H78" s="13"/>
+      <c r="A78" s="31"/>
+      <c r="B78" s="36"/>
+      <c r="C78" s="36"/>
+      <c r="D78" s="73"/>
+      <c r="E78" s="16"/>
+      <c r="F78" s="98"/>
+      <c r="G78" s="36"/>
+      <c r="H78" s="12"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" s="69">
+      <c r="A79" s="60">
         <v>32</v>
       </c>
-      <c r="B79" s="52">
+      <c r="B79" s="45">
         <v>44477</v>
       </c>
-      <c r="C79" s="34">
+      <c r="C79" s="29">
         <v>3</v>
       </c>
-      <c r="D79" s="76" t="s">
+      <c r="D79" s="80" t="s">
         <v>143</v>
       </c>
-      <c r="E79" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F79" s="45" t="s">
+      <c r="E79" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F79" s="100" t="s">
         <v>146</v>
       </c>
-      <c r="G79" s="58" t="s">
+      <c r="G79" s="51" t="s">
         <v>145</v>
       </c>
-      <c r="H79" s="11" t="s">
+      <c r="H79" s="10" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80" s="70"/>
-      <c r="B80" s="53">
+      <c r="A80" s="61"/>
+      <c r="B80" s="46">
         <v>44477</v>
       </c>
-      <c r="C80" s="36">
+      <c r="C80" s="31">
         <v>1</v>
       </c>
-      <c r="D80" s="77" t="s">
+      <c r="D80" s="81" t="s">
         <v>147</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F80" s="3" t="s">
+      <c r="F80" s="94" t="s">
         <v>148</v>
       </c>
-      <c r="G80" s="56" t="s">
-        <v>13</v>
-      </c>
-      <c r="H80" s="13" t="s">
+      <c r="G80" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="H80" s="12" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81" s="64"/>
-      <c r="B81" s="35"/>
-      <c r="C81" s="35"/>
-      <c r="D81" s="64"/>
-      <c r="E81" s="26"/>
-      <c r="F81" s="46"/>
-      <c r="G81" s="35"/>
-      <c r="H81" s="12"/>
+      <c r="A81" s="57"/>
+      <c r="B81" s="30"/>
+      <c r="C81" s="30"/>
+      <c r="D81" s="78"/>
+      <c r="E81" s="23"/>
+      <c r="F81" s="96"/>
+      <c r="G81" s="30"/>
+      <c r="H81" s="11"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" s="36">
+      <c r="A82" s="31">
         <v>33</v>
       </c>
-      <c r="B82" s="39">
+      <c r="B82" s="34">
         <v>44478</v>
       </c>
-      <c r="C82" s="41">
+      <c r="C82" s="36">
         <v>2</v>
       </c>
-      <c r="D82" s="76" t="s">
+      <c r="D82" s="80" t="s">
         <v>150</v>
       </c>
-      <c r="E82" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F82" s="45" t="s">
+      <c r="E82" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F82" s="100" t="s">
         <v>151</v>
       </c>
-      <c r="G82" s="43" t="s">
+      <c r="G82" s="38" t="s">
         <v>152</v>
       </c>
-      <c r="H82" s="13" t="s">
+      <c r="H82" s="12" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A83" s="36"/>
-      <c r="B83" s="53">
+      <c r="A83" s="31"/>
+      <c r="B83" s="46">
         <v>44478</v>
       </c>
-      <c r="C83" s="41">
+      <c r="C83" s="36">
         <v>1</v>
       </c>
-      <c r="D83" s="78" t="s">
+      <c r="D83" s="82" t="s">
         <v>153</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F83" s="3" t="s">
+      <c r="F83" s="94" t="s">
         <v>154</v>
       </c>
-      <c r="G83" s="56" t="s">
-        <v>13</v>
-      </c>
-      <c r="H83" s="13" t="s">
+      <c r="G83" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="H83" s="12" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84" s="35"/>
-      <c r="B84" s="40"/>
-      <c r="C84" s="40"/>
-      <c r="D84" s="1"/>
-      <c r="E84" s="26"/>
-      <c r="F84" s="46"/>
-      <c r="G84" s="40"/>
-      <c r="H84" s="12"/>
+      <c r="A84" s="30"/>
+      <c r="B84" s="35"/>
+      <c r="C84" s="35"/>
+      <c r="D84" s="73"/>
+      <c r="E84" s="23"/>
+      <c r="F84" s="96"/>
+      <c r="G84" s="35"/>
+      <c r="H84" s="11"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85" s="34">
+      <c r="A85" s="29">
         <v>34</v>
       </c>
-      <c r="B85" s="79" t="s">
+      <c r="B85" s="66" t="s">
         <v>158</v>
       </c>
-      <c r="C85" s="65">
+      <c r="C85" s="58">
         <v>2</v>
       </c>
-      <c r="D85" s="76" t="s">
+      <c r="D85" s="80" t="s">
         <v>155</v>
       </c>
-      <c r="E85" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F85" s="45" t="s">
+      <c r="E85" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F85" s="100" t="s">
         <v>157</v>
       </c>
-      <c r="G85" s="68" t="s">
-        <v>13</v>
-      </c>
-      <c r="H85" s="11" t="s">
+      <c r="G85" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="H85" s="10" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86" s="35"/>
-      <c r="B86" s="41"/>
-      <c r="C86" s="41"/>
-      <c r="D86" s="1"/>
-      <c r="E86" s="18"/>
-      <c r="F86" s="47"/>
-      <c r="G86" s="41"/>
-      <c r="H86" s="13"/>
+      <c r="A86" s="30"/>
+      <c r="B86" s="36"/>
+      <c r="C86" s="36"/>
+      <c r="D86" s="73"/>
+      <c r="E86" s="16"/>
+      <c r="F86" s="98"/>
+      <c r="G86" s="36"/>
+      <c r="H86" s="12"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A87" s="69">
+      <c r="A87" s="60">
         <v>35</v>
       </c>
-      <c r="B87" s="52">
+      <c r="B87" s="45">
         <v>44480</v>
       </c>
-      <c r="C87" s="34">
+      <c r="C87" s="29">
         <v>3</v>
       </c>
-      <c r="D87" s="73" t="s">
+      <c r="D87" s="79" t="s">
         <v>159</v>
       </c>
-      <c r="E87" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F87" s="45" t="s">
+      <c r="E87" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F87" s="100" t="s">
         <v>161</v>
       </c>
-      <c r="G87" s="58" t="s">
+      <c r="G87" s="51" t="s">
         <v>162</v>
       </c>
-      <c r="H87" s="11" t="s">
+      <c r="H87" s="10" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88" s="70"/>
-      <c r="B88" s="53">
+      <c r="A88" s="61"/>
+      <c r="B88" s="46">
         <v>44480</v>
       </c>
-      <c r="C88" s="36">
+      <c r="C88" s="31">
         <v>1</v>
       </c>
-      <c r="D88" s="78" t="s">
+      <c r="D88" s="82" t="s">
         <v>163</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F88" s="3" t="s">
+      <c r="F88" s="94" t="s">
         <v>164</v>
       </c>
-      <c r="G88" s="68" t="s">
-        <v>13</v>
-      </c>
-      <c r="H88" s="80" t="s">
+      <c r="G88" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="H88" s="67" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A89" s="64"/>
-      <c r="B89" s="35"/>
-      <c r="C89" s="35"/>
-      <c r="D89" s="5"/>
-      <c r="E89" s="26"/>
-      <c r="F89" s="46"/>
-      <c r="G89" s="35"/>
-      <c r="H89" s="12"/>
+      <c r="A89" s="57"/>
+      <c r="B89" s="30"/>
+      <c r="C89" s="30"/>
+      <c r="D89" s="74"/>
+      <c r="E89" s="23"/>
+      <c r="F89" s="96"/>
+      <c r="G89" s="30"/>
+      <c r="H89" s="11"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90" s="34">
+      <c r="A90" s="29">
         <v>36</v>
       </c>
-      <c r="B90" s="39">
+      <c r="B90" s="34">
         <v>44481</v>
       </c>
-      <c r="C90" s="41">
+      <c r="C90" s="36">
         <v>2</v>
       </c>
-      <c r="D90" s="78" t="s">
+      <c r="D90" s="82" t="s">
         <v>165</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F90" s="45" t="s">
+      <c r="F90" s="100" t="s">
         <v>167</v>
       </c>
-      <c r="G90" s="43" t="s">
+      <c r="G90" s="38" t="s">
         <v>166</v>
       </c>
-      <c r="H90" s="13" t="s">
+      <c r="H90" s="12" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91" s="36"/>
-      <c r="B91" s="39">
+      <c r="A91" s="31"/>
+      <c r="B91" s="34">
         <v>44481</v>
       </c>
-      <c r="C91" s="41">
+      <c r="C91" s="36">
         <v>1</v>
       </c>
-      <c r="D91" s="3" t="s">
+      <c r="D91" s="64" t="s">
         <v>169</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F91" s="3" t="s">
+      <c r="F91" s="94" t="s">
         <v>170</v>
       </c>
-      <c r="G91" s="68" t="s">
-        <v>13</v>
-      </c>
-      <c r="H91" s="13" t="s">
+      <c r="G91" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="H91" s="12" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A92" s="35"/>
-      <c r="B92" s="40"/>
-      <c r="C92" s="40"/>
-      <c r="D92" s="5"/>
-      <c r="E92" s="26"/>
-      <c r="F92" s="46"/>
-      <c r="G92" s="40"/>
-      <c r="H92" s="12"/>
+      <c r="A92" s="30"/>
+      <c r="B92" s="35"/>
+      <c r="C92" s="35"/>
+      <c r="D92" s="74"/>
+      <c r="E92" s="23"/>
+      <c r="F92" s="96"/>
+      <c r="G92" s="35"/>
+      <c r="H92" s="11"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93" s="34">
+      <c r="A93" s="29">
         <v>37</v>
       </c>
-      <c r="B93" s="37">
+      <c r="B93" s="32">
         <v>44482</v>
       </c>
-      <c r="C93" s="42">
+      <c r="C93" s="37">
         <v>2</v>
       </c>
-      <c r="D93" s="78" t="s">
+      <c r="D93" s="82" t="s">
         <v>171</v>
       </c>
-      <c r="E93" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F93" s="45" t="s">
+      <c r="E93" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F93" s="100" t="s">
         <v>173</v>
       </c>
-      <c r="G93" s="68" t="s">
-        <v>13</v>
-      </c>
-      <c r="H93" s="11" t="s">
+      <c r="G93" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="H93" s="10" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A94" s="35"/>
-      <c r="B94" s="40"/>
-      <c r="C94" s="40"/>
-      <c r="D94" s="5"/>
-      <c r="E94" s="26"/>
-      <c r="F94" s="46"/>
-      <c r="G94" s="40"/>
-      <c r="H94" s="12"/>
+      <c r="A94" s="30"/>
+      <c r="B94" s="35"/>
+      <c r="C94" s="35"/>
+      <c r="D94" s="74"/>
+      <c r="E94" s="23"/>
+      <c r="F94" s="96"/>
+      <c r="G94" s="35"/>
+      <c r="H94" s="11"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A95" s="36">
+      <c r="A95" s="31">
         <v>38</v>
       </c>
-      <c r="B95" s="39">
+      <c r="B95" s="34">
         <v>44483</v>
       </c>
-      <c r="C95" s="41">
+      <c r="C95" s="36">
         <v>3</v>
       </c>
-      <c r="D95" s="76" t="s">
+      <c r="D95" s="80" t="s">
         <v>174</v>
       </c>
-      <c r="E95" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F95" s="45" t="s">
+      <c r="E95" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F95" s="100" t="s">
         <v>177</v>
       </c>
-      <c r="G95" s="58" t="s">
+      <c r="G95" s="51" t="s">
         <v>176</v>
       </c>
-      <c r="H95" s="60" t="s">
+      <c r="H95" s="53" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A96" s="36"/>
-      <c r="B96" s="39">
+      <c r="A96" s="31"/>
+      <c r="B96" s="34">
         <v>44483</v>
       </c>
-      <c r="C96" s="41">
+      <c r="C96" s="36">
         <v>1</v>
       </c>
-      <c r="D96" s="56" t="s">
+      <c r="D96" s="69" t="s">
         <v>178</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F96" s="43" t="s">
+      <c r="F96" s="99" t="s">
         <v>179</v>
       </c>
-      <c r="G96" s="68" t="s">
-        <v>13</v>
-      </c>
-      <c r="H96" s="61" t="s">
+      <c r="G96" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="H96" s="54" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A97" s="36"/>
-      <c r="B97" s="41"/>
-      <c r="C97" s="41"/>
-      <c r="D97" s="64"/>
-      <c r="E97" s="26"/>
-      <c r="F97" s="46"/>
-      <c r="G97" s="35"/>
-      <c r="H97" s="62"/>
+      <c r="A97" s="31"/>
+      <c r="B97" s="36"/>
+      <c r="C97" s="36"/>
+      <c r="D97" s="78"/>
+      <c r="E97" s="23"/>
+      <c r="F97" s="96"/>
+      <c r="G97" s="30"/>
+      <c r="H97" s="55"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A98" s="34">
+      <c r="A98" s="29">
         <v>39</v>
       </c>
-      <c r="B98" s="37">
+      <c r="B98" s="32">
         <v>44484</v>
       </c>
-      <c r="C98" s="42">
+      <c r="C98" s="37">
         <v>2</v>
       </c>
-      <c r="D98" s="78" t="s">
+      <c r="D98" s="82" t="s">
         <v>180</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F98" s="45" t="s">
+      <c r="F98" s="100" t="s">
         <v>182</v>
       </c>
-      <c r="G98" s="68" t="s">
-        <v>13</v>
-      </c>
-      <c r="H98" s="11" t="s">
+      <c r="G98" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="H98" s="10" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A99" s="35"/>
-      <c r="B99" s="38"/>
-      <c r="C99" s="40"/>
-      <c r="D99" s="7"/>
-      <c r="E99" s="6"/>
-      <c r="F99" s="44"/>
-      <c r="G99" s="44"/>
-      <c r="H99" s="12"/>
+      <c r="A99" s="30"/>
+      <c r="B99" s="33"/>
+      <c r="C99" s="35"/>
+      <c r="D99" s="76"/>
+      <c r="E99" s="5"/>
+      <c r="F99" s="95"/>
+      <c r="G99" s="39"/>
+      <c r="H99" s="11"/>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A100" s="34">
+      <c r="A100" s="29">
         <v>40</v>
       </c>
-      <c r="B100" s="37">
+      <c r="B100" s="32">
         <v>44485</v>
       </c>
-      <c r="C100" s="42">
+      <c r="C100" s="37">
         <v>1</v>
       </c>
-      <c r="D100" s="9" t="s">
+      <c r="D100" s="75" t="s">
         <v>183</v>
       </c>
-      <c r="E100" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F100" s="45" t="s">
+      <c r="E100" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F100" s="100" t="s">
         <v>185</v>
       </c>
-      <c r="G100" s="45" t="s">
+      <c r="G100" s="40" t="s">
         <v>184</v>
       </c>
-      <c r="H100" s="11" t="s">
+      <c r="H100" s="10" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A101" s="36"/>
-      <c r="B101" s="39">
+      <c r="A101" s="31"/>
+      <c r="B101" s="34">
         <v>44485</v>
       </c>
-      <c r="C101" s="41">
+      <c r="C101" s="36">
         <v>1</v>
       </c>
-      <c r="D101" s="3" t="s">
+      <c r="D101" s="64" t="s">
         <v>187</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F101" s="43" t="s">
+      <c r="F101" s="99" t="s">
         <v>188</v>
       </c>
-      <c r="G101" s="68" t="s">
-        <v>13</v>
-      </c>
-      <c r="H101" s="13" t="s">
+      <c r="G101" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="H101" s="12" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A102" s="35"/>
-      <c r="B102" s="38"/>
-      <c r="C102" s="40"/>
-      <c r="D102" s="7"/>
-      <c r="E102" s="6"/>
-      <c r="F102" s="44"/>
-      <c r="G102" s="44"/>
-      <c r="H102" s="12"/>
+      <c r="A102" s="30"/>
+      <c r="B102" s="33"/>
+      <c r="C102" s="35"/>
+      <c r="D102" s="76"/>
+      <c r="E102" s="5"/>
+      <c r="F102" s="95"/>
+      <c r="G102" s="39"/>
+      <c r="H102" s="11"/>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A103" s="34">
+      <c r="A103" s="29">
         <v>41</v>
       </c>
-      <c r="B103" s="37">
+      <c r="B103" s="32">
         <v>44486</v>
       </c>
-      <c r="C103" s="42">
+      <c r="C103" s="37">
         <v>2</v>
       </c>
-      <c r="D103" s="9" t="s">
+      <c r="D103" s="75" t="s">
         <v>189</v>
       </c>
-      <c r="E103" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F103" s="45" t="s">
+      <c r="E103" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F103" s="100" t="s">
         <v>191</v>
       </c>
-      <c r="G103" s="68" t="s">
-        <v>13</v>
-      </c>
-      <c r="H103" s="11" t="s">
+      <c r="G103" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="H103" s="10" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A104" s="35"/>
-      <c r="B104" s="38"/>
-      <c r="C104" s="40"/>
-      <c r="D104" s="7"/>
-      <c r="E104" s="6"/>
-      <c r="F104" s="44"/>
-      <c r="G104" s="44"/>
-      <c r="H104" s="13"/>
+      <c r="A104" s="30"/>
+      <c r="B104" s="33"/>
+      <c r="C104" s="35"/>
+      <c r="D104" s="76"/>
+      <c r="E104" s="5"/>
+      <c r="F104" s="95"/>
+      <c r="G104" s="39"/>
+      <c r="H104" s="12"/>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A105" s="34">
+      <c r="A105" s="29">
         <v>42</v>
       </c>
-      <c r="B105" s="37">
+      <c r="B105" s="32">
         <v>44487</v>
       </c>
-      <c r="C105" s="42">
+      <c r="C105" s="37">
         <v>3</v>
       </c>
-      <c r="D105" s="9" t="s">
+      <c r="D105" s="75" t="s">
         <v>192</v>
       </c>
-      <c r="E105" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F105" s="45" t="s">
+      <c r="E105" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F105" s="100" t="s">
         <v>195</v>
       </c>
-      <c r="G105" s="9" t="s">
+      <c r="G105" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="H105" s="60" t="s">
+      <c r="H105" s="53" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A106" s="36"/>
-      <c r="B106" s="39">
+      <c r="A106" s="31"/>
+      <c r="B106" s="34">
         <v>44487</v>
       </c>
-      <c r="C106" s="41">
+      <c r="C106" s="36">
         <v>1</v>
       </c>
-      <c r="D106" s="3" t="s">
+      <c r="D106" s="64" t="s">
         <v>196</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F106" s="43" t="s">
+      <c r="F106" s="99" t="s">
         <v>197</v>
       </c>
-      <c r="G106" s="68" t="s">
-        <v>13</v>
-      </c>
-      <c r="H106" s="61" t="s">
+      <c r="G106" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="H106" s="54" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A107" s="35"/>
-      <c r="B107" s="38"/>
-      <c r="C107" s="40"/>
-      <c r="D107" s="7"/>
-      <c r="E107" s="6"/>
-      <c r="F107" s="44"/>
-      <c r="G107" s="7"/>
-      <c r="H107" s="62"/>
+      <c r="A107" s="30"/>
+      <c r="B107" s="33"/>
+      <c r="C107" s="35"/>
+      <c r="D107" s="76"/>
+      <c r="E107" s="5"/>
+      <c r="F107" s="95"/>
+      <c r="G107" s="6"/>
+      <c r="H107" s="55"/>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A108" s="34">
+      <c r="A108" s="29">
         <v>43</v>
       </c>
-      <c r="B108" s="37">
+      <c r="B108" s="32">
         <v>44488</v>
       </c>
-      <c r="C108" s="42">
+      <c r="C108" s="37">
         <v>2</v>
       </c>
-      <c r="D108" s="9" t="s">
+      <c r="D108" s="75" t="s">
         <v>198</v>
       </c>
-      <c r="E108" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F108" s="45" t="s">
+      <c r="E108" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F108" s="100" t="s">
         <v>200</v>
       </c>
-      <c r="G108" s="45" t="s">
+      <c r="G108" s="40" t="s">
         <v>201</v>
       </c>
-      <c r="H108" s="13" t="s">
+      <c r="H108" s="12" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A109" s="36"/>
-      <c r="B109" s="39">
+      <c r="A109" s="31"/>
+      <c r="B109" s="34">
         <v>44488</v>
       </c>
-      <c r="C109" s="41">
+      <c r="C109" s="36">
         <v>1</v>
       </c>
-      <c r="D109" s="3" t="s">
+      <c r="D109" s="64" t="s">
         <v>202</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F109" s="43" t="s">
+      <c r="F109" s="99" t="s">
         <v>203</v>
       </c>
-      <c r="G109" s="68" t="s">
-        <v>13</v>
-      </c>
-      <c r="H109" s="13" t="s">
+      <c r="G109" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="H109" s="12" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A110" s="35"/>
-      <c r="B110" s="38"/>
-      <c r="C110" s="40"/>
-      <c r="D110" s="7"/>
-      <c r="E110" s="6"/>
-      <c r="F110" s="44"/>
-      <c r="G110" s="44"/>
-      <c r="H110" s="12"/>
+      <c r="A110" s="30"/>
+      <c r="B110" s="33"/>
+      <c r="C110" s="35"/>
+      <c r="D110" s="76"/>
+      <c r="E110" s="5"/>
+      <c r="F110" s="95"/>
+      <c r="G110" s="39"/>
+      <c r="H110" s="11"/>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A111" s="34">
+      <c r="A111" s="29">
         <v>44</v>
       </c>
-      <c r="B111" s="37">
+      <c r="B111" s="32">
         <v>44489</v>
       </c>
-      <c r="C111" s="42">
+      <c r="C111" s="37">
         <v>2</v>
       </c>
-      <c r="D111" s="9" t="s">
+      <c r="D111" s="75" t="s">
         <v>204</v>
       </c>
-      <c r="E111" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F111" s="45" t="s">
+      <c r="E111" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F111" s="100" t="s">
         <v>206</v>
       </c>
-      <c r="G111" s="68" t="s">
-        <v>13</v>
-      </c>
-      <c r="H111" s="11" t="s">
+      <c r="G111" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="H111" s="10" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A112" s="35"/>
-      <c r="B112" s="39"/>
-      <c r="C112" s="41"/>
-      <c r="D112" s="3"/>
+      <c r="A112" s="30"/>
+      <c r="B112" s="34"/>
+      <c r="C112" s="36"/>
+      <c r="D112" s="64"/>
       <c r="E112" s="2"/>
-      <c r="F112" s="43"/>
-      <c r="G112" s="43"/>
-      <c r="H112" s="13"/>
+      <c r="F112" s="99"/>
+      <c r="G112" s="38"/>
+      <c r="H112" s="12"/>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A113" s="69">
+      <c r="A113" s="60">
         <v>45</v>
       </c>
-      <c r="B113" s="52">
+      <c r="B113" s="45">
         <v>44490</v>
       </c>
-      <c r="C113" s="42">
+      <c r="C113" s="37">
         <v>3</v>
       </c>
-      <c r="D113" s="9" t="s">
+      <c r="D113" s="75" t="s">
         <v>207</v>
       </c>
-      <c r="E113" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F113" s="45" t="s">
+      <c r="E113" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F113" s="100" t="s">
         <v>210</v>
       </c>
-      <c r="G113" s="58" t="s">
+      <c r="G113" s="51" t="s">
         <v>208</v>
       </c>
-      <c r="H113" s="11" t="s">
+      <c r="H113" s="10" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A114" s="70"/>
-      <c r="B114" s="53">
+      <c r="A114" s="61"/>
+      <c r="B114" s="46">
         <v>44490</v>
       </c>
-      <c r="C114" s="41">
+      <c r="C114" s="36">
         <v>1</v>
       </c>
-      <c r="D114" s="3" t="s">
+      <c r="D114" s="64" t="s">
         <v>211</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F114" s="43" t="s">
+      <c r="F114" s="99" t="s">
         <v>212</v>
       </c>
-      <c r="G114" s="68" t="s">
-        <v>13</v>
-      </c>
-      <c r="H114" s="13" t="s">
+      <c r="G114" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="H114" s="12" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A115" s="64"/>
-      <c r="B115" s="54"/>
-      <c r="C115" s="40"/>
-      <c r="D115" s="7"/>
-      <c r="E115" s="6"/>
-      <c r="F115" s="44"/>
-      <c r="G115" s="59"/>
-      <c r="H115" s="12"/>
+      <c r="A115" s="57"/>
+      <c r="B115" s="47"/>
+      <c r="C115" s="35"/>
+      <c r="D115" s="76"/>
+      <c r="E115" s="5"/>
+      <c r="F115" s="95"/>
+      <c r="G115" s="52"/>
+      <c r="H115" s="11"/>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A116" s="34">
+      <c r="A116" s="29">
         <v>46</v>
       </c>
-      <c r="B116" s="39">
+      <c r="B116" s="34">
         <v>44491</v>
       </c>
-      <c r="C116" s="41">
+      <c r="C116" s="36">
         <v>2</v>
       </c>
-      <c r="D116" s="9" t="s">
+      <c r="D116" s="75" t="s">
         <v>213</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F116" s="45" t="s">
+      <c r="F116" s="100" t="s">
         <v>215</v>
       </c>
-      <c r="G116" s="68" t="s">
-        <v>13</v>
-      </c>
-      <c r="H116" s="13" t="s">
+      <c r="G116" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="H116" s="12" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A117" s="35"/>
-      <c r="B117" s="38"/>
-      <c r="C117" s="40"/>
-      <c r="D117" s="7"/>
-      <c r="E117" s="6"/>
-      <c r="F117" s="44"/>
-      <c r="G117" s="44"/>
-      <c r="H117" s="12"/>
+      <c r="A117" s="30"/>
+      <c r="B117" s="33"/>
+      <c r="C117" s="35"/>
+      <c r="D117" s="76"/>
+      <c r="E117" s="5"/>
+      <c r="F117" s="95"/>
+      <c r="G117" s="39"/>
+      <c r="H117" s="11"/>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A118" s="34">
+      <c r="A118" s="29">
         <v>47</v>
       </c>
-      <c r="B118" s="37">
+      <c r="B118" s="32">
         <v>44492</v>
       </c>
-      <c r="C118" s="42">
+      <c r="C118" s="37">
         <v>3</v>
       </c>
-      <c r="D118" s="9" t="s">
+      <c r="D118" s="75" t="s">
         <v>216</v>
       </c>
-      <c r="E118" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F118" s="45" t="s">
+      <c r="E118" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F118" s="100" t="s">
         <v>218</v>
       </c>
-      <c r="G118" s="68" t="s">
-        <v>13</v>
-      </c>
-      <c r="H118" s="11" t="s">
+      <c r="G118" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="H118" s="10" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A119" s="35"/>
-      <c r="B119" s="39"/>
-      <c r="C119" s="41"/>
-      <c r="D119" s="3"/>
+      <c r="A119" s="30"/>
+      <c r="B119" s="34"/>
+      <c r="C119" s="36"/>
+      <c r="D119" s="64"/>
       <c r="E119" s="2"/>
-      <c r="F119" s="43"/>
-      <c r="G119" s="43"/>
-      <c r="H119" s="13"/>
+      <c r="F119" s="99"/>
+      <c r="G119" s="38"/>
+      <c r="H119" s="12"/>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A120" s="69">
+      <c r="A120" s="60">
         <v>48</v>
       </c>
-      <c r="B120" s="52">
+      <c r="B120" s="45">
         <v>44493</v>
       </c>
-      <c r="C120" s="42">
+      <c r="C120" s="37">
         <v>4</v>
       </c>
-      <c r="D120" s="9" t="s">
+      <c r="D120" s="75" t="s">
         <v>219</v>
       </c>
-      <c r="E120" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F120" s="45" t="s">
+      <c r="E120" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F120" s="100" t="s">
         <v>222</v>
       </c>
-      <c r="G120" s="45" t="s">
+      <c r="G120" s="40" t="s">
         <v>221</v>
       </c>
-      <c r="H120" s="11" t="s">
+      <c r="H120" s="10" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A121" s="70"/>
-      <c r="B121" s="53">
+      <c r="A121" s="61"/>
+      <c r="B121" s="46">
         <v>44493</v>
       </c>
-      <c r="C121" s="41">
+      <c r="C121" s="36">
         <v>1</v>
       </c>
-      <c r="D121" s="3" t="s">
+      <c r="D121" s="64" t="s">
         <v>223</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F121" s="43" t="s">
+      <c r="F121" s="99" t="s">
         <v>224</v>
       </c>
-      <c r="G121" s="43" t="s">
-        <v>13</v>
-      </c>
-      <c r="H121" s="13" t="s">
+      <c r="G121" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="H121" s="12" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A122" s="64"/>
-      <c r="B122" s="54"/>
-      <c r="C122" s="40"/>
-      <c r="D122" s="7"/>
-      <c r="E122" s="6"/>
-      <c r="F122" s="44"/>
-      <c r="G122" s="44"/>
-      <c r="H122" s="12"/>
+      <c r="A122" s="57"/>
+      <c r="B122" s="47"/>
+      <c r="C122" s="35"/>
+      <c r="D122" s="76"/>
+      <c r="E122" s="5"/>
+      <c r="F122" s="95"/>
+      <c r="G122" s="39"/>
+      <c r="H122" s="11"/>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A123" s="34">
+      <c r="A123" s="29">
         <v>49</v>
       </c>
-      <c r="B123" s="39">
+      <c r="B123" s="34">
         <v>44494</v>
       </c>
-      <c r="C123" s="41">
+      <c r="C123" s="36">
         <v>2</v>
       </c>
-      <c r="D123" s="9" t="s">
+      <c r="D123" s="75" t="s">
         <v>225</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F123" s="45" t="s">
+      <c r="F123" s="100" t="s">
         <v>227</v>
       </c>
-      <c r="G123" s="68" t="s">
-        <v>13</v>
-      </c>
-      <c r="H123" s="13" t="s">
+      <c r="G123" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="H123" s="12" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A124" s="35"/>
-      <c r="B124" s="39"/>
-      <c r="C124" s="41"/>
-      <c r="D124" s="3"/>
+      <c r="A124" s="30"/>
+      <c r="B124" s="34"/>
+      <c r="C124" s="36"/>
+      <c r="D124" s="64"/>
       <c r="E124" s="2"/>
-      <c r="F124" s="43"/>
-      <c r="G124" s="43"/>
-      <c r="H124" s="13"/>
+      <c r="F124" s="99"/>
+      <c r="G124" s="38"/>
+      <c r="H124" s="12"/>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A125" s="69">
+      <c r="A125" s="60">
         <v>50</v>
       </c>
-      <c r="B125" s="52">
+      <c r="B125" s="45">
         <v>44495</v>
       </c>
-      <c r="C125" s="34">
+      <c r="C125" s="29">
         <v>3</v>
       </c>
-      <c r="D125" s="55" t="s">
+      <c r="D125" s="68" t="s">
         <v>228</v>
       </c>
-      <c r="E125" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F125" s="45" t="s">
+      <c r="E125" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F125" s="100" t="s">
         <v>231</v>
       </c>
-      <c r="G125" s="45" t="s">
+      <c r="G125" s="40" t="s">
         <v>230</v>
       </c>
-      <c r="H125" s="11" t="s">
+      <c r="H125" s="10" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A126" s="70"/>
-      <c r="B126" s="53">
+      <c r="A126" s="61"/>
+      <c r="B126" s="46">
         <v>44495</v>
       </c>
-      <c r="C126" s="36">
+      <c r="C126" s="31">
         <v>1</v>
       </c>
-      <c r="D126" s="56" t="s">
+      <c r="D126" s="69" t="s">
         <v>232</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F126" s="43" t="s">
+      <c r="F126" s="99" t="s">
         <v>233</v>
       </c>
-      <c r="G126" s="43" t="s">
-        <v>13</v>
-      </c>
-      <c r="H126" s="13" t="s">
+      <c r="G126" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="H126" s="12" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A127" s="70"/>
-      <c r="B127" s="54"/>
-      <c r="C127" s="35"/>
-      <c r="D127" s="57"/>
-      <c r="E127" s="6"/>
-      <c r="F127" s="44"/>
-      <c r="G127" s="44"/>
-      <c r="H127" s="12"/>
+      <c r="A127" s="61"/>
+      <c r="B127" s="47"/>
+      <c r="C127" s="30"/>
+      <c r="D127" s="83"/>
+      <c r="E127" s="5"/>
+      <c r="F127" s="95"/>
+      <c r="G127" s="39"/>
+      <c r="H127" s="11"/>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A128" s="34">
+      <c r="A128" s="29">
         <v>51</v>
       </c>
-      <c r="B128" s="39">
+      <c r="B128" s="34">
         <v>44496</v>
       </c>
-      <c r="C128" s="41">
+      <c r="C128" s="36">
         <v>2</v>
       </c>
-      <c r="D128" s="55" t="s">
+      <c r="D128" s="68" t="s">
         <v>234</v>
       </c>
       <c r="E128" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F128" s="45" t="s">
+      <c r="F128" s="100" t="s">
         <v>236</v>
       </c>
-      <c r="G128" s="58" t="s">
-        <v>13</v>
-      </c>
-      <c r="H128" s="13" t="s">
+      <c r="G128" s="51" t="s">
+        <v>13</v>
+      </c>
+      <c r="H128" s="12" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A129" s="36"/>
-      <c r="B129" s="39"/>
-      <c r="C129" s="41"/>
-      <c r="D129" s="3"/>
+      <c r="A129" s="31"/>
+      <c r="B129" s="34"/>
+      <c r="C129" s="36"/>
+      <c r="D129" s="64"/>
       <c r="E129" s="2"/>
-      <c r="F129" s="43"/>
-      <c r="G129" s="59"/>
-      <c r="H129" s="13"/>
+      <c r="F129" s="99"/>
+      <c r="G129" s="52"/>
+      <c r="H129" s="12"/>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A130" s="34">
+      <c r="A130" s="29">
         <v>52</v>
       </c>
-      <c r="B130" s="52">
+      <c r="B130" s="45">
         <v>44497</v>
       </c>
-      <c r="C130" s="42">
+      <c r="C130" s="37">
         <v>3</v>
       </c>
-      <c r="D130" s="55" t="s">
+      <c r="D130" s="68" t="s">
         <v>237</v>
       </c>
-      <c r="E130" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F130" s="45" t="s">
+      <c r="E130" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F130" s="100" t="s">
         <v>239</v>
       </c>
-      <c r="G130" s="68" t="s">
-        <v>13</v>
-      </c>
-      <c r="H130" s="11" t="s">
+      <c r="G130" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="H130" s="10" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A131" s="35"/>
-      <c r="B131" s="54"/>
-      <c r="C131" s="40"/>
-      <c r="D131" s="57"/>
-      <c r="E131" s="6"/>
-      <c r="F131" s="44"/>
-      <c r="G131" s="44"/>
-      <c r="H131" s="12"/>
+      <c r="A131" s="30"/>
+      <c r="B131" s="47"/>
+      <c r="C131" s="35"/>
+      <c r="D131" s="83"/>
+      <c r="E131" s="5"/>
+      <c r="F131" s="95"/>
+      <c r="G131" s="39"/>
+      <c r="H131" s="11"/>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A132" s="34">
+      <c r="A132" s="29">
         <v>53</v>
       </c>
-      <c r="B132" s="52">
+      <c r="B132" s="45">
         <v>44498</v>
       </c>
-      <c r="C132" s="42">
+      <c r="C132" s="37">
         <v>1</v>
       </c>
-      <c r="D132" s="55" t="s">
+      <c r="D132" s="68" t="s">
         <v>240</v>
       </c>
-      <c r="E132" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F132" s="45" t="s">
+      <c r="E132" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F132" s="100" t="s">
         <v>242</v>
       </c>
-      <c r="G132" s="68" t="s">
-        <v>13</v>
-      </c>
-      <c r="H132" s="11" t="s">
+      <c r="G132" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="H132" s="10" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A133" s="35"/>
-      <c r="B133" s="54"/>
-      <c r="C133" s="40"/>
-      <c r="D133" s="57"/>
-      <c r="E133" s="6"/>
-      <c r="F133" s="44"/>
-      <c r="G133" s="44"/>
-      <c r="H133" s="12"/>
+      <c r="A133" s="30"/>
+      <c r="B133" s="47"/>
+      <c r="C133" s="35"/>
+      <c r="D133" s="83"/>
+      <c r="E133" s="5"/>
+      <c r="F133" s="95"/>
+      <c r="G133" s="39"/>
+      <c r="H133" s="11"/>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A134" s="34">
+      <c r="A134" s="29">
         <v>54</v>
       </c>
-      <c r="B134" s="52">
+      <c r="B134" s="45">
         <v>44499</v>
       </c>
-      <c r="C134" s="42">
+      <c r="C134" s="37">
         <v>2</v>
       </c>
-      <c r="D134" s="55" t="s">
+      <c r="D134" s="68" t="s">
         <v>243</v>
       </c>
-      <c r="E134" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F134" s="45" t="s">
+      <c r="E134" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F134" s="100" t="s">
         <v>244</v>
       </c>
-      <c r="G134" s="68" t="s">
-        <v>13</v>
-      </c>
-      <c r="H134" s="11" t="s">
+      <c r="G134" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="H134" s="10" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A135" s="36"/>
-      <c r="B135" s="53"/>
-      <c r="C135" s="41"/>
-      <c r="D135" s="56"/>
+      <c r="A135" s="31"/>
+      <c r="B135" s="46"/>
+      <c r="C135" s="36"/>
+      <c r="D135" s="69"/>
       <c r="E135" s="2"/>
-      <c r="F135" s="43"/>
-      <c r="G135" s="43"/>
-      <c r="H135" s="13"/>
+      <c r="F135" s="99"/>
+      <c r="G135" s="38"/>
+      <c r="H135" s="12"/>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A136" s="34">
+      <c r="A136" s="29">
         <v>55</v>
       </c>
-      <c r="B136" s="37">
+      <c r="B136" s="32">
         <v>44500</v>
       </c>
-      <c r="C136" s="42">
+      <c r="C136" s="37">
         <v>3</v>
       </c>
-      <c r="D136" s="9" t="s">
+      <c r="D136" s="75" t="s">
         <v>246</v>
       </c>
-      <c r="E136" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F136" s="45" t="s">
+      <c r="E136" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F136" s="100" t="s">
         <v>248</v>
       </c>
-      <c r="G136" s="45" t="s">
+      <c r="G136" s="40" t="s">
         <v>249</v>
       </c>
-      <c r="H136" s="11" t="s">
+      <c r="H136" s="10" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A137" s="36"/>
-      <c r="B137" s="39">
+      <c r="A137" s="31"/>
+      <c r="B137" s="34">
         <v>44500</v>
       </c>
-      <c r="C137" s="41">
+      <c r="C137" s="36">
         <v>1</v>
       </c>
-      <c r="D137" s="3" t="s">
+      <c r="D137" s="64" t="s">
         <v>250</v>
       </c>
       <c r="E137" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F137" s="43" t="s">
+      <c r="F137" s="99" t="s">
         <v>251</v>
       </c>
-      <c r="G137" s="43" t="s">
-        <v>13</v>
-      </c>
-      <c r="H137" s="13" t="s">
+      <c r="G137" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="H137" s="12" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A138" s="35"/>
-      <c r="B138" s="38"/>
-      <c r="C138" s="40"/>
-      <c r="D138" s="7"/>
-      <c r="E138" s="6"/>
-      <c r="F138" s="44"/>
-      <c r="G138" s="44"/>
-      <c r="H138" s="12"/>
+      <c r="A138" s="30"/>
+      <c r="B138" s="33"/>
+      <c r="C138" s="35"/>
+      <c r="D138" s="76"/>
+      <c r="E138" s="5"/>
+      <c r="F138" s="95"/>
+      <c r="G138" s="39"/>
+      <c r="H138" s="11"/>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A139" s="36">
+      <c r="A139" s="31">
         <v>56</v>
       </c>
-      <c r="B139" s="53">
+      <c r="B139" s="46">
         <v>44501</v>
       </c>
-      <c r="C139" s="41">
+      <c r="C139" s="36">
         <v>2</v>
       </c>
-      <c r="D139" s="9" t="s">
+      <c r="D139" s="75" t="s">
         <v>252</v>
       </c>
       <c r="E139" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F139" s="45" t="s">
+      <c r="F139" s="100" t="s">
         <v>254</v>
       </c>
-      <c r="G139" s="68" t="s">
-        <v>13</v>
-      </c>
-      <c r="H139" s="13" t="s">
+      <c r="G139" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="H139" s="12" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A140" s="36"/>
-      <c r="B140" s="53"/>
-      <c r="C140" s="41"/>
-      <c r="D140" s="56"/>
+      <c r="A140" s="31"/>
+      <c r="B140" s="46"/>
+      <c r="C140" s="36"/>
+      <c r="D140" s="69"/>
       <c r="E140" s="2"/>
-      <c r="F140" s="43"/>
-      <c r="G140" s="43"/>
-      <c r="H140" s="13"/>
+      <c r="F140" s="99"/>
+      <c r="G140" s="38"/>
+      <c r="H140" s="12"/>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A141" s="34">
+      <c r="A141" s="29">
         <v>57</v>
       </c>
-      <c r="B141" s="37">
+      <c r="B141" s="32">
         <v>44502</v>
       </c>
-      <c r="C141" s="42">
+      <c r="C141" s="37">
         <v>3</v>
       </c>
-      <c r="D141" s="81" t="s">
+      <c r="D141" s="84" t="s">
         <v>255</v>
       </c>
-      <c r="E141" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F141" s="45" t="s">
+      <c r="E141" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F141" s="100" t="s">
         <v>257</v>
       </c>
-      <c r="G141" s="45" t="s">
+      <c r="G141" s="40" t="s">
         <v>258</v>
       </c>
-      <c r="H141" s="11" t="s">
+      <c r="H141" s="10" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A142" s="36"/>
-      <c r="B142" s="39">
+      <c r="A142" s="31"/>
+      <c r="B142" s="34">
         <v>44502</v>
       </c>
-      <c r="C142" s="41">
+      <c r="C142" s="36">
         <v>1</v>
       </c>
-      <c r="D142" s="82" t="s">
+      <c r="D142" s="85" t="s">
         <v>259</v>
       </c>
       <c r="E142" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F142" s="43" t="s">
+      <c r="F142" s="99" t="s">
         <v>260</v>
       </c>
-      <c r="G142" s="43" t="s">
-        <v>13</v>
-      </c>
-      <c r="H142" s="13" t="s">
+      <c r="G142" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="H142" s="12" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A143" s="35"/>
-      <c r="B143" s="38"/>
-      <c r="C143" s="40"/>
-      <c r="D143" s="7"/>
-      <c r="E143" s="6"/>
-      <c r="F143" s="44"/>
-      <c r="G143" s="44"/>
-      <c r="H143" s="12"/>
+      <c r="A143" s="30"/>
+      <c r="B143" s="33"/>
+      <c r="C143" s="35"/>
+      <c r="D143" s="76"/>
+      <c r="E143" s="5"/>
+      <c r="F143" s="95"/>
+      <c r="G143" s="39"/>
+      <c r="H143" s="11"/>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A144" s="36">
+      <c r="A144" s="31">
         <v>58</v>
       </c>
-      <c r="B144" s="53">
+      <c r="B144" s="46">
         <v>44503</v>
       </c>
-      <c r="C144" s="41">
+      <c r="C144" s="36">
         <v>2</v>
       </c>
-      <c r="D144" s="81" t="s">
+      <c r="D144" s="84" t="s">
         <v>261</v>
       </c>
       <c r="E144" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F144" s="45" t="s">
+      <c r="F144" s="100" t="s">
         <v>263</v>
       </c>
-      <c r="G144" s="68" t="s">
-        <v>13</v>
-      </c>
-      <c r="H144" s="13" t="s">
+      <c r="G144" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="H144" s="12" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A145" s="35"/>
-      <c r="B145" s="54"/>
-      <c r="C145" s="40"/>
-      <c r="D145" s="57"/>
-      <c r="E145" s="6"/>
-      <c r="F145" s="44"/>
-      <c r="G145" s="44"/>
-      <c r="H145" s="12"/>
+      <c r="A145" s="30"/>
+      <c r="B145" s="47"/>
+      <c r="C145" s="35"/>
+      <c r="D145" s="83"/>
+      <c r="E145" s="5"/>
+      <c r="F145" s="95"/>
+      <c r="G145" s="39"/>
+      <c r="H145" s="11"/>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A146" s="34">
+      <c r="A146" s="29">
         <v>59</v>
       </c>
-      <c r="B146" s="52">
+      <c r="B146" s="45">
         <v>44504</v>
       </c>
-      <c r="C146" s="42">
+      <c r="C146" s="37">
         <v>3</v>
       </c>
-      <c r="D146" s="81" t="s">
+      <c r="D146" s="84" t="s">
         <v>264</v>
       </c>
-      <c r="E146" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F146" s="45" t="s">
+      <c r="E146" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F146" s="100" t="s">
         <v>265</v>
       </c>
-      <c r="G146" s="68" t="s">
-        <v>13</v>
-      </c>
-      <c r="H146" s="11" t="s">
+      <c r="G146" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="H146" s="10" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A147" s="36"/>
-      <c r="B147" s="53"/>
-      <c r="C147" s="41"/>
-      <c r="D147" s="56"/>
+      <c r="A147" s="31"/>
+      <c r="B147" s="46"/>
+      <c r="C147" s="36"/>
+      <c r="D147" s="69"/>
       <c r="E147" s="2"/>
-      <c r="F147" s="43"/>
-      <c r="G147" s="43"/>
-      <c r="H147" s="13"/>
+      <c r="F147" s="99"/>
+      <c r="G147" s="38"/>
+      <c r="H147" s="12"/>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A148" s="34">
+      <c r="A148" s="29">
         <v>60</v>
       </c>
-      <c r="B148" s="37">
+      <c r="B148" s="32">
         <v>44505</v>
       </c>
-      <c r="C148" s="42">
+      <c r="C148" s="37">
         <v>4</v>
       </c>
-      <c r="D148" s="81" t="s">
+      <c r="D148" s="84" t="s">
         <v>267</v>
       </c>
-      <c r="E148" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F148" s="45" t="s">
+      <c r="E148" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F148" s="100" t="s">
         <v>270</v>
       </c>
-      <c r="G148" s="45" t="s">
+      <c r="G148" s="40" t="s">
         <v>269</v>
       </c>
-      <c r="H148" s="11" t="s">
+      <c r="H148" s="10" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A149" s="36"/>
-      <c r="B149" s="39">
+      <c r="A149" s="31"/>
+      <c r="B149" s="34">
         <v>44505</v>
       </c>
-      <c r="C149" s="41">
+      <c r="C149" s="36">
         <v>1</v>
       </c>
-      <c r="D149" s="82" t="s">
+      <c r="D149" s="85" t="s">
         <v>271</v>
       </c>
       <c r="E149" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F149" s="43" t="s">
+      <c r="F149" s="99" t="s">
         <v>272</v>
       </c>
-      <c r="G149" s="43" t="s">
-        <v>13</v>
-      </c>
-      <c r="H149" s="13" t="s">
+      <c r="G149" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="H149" s="12" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A150" s="35"/>
-      <c r="B150" s="38"/>
-      <c r="C150" s="40"/>
-      <c r="D150" s="7"/>
-      <c r="E150" s="6"/>
-      <c r="F150" s="44"/>
-      <c r="G150" s="44"/>
-      <c r="H150" s="12"/>
+      <c r="A150" s="30"/>
+      <c r="B150" s="33"/>
+      <c r="C150" s="35"/>
+      <c r="D150" s="76"/>
+      <c r="E150" s="5"/>
+      <c r="F150" s="95"/>
+      <c r="G150" s="39"/>
+      <c r="H150" s="11"/>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A151" s="36">
+      <c r="A151" s="31">
         <v>61</v>
       </c>
-      <c r="B151" s="53">
+      <c r="B151" s="46">
         <v>44506</v>
       </c>
-      <c r="C151" s="41">
+      <c r="C151" s="36">
         <v>2</v>
       </c>
-      <c r="D151" s="81" t="s">
+      <c r="D151" s="84" t="s">
         <v>273</v>
       </c>
       <c r="E151" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F151" s="45" t="s">
+      <c r="F151" s="100" t="s">
         <v>275</v>
       </c>
-      <c r="G151" s="68" t="s">
-        <v>13</v>
-      </c>
-      <c r="H151" s="13" t="s">
+      <c r="G151" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="H151" s="12" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A152" s="35"/>
-      <c r="B152" s="54"/>
-      <c r="C152" s="40"/>
-      <c r="D152" s="57"/>
-      <c r="E152" s="6"/>
-      <c r="F152" s="44"/>
-      <c r="G152" s="44"/>
-      <c r="H152" s="12"/>
+      <c r="A152" s="30"/>
+      <c r="B152" s="47"/>
+      <c r="C152" s="35"/>
+      <c r="D152" s="83"/>
+      <c r="E152" s="5"/>
+      <c r="F152" s="95"/>
+      <c r="G152" s="39"/>
+      <c r="H152" s="11"/>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A153" s="34">
+      <c r="A153" s="29">
         <v>62</v>
       </c>
-      <c r="B153" s="52">
+      <c r="B153" s="45">
         <v>44507</v>
       </c>
-      <c r="C153" s="42">
+      <c r="C153" s="37">
         <v>3</v>
       </c>
-      <c r="D153" s="76" t="s">
+      <c r="D153" s="80" t="s">
         <v>276</v>
       </c>
-      <c r="E153" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F153" s="45" t="s">
+      <c r="E153" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F153" s="100" t="s">
         <v>278</v>
       </c>
-      <c r="G153" s="68" t="s">
-        <v>13</v>
-      </c>
-      <c r="H153" s="11" t="s">
+      <c r="G153" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="H153" s="10" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A154" s="36"/>
-      <c r="B154" s="53"/>
-      <c r="C154" s="41"/>
-      <c r="D154" s="56"/>
+      <c r="A154" s="31"/>
+      <c r="B154" s="46"/>
+      <c r="C154" s="36"/>
+      <c r="D154" s="69"/>
       <c r="E154" s="2"/>
-      <c r="F154" s="43"/>
-      <c r="G154" s="43"/>
-      <c r="H154" s="13"/>
+      <c r="F154" s="99"/>
+      <c r="G154" s="38"/>
+      <c r="H154" s="12"/>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A155" s="34">
+      <c r="A155" s="29">
         <v>63</v>
       </c>
-      <c r="B155" s="37">
+      <c r="B155" s="32">
         <v>44508</v>
       </c>
-      <c r="C155" s="42">
+      <c r="C155" s="37">
         <v>4</v>
       </c>
-      <c r="D155" s="73" t="s">
+      <c r="D155" s="79" t="s">
         <v>279</v>
       </c>
-      <c r="E155" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F155" s="45" t="s">
+      <c r="E155" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F155" s="100" t="s">
         <v>281</v>
       </c>
-      <c r="G155" s="45" t="s">
+      <c r="G155" s="40" t="s">
         <v>282</v>
       </c>
-      <c r="H155" s="11" t="s">
+      <c r="H155" s="10" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A156" s="36"/>
-      <c r="B156" s="39">
+      <c r="A156" s="31"/>
+      <c r="B156" s="34">
         <v>44508</v>
       </c>
-      <c r="C156" s="41">
+      <c r="C156" s="36">
         <v>1</v>
       </c>
-      <c r="D156" s="78" t="s">
+      <c r="D156" s="82" t="s">
         <v>283</v>
       </c>
       <c r="E156" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F156" s="43" t="s">
+      <c r="F156" s="99" t="s">
         <v>284</v>
       </c>
-      <c r="G156" s="43" t="s">
-        <v>13</v>
-      </c>
-      <c r="H156" s="13" t="s">
+      <c r="G156" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="H156" s="12" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A157" s="35"/>
-      <c r="B157" s="38"/>
-      <c r="C157" s="40"/>
-      <c r="D157" s="7"/>
-      <c r="E157" s="6"/>
-      <c r="F157" s="44"/>
-      <c r="G157" s="44"/>
-      <c r="H157" s="12"/>
+      <c r="A157" s="30"/>
+      <c r="B157" s="33"/>
+      <c r="C157" s="35"/>
+      <c r="D157" s="76"/>
+      <c r="E157" s="5"/>
+      <c r="F157" s="95"/>
+      <c r="G157" s="39"/>
+      <c r="H157" s="11"/>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A158" s="36">
+      <c r="A158" s="31">
         <v>64</v>
       </c>
-      <c r="B158" s="53">
+      <c r="B158" s="46">
         <v>44509</v>
       </c>
-      <c r="C158" s="41">
+      <c r="C158" s="36">
         <v>2</v>
       </c>
-      <c r="D158" s="78" t="s">
+      <c r="D158" s="82" t="s">
         <v>285</v>
       </c>
       <c r="E158" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F158" s="45" t="s">
+      <c r="F158" s="100" t="s">
         <v>287</v>
       </c>
-      <c r="G158" s="68" t="s">
-        <v>13</v>
-      </c>
-      <c r="H158" s="13" t="s">
+      <c r="G158" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="H158" s="12" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A159" s="35"/>
-      <c r="B159" s="54"/>
-      <c r="C159" s="40"/>
-      <c r="D159" s="57"/>
-      <c r="E159" s="6"/>
-      <c r="F159" s="44"/>
-      <c r="G159" s="44"/>
-      <c r="H159" s="12"/>
+      <c r="A159" s="30"/>
+      <c r="B159" s="47"/>
+      <c r="C159" s="35"/>
+      <c r="D159" s="83"/>
+      <c r="E159" s="5"/>
+      <c r="F159" s="95"/>
+      <c r="G159" s="39"/>
+      <c r="H159" s="11"/>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A160" s="34">
+      <c r="A160" s="29">
         <v>65</v>
       </c>
-      <c r="B160" s="52">
+      <c r="B160" s="45">
         <v>44510</v>
       </c>
-      <c r="C160" s="42">
+      <c r="C160" s="37">
         <v>3</v>
       </c>
-      <c r="D160" s="73" t="s">
+      <c r="D160" s="79" t="s">
         <v>288</v>
       </c>
-      <c r="E160" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F160" s="45" t="s">
+      <c r="E160" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F160" s="100" t="s">
         <v>289</v>
       </c>
-      <c r="G160" s="68" t="s">
-        <v>13</v>
-      </c>
-      <c r="H160" s="11" t="s">
+      <c r="G160" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="H160" s="10" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A161" s="36"/>
-      <c r="B161" s="53"/>
-      <c r="C161" s="41"/>
-      <c r="D161" s="56"/>
+      <c r="A161" s="31"/>
+      <c r="B161" s="46"/>
+      <c r="C161" s="36"/>
+      <c r="D161" s="69"/>
       <c r="E161" s="2"/>
-      <c r="F161" s="43"/>
-      <c r="G161" s="43"/>
-      <c r="H161" s="13"/>
+      <c r="F161" s="99"/>
+      <c r="G161" s="38"/>
+      <c r="H161" s="12"/>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A162" s="34">
+      <c r="A162" s="29">
         <v>66</v>
       </c>
-      <c r="B162" s="37">
+      <c r="B162" s="32">
         <v>44511</v>
       </c>
-      <c r="C162" s="42">
+      <c r="C162" s="37">
         <v>4</v>
       </c>
-      <c r="D162" s="73" t="s">
+      <c r="D162" s="79" t="s">
         <v>291</v>
       </c>
-      <c r="E162" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F162" s="45" t="s">
+      <c r="E162" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F162" s="100" t="s">
         <v>292</v>
       </c>
-      <c r="G162" s="45" t="s">
+      <c r="G162" s="40" t="s">
         <v>293</v>
       </c>
-      <c r="H162" s="11" t="s">
+      <c r="H162" s="10" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A163" s="36"/>
-      <c r="B163" s="39">
+      <c r="A163" s="31"/>
+      <c r="B163" s="34">
         <v>44511</v>
       </c>
-      <c r="C163" s="41">
+      <c r="C163" s="36">
         <v>1</v>
       </c>
-      <c r="D163" s="78" t="s">
+      <c r="D163" s="82" t="s">
         <v>295</v>
       </c>
       <c r="E163" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F163" s="43" t="s">
+      <c r="F163" s="99" t="s">
         <v>296</v>
       </c>
-      <c r="G163" s="43" t="s">
-        <v>13</v>
-      </c>
-      <c r="H163" s="13" t="s">
+      <c r="G163" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="H163" s="12" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A164" s="35"/>
-      <c r="B164" s="38"/>
-      <c r="C164" s="40"/>
-      <c r="D164" s="7"/>
-      <c r="E164" s="6"/>
-      <c r="F164" s="44"/>
-      <c r="G164" s="44"/>
-      <c r="H164" s="12"/>
+      <c r="A164" s="30"/>
+      <c r="B164" s="33"/>
+      <c r="C164" s="35"/>
+      <c r="D164" s="76"/>
+      <c r="E164" s="5"/>
+      <c r="F164" s="95"/>
+      <c r="G164" s="39"/>
+      <c r="H164" s="11"/>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A165" s="36">
+      <c r="A165" s="31">
         <v>67</v>
       </c>
-      <c r="B165" s="53">
+      <c r="B165" s="46">
         <v>44512</v>
       </c>
-      <c r="C165" s="41">
+      <c r="C165" s="36">
         <v>2</v>
       </c>
-      <c r="D165" s="73" t="s">
+      <c r="D165" s="79" t="s">
         <v>297</v>
       </c>
       <c r="E165" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F165" s="45" t="s">
+      <c r="F165" s="100" t="s">
         <v>299</v>
       </c>
-      <c r="G165" s="68" t="s">
-        <v>13</v>
-      </c>
-      <c r="H165" s="13" t="s">
+      <c r="G165" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="H165" s="12" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A166" s="35"/>
-      <c r="B166" s="54"/>
-      <c r="C166" s="40"/>
-      <c r="D166" s="57"/>
-      <c r="E166" s="6"/>
-      <c r="F166" s="44"/>
-      <c r="G166" s="44"/>
-      <c r="H166" s="12"/>
+      <c r="A166" s="30"/>
+      <c r="B166" s="47"/>
+      <c r="C166" s="35"/>
+      <c r="D166" s="83"/>
+      <c r="E166" s="5"/>
+      <c r="F166" s="95"/>
+      <c r="G166" s="39"/>
+      <c r="H166" s="11"/>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A167" s="34">
+      <c r="A167" s="29">
         <v>68</v>
       </c>
-      <c r="B167" s="52">
+      <c r="B167" s="45">
         <v>44513</v>
       </c>
-      <c r="C167" s="42">
+      <c r="C167" s="37">
         <v>3</v>
       </c>
-      <c r="D167" s="73" t="s">
+      <c r="D167" s="79" t="s">
         <v>300</v>
       </c>
-      <c r="E167" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F167" s="45" t="s">
+      <c r="E167" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F167" s="100" t="s">
         <v>302</v>
       </c>
-      <c r="G167" s="68" t="s">
-        <v>13</v>
-      </c>
-      <c r="H167" s="11" t="s">
+      <c r="G167" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="H167" s="10" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A168" s="35"/>
-      <c r="B168" s="54"/>
-      <c r="C168" s="40"/>
-      <c r="D168" s="57"/>
-      <c r="E168" s="6"/>
-      <c r="F168" s="44"/>
-      <c r="G168" s="44"/>
-      <c r="H168" s="12"/>
+      <c r="A168" s="30"/>
+      <c r="B168" s="47"/>
+      <c r="C168" s="35"/>
+      <c r="D168" s="83"/>
+      <c r="E168" s="5"/>
+      <c r="F168" s="95"/>
+      <c r="G168" s="39"/>
+      <c r="H168" s="11"/>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A169" s="34">
+      <c r="A169" s="29">
         <v>69</v>
       </c>
-      <c r="B169" s="52">
+      <c r="B169" s="45">
         <v>44514</v>
       </c>
-      <c r="C169" s="42">
+      <c r="C169" s="37">
         <v>1</v>
       </c>
-      <c r="D169" s="55" t="s">
+      <c r="D169" s="68" t="s">
         <v>303</v>
       </c>
-      <c r="E169" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F169" s="45" t="s">
+      <c r="E169" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F169" s="100" t="s">
         <v>305</v>
       </c>
-      <c r="G169" s="68" t="s">
-        <v>13</v>
-      </c>
-      <c r="H169" s="11" t="s">
+      <c r="G169" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="H169" s="10" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A170" s="35"/>
-      <c r="B170" s="54"/>
-      <c r="C170" s="40"/>
-      <c r="D170" s="57"/>
-      <c r="E170" s="6"/>
-      <c r="F170" s="44"/>
-      <c r="G170" s="44"/>
-      <c r="H170" s="12"/>
+      <c r="A170" s="30"/>
+      <c r="B170" s="47"/>
+      <c r="C170" s="35"/>
+      <c r="D170" s="83"/>
+      <c r="E170" s="5"/>
+      <c r="F170" s="95"/>
+      <c r="G170" s="39"/>
+      <c r="H170" s="11"/>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A171" s="34">
+      <c r="A171" s="29">
         <v>70</v>
       </c>
-      <c r="B171" s="52">
+      <c r="B171" s="45">
         <v>44515</v>
       </c>
-      <c r="C171" s="42">
+      <c r="C171" s="37">
         <v>2</v>
       </c>
-      <c r="D171" s="55" t="s">
+      <c r="D171" s="68" t="s">
         <v>306</v>
       </c>
-      <c r="E171" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F171" s="45" t="s">
+      <c r="E171" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F171" s="100" t="s">
         <v>308</v>
       </c>
-      <c r="G171" s="68" t="s">
-        <v>13</v>
-      </c>
-      <c r="H171" s="11" t="s">
+      <c r="G171" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="H171" s="10" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A172" s="36"/>
-      <c r="B172" s="53"/>
-      <c r="C172" s="41"/>
-      <c r="D172" s="56"/>
+      <c r="A172" s="31"/>
+      <c r="B172" s="46"/>
+      <c r="C172" s="36"/>
+      <c r="D172" s="69"/>
       <c r="E172" s="2"/>
-      <c r="F172" s="43"/>
-      <c r="G172" s="43"/>
-      <c r="H172" s="13"/>
+      <c r="F172" s="99"/>
+      <c r="G172" s="38"/>
+      <c r="H172" s="12"/>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A173" s="69">
+      <c r="A173" s="60">
         <v>71</v>
       </c>
-      <c r="B173" s="52">
+      <c r="B173" s="45">
         <v>44516</v>
       </c>
-      <c r="C173" s="34">
+      <c r="C173" s="29">
         <v>3</v>
       </c>
-      <c r="D173" s="55" t="s">
+      <c r="D173" s="68" t="s">
         <v>309</v>
       </c>
-      <c r="E173" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F173" s="45" t="s">
+      <c r="E173" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F173" s="100" t="s">
         <v>311</v>
       </c>
-      <c r="G173" s="58" t="s">
+      <c r="G173" s="51" t="s">
         <v>312</v>
       </c>
-      <c r="H173" s="11" t="s">
+      <c r="H173" s="10" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A174" s="70"/>
-      <c r="B174" s="53">
+      <c r="A174" s="61"/>
+      <c r="B174" s="46">
         <v>44516</v>
       </c>
-      <c r="C174" s="36">
+      <c r="C174" s="31">
         <v>1</v>
       </c>
-      <c r="D174" s="56" t="s">
+      <c r="D174" s="69" t="s">
         <v>313</v>
       </c>
       <c r="E174" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F174" s="43" t="s">
+      <c r="F174" s="99" t="s">
         <v>314</v>
       </c>
-      <c r="G174" s="43" t="s">
-        <v>13</v>
-      </c>
-      <c r="H174" s="13" t="s">
+      <c r="G174" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="H174" s="12" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A175" s="64"/>
-      <c r="B175" s="54"/>
-      <c r="C175" s="35"/>
-      <c r="D175" s="57"/>
-      <c r="E175" s="6"/>
-      <c r="F175" s="44"/>
-      <c r="G175" s="59"/>
-      <c r="H175" s="12"/>
+      <c r="A175" s="57"/>
+      <c r="B175" s="47"/>
+      <c r="C175" s="30"/>
+      <c r="D175" s="83"/>
+      <c r="E175" s="5"/>
+      <c r="F175" s="95"/>
+      <c r="G175" s="52"/>
+      <c r="H175" s="11"/>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A176" s="36">
+      <c r="A176" s="31">
         <v>72</v>
       </c>
-      <c r="B176" s="53">
+      <c r="B176" s="46">
         <v>44517</v>
       </c>
-      <c r="C176" s="41">
+      <c r="C176" s="36">
         <v>2</v>
       </c>
-      <c r="D176" s="55" t="s">
+      <c r="D176" s="68" t="s">
         <v>315</v>
       </c>
       <c r="E176" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F176" s="45" t="s">
+      <c r="F176" s="100" t="s">
         <v>317</v>
       </c>
-      <c r="G176" s="68" t="s">
-        <v>13</v>
-      </c>
-      <c r="H176" s="13" t="s">
+      <c r="G176" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="H176" s="12" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A177" s="36"/>
-      <c r="B177" s="53"/>
-      <c r="C177" s="41"/>
-      <c r="D177" s="56"/>
+      <c r="A177" s="31"/>
+      <c r="B177" s="46"/>
+      <c r="C177" s="36"/>
+      <c r="D177" s="69"/>
       <c r="E177" s="2"/>
-      <c r="F177" s="43"/>
-      <c r="G177" s="43"/>
-      <c r="H177" s="13"/>
+      <c r="F177" s="99"/>
+      <c r="G177" s="38"/>
+      <c r="H177" s="12"/>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A178" s="34">
+      <c r="A178" s="29">
         <v>73</v>
       </c>
-      <c r="B178" s="37">
+      <c r="B178" s="32">
         <v>44518</v>
       </c>
-      <c r="C178" s="42">
+      <c r="C178" s="37">
         <v>3</v>
       </c>
-      <c r="D178" s="9" t="s">
+      <c r="D178" s="75" t="s">
         <v>318</v>
       </c>
-      <c r="E178" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F178" s="45" t="s">
+      <c r="E178" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F178" s="100" t="s">
         <v>320</v>
       </c>
-      <c r="G178" s="45" t="s">
+      <c r="G178" s="40" t="s">
         <v>321</v>
       </c>
-      <c r="H178" s="11" t="s">
+      <c r="H178" s="10" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A179" s="36"/>
-      <c r="B179" s="39">
+      <c r="A179" s="31"/>
+      <c r="B179" s="34">
         <v>44518</v>
       </c>
-      <c r="C179" s="41">
+      <c r="C179" s="36">
         <v>1</v>
       </c>
-      <c r="D179" s="3" t="s">
+      <c r="D179" s="64" t="s">
         <v>322</v>
       </c>
       <c r="E179" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F179" s="43" t="s">
+      <c r="F179" s="99" t="s">
         <v>323</v>
       </c>
-      <c r="G179" s="43" t="s">
-        <v>13</v>
-      </c>
-      <c r="H179" s="13" t="s">
+      <c r="G179" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="H179" s="12" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A180" s="35"/>
-      <c r="B180" s="38"/>
-      <c r="C180" s="40"/>
-      <c r="D180" s="7"/>
-      <c r="E180" s="6"/>
-      <c r="F180" s="44"/>
-      <c r="G180" s="44"/>
-      <c r="H180" s="12"/>
+      <c r="A180" s="30"/>
+      <c r="B180" s="33"/>
+      <c r="C180" s="35"/>
+      <c r="D180" s="76"/>
+      <c r="E180" s="5"/>
+      <c r="F180" s="95"/>
+      <c r="G180" s="39"/>
+      <c r="H180" s="11"/>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A181" s="36">
+      <c r="A181" s="31">
         <v>74</v>
       </c>
-      <c r="B181" s="53">
+      <c r="B181" s="46">
         <v>44519</v>
       </c>
-      <c r="C181" s="41">
+      <c r="C181" s="36">
         <v>2</v>
       </c>
-      <c r="D181" s="9" t="s">
+      <c r="D181" s="75" t="s">
         <v>324</v>
       </c>
       <c r="E181" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F181" s="45" t="s">
+      <c r="F181" s="100" t="s">
         <v>326</v>
       </c>
-      <c r="G181" s="68" t="s">
-        <v>13</v>
-      </c>
-      <c r="H181" s="13" t="s">
+      <c r="G181" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="H181" s="12" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A182" s="35"/>
-      <c r="B182" s="54"/>
-      <c r="C182" s="40"/>
-      <c r="D182" s="57"/>
-      <c r="E182" s="6"/>
-      <c r="F182" s="44"/>
-      <c r="G182" s="44"/>
-      <c r="H182" s="12"/>
+      <c r="A182" s="30"/>
+      <c r="B182" s="47"/>
+      <c r="C182" s="35"/>
+      <c r="D182" s="83"/>
+      <c r="E182" s="5"/>
+      <c r="F182" s="95"/>
+      <c r="G182" s="39"/>
+      <c r="H182" s="11"/>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A183" s="34">
+      <c r="A183" s="29">
         <v>75</v>
       </c>
-      <c r="B183" s="52">
+      <c r="B183" s="45">
         <v>44520</v>
       </c>
-      <c r="C183" s="42">
+      <c r="C183" s="37">
         <v>1</v>
       </c>
-      <c r="D183" s="55" t="s">
+      <c r="D183" s="68" t="s">
         <v>327</v>
       </c>
-      <c r="E183" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F183" s="45" t="s">
+      <c r="E183" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F183" s="100" t="s">
         <v>329</v>
       </c>
-      <c r="G183" s="68" t="s">
-        <v>13</v>
-      </c>
-      <c r="H183" s="11" t="s">
+      <c r="G183" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="H183" s="10" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A184" s="35"/>
-      <c r="B184" s="54"/>
-      <c r="C184" s="40"/>
-      <c r="D184" s="57"/>
-      <c r="E184" s="6"/>
-      <c r="F184" s="44"/>
-      <c r="G184" s="44"/>
-      <c r="H184" s="12"/>
+      <c r="A184" s="30"/>
+      <c r="B184" s="47"/>
+      <c r="C184" s="35"/>
+      <c r="D184" s="83"/>
+      <c r="E184" s="5"/>
+      <c r="F184" s="95"/>
+      <c r="G184" s="39"/>
+      <c r="H184" s="11"/>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A185" s="34">
+      <c r="A185" s="29">
         <v>76</v>
       </c>
-      <c r="B185" s="52">
+      <c r="B185" s="45">
         <v>44521</v>
       </c>
-      <c r="C185" s="42">
+      <c r="C185" s="37">
         <v>2</v>
       </c>
-      <c r="D185" s="55" t="s">
+      <c r="D185" s="68" t="s">
         <v>330</v>
       </c>
-      <c r="E185" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F185" s="45" t="s">
+      <c r="E185" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F185" s="100" t="s">
         <v>332</v>
       </c>
-      <c r="G185" s="68" t="s">
-        <v>13</v>
-      </c>
-      <c r="H185" s="11" t="s">
+      <c r="G185" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="H185" s="10" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A186" s="35"/>
-      <c r="B186" s="54"/>
-      <c r="C186" s="40"/>
-      <c r="D186" s="57"/>
-      <c r="E186" s="6"/>
-      <c r="F186" s="44"/>
-      <c r="G186" s="44"/>
-      <c r="H186" s="12"/>
+      <c r="A186" s="30"/>
+      <c r="B186" s="47"/>
+      <c r="C186" s="35"/>
+      <c r="D186" s="83"/>
+      <c r="E186" s="5"/>
+      <c r="F186" s="95"/>
+      <c r="G186" s="39"/>
+      <c r="H186" s="11"/>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A187" s="34">
+      <c r="A187" s="29">
         <v>77</v>
       </c>
-      <c r="B187" s="52">
+      <c r="B187" s="45">
         <v>44522</v>
       </c>
-      <c r="C187" s="42">
+      <c r="C187" s="37">
         <v>1</v>
       </c>
-      <c r="D187" s="55" t="s">
+      <c r="D187" s="68" t="s">
         <v>333</v>
       </c>
-      <c r="E187" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F187" s="45" t="s">
+      <c r="E187" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F187" s="100" t="s">
         <v>335</v>
       </c>
-      <c r="G187" s="68" t="s">
-        <v>13</v>
-      </c>
-      <c r="H187" s="11" t="s">
+      <c r="G187" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="H187" s="10" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A188" s="35"/>
-      <c r="B188" s="54"/>
-      <c r="C188" s="40"/>
-      <c r="D188" s="57"/>
-      <c r="E188" s="6"/>
-      <c r="F188" s="44"/>
-      <c r="G188" s="44"/>
-      <c r="H188" s="13"/>
+      <c r="A188" s="30"/>
+      <c r="B188" s="47"/>
+      <c r="C188" s="35"/>
+      <c r="D188" s="83"/>
+      <c r="E188" s="5"/>
+      <c r="F188" s="95"/>
+      <c r="G188" s="39"/>
+      <c r="H188" s="12"/>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A189" s="34">
+      <c r="A189" s="29">
         <v>78</v>
       </c>
-      <c r="B189" s="52">
+      <c r="B189" s="45">
         <v>44523</v>
       </c>
-      <c r="C189" s="42">
+      <c r="C189" s="37">
         <v>2</v>
       </c>
-      <c r="D189" s="55" t="s">
+      <c r="D189" s="68" t="s">
         <v>336</v>
       </c>
-      <c r="E189" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F189" s="45" t="s">
+      <c r="E189" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F189" s="100" t="s">
         <v>338</v>
       </c>
-      <c r="G189" s="56" t="s">
+      <c r="G189" s="49" t="s">
         <v>339</v>
       </c>
-      <c r="H189" s="60" t="s">
+      <c r="H189" s="53" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A190" s="36"/>
-      <c r="B190" s="53">
+      <c r="A190" s="31"/>
+      <c r="B190" s="46">
         <v>44523</v>
       </c>
-      <c r="C190" s="41">
+      <c r="C190" s="36">
         <v>1</v>
       </c>
-      <c r="D190" s="56" t="s">
+      <c r="D190" s="69" t="s">
         <v>340</v>
       </c>
       <c r="E190" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F190" s="43" t="s">
+      <c r="F190" s="99" t="s">
         <v>341</v>
       </c>
-      <c r="G190" s="56" t="s">
-        <v>13</v>
-      </c>
-      <c r="H190" s="61" t="s">
+      <c r="G190" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="H190" s="54" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A191" s="35"/>
-      <c r="B191" s="54"/>
-      <c r="C191" s="40"/>
-      <c r="D191" s="56"/>
+      <c r="A191" s="30"/>
+      <c r="B191" s="47"/>
+      <c r="C191" s="35"/>
+      <c r="D191" s="69"/>
       <c r="E191" s="2"/>
-      <c r="F191" s="43"/>
-      <c r="G191" s="7"/>
-      <c r="H191" s="62"/>
+      <c r="F191" s="99"/>
+      <c r="G191" s="6"/>
+      <c r="H191" s="55"/>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A192" s="34">
+      <c r="A192" s="29">
         <v>79</v>
       </c>
-      <c r="B192" s="52">
+      <c r="B192" s="45">
         <v>44524</v>
       </c>
-      <c r="C192" s="65">
+      <c r="C192" s="58">
         <v>2</v>
       </c>
-      <c r="D192" s="55" t="s">
+      <c r="D192" s="68" t="s">
         <v>342</v>
       </c>
-      <c r="E192" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F192" s="45" t="s">
+      <c r="E192" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F192" s="100" t="s">
         <v>344</v>
       </c>
-      <c r="G192" s="43" t="s">
-        <v>13</v>
-      </c>
-      <c r="H192" s="13" t="s">
+      <c r="G192" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="H192" s="12" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A193" s="35"/>
-      <c r="B193" s="54"/>
-      <c r="C193" s="5"/>
-      <c r="D193" s="57"/>
-      <c r="E193" s="6"/>
-      <c r="F193" s="44"/>
-      <c r="G193" s="44"/>
-      <c r="H193" s="12"/>
+      <c r="A193" s="30"/>
+      <c r="B193" s="47"/>
+      <c r="C193" s="4"/>
+      <c r="D193" s="83"/>
+      <c r="E193" s="5"/>
+      <c r="F193" s="95"/>
+      <c r="G193" s="39"/>
+      <c r="H193" s="11"/>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A194" s="34">
+      <c r="A194" s="29">
         <v>80</v>
       </c>
-      <c r="B194" s="52">
+      <c r="B194" s="45">
         <v>44525</v>
       </c>
-      <c r="C194" s="42">
+      <c r="C194" s="37">
         <v>3</v>
       </c>
-      <c r="D194" s="55" t="s">
+      <c r="D194" s="68" t="s">
         <v>345</v>
       </c>
       <c r="E194" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F194" s="45" t="s">
+      <c r="F194" s="100" t="s">
         <v>347</v>
       </c>
-      <c r="G194" s="43" t="s">
-        <v>13</v>
-      </c>
-      <c r="H194" s="11" t="s">
+      <c r="G194" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="H194" s="10" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A195" s="35"/>
-      <c r="B195" s="54"/>
-      <c r="C195" s="40"/>
-      <c r="D195" s="57"/>
-      <c r="E195" s="6"/>
-      <c r="F195" s="44"/>
-      <c r="G195" s="44"/>
-      <c r="H195" s="12"/>
+      <c r="A195" s="30"/>
+      <c r="B195" s="47"/>
+      <c r="C195" s="35"/>
+      <c r="D195" s="83"/>
+      <c r="E195" s="5"/>
+      <c r="F195" s="95"/>
+      <c r="G195" s="39"/>
+      <c r="H195" s="11"/>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A196" s="34">
+      <c r="A196" s="29">
         <v>81</v>
       </c>
-      <c r="B196" s="52">
+      <c r="B196" s="45">
         <v>44526</v>
       </c>
-      <c r="C196" s="42">
+      <c r="C196" s="37">
         <v>1</v>
       </c>
-      <c r="D196" s="55" t="s">
+      <c r="D196" s="68" t="s">
         <v>348</v>
       </c>
-      <c r="E196" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F196" s="45"/>
-      <c r="G196" s="68"/>
-      <c r="H196" s="11"/>
+      <c r="E196" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F196" s="100" t="s">
+        <v>350</v>
+      </c>
+      <c r="G196" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="H196" s="10" t="s">
+        <v>349</v>
+      </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A197" s="35"/>
-      <c r="B197" s="54"/>
-      <c r="C197" s="40"/>
-      <c r="D197" s="57"/>
-      <c r="E197" s="6"/>
-      <c r="F197" s="44"/>
-      <c r="G197" s="44"/>
-      <c r="H197" s="12"/>
+      <c r="A197" s="30"/>
+      <c r="B197" s="47"/>
+      <c r="C197" s="35"/>
+      <c r="D197" s="83"/>
+      <c r="E197" s="5"/>
+      <c r="F197" s="95"/>
+      <c r="G197" s="39"/>
+      <c r="H197" s="11"/>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A198" s="34"/>
-      <c r="B198" s="52"/>
-      <c r="C198" s="42"/>
-      <c r="D198" s="55"/>
-      <c r="E198" s="10"/>
-      <c r="F198" s="45"/>
-      <c r="G198" s="68"/>
-      <c r="H198" s="11"/>
+      <c r="A198" s="29">
+        <v>82</v>
+      </c>
+      <c r="B198" s="45">
+        <v>44527</v>
+      </c>
+      <c r="C198" s="37">
+        <v>2</v>
+      </c>
+      <c r="D198" s="68" t="s">
+        <v>351</v>
+      </c>
+      <c r="E198" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F198" s="100" t="s">
+        <v>353</v>
+      </c>
+      <c r="G198" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="H198" s="10" t="s">
+        <v>352</v>
+      </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A199" s="35"/>
-      <c r="B199" s="54"/>
-      <c r="C199" s="40"/>
-      <c r="D199" s="57"/>
-      <c r="E199" s="6"/>
-      <c r="F199" s="44"/>
-      <c r="G199" s="44"/>
-      <c r="H199" s="12"/>
+      <c r="A199" s="30"/>
+      <c r="B199" s="47"/>
+      <c r="C199" s="35"/>
+      <c r="D199" s="83"/>
+      <c r="E199" s="5"/>
+      <c r="F199" s="95"/>
+      <c r="G199" s="39"/>
+      <c r="H199" s="11"/>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A200" s="34"/>
-      <c r="B200" s="52"/>
-      <c r="C200" s="42"/>
-      <c r="D200" s="55"/>
-      <c r="E200" s="10"/>
-      <c r="F200" s="45"/>
-      <c r="G200" s="68"/>
-      <c r="H200" s="11"/>
+      <c r="A200" s="29">
+        <v>83</v>
+      </c>
+      <c r="B200" s="45">
+        <v>44528</v>
+      </c>
+      <c r="C200" s="37">
+        <v>3</v>
+      </c>
+      <c r="D200" s="68" t="s">
+        <v>354</v>
+      </c>
+      <c r="E200" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F200" s="100" t="s">
+        <v>356</v>
+      </c>
+      <c r="G200" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="H200" s="10" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A201" s="35"/>
-      <c r="B201" s="54"/>
-      <c r="C201" s="40"/>
-      <c r="D201" s="57"/>
-      <c r="E201" s="6"/>
-      <c r="F201" s="44"/>
-      <c r="G201" s="44"/>
-      <c r="H201" s="12"/>
+      <c r="A201" s="30"/>
+      <c r="B201" s="47"/>
+      <c r="C201" s="35"/>
+      <c r="D201" s="83"/>
+      <c r="E201" s="5"/>
+      <c r="F201" s="95"/>
+      <c r="G201" s="39"/>
+      <c r="H201" s="11"/>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A202" s="34"/>
-      <c r="B202" s="52"/>
-      <c r="C202" s="42"/>
-      <c r="D202" s="55"/>
-      <c r="E202" s="10"/>
-      <c r="F202" s="45"/>
-      <c r="G202" s="68"/>
-      <c r="H202" s="11"/>
+      <c r="A202" s="29">
+        <v>84</v>
+      </c>
+      <c r="B202" s="45">
+        <v>44529</v>
+      </c>
+      <c r="C202" s="37">
+        <v>1</v>
+      </c>
+      <c r="D202" s="68" t="s">
+        <v>357</v>
+      </c>
+      <c r="E202" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F202" s="100"/>
+      <c r="G202" s="59"/>
+      <c r="H202" s="10"/>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A203" s="35"/>
-      <c r="B203" s="54"/>
-      <c r="C203" s="40"/>
-      <c r="D203" s="57"/>
-      <c r="E203" s="6"/>
-      <c r="F203" s="44"/>
-      <c r="G203" s="44"/>
-      <c r="H203" s="12"/>
+      <c r="A203" s="30"/>
+      <c r="B203" s="47"/>
+      <c r="C203" s="35"/>
+      <c r="D203" s="83"/>
+      <c r="E203" s="5"/>
+      <c r="F203" s="95"/>
+      <c r="G203" s="39"/>
+      <c r="H203" s="11"/>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A204" s="34"/>
-      <c r="B204" s="52"/>
-      <c r="C204" s="42"/>
-      <c r="D204" s="55"/>
-      <c r="E204" s="10"/>
-      <c r="F204" s="45"/>
-      <c r="G204" s="68"/>
-      <c r="H204" s="11"/>
+      <c r="A204" s="29"/>
+      <c r="B204" s="45"/>
+      <c r="C204" s="37"/>
+      <c r="D204" s="68"/>
+      <c r="E204" s="9"/>
+      <c r="F204" s="100"/>
+      <c r="G204" s="59"/>
+      <c r="H204" s="10"/>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A205" s="35"/>
-      <c r="B205" s="54"/>
-      <c r="C205" s="40"/>
-      <c r="D205" s="57"/>
-      <c r="E205" s="6"/>
-      <c r="F205" s="44"/>
-      <c r="G205" s="44"/>
-      <c r="H205" s="12"/>
+      <c r="A205" s="30"/>
+      <c r="B205" s="47"/>
+      <c r="C205" s="35"/>
+      <c r="D205" s="83"/>
+      <c r="E205" s="5"/>
+      <c r="F205" s="95"/>
+      <c r="G205" s="39"/>
+      <c r="H205" s="11"/>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A206" s="34"/>
-      <c r="B206" s="52"/>
-      <c r="C206" s="42"/>
-      <c r="D206" s="55"/>
-      <c r="E206" s="10"/>
-      <c r="F206" s="45"/>
-      <c r="G206" s="68"/>
-      <c r="H206" s="11"/>
+      <c r="A206" s="29"/>
+      <c r="B206" s="45"/>
+      <c r="C206" s="37"/>
+      <c r="D206" s="68"/>
+      <c r="E206" s="9"/>
+      <c r="F206" s="100"/>
+      <c r="G206" s="59"/>
+      <c r="H206" s="10"/>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A207" s="35"/>
-      <c r="B207" s="54"/>
-      <c r="C207" s="40"/>
-      <c r="D207" s="57"/>
-      <c r="E207" s="6"/>
-      <c r="F207" s="44"/>
-      <c r="G207" s="44"/>
-      <c r="H207" s="12"/>
+      <c r="A207" s="30"/>
+      <c r="B207" s="47"/>
+      <c r="C207" s="35"/>
+      <c r="D207" s="83"/>
+      <c r="E207" s="5"/>
+      <c r="F207" s="95"/>
+      <c r="G207" s="39"/>
+      <c r="H207" s="11"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/TS Jatai Working/TTD Krama PaaraayaNam-Kramam.xlsx
+++ b/TS Jatai Working/TTD Krama PaaraayaNam-Kramam.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="364">
   <si>
     <t>Date</t>
   </si>
@@ -1088,6 +1088,24 @@
   </si>
   <si>
     <t>7.5.1.1</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=968TnM5DqYk&amp;list=PLjhrDIztP9pcSE8dR7xYZb7zwX5SXxNKy&amp;index=58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5.6.4 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5.7.1 </t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=djOQrMt6b20&amp;list=PLjhrDIztP9pcSE8dR7xYZb7zwX5SXxNKy&amp;index=57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5.25.2 </t>
+  </si>
+  <si>
+    <t>KRAMA PAARAAYAM ENDS HERE</t>
   </si>
 </sst>
 </file>
@@ -1280,7 +1298,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1548,6 +1566,9 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1858,7 +1879,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A197" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H201" sqref="H201"/>
+      <selection pane="bottomLeft" activeCell="F207" sqref="F207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -5758,9 +5779,15 @@
       <c r="E202" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F202" s="100"/>
-      <c r="G202" s="59"/>
-      <c r="H202" s="10"/>
+      <c r="F202" s="100" t="s">
+        <v>359</v>
+      </c>
+      <c r="G202" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="H202" s="10" t="s">
+        <v>358</v>
+      </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" s="30"/>
@@ -5773,14 +5800,30 @@
       <c r="H203" s="11"/>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A204" s="29"/>
-      <c r="B204" s="45"/>
-      <c r="C204" s="37"/>
-      <c r="D204" s="68"/>
-      <c r="E204" s="9"/>
-      <c r="F204" s="100"/>
-      <c r="G204" s="59"/>
-      <c r="H204" s="10"/>
+      <c r="A204" s="29">
+        <v>85</v>
+      </c>
+      <c r="B204" s="45">
+        <v>44530</v>
+      </c>
+      <c r="C204" s="37">
+        <v>2</v>
+      </c>
+      <c r="D204" s="68" t="s">
+        <v>360</v>
+      </c>
+      <c r="E204" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F204" s="100" t="s">
+        <v>362</v>
+      </c>
+      <c r="G204" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="H204" s="10" t="s">
+        <v>361</v>
+      </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205" s="30"/>
@@ -5792,25 +5835,13 @@
       <c r="G205" s="39"/>
       <c r="H205" s="11"/>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A206" s="29"/>
-      <c r="B206" s="45"/>
-      <c r="C206" s="37"/>
-      <c r="D206" s="68"/>
-      <c r="E206" s="9"/>
-      <c r="F206" s="100"/>
-      <c r="G206" s="59"/>
-      <c r="H206" s="10"/>
-    </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A207" s="30"/>
-      <c r="B207" s="47"/>
-      <c r="C207" s="35"/>
-      <c r="D207" s="83"/>
-      <c r="E207" s="5"/>
-      <c r="F207" s="95"/>
-      <c r="G207" s="39"/>
-      <c r="H207" s="11"/>
+      <c r="B207" s="64"/>
+      <c r="C207" s="82" t="s">
+        <v>363</v>
+      </c>
+      <c r="D207" s="2"/>
+      <c r="E207" s="102"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/TS Jatai Working/TTD Krama PaaraayaNam-Kramam.xlsx
+++ b/TS Jatai Working/TTD Krama PaaraayaNam-Kramam.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24729"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0097E86C-A1A2-4639-9BBE-45C99B6AB161}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Kandam1 to 7" sheetId="1" r:id="rId1"/>
@@ -1111,7 +1112,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1664,6 +1665,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1699,6 +1717,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1874,11 +1909,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L207"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A197" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F207" sqref="F207"/>
     </sheetView>
   </sheetViews>
@@ -5845,8 +5880,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H24" r:id="rId1"/>
-    <hyperlink ref="H31" r:id="rId2"/>
+    <hyperlink ref="H24" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="H31" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId3"/>
